--- a/France National 3/France National 3.xlsx
+++ b/France National 3/France National 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="226">
   <si>
     <t>id</t>
   </si>
@@ -142,13 +142,13 @@
     <t>AS Quetigny</t>
   </si>
   <si>
-    <t>AG Caennaise</t>
-  </si>
-  <si>
     <t>Le Havre II</t>
   </si>
   <si>
     <t>Libourne</t>
+  </si>
+  <si>
+    <t>AG Caennaise</t>
   </si>
   <si>
     <t>Nice II</t>
@@ -319,10 +319,10 @@
     <t>ASPTT Dijon</t>
   </si>
   <si>
-    <t>Stade Plabennecois</t>
+    <t>Entente SCM</t>
   </si>
   <si>
-    <t>Entente SCM</t>
+    <t>Stade Plabennecois</t>
   </si>
   <si>
     <t>AS Montlouis</t>
@@ -382,10 +382,10 @@
     <t>US Orleans II</t>
   </si>
   <si>
-    <t>US Chateauneuf sur Loire</t>
+    <t>Metz II</t>
   </si>
   <si>
-    <t>Metz II</t>
+    <t>US Chateauneuf sur Loire</t>
   </si>
   <si>
     <t>Vitry CA</t>
@@ -449,12 +449,6 @@
   </si>
   <si>
     <t>Bourges Moulon</t>
-  </si>
-  <si>
-    <t>Compiegne</t>
-  </si>
-  <si>
-    <t>LinasMontlhery</t>
   </si>
   <si>
     <t>Poire Sur Vie</t>
@@ -556,6 +550,9 @@
     <t>Lambresienne</t>
   </si>
   <si>
+    <t>Compiegne</t>
+  </si>
+  <si>
     <t>Bieshiem</t>
   </si>
   <si>
@@ -616,6 +613,9 @@
     <t>Bourges 18</t>
   </si>
   <si>
+    <t>LinasMontlhery</t>
+  </si>
+  <si>
     <t>Vendee Fontenay</t>
   </si>
   <si>
@@ -655,10 +655,10 @@
     <t>Mainvilliers</t>
   </si>
   <si>
-    <t>Union Cosnoise Sportive</t>
+    <t>Fougeres</t>
   </si>
   <si>
-    <t>Fougeres</t>
+    <t>Union Cosnoise Sportive</t>
   </si>
   <si>
     <t>SaintPaulSport</t>
@@ -683,9 +683,6 @@
   </si>
   <si>
     <t>US Pays de Cassel</t>
-  </si>
-  <si>
-    <t>St Ouen Aumone</t>
   </si>
   <si>
     <t>H</t>
@@ -1056,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC323"/>
+  <dimension ref="A1:AC313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1168,7 +1165,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1177,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K2">
         <v>4.333</v>
@@ -1266,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K3">
         <v>1.727</v>
@@ -1355,7 +1352,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K4">
         <v>2.4</v>
@@ -1444,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K5">
         <v>2.25</v>
@@ -1533,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K6">
         <v>1.909</v>
@@ -1622,7 +1619,7 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K7">
         <v>2.1</v>
@@ -1702,7 +1699,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1711,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K8">
         <v>1.909</v>
@@ -1800,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K9">
         <v>2.375</v>
@@ -1889,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K10">
         <v>3.2</v>
@@ -1969,7 +1966,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1978,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -2067,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K12">
         <v>2.2</v>
@@ -2147,7 +2144,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -2156,7 +2153,7 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K13">
         <v>1.4</v>
@@ -2245,7 +2242,7 @@
         <v>4</v>
       </c>
       <c r="J14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K14">
         <v>9</v>
@@ -2310,7 +2307,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6319441</v>
+        <v>6319442</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -2325,73 +2322,73 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K15">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="N15">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q15">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2399,7 +2396,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6319442</v>
+        <v>6319461</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2414,58 +2411,58 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K16">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M16">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N16">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P16">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R16">
+        <v>1.95</v>
+      </c>
+      <c r="S16">
         <v>1.85</v>
       </c>
-      <c r="S16">
+      <c r="T16">
+        <v>2.25</v>
+      </c>
+      <c r="U16">
+        <v>1.85</v>
+      </c>
+      <c r="V16">
         <v>1.95</v>
       </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
-      <c r="U16">
-        <v>2</v>
-      </c>
-      <c r="V16">
-        <v>1.8</v>
-      </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X16">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
@@ -2474,13 +2471,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>0.475</v>
+        <v>0.425</v>
       </c>
       <c r="AB16">
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2488,7 +2485,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6319461</v>
+        <v>6319441</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2503,73 +2500,73 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="I17">
+      <c r="J17" t="s">
+        <v>223</v>
+      </c>
+      <c r="K17">
+        <v>1.333</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>1.333</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <v>6.5</v>
+      </c>
+      <c r="Q17">
+        <v>-1.5</v>
+      </c>
+      <c r="R17">
+        <v>1.9</v>
+      </c>
+      <c r="S17">
+        <v>1.9</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <v>1.95</v>
+      </c>
+      <c r="V17">
+        <v>1.85</v>
+      </c>
+      <c r="W17">
+        <v>0.333</v>
+      </c>
+      <c r="X17">
+        <v>-1</v>
+      </c>
+      <c r="Y17">
+        <v>-1</v>
+      </c>
+      <c r="Z17">
+        <v>-1</v>
+      </c>
+      <c r="AA17">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
-        <v>224</v>
-      </c>
-      <c r="K17">
-        <v>1.4</v>
-      </c>
-      <c r="L17">
-        <v>4.5</v>
-      </c>
-      <c r="M17">
-        <v>5.5</v>
-      </c>
-      <c r="N17">
-        <v>1.4</v>
-      </c>
-      <c r="O17">
-        <v>4.333</v>
-      </c>
-      <c r="P17">
-        <v>5.75</v>
-      </c>
-      <c r="Q17">
-        <v>-1.25</v>
-      </c>
-      <c r="R17">
-        <v>1.95</v>
-      </c>
-      <c r="S17">
-        <v>1.85</v>
-      </c>
-      <c r="T17">
-        <v>2.25</v>
-      </c>
-      <c r="U17">
-        <v>1.85</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
-      <c r="W17">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
-      <c r="Y17">
-        <v>-1</v>
-      </c>
-      <c r="Z17">
-        <v>-0.5</v>
-      </c>
-      <c r="AA17">
-        <v>0.425</v>
-      </c>
-      <c r="AB17">
-        <v>-1</v>
-      </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2592,7 +2589,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2601,7 +2598,7 @@
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K18">
         <v>3.4</v>
@@ -2681,7 +2678,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2690,7 +2687,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K19">
         <v>4</v>
@@ -2770,7 +2767,7 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2779,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K20">
         <v>2.375</v>
@@ -2859,7 +2856,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2868,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K21">
         <v>2.875</v>
@@ -2948,7 +2945,7 @@
         <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2957,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K22">
         <v>2.1</v>
@@ -3037,7 +3034,7 @@
         <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -3046,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K23">
         <v>1.8</v>
@@ -3135,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K24">
         <v>1.4</v>
@@ -3224,7 +3221,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -3304,7 +3301,7 @@
         <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -3313,7 +3310,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K26">
         <v>2.875</v>
@@ -3402,7 +3399,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K27">
         <v>1.909</v>
@@ -3491,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K28">
         <v>2.25</v>
@@ -3571,7 +3568,7 @@
         <v>54</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3580,7 +3577,7 @@
         <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K29">
         <v>4.5</v>
@@ -3660,7 +3657,7 @@
         <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3669,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3758,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K31">
         <v>1.65</v>
@@ -3847,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K32">
         <v>2.3</v>
@@ -3936,7 +3933,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K33">
         <v>1.4</v>
@@ -4016,7 +4013,7 @@
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -4025,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K34">
         <v>3.3</v>
@@ -4114,7 +4111,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K35">
         <v>3.6</v>
@@ -4194,7 +4191,7 @@
         <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -4203,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K36">
         <v>1.363</v>
@@ -4292,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K37">
         <v>6</v>
@@ -4381,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K38">
         <v>2.25</v>
@@ -4461,7 +4458,7 @@
         <v>63</v>
       </c>
       <c r="G39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -4470,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K39">
         <v>2.25</v>
@@ -4550,7 +4547,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -4559,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K40">
         <v>2.2</v>
@@ -4639,7 +4636,7 @@
         <v>51</v>
       </c>
       <c r="G41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4648,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4737,7 +4734,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K42">
         <v>1.8</v>
@@ -4817,7 +4814,7 @@
         <v>50</v>
       </c>
       <c r="G43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4826,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K43">
         <v>1.833</v>
@@ -4915,7 +4912,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K44">
         <v>2.6</v>
@@ -4980,7 +4977,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6441445</v>
+        <v>6441444</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4992,49 +4989,49 @@
         <v>45010.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>225</v>
+      </c>
+      <c r="K45">
+        <v>2.375</v>
+      </c>
+      <c r="L45">
+        <v>3.1</v>
+      </c>
+      <c r="M45">
+        <v>2.7</v>
+      </c>
+      <c r="N45">
+        <v>2.375</v>
+      </c>
+      <c r="O45">
+        <v>3.1</v>
+      </c>
+      <c r="P45">
+        <v>2.7</v>
+      </c>
+      <c r="Q45">
         <v>0</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45" t="s">
-        <v>226</v>
-      </c>
-      <c r="K45">
-        <v>1.6</v>
-      </c>
-      <c r="L45">
-        <v>3.5</v>
-      </c>
-      <c r="M45">
-        <v>5</v>
-      </c>
-      <c r="N45">
-        <v>1.6</v>
-      </c>
-      <c r="O45">
-        <v>3.5</v>
-      </c>
-      <c r="P45">
-        <v>5</v>
-      </c>
-      <c r="Q45">
-        <v>-0.75</v>
-      </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
         <v>1.95</v>
@@ -5046,16 +5043,16 @@
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -5069,7 +5066,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6441444</v>
+        <v>6441445</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -5081,49 +5078,49 @@
         <v>45010.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G46" t="s">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K46">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="L46">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N46">
-        <v>2.375</v>
+        <v>1.6</v>
       </c>
       <c r="O46">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P46">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
         <v>1.95</v>
@@ -5135,16 +5132,16 @@
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
@@ -5173,7 +5170,7 @@
         <v>66</v>
       </c>
       <c r="G47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -5182,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K47">
         <v>1.909</v>
@@ -5262,7 +5259,7 @@
         <v>47</v>
       </c>
       <c r="G48" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -5271,7 +5268,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K48">
         <v>2.1</v>
@@ -5351,7 +5348,7 @@
         <v>67</v>
       </c>
       <c r="G49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -5360,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K49">
         <v>2.3</v>
@@ -5449,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K50">
         <v>4</v>
@@ -5538,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K51">
         <v>2.1</v>
@@ -5627,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K52">
         <v>2.1</v>
@@ -5707,7 +5704,7 @@
         <v>70</v>
       </c>
       <c r="G53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5716,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K53">
         <v>1.4</v>
@@ -5805,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K54">
         <v>3.5</v>
@@ -5885,7 +5882,7 @@
         <v>50</v>
       </c>
       <c r="G55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5894,7 +5891,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K55">
         <v>2.2</v>
@@ -5974,7 +5971,7 @@
         <v>72</v>
       </c>
       <c r="G56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5983,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K56">
         <v>3.25</v>
@@ -6072,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K57">
         <v>2.3</v>
@@ -6161,7 +6158,7 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K58">
         <v>2.2</v>
@@ -6250,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K59">
         <v>3.75</v>
@@ -6339,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K60">
         <v>4.75</v>
@@ -6428,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K61">
         <v>2.3</v>
@@ -6517,7 +6514,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K62">
         <v>1.727</v>
@@ -6606,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K63">
         <v>2.25</v>
@@ -6695,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K64">
         <v>2.4</v>
@@ -6775,7 +6772,7 @@
         <v>77</v>
       </c>
       <c r="G65" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6784,7 +6781,7 @@
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K65">
         <v>1.75</v>
@@ -6864,7 +6861,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6873,7 +6870,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K66">
         <v>2.05</v>
@@ -6953,7 +6950,7 @@
         <v>79</v>
       </c>
       <c r="G67" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6962,7 +6959,7 @@
         <v>4</v>
       </c>
       <c r="J67" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K67">
         <v>3.6</v>
@@ -7051,7 +7048,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K68">
         <v>2.8</v>
@@ -7131,7 +7128,7 @@
         <v>51</v>
       </c>
       <c r="G69" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -7140,7 +7137,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K69">
         <v>2.8</v>
@@ -7220,7 +7217,7 @@
         <v>63</v>
       </c>
       <c r="G70" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -7229,7 +7226,7 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K70">
         <v>1.45</v>
@@ -7318,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K71">
         <v>2.55</v>
@@ -7398,7 +7395,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -7407,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K72">
         <v>1.727</v>
@@ -7496,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K73">
         <v>1.666</v>
@@ -7576,7 +7573,7 @@
         <v>81</v>
       </c>
       <c r="G74" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7585,7 +7582,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K74">
         <v>1.571</v>
@@ -7665,7 +7662,7 @@
         <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7674,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -7754,7 +7751,7 @@
         <v>50</v>
       </c>
       <c r="G76" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7763,7 +7760,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K76">
         <v>2.5</v>
@@ -7852,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K77">
         <v>2.6</v>
@@ -7941,7 +7938,7 @@
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K78">
         <v>2.2</v>
@@ -8030,7 +8027,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K79">
         <v>1.615</v>
@@ -8110,7 +8107,7 @@
         <v>84</v>
       </c>
       <c r="G80" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -8119,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K80">
         <v>6.5</v>
@@ -8184,7 +8181,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6698008</v>
+        <v>6699037</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -8196,76 +8193,76 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="G81" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
         <v>0</v>
       </c>
-      <c r="I81">
-        <v>4</v>
-      </c>
       <c r="J81" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K81">
-        <v>2.1</v>
+        <v>1.222</v>
       </c>
       <c r="L81">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="M81">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N81">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="O81">
+        <v>5.5</v>
+      </c>
+      <c r="P81">
+        <v>8</v>
+      </c>
+      <c r="Q81">
+        <v>-2</v>
+      </c>
+      <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="S81">
+        <v>1.8</v>
+      </c>
+      <c r="T81">
         <v>3.5</v>
       </c>
-      <c r="P81">
-        <v>3.8</v>
-      </c>
-      <c r="Q81">
-        <v>-0.75</v>
-      </c>
-      <c r="R81">
-        <v>1.975</v>
-      </c>
-      <c r="S81">
-        <v>1.825</v>
-      </c>
-      <c r="T81">
-        <v>3</v>
-      </c>
       <c r="U81">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA81">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -8273,7 +8270,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6699037</v>
+        <v>6698008</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -8285,76 +8282,76 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J82" t="s">
         <v>224</v>
       </c>
       <c r="K82">
-        <v>1.222</v>
+        <v>2.1</v>
       </c>
       <c r="L82">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="M82">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N82">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="O82">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P82">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="Q82">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
+        <v>1.825</v>
+      </c>
+      <c r="T82">
+        <v>3</v>
+      </c>
+      <c r="U82">
         <v>1.8</v>
       </c>
-      <c r="T82">
-        <v>3.5</v>
-      </c>
-      <c r="U82">
-        <v>1.95</v>
-      </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W82">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8377,7 +8374,7 @@
         <v>48</v>
       </c>
       <c r="G83" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="H83">
         <v>3</v>
@@ -8386,7 +8383,7 @@
         <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K83">
         <v>1.833</v>
@@ -8475,7 +8472,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K84">
         <v>1.4</v>
@@ -8555,7 +8552,7 @@
         <v>63</v>
       </c>
       <c r="G85" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8564,7 +8561,7 @@
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K85">
         <v>3.4</v>
@@ -8644,7 +8641,7 @@
         <v>67</v>
       </c>
       <c r="G86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8653,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K86">
         <v>3.2</v>
@@ -8742,7 +8739,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K87">
         <v>1.909</v>
@@ -8831,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K88">
         <v>1.95</v>
@@ -8911,7 +8908,7 @@
         <v>87</v>
       </c>
       <c r="G89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H89">
         <v>6</v>
@@ -8920,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K89">
         <v>1.181</v>
@@ -9000,7 +8997,7 @@
         <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -9009,7 +9006,7 @@
         <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K90">
         <v>3</v>
@@ -9098,7 +9095,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K91">
         <v>1.285</v>
@@ -9178,7 +9175,7 @@
         <v>88</v>
       </c>
       <c r="G92" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -9187,7 +9184,7 @@
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K92">
         <v>2.5</v>
@@ -9276,7 +9273,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K93">
         <v>3.5</v>
@@ -9365,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K94">
         <v>2.9</v>
@@ -9445,7 +9442,7 @@
         <v>89</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9454,7 +9451,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K95">
         <v>2.25</v>
@@ -9534,7 +9531,7 @@
         <v>90</v>
       </c>
       <c r="G96" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H96">
         <v>5</v>
@@ -9543,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K96">
         <v>1.8</v>
@@ -9632,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K97">
         <v>1.666</v>
@@ -9721,7 +9718,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K98">
         <v>1.909</v>
@@ -9810,7 +9807,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K99">
         <v>2.25</v>
@@ -9875,7 +9872,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7125570</v>
+        <v>7125571</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9887,76 +9884,76 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G100" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>223</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>3.6</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100">
+        <v>3.6</v>
+      </c>
+      <c r="P100">
+        <v>2</v>
+      </c>
+      <c r="Q100">
+        <v>0.25</v>
+      </c>
+      <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
+        <v>1.8</v>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
+        <v>1.95</v>
+      </c>
+      <c r="V100">
+        <v>1.85</v>
+      </c>
+      <c r="W100">
+        <v>2</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
         <v>1</v>
       </c>
-      <c r="J100" t="s">
-        <v>224</v>
-      </c>
-      <c r="K100">
-        <v>4.333</v>
-      </c>
-      <c r="L100">
-        <v>3.3</v>
-      </c>
-      <c r="M100">
-        <v>1.727</v>
-      </c>
-      <c r="N100">
-        <v>4.333</v>
-      </c>
-      <c r="O100">
-        <v>3.4</v>
-      </c>
-      <c r="P100">
-        <v>1.727</v>
-      </c>
-      <c r="Q100">
-        <v>0.75</v>
-      </c>
-      <c r="R100">
-        <v>1.825</v>
-      </c>
-      <c r="S100">
-        <v>1.975</v>
-      </c>
-      <c r="T100">
-        <v>2.75</v>
-      </c>
-      <c r="U100">
-        <v>1.925</v>
-      </c>
-      <c r="V100">
-        <v>1.775</v>
-      </c>
-      <c r="W100">
-        <v>3.333</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
-      <c r="Y100">
-        <v>-1</v>
-      </c>
-      <c r="Z100">
-        <v>0.825</v>
-      </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9964,7 +9961,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7125571</v>
+        <v>7125570</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9976,58 +9973,58 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="G101" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
         <v>1</v>
       </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
       <c r="J101" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K101">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="L101">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M101">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N101">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="O101">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P101">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V101">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W101">
-        <v>2</v>
+        <v>3.333</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -10036,16 +10033,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC101">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -10077,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K102">
         <v>2.3</v>
@@ -10166,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K103">
         <v>1.5</v>
@@ -10246,7 +10243,7 @@
         <v>95</v>
       </c>
       <c r="G104" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -10255,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K104">
         <v>1.285</v>
@@ -10335,7 +10332,7 @@
         <v>96</v>
       </c>
       <c r="G105" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -10344,7 +10341,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K105">
         <v>3.2</v>
@@ -10409,7 +10406,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7152840</v>
+        <v>7152573</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10421,61 +10418,61 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K106">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M106">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="N106">
-        <v>1.95</v>
+        <v>1.25</v>
       </c>
       <c r="O106">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P106">
-        <v>3.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R106">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S106">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T106">
         <v>2.75</v>
       </c>
       <c r="U106">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X106">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
@@ -10484,13 +10481,13 @@
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10498,7 +10495,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7152573</v>
+        <v>7152572</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10510,40 +10507,40 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F107" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="G107" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K107">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="L107">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M107">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="N107">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="O107">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>9.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q107">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
         <v>1.975</v>
@@ -10555,13 +10552,13 @@
         <v>2.75</v>
       </c>
       <c r="U107">
+        <v>1.95</v>
+      </c>
+      <c r="V107">
         <v>1.85</v>
       </c>
-      <c r="V107">
-        <v>1.95</v>
-      </c>
       <c r="W107">
-        <v>0.25</v>
+        <v>0.909</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10570,16 +10567,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA107">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10587,7 +10584,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7152572</v>
+        <v>7152840</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10599,76 +10596,76 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F108" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K108">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L108">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N108">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q108">
         <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
         <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W108">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10700,7 +10697,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K109">
         <v>3.25</v>
@@ -10789,7 +10786,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K110">
         <v>1.4</v>
@@ -10878,7 +10875,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K111">
         <v>2.2</v>
@@ -10955,10 +10952,10 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F112" t="s">
+        <v>44</v>
+      </c>
+      <c r="G112" t="s">
         <v>42</v>
-      </c>
-      <c r="G112" t="s">
-        <v>43</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10967,7 +10964,7 @@
         <v>5</v>
       </c>
       <c r="J112" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K112">
         <v>2.375</v>
@@ -11056,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K113">
         <v>2.2</v>
@@ -11121,7 +11118,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7181936</v>
+        <v>7181935</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -11133,58 +11130,58 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F114" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="G114" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="H114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K114">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L114">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M114">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O114">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P114">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q114">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S114">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T114">
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V114">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -11193,16 +11190,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -11210,7 +11207,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7184490</v>
+        <v>7181936</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -11222,34 +11219,34 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G115" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K115">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="L115">
         <v>3.6</v>
       </c>
       <c r="M115">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="N115">
         <v>3</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P115">
         <v>2</v>
@@ -11258,19 +11255,19 @@
         <v>0.25</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W115">
         <v>2</v>
@@ -11282,13 +11279,13 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -11299,7 +11296,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7181937</v>
+        <v>7184490</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -11311,76 +11308,76 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G116" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K116">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M116">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O116">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R116">
+        <v>2</v>
+      </c>
+      <c r="S116">
         <v>1.8</v>
       </c>
-      <c r="S116">
-        <v>2</v>
-      </c>
       <c r="T116">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X116">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA116">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11388,7 +11385,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7181935</v>
+        <v>7181937</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -11400,19 +11397,19 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F117" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="G117" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="H117">
         <v>1</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K117">
         <v>2</v>
@@ -11445,31 +11442,31 @@
         <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11492,7 +11489,7 @@
         <v>50</v>
       </c>
       <c r="G118" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11501,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K118">
         <v>1.666</v>
@@ -11581,7 +11578,7 @@
         <v>64</v>
       </c>
       <c r="G119" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11590,7 +11587,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K119">
         <v>2.875</v>
@@ -11655,7 +11652,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7181884</v>
+        <v>7181702</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11670,7 +11667,7 @@
         <v>101</v>
       </c>
       <c r="G120" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11679,61 +11676,61 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K120">
+        <v>3.8</v>
+      </c>
+      <c r="L120">
         <v>3.6</v>
       </c>
-      <c r="L120">
-        <v>3.4</v>
-      </c>
       <c r="M120">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="N120">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="O120">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="Q120">
+        <v>0.75</v>
+      </c>
+      <c r="R120">
+        <v>1.8</v>
+      </c>
+      <c r="S120">
+        <v>2</v>
+      </c>
+      <c r="T120">
+        <v>2.5</v>
+      </c>
+      <c r="U120">
+        <v>2</v>
+      </c>
+      <c r="V120">
+        <v>1.8</v>
+      </c>
+      <c r="W120">
+        <v>-1</v>
+      </c>
+      <c r="X120">
+        <v>-1</v>
+      </c>
+      <c r="Y120">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Z120">
+        <v>-0.5</v>
+      </c>
+      <c r="AA120">
+        <v>0.5</v>
+      </c>
+      <c r="AB120">
         <v>1</v>
-      </c>
-      <c r="R120">
-        <v>1.95</v>
-      </c>
-      <c r="S120">
-        <v>1.85</v>
-      </c>
-      <c r="T120">
-        <v>2.75</v>
-      </c>
-      <c r="U120">
-        <v>1.875</v>
-      </c>
-      <c r="V120">
-        <v>1.925</v>
-      </c>
-      <c r="W120">
-        <v>-1</v>
-      </c>
-      <c r="X120">
-        <v>-1</v>
-      </c>
-      <c r="Y120">
-        <v>0.45</v>
-      </c>
-      <c r="Z120">
-        <v>0</v>
-      </c>
-      <c r="AA120">
-        <v>-0</v>
-      </c>
-      <c r="AB120">
-        <v>0.875</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11744,7 +11741,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7181702</v>
+        <v>7181884</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11759,7 +11756,7 @@
         <v>102</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11768,43 +11765,43 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K121">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L121">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="N121">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="O121">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P121">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="Q121">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R121">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V121">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11813,16 +11810,16 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0.7270000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="Z121">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA121">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB121">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11848,7 +11845,7 @@
         <v>103</v>
       </c>
       <c r="G122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11857,7 +11854,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K122">
         <v>2.25</v>
@@ -11937,7 +11934,7 @@
         <v>104</v>
       </c>
       <c r="G123" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11946,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -12035,7 +12032,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K124">
         <v>2.25</v>
@@ -12115,7 +12112,7 @@
         <v>105</v>
       </c>
       <c r="G125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -12124,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K125">
         <v>10</v>
@@ -12213,7 +12210,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K126">
         <v>3.5</v>
@@ -12293,7 +12290,7 @@
         <v>87</v>
       </c>
       <c r="G127" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12302,7 +12299,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K127">
         <v>2.3</v>
@@ -12391,7 +12388,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K128">
         <v>1.8</v>
@@ -12471,7 +12468,7 @@
         <v>64</v>
       </c>
       <c r="G129" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12480,7 +12477,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K129">
         <v>2.25</v>
@@ -12569,7 +12566,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K130">
         <v>2.8</v>
@@ -12649,7 +12646,7 @@
         <v>107</v>
       </c>
       <c r="G131" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12658,7 +12655,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K131">
         <v>2.1</v>
@@ -12738,7 +12735,7 @@
         <v>108</v>
       </c>
       <c r="G132" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12747,7 +12744,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K132">
         <v>3.8</v>
@@ -12836,7 +12833,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K133">
         <v>2.25</v>
@@ -12916,7 +12913,7 @@
         <v>109</v>
       </c>
       <c r="G134" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12925,7 +12922,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K134">
         <v>2.2</v>
@@ -13014,7 +13011,7 @@
         <v>4</v>
       </c>
       <c r="J135" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K135">
         <v>2.4</v>
@@ -13094,7 +13091,7 @@
         <v>60</v>
       </c>
       <c r="G136" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -13103,7 +13100,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K136">
         <v>1.8</v>
@@ -13192,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K137">
         <v>2.5</v>
@@ -13272,7 +13269,7 @@
         <v>110</v>
       </c>
       <c r="G138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -13281,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K138">
         <v>1.727</v>
@@ -13361,7 +13358,7 @@
         <v>111</v>
       </c>
       <c r="G139" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13370,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K139">
         <v>2.25</v>
@@ -13435,7 +13432,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7305026</v>
+        <v>7305041</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -13447,46 +13444,46 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="G140" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K140">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L140">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M140">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N140">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O140">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P140">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T140">
         <v>2.25</v>
@@ -13498,25 +13495,25 @@
         <v>1.975</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X140">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13524,7 +13521,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7305041</v>
+        <v>7305026</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13536,46 +13533,46 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F141" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="G141" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K141">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L141">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M141">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N141">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O141">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R141">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T141">
         <v>2.25</v>
@@ -13587,25 +13584,25 @@
         <v>1.975</v>
       </c>
       <c r="W141">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB141">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13637,7 +13634,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K142">
         <v>2.05</v>
@@ -13717,7 +13714,7 @@
         <v>96</v>
       </c>
       <c r="G143" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13726,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K143">
         <v>2.375</v>
@@ -13806,7 +13803,7 @@
         <v>91</v>
       </c>
       <c r="G144" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -13815,7 +13812,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K144">
         <v>2.2</v>
@@ -13904,7 +13901,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K145">
         <v>1.85</v>
@@ -13993,7 +13990,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K146">
         <v>2.2</v>
@@ -14073,7 +14070,7 @@
         <v>113</v>
       </c>
       <c r="G147" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -14082,7 +14079,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K147">
         <v>3.1</v>
@@ -14171,7 +14168,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K148">
         <v>2.25</v>
@@ -14260,7 +14257,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K149">
         <v>3.8</v>
@@ -14349,7 +14346,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K150">
         <v>3.8</v>
@@ -14438,7 +14435,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K151">
         <v>4.5</v>
@@ -14503,7 +14500,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7365845</v>
+        <v>7366017</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14515,76 +14512,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="G152" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K152">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L152">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M152">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="N152">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O152">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P152">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q152">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S152">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T152">
         <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB152">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14592,7 +14589,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7366037</v>
+        <v>7366036</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14604,58 +14601,58 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G153" t="s">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I153">
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K153">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L153">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M153">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="N153">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O153">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P153">
-        <v>2.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q153">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R153">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S153">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T153">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V153">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W153">
-        <v>2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14664,16 +14661,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA153">
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC153">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14681,7 +14678,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7366036</v>
+        <v>7366037</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14693,58 +14690,58 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F154" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="G154" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K154">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L154">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M154">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="N154">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O154">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P154">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q154">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R154">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S154">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T154">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U154">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V154">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W154">
-        <v>0.3999999999999999</v>
+        <v>2</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14753,16 +14750,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA154">
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14770,7 +14767,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7366017</v>
+        <v>7365845</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14782,76 +14779,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K155">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L155">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M155">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="N155">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O155">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P155">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q155">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S155">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T155">
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V155">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X155">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC155">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14883,7 +14880,7 @@
         <v>4</v>
       </c>
       <c r="J156" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K156">
         <v>2.1</v>
@@ -14972,7 +14969,7 @@
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K157">
         <v>4.2</v>
@@ -15052,7 +15049,7 @@
         <v>89</v>
       </c>
       <c r="G158" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -15061,7 +15058,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K158">
         <v>2</v>
@@ -15138,7 +15135,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G159" t="s">
         <v>58</v>
@@ -15150,7 +15147,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K159">
         <v>2.25</v>
@@ -15230,7 +15227,7 @@
         <v>85</v>
       </c>
       <c r="G160" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -15239,7 +15236,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K160">
         <v>2.1</v>
@@ -15328,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K161">
         <v>3.4</v>
@@ -15417,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K162">
         <v>3.2</v>
@@ -15506,7 +15503,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K163">
         <v>2.45</v>
@@ -15586,7 +15583,7 @@
         <v>118</v>
       </c>
       <c r="G164" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H164">
         <v>3</v>
@@ -15595,7 +15592,7 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K164">
         <v>2.1</v>
@@ -15684,7 +15681,7 @@
         <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K165">
         <v>2.4</v>
@@ -15764,7 +15761,7 @@
         <v>109</v>
       </c>
       <c r="G166" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -15773,7 +15770,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K166">
         <v>2.4</v>
@@ -15853,7 +15850,7 @@
         <v>59</v>
       </c>
       <c r="G167" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15862,7 +15859,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K167">
         <v>2</v>
@@ -15951,7 +15948,7 @@
         <v>3</v>
       </c>
       <c r="J168" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K168">
         <v>1.25</v>
@@ -16031,7 +16028,7 @@
         <v>120</v>
       </c>
       <c r="G169" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H169">
         <v>3</v>
@@ -16040,7 +16037,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K169">
         <v>2</v>
@@ -16129,7 +16126,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K170">
         <v>1.571</v>
@@ -16194,7 +16191,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7427128</v>
+        <v>7427131</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -16206,13 +16203,13 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F171" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="G171" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -16221,61 +16218,61 @@
         <v>224</v>
       </c>
       <c r="K171">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L171">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M171">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N171">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O171">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P171">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q171">
         <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S171">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T171">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U171">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V171">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W171">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z171">
+        <v>-1</v>
+      </c>
+      <c r="AA171">
         <v>1</v>
       </c>
-      <c r="AA171">
-        <v>-1</v>
-      </c>
       <c r="AB171">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -16283,7 +16280,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7427130</v>
+        <v>7427128</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -16295,76 +16292,76 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F172" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="G172" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K172">
+        <v>2.25</v>
+      </c>
+      <c r="L172">
+        <v>3.1</v>
+      </c>
+      <c r="M172">
+        <v>2.9</v>
+      </c>
+      <c r="N172">
+        <v>2.25</v>
+      </c>
+      <c r="O172">
+        <v>3.1</v>
+      </c>
+      <c r="P172">
+        <v>2.9</v>
+      </c>
+      <c r="Q172">
+        <v>-0.25</v>
+      </c>
+      <c r="R172">
+        <v>2</v>
+      </c>
+      <c r="S172">
         <v>1.8</v>
       </c>
-      <c r="L172">
-        <v>3.25</v>
-      </c>
-      <c r="M172">
-        <v>4</v>
-      </c>
-      <c r="N172">
+      <c r="T172">
+        <v>2</v>
+      </c>
+      <c r="U172">
         <v>1.8</v>
       </c>
-      <c r="O172">
-        <v>3.25</v>
-      </c>
-      <c r="P172">
-        <v>4</v>
-      </c>
-      <c r="Q172">
-        <v>-0.75</v>
-      </c>
-      <c r="R172">
-        <v>2.05</v>
-      </c>
-      <c r="S172">
-        <v>1.75</v>
-      </c>
-      <c r="T172">
-        <v>2.5</v>
-      </c>
-      <c r="U172">
-        <v>1.85</v>
-      </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA172">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC172">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16372,7 +16369,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7427131</v>
+        <v>7427130</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -16384,49 +16381,49 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F173" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G173" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K173">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L173">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M173">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N173">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O173">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P173">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q173">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R173">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S173">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T173">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U173">
         <v>1.85</v>
@@ -16441,13 +16438,13 @@
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Z173">
         <v>-1</v>
       </c>
       <c r="AA173">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AB173">
         <v>-1</v>
@@ -16476,7 +16473,7 @@
         <v>100</v>
       </c>
       <c r="G174" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16485,7 +16482,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K174">
         <v>2</v>
@@ -16574,7 +16571,7 @@
         <v>3</v>
       </c>
       <c r="J175" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K175">
         <v>2</v>
@@ -16651,7 +16648,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F176" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G176" t="s">
         <v>105</v>
@@ -16663,7 +16660,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K176">
         <v>3.6</v>
@@ -16728,7 +16725,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7432779</v>
+        <v>7431140</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16743,73 +16740,73 @@
         <v>122</v>
       </c>
       <c r="G177" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J177" t="s">
         <v>224</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L177">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M177">
+        <v>3</v>
+      </c>
+      <c r="N177">
+        <v>1.909</v>
+      </c>
+      <c r="O177">
         <v>3.1</v>
       </c>
-      <c r="N177">
-        <v>2</v>
-      </c>
-      <c r="O177">
-        <v>3.4</v>
-      </c>
       <c r="P177">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
         <v>1.8</v>
       </c>
-      <c r="S177">
-        <v>2</v>
-      </c>
       <c r="T177">
+        <v>2.25</v>
+      </c>
+      <c r="U177">
+        <v>2</v>
+      </c>
+      <c r="V177">
+        <v>1.8</v>
+      </c>
+      <c r="W177">
+        <v>-1</v>
+      </c>
+      <c r="X177">
+        <v>-1</v>
+      </c>
+      <c r="Y177">
         <v>2.75</v>
       </c>
-      <c r="U177">
-        <v>1.8</v>
-      </c>
-      <c r="V177">
-        <v>2</v>
-      </c>
-      <c r="W177">
+      <c r="Z177">
+        <v>-1</v>
+      </c>
+      <c r="AA177">
+        <v>0.8</v>
+      </c>
+      <c r="AB177">
         <v>1</v>
       </c>
-      <c r="X177">
-        <v>-1</v>
-      </c>
-      <c r="Y177">
-        <v>-1</v>
-      </c>
-      <c r="Z177">
-        <v>0.8</v>
-      </c>
-      <c r="AA177">
-        <v>-1</v>
-      </c>
-      <c r="AB177">
-        <v>-1</v>
-      </c>
       <c r="AC177">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16817,7 +16814,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7431140</v>
+        <v>7432779</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16832,73 +16829,73 @@
         <v>123</v>
       </c>
       <c r="G178" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K178">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L178">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M178">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N178">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O178">
+        <v>3.4</v>
+      </c>
+      <c r="P178">
         <v>3.1</v>
       </c>
-      <c r="P178">
-        <v>3.75</v>
-      </c>
       <c r="Q178">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S178">
+        <v>2</v>
+      </c>
+      <c r="T178">
+        <v>2.75</v>
+      </c>
+      <c r="U178">
         <v>1.8</v>
       </c>
-      <c r="T178">
-        <v>2.25</v>
-      </c>
-      <c r="U178">
-        <v>2</v>
-      </c>
       <c r="V178">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA178">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
+        <v>-1</v>
+      </c>
+      <c r="AC178">
         <v>1</v>
-      </c>
-      <c r="AC178">
-        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16921,7 +16918,7 @@
         <v>33</v>
       </c>
       <c r="G179" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H179">
         <v>3</v>
@@ -16930,7 +16927,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K179">
         <v>1.571</v>
@@ -17019,7 +17016,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K180">
         <v>2.15</v>
@@ -17099,7 +17096,7 @@
         <v>104</v>
       </c>
       <c r="G181" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -17108,7 +17105,7 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K181">
         <v>2.25</v>
@@ -17188,7 +17185,7 @@
         <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H182">
         <v>4</v>
@@ -17197,7 +17194,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K182">
         <v>2.25</v>
@@ -17286,7 +17283,7 @@
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K183">
         <v>2.1</v>
@@ -17375,7 +17372,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K184">
         <v>2.1</v>
@@ -17464,7 +17461,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K185">
         <v>2.25</v>
@@ -17541,7 +17538,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G186" t="s">
         <v>86</v>
@@ -17553,7 +17550,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K186">
         <v>1.727</v>
@@ -17642,7 +17639,7 @@
         <v>3</v>
       </c>
       <c r="J187" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K187">
         <v>3.75</v>
@@ -17731,7 +17728,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K188">
         <v>1.909</v>
@@ -17820,7 +17817,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K189">
         <v>1.8</v>
@@ -17900,7 +17897,7 @@
         <v>48</v>
       </c>
       <c r="G190" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H190">
         <v>4</v>
@@ -17909,7 +17906,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K190">
         <v>2.45</v>
@@ -17989,7 +17986,7 @@
         <v>117</v>
       </c>
       <c r="G191" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17998,7 +17995,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K191">
         <v>3</v>
@@ -18075,10 +18072,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H192">
         <v>2</v>
@@ -18087,7 +18084,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K192">
         <v>2.25</v>
@@ -18176,7 +18173,7 @@
         <v>3</v>
       </c>
       <c r="J193" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K193">
         <v>2.45</v>
@@ -18265,7 +18262,7 @@
         <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K194">
         <v>2.2</v>
@@ -18345,7 +18342,7 @@
         <v>93</v>
       </c>
       <c r="G195" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -18354,7 +18351,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K195">
         <v>4</v>
@@ -18443,7 +18440,7 @@
         <v>4</v>
       </c>
       <c r="J196" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K196">
         <v>3</v>
@@ -18523,7 +18520,7 @@
         <v>129</v>
       </c>
       <c r="G197" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H197">
         <v>3</v>
@@ -18532,7 +18529,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K197">
         <v>1.615</v>
@@ -18609,7 +18606,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F198" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G198" t="s">
         <v>53</v>
@@ -18621,7 +18618,7 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K198">
         <v>3.75</v>
@@ -18701,7 +18698,7 @@
         <v>90</v>
       </c>
       <c r="G199" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H199">
         <v>5</v>
@@ -18710,7 +18707,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K199">
         <v>1.333</v>
@@ -18799,7 +18796,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K200">
         <v>5</v>
@@ -18888,7 +18885,7 @@
         <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K201">
         <v>2.25</v>
@@ -18977,7 +18974,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K202">
         <v>1.5</v>
@@ -19057,7 +19054,7 @@
         <v>106</v>
       </c>
       <c r="G203" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H203">
         <v>1</v>
@@ -19066,7 +19063,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K203">
         <v>2.5</v>
@@ -19146,7 +19143,7 @@
         <v>92</v>
       </c>
       <c r="G204" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -19155,7 +19152,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K204">
         <v>1.909</v>
@@ -19235,7 +19232,7 @@
         <v>130</v>
       </c>
       <c r="G205" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -19244,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K205">
         <v>1.615</v>
@@ -19333,7 +19330,7 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K206">
         <v>1.727</v>
@@ -19422,7 +19419,7 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K207">
         <v>2</v>
@@ -19502,7 +19499,7 @@
         <v>132</v>
       </c>
       <c r="G208" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19511,7 +19508,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K208">
         <v>2.3</v>
@@ -19591,7 +19588,7 @@
         <v>109</v>
       </c>
       <c r="G209" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19600,7 +19597,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K209">
         <v>3.1</v>
@@ -19680,7 +19677,7 @@
         <v>58</v>
       </c>
       <c r="G210" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H210">
         <v>3</v>
@@ -19689,7 +19686,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K210">
         <v>2.1</v>
@@ -19778,7 +19775,7 @@
         <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K211">
         <v>1.571</v>
@@ -19867,7 +19864,7 @@
         <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K212">
         <v>2.1</v>
@@ -19932,7 +19929,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7543660</v>
+        <v>7543661</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19944,40 +19941,40 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G213" t="s">
-        <v>129</v>
+        <v>206</v>
       </c>
       <c r="H213">
         <v>2</v>
       </c>
       <c r="I213">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K213">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L213">
         <v>3</v>
       </c>
       <c r="M213">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="N213">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="O213">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P213">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="Q213">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R213">
         <v>1.775</v>
@@ -19986,34 +19983,34 @@
         <v>2.025</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V213">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X213">
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA213">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -20021,7 +20018,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7543688</v>
+        <v>7543660</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -20033,73 +20030,73 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G214" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="H214">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
         <v>224</v>
       </c>
       <c r="K214">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="L214">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M214">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="N214">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="O214">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P214">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="Q214">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R214">
+        <v>1.775</v>
+      </c>
+      <c r="S214">
+        <v>2.025</v>
+      </c>
+      <c r="T214">
+        <v>2.5</v>
+      </c>
+      <c r="U214">
         <v>1.85</v>
       </c>
-      <c r="S214">
+      <c r="V214">
         <v>1.95</v>
       </c>
-      <c r="T214">
-        <v>2.75</v>
-      </c>
-      <c r="U214">
-        <v>1.825</v>
-      </c>
-      <c r="V214">
-        <v>1.975</v>
-      </c>
       <c r="W214">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z214">
+        <v>-1</v>
+      </c>
+      <c r="AA214">
+        <v>1.025</v>
+      </c>
+      <c r="AB214">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA214">
-        <v>-1</v>
-      </c>
-      <c r="AB214">
-        <v>0.825</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -20110,7 +20107,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7543659</v>
+        <v>7543688</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -20122,49 +20119,49 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G215" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K215">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L215">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="N215">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O215">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P215">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R215">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S215">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T215">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U215">
         <v>1.825</v>
@@ -20173,25 +20170,25 @@
         <v>1.975</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X215">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA215">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC215">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -20199,7 +20196,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7543690</v>
+        <v>7543659</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -20211,10 +20208,10 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="G216" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -20223,64 +20220,64 @@
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K216">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L216">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M216">
+        <v>2.8</v>
+      </c>
+      <c r="N216">
         <v>3</v>
       </c>
-      <c r="N216">
-        <v>2.4</v>
-      </c>
       <c r="O216">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P216">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S216">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="T216">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V216">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
+        <v>0.4125</v>
+      </c>
+      <c r="AA216">
         <v>-0.5</v>
       </c>
-      <c r="AA216">
-        <v>0.35</v>
-      </c>
       <c r="AB216">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20288,7 +20285,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7543661</v>
+        <v>7543690</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -20300,76 +20297,76 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="G217" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217">
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K217">
         <v>2.4</v>
       </c>
       <c r="L217">
+        <v>2.75</v>
+      </c>
+      <c r="M217">
         <v>3</v>
-      </c>
-      <c r="M217">
-        <v>2.75</v>
       </c>
       <c r="N217">
         <v>2.4</v>
       </c>
       <c r="O217">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P217">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q217">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S217">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="T217">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U217">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V217">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W217">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X217">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y217">
         <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AB217">
-        <v>0.4625</v>
+        <v>-0.5</v>
       </c>
       <c r="AC217">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20389,7 +20386,7 @@
         <v>45262.60416666666</v>
       </c>
       <c r="F218" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G218" t="s">
         <v>207</v>
@@ -20401,7 +20398,7 @@
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K218">
         <v>2.25</v>
@@ -20490,7 +20487,7 @@
         <v>1</v>
       </c>
       <c r="J219" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K219">
         <v>1.666</v>
@@ -20579,7 +20576,7 @@
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K220">
         <v>2.1</v>
@@ -20644,7 +20641,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7547182</v>
+        <v>7547167</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20656,76 +20653,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="G221" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="H221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K221">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L221">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M221">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N221">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O221">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P221">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R221">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V221">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB221">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20733,7 +20730,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7547167</v>
+        <v>7547182</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20745,76 +20742,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="G222" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K222">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L222">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M222">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N222">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O222">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P222">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q222">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S222">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T222">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V222">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X222">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA222">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC222">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20846,7 +20843,7 @@
         <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K223">
         <v>2.5</v>
@@ -20926,7 +20923,7 @@
         <v>124</v>
       </c>
       <c r="G224" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -20935,7 +20932,7 @@
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K224">
         <v>4.75</v>
@@ -21024,7 +21021,7 @@
         <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K225">
         <v>2.375</v>
@@ -21113,7 +21110,7 @@
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K226">
         <v>3.4</v>
@@ -21202,7 +21199,7 @@
         <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K227">
         <v>2.1</v>
@@ -21291,7 +21288,7 @@
         <v>4</v>
       </c>
       <c r="J228" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K228">
         <v>1.8</v>
@@ -21380,7 +21377,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K229">
         <v>1.533</v>
@@ -21469,7 +21466,7 @@
         <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K230">
         <v>7</v>
@@ -21558,7 +21555,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K231">
         <v>2.2</v>
@@ -21647,7 +21644,7 @@
         <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K232">
         <v>2.2</v>
@@ -21736,7 +21733,7 @@
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K233">
         <v>3.8</v>
@@ -21825,7 +21822,7 @@
         <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K234">
         <v>1.363</v>
@@ -21914,7 +21911,7 @@
         <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K235">
         <v>1.5</v>
@@ -22003,7 +22000,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K236">
         <v>1.533</v>
@@ -22092,7 +22089,7 @@
         <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K237">
         <v>1.571</v>
@@ -22181,7 +22178,7 @@
         <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K238">
         <v>1.4</v>
@@ -22270,7 +22267,7 @@
         <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K239">
         <v>1.615</v>
@@ -22350,7 +22347,7 @@
         <v>134</v>
       </c>
       <c r="G240" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H240">
         <v>3</v>
@@ -22359,7 +22356,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K240">
         <v>4</v>
@@ -22448,7 +22445,7 @@
         <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K241">
         <v>1.727</v>
@@ -22537,7 +22534,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K242">
         <v>2.8</v>
@@ -22614,7 +22611,7 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F243" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G243" t="s">
         <v>106</v>
@@ -22626,7 +22623,7 @@
         <v>3</v>
       </c>
       <c r="J243" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K243">
         <v>2.3</v>
@@ -22715,7 +22712,7 @@
         <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K244">
         <v>1.8</v>
@@ -22804,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K245">
         <v>2</v>
@@ -22881,7 +22878,7 @@
         <v>45277.4375</v>
       </c>
       <c r="F246" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G246" t="s">
         <v>141</v>
@@ -22893,7 +22890,7 @@
         <v>3</v>
       </c>
       <c r="J246" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K246">
         <v>2.55</v>
@@ -22973,7 +22970,7 @@
         <v>47</v>
       </c>
       <c r="G247" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -22982,7 +22979,7 @@
         <v>3</v>
       </c>
       <c r="J247" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K247">
         <v>1.8</v>
@@ -23062,7 +23059,7 @@
         <v>67</v>
       </c>
       <c r="G248" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H248">
         <v>2</v>
@@ -23071,7 +23068,7 @@
         <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K248">
         <v>2.3</v>
@@ -23151,7 +23148,7 @@
         <v>105</v>
       </c>
       <c r="G249" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H249">
         <v>2</v>
@@ -23160,7 +23157,7 @@
         <v>3</v>
       </c>
       <c r="J249" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K249">
         <v>1.533</v>
@@ -23225,7 +23222,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7663729</v>
+        <v>7663704</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -23237,76 +23234,76 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F250" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="G250" t="s">
         <v>213</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250">
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K250">
+        <v>2.75</v>
+      </c>
+      <c r="L250">
+        <v>3.1</v>
+      </c>
+      <c r="M250">
+        <v>2.35</v>
+      </c>
+      <c r="N250">
+        <v>2.8</v>
+      </c>
+      <c r="O250">
+        <v>3.25</v>
+      </c>
+      <c r="P250">
         <v>2.2</v>
       </c>
-      <c r="L250">
-        <v>3.2</v>
-      </c>
-      <c r="M250">
-        <v>2.9</v>
-      </c>
-      <c r="N250">
-        <v>2.2</v>
-      </c>
-      <c r="O250">
-        <v>3.2</v>
-      </c>
-      <c r="P250">
-        <v>2.9</v>
-      </c>
       <c r="Q250">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R250">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S250">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T250">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U250">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V250">
+        <v>1.95</v>
+      </c>
+      <c r="W250">
         <v>1.8</v>
       </c>
-      <c r="W250">
-        <v>-1</v>
-      </c>
       <c r="X250">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA250">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB250">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC250">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -23314,7 +23311,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7663704</v>
+        <v>7664701</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -23326,10 +23323,10 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="G251" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="H251">
         <v>2</v>
@@ -23338,46 +23335,46 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K251">
+        <v>6.5</v>
+      </c>
+      <c r="L251">
+        <v>4</v>
+      </c>
+      <c r="M251">
+        <v>1.4</v>
+      </c>
+      <c r="N251">
+        <v>6.5</v>
+      </c>
+      <c r="O251">
+        <v>3.8</v>
+      </c>
+      <c r="P251">
+        <v>1.4</v>
+      </c>
+      <c r="Q251">
+        <v>1.25</v>
+      </c>
+      <c r="R251">
+        <v>1.95</v>
+      </c>
+      <c r="S251">
+        <v>1.85</v>
+      </c>
+      <c r="T251">
         <v>2.75</v>
       </c>
-      <c r="L251">
-        <v>3.1</v>
-      </c>
-      <c r="M251">
-        <v>2.35</v>
-      </c>
-      <c r="N251">
-        <v>2.8</v>
-      </c>
-      <c r="O251">
-        <v>3.25</v>
-      </c>
-      <c r="P251">
-        <v>2.2</v>
-      </c>
-      <c r="Q251">
-        <v>0.25</v>
-      </c>
-      <c r="R251">
-        <v>1.8</v>
-      </c>
-      <c r="S251">
-        <v>2</v>
-      </c>
-      <c r="T251">
-        <v>3</v>
-      </c>
       <c r="U251">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V251">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W251">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="X251">
         <v>-1</v>
@@ -23386,16 +23383,16 @@
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA251">
         <v>-1</v>
       </c>
       <c r="AB251">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC251">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23403,7 +23400,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7664701</v>
+        <v>7663729</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -23415,76 +23412,76 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G252" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252">
         <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K252">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M252">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="N252">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="O252">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P252">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q252">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R252">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S252">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T252">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U252">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V252">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W252">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="X252">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB252">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC252">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23507,7 +23504,7 @@
         <v>127</v>
       </c>
       <c r="G253" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H253">
         <v>2</v>
@@ -23516,7 +23513,7 @@
         <v>3</v>
       </c>
       <c r="J253" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K253">
         <v>2.8</v>
@@ -23596,7 +23593,7 @@
         <v>88</v>
       </c>
       <c r="G254" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H254">
         <v>1</v>
@@ -23605,7 +23602,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K254">
         <v>2.8</v>
@@ -23694,7 +23691,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K255">
         <v>2.6</v>
@@ -23783,7 +23780,7 @@
         <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K256">
         <v>3.25</v>
@@ -23872,7 +23869,7 @@
         <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K257">
         <v>3.6</v>
@@ -23952,7 +23949,7 @@
         <v>96</v>
       </c>
       <c r="G258" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -23961,7 +23958,7 @@
         <v>1</v>
       </c>
       <c r="J258" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K258">
         <v>2.8</v>
@@ -24050,7 +24047,7 @@
         <v>4</v>
       </c>
       <c r="J259" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K259">
         <v>2.25</v>
@@ -24139,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="J260" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K260">
         <v>1.615</v>
@@ -24228,7 +24225,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K261">
         <v>1.333</v>
@@ -24317,7 +24314,7 @@
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K262">
         <v>2.1</v>
@@ -24394,7 +24391,7 @@
         <v>45304.60416666666</v>
       </c>
       <c r="F263" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G263" t="s">
         <v>58</v>
@@ -24406,7 +24403,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K263">
         <v>2.2</v>
@@ -24495,7 +24492,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K264">
         <v>2</v>
@@ -24575,7 +24572,7 @@
         <v>124</v>
       </c>
       <c r="G265" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H265">
         <v>1</v>
@@ -24584,7 +24581,7 @@
         <v>4</v>
       </c>
       <c r="J265" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K265">
         <v>2.6</v>
@@ -24673,7 +24670,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K266">
         <v>2.55</v>
@@ -24753,7 +24750,7 @@
         <v>55</v>
       </c>
       <c r="G267" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -24762,7 +24759,7 @@
         <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K267">
         <v>1.909</v>
@@ -24851,7 +24848,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K268">
         <v>2.6</v>
@@ -24940,7 +24937,7 @@
         <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K269">
         <v>1.833</v>
@@ -25029,7 +25026,7 @@
         <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K270">
         <v>2.25</v>
@@ -25118,7 +25115,7 @@
         <v>1</v>
       </c>
       <c r="J271" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K271">
         <v>4.2</v>
@@ -25207,7 +25204,7 @@
         <v>1</v>
       </c>
       <c r="J272" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K272">
         <v>3.5</v>
@@ -25284,7 +25281,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F273" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G273" t="s">
         <v>219</v>
@@ -25296,7 +25293,7 @@
         <v>3</v>
       </c>
       <c r="J273" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K273">
         <v>2.6</v>
@@ -25385,7 +25382,7 @@
         <v>1</v>
       </c>
       <c r="J274" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K274">
         <v>1.571</v>
@@ -25474,7 +25471,7 @@
         <v>1</v>
       </c>
       <c r="J275" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K275">
         <v>6.5</v>
@@ -25551,7 +25548,7 @@
         <v>45312.45833333334</v>
       </c>
       <c r="F276" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G276" t="s">
         <v>140</v>
@@ -25563,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K276">
         <v>2.1</v>
@@ -25652,7 +25649,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K277">
         <v>2.6</v>
@@ -25741,7 +25738,7 @@
         <v>2</v>
       </c>
       <c r="J278" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K278">
         <v>3</v>
@@ -25821,7 +25818,7 @@
         <v>138</v>
       </c>
       <c r="G279" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H279">
         <v>3</v>
@@ -25830,7 +25827,7 @@
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K279">
         <v>3</v>
@@ -25919,7 +25916,7 @@
         <v>3</v>
       </c>
       <c r="J280" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K280">
         <v>2</v>
@@ -26008,7 +26005,7 @@
         <v>1</v>
       </c>
       <c r="J281" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K281">
         <v>1.909</v>
@@ -26097,7 +26094,7 @@
         <v>0</v>
       </c>
       <c r="J282" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K282">
         <v>2</v>
@@ -26174,10 +26171,10 @@
         <v>45318.54166666666</v>
       </c>
       <c r="F283" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G283" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H283">
         <v>2</v>
@@ -26186,7 +26183,7 @@
         <v>2</v>
       </c>
       <c r="J283" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K283">
         <v>1.615</v>
@@ -26251,7 +26248,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7748114</v>
+        <v>7748838</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -26263,76 +26260,76 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F284" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="G284" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="H284">
         <v>0</v>
       </c>
       <c r="I284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J284" t="s">
         <v>225</v>
       </c>
       <c r="K284">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L284">
+        <v>3.25</v>
+      </c>
+      <c r="M284">
+        <v>2.75</v>
+      </c>
+      <c r="N284">
+        <v>1.95</v>
+      </c>
+      <c r="O284">
         <v>3.4</v>
       </c>
-      <c r="M284">
-        <v>4.2</v>
-      </c>
-      <c r="N284">
+      <c r="P284">
+        <v>3.3</v>
+      </c>
+      <c r="Q284">
+        <v>-0.25</v>
+      </c>
+      <c r="R284">
         <v>1.75</v>
       </c>
-      <c r="O284">
-        <v>3.3</v>
-      </c>
-      <c r="P284">
-        <v>4</v>
-      </c>
-      <c r="Q284">
+      <c r="S284">
+        <v>1.95</v>
+      </c>
+      <c r="T284">
+        <v>2.75</v>
+      </c>
+      <c r="U284">
+        <v>1.925</v>
+      </c>
+      <c r="V284">
+        <v>1.775</v>
+      </c>
+      <c r="W284">
+        <v>-1</v>
+      </c>
+      <c r="X284">
+        <v>2.4</v>
+      </c>
+      <c r="Y284">
+        <v>-1</v>
+      </c>
+      <c r="Z284">
         <v>-0.5</v>
       </c>
-      <c r="R284">
-        <v>1.825</v>
-      </c>
-      <c r="S284">
-        <v>1.975</v>
-      </c>
-      <c r="T284">
-        <v>2</v>
-      </c>
-      <c r="U284">
-        <v>1.825</v>
-      </c>
-      <c r="V284">
-        <v>1.975</v>
-      </c>
-      <c r="W284">
-        <v>-1</v>
-      </c>
-      <c r="X284">
-        <v>-1</v>
-      </c>
-      <c r="Y284">
-        <v>3</v>
-      </c>
-      <c r="Z284">
-        <v>-1</v>
-      </c>
       <c r="AA284">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AB284">
         <v>-1</v>
       </c>
       <c r="AC284">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -26340,7 +26337,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7748838</v>
+        <v>7748113</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -26352,46 +26349,46 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F285" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G285" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="H285">
         <v>0</v>
       </c>
       <c r="I285">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J285" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K285">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="L285">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M285">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="N285">
-        <v>1.95</v>
+        <v>6.5</v>
       </c>
       <c r="O285">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P285">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="Q285">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R285">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S285">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T285">
         <v>2.75</v>
@@ -26400,28 +26397,28 @@
         <v>1.925</v>
       </c>
       <c r="V285">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W285">
         <v>-1</v>
       </c>
       <c r="X285">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y285">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z285">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA285">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB285">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC285">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26429,7 +26426,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7748113</v>
+        <v>7748114</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -26441,55 +26438,55 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F286" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="G286" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="H286">
         <v>0</v>
       </c>
       <c r="I286">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J286" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K286">
+        <v>1.727</v>
+      </c>
+      <c r="L286">
+        <v>3.4</v>
+      </c>
+      <c r="M286">
+        <v>4.2</v>
+      </c>
+      <c r="N286">
+        <v>1.75</v>
+      </c>
+      <c r="O286">
+        <v>3.3</v>
+      </c>
+      <c r="P286">
         <v>4</v>
       </c>
-      <c r="L286">
-        <v>3.2</v>
-      </c>
-      <c r="M286">
-        <v>1.8</v>
-      </c>
-      <c r="N286">
-        <v>6.5</v>
-      </c>
-      <c r="O286">
-        <v>3.6</v>
-      </c>
-      <c r="P286">
-        <v>1.444</v>
-      </c>
       <c r="Q286">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R286">
+        <v>1.825</v>
+      </c>
+      <c r="S286">
         <v>1.975</v>
       </c>
-      <c r="S286">
+      <c r="T286">
+        <v>2</v>
+      </c>
+      <c r="U286">
         <v>1.825</v>
       </c>
-      <c r="T286">
-        <v>2.75</v>
-      </c>
-      <c r="U286">
-        <v>1.925</v>
-      </c>
       <c r="V286">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W286">
         <v>-1</v>
@@ -26498,19 +26495,19 @@
         <v>-1</v>
       </c>
       <c r="Y286">
-        <v>0.444</v>
+        <v>3</v>
       </c>
       <c r="Z286">
         <v>-1</v>
       </c>
       <c r="AA286">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB286">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC286">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26542,7 +26539,7 @@
         <v>2</v>
       </c>
       <c r="J287" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K287">
         <v>3.1</v>
@@ -26631,7 +26628,7 @@
         <v>1</v>
       </c>
       <c r="J288" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K288">
         <v>3.8</v>
@@ -26708,7 +26705,7 @@
         <v>45319.45833333334</v>
       </c>
       <c r="F289" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G289" t="s">
         <v>201</v>
@@ -26720,7 +26717,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K289">
         <v>2.1</v>
@@ -26800,7 +26797,7 @@
         <v>136</v>
       </c>
       <c r="G290" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H290">
         <v>2</v>
@@ -26809,7 +26806,7 @@
         <v>2</v>
       </c>
       <c r="J290" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K290">
         <v>1.85</v>
@@ -26898,7 +26895,7 @@
         <v>3</v>
       </c>
       <c r="J291" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K291">
         <v>2.4</v>
@@ -26963,7 +26960,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7779994</v>
+        <v>7779993</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26975,55 +26972,55 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F292" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="G292" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="H292">
         <v>1</v>
       </c>
       <c r="I292">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J292" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K292">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L292">
         <v>3.2</v>
       </c>
       <c r="M292">
+        <v>3.1</v>
+      </c>
+      <c r="N292">
+        <v>2.6</v>
+      </c>
+      <c r="O292">
+        <v>3.1</v>
+      </c>
+      <c r="P292">
+        <v>2.5</v>
+      </c>
+      <c r="Q292">
+        <v>0</v>
+      </c>
+      <c r="R292">
         <v>1.95</v>
       </c>
-      <c r="N292">
-        <v>3.5</v>
-      </c>
-      <c r="O292">
-        <v>3.2</v>
-      </c>
-      <c r="P292">
-        <v>1.95</v>
-      </c>
-      <c r="Q292">
-        <v>0.5</v>
-      </c>
-      <c r="R292">
+      <c r="S292">
+        <v>1.85</v>
+      </c>
+      <c r="T292">
+        <v>2.75</v>
+      </c>
+      <c r="U292">
         <v>1.8</v>
       </c>
-      <c r="S292">
-        <v>2</v>
-      </c>
-      <c r="T292">
-        <v>2.25</v>
-      </c>
-      <c r="U292">
-        <v>1.85</v>
-      </c>
       <c r="V292">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W292">
         <v>-1</v>
@@ -27032,16 +27029,16 @@
         <v>-1</v>
       </c>
       <c r="Y292">
-        <v>0.95</v>
+        <v>1.5</v>
       </c>
       <c r="Z292">
         <v>-1</v>
       </c>
       <c r="AA292">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB292">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC292">
         <v>-1</v>
@@ -27076,7 +27073,7 @@
         <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K293">
         <v>2.4</v>
@@ -27156,7 +27153,7 @@
         <v>141</v>
       </c>
       <c r="G294" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H294">
         <v>0</v>
@@ -27165,7 +27162,7 @@
         <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K294">
         <v>2.25</v>
@@ -27230,7 +27227,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7779758</v>
+        <v>7779757</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -27242,76 +27239,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F295" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="G295" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295">
         <v>0</v>
       </c>
       <c r="J295" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K295">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L295">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M295">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N295">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O295">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P295">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q295">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R295">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S295">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T295">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U295">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V295">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W295">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X295">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y295">
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA295">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB295">
         <v>-1</v>
       </c>
       <c r="AC295">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -27343,7 +27340,7 @@
         <v>0</v>
       </c>
       <c r="J296" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K296">
         <v>1.909</v>
@@ -27432,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K297">
         <v>1.571</v>
@@ -27497,7 +27494,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7779757</v>
+        <v>7779991</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27509,49 +27506,49 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="G298" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K298">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L298">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M298">
+        <v>2</v>
+      </c>
+      <c r="N298">
+        <v>3.25</v>
+      </c>
+      <c r="O298">
         <v>3.2</v>
       </c>
-      <c r="N298">
-        <v>2</v>
-      </c>
-      <c r="O298">
-        <v>3.3</v>
-      </c>
       <c r="P298">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="Q298">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R298">
+        <v>2</v>
+      </c>
+      <c r="S298">
         <v>1.8</v>
       </c>
-      <c r="S298">
-        <v>2</v>
-      </c>
       <c r="T298">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U298">
         <v>1.8</v>
@@ -27560,25 +27557,25 @@
         <v>2</v>
       </c>
       <c r="W298">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X298">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y298">
         <v>-1</v>
       </c>
       <c r="Z298">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AA298">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB298">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC298">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27586,7 +27583,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7779993</v>
+        <v>7779758</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27598,76 +27595,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="G299" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J299" t="s">
         <v>225</v>
       </c>
       <c r="K299">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L299">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M299">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N299">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="O299">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P299">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q299">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R299">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S299">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T299">
         <v>2.75</v>
       </c>
       <c r="U299">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V299">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W299">
         <v>-1</v>
       </c>
       <c r="X299">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y299">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z299">
         <v>-1</v>
       </c>
       <c r="AA299">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB299">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC299">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27675,7 +27672,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7779989</v>
+        <v>7779994</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27687,76 +27684,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="G300" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I300">
+        <v>2</v>
+      </c>
+      <c r="J300" t="s">
+        <v>224</v>
+      </c>
+      <c r="K300">
+        <v>3.5</v>
+      </c>
+      <c r="L300">
+        <v>3.2</v>
+      </c>
+      <c r="M300">
+        <v>1.95</v>
+      </c>
+      <c r="N300">
+        <v>3.5</v>
+      </c>
+      <c r="O300">
+        <v>3.2</v>
+      </c>
+      <c r="P300">
+        <v>1.95</v>
+      </c>
+      <c r="Q300">
+        <v>0.5</v>
+      </c>
+      <c r="R300">
+        <v>1.8</v>
+      </c>
+      <c r="S300">
+        <v>2</v>
+      </c>
+      <c r="T300">
+        <v>2.25</v>
+      </c>
+      <c r="U300">
+        <v>1.85</v>
+      </c>
+      <c r="V300">
+        <v>1.95</v>
+      </c>
+      <c r="W300">
+        <v>-1</v>
+      </c>
+      <c r="X300">
+        <v>-1</v>
+      </c>
+      <c r="Y300">
+        <v>0.95</v>
+      </c>
+      <c r="Z300">
+        <v>-1</v>
+      </c>
+      <c r="AA300">
         <v>1</v>
       </c>
-      <c r="J300" t="s">
-        <v>225</v>
-      </c>
-      <c r="K300">
-        <v>1.85</v>
-      </c>
-      <c r="L300">
-        <v>3.4</v>
-      </c>
-      <c r="M300">
-        <v>3.6</v>
-      </c>
-      <c r="N300">
-        <v>1.85</v>
-      </c>
-      <c r="O300">
-        <v>3.4</v>
-      </c>
-      <c r="P300">
-        <v>3.6</v>
-      </c>
-      <c r="Q300">
-        <v>-0.5</v>
-      </c>
-      <c r="R300">
-        <v>1.9</v>
-      </c>
-      <c r="S300">
-        <v>1.9</v>
-      </c>
-      <c r="T300">
-        <v>3</v>
-      </c>
-      <c r="U300">
-        <v>1.95</v>
-      </c>
-      <c r="V300">
-        <v>1.85</v>
-      </c>
-      <c r="W300">
-        <v>-1</v>
-      </c>
-      <c r="X300">
-        <v>-1</v>
-      </c>
-      <c r="Y300">
-        <v>2.6</v>
-      </c>
-      <c r="Z300">
-        <v>-1</v>
-      </c>
-      <c r="AA300">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB300">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC300">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27764,7 +27761,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7779754</v>
+        <v>7779989</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27776,13 +27773,13 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F301" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="G301" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301">
         <v>1</v>
@@ -27791,25 +27788,25 @@
         <v>224</v>
       </c>
       <c r="K301">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="L301">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="M301">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="N301">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="O301">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P301">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="Q301">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R301">
         <v>1.9</v>
@@ -27821,19 +27818,19 @@
         <v>3</v>
       </c>
       <c r="U301">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V301">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W301">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z301">
         <v>-1</v>
@@ -27842,10 +27839,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB301">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC301">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27853,7 +27850,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7779991</v>
+        <v>7779754</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27865,76 +27862,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F302" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="G302" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302">
         <v>1</v>
       </c>
       <c r="J302" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K302">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="L302">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="M302">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N302">
-        <v>3.25</v>
+        <v>1.25</v>
       </c>
       <c r="O302">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P302">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q302">
+        <v>-1.75</v>
+      </c>
+      <c r="R302">
+        <v>1.9</v>
+      </c>
+      <c r="S302">
+        <v>1.9</v>
+      </c>
+      <c r="T302">
+        <v>3</v>
+      </c>
+      <c r="U302">
+        <v>1.9</v>
+      </c>
+      <c r="V302">
+        <v>1.9</v>
+      </c>
+      <c r="W302">
         <v>0.25</v>
       </c>
-      <c r="R302">
-        <v>2</v>
-      </c>
-      <c r="S302">
-        <v>1.8</v>
-      </c>
-      <c r="T302">
-        <v>2.25</v>
-      </c>
-      <c r="U302">
-        <v>1.8</v>
-      </c>
-      <c r="V302">
-        <v>2</v>
-      </c>
-      <c r="W302">
-        <v>-1</v>
-      </c>
       <c r="X302">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y302">
         <v>-1</v>
       </c>
       <c r="Z302">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA302">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB302">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC302">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27966,7 +27963,7 @@
         <v>2</v>
       </c>
       <c r="J303" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K303">
         <v>1.666</v>
@@ -28055,7 +28052,7 @@
         <v>3</v>
       </c>
       <c r="J304" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K304">
         <v>4.75</v>
@@ -28135,7 +28132,7 @@
         <v>60</v>
       </c>
       <c r="G305" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H305">
         <v>1</v>
@@ -28144,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K305">
         <v>1.909</v>
@@ -28233,7 +28230,7 @@
         <v>1</v>
       </c>
       <c r="J306" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K306">
         <v>5.5</v>
@@ -28322,7 +28319,7 @@
         <v>3</v>
       </c>
       <c r="J307" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K307">
         <v>2.8</v>
@@ -28402,7 +28399,7 @@
         <v>86</v>
       </c>
       <c r="G308" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H308">
         <v>1</v>
@@ -28411,7 +28408,7 @@
         <v>4</v>
       </c>
       <c r="J308" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K308">
         <v>1.727</v>
@@ -28476,7 +28473,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7811858</v>
+        <v>7807769</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -28488,46 +28485,46 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F309" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="G309" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="H309">
+        <v>0</v>
+      </c>
+      <c r="I309">
         <v>1</v>
-      </c>
-      <c r="I309">
-        <v>0</v>
       </c>
       <c r="J309" t="s">
         <v>224</v>
       </c>
       <c r="K309">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="L309">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M309">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N309">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O309">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P309">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q309">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R309">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S309">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T309">
         <v>2.5</v>
@@ -28539,19 +28536,19 @@
         <v>1.9</v>
       </c>
       <c r="W309">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X309">
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z309">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA309">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB309">
         <v>-1</v>
@@ -28577,7 +28574,7 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F310" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G310" t="s">
         <v>99</v>
@@ -28589,7 +28586,7 @@
         <v>2</v>
       </c>
       <c r="J310" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K310">
         <v>2.8</v>
@@ -28654,7 +28651,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7807769</v>
+        <v>7811858</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28666,46 +28663,46 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F311" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="G311" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="H311">
+        <v>1</v>
+      </c>
+      <c r="I311">
         <v>0</v>
       </c>
-      <c r="I311">
-        <v>1</v>
-      </c>
       <c r="J311" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K311">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="L311">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M311">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N311">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O311">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P311">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q311">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R311">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S311">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T311">
         <v>2.5</v>
@@ -28717,19 +28714,19 @@
         <v>1.9</v>
       </c>
       <c r="W311">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X311">
         <v>-1</v>
       </c>
       <c r="Y311">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z311">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA311">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB311">
         <v>-1</v>
@@ -28767,7 +28764,7 @@
         <v>4</v>
       </c>
       <c r="J312" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K312">
         <v>2.375</v>
@@ -28856,7 +28853,7 @@
         <v>1</v>
       </c>
       <c r="J313" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K313">
         <v>1.8</v>
@@ -28914,746 +28911,6 @@
       </c>
       <c r="AC313">
         <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:29">
-      <c r="A314" s="1">
-        <v>312</v>
-      </c>
-      <c r="B314">
-        <v>7843259</v>
-      </c>
-      <c r="C314" t="s">
-        <v>28</v>
-      </c>
-      <c r="D314" t="s">
-        <v>28</v>
-      </c>
-      <c r="E314" s="2">
-        <v>45339.5</v>
-      </c>
-      <c r="F314" t="s">
-        <v>93</v>
-      </c>
-      <c r="G314" t="s">
-        <v>95</v>
-      </c>
-      <c r="K314">
-        <v>2.15</v>
-      </c>
-      <c r="L314">
-        <v>3.25</v>
-      </c>
-      <c r="M314">
-        <v>2.9</v>
-      </c>
-      <c r="N314">
-        <v>2.15</v>
-      </c>
-      <c r="O314">
-        <v>3.25</v>
-      </c>
-      <c r="P314">
-        <v>2.9</v>
-      </c>
-      <c r="Q314">
-        <v>-0.25</v>
-      </c>
-      <c r="R314">
-        <v>1.95</v>
-      </c>
-      <c r="S314">
-        <v>1.85</v>
-      </c>
-      <c r="T314">
-        <v>2.75</v>
-      </c>
-      <c r="U314">
-        <v>1.95</v>
-      </c>
-      <c r="V314">
-        <v>1.85</v>
-      </c>
-      <c r="W314">
-        <v>0</v>
-      </c>
-      <c r="X314">
-        <v>0</v>
-      </c>
-      <c r="Y314">
-        <v>0</v>
-      </c>
-      <c r="Z314">
-        <v>0</v>
-      </c>
-      <c r="AA314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:29">
-      <c r="A315" s="1">
-        <v>313</v>
-      </c>
-      <c r="B315">
-        <v>7843128</v>
-      </c>
-      <c r="C315" t="s">
-        <v>28</v>
-      </c>
-      <c r="D315" t="s">
-        <v>28</v>
-      </c>
-      <c r="E315" s="2">
-        <v>45339.58333333334</v>
-      </c>
-      <c r="F315" t="s">
-        <v>105</v>
-      </c>
-      <c r="G315" t="s">
-        <v>136</v>
-      </c>
-      <c r="K315">
-        <v>3.2</v>
-      </c>
-      <c r="L315">
-        <v>3</v>
-      </c>
-      <c r="M315">
-        <v>2.15</v>
-      </c>
-      <c r="N315">
-        <v>3.1</v>
-      </c>
-      <c r="O315">
-        <v>3</v>
-      </c>
-      <c r="P315">
-        <v>2.15</v>
-      </c>
-      <c r="Q315">
-        <v>0.25</v>
-      </c>
-      <c r="R315">
-        <v>1.875</v>
-      </c>
-      <c r="S315">
-        <v>1.925</v>
-      </c>
-      <c r="T315">
-        <v>3</v>
-      </c>
-      <c r="U315">
-        <v>2</v>
-      </c>
-      <c r="V315">
-        <v>1.8</v>
-      </c>
-      <c r="W315">
-        <v>0</v>
-      </c>
-      <c r="X315">
-        <v>0</v>
-      </c>
-      <c r="Y315">
-        <v>0</v>
-      </c>
-      <c r="Z315">
-        <v>0</v>
-      </c>
-      <c r="AA315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:29">
-      <c r="A316" s="1">
-        <v>314</v>
-      </c>
-      <c r="B316">
-        <v>7843137</v>
-      </c>
-      <c r="C316" t="s">
-        <v>28</v>
-      </c>
-      <c r="D316" t="s">
-        <v>28</v>
-      </c>
-      <c r="E316" s="2">
-        <v>45339.58333333334</v>
-      </c>
-      <c r="F316" t="s">
-        <v>101</v>
-      </c>
-      <c r="G316" t="s">
-        <v>218</v>
-      </c>
-      <c r="K316">
-        <v>1.8</v>
-      </c>
-      <c r="L316">
-        <v>3.75</v>
-      </c>
-      <c r="M316">
-        <v>3.4</v>
-      </c>
-      <c r="N316">
-        <v>1.8</v>
-      </c>
-      <c r="O316">
-        <v>3.75</v>
-      </c>
-      <c r="P316">
-        <v>3.4</v>
-      </c>
-      <c r="Q316">
-        <v>-0.5</v>
-      </c>
-      <c r="R316">
-        <v>1.85</v>
-      </c>
-      <c r="S316">
-        <v>1.95</v>
-      </c>
-      <c r="T316">
-        <v>3.25</v>
-      </c>
-      <c r="U316">
-        <v>1.85</v>
-      </c>
-      <c r="V316">
-        <v>1.95</v>
-      </c>
-      <c r="W316">
-        <v>0</v>
-      </c>
-      <c r="X316">
-        <v>0</v>
-      </c>
-      <c r="Y316">
-        <v>0</v>
-      </c>
-      <c r="Z316">
-        <v>0</v>
-      </c>
-      <c r="AA316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:29">
-      <c r="A317" s="1">
-        <v>315</v>
-      </c>
-      <c r="B317">
-        <v>7843138</v>
-      </c>
-      <c r="C317" t="s">
-        <v>28</v>
-      </c>
-      <c r="D317" t="s">
-        <v>28</v>
-      </c>
-      <c r="E317" s="2">
-        <v>45339.58333333334</v>
-      </c>
-      <c r="F317" t="s">
-        <v>84</v>
-      </c>
-      <c r="G317" t="s">
-        <v>106</v>
-      </c>
-      <c r="K317">
-        <v>2.2</v>
-      </c>
-      <c r="L317">
-        <v>3.25</v>
-      </c>
-      <c r="M317">
-        <v>2.8</v>
-      </c>
-      <c r="N317">
-        <v>2.2</v>
-      </c>
-      <c r="O317">
-        <v>3.3</v>
-      </c>
-      <c r="P317">
-        <v>2.8</v>
-      </c>
-      <c r="Q317">
-        <v>-0.25</v>
-      </c>
-      <c r="R317">
-        <v>2</v>
-      </c>
-      <c r="S317">
-        <v>1.8</v>
-      </c>
-      <c r="T317">
-        <v>3</v>
-      </c>
-      <c r="U317">
-        <v>1.925</v>
-      </c>
-      <c r="V317">
-        <v>1.875</v>
-      </c>
-      <c r="W317">
-        <v>0</v>
-      </c>
-      <c r="X317">
-        <v>0</v>
-      </c>
-      <c r="Y317">
-        <v>0</v>
-      </c>
-      <c r="Z317">
-        <v>0</v>
-      </c>
-      <c r="AA317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:29">
-      <c r="A318" s="1">
-        <v>316</v>
-      </c>
-      <c r="B318">
-        <v>7843186</v>
-      </c>
-      <c r="C318" t="s">
-        <v>28</v>
-      </c>
-      <c r="D318" t="s">
-        <v>28</v>
-      </c>
-      <c r="E318" s="2">
-        <v>45339.58333333334</v>
-      </c>
-      <c r="F318" t="s">
-        <v>99</v>
-      </c>
-      <c r="G318" t="s">
-        <v>134</v>
-      </c>
-      <c r="K318">
-        <v>1.727</v>
-      </c>
-      <c r="L318">
-        <v>3.25</v>
-      </c>
-      <c r="M318">
-        <v>4.333</v>
-      </c>
-      <c r="N318">
-        <v>1.727</v>
-      </c>
-      <c r="O318">
-        <v>3.3</v>
-      </c>
-      <c r="P318">
-        <v>4.2</v>
-      </c>
-      <c r="Q318">
-        <v>-0.5</v>
-      </c>
-      <c r="R318">
-        <v>1.775</v>
-      </c>
-      <c r="S318">
-        <v>2.025</v>
-      </c>
-      <c r="T318">
-        <v>2.75</v>
-      </c>
-      <c r="U318">
-        <v>1.825</v>
-      </c>
-      <c r="V318">
-        <v>1.975</v>
-      </c>
-      <c r="W318">
-        <v>0</v>
-      </c>
-      <c r="X318">
-        <v>0</v>
-      </c>
-      <c r="Y318">
-        <v>0</v>
-      </c>
-      <c r="Z318">
-        <v>0</v>
-      </c>
-      <c r="AA318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:29">
-      <c r="A319" s="1">
-        <v>317</v>
-      </c>
-      <c r="B319">
-        <v>7843187</v>
-      </c>
-      <c r="C319" t="s">
-        <v>28</v>
-      </c>
-      <c r="D319" t="s">
-        <v>28</v>
-      </c>
-      <c r="E319" s="2">
-        <v>45339.58333333334</v>
-      </c>
-      <c r="F319" t="s">
-        <v>121</v>
-      </c>
-      <c r="G319" t="s">
-        <v>133</v>
-      </c>
-      <c r="K319">
-        <v>1.833</v>
-      </c>
-      <c r="L319">
-        <v>3.1</v>
-      </c>
-      <c r="M319">
-        <v>4</v>
-      </c>
-      <c r="N319">
-        <v>1.833</v>
-      </c>
-      <c r="O319">
-        <v>3.1</v>
-      </c>
-      <c r="P319">
-        <v>4</v>
-      </c>
-      <c r="Q319">
-        <v>-0.5</v>
-      </c>
-      <c r="R319">
-        <v>1.875</v>
-      </c>
-      <c r="S319">
-        <v>1.925</v>
-      </c>
-      <c r="T319">
-        <v>2</v>
-      </c>
-      <c r="U319">
-        <v>1.95</v>
-      </c>
-      <c r="V319">
-        <v>1.85</v>
-      </c>
-      <c r="W319">
-        <v>0</v>
-      </c>
-      <c r="X319">
-        <v>0</v>
-      </c>
-      <c r="Y319">
-        <v>0</v>
-      </c>
-      <c r="Z319">
-        <v>0</v>
-      </c>
-      <c r="AA319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:29">
-      <c r="A320" s="1">
-        <v>318</v>
-      </c>
-      <c r="B320">
-        <v>7843260</v>
-      </c>
-      <c r="C320" t="s">
-        <v>28</v>
-      </c>
-      <c r="D320" t="s">
-        <v>28</v>
-      </c>
-      <c r="E320" s="2">
-        <v>45339.58333333334</v>
-      </c>
-      <c r="F320" t="s">
-        <v>100</v>
-      </c>
-      <c r="G320" t="s">
-        <v>125</v>
-      </c>
-      <c r="K320">
-        <v>2.9</v>
-      </c>
-      <c r="L320">
-        <v>3.25</v>
-      </c>
-      <c r="M320">
-        <v>2.15</v>
-      </c>
-      <c r="N320">
-        <v>3.1</v>
-      </c>
-      <c r="O320">
-        <v>3.25</v>
-      </c>
-      <c r="P320">
-        <v>2.05</v>
-      </c>
-      <c r="Q320">
-        <v>0.25</v>
-      </c>
-      <c r="R320">
-        <v>1.975</v>
-      </c>
-      <c r="S320">
-        <v>1.825</v>
-      </c>
-      <c r="T320">
-        <v>2.5</v>
-      </c>
-      <c r="U320">
-        <v>1.95</v>
-      </c>
-      <c r="V320">
-        <v>1.85</v>
-      </c>
-      <c r="W320">
-        <v>0</v>
-      </c>
-      <c r="X320">
-        <v>0</v>
-      </c>
-      <c r="Y320">
-        <v>0</v>
-      </c>
-      <c r="Z320">
-        <v>0</v>
-      </c>
-      <c r="AA320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:27">
-      <c r="A321" s="1">
-        <v>319</v>
-      </c>
-      <c r="B321">
-        <v>7843261</v>
-      </c>
-      <c r="C321" t="s">
-        <v>28</v>
-      </c>
-      <c r="D321" t="s">
-        <v>28</v>
-      </c>
-      <c r="E321" s="2">
-        <v>45339.60416666666</v>
-      </c>
-      <c r="F321" t="s">
-        <v>145</v>
-      </c>
-      <c r="G321" t="s">
-        <v>222</v>
-      </c>
-      <c r="K321">
-        <v>5.5</v>
-      </c>
-      <c r="L321">
-        <v>3.4</v>
-      </c>
-      <c r="M321">
-        <v>1.571</v>
-      </c>
-      <c r="N321">
-        <v>5.25</v>
-      </c>
-      <c r="O321">
-        <v>3.5</v>
-      </c>
-      <c r="P321">
-        <v>1.571</v>
-      </c>
-      <c r="Q321">
-        <v>1</v>
-      </c>
-      <c r="R321">
-        <v>1.85</v>
-      </c>
-      <c r="S321">
-        <v>1.95</v>
-      </c>
-      <c r="T321">
-        <v>2.75</v>
-      </c>
-      <c r="U321">
-        <v>1.825</v>
-      </c>
-      <c r="V321">
-        <v>1.975</v>
-      </c>
-      <c r="W321">
-        <v>0</v>
-      </c>
-      <c r="X321">
-        <v>0</v>
-      </c>
-      <c r="Y321">
-        <v>0</v>
-      </c>
-      <c r="Z321">
-        <v>0</v>
-      </c>
-      <c r="AA321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:27">
-      <c r="A322" s="1">
-        <v>320</v>
-      </c>
-      <c r="B322">
-        <v>7849189</v>
-      </c>
-      <c r="C322" t="s">
-        <v>28</v>
-      </c>
-      <c r="D322" t="s">
-        <v>28</v>
-      </c>
-      <c r="E322" s="2">
-        <v>45339.625</v>
-      </c>
-      <c r="F322" t="s">
-        <v>146</v>
-      </c>
-      <c r="G322" t="s">
-        <v>165</v>
-      </c>
-      <c r="K322">
-        <v>2.3</v>
-      </c>
-      <c r="L322">
-        <v>3.1</v>
-      </c>
-      <c r="M322">
-        <v>2.8</v>
-      </c>
-      <c r="N322">
-        <v>2.3</v>
-      </c>
-      <c r="O322">
-        <v>3.1</v>
-      </c>
-      <c r="P322">
-        <v>2.8</v>
-      </c>
-      <c r="Q322">
-        <v>-0.25</v>
-      </c>
-      <c r="R322">
-        <v>2.05</v>
-      </c>
-      <c r="S322">
-        <v>1.75</v>
-      </c>
-      <c r="T322">
-        <v>2.25</v>
-      </c>
-      <c r="U322">
-        <v>1.85</v>
-      </c>
-      <c r="V322">
-        <v>1.95</v>
-      </c>
-      <c r="W322">
-        <v>0</v>
-      </c>
-      <c r="X322">
-        <v>0</v>
-      </c>
-      <c r="Y322">
-        <v>0</v>
-      </c>
-      <c r="Z322">
-        <v>0</v>
-      </c>
-      <c r="AA322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:27">
-      <c r="A323" s="1">
-        <v>321</v>
-      </c>
-      <c r="B323">
-        <v>7843157</v>
-      </c>
-      <c r="C323" t="s">
-        <v>28</v>
-      </c>
-      <c r="D323" t="s">
-        <v>28</v>
-      </c>
-      <c r="E323" s="2">
-        <v>45339.64583333334</v>
-      </c>
-      <c r="F323" t="s">
-        <v>76</v>
-      </c>
-      <c r="G323" t="s">
-        <v>223</v>
-      </c>
-      <c r="K323">
-        <v>2.9</v>
-      </c>
-      <c r="L323">
-        <v>3.25</v>
-      </c>
-      <c r="M323">
-        <v>2.15</v>
-      </c>
-      <c r="N323">
-        <v>2.9</v>
-      </c>
-      <c r="O323">
-        <v>3.25</v>
-      </c>
-      <c r="P323">
-        <v>2.15</v>
-      </c>
-      <c r="Q323">
-        <v>0.25</v>
-      </c>
-      <c r="R323">
-        <v>1.875</v>
-      </c>
-      <c r="S323">
-        <v>1.925</v>
-      </c>
-      <c r="T323">
-        <v>2.5</v>
-      </c>
-      <c r="U323">
-        <v>1.9</v>
-      </c>
-      <c r="V323">
-        <v>1.9</v>
-      </c>
-      <c r="W323">
-        <v>0</v>
-      </c>
-      <c r="X323">
-        <v>0</v>
-      </c>
-      <c r="Y323">
-        <v>0</v>
-      </c>
-      <c r="Z323">
-        <v>0</v>
-      </c>
-      <c r="AA323">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/France National 3/France National 3.xlsx
+++ b/France National 3/France National 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="227">
   <si>
     <t>id</t>
   </si>
@@ -124,10 +124,10 @@
     <t>Nancy II</t>
   </si>
   <si>
-    <t>Reims SteAnne</t>
+    <t>US Salinieres</t>
   </si>
   <si>
-    <t>US Salinieres</t>
+    <t>Reims SteAnne</t>
   </si>
   <si>
     <t>Chamois Niortais FC II</t>
@@ -139,16 +139,16 @@
     <t>AIN Sud Foot</t>
   </si>
   <si>
+    <t>AS Quetigny</t>
+  </si>
+  <si>
     <t>Nice II</t>
   </si>
   <si>
-    <t>AS Quetigny</t>
+    <t>AG Caennaise</t>
   </si>
   <si>
     <t>Le Havre II</t>
-  </si>
-  <si>
-    <t>AG Caennaise</t>
   </si>
   <si>
     <t>Libourne</t>
@@ -163,13 +163,13 @@
     <t>Colomiers</t>
   </si>
   <si>
-    <t>Avranches II</t>
+    <t>Valenciennes II</t>
   </si>
   <si>
     <t>Laval II</t>
   </si>
   <si>
-    <t>Valenciennes II</t>
+    <t>Avranches II</t>
   </si>
   <si>
     <t>Bagnols Pont</t>
@@ -208,10 +208,10 @@
     <t>Aubervilliers</t>
   </si>
   <si>
-    <t>AS Beziers</t>
+    <t>OnetleChateau</t>
   </si>
   <si>
-    <t>OnetleChateau</t>
+    <t>AS Beziers</t>
   </si>
   <si>
     <t>Bordeaux II</t>
@@ -262,10 +262,10 @@
     <t>Portes Entre Deux Mers</t>
   </si>
   <si>
-    <t>Vaulx en Velin</t>
+    <t>Schiltigheim</t>
   </si>
   <si>
-    <t>Schiltigheim</t>
+    <t>Vaulx en Velin</t>
   </si>
   <si>
     <t>Rennes TA</t>
@@ -277,10 +277,10 @@
     <t>US LegeCapFerret</t>
   </si>
   <si>
-    <t>CMS Oissel</t>
+    <t>US Castanet</t>
   </si>
   <si>
-    <t>US Castanet</t>
+    <t>CMS Oissel</t>
   </si>
   <si>
     <t>Pau II</t>
@@ -457,6 +457,9 @@
     <t>LinasMontlhery</t>
   </si>
   <si>
+    <t>Rennes II</t>
+  </si>
+  <si>
     <t>Poire Sur Vie</t>
   </si>
   <si>
@@ -481,13 +484,13 @@
     <t>Bourges Foot 18 II</t>
   </si>
   <si>
-    <t>Grand Quevilly FC</t>
-  </si>
-  <si>
     <t>Lens II</t>
   </si>
   <si>
     <t>Feignies Aulnoye FC</t>
+  </si>
+  <si>
+    <t>Grand Quevilly FC</t>
   </si>
   <si>
     <t>Balma SC</t>
@@ -568,19 +571,16 @@
     <t>SaintLo Manche</t>
   </si>
   <si>
+    <t>US Vimy</t>
+  </si>
+  <si>
     <t>LouhansCuiseaux</t>
   </si>
   <si>
     <t>Espaly</t>
   </si>
   <si>
-    <t>US Vimy</t>
-  </si>
-  <si>
     <t>Ancienne ChateauGontier</t>
-  </si>
-  <si>
-    <t>Rennes II</t>
   </si>
   <si>
     <t>Chauvigny</t>
@@ -661,13 +661,13 @@
     <t>Fougeres</t>
   </si>
   <si>
+    <t>CA Pontarlier</t>
+  </si>
+  <si>
     <t>SaintPaulSport</t>
   </si>
   <si>
-    <t>CA Pontarlier</t>
-  </si>
-  <si>
-    <t>Vannes OC</t>
+    <t>Vesoul</t>
   </si>
   <si>
     <t>Niort II</t>
@@ -676,7 +676,7 @@
     <t>Stade Pontivy</t>
   </si>
   <si>
-    <t>Vesoul</t>
+    <t>Vannes OC</t>
   </si>
   <si>
     <t>CS Bretigny</t>
@@ -1056,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC329"/>
+  <dimension ref="A1:AC337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1168,7 +1168,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1702,7 +1702,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1776,7 +1776,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6256213</v>
+        <v>6256214</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1791,7 +1791,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1803,40 +1803,40 @@
         <v>225</v>
       </c>
       <c r="K9">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="L9">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="N9">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="O9">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T9">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1845,19 +1845,19 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB9">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1865,7 +1865,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6256214</v>
+        <v>6256213</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1880,7 +1880,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1892,41 +1892,41 @@
         <v>225</v>
       </c>
       <c r="K10">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="L10">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M10">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N10">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P10">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
+        <v>2.075</v>
+      </c>
+      <c r="S10">
+        <v>1.725</v>
+      </c>
+      <c r="T10">
+        <v>2.75</v>
+      </c>
+      <c r="U10">
         <v>1.95</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>1.85</v>
       </c>
-      <c r="T10">
-        <v>2.25</v>
-      </c>
-      <c r="U10">
-        <v>1.9</v>
-      </c>
-      <c r="V10">
-        <v>1.9</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
@@ -1934,19 +1934,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB10">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1969,7 +1969,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -2221,7 +2221,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6319437</v>
+        <v>6319436</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -2236,52 +2236,52 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
         <v>225</v>
       </c>
       <c r="K14">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="L14">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="N14">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="O14">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P14">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="Q14">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U14">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -2290,16 +2290,16 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.8</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB14">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -2310,7 +2310,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6319436</v>
+        <v>6319437</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -2325,52 +2325,52 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
         <v>225</v>
       </c>
       <c r="K15">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="L15">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="M15">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="N15">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="O15">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P15">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="Q15">
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U15">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V15">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -2379,16 +2379,16 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.1659999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB15">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -2399,7 +2399,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6319442</v>
+        <v>6319441</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -2414,73 +2414,73 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>224</v>
+      </c>
+      <c r="K16">
+        <v>1.333</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>1.333</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>6.5</v>
+      </c>
+      <c r="Q16">
+        <v>-1.5</v>
+      </c>
+      <c r="R16">
+        <v>1.9</v>
+      </c>
+      <c r="S16">
+        <v>1.9</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>1.95</v>
+      </c>
+      <c r="V16">
+        <v>1.85</v>
+      </c>
+      <c r="W16">
+        <v>0.333</v>
+      </c>
+      <c r="X16">
+        <v>-1</v>
+      </c>
+      <c r="Y16">
+        <v>-1</v>
+      </c>
+      <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB16">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>226</v>
-      </c>
-      <c r="K16">
-        <v>2.1</v>
-      </c>
-      <c r="L16">
-        <v>3</v>
-      </c>
-      <c r="M16">
-        <v>3.25</v>
-      </c>
-      <c r="N16">
-        <v>2.1</v>
-      </c>
-      <c r="O16">
-        <v>3</v>
-      </c>
-      <c r="P16">
-        <v>3.25</v>
-      </c>
-      <c r="Q16">
-        <v>-0.25</v>
-      </c>
-      <c r="R16">
-        <v>1.85</v>
-      </c>
-      <c r="S16">
-        <v>1.95</v>
-      </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
-      <c r="U16">
-        <v>2</v>
-      </c>
-      <c r="V16">
-        <v>1.8</v>
-      </c>
-      <c r="W16">
-        <v>-1</v>
-      </c>
-      <c r="X16">
-        <v>2</v>
-      </c>
-      <c r="Y16">
-        <v>-1</v>
-      </c>
-      <c r="Z16">
-        <v>-0.5</v>
-      </c>
-      <c r="AA16">
-        <v>0.475</v>
-      </c>
-      <c r="AB16">
-        <v>-1</v>
-      </c>
       <c r="AC16">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2488,7 +2488,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6319441</v>
+        <v>6319442</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2503,73 +2503,73 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K17">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="N17">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q17">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W17">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2681,7 +2681,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2933,7 +2933,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6348781</v>
+        <v>6349980</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2945,58 +2945,58 @@
         <v>44989.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>224</v>
       </c>
       <c r="K22">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L22">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M22">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O22">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P22">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="Q22">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S22">
         <v>1.95</v>
       </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -3005,16 +3005,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -3022,7 +3022,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6349892</v>
+        <v>6349981</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -3034,76 +3034,76 @@
         <v>44989.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K23">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M23">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N23">
-        <v>1.45</v>
+        <v>2.1</v>
       </c>
       <c r="O23">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q23">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
         <v>2.75</v>
       </c>
       <c r="U23">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V23">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W23">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB23">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -3111,7 +3111,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6349980</v>
+        <v>6349892</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -3123,58 +3123,58 @@
         <v>44989.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>224</v>
       </c>
       <c r="K24">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="L24">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="N24">
-        <v>2.9</v>
+        <v>1.45</v>
       </c>
       <c r="O24">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P24">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R24">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W24">
-        <v>1.9</v>
+        <v>0.45</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -3183,16 +3183,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6349981</v>
+        <v>6348781</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -3215,73 +3215,73 @@
         <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K25">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L25">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M25">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N25">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O25">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P25">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
+        <v>1.85</v>
+      </c>
+      <c r="S25">
         <v>1.95</v>
       </c>
-      <c r="S25">
+      <c r="T25">
+        <v>2.25</v>
+      </c>
+      <c r="U25">
         <v>1.85</v>
       </c>
-      <c r="T25">
-        <v>2.75</v>
-      </c>
-      <c r="U25">
-        <v>1.8</v>
-      </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X25">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA25">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3304,7 +3304,7 @@
         <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -3482,7 +3482,7 @@
         <v>54</v>
       </c>
       <c r="G28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3568,10 +3568,10 @@
         <v>44990.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H29">
         <v>6</v>
@@ -3660,7 +3660,7 @@
         <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -4016,7 +4016,7 @@
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -4194,7 +4194,7 @@
         <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -4550,7 +4550,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -4636,10 +4636,10 @@
         <v>45010.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4713,7 +4713,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6441445</v>
+        <v>6441903</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4725,76 +4725,76 @@
         <v>45010.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K42">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L42">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M42">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N42">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="O42">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P42">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q42">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S42">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T42">
         <v>2.25</v>
       </c>
       <c r="U42">
+        <v>1.85</v>
+      </c>
+      <c r="V42">
         <v>1.95</v>
       </c>
-      <c r="V42">
-        <v>1.85</v>
-      </c>
       <c r="W42">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X42">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA42">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4802,7 +4802,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6441903</v>
+        <v>6441448</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4814,76 +4814,76 @@
         <v>45010.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G43" t="s">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="s">
         <v>224</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L43">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M43">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O43">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P43">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S43">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T43">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W43">
+        <v>0.8</v>
+      </c>
+      <c r="X43">
+        <v>-1</v>
+      </c>
+      <c r="Y43">
+        <v>-1</v>
+      </c>
+      <c r="Z43">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA43">
+        <v>-1</v>
+      </c>
+      <c r="AB43">
         <v>1</v>
       </c>
-      <c r="X43">
-        <v>-1</v>
-      </c>
-      <c r="Y43">
-        <v>-1</v>
-      </c>
-      <c r="Z43">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
-      <c r="AB43">
-        <v>-0.5</v>
-      </c>
       <c r="AC43">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4891,7 +4891,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6441448</v>
+        <v>6441447</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4903,76 +4903,76 @@
         <v>45010.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K44">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N44">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O44">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P44">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q44">
         <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S44">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T44">
         <v>2.5</v>
       </c>
       <c r="U44">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4980,7 +4980,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6441447</v>
+        <v>6441446</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4992,76 +4992,76 @@
         <v>45010.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G45" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>225</v>
+      </c>
+      <c r="K45">
+        <v>2.6</v>
+      </c>
+      <c r="L45">
+        <v>3.2</v>
+      </c>
+      <c r="M45">
+        <v>2.4</v>
+      </c>
+      <c r="N45">
+        <v>2.6</v>
+      </c>
+      <c r="O45">
+        <v>3.2</v>
+      </c>
+      <c r="P45">
+        <v>2.4</v>
+      </c>
+      <c r="Q45">
         <v>0</v>
       </c>
-      <c r="J45" t="s">
-        <v>226</v>
-      </c>
-      <c r="K45">
-        <v>1.833</v>
-      </c>
-      <c r="L45">
-        <v>3.6</v>
-      </c>
-      <c r="M45">
-        <v>3.4</v>
-      </c>
-      <c r="N45">
-        <v>1.833</v>
-      </c>
-      <c r="O45">
-        <v>3.6</v>
-      </c>
-      <c r="P45">
-        <v>3.4</v>
-      </c>
-      <c r="Q45">
-        <v>-0.5</v>
-      </c>
       <c r="R45">
+        <v>1.975</v>
+      </c>
+      <c r="S45">
+        <v>1.825</v>
+      </c>
+      <c r="T45">
+        <v>2.75</v>
+      </c>
+      <c r="U45">
+        <v>1.925</v>
+      </c>
+      <c r="V45">
         <v>1.875</v>
       </c>
-      <c r="S45">
-        <v>1.925</v>
-      </c>
-      <c r="T45">
-        <v>2.5</v>
-      </c>
-      <c r="U45">
-        <v>1.9</v>
-      </c>
-      <c r="V45">
-        <v>1.9</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -5069,7 +5069,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6441446</v>
+        <v>6441445</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -5084,73 +5084,73 @@
         <v>65</v>
       </c>
       <c r="G46" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>226</v>
+      </c>
+      <c r="K46">
+        <v>1.6</v>
+      </c>
+      <c r="L46">
+        <v>3.5</v>
+      </c>
+      <c r="M46">
+        <v>5</v>
+      </c>
+      <c r="N46">
+        <v>1.6</v>
+      </c>
+      <c r="O46">
+        <v>3.5</v>
+      </c>
+      <c r="P46">
+        <v>5</v>
+      </c>
+      <c r="Q46">
+        <v>-0.75</v>
+      </c>
+      <c r="R46">
+        <v>1.8</v>
+      </c>
+      <c r="S46">
+        <v>2</v>
+      </c>
+      <c r="T46">
+        <v>2.25</v>
+      </c>
+      <c r="U46">
+        <v>1.95</v>
+      </c>
+      <c r="V46">
+        <v>1.85</v>
+      </c>
+      <c r="W46">
+        <v>-1</v>
+      </c>
+      <c r="X46">
+        <v>2.5</v>
+      </c>
+      <c r="Y46">
+        <v>-1</v>
+      </c>
+      <c r="Z46">
+        <v>-1</v>
+      </c>
+      <c r="AA46">
         <v>1</v>
       </c>
-      <c r="J46" t="s">
-        <v>225</v>
-      </c>
-      <c r="K46">
-        <v>2.6</v>
-      </c>
-      <c r="L46">
-        <v>3.2</v>
-      </c>
-      <c r="M46">
-        <v>2.4</v>
-      </c>
-      <c r="N46">
-        <v>2.6</v>
-      </c>
-      <c r="O46">
-        <v>3.2</v>
-      </c>
-      <c r="P46">
-        <v>2.4</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>1.975</v>
-      </c>
-      <c r="S46">
-        <v>1.825</v>
-      </c>
-      <c r="T46">
-        <v>2.75</v>
-      </c>
-      <c r="U46">
-        <v>1.925</v>
-      </c>
-      <c r="V46">
-        <v>1.875</v>
-      </c>
-      <c r="W46">
-        <v>-1</v>
-      </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
-      <c r="Y46">
-        <v>1.4</v>
-      </c>
-      <c r="Z46">
-        <v>-1</v>
-      </c>
-      <c r="AA46">
-        <v>0.825</v>
-      </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5173,7 +5173,7 @@
         <v>47</v>
       </c>
       <c r="G47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -5262,7 +5262,7 @@
         <v>66</v>
       </c>
       <c r="G48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -5351,7 +5351,7 @@
         <v>67</v>
       </c>
       <c r="G49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -5440,7 +5440,7 @@
         <v>68</v>
       </c>
       <c r="G50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5618,7 +5618,7 @@
         <v>70</v>
       </c>
       <c r="G52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5885,7 +5885,7 @@
         <v>50</v>
       </c>
       <c r="G55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -6063,7 +6063,7 @@
         <v>72</v>
       </c>
       <c r="G57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -6241,7 +6241,7 @@
         <v>74</v>
       </c>
       <c r="G59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6775,7 +6775,7 @@
         <v>77</v>
       </c>
       <c r="G65" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6864,7 +6864,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -7039,7 +7039,7 @@
         <v>45052.25</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
         <v>57</v>
@@ -7131,7 +7131,7 @@
         <v>62</v>
       </c>
       <c r="G69" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -7220,7 +7220,7 @@
         <v>48</v>
       </c>
       <c r="G70" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -7306,7 +7306,7 @@
         <v>45059.47916666666</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
         <v>30</v>
@@ -7398,7 +7398,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>81</v>
       </c>
       <c r="G74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7665,7 +7665,7 @@
         <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7739,7 +7739,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6669640</v>
+        <v>6669639</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7754,46 +7754,46 @@
         <v>82</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="H76">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
         <v>224</v>
       </c>
       <c r="K76">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L76">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M76">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="N76">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O76">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P76">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
         <v>1.8</v>
@@ -7802,7 +7802,7 @@
         <v>2</v>
       </c>
       <c r="W76">
-        <v>1.2</v>
+        <v>1.375</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7811,16 +7811,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7828,7 +7828,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6669639</v>
+        <v>6669637</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7840,46 +7840,46 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F77" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="G77" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K77">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M77">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N77">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O77">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P77">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T77">
         <v>2.75</v>
@@ -7891,25 +7891,25 @@
         <v>2</v>
       </c>
       <c r="W77">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB77">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7917,7 +7917,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6669637</v>
+        <v>6669640</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7929,49 +7929,49 @@
         <v>45066.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G78" t="s">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K78">
+        <v>2.2</v>
+      </c>
+      <c r="L78">
+        <v>3.2</v>
+      </c>
+      <c r="M78">
+        <v>2.9</v>
+      </c>
+      <c r="N78">
+        <v>2.2</v>
+      </c>
+      <c r="O78">
+        <v>3.3</v>
+      </c>
+      <c r="P78">
+        <v>2.875</v>
+      </c>
+      <c r="Q78">
+        <v>-0.25</v>
+      </c>
+      <c r="R78">
+        <v>1.975</v>
+      </c>
+      <c r="S78">
+        <v>1.825</v>
+      </c>
+      <c r="T78">
         <v>2.5</v>
-      </c>
-      <c r="L78">
-        <v>3.75</v>
-      </c>
-      <c r="M78">
-        <v>2.25</v>
-      </c>
-      <c r="N78">
-        <v>2.5</v>
-      </c>
-      <c r="O78">
-        <v>3.8</v>
-      </c>
-      <c r="P78">
-        <v>2.25</v>
-      </c>
-      <c r="Q78">
-        <v>0.25</v>
-      </c>
-      <c r="R78">
-        <v>1.75</v>
-      </c>
-      <c r="S78">
-        <v>2.05</v>
-      </c>
-      <c r="T78">
-        <v>2.75</v>
       </c>
       <c r="U78">
         <v>1.8</v>
@@ -7980,25 +7980,25 @@
         <v>2</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA78">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -8018,7 +8018,7 @@
         <v>45073.3125</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s">
         <v>61</v>
@@ -8107,7 +8107,7 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G80" t="s">
         <v>145</v>
@@ -8199,7 +8199,7 @@
         <v>78</v>
       </c>
       <c r="G81" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -8288,7 +8288,7 @@
         <v>68</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8466,7 +8466,7 @@
         <v>84</v>
       </c>
       <c r="G84" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>62</v>
       </c>
       <c r="G85" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>70</v>
       </c>
       <c r="G86" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8718,7 +8718,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6727692</v>
+        <v>6727693</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8730,40 +8730,40 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="G87" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87">
         <v>1</v>
       </c>
-      <c r="I87">
-        <v>3</v>
-      </c>
       <c r="J87" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="L87">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N87">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O87">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P87">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
         <v>2</v>
@@ -8772,7 +8772,7 @@
         <v>1.8</v>
       </c>
       <c r="T87">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U87">
         <v>1.9</v>
@@ -8781,19 +8781,19 @@
         <v>1.9</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
+        <v>-1</v>
+      </c>
+      <c r="Z87">
         <v>1</v>
       </c>
-      <c r="Z87">
-        <v>-1</v>
-      </c>
       <c r="AA87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
         <v>0.8999999999999999</v>
@@ -8807,7 +8807,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6727691</v>
+        <v>6727692</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8819,73 +8819,73 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K88">
-        <v>1.285</v>
+        <v>3</v>
       </c>
       <c r="L88">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M88">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N88">
-        <v>1.285</v>
+        <v>3</v>
       </c>
       <c r="O88">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="Q88">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S88">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T88">
         <v>3.25</v>
       </c>
       <c r="U88">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V88">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB88">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8896,7 +8896,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6727690</v>
+        <v>6727691</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8908,49 +8908,49 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="G89" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K89">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="L89">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M89">
-        <v>1.85</v>
+        <v>9</v>
       </c>
       <c r="N89">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P89">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q89">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S89">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U89">
         <v>2</v>
@@ -8959,19 +8959,19 @@
         <v>1.8</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA89">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6727651</v>
+        <v>6727690</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8997,73 +8997,73 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="H90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K90">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="L90">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="N90">
         <v>3.5</v>
       </c>
       <c r="O90">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="Q90">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -9074,7 +9074,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6727693</v>
+        <v>6727653</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -9086,73 +9086,73 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G91" t="s">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K91">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L91">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M91">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N91">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O91">
         <v>3.3</v>
       </c>
       <c r="P91">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V91">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W91">
+        <v>-1</v>
+      </c>
+      <c r="X91">
+        <v>-1</v>
+      </c>
+      <c r="Y91">
+        <v>1.45</v>
+      </c>
+      <c r="Z91">
+        <v>-1</v>
+      </c>
+      <c r="AA91">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB91">
         <v>0.95</v>
-      </c>
-      <c r="X91">
-        <v>-1</v>
-      </c>
-      <c r="Y91">
-        <v>-1</v>
-      </c>
-      <c r="Z91">
-        <v>1</v>
-      </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
-      <c r="AB91">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -9163,7 +9163,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6727653</v>
+        <v>6727694</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -9175,73 +9175,73 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G92" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K92">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L92">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N92">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O92">
         <v>3.3</v>
       </c>
       <c r="P92">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U92">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA92">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -9264,10 +9264,10 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -9341,7 +9341,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6727694</v>
+        <v>6727651</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -9353,58 +9353,58 @@
         <v>45080.54166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G94" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
         <v>224</v>
       </c>
       <c r="K94">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="M94">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="N94">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="O94">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P94">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R94">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S94">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T94">
         <v>3</v>
       </c>
       <c r="U94">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V94">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W94">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -9413,13 +9413,13 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -9445,7 +9445,7 @@
         <v>89</v>
       </c>
       <c r="G95" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H95">
         <v>6</v>
@@ -9534,7 +9534,7 @@
         <v>90</v>
       </c>
       <c r="G96" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H96">
         <v>5</v>
@@ -9890,7 +9890,7 @@
         <v>66</v>
       </c>
       <c r="G100" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9976,7 +9976,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
         <v>123</v>
@@ -10231,7 +10231,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7152840</v>
+        <v>7152572</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -10243,76 +10243,76 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K104">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L104">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M104">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N104">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O104">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P104">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q104">
         <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T104">
         <v>2.75</v>
       </c>
       <c r="U104">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X104">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC104">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10320,7 +10320,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7152841</v>
+        <v>7152840</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -10332,76 +10332,76 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K105">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="L105">
         <v>3.4</v>
       </c>
       <c r="M105">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N105">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O105">
         <v>3.4</v>
       </c>
       <c r="P105">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S105">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V105">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y105">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10409,7 +10409,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7152842</v>
+        <v>7152841</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -10421,76 +10421,76 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G106" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K106">
-        <v>1.285</v>
+        <v>3.2</v>
       </c>
       <c r="L106">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N106">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="O106">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P106">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="Q106">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
+        <v>1.875</v>
+      </c>
+      <c r="V106">
         <v>1.925</v>
       </c>
-      <c r="V106">
-        <v>1.875</v>
-      </c>
       <c r="W106">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB106">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10498,7 +10498,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7152572</v>
+        <v>7152842</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10510,58 +10510,58 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F107" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G107" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>224</v>
       </c>
       <c r="K107">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="L107">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M107">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="N107">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P107">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="Q107">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R107">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T107">
         <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W107">
-        <v>0.909</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10570,16 +10570,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB107">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10958,7 +10958,7 @@
         <v>99</v>
       </c>
       <c r="G112" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H112">
         <v>5</v>
@@ -11047,7 +11047,7 @@
         <v>50</v>
       </c>
       <c r="G113" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -11225,7 +11225,7 @@
         <v>58</v>
       </c>
       <c r="G115" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -11314,7 +11314,7 @@
         <v>93</v>
       </c>
       <c r="G116" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -11403,7 +11403,7 @@
         <v>100</v>
       </c>
       <c r="G117" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11489,10 +11489,10 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G118" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11756,10 +11756,10 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F121" t="s">
+        <v>43</v>
+      </c>
+      <c r="G121" t="s">
         <v>44</v>
-      </c>
-      <c r="G121" t="s">
-        <v>43</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -12293,7 +12293,7 @@
         <v>89</v>
       </c>
       <c r="G127" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12646,7 +12646,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G131" t="s">
         <v>58</v>
@@ -12824,10 +12824,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F133" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G133" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12916,7 +12916,7 @@
         <v>109</v>
       </c>
       <c r="G134" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -13094,7 +13094,7 @@
         <v>60</v>
       </c>
       <c r="G136" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -13361,7 +13361,7 @@
         <v>111</v>
       </c>
       <c r="G139" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -13806,7 +13806,7 @@
         <v>91</v>
       </c>
       <c r="G144" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -14251,7 +14251,7 @@
         <v>113</v>
       </c>
       <c r="G149" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -14340,7 +14340,7 @@
         <v>114</v>
       </c>
       <c r="G150" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -14515,7 +14515,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
         <v>58</v>
@@ -14604,7 +14604,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G153" t="s">
         <v>196</v>
@@ -14770,7 +14770,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7366017</v>
+        <v>7365844</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14782,76 +14782,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F155" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J155" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K155">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L155">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M155">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N155">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O155">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P155">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q155">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R155">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S155">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T155">
         <v>2.25</v>
       </c>
       <c r="U155">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V155">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB155">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC155">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14859,7 +14859,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7366037</v>
+        <v>7366017</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14871,76 +14871,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F156" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="G156" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="H156">
         <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K156">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L156">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M156">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N156">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O156">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P156">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q156">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R156">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S156">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T156">
         <v>2.25</v>
       </c>
       <c r="U156">
+        <v>1.875</v>
+      </c>
+      <c r="V156">
         <v>1.925</v>
       </c>
-      <c r="V156">
-        <v>1.875</v>
-      </c>
       <c r="W156">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC156">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14948,7 +14948,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7366036</v>
+        <v>7366037</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14960,13 +14960,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G157" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -14975,43 +14975,43 @@
         <v>224</v>
       </c>
       <c r="K157">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L157">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M157">
-        <v>6</v>
+        <v>2.25</v>
       </c>
       <c r="N157">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O157">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P157">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q157">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R157">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S157">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T157">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U157">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W157">
-        <v>0.3999999999999999</v>
+        <v>2</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -15020,16 +15020,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -15037,7 +15037,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7365844</v>
+        <v>7366036</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -15049,76 +15049,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="G158" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="H158">
+        <v>3</v>
+      </c>
+      <c r="I158">
         <v>0</v>
       </c>
-      <c r="I158">
-        <v>4</v>
-      </c>
       <c r="J158" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K158">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L158">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M158">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="N158">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O158">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P158">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R158">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T158">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U158">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V158">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -15227,10 +15227,10 @@
         <v>45220.55208333334</v>
       </c>
       <c r="F160" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H160">
         <v>2</v>
@@ -15675,7 +15675,7 @@
         <v>59</v>
       </c>
       <c r="G165" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -16209,7 +16209,7 @@
         <v>121</v>
       </c>
       <c r="G171" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H171">
         <v>3</v>
@@ -16476,7 +16476,7 @@
         <v>102</v>
       </c>
       <c r="G174" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -16921,7 +16921,7 @@
         <v>32</v>
       </c>
       <c r="G179" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H179">
         <v>3</v>
@@ -17452,7 +17452,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G185" t="s">
         <v>90</v>
@@ -18075,10 +18075,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F192" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G192" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H192">
         <v>4</v>
@@ -18164,10 +18164,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G193" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -18256,7 +18256,7 @@
         <v>117</v>
       </c>
       <c r="G194" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -18345,7 +18345,7 @@
         <v>93</v>
       </c>
       <c r="G195" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -18612,7 +18612,7 @@
         <v>129</v>
       </c>
       <c r="G198" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H198">
         <v>3</v>
@@ -18701,7 +18701,7 @@
         <v>90</v>
       </c>
       <c r="G199" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H199">
         <v>5</v>
@@ -18790,7 +18790,7 @@
         <v>108</v>
       </c>
       <c r="G200" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18864,7 +18864,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7516872</v>
+        <v>7515962</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18876,76 +18876,76 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="G201" t="s">
         <v>187</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201">
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K201">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L201">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M201">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N201">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="O201">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q201">
         <v>-0.75</v>
       </c>
       <c r="R201">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T201">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V201">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18953,7 +18953,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7516873</v>
+        <v>7516872</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18965,76 +18965,76 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G202" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202">
         <v>0</v>
       </c>
-      <c r="I202">
-        <v>2</v>
-      </c>
       <c r="J202" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K202">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="L202">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M202">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N202">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P202">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Q202">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R202">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S202">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T202">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V202">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA202">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -19042,7 +19042,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7515962</v>
+        <v>7516873</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -19054,76 +19054,76 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="G203" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="H203">
         <v>0</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J203" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K203">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L203">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M203">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N203">
-        <v>1.6</v>
+        <v>1.444</v>
       </c>
       <c r="O203">
         <v>3.6</v>
       </c>
       <c r="P203">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R203">
+        <v>1.975</v>
+      </c>
+      <c r="S203">
         <v>1.825</v>
       </c>
-      <c r="S203">
-        <v>1.975</v>
-      </c>
       <c r="T203">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U203">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V203">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W203">
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB203">
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -19591,7 +19591,7 @@
         <v>109</v>
       </c>
       <c r="G209" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19766,7 +19766,7 @@
         <v>45262.4375</v>
       </c>
       <c r="F211" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G211" t="s">
         <v>205</v>
@@ -19944,10 +19944,10 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G213" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -20021,7 +20021,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7543661</v>
+        <v>7543660</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -20033,40 +20033,40 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G214" t="s">
-        <v>206</v>
+        <v>129</v>
       </c>
       <c r="H214">
         <v>2</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J214" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K214">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L214">
         <v>3</v>
       </c>
       <c r="M214">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="N214">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="O214">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P214">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="Q214">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R214">
         <v>1.775</v>
@@ -20075,34 +20075,34 @@
         <v>2.025</v>
       </c>
       <c r="T214">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z214">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB214">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC214">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20110,7 +20110,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7543688</v>
+        <v>7543661</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -20122,58 +20122,58 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G215" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="H215">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>224</v>
       </c>
       <c r="K215">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L215">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M215">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N215">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O215">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P215">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q215">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R215">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S215">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T215">
         <v>2.75</v>
       </c>
       <c r="U215">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V215">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W215">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -20182,16 +20182,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -20199,7 +20199,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7543690</v>
+        <v>7543688</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -20211,76 +20211,76 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="G216" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K216">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L216">
+        <v>3.4</v>
+      </c>
+      <c r="M216">
+        <v>5.5</v>
+      </c>
+      <c r="N216">
+        <v>1.5</v>
+      </c>
+      <c r="O216">
+        <v>3.6</v>
+      </c>
+      <c r="P216">
+        <v>5.5</v>
+      </c>
+      <c r="Q216">
+        <v>-1</v>
+      </c>
+      <c r="R216">
+        <v>1.85</v>
+      </c>
+      <c r="S216">
+        <v>1.95</v>
+      </c>
+      <c r="T216">
         <v>2.75</v>
       </c>
-      <c r="M216">
-        <v>3</v>
-      </c>
-      <c r="N216">
-        <v>2.4</v>
-      </c>
-      <c r="O216">
-        <v>2.8</v>
-      </c>
-      <c r="P216">
-        <v>2.9</v>
-      </c>
-      <c r="Q216">
-        <v>-0.25</v>
-      </c>
-      <c r="R216">
-        <v>2</v>
-      </c>
-      <c r="S216">
-        <v>1.7</v>
-      </c>
-      <c r="T216">
-        <v>2.25</v>
-      </c>
       <c r="U216">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V216">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X216">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA216">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC216">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20288,7 +20288,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7543660</v>
+        <v>7543690</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -20300,76 +20300,76 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="G217" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217" t="s">
+        <v>226</v>
+      </c>
+      <c r="K217">
+        <v>2.4</v>
+      </c>
+      <c r="L217">
+        <v>2.75</v>
+      </c>
+      <c r="M217">
         <v>3</v>
       </c>
-      <c r="J217" t="s">
-        <v>225</v>
-      </c>
-      <c r="K217">
-        <v>3</v>
-      </c>
-      <c r="L217">
-        <v>3</v>
-      </c>
-      <c r="M217">
+      <c r="N217">
+        <v>2.4</v>
+      </c>
+      <c r="O217">
+        <v>2.8</v>
+      </c>
+      <c r="P217">
+        <v>2.9</v>
+      </c>
+      <c r="Q217">
+        <v>-0.25</v>
+      </c>
+      <c r="R217">
+        <v>2</v>
+      </c>
+      <c r="S217">
+        <v>1.7</v>
+      </c>
+      <c r="T217">
         <v>2.25</v>
       </c>
-      <c r="N217">
-        <v>3.5</v>
-      </c>
-      <c r="O217">
-        <v>3.1</v>
-      </c>
-      <c r="P217">
-        <v>2</v>
-      </c>
-      <c r="Q217">
-        <v>0.5</v>
-      </c>
-      <c r="R217">
-        <v>1.775</v>
-      </c>
-      <c r="S217">
-        <v>2.025</v>
-      </c>
-      <c r="T217">
-        <v>2.5</v>
-      </c>
       <c r="U217">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V217">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W217">
         <v>-1</v>
       </c>
       <c r="X217">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y217">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA217">
-        <v>1.025</v>
+        <v>0.35</v>
       </c>
       <c r="AB217">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20389,7 +20389,7 @@
         <v>45262.60416666666</v>
       </c>
       <c r="F218" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G218" t="s">
         <v>207</v>
@@ -20644,7 +20644,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7547182</v>
+        <v>7547167</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20656,76 +20656,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="G221" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="H221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K221">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L221">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M221">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N221">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O221">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P221">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R221">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V221">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB221">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20733,7 +20733,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7547167</v>
+        <v>7547182</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20745,76 +20745,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="G222" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K222">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L222">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M222">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N222">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O222">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P222">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q222">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S222">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T222">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V222">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X222">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y222">
         <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA222">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC222">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20837,7 +20837,7 @@
         <v>70</v>
       </c>
       <c r="G223" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -20926,7 +20926,7 @@
         <v>124</v>
       </c>
       <c r="G224" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -21000,7 +21000,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7569711</v>
+        <v>7568838</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -21012,76 +21012,76 @@
         <v>45269.4375</v>
       </c>
       <c r="F225" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="G225" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225">
         <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K225">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="L225">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M225">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="N225">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O225">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P225">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="Q225">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R225">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S225">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U225">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="V225">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W225">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AB225">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AC225">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -21089,7 +21089,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7568838</v>
+        <v>7569711</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -21101,76 +21101,76 @@
         <v>45269.4375</v>
       </c>
       <c r="F226" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="G226" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226">
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K226">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="L226">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M226">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N226">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O226">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P226">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R226">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S226">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T226">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U226">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="V226">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X226">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA226">
+        <v>-1</v>
+      </c>
+      <c r="AB226">
+        <v>0.4625</v>
+      </c>
+      <c r="AC226">
         <v>-0.5</v>
-      </c>
-      <c r="AA226">
-        <v>0.35</v>
-      </c>
-      <c r="AB226">
-        <v>0</v>
-      </c>
-      <c r="AC226">
-        <v>-0</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -21638,7 +21638,7 @@
         <v>89</v>
       </c>
       <c r="G232" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21902,7 +21902,7 @@
         <v>45276.4375</v>
       </c>
       <c r="F235" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G235" t="s">
         <v>31</v>
@@ -22068,7 +22068,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7594772</v>
+        <v>7594732</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -22080,10 +22080,10 @@
         <v>45276.5</v>
       </c>
       <c r="F237" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G237" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="H237">
         <v>2</v>
@@ -22095,46 +22095,46 @@
         <v>226</v>
       </c>
       <c r="K237">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="L237">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M237">
         <v>5.5</v>
       </c>
       <c r="N237">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="O237">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P237">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q237">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S237">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T237">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U237">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V237">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y237">
         <v>-1</v>
@@ -22143,10 +22143,10 @@
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.8500000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AB237">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -22246,7 +22246,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7594732</v>
+        <v>7594772</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -22258,10 +22258,10 @@
         <v>45276.5</v>
       </c>
       <c r="F239" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G239" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H239">
         <v>2</v>
@@ -22273,47 +22273,47 @@
         <v>226</v>
       </c>
       <c r="K239">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L239">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M239">
         <v>5.5</v>
       </c>
       <c r="N239">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="O239">
+        <v>4.5</v>
+      </c>
+      <c r="P239">
+        <v>5.75</v>
+      </c>
+      <c r="Q239">
+        <v>-1.25</v>
+      </c>
+      <c r="R239">
+        <v>1.95</v>
+      </c>
+      <c r="S239">
+        <v>1.85</v>
+      </c>
+      <c r="T239">
+        <v>2.25</v>
+      </c>
+      <c r="U239">
+        <v>1.925</v>
+      </c>
+      <c r="V239">
+        <v>1.875</v>
+      </c>
+      <c r="W239">
+        <v>-1</v>
+      </c>
+      <c r="X239">
         <v>3.5</v>
       </c>
-      <c r="P239">
-        <v>5.25</v>
-      </c>
-      <c r="Q239">
-        <v>-0.75</v>
-      </c>
-      <c r="R239">
-        <v>1.725</v>
-      </c>
-      <c r="S239">
-        <v>2.075</v>
-      </c>
-      <c r="T239">
-        <v>3</v>
-      </c>
-      <c r="U239">
-        <v>1.825</v>
-      </c>
-      <c r="V239">
-        <v>1.975</v>
-      </c>
-      <c r="W239">
-        <v>-1</v>
-      </c>
-      <c r="X239">
-        <v>2.5</v>
-      </c>
       <c r="Y239">
         <v>-1</v>
       </c>
@@ -22321,10 +22321,10 @@
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>1.075</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB239">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC239">
         <v>-1</v>
@@ -22350,7 +22350,7 @@
         <v>134</v>
       </c>
       <c r="G240" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H240">
         <v>3</v>
@@ -22525,7 +22525,7 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F242" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G242" t="s">
         <v>207</v>
@@ -22869,7 +22869,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7598209</v>
+        <v>7598211</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22881,13 +22881,13 @@
         <v>45277.4375</v>
       </c>
       <c r="F246" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G246" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246">
         <v>3</v>
@@ -22896,34 +22896,34 @@
         <v>225</v>
       </c>
       <c r="K246">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L246">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M246">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N246">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="O246">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P246">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q246">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R246">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S246">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T246">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U246">
         <v>1.95</v>
@@ -22938,13 +22938,13 @@
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="Z246">
         <v>-1</v>
       </c>
       <c r="AA246">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB246">
         <v>0.95</v>
@@ -22958,7 +22958,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7598211</v>
+        <v>7598209</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22970,13 +22970,13 @@
         <v>45277.4375</v>
       </c>
       <c r="F247" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G247" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247">
         <v>3</v>
@@ -22985,34 +22985,34 @@
         <v>225</v>
       </c>
       <c r="K247">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L247">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M247">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N247">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="O247">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P247">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q247">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R247">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S247">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T247">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U247">
         <v>1.95</v>
@@ -23027,13 +23027,13 @@
         <v>-1</v>
       </c>
       <c r="Y247">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB247">
         <v>0.95</v>
@@ -23151,7 +23151,7 @@
         <v>105</v>
       </c>
       <c r="G249" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H249">
         <v>2</v>
@@ -23225,7 +23225,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7663729</v>
+        <v>7664701</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -23237,76 +23237,76 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F250" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G250" t="s">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250">
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K250">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="L250">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M250">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="N250">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="O250">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P250">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="Q250">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R250">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S250">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T250">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U250">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V250">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W250">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="X250">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
         <v>-1</v>
       </c>
       <c r="Z250">
+        <v>0.95</v>
+      </c>
+      <c r="AA250">
+        <v>-1</v>
+      </c>
+      <c r="AB250">
+        <v>0.4375</v>
+      </c>
+      <c r="AC250">
         <v>-0.5</v>
-      </c>
-      <c r="AA250">
-        <v>0.4125</v>
-      </c>
-      <c r="AB250">
-        <v>-0.5</v>
-      </c>
-      <c r="AC250">
-        <v>0.4</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -23314,7 +23314,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7663705</v>
+        <v>7663729</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -23326,76 +23326,76 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="G251" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K251">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="L251">
         <v>3.2</v>
       </c>
       <c r="M251">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N251">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O251">
         <v>3.2</v>
       </c>
       <c r="P251">
+        <v>2.9</v>
+      </c>
+      <c r="Q251">
+        <v>-0.25</v>
+      </c>
+      <c r="R251">
+        <v>1.975</v>
+      </c>
+      <c r="S251">
+        <v>1.825</v>
+      </c>
+      <c r="T251">
         <v>2.25</v>
       </c>
-      <c r="Q251">
-        <v>0.25</v>
-      </c>
-      <c r="R251">
-        <v>1.775</v>
-      </c>
-      <c r="S251">
-        <v>2.025</v>
-      </c>
-      <c r="T251">
-        <v>2.75</v>
-      </c>
       <c r="U251">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V251">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W251">
         <v>-1</v>
       </c>
       <c r="X251">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y251">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA251">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AB251">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23403,7 +23403,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7664701</v>
+        <v>7663705</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -23415,46 +23415,46 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="G252" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="H252">
         <v>2</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J252" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K252">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M252">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="N252">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O252">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P252">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q252">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R252">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S252">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T252">
         <v>2.75</v>
@@ -23466,25 +23466,25 @@
         <v>1.925</v>
       </c>
       <c r="W252">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z252">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB252">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AC252">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23771,7 +23771,7 @@
         <v>45304.5</v>
       </c>
       <c r="F256" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G256" t="s">
         <v>127</v>
@@ -24204,7 +24204,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7690705</v>
+        <v>7690739</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -24216,7 +24216,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F261" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="G261" t="s">
         <v>215</v>
@@ -24225,67 +24225,67 @@
         <v>1</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K261">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L261">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M261">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="N261">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O261">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P261">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="Q261">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R261">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S261">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T261">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U261">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V261">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W261">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X261">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA261">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB261">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC261">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -24293,7 +24293,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7690739</v>
+        <v>7690705</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -24305,7 +24305,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G262" t="s">
         <v>216</v>
@@ -24314,67 +24314,67 @@
         <v>1</v>
       </c>
       <c r="I262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K262">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L262">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M262">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="N262">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O262">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P262">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q262">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R262">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S262">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T262">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U262">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V262">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X262">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA262">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB262">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -24394,7 +24394,7 @@
         <v>45304.60416666666</v>
       </c>
       <c r="F263" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G263" t="s">
         <v>58</v>
@@ -24753,7 +24753,7 @@
         <v>55</v>
       </c>
       <c r="G267" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -25005,7 +25005,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7718933</v>
+        <v>7718964</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -25017,13 +25017,13 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F270" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="G270" t="s">
         <v>217</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I270">
         <v>1</v>
@@ -25032,43 +25032,43 @@
         <v>224</v>
       </c>
       <c r="K270">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="L270">
         <v>3.25</v>
       </c>
       <c r="M270">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="N270">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="O270">
         <v>3.25</v>
       </c>
       <c r="P270">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q270">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R270">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S270">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T270">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U270">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V270">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W270">
-        <v>1.25</v>
+        <v>0.833</v>
       </c>
       <c r="X270">
         <v>-1</v>
@@ -25077,13 +25077,13 @@
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA270">
         <v>-1</v>
       </c>
       <c r="AB270">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC270">
         <v>-1</v>
@@ -25361,7 +25361,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7718964</v>
+        <v>7718933</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -25373,13 +25373,13 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F274" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="G274" t="s">
         <v>220</v>
       </c>
       <c r="H274">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274">
         <v>1</v>
@@ -25388,43 +25388,43 @@
         <v>224</v>
       </c>
       <c r="K274">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="L274">
         <v>3.25</v>
       </c>
       <c r="M274">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="N274">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="O274">
         <v>3.25</v>
       </c>
       <c r="P274">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q274">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R274">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S274">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T274">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U274">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V274">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W274">
-        <v>0.833</v>
+        <v>1.25</v>
       </c>
       <c r="X274">
         <v>-1</v>
@@ -25433,13 +25433,13 @@
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA274">
         <v>-1</v>
       </c>
       <c r="AB274">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC274">
         <v>-1</v>
@@ -25821,7 +25821,7 @@
         <v>138</v>
       </c>
       <c r="G279" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H279">
         <v>3</v>
@@ -25907,7 +25907,7 @@
         <v>45318.4375</v>
       </c>
       <c r="F280" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G280" t="s">
         <v>33</v>
@@ -26266,7 +26266,7 @@
         <v>139</v>
       </c>
       <c r="G284" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H284">
         <v>0</v>
@@ -26355,7 +26355,7 @@
         <v>94</v>
       </c>
       <c r="G285" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H285">
         <v>0</v>
@@ -26800,7 +26800,7 @@
         <v>136</v>
       </c>
       <c r="G290" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H290">
         <v>2</v>
@@ -26889,7 +26889,7 @@
         <v>140</v>
       </c>
       <c r="G291" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H291">
         <v>3</v>
@@ -27586,7 +27586,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7779990</v>
+        <v>7779991</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27598,46 +27598,46 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="G299" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="H299">
         <v>1</v>
       </c>
       <c r="I299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K299">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="L299">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M299">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="N299">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="O299">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P299">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="Q299">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R299">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S299">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T299">
         <v>2.25</v>
@@ -27649,25 +27649,25 @@
         <v>2</v>
       </c>
       <c r="W299">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X299">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y299">
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>0.3625</v>
+        <v>0.5</v>
       </c>
       <c r="AA299">
         <v>-0.5</v>
       </c>
       <c r="AB299">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC299">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27675,7 +27675,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7779991</v>
+        <v>7779993</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27687,49 +27687,49 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G300" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H300">
         <v>1</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J300" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K300">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="L300">
         <v>3.2</v>
       </c>
       <c r="M300">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N300">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="O300">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P300">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Q300">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R300">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S300">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T300">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U300">
         <v>1.8</v>
@@ -27741,22 +27741,22 @@
         <v>-1</v>
       </c>
       <c r="X300">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y300">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z300">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA300">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB300">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC300">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27764,7 +27764,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>7779993</v>
+        <v>7779994</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27776,56 +27776,56 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F301" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="G301" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="H301">
         <v>1</v>
       </c>
       <c r="I301">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J301" t="s">
         <v>225</v>
       </c>
       <c r="K301">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L301">
         <v>3.2</v>
       </c>
       <c r="M301">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="N301">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="O301">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P301">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q301">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R301">
+        <v>1.8</v>
+      </c>
+      <c r="S301">
+        <v>2</v>
+      </c>
+      <c r="T301">
+        <v>2.25</v>
+      </c>
+      <c r="U301">
+        <v>1.85</v>
+      </c>
+      <c r="V301">
         <v>1.95</v>
       </c>
-      <c r="S301">
-        <v>1.85</v>
-      </c>
-      <c r="T301">
-        <v>2.75</v>
-      </c>
-      <c r="U301">
-        <v>1.8</v>
-      </c>
-      <c r="V301">
-        <v>2</v>
-      </c>
       <c r="W301">
         <v>-1</v>
       </c>
@@ -27833,16 +27833,16 @@
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z301">
         <v>-1</v>
       </c>
       <c r="AA301">
+        <v>1</v>
+      </c>
+      <c r="AB301">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB301">
-        <v>0.8</v>
       </c>
       <c r="AC301">
         <v>-1</v>
@@ -27853,7 +27853,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>7779994</v>
+        <v>7779990</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27865,76 +27865,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F302" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="G302" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="H302">
         <v>1</v>
       </c>
       <c r="I302">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J302" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K302">
+        <v>1.571</v>
+      </c>
+      <c r="L302">
         <v>3.5</v>
       </c>
-      <c r="L302">
-        <v>3.2</v>
-      </c>
       <c r="M302">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N302">
+        <v>1.571</v>
+      </c>
+      <c r="O302">
         <v>3.5</v>
       </c>
-      <c r="O302">
-        <v>3.2</v>
-      </c>
       <c r="P302">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="Q302">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R302">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S302">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T302">
         <v>2.25</v>
       </c>
       <c r="U302">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V302">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W302">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AA302">
+        <v>-0.5</v>
+      </c>
+      <c r="AB302">
+        <v>-1</v>
+      </c>
+      <c r="AC302">
         <v>1</v>
-      </c>
-      <c r="AB302">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC302">
-        <v>-1</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -28313,7 +28313,7 @@
         <v>60</v>
       </c>
       <c r="G307" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H307">
         <v>1</v>
@@ -28387,7 +28387,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7811858</v>
+        <v>7807754</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -28399,76 +28399,76 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F308" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G308" t="s">
-        <v>114</v>
+        <v>214</v>
       </c>
       <c r="H308">
         <v>1</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J308" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K308">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="L308">
+        <v>4</v>
+      </c>
+      <c r="M308">
         <v>3.5</v>
       </c>
-      <c r="M308">
-        <v>4.5</v>
-      </c>
       <c r="N308">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O308">
+        <v>4</v>
+      </c>
+      <c r="P308">
         <v>3.5</v>
-      </c>
-      <c r="P308">
-        <v>4.5</v>
       </c>
       <c r="Q308">
         <v>-0.75</v>
       </c>
       <c r="R308">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S308">
+        <v>1.825</v>
+      </c>
+      <c r="T308">
+        <v>3</v>
+      </c>
+      <c r="U308">
+        <v>1.75</v>
+      </c>
+      <c r="V308">
         <v>1.95</v>
       </c>
-      <c r="T308">
+      <c r="W308">
+        <v>-1</v>
+      </c>
+      <c r="X308">
+        <v>-1</v>
+      </c>
+      <c r="Y308">
         <v>2.5</v>
       </c>
-      <c r="U308">
-        <v>1.9</v>
-      </c>
-      <c r="V308">
-        <v>1.9</v>
-      </c>
-      <c r="W308">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X308">
-        <v>-1</v>
-      </c>
-      <c r="Y308">
-        <v>-1</v>
-      </c>
       <c r="Z308">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB308">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC308">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28476,7 +28476,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>7807786</v>
+        <v>7807769</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -28488,55 +28488,55 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F309" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="G309" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="H309">
+        <v>0</v>
+      </c>
+      <c r="I309">
         <v>1</v>
-      </c>
-      <c r="I309">
-        <v>2</v>
       </c>
       <c r="J309" t="s">
         <v>225</v>
       </c>
       <c r="K309">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="L309">
         <v>3.25</v>
       </c>
       <c r="M309">
+        <v>2.8</v>
+      </c>
+      <c r="N309">
         <v>2.2</v>
       </c>
-      <c r="N309">
+      <c r="O309">
+        <v>3.25</v>
+      </c>
+      <c r="P309">
         <v>2.8</v>
       </c>
-      <c r="O309">
-        <v>3.3</v>
-      </c>
-      <c r="P309">
-        <v>2.2</v>
-      </c>
       <c r="Q309">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R309">
+        <v>2</v>
+      </c>
+      <c r="S309">
         <v>1.8</v>
       </c>
-      <c r="S309">
-        <v>2</v>
-      </c>
       <c r="T309">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U309">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V309">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W309">
         <v>-1</v>
@@ -28545,19 +28545,19 @@
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="Z309">
         <v>-1</v>
       </c>
       <c r="AA309">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB309">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC309">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28565,7 +28565,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7807769</v>
+        <v>7807786</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28577,55 +28577,55 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F310" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="G310" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J310" t="s">
         <v>225</v>
       </c>
       <c r="K310">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="L310">
         <v>3.25</v>
       </c>
       <c r="M310">
+        <v>2.2</v>
+      </c>
+      <c r="N310">
         <v>2.8</v>
       </c>
-      <c r="N310">
+      <c r="O310">
+        <v>3.3</v>
+      </c>
+      <c r="P310">
         <v>2.2</v>
       </c>
-      <c r="O310">
-        <v>3.25</v>
-      </c>
-      <c r="P310">
-        <v>2.8</v>
-      </c>
       <c r="Q310">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R310">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S310">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T310">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U310">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V310">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W310">
         <v>-1</v>
@@ -28634,19 +28634,19 @@
         <v>-1</v>
       </c>
       <c r="Y310">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="Z310">
         <v>-1</v>
       </c>
       <c r="AA310">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB310">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC310">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28654,7 +28654,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7807754</v>
+        <v>7811858</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28666,76 +28666,76 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F311" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G311" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="H311">
         <v>1</v>
       </c>
       <c r="I311">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J311" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K311">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="L311">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M311">
+        <v>4.5</v>
+      </c>
+      <c r="N311">
+        <v>1.65</v>
+      </c>
+      <c r="O311">
         <v>3.5</v>
       </c>
-      <c r="N311">
-        <v>1.727</v>
-      </c>
-      <c r="O311">
-        <v>4</v>
-      </c>
       <c r="P311">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q311">
         <v>-0.75</v>
       </c>
       <c r="R311">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S311">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T311">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U311">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V311">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W311">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X311">
         <v>-1</v>
       </c>
       <c r="Y311">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z311">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA311">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB311">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC311">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28921,7 +28921,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>7843258</v>
+        <v>7843129</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28933,58 +28933,58 @@
         <v>45339.4375</v>
       </c>
       <c r="F314" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G314" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="H314">
+        <v>2</v>
+      </c>
+      <c r="I314">
         <v>1</v>
-      </c>
-      <c r="I314">
-        <v>0</v>
       </c>
       <c r="J314" t="s">
         <v>224</v>
       </c>
       <c r="K314">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="L314">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M314">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="N314">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="O314">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P314">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q314">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R314">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S314">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T314">
         <v>2.5</v>
       </c>
       <c r="U314">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V314">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W314">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="X314">
         <v>-1</v>
@@ -28993,16 +28993,16 @@
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA314">
         <v>-1</v>
       </c>
       <c r="AB314">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC314">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -29010,7 +29010,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>7843129</v>
+        <v>7843258</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -29022,58 +29022,58 @@
         <v>45339.4375</v>
       </c>
       <c r="F315" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="G315" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J315" t="s">
         <v>224</v>
       </c>
       <c r="K315">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="L315">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M315">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="N315">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="O315">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P315">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q315">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R315">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S315">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T315">
         <v>2.5</v>
       </c>
       <c r="U315">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V315">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W315">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="X315">
         <v>-1</v>
@@ -29082,16 +29082,16 @@
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA315">
         <v>-1</v>
       </c>
       <c r="AB315">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC315">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -29203,7 +29203,7 @@
         <v>100</v>
       </c>
       <c r="G317" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H317">
         <v>3</v>
@@ -29737,7 +29737,7 @@
         <v>146</v>
       </c>
       <c r="G323" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H323">
         <v>0</v>
@@ -29912,7 +29912,7 @@
         <v>45340.4375</v>
       </c>
       <c r="F325" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G325" t="s">
         <v>78</v>
@@ -30004,7 +30004,7 @@
         <v>58</v>
       </c>
       <c r="G326" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H326">
         <v>0</v>
@@ -30182,7 +30182,7 @@
         <v>70</v>
       </c>
       <c r="G328" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H328">
         <v>1</v>
@@ -30338,6 +30338,598 @@
       </c>
       <c r="AC329">
         <v>1.025</v>
+      </c>
+    </row>
+    <row r="330" spans="1:29">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>7874304</v>
+      </c>
+      <c r="C330" t="s">
+        <v>28</v>
+      </c>
+      <c r="D330" t="s">
+        <v>28</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F330" t="s">
+        <v>147</v>
+      </c>
+      <c r="G330" t="s">
+        <v>85</v>
+      </c>
+      <c r="K330">
+        <v>2</v>
+      </c>
+      <c r="L330">
+        <v>3.75</v>
+      </c>
+      <c r="M330">
+        <v>2.9</v>
+      </c>
+      <c r="N330">
+        <v>2</v>
+      </c>
+      <c r="O330">
+        <v>3.75</v>
+      </c>
+      <c r="P330">
+        <v>2.9</v>
+      </c>
+      <c r="Q330">
+        <v>-0.5</v>
+      </c>
+      <c r="R330">
+        <v>2.05</v>
+      </c>
+      <c r="S330">
+        <v>1.75</v>
+      </c>
+      <c r="T330">
+        <v>3</v>
+      </c>
+      <c r="U330">
+        <v>1.9</v>
+      </c>
+      <c r="V330">
+        <v>1.9</v>
+      </c>
+      <c r="W330">
+        <v>0</v>
+      </c>
+      <c r="X330">
+        <v>0</v>
+      </c>
+      <c r="Y330">
+        <v>0</v>
+      </c>
+      <c r="Z330">
+        <v>0</v>
+      </c>
+      <c r="AA330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:29">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>7874434</v>
+      </c>
+      <c r="C331" t="s">
+        <v>28</v>
+      </c>
+      <c r="D331" t="s">
+        <v>28</v>
+      </c>
+      <c r="E331" s="2">
+        <v>45346.52083333334</v>
+      </c>
+      <c r="F331" t="s">
+        <v>127</v>
+      </c>
+      <c r="G331" t="s">
+        <v>187</v>
+      </c>
+      <c r="K331">
+        <v>2.15</v>
+      </c>
+      <c r="L331">
+        <v>3.2</v>
+      </c>
+      <c r="M331">
+        <v>3</v>
+      </c>
+      <c r="N331">
+        <v>2.15</v>
+      </c>
+      <c r="O331">
+        <v>3.1</v>
+      </c>
+      <c r="P331">
+        <v>3.1</v>
+      </c>
+      <c r="Q331">
+        <v>-0.25</v>
+      </c>
+      <c r="R331">
+        <v>1.925</v>
+      </c>
+      <c r="S331">
+        <v>1.875</v>
+      </c>
+      <c r="T331">
+        <v>2.25</v>
+      </c>
+      <c r="U331">
+        <v>1.825</v>
+      </c>
+      <c r="V331">
+        <v>1.975</v>
+      </c>
+      <c r="W331">
+        <v>0</v>
+      </c>
+      <c r="X331">
+        <v>0</v>
+      </c>
+      <c r="Y331">
+        <v>0</v>
+      </c>
+      <c r="Z331">
+        <v>0</v>
+      </c>
+      <c r="AA331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:29">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>7874398</v>
+      </c>
+      <c r="C332" t="s">
+        <v>28</v>
+      </c>
+      <c r="D332" t="s">
+        <v>28</v>
+      </c>
+      <c r="E332" s="2">
+        <v>45346.54166666666</v>
+      </c>
+      <c r="F332" t="s">
+        <v>119</v>
+      </c>
+      <c r="G332" t="s">
+        <v>37</v>
+      </c>
+      <c r="K332">
+        <v>1.8</v>
+      </c>
+      <c r="L332">
+        <v>3.2</v>
+      </c>
+      <c r="M332">
+        <v>4</v>
+      </c>
+      <c r="N332">
+        <v>1.8</v>
+      </c>
+      <c r="O332">
+        <v>3.3</v>
+      </c>
+      <c r="P332">
+        <v>3.8</v>
+      </c>
+      <c r="Q332">
+        <v>-0.5</v>
+      </c>
+      <c r="R332">
+        <v>1.85</v>
+      </c>
+      <c r="S332">
+        <v>1.95</v>
+      </c>
+      <c r="T332">
+        <v>3.25</v>
+      </c>
+      <c r="U332">
+        <v>1.775</v>
+      </c>
+      <c r="V332">
+        <v>2.025</v>
+      </c>
+      <c r="W332">
+        <v>0</v>
+      </c>
+      <c r="X332">
+        <v>0</v>
+      </c>
+      <c r="Y332">
+        <v>0</v>
+      </c>
+      <c r="Z332">
+        <v>0</v>
+      </c>
+      <c r="AA332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:29">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>7874234</v>
+      </c>
+      <c r="C333" t="s">
+        <v>28</v>
+      </c>
+      <c r="D333" t="s">
+        <v>28</v>
+      </c>
+      <c r="E333" s="2">
+        <v>45346.58333333334</v>
+      </c>
+      <c r="F333" t="s">
+        <v>32</v>
+      </c>
+      <c r="G333" t="s">
+        <v>55</v>
+      </c>
+      <c r="K333">
+        <v>1.8</v>
+      </c>
+      <c r="L333">
+        <v>3.2</v>
+      </c>
+      <c r="M333">
+        <v>4</v>
+      </c>
+      <c r="N333">
+        <v>1.8</v>
+      </c>
+      <c r="O333">
+        <v>3.2</v>
+      </c>
+      <c r="P333">
+        <v>4</v>
+      </c>
+      <c r="Q333">
+        <v>-0.5</v>
+      </c>
+      <c r="R333">
+        <v>1.85</v>
+      </c>
+      <c r="S333">
+        <v>1.95</v>
+      </c>
+      <c r="T333">
+        <v>2.75</v>
+      </c>
+      <c r="U333">
+        <v>1.95</v>
+      </c>
+      <c r="V333">
+        <v>1.85</v>
+      </c>
+      <c r="W333">
+        <v>0</v>
+      </c>
+      <c r="X333">
+        <v>0</v>
+      </c>
+      <c r="Y333">
+        <v>0</v>
+      </c>
+      <c r="Z333">
+        <v>0</v>
+      </c>
+      <c r="AA333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:29">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>7874249</v>
+      </c>
+      <c r="C334" t="s">
+        <v>28</v>
+      </c>
+      <c r="D334" t="s">
+        <v>28</v>
+      </c>
+      <c r="E334" s="2">
+        <v>45346.58333333334</v>
+      </c>
+      <c r="F334" t="s">
+        <v>94</v>
+      </c>
+      <c r="G334" t="s">
+        <v>182</v>
+      </c>
+      <c r="K334">
+        <v>2.1</v>
+      </c>
+      <c r="L334">
+        <v>3.2</v>
+      </c>
+      <c r="M334">
+        <v>3.1</v>
+      </c>
+      <c r="N334">
+        <v>2.1</v>
+      </c>
+      <c r="O334">
+        <v>3.2</v>
+      </c>
+      <c r="P334">
+        <v>3.1</v>
+      </c>
+      <c r="Q334">
+        <v>-0.25</v>
+      </c>
+      <c r="R334">
+        <v>1.875</v>
+      </c>
+      <c r="S334">
+        <v>1.925</v>
+      </c>
+      <c r="T334">
+        <v>2.25</v>
+      </c>
+      <c r="U334">
+        <v>1.925</v>
+      </c>
+      <c r="V334">
+        <v>1.875</v>
+      </c>
+      <c r="W334">
+        <v>0</v>
+      </c>
+      <c r="X334">
+        <v>0</v>
+      </c>
+      <c r="Y334">
+        <v>0</v>
+      </c>
+      <c r="Z334">
+        <v>0</v>
+      </c>
+      <c r="AA334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:29">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>7874335</v>
+      </c>
+      <c r="C335" t="s">
+        <v>28</v>
+      </c>
+      <c r="D335" t="s">
+        <v>28</v>
+      </c>
+      <c r="E335" s="2">
+        <v>45346.58333333334</v>
+      </c>
+      <c r="F335" t="s">
+        <v>88</v>
+      </c>
+      <c r="G335" t="s">
+        <v>43</v>
+      </c>
+      <c r="K335">
+        <v>1.909</v>
+      </c>
+      <c r="L335">
+        <v>3.25</v>
+      </c>
+      <c r="M335">
+        <v>3.5</v>
+      </c>
+      <c r="N335">
+        <v>1.909</v>
+      </c>
+      <c r="O335">
+        <v>3.25</v>
+      </c>
+      <c r="P335">
+        <v>3.5</v>
+      </c>
+      <c r="Q335">
+        <v>-0.5</v>
+      </c>
+      <c r="R335">
+        <v>1.975</v>
+      </c>
+      <c r="S335">
+        <v>1.825</v>
+      </c>
+      <c r="T335">
+        <v>2.5</v>
+      </c>
+      <c r="U335">
+        <v>1.95</v>
+      </c>
+      <c r="V335">
+        <v>1.85</v>
+      </c>
+      <c r="W335">
+        <v>0</v>
+      </c>
+      <c r="X335">
+        <v>0</v>
+      </c>
+      <c r="Y335">
+        <v>0</v>
+      </c>
+      <c r="Z335">
+        <v>0</v>
+      </c>
+      <c r="AA335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:29">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>7874397</v>
+      </c>
+      <c r="C336" t="s">
+        <v>28</v>
+      </c>
+      <c r="D336" t="s">
+        <v>28</v>
+      </c>
+      <c r="E336" s="2">
+        <v>45346.58333333334</v>
+      </c>
+      <c r="F336" t="s">
+        <v>78</v>
+      </c>
+      <c r="G336" t="s">
+        <v>145</v>
+      </c>
+      <c r="K336">
+        <v>1.5</v>
+      </c>
+      <c r="L336">
+        <v>4</v>
+      </c>
+      <c r="M336">
+        <v>5</v>
+      </c>
+      <c r="N336">
+        <v>1.5</v>
+      </c>
+      <c r="O336">
+        <v>4</v>
+      </c>
+      <c r="P336">
+        <v>4.75</v>
+      </c>
+      <c r="Q336">
+        <v>-1</v>
+      </c>
+      <c r="R336">
+        <v>1.875</v>
+      </c>
+      <c r="S336">
+        <v>1.925</v>
+      </c>
+      <c r="T336">
+        <v>2.75</v>
+      </c>
+      <c r="U336">
+        <v>1.95</v>
+      </c>
+      <c r="V336">
+        <v>1.85</v>
+      </c>
+      <c r="W336">
+        <v>0</v>
+      </c>
+      <c r="X336">
+        <v>0</v>
+      </c>
+      <c r="Y336">
+        <v>0</v>
+      </c>
+      <c r="Z336">
+        <v>0</v>
+      </c>
+      <c r="AA336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:27">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>7874399</v>
+      </c>
+      <c r="C337" t="s">
+        <v>28</v>
+      </c>
+      <c r="D337" t="s">
+        <v>28</v>
+      </c>
+      <c r="E337" s="2">
+        <v>45346.58333333334</v>
+      </c>
+      <c r="F337" t="s">
+        <v>107</v>
+      </c>
+      <c r="G337" t="s">
+        <v>74</v>
+      </c>
+      <c r="K337">
+        <v>1.4</v>
+      </c>
+      <c r="L337">
+        <v>4</v>
+      </c>
+      <c r="M337">
+        <v>6.5</v>
+      </c>
+      <c r="N337">
+        <v>1.571</v>
+      </c>
+      <c r="O337">
+        <v>3.75</v>
+      </c>
+      <c r="P337">
+        <v>4.75</v>
+      </c>
+      <c r="Q337">
+        <v>-1</v>
+      </c>
+      <c r="R337">
+        <v>1.95</v>
+      </c>
+      <c r="S337">
+        <v>1.85</v>
+      </c>
+      <c r="T337">
+        <v>2.75</v>
+      </c>
+      <c r="U337">
+        <v>1.825</v>
+      </c>
+      <c r="V337">
+        <v>1.975</v>
+      </c>
+      <c r="W337">
+        <v>0</v>
+      </c>
+      <c r="X337">
+        <v>0</v>
+      </c>
+      <c r="Y337">
+        <v>0</v>
+      </c>
+      <c r="Z337">
+        <v>0</v>
+      </c>
+      <c r="AA337">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/France National 3/France National 3.xlsx
+++ b/France National 3/France National 3.xlsx
@@ -667,16 +667,16 @@
     <t>CA Pontarlier</t>
   </si>
   <si>
-    <t>Vesoul</t>
-  </si>
-  <si>
-    <t>Vannes OC</t>
+    <t>Stade Pontivy</t>
   </si>
   <si>
     <t>Niort II</t>
   </si>
   <si>
-    <t>Stade Pontivy</t>
+    <t>Vesoul</t>
+  </si>
+  <si>
+    <t>Vannes OC</t>
   </si>
   <si>
     <t>CS Bretigny</t>
@@ -19932,7 +19932,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7543690</v>
+        <v>7543661</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19944,76 +19944,76 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="G213" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K213">
         <v>2.4</v>
       </c>
       <c r="L213">
+        <v>3</v>
+      </c>
+      <c r="M213">
         <v>2.75</v>
-      </c>
-      <c r="M213">
-        <v>3</v>
       </c>
       <c r="N213">
         <v>2.4</v>
       </c>
       <c r="O213">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P213">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q213">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R213">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S213">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="T213">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U213">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V213">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W213">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X213">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA213">
+        <v>-1</v>
+      </c>
+      <c r="AB213">
+        <v>0.4625</v>
+      </c>
+      <c r="AC213">
         <v>-0.5</v>
-      </c>
-      <c r="AA213">
-        <v>0.35</v>
-      </c>
-      <c r="AB213">
-        <v>-0.5</v>
-      </c>
-      <c r="AC213">
-        <v>0.45</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -20021,7 +20021,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7543661</v>
+        <v>7543688</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -20033,58 +20033,58 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G214" t="s">
-        <v>206</v>
+        <v>83</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
         <v>224</v>
       </c>
       <c r="K214">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L214">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M214">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="N214">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O214">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P214">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q214">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R214">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S214">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T214">
         <v>2.75</v>
       </c>
       <c r="U214">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V214">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W214">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -20093,16 +20093,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AC214">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20110,7 +20110,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7543688</v>
+        <v>7543690</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -20122,76 +20122,76 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="G215" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="H215">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K215">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L215">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M215">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N215">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O215">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P215">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q215">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S215">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T215">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W215">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AB215">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -20644,7 +20644,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7547167</v>
+        <v>7547183</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20656,46 +20656,46 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="G221" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221">
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K221">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L221">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M221">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N221">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O221">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P221">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S221">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T221">
         <v>2.75</v>
@@ -20707,25 +20707,25 @@
         <v>1.975</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X221">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA221">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC221">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20733,7 +20733,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7547183</v>
+        <v>7547182</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20745,34 +20745,34 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G222" t="s">
-        <v>36</v>
+        <v>208</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="s">
         <v>224</v>
       </c>
       <c r="K222">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L222">
         <v>2.8</v>
       </c>
       <c r="M222">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="N222">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O222">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P222">
         <v>3.3</v>
@@ -20781,22 +20781,22 @@
         <v>-0.25</v>
       </c>
       <c r="R222">
+        <v>1.85</v>
+      </c>
+      <c r="S222">
+        <v>1.95</v>
+      </c>
+      <c r="T222">
+        <v>2.5</v>
+      </c>
+      <c r="U222">
         <v>1.9</v>
       </c>
-      <c r="S222">
+      <c r="V222">
         <v>1.9</v>
       </c>
-      <c r="T222">
-        <v>2.75</v>
-      </c>
-      <c r="U222">
-        <v>1.825</v>
-      </c>
-      <c r="V222">
-        <v>1.975</v>
-      </c>
       <c r="W222">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="X222">
         <v>-1</v>
@@ -20805,16 +20805,16 @@
         <v>-1</v>
       </c>
       <c r="Z222">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA222">
+        <v>-1</v>
+      </c>
+      <c r="AB222">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA222">
-        <v>-1</v>
-      </c>
-      <c r="AB222">
-        <v>0.4125</v>
-      </c>
       <c r="AC222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20822,7 +20822,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7547182</v>
+        <v>7547167</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20834,76 +20834,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F223" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G223" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="H223">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K223">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L223">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M223">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N223">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O223">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P223">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S223">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V223">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W223">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X223">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB223">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -25005,7 +25005,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7718964</v>
+        <v>7718936</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -25017,58 +25017,58 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F270" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G270" t="s">
         <v>217</v>
       </c>
       <c r="H270">
+        <v>5</v>
+      </c>
+      <c r="I270">
         <v>3</v>
-      </c>
-      <c r="I270">
-        <v>1</v>
       </c>
       <c r="J270" t="s">
         <v>224</v>
       </c>
       <c r="K270">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="L270">
         <v>3.25</v>
       </c>
       <c r="M270">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="N270">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O270">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P270">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q270">
         <v>-0.5</v>
       </c>
       <c r="R270">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S270">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T270">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U270">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V270">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W270">
-        <v>0.833</v>
+        <v>0.8</v>
       </c>
       <c r="X270">
         <v>-1</v>
@@ -25077,13 +25077,13 @@
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA270">
         <v>-1</v>
       </c>
       <c r="AB270">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC270">
         <v>-1</v>
@@ -25094,7 +25094,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7718933</v>
+        <v>7718935</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -25106,13 +25106,13 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G271" t="s">
         <v>218</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I271">
         <v>1</v>
@@ -25121,34 +25121,34 @@
         <v>224</v>
       </c>
       <c r="K271">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="L271">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M271">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="N271">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O271">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P271">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q271">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R271">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S271">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T271">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U271">
         <v>1.9</v>
@@ -25157,7 +25157,7 @@
         <v>1.9</v>
       </c>
       <c r="W271">
-        <v>1.25</v>
+        <v>0.571</v>
       </c>
       <c r="X271">
         <v>-1</v>
@@ -25166,7 +25166,7 @@
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA271">
         <v>-1</v>
@@ -25183,7 +25183,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7718935</v>
+        <v>7718964</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -25195,7 +25195,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="G272" t="s">
         <v>219</v>
@@ -25210,43 +25210,43 @@
         <v>224</v>
       </c>
       <c r="K272">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="L272">
+        <v>3.25</v>
+      </c>
+      <c r="M272">
         <v>3.8</v>
       </c>
-      <c r="M272">
-        <v>4.75</v>
-      </c>
       <c r="N272">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="O272">
+        <v>3.25</v>
+      </c>
+      <c r="P272">
         <v>3.8</v>
       </c>
-      <c r="P272">
-        <v>4.75</v>
-      </c>
       <c r="Q272">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R272">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S272">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T272">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U272">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V272">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W272">
-        <v>0.571</v>
+        <v>0.833</v>
       </c>
       <c r="X272">
         <v>-1</v>
@@ -25255,13 +25255,13 @@
         <v>-1</v>
       </c>
       <c r="Z272">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA272">
         <v>-1</v>
       </c>
       <c r="AB272">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC272">
         <v>-1</v>
@@ -25272,7 +25272,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7718936</v>
+        <v>7718933</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -25284,58 +25284,58 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F273" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="G273" t="s">
         <v>220</v>
       </c>
       <c r="H273">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I273">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J273" t="s">
         <v>224</v>
       </c>
       <c r="K273">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L273">
         <v>3.25</v>
       </c>
       <c r="M273">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="N273">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O273">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P273">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q273">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R273">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S273">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T273">
         <v>2.5</v>
       </c>
       <c r="U273">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V273">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W273">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="X273">
         <v>-1</v>
@@ -25344,13 +25344,13 @@
         <v>-1</v>
       </c>
       <c r="Z273">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA273">
         <v>-1</v>
       </c>
       <c r="AB273">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC273">
         <v>-1</v>
@@ -29470,7 +29470,7 @@
         <v>100</v>
       </c>
       <c r="G320" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H320">
         <v>3</v>
@@ -30701,7 +30701,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7874399</v>
+        <v>7874249</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30713,76 +30713,76 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F334" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G334" t="s">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J334" t="s">
         <v>226</v>
       </c>
       <c r="K334">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L334">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M334">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N334">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O334">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P334">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q334">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R334">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S334">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T334">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U334">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V334">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W334">
         <v>-1</v>
       </c>
       <c r="X334">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y334">
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA334">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB334">
         <v>-1</v>
       </c>
       <c r="AC334">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30790,7 +30790,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>7874249</v>
+        <v>7874234</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30802,10 +30802,10 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F335" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="G335" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="H335">
         <v>0</v>
@@ -30817,40 +30817,40 @@
         <v>226</v>
       </c>
       <c r="K335">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L335">
         <v>3.2</v>
       </c>
       <c r="M335">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N335">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O335">
         <v>3.2</v>
       </c>
       <c r="P335">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q335">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R335">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S335">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T335">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U335">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V335">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W335">
         <v>-1</v>
@@ -30862,16 +30862,16 @@
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA335">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AB335">
         <v>-1</v>
       </c>
       <c r="AC335">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30879,7 +30879,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>7874234</v>
+        <v>7874397</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30891,46 +30891,46 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F336" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="G336" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J336" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K336">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L336">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M336">
+        <v>5</v>
+      </c>
+      <c r="N336">
+        <v>1.5</v>
+      </c>
+      <c r="O336">
         <v>4</v>
       </c>
-      <c r="N336">
-        <v>1.8</v>
-      </c>
-      <c r="O336">
-        <v>3.2</v>
-      </c>
       <c r="P336">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q336">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R336">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S336">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T336">
         <v>2.75</v>
@@ -30942,25 +30942,25 @@
         <v>1.85</v>
       </c>
       <c r="W336">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X336">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y336">
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA336">
+        <v>-1</v>
+      </c>
+      <c r="AB336">
         <v>0.95</v>
       </c>
-      <c r="AB336">
-        <v>-1</v>
-      </c>
       <c r="AC336">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30968,7 +30968,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>7874397</v>
+        <v>7874399</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30980,34 +30980,34 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F337" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="G337" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="H337">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I337">
         <v>1</v>
       </c>
       <c r="J337" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K337">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L337">
         <v>4</v>
       </c>
       <c r="M337">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N337">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="O337">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P337">
         <v>4.75</v>
@@ -31016,40 +31016,40 @@
         <v>-1</v>
       </c>
       <c r="R337">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S337">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T337">
         <v>2.75</v>
       </c>
       <c r="U337">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V337">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W337">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X337">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y337">
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA337">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB337">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC337">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="338" spans="1:29">

--- a/France National 3/France National 3.xlsx
+++ b/France National 3/France National 3.xlsx
@@ -118,13 +118,16 @@
     <t>US Castanet</t>
   </si>
   <si>
+    <t>Vitre</t>
+  </si>
+  <si>
     <t>Montpellier II</t>
   </si>
   <si>
-    <t>Vitre</t>
+    <t>Maubeuge</t>
   </si>
   <si>
-    <t>Maubeuge</t>
+    <t>Pau II</t>
   </si>
   <si>
     <t>RC Epernay</t>
@@ -133,16 +136,13 @@
     <t>OnetleChateau</t>
   </si>
   <si>
-    <t>Pau II</t>
-  </si>
-  <si>
     <t>Caen II</t>
   </si>
   <si>
-    <t>Lyon Duchere</t>
+    <t>Lyon II</t>
   </si>
   <si>
-    <t>Lyon II</t>
+    <t>Lyon Duchere</t>
   </si>
   <si>
     <t>Stade Bordelais</t>
@@ -163,13 +163,13 @@
     <t>Stade Beaucairois 30</t>
   </si>
   <si>
+    <t>Saint Priest</t>
+  </si>
+  <si>
     <t>Union Cosnoise</t>
   </si>
   <si>
     <t>AS PrixlesMezieres</t>
-  </si>
-  <si>
-    <t>Saint Priest</t>
   </si>
   <si>
     <t>AS Villers Houlgate</t>
@@ -214,13 +214,13 @@
     <t>Entente UGA Ardziv</t>
   </si>
   <si>
+    <t>StPierre Milizac</t>
+  </si>
+  <si>
     <t>FC Metropole Troyenne</t>
   </si>
   <si>
     <t>Dijon II</t>
-  </si>
-  <si>
-    <t>StPierre Milizac</t>
   </si>
   <si>
     <t>Caen PTT</t>
@@ -388,10 +388,10 @@
     <t>Chantilly</t>
   </si>
   <si>
-    <t>Vannes OC</t>
+    <t>ES Fosseenne</t>
   </si>
   <si>
-    <t>ES Fosseenne</t>
+    <t>Vannes OC</t>
   </si>
   <si>
     <t>Cannes</t>
@@ -412,10 +412,10 @@
     <t>Feignies Aulnoye FC</t>
   </si>
   <si>
-    <t>Bagnols Pont</t>
+    <t>ES Gueretoise</t>
   </si>
   <si>
-    <t>ES Gueretoise</t>
+    <t>Bagnols Pont</t>
   </si>
   <si>
     <t>SaintLo Manche</t>
@@ -427,10 +427,10 @@
     <t>US Vimy</t>
   </si>
   <si>
-    <t>LouhansCuiseaux</t>
+    <t>Espaly</t>
   </si>
   <si>
-    <t>Espaly</t>
+    <t>LouhansCuiseaux</t>
   </si>
   <si>
     <t>Ancienne ChateauGontier</t>
@@ -448,13 +448,13 @@
     <t>Bastia II</t>
   </si>
   <si>
-    <t>Alberes Argeles</t>
-  </si>
-  <si>
     <t>ASM Belfort</t>
   </si>
   <si>
     <t>Besancon</t>
+  </si>
+  <si>
+    <t>Alberes Argeles</t>
   </si>
   <si>
     <t>Limonest</t>
@@ -556,13 +556,13 @@
     <t>SaintPaulSport</t>
   </si>
   <si>
-    <t>Vesoul</t>
-  </si>
-  <si>
     <t>Stade Pontivy</t>
   </si>
   <si>
     <t>Niort II</t>
+  </si>
+  <si>
+    <t>Vesoul</t>
   </si>
   <si>
     <t>US Pays de Cassel</t>
@@ -1493,7 +1493,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6727690</v>
+        <v>6727693</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1508,70 +1508,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="J7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7">
+        <v>1.95</v>
+      </c>
+      <c r="L7">
+        <v>3.25</v>
+      </c>
+      <c r="M7">
+        <v>3.4</v>
+      </c>
+      <c r="N7">
+        <v>1.95</v>
+      </c>
+      <c r="O7">
+        <v>3.3</v>
+      </c>
+      <c r="P7">
+        <v>3.4</v>
+      </c>
+      <c r="Q7">
+        <v>-0.5</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>1.8</v>
+      </c>
+      <c r="T7">
         <v>3</v>
       </c>
-      <c r="J7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K7">
-        <v>3.5</v>
-      </c>
-      <c r="L7">
-        <v>3.5</v>
-      </c>
-      <c r="M7">
-        <v>1.85</v>
-      </c>
-      <c r="N7">
-        <v>3.5</v>
-      </c>
-      <c r="O7">
-        <v>3.5</v>
-      </c>
-      <c r="P7">
-        <v>1.85</v>
-      </c>
-      <c r="Q7">
-        <v>0.5</v>
-      </c>
-      <c r="R7">
+      <c r="U7">
         <v>1.9</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>1.9</v>
       </c>
-      <c r="T7">
-        <v>2.5</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7">
-        <v>1.8</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB7">
-        <v>1</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1582,7 +1582,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6727693</v>
+        <v>6727690</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1597,70 +1597,70 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8">
+        <v>3.5</v>
+      </c>
+      <c r="L8">
+        <v>3.5</v>
+      </c>
+      <c r="M8">
+        <v>1.85</v>
+      </c>
+      <c r="N8">
+        <v>3.5</v>
+      </c>
+      <c r="O8">
+        <v>3.5</v>
+      </c>
+      <c r="P8">
+        <v>1.85</v>
+      </c>
+      <c r="Q8">
+        <v>0.5</v>
+      </c>
+      <c r="R8">
+        <v>1.9</v>
+      </c>
+      <c r="S8">
+        <v>1.9</v>
+      </c>
+      <c r="T8">
+        <v>2.5</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>1.8</v>
+      </c>
+      <c r="W8">
+        <v>-1</v>
+      </c>
+      <c r="X8">
+        <v>-1</v>
+      </c>
+      <c r="Y8">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB8">
         <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>190</v>
-      </c>
-      <c r="K8">
-        <v>1.95</v>
-      </c>
-      <c r="L8">
-        <v>3.25</v>
-      </c>
-      <c r="M8">
-        <v>3.4</v>
-      </c>
-      <c r="N8">
-        <v>1.95</v>
-      </c>
-      <c r="O8">
-        <v>3.3</v>
-      </c>
-      <c r="P8">
-        <v>3.4</v>
-      </c>
-      <c r="Q8">
-        <v>-0.5</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <v>1.8</v>
-      </c>
-      <c r="T8">
-        <v>3</v>
-      </c>
-      <c r="U8">
-        <v>1.9</v>
-      </c>
-      <c r="V8">
-        <v>1.9</v>
-      </c>
-      <c r="W8">
-        <v>0.95</v>
-      </c>
-      <c r="X8">
-        <v>-1</v>
-      </c>
-      <c r="Y8">
-        <v>-1</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
-      <c r="AB8">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1760,7 +1760,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6727651</v>
+        <v>6727649</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1775,55 +1775,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>190</v>
       </c>
       <c r="K10">
-        <v>2.9</v>
+        <v>1.181</v>
       </c>
       <c r="L10">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>1.95</v>
+        <v>10</v>
       </c>
       <c r="N10">
-        <v>3.5</v>
+        <v>1.181</v>
       </c>
       <c r="O10">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P10">
-        <v>1.7</v>
+        <v>11</v>
       </c>
       <c r="Q10">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="R10">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T10">
         <v>3</v>
       </c>
       <c r="U10">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V10">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W10">
-        <v>2.5</v>
+        <v>0.181</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1832,13 +1832,13 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1849,7 +1849,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6727691</v>
+        <v>6727651</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1864,55 +1864,55 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>190</v>
       </c>
       <c r="K11">
-        <v>1.285</v>
+        <v>2.9</v>
       </c>
       <c r="L11">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="M11">
-        <v>9</v>
+        <v>1.95</v>
       </c>
       <c r="N11">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O11">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P11">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q11">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R11">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S11">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T11">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V11">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W11">
-        <v>0.2849999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1921,13 +1921,13 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1938,7 +1938,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6727649</v>
+        <v>6727691</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1956,7 +1956,7 @@
         <v>133</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1965,43 +1965,43 @@
         <v>190</v>
       </c>
       <c r="K12">
-        <v>1.181</v>
+        <v>1.285</v>
       </c>
       <c r="L12">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N12">
-        <v>1.181</v>
+        <v>1.285</v>
       </c>
       <c r="O12">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="P12">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Q12">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R12">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S12">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U12">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W12">
-        <v>0.181</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -2010,13 +2010,13 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -2116,7 +2116,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7122318</v>
+        <v>7122319</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -2131,43 +2131,43 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
         <v>190</v>
       </c>
       <c r="K14">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L14">
         <v>3.1</v>
       </c>
       <c r="M14">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N14">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O14">
         <v>3.1</v>
       </c>
       <c r="P14">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q14">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T14">
         <v>2.5</v>
@@ -2179,7 +2179,7 @@
         <v>1.95</v>
       </c>
       <c r="W14">
-        <v>0.909</v>
+        <v>1.25</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -2188,16 +2188,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2205,7 +2205,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7122319</v>
+        <v>7122318</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -2220,43 +2220,43 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>190</v>
       </c>
       <c r="K15">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L15">
         <v>3.1</v>
       </c>
       <c r="M15">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N15">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O15">
         <v>3.1</v>
       </c>
       <c r="P15">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S15">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
         <v>2.5</v>
@@ -2268,7 +2268,7 @@
         <v>1.95</v>
       </c>
       <c r="W15">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -2277,16 +2277,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2751,7 +2751,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>64</v>
@@ -2917,7 +2917,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7152841</v>
+        <v>7152842</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2935,70 +2935,70 @@
         <v>137</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K23">
-        <v>3.2</v>
+        <v>1.285</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N23">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P23">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
+        <v>1.925</v>
+      </c>
+      <c r="V23">
         <v>1.875</v>
       </c>
-      <c r="V23">
-        <v>1.925</v>
-      </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC23">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -3006,7 +3006,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7152840</v>
+        <v>7152841</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -3021,73 +3021,73 @@
         <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K24">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="L24">
         <v>3.4</v>
       </c>
       <c r="M24">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="O24">
         <v>3.4</v>
       </c>
       <c r="P24">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3095,7 +3095,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7152842</v>
+        <v>7152840</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -3110,58 +3110,58 @@
         <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K25">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="L25">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M25">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="N25">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O25">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P25">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="Q25">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y25">
         <v>-1</v>
@@ -3170,13 +3170,13 @@
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB25">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3374,7 +3374,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
         <v>44</v>
@@ -3641,7 +3641,7 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
         <v>140</v>
@@ -3822,7 +3822,7 @@
         <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3911,7 +3911,7 @@
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -4264,7 +4264,7 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
         <v>105</v>
@@ -4623,7 +4623,7 @@
         <v>64</v>
       </c>
       <c r="G42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
         <v>128</v>
@@ -4964,7 +4964,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7244492</v>
+        <v>7244493</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4976,76 +4976,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G46" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
         <v>0</v>
       </c>
-      <c r="I46">
-        <v>2</v>
-      </c>
       <c r="J46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K46">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L46">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M46">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N46">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O46">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5065,10 +5065,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -5154,10 +5154,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -5231,7 +5231,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7244493</v>
+        <v>7244492</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -5243,76 +5243,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>189</v>
+      </c>
+      <c r="K49">
+        <v>2.25</v>
+      </c>
+      <c r="L49">
+        <v>3.25</v>
+      </c>
+      <c r="M49">
+        <v>2.75</v>
+      </c>
+      <c r="N49">
+        <v>2.25</v>
+      </c>
+      <c r="O49">
+        <v>3.25</v>
+      </c>
+      <c r="P49">
+        <v>2.75</v>
+      </c>
+      <c r="Q49">
+        <v>-0.25</v>
+      </c>
+      <c r="R49">
+        <v>2.025</v>
+      </c>
+      <c r="S49">
+        <v>1.775</v>
+      </c>
+      <c r="T49">
+        <v>2.75</v>
+      </c>
+      <c r="U49">
+        <v>1.8</v>
+      </c>
+      <c r="V49">
+        <v>2</v>
+      </c>
+      <c r="W49">
+        <v>-1</v>
+      </c>
+      <c r="X49">
+        <v>-1</v>
+      </c>
+      <c r="Y49">
+        <v>1.75</v>
+      </c>
+      <c r="Z49">
+        <v>-1</v>
+      </c>
+      <c r="AA49">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB49">
+        <v>-1</v>
+      </c>
+      <c r="AC49">
         <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49" t="s">
-        <v>190</v>
-      </c>
-      <c r="K49">
-        <v>1.8</v>
-      </c>
-      <c r="L49">
-        <v>3.6</v>
-      </c>
-      <c r="M49">
-        <v>3.5</v>
-      </c>
-      <c r="N49">
-        <v>1.8</v>
-      </c>
-      <c r="O49">
-        <v>3.6</v>
-      </c>
-      <c r="P49">
-        <v>3.5</v>
-      </c>
-      <c r="Q49">
-        <v>-0.5</v>
-      </c>
-      <c r="R49">
-        <v>1.85</v>
-      </c>
-      <c r="S49">
-        <v>1.95</v>
-      </c>
-      <c r="T49">
-        <v>2.5</v>
-      </c>
-      <c r="U49">
-        <v>1.75</v>
-      </c>
-      <c r="V49">
-        <v>2.05</v>
-      </c>
-      <c r="W49">
-        <v>0.8</v>
-      </c>
-      <c r="X49">
-        <v>-1</v>
-      </c>
-      <c r="Y49">
-        <v>-1</v>
-      </c>
-      <c r="Z49">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
-      <c r="AB49">
-        <v>-1</v>
-      </c>
-      <c r="AC49">
-        <v>1.05</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5688,10 +5688,10 @@
         <v>45196.625</v>
       </c>
       <c r="F54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5955,7 +5955,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s">
         <v>149</v>
@@ -6121,7 +6121,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7305041</v>
+        <v>7305026</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -6133,46 +6133,46 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="G59" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K59">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L59">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M59">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N59">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O59">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S59">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T59">
         <v>2.25</v>
@@ -6184,25 +6184,25 @@
         <v>1.975</v>
       </c>
       <c r="W59">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6210,7 +6210,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7305026</v>
+        <v>7305041</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -6222,46 +6222,46 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K60">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M60">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N60">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O60">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P60">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S60">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T60">
         <v>2.25</v>
@@ -6273,25 +6273,25 @@
         <v>1.975</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X60">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC60">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6492,7 +6492,7 @@
         <v>46</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6667,7 +6667,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G65" t="s">
         <v>30</v>
@@ -7023,10 +7023,10 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G69" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -7100,7 +7100,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7365843</v>
+        <v>7366036</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -7112,58 +7112,58 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G70" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>190</v>
       </c>
       <c r="K70">
+        <v>1.4</v>
+      </c>
+      <c r="L70">
         <v>4.2</v>
       </c>
-      <c r="L70">
-        <v>3.4</v>
-      </c>
       <c r="M70">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="N70">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="O70">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P70">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="Q70">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R70">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S70">
+        <v>1.9</v>
+      </c>
+      <c r="T70">
+        <v>2.75</v>
+      </c>
+      <c r="U70">
+        <v>1.825</v>
+      </c>
+      <c r="V70">
         <v>1.975</v>
       </c>
-      <c r="T70">
-        <v>2.25</v>
-      </c>
-      <c r="U70">
-        <v>1.85</v>
-      </c>
-      <c r="V70">
-        <v>1.95</v>
-      </c>
       <c r="W70">
-        <v>2.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -7172,16 +7172,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7189,7 +7189,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7366036</v>
+        <v>7366017</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -7201,76 +7201,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G71" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K71">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L71">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="N71">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O71">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P71">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V71">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB71">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AC71">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7278,7 +7278,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7365976</v>
+        <v>7365975</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7290,10 +7290,10 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7305,40 +7305,40 @@
         <v>189</v>
       </c>
       <c r="K72">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L72">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N72">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P72">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R72">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S72">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T72">
         <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -7347,16 +7347,16 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AB72">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -7367,7 +7367,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7365975</v>
+        <v>7365976</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7379,10 +7379,10 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G73" t="s">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7394,40 +7394,40 @@
         <v>189</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L73">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O73">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P73">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
         <v>-1</v>
@@ -7436,16 +7436,16 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB73">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7456,7 +7456,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7366017</v>
+        <v>7365843</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7468,76 +7468,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G74" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K74">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="L74">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="N74">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="O74">
         <v>3.2</v>
       </c>
       <c r="P74">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R74">
+        <v>1.725</v>
+      </c>
+      <c r="S74">
         <v>1.975</v>
-      </c>
-      <c r="S74">
-        <v>1.825</v>
       </c>
       <c r="T74">
         <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X74">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7557,7 +7557,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>93</v>
@@ -7827,7 +7827,7 @@
         <v>77</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -8005,7 +8005,7 @@
         <v>53</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -8450,7 +8450,7 @@
         <v>80</v>
       </c>
       <c r="G85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H85">
         <v>4</v>
@@ -8803,7 +8803,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s">
         <v>88</v>
@@ -9426,7 +9426,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
         <v>148</v>
@@ -9782,7 +9782,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G100" t="s">
         <v>83</v>
@@ -9874,7 +9874,7 @@
         <v>86</v>
       </c>
       <c r="G101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -10037,7 +10037,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7460141</v>
+        <v>7461373</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -10049,46 +10049,46 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>189</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N103">
-        <v>1.727</v>
+        <v>3.8</v>
       </c>
       <c r="O103">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P103">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
         <v>2.75</v>
@@ -10106,19 +10106,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC103">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10126,7 +10126,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7461373</v>
+        <v>7460141</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -10138,46 +10138,46 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
         <v>189</v>
       </c>
       <c r="K104">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="N104">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="O104">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P104">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q104">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T104">
         <v>2.75</v>
@@ -10195,19 +10195,19 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB104">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10850,7 +10850,7 @@
         <v>45254.66666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G112" t="s">
         <v>147</v>
@@ -11283,7 +11283,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7515952</v>
+        <v>7515962</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -11295,61 +11295,61 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>191</v>
       </c>
       <c r="K117">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L117">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M117">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N117">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O117">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q117">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S117">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -11358,13 +11358,13 @@
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11728,7 +11728,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7515962</v>
+        <v>7515952</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11740,61 +11740,61 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="G122" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
         <v>191</v>
       </c>
       <c r="K122">
+        <v>2.5</v>
+      </c>
+      <c r="L122">
+        <v>2.8</v>
+      </c>
+      <c r="M122">
+        <v>2.8</v>
+      </c>
+      <c r="N122">
         <v>1.909</v>
       </c>
-      <c r="L122">
+      <c r="O122">
         <v>3.1</v>
       </c>
-      <c r="M122">
-        <v>3.75</v>
-      </c>
-      <c r="N122">
-        <v>1.6</v>
-      </c>
-      <c r="O122">
-        <v>3.6</v>
-      </c>
       <c r="P122">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q122">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T122">
         <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
@@ -11803,13 +11803,13 @@
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -12010,7 +12010,7 @@
         <v>97</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -12541,7 +12541,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G131" t="s">
         <v>105</v>
@@ -13075,7 +13075,7 @@
         <v>45262.66666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G137" t="s">
         <v>79</v>
@@ -13965,7 +13965,7 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F147" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G147" t="s">
         <v>172</v>
@@ -14143,10 +14143,10 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F149" t="s">
+        <v>37</v>
+      </c>
+      <c r="G149" t="s">
         <v>39</v>
-      </c>
-      <c r="G149" t="s">
-        <v>38</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -14235,7 +14235,7 @@
         <v>53</v>
       </c>
       <c r="G150" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -14410,10 +14410,10 @@
         <v>45276.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G152" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -14665,7 +14665,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7594772</v>
+        <v>7594771</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14680,43 +14680,43 @@
         <v>42</v>
       </c>
       <c r="G155" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K155">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L155">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M155">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N155">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="O155">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P155">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="Q155">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R155">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S155">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T155">
         <v>2.25</v>
@@ -14728,19 +14728,19 @@
         <v>1.875</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X155">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA155">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
         <v>0.925</v>
@@ -14754,7 +14754,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7594771</v>
+        <v>7594772</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14769,43 +14769,43 @@
         <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="H156">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K156">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L156">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M156">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N156">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="O156">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P156">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q156">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R156">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S156">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T156">
         <v>2.25</v>
@@ -14817,19 +14817,19 @@
         <v>1.875</v>
       </c>
       <c r="W156">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB156">
         <v>0.925</v>
@@ -15036,7 +15036,7 @@
         <v>56</v>
       </c>
       <c r="G159" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -15199,7 +15199,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7594733</v>
+        <v>7594753</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -15211,76 +15211,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="G161" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K161">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="L161">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M161">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="N161">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="O161">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S161">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T161">
         <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V161">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W161">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB161">
         <v>-1</v>
       </c>
       <c r="AC161">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15288,7 +15288,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7594753</v>
+        <v>7594733</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -15300,76 +15300,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="G162" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K162">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="L162">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M162">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N162">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="O162">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P162">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q162">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R162">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S162">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T162">
         <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V162">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X162">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA162">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
         <v>-1</v>
       </c>
       <c r="AC162">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15733,7 +15733,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7663729</v>
+        <v>7663705</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15745,76 +15745,76 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="G167" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J167" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K167">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="L167">
         <v>3.2</v>
       </c>
       <c r="M167">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N167">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O167">
         <v>3.2</v>
       </c>
       <c r="P167">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="Q167">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R167">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S167">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V167">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W167">
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AB167">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC167">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15822,7 +15822,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7663705</v>
+        <v>7663729</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15834,76 +15834,76 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="G168" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K168">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="L168">
         <v>3.2</v>
       </c>
       <c r="M168">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="N168">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O168">
         <v>3.2</v>
       </c>
       <c r="P168">
+        <v>2.9</v>
+      </c>
+      <c r="Q168">
+        <v>-0.25</v>
+      </c>
+      <c r="R168">
+        <v>1.975</v>
+      </c>
+      <c r="S168">
+        <v>1.825</v>
+      </c>
+      <c r="T168">
         <v>2.25</v>
       </c>
-      <c r="Q168">
-        <v>0.25</v>
-      </c>
-      <c r="R168">
-        <v>1.775</v>
-      </c>
-      <c r="S168">
-        <v>2.025</v>
-      </c>
-      <c r="T168">
-        <v>2.75</v>
-      </c>
       <c r="U168">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V168">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y168">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA168">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AB168">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -16012,7 +16012,7 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G170" t="s">
         <v>101</v>
@@ -16445,7 +16445,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7690626</v>
+        <v>7690755</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16457,76 +16457,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G175" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
         <v>191</v>
       </c>
       <c r="K175">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L175">
         <v>3.25</v>
       </c>
       <c r="M175">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N175">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="O175">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P175">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="Q175">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R175">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S175">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T175">
         <v>2.5</v>
       </c>
       <c r="U175">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V175">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
+        <v>0.5</v>
+      </c>
+      <c r="AA175">
         <v>-0.5</v>
       </c>
-      <c r="AA175">
-        <v>0.3875</v>
-      </c>
       <c r="AB175">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16534,7 +16534,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7690755</v>
+        <v>7690626</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16546,76 +16546,76 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J176" t="s">
         <v>191</v>
       </c>
       <c r="K176">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L176">
         <v>3.25</v>
       </c>
       <c r="M176">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N176">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="O176">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P176">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="Q176">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S176">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T176">
         <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AA176">
-        <v>-0.5</v>
+        <v>0.3875</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16635,7 +16635,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G177" t="s">
         <v>178</v>
@@ -16813,7 +16813,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G179" t="s">
         <v>77</v>
@@ -17439,7 +17439,7 @@
         <v>54</v>
       </c>
       <c r="G186" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H186">
         <v>2</v>
@@ -17602,7 +17602,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7718964</v>
+        <v>7718936</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17614,58 +17614,58 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G188" t="s">
         <v>180</v>
       </c>
       <c r="H188">
+        <v>5</v>
+      </c>
+      <c r="I188">
         <v>3</v>
-      </c>
-      <c r="I188">
-        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>190</v>
       </c>
       <c r="K188">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="L188">
         <v>3.25</v>
       </c>
       <c r="M188">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="N188">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O188">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P188">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q188">
         <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S188">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
-        <v>0.833</v>
+        <v>0.8</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17674,13 +17674,13 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17691,7 +17691,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7718936</v>
+        <v>7718935</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17703,58 +17703,58 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G189" t="s">
         <v>181</v>
       </c>
       <c r="H189">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>190</v>
       </c>
       <c r="K189">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L189">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M189">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="N189">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="O189">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P189">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R189">
+        <v>1.95</v>
+      </c>
+      <c r="S189">
         <v>1.85</v>
       </c>
-      <c r="S189">
-        <v>1.95</v>
-      </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W189">
-        <v>0.8</v>
+        <v>0.571</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17763,13 +17763,13 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17780,7 +17780,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7718935</v>
+        <v>7718964</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17792,7 +17792,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G190" t="s">
         <v>182</v>
@@ -17807,43 +17807,43 @@
         <v>190</v>
       </c>
       <c r="K190">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="L190">
+        <v>3.25</v>
+      </c>
+      <c r="M190">
         <v>3.8</v>
       </c>
-      <c r="M190">
-        <v>4.75</v>
-      </c>
       <c r="N190">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="O190">
+        <v>3.25</v>
+      </c>
+      <c r="P190">
         <v>3.8</v>
       </c>
-      <c r="P190">
-        <v>4.75</v>
-      </c>
       <c r="Q190">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S190">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T190">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U190">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W190">
-        <v>0.571</v>
+        <v>0.833</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17852,13 +17852,13 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17884,7 +17884,7 @@
         <v>64</v>
       </c>
       <c r="G191" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -18062,7 +18062,7 @@
         <v>44</v>
       </c>
       <c r="G193" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H193">
         <v>1</v>
@@ -18136,7 +18136,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7723880</v>
+        <v>7723862</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -18148,76 +18148,76 @@
         <v>45312.45833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G194" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="H194">
+        <v>2</v>
+      </c>
+      <c r="I194">
+        <v>2</v>
+      </c>
+      <c r="J194" t="s">
+        <v>191</v>
+      </c>
+      <c r="K194">
         <v>3</v>
       </c>
-      <c r="I194">
+      <c r="L194">
+        <v>2.8</v>
+      </c>
+      <c r="M194">
+        <v>2.35</v>
+      </c>
+      <c r="N194">
+        <v>3</v>
+      </c>
+      <c r="O194">
+        <v>2.8</v>
+      </c>
+      <c r="P194">
+        <v>2.375</v>
+      </c>
+      <c r="Q194">
         <v>0</v>
       </c>
-      <c r="J194" t="s">
-        <v>190</v>
-      </c>
-      <c r="K194">
+      <c r="R194">
         <v>2.1</v>
       </c>
-      <c r="L194">
-        <v>3.2</v>
-      </c>
-      <c r="M194">
-        <v>3.1</v>
-      </c>
-      <c r="N194">
-        <v>2.1</v>
-      </c>
-      <c r="O194">
-        <v>3.25</v>
-      </c>
-      <c r="P194">
-        <v>3</v>
-      </c>
-      <c r="Q194">
-        <v>-0.25</v>
-      </c>
-      <c r="R194">
-        <v>1.9</v>
-      </c>
       <c r="S194">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="T194">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="U194">
+        <v>1.825</v>
+      </c>
+      <c r="V194">
         <v>1.975</v>
       </c>
-      <c r="V194">
-        <v>1.825</v>
-      </c>
       <c r="W194">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB194">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC194">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -18225,7 +18225,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7723862</v>
+        <v>7723880</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -18237,76 +18237,76 @@
         <v>45312.45833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G195" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K195">
+        <v>2.1</v>
+      </c>
+      <c r="L195">
+        <v>3.2</v>
+      </c>
+      <c r="M195">
+        <v>3.1</v>
+      </c>
+      <c r="N195">
+        <v>2.1</v>
+      </c>
+      <c r="O195">
+        <v>3.25</v>
+      </c>
+      <c r="P195">
         <v>3</v>
       </c>
-      <c r="L195">
-        <v>2.8</v>
-      </c>
-      <c r="M195">
-        <v>2.35</v>
-      </c>
-      <c r="N195">
-        <v>3</v>
-      </c>
-      <c r="O195">
-        <v>2.8</v>
-      </c>
-      <c r="P195">
-        <v>2.375</v>
-      </c>
       <c r="Q195">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S195">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="T195">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U195">
+        <v>1.975</v>
+      </c>
+      <c r="V195">
         <v>1.825</v>
       </c>
-      <c r="V195">
-        <v>1.975</v>
-      </c>
       <c r="W195">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X195">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA195">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -18593,10 +18593,10 @@
         <v>45318.5</v>
       </c>
       <c r="F199" t="s">
+        <v>42</v>
+      </c>
+      <c r="G199" t="s">
         <v>41</v>
-      </c>
-      <c r="G199" t="s">
-        <v>42</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18685,7 +18685,7 @@
         <v>83</v>
       </c>
       <c r="G200" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18759,7 +18759,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7748114</v>
+        <v>7748838</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18771,76 +18771,76 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="G201" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H201">
         <v>0</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K201">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L201">
+        <v>3.25</v>
+      </c>
+      <c r="M201">
+        <v>2.75</v>
+      </c>
+      <c r="N201">
+        <v>1.95</v>
+      </c>
+      <c r="O201">
         <v>3.4</v>
       </c>
-      <c r="M201">
-        <v>4.2</v>
-      </c>
-      <c r="N201">
+      <c r="P201">
+        <v>3.3</v>
+      </c>
+      <c r="Q201">
+        <v>-0.25</v>
+      </c>
+      <c r="R201">
         <v>1.75</v>
       </c>
-      <c r="O201">
-        <v>3.3</v>
-      </c>
-      <c r="P201">
-        <v>4</v>
-      </c>
-      <c r="Q201">
+      <c r="S201">
+        <v>1.95</v>
+      </c>
+      <c r="T201">
+        <v>2.75</v>
+      </c>
+      <c r="U201">
+        <v>1.925</v>
+      </c>
+      <c r="V201">
+        <v>1.775</v>
+      </c>
+      <c r="W201">
+        <v>-1</v>
+      </c>
+      <c r="X201">
+        <v>2.4</v>
+      </c>
+      <c r="Y201">
+        <v>-1</v>
+      </c>
+      <c r="Z201">
         <v>-0.5</v>
       </c>
-      <c r="R201">
-        <v>1.825</v>
-      </c>
-      <c r="S201">
-        <v>1.975</v>
-      </c>
-      <c r="T201">
-        <v>2</v>
-      </c>
-      <c r="U201">
-        <v>1.825</v>
-      </c>
-      <c r="V201">
-        <v>1.975</v>
-      </c>
-      <c r="W201">
-        <v>-1</v>
-      </c>
-      <c r="X201">
-        <v>-1</v>
-      </c>
-      <c r="Y201">
-        <v>3</v>
-      </c>
-      <c r="Z201">
-        <v>-1</v>
-      </c>
       <c r="AA201">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18848,7 +18848,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7748838</v>
+        <v>7748114</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18860,76 +18860,76 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="G202" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H202">
         <v>0</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K202">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L202">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M202">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N202">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O202">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P202">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q202">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R202">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S202">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T202">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U202">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V202">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W202">
         <v>-1</v>
       </c>
       <c r="X202">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z202">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -19486,7 +19486,7 @@
         <v>105</v>
       </c>
       <c r="G209" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H209">
         <v>1</v>
@@ -19572,7 +19572,7 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G210" t="s">
         <v>57</v>
@@ -19661,7 +19661,7 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G211" t="s">
         <v>167</v>
@@ -20109,7 +20109,7 @@
         <v>76</v>
       </c>
       <c r="G216" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -20195,7 +20195,7 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G217" t="s">
         <v>58</v>
@@ -20640,7 +20640,7 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G222" t="s">
         <v>30</v>
@@ -20821,7 +20821,7 @@
         <v>53</v>
       </c>
       <c r="G224" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H224">
         <v>1</v>
@@ -20984,7 +20984,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7807754</v>
+        <v>7811858</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20996,76 +20996,76 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G226" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="H226">
         <v>1</v>
       </c>
       <c r="I226">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K226">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M226">
+        <v>4.5</v>
+      </c>
+      <c r="N226">
+        <v>1.65</v>
+      </c>
+      <c r="O226">
         <v>3.5</v>
       </c>
-      <c r="N226">
-        <v>1.727</v>
-      </c>
-      <c r="O226">
-        <v>4</v>
-      </c>
       <c r="P226">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q226">
         <v>-0.75</v>
       </c>
       <c r="R226">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S226">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T226">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U226">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V226">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA226">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB226">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -21162,7 +21162,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7811858</v>
+        <v>7807754</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -21174,76 +21174,76 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G228" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="H228">
         <v>1</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J228" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K228">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="L228">
+        <v>4</v>
+      </c>
+      <c r="M228">
         <v>3.5</v>
       </c>
-      <c r="M228">
-        <v>4.5</v>
-      </c>
       <c r="N228">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O228">
+        <v>4</v>
+      </c>
+      <c r="P228">
         <v>3.5</v>
-      </c>
-      <c r="P228">
-        <v>4.5</v>
       </c>
       <c r="Q228">
         <v>-0.75</v>
       </c>
       <c r="R228">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S228">
+        <v>1.825</v>
+      </c>
+      <c r="T228">
+        <v>3</v>
+      </c>
+      <c r="U228">
+        <v>1.75</v>
+      </c>
+      <c r="V228">
         <v>1.95</v>
       </c>
-      <c r="T228">
+      <c r="W228">
+        <v>-1</v>
+      </c>
+      <c r="X228">
+        <v>-1</v>
+      </c>
+      <c r="Y228">
         <v>2.5</v>
       </c>
-      <c r="U228">
-        <v>1.9</v>
-      </c>
-      <c r="V228">
-        <v>1.9</v>
-      </c>
-      <c r="W228">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X228">
-        <v>-1</v>
-      </c>
-      <c r="Y228">
-        <v>-1</v>
-      </c>
       <c r="Z228">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC228">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -21444,7 +21444,7 @@
         <v>115</v>
       </c>
       <c r="G231" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -21619,10 +21619,10 @@
         <v>45339.5</v>
       </c>
       <c r="F233" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G233" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H233">
         <v>2</v>
@@ -21711,7 +21711,7 @@
         <v>116</v>
       </c>
       <c r="G234" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -22067,7 +22067,7 @@
         <v>56</v>
       </c>
       <c r="G238" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H238">
         <v>3</v>
@@ -22497,7 +22497,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7847715</v>
+        <v>7847714</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22509,76 +22509,76 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F243" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G243" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K243">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L243">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M243">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N243">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O243">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P243">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q243">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R243">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S243">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T243">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U243">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V243">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W243">
         <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y243">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22586,7 +22586,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7847714</v>
+        <v>7847715</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22598,76 +22598,76 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F244" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G244" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K244">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L244">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M244">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N244">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O244">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P244">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q244">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R244">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S244">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T244">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U244">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V244">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W244">
         <v>-1</v>
       </c>
       <c r="X244">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z244">
         <v>-1</v>
       </c>
       <c r="AA244">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB244">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC244">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22957,7 +22957,7 @@
         <v>119</v>
       </c>
       <c r="G248" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H248">
         <v>3</v>
@@ -23046,7 +23046,7 @@
         <v>88</v>
       </c>
       <c r="G249" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -23209,7 +23209,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7874249</v>
+        <v>7874399</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -23221,76 +23221,76 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="G251" t="s">
-        <v>128</v>
+        <v>185</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" t="s">
         <v>191</v>
       </c>
       <c r="K251">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L251">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M251">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N251">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O251">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P251">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q251">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R251">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S251">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T251">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U251">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V251">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W251">
         <v>-1</v>
       </c>
       <c r="X251">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="Y251">
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB251">
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23298,7 +23298,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7874399</v>
+        <v>7874249</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -23310,76 +23310,76 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G252" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
         <v>191</v>
       </c>
       <c r="K252">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M252">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="N252">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O252">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P252">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q252">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R252">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S252">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T252">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U252">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V252">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W252">
         <v>-1</v>
       </c>
       <c r="X252">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA252">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB252">
         <v>-1</v>
       </c>
       <c r="AC252">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23488,7 +23488,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F254" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G254" t="s">
         <v>92</v>
@@ -23847,7 +23847,7 @@
         <v>53</v>
       </c>
       <c r="G258" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H258">
         <v>4</v>
@@ -24099,7 +24099,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7899249</v>
+        <v>7899700</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -24111,76 +24111,76 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F261" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="G261" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J261" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K261">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L261">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M261">
+        <v>6.5</v>
+      </c>
+      <c r="N261">
+        <v>1.4</v>
+      </c>
+      <c r="O261">
+        <v>4</v>
+      </c>
+      <c r="P261">
+        <v>6</v>
+      </c>
+      <c r="Q261">
+        <v>-1.25</v>
+      </c>
+      <c r="R261">
+        <v>1.85</v>
+      </c>
+      <c r="S261">
+        <v>1.95</v>
+      </c>
+      <c r="T261">
         <v>3</v>
       </c>
-      <c r="N261">
-        <v>2.45</v>
-      </c>
-      <c r="O261">
-        <v>2.7</v>
-      </c>
-      <c r="P261">
-        <v>3</v>
-      </c>
-      <c r="Q261">
-        <v>-0.25</v>
-      </c>
-      <c r="R261">
-        <v>2.075</v>
-      </c>
-      <c r="S261">
-        <v>1.725</v>
-      </c>
-      <c r="T261">
-        <v>2</v>
-      </c>
       <c r="U261">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V261">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W261">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X261">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA261">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC261">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -24188,7 +24188,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7899700</v>
+        <v>7899249</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -24200,76 +24200,76 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G262" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="H262">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K262">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M262">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N262">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="O262">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="P262">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q262">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R262">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S262">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T262">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U262">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V262">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W262">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA262">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB262">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC262">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -24722,7 +24722,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7933408</v>
+        <v>7933344</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24734,73 +24734,73 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="G268" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J268" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K268">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="L268">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M268">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="N268">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O268">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P268">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q268">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R268">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S268">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T268">
         <v>2.25</v>
       </c>
       <c r="U268">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V268">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W268">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z268">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB268">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC268">
         <v>-1</v>
@@ -24900,7 +24900,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7933344</v>
+        <v>7933408</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24912,73 +24912,73 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F270" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G270" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H270">
+        <v>2</v>
+      </c>
+      <c r="I270">
         <v>1</v>
       </c>
-      <c r="I270">
-        <v>2</v>
-      </c>
       <c r="J270" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K270">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="L270">
+        <v>3.1</v>
+      </c>
+      <c r="M270">
         <v>3.2</v>
       </c>
-      <c r="M270">
-        <v>1.727</v>
-      </c>
       <c r="N270">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O270">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P270">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q270">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R270">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S270">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T270">
         <v>2.25</v>
       </c>
       <c r="U270">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V270">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W270">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X270">
         <v>-1</v>
       </c>
       <c r="Y270">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z270">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA270">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB270">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC270">
         <v>-1</v>
@@ -25449,7 +25449,7 @@
         <v>30</v>
       </c>
       <c r="G276" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H276">
         <v>3</v>
@@ -25701,7 +25701,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7965561</v>
+        <v>7966812</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25713,76 +25713,76 @@
         <v>45367.54166666666</v>
       </c>
       <c r="F279" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="G279" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="H279">
+        <v>2</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279" t="s">
+        <v>190</v>
+      </c>
+      <c r="K279">
+        <v>2.1</v>
+      </c>
+      <c r="L279">
         <v>3</v>
       </c>
-      <c r="I279">
+      <c r="M279">
+        <v>3.25</v>
+      </c>
+      <c r="N279">
+        <v>2.1</v>
+      </c>
+      <c r="O279">
         <v>3</v>
       </c>
-      <c r="J279" t="s">
-        <v>191</v>
-      </c>
-      <c r="K279">
-        <v>1.8</v>
-      </c>
-      <c r="L279">
-        <v>3.4</v>
-      </c>
-      <c r="M279">
-        <v>3.75</v>
-      </c>
-      <c r="N279">
-        <v>2.05</v>
-      </c>
-      <c r="O279">
+      <c r="P279">
         <v>3.2</v>
-      </c>
-      <c r="P279">
-        <v>3.1</v>
       </c>
       <c r="Q279">
         <v>-0.25</v>
       </c>
       <c r="R279">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S279">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T279">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U279">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V279">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W279">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X279">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
         <v>-1</v>
       </c>
       <c r="Z279">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA279">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB279">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC279">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25790,7 +25790,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7966812</v>
+        <v>7965561</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25802,76 +25802,76 @@
         <v>45367.54166666666</v>
       </c>
       <c r="F280" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="G280" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I280">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J280" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K280">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L280">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M280">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N280">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O280">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P280">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q280">
         <v>-0.25</v>
       </c>
       <c r="R280">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S280">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T280">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U280">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V280">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W280">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X280">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y280">
         <v>-1</v>
       </c>
       <c r="Z280">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA280">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB280">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC280">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25894,7 +25894,7 @@
         <v>46</v>
       </c>
       <c r="G281" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H281">
         <v>2</v>
@@ -26146,7 +26146,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7966815</v>
+        <v>7965564</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -26161,73 +26161,73 @@
         <v>124</v>
       </c>
       <c r="G284" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J284" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K284">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L284">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M284">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N284">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="O284">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P284">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="Q284">
         <v>0</v>
       </c>
       <c r="R284">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S284">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T284">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U284">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V284">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W284">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X284">
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z284">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA284">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB284">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC284">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -26235,7 +26235,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7965566</v>
+        <v>7966815</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -26247,76 +26247,76 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F285" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="G285" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="H285">
+        <v>2</v>
+      </c>
+      <c r="I285">
         <v>1</v>
-      </c>
-      <c r="I285">
-        <v>0</v>
       </c>
       <c r="J285" t="s">
         <v>190</v>
       </c>
       <c r="K285">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="L285">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M285">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N285">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O285">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P285">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q285">
+        <v>0</v>
+      </c>
+      <c r="R285">
+        <v>1.95</v>
+      </c>
+      <c r="S285">
+        <v>1.85</v>
+      </c>
+      <c r="T285">
+        <v>2.75</v>
+      </c>
+      <c r="U285">
+        <v>1.9</v>
+      </c>
+      <c r="V285">
+        <v>1.9</v>
+      </c>
+      <c r="W285">
+        <v>1.45</v>
+      </c>
+      <c r="X285">
+        <v>-1</v>
+      </c>
+      <c r="Y285">
+        <v>-1</v>
+      </c>
+      <c r="Z285">
+        <v>0.95</v>
+      </c>
+      <c r="AA285">
+        <v>-1</v>
+      </c>
+      <c r="AB285">
+        <v>0.45</v>
+      </c>
+      <c r="AC285">
         <v>-0.5</v>
-      </c>
-      <c r="R285">
-        <v>1.8</v>
-      </c>
-      <c r="S285">
-        <v>2</v>
-      </c>
-      <c r="T285">
-        <v>2.25</v>
-      </c>
-      <c r="U285">
-        <v>1.825</v>
-      </c>
-      <c r="V285">
-        <v>1.975</v>
-      </c>
-      <c r="W285">
-        <v>0.75</v>
-      </c>
-      <c r="X285">
-        <v>-1</v>
-      </c>
-      <c r="Y285">
-        <v>-1</v>
-      </c>
-      <c r="Z285">
-        <v>0.8</v>
-      </c>
-      <c r="AA285">
-        <v>-1</v>
-      </c>
-      <c r="AB285">
-        <v>-1</v>
-      </c>
-      <c r="AC285">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26324,7 +26324,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7965564</v>
+        <v>7965566</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -26336,76 +26336,76 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F286" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="G286" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="H286">
         <v>1</v>
       </c>
       <c r="I286">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J286" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K286">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="L286">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M286">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N286">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="O286">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P286">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q286">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R286">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S286">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T286">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U286">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V286">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W286">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X286">
         <v>-1</v>
       </c>
       <c r="Y286">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z286">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA286">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB286">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC286">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26959,10 +26959,10 @@
         <v>45373.66666666666</v>
       </c>
       <c r="F293" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G293" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H293">
         <v>2</v>
@@ -27051,7 +27051,7 @@
         <v>76</v>
       </c>
       <c r="G294" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H294">
         <v>1</v>
@@ -27303,7 +27303,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7995536</v>
+        <v>7995446</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -27315,49 +27315,49 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G297" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I297">
         <v>2</v>
       </c>
       <c r="J297" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K297">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="L297">
         <v>3.8</v>
       </c>
       <c r="M297">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N297">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="O297">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P297">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="Q297">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R297">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S297">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T297">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U297">
         <v>1.875</v>
@@ -27366,19 +27366,19 @@
         <v>1.925</v>
       </c>
       <c r="W297">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X297">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB297">
         <v>0.875</v>
@@ -27392,7 +27392,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7995446</v>
+        <v>7995507</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27404,61 +27404,61 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="G298" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="H298">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K298">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L298">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="M298">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="N298">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O298">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="P298">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q298">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R298">
+        <v>1.8</v>
+      </c>
+      <c r="S298">
+        <v>2</v>
+      </c>
+      <c r="T298">
+        <v>2.25</v>
+      </c>
+      <c r="U298">
+        <v>1.975</v>
+      </c>
+      <c r="V298">
         <v>1.825</v>
       </c>
-      <c r="S298">
-        <v>1.975</v>
-      </c>
-      <c r="T298">
-        <v>2.75</v>
-      </c>
-      <c r="U298">
-        <v>1.875</v>
-      </c>
-      <c r="V298">
-        <v>1.925</v>
-      </c>
       <c r="W298">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X298">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y298">
         <v>-1</v>
@@ -27470,10 +27470,10 @@
         <v>-0</v>
       </c>
       <c r="AB298">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC298">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27481,7 +27481,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7995507</v>
+        <v>7995536</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27493,76 +27493,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="G299" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J299" t="s">
         <v>191</v>
       </c>
       <c r="K299">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="L299">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="M299">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="N299">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="O299">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P299">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="Q299">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R299">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S299">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T299">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U299">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V299">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W299">
         <v>-1</v>
       </c>
       <c r="X299">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="Y299">
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA299">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB299">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC299">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27671,7 +27671,7 @@
         <v>45374.64583333334</v>
       </c>
       <c r="F301" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G301" t="s">
         <v>88</v>
@@ -28119,7 +28119,7 @@
         <v>44</v>
       </c>
       <c r="G306" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H306">
         <v>4</v>
@@ -28208,7 +28208,7 @@
         <v>61</v>
       </c>
       <c r="G307" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H307">
         <v>3</v>

--- a/France National 3/France National 3.xlsx
+++ b/France National 3/France National 3.xlsx
@@ -118,22 +118,22 @@
     <t>US Castanet</t>
   </si>
   <si>
+    <t>Montpellier II</t>
+  </si>
+  <si>
     <t>Vitre</t>
   </si>
   <si>
-    <t>Montpellier II</t>
-  </si>
-  <si>
     <t>Maubeuge</t>
-  </si>
-  <si>
-    <t>Pau II</t>
   </si>
   <si>
     <t>RC Epernay</t>
   </si>
   <si>
     <t>OnetleChateau</t>
+  </si>
+  <si>
+    <t>Pau II</t>
   </si>
   <si>
     <t>Caen II</t>
@@ -166,10 +166,10 @@
     <t>Saint Priest</t>
   </si>
   <si>
-    <t>Union Cosnoise</t>
+    <t>AS PrixlesMezieres</t>
   </si>
   <si>
-    <t>AS PrixlesMezieres</t>
+    <t>Union Cosnoise</t>
   </si>
   <si>
     <t>AS Villers Houlgate</t>
@@ -412,10 +412,10 @@
     <t>Feignies Aulnoye FC</t>
   </si>
   <si>
-    <t>ES Gueretoise</t>
+    <t>Bagnols Pont</t>
   </si>
   <si>
-    <t>Bagnols Pont</t>
+    <t>ES Gueretoise</t>
   </si>
   <si>
     <t>SaintLo Manche</t>
@@ -448,13 +448,13 @@
     <t>Bastia II</t>
   </si>
   <si>
+    <t>Alberes Argeles</t>
+  </si>
+  <si>
     <t>ASM Belfort</t>
   </si>
   <si>
     <t>Besancon</t>
-  </si>
-  <si>
-    <t>Alberes Argeles</t>
   </si>
   <si>
     <t>Limonest</t>
@@ -556,13 +556,13 @@
     <t>SaintPaulSport</t>
   </si>
   <si>
+    <t>Vesoul</t>
+  </si>
+  <si>
     <t>Stade Pontivy</t>
   </si>
   <si>
     <t>Niort II</t>
-  </si>
-  <si>
-    <t>Vesoul</t>
   </si>
   <si>
     <t>US Pays de Cassel</t>
@@ -1493,7 +1493,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6727693</v>
+        <v>6727690</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1508,70 +1508,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7">
+        <v>3.5</v>
+      </c>
+      <c r="L7">
+        <v>3.5</v>
+      </c>
+      <c r="M7">
+        <v>1.85</v>
+      </c>
+      <c r="N7">
+        <v>3.5</v>
+      </c>
+      <c r="O7">
+        <v>3.5</v>
+      </c>
+      <c r="P7">
+        <v>1.85</v>
+      </c>
+      <c r="Q7">
+        <v>0.5</v>
+      </c>
+      <c r="R7">
+        <v>1.9</v>
+      </c>
+      <c r="S7">
+        <v>1.9</v>
+      </c>
+      <c r="T7">
+        <v>2.5</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>1.8</v>
+      </c>
+      <c r="W7">
+        <v>-1</v>
+      </c>
+      <c r="X7">
+        <v>-1</v>
+      </c>
+      <c r="Y7">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB7">
         <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K7">
-        <v>1.95</v>
-      </c>
-      <c r="L7">
-        <v>3.25</v>
-      </c>
-      <c r="M7">
-        <v>3.4</v>
-      </c>
-      <c r="N7">
-        <v>1.95</v>
-      </c>
-      <c r="O7">
-        <v>3.3</v>
-      </c>
-      <c r="P7">
-        <v>3.4</v>
-      </c>
-      <c r="Q7">
-        <v>-0.5</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7">
-        <v>1.8</v>
-      </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
-      <c r="U7">
-        <v>1.9</v>
-      </c>
-      <c r="V7">
-        <v>1.9</v>
-      </c>
-      <c r="W7">
-        <v>0.95</v>
-      </c>
-      <c r="X7">
-        <v>-1</v>
-      </c>
-      <c r="Y7">
-        <v>-1</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
-      <c r="AB7">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1582,7 +1582,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6727690</v>
+        <v>6727693</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1597,70 +1597,70 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="J8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8">
+        <v>1.95</v>
+      </c>
+      <c r="L8">
+        <v>3.25</v>
+      </c>
+      <c r="M8">
+        <v>3.4</v>
+      </c>
+      <c r="N8">
+        <v>1.95</v>
+      </c>
+      <c r="O8">
+        <v>3.3</v>
+      </c>
+      <c r="P8">
+        <v>3.4</v>
+      </c>
+      <c r="Q8">
+        <v>-0.5</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>1.8</v>
+      </c>
+      <c r="T8">
         <v>3</v>
       </c>
-      <c r="J8" t="s">
-        <v>189</v>
-      </c>
-      <c r="K8">
-        <v>3.5</v>
-      </c>
-      <c r="L8">
-        <v>3.5</v>
-      </c>
-      <c r="M8">
-        <v>1.85</v>
-      </c>
-      <c r="N8">
-        <v>3.5</v>
-      </c>
-      <c r="O8">
-        <v>3.5</v>
-      </c>
-      <c r="P8">
-        <v>1.85</v>
-      </c>
-      <c r="Q8">
-        <v>0.5</v>
-      </c>
-      <c r="R8">
+      <c r="U8">
         <v>1.9</v>
       </c>
-      <c r="S8">
+      <c r="V8">
         <v>1.9</v>
       </c>
-      <c r="T8">
-        <v>2.5</v>
-      </c>
-      <c r="U8">
-        <v>2</v>
-      </c>
-      <c r="V8">
-        <v>1.8</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB8">
-        <v>1</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1760,7 +1760,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6727649</v>
+        <v>6727651</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1775,55 +1775,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>190</v>
       </c>
       <c r="K10">
-        <v>1.181</v>
+        <v>2.9</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>1.95</v>
       </c>
       <c r="N10">
-        <v>1.181</v>
+        <v>3.5</v>
       </c>
       <c r="O10">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="P10">
-        <v>11</v>
+        <v>1.7</v>
       </c>
       <c r="Q10">
-        <v>-2</v>
+        <v>0.75</v>
       </c>
       <c r="R10">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S10">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T10">
         <v>3</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W10">
-        <v>0.181</v>
+        <v>2.5</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1832,13 +1832,13 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1849,7 +1849,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6727651</v>
+        <v>6727691</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1864,55 +1864,55 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>190</v>
       </c>
       <c r="K11">
-        <v>2.9</v>
+        <v>1.285</v>
       </c>
       <c r="L11">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="M11">
-        <v>1.95</v>
+        <v>9</v>
       </c>
       <c r="N11">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O11">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P11">
-        <v>1.7</v>
+        <v>8.5</v>
       </c>
       <c r="Q11">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R11">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S11">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U11">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W11">
-        <v>2.5</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1921,13 +1921,13 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1938,7 +1938,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6727691</v>
+        <v>6727649</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1956,7 +1956,7 @@
         <v>133</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1965,43 +1965,43 @@
         <v>190</v>
       </c>
       <c r="K12">
-        <v>1.285</v>
+        <v>1.181</v>
       </c>
       <c r="L12">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N12">
-        <v>1.285</v>
+        <v>1.181</v>
       </c>
       <c r="O12">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="P12">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Q12">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R12">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S12">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T12">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
-        <v>0.2849999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -2010,13 +2010,13 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -2751,7 +2751,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
         <v>64</v>
@@ -3006,7 +3006,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7152841</v>
+        <v>7152840</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -3021,73 +3021,73 @@
         <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K24">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="L24">
         <v>3.4</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="N24">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O24">
         <v>3.4</v>
       </c>
       <c r="P24">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y24">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3095,7 +3095,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7152840</v>
+        <v>7152841</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -3110,73 +3110,73 @@
         <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K25">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="L25">
         <v>3.4</v>
       </c>
       <c r="M25">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="N25">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="O25">
         <v>3.4</v>
       </c>
       <c r="P25">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S25">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T25">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3374,7 +3374,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
         <v>44</v>
@@ -3641,7 +3641,7 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
         <v>140</v>
@@ -3822,7 +3822,7 @@
         <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -4798,7 +4798,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
         <v>128</v>
@@ -4964,7 +4964,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7244493</v>
+        <v>7244492</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4976,76 +4976,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K46">
+        <v>2.25</v>
+      </c>
+      <c r="L46">
+        <v>3.25</v>
+      </c>
+      <c r="M46">
+        <v>2.75</v>
+      </c>
+      <c r="N46">
+        <v>2.25</v>
+      </c>
+      <c r="O46">
+        <v>3.25</v>
+      </c>
+      <c r="P46">
+        <v>2.75</v>
+      </c>
+      <c r="Q46">
+        <v>-0.25</v>
+      </c>
+      <c r="R46">
+        <v>2.025</v>
+      </c>
+      <c r="S46">
+        <v>1.775</v>
+      </c>
+      <c r="T46">
+        <v>2.75</v>
+      </c>
+      <c r="U46">
+        <v>1.8</v>
+      </c>
+      <c r="V46">
+        <v>2</v>
+      </c>
+      <c r="W46">
+        <v>-1</v>
+      </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
+        <v>1.75</v>
+      </c>
+      <c r="Z46">
+        <v>-1</v>
+      </c>
+      <c r="AA46">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB46">
+        <v>-1</v>
+      </c>
+      <c r="AC46">
         <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46" t="s">
-        <v>190</v>
-      </c>
-      <c r="K46">
-        <v>1.8</v>
-      </c>
-      <c r="L46">
-        <v>3.6</v>
-      </c>
-      <c r="M46">
-        <v>3.5</v>
-      </c>
-      <c r="N46">
-        <v>1.8</v>
-      </c>
-      <c r="O46">
-        <v>3.6</v>
-      </c>
-      <c r="P46">
-        <v>3.5</v>
-      </c>
-      <c r="Q46">
-        <v>-0.5</v>
-      </c>
-      <c r="R46">
-        <v>1.85</v>
-      </c>
-      <c r="S46">
-        <v>1.95</v>
-      </c>
-      <c r="T46">
-        <v>2.5</v>
-      </c>
-      <c r="U46">
-        <v>1.75</v>
-      </c>
-      <c r="V46">
-        <v>2.05</v>
-      </c>
-      <c r="W46">
-        <v>0.8</v>
-      </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
-      <c r="Y46">
-        <v>-1</v>
-      </c>
-      <c r="Z46">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA46">
-        <v>-1</v>
-      </c>
-      <c r="AB46">
-        <v>-1</v>
-      </c>
-      <c r="AC46">
-        <v>1.05</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5053,7 +5053,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7244512</v>
+        <v>7244493</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -5065,67 +5065,67 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G47" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K47">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M47">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="N47">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P47">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="Q47">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
         <v>1.75</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
         <v>-1</v>
@@ -5134,7 +5134,7 @@
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5142,7 +5142,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7244536</v>
+        <v>7244512</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -5154,76 +5154,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G48" t="s">
         <v>145</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K48">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="L48">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M48">
+        <v>1.666</v>
+      </c>
+      <c r="N48">
+        <v>3.75</v>
+      </c>
+      <c r="O48">
+        <v>4</v>
+      </c>
+      <c r="P48">
+        <v>1.666</v>
+      </c>
+      <c r="Q48">
+        <v>0.75</v>
+      </c>
+      <c r="R48">
+        <v>1.9</v>
+      </c>
+      <c r="S48">
+        <v>1.9</v>
+      </c>
+      <c r="T48">
+        <v>2.75</v>
+      </c>
+      <c r="U48">
+        <v>1.75</v>
+      </c>
+      <c r="V48">
+        <v>1.95</v>
+      </c>
+      <c r="W48">
+        <v>-1</v>
+      </c>
+      <c r="X48">
         <v>3</v>
       </c>
-      <c r="N48">
-        <v>2.45</v>
-      </c>
-      <c r="O48">
-        <v>3.2</v>
-      </c>
-      <c r="P48">
-        <v>2.55</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>1.85</v>
-      </c>
-      <c r="S48">
-        <v>1.95</v>
-      </c>
-      <c r="T48">
-        <v>2.5</v>
-      </c>
-      <c r="U48">
-        <v>1.775</v>
-      </c>
-      <c r="V48">
-        <v>1.925</v>
-      </c>
-      <c r="W48">
-        <v>1.45</v>
-      </c>
-      <c r="X48">
-        <v>-1</v>
-      </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5231,7 +5231,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7244492</v>
+        <v>7244536</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -5243,76 +5243,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="G49" t="s">
         <v>146</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K49">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L49">
         <v>3.25</v>
       </c>
       <c r="M49">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N49">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P49">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S49">
+        <v>1.95</v>
+      </c>
+      <c r="T49">
+        <v>2.5</v>
+      </c>
+      <c r="U49">
         <v>1.775</v>
       </c>
-      <c r="T49">
-        <v>2.75</v>
-      </c>
-      <c r="U49">
-        <v>1.8</v>
-      </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA49">
+        <v>-1</v>
+      </c>
+      <c r="AB49">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AB49">
-        <v>-1</v>
-      </c>
       <c r="AC49">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -5955,7 +5955,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s">
         <v>149</v>
@@ -6121,7 +6121,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7305026</v>
+        <v>7305041</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -6133,46 +6133,46 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K59">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M59">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="N59">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P59">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S59">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T59">
         <v>2.25</v>
@@ -6184,25 +6184,25 @@
         <v>1.975</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X59">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA59">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC59">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6210,7 +6210,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7305041</v>
+        <v>7305026</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -6222,46 +6222,46 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="G60" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K60">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L60">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M60">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="N60">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O60">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P60">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S60">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T60">
         <v>2.25</v>
@@ -6273,25 +6273,25 @@
         <v>1.975</v>
       </c>
       <c r="W60">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6492,7 +6492,7 @@
         <v>46</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6667,7 +6667,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G65" t="s">
         <v>30</v>
@@ -7100,7 +7100,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7366036</v>
+        <v>7365843</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -7112,58 +7112,58 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G70" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
         <v>190</v>
       </c>
       <c r="K70">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="L70">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>6</v>
+        <v>1.727</v>
       </c>
       <c r="N70">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="O70">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>5.75</v>
+        <v>2</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
-        <v>0.3999999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -7172,16 +7172,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -7189,7 +7189,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7366017</v>
+        <v>7366036</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -7201,76 +7201,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F71" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G71" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K71">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M71">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="N71">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O71">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P71">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q71">
+        <v>-1.25</v>
+      </c>
+      <c r="R71">
+        <v>1.9</v>
+      </c>
+      <c r="S71">
+        <v>1.9</v>
+      </c>
+      <c r="T71">
+        <v>2.75</v>
+      </c>
+      <c r="U71">
+        <v>1.825</v>
+      </c>
+      <c r="V71">
+        <v>1.975</v>
+      </c>
+      <c r="W71">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X71">
+        <v>-1</v>
+      </c>
+      <c r="Y71">
+        <v>-1</v>
+      </c>
+      <c r="Z71">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA71">
+        <v>-1</v>
+      </c>
+      <c r="AB71">
+        <v>0.4125</v>
+      </c>
+      <c r="AC71">
         <v>-0.5</v>
-      </c>
-      <c r="R71">
-        <v>1.975</v>
-      </c>
-      <c r="S71">
-        <v>1.825</v>
-      </c>
-      <c r="T71">
-        <v>2.25</v>
-      </c>
-      <c r="U71">
-        <v>1.875</v>
-      </c>
-      <c r="V71">
-        <v>1.925</v>
-      </c>
-      <c r="W71">
-        <v>-1</v>
-      </c>
-      <c r="X71">
-        <v>2.2</v>
-      </c>
-      <c r="Y71">
-        <v>-1</v>
-      </c>
-      <c r="Z71">
-        <v>-1</v>
-      </c>
-      <c r="AA71">
-        <v>0.825</v>
-      </c>
-      <c r="AB71">
-        <v>-0.5</v>
-      </c>
-      <c r="AC71">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7278,7 +7278,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7365975</v>
+        <v>7365976</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -7290,10 +7290,10 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G72" t="s">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7305,40 +7305,40 @@
         <v>189</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L72">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M72">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O72">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P72">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q72">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S72">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T72">
         <v>2.25</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
         <v>-1</v>
@@ -7347,16 +7347,16 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Z72">
         <v>-1</v>
       </c>
       <c r="AA72">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB72">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -7367,7 +7367,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7365976</v>
+        <v>7365975</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7379,10 +7379,10 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7394,40 +7394,40 @@
         <v>189</v>
       </c>
       <c r="K73">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N73">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O73">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P73">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W73">
         <v>-1</v>
@@ -7436,16 +7436,16 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7456,7 +7456,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7365843</v>
+        <v>7366017</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7468,76 +7468,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="G74" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="H74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K74">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M74">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="N74">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="O74">
         <v>3.2</v>
       </c>
       <c r="P74">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q74">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T74">
         <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7557,7 +7557,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
         <v>93</v>
@@ -9426,7 +9426,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
         <v>148</v>
@@ -9592,7 +9592,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7464027</v>
+        <v>7460135</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9604,76 +9604,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G98" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K98">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L98">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N98">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="O98">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P98">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q98">
         <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y98">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9681,7 +9681,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7460135</v>
+        <v>7464027</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9693,76 +9693,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G99" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K99">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L99">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M99">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N99">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O99">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P99">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q99">
         <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V99">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC99">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9782,7 +9782,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G100" t="s">
         <v>83</v>
@@ -9874,7 +9874,7 @@
         <v>86</v>
       </c>
       <c r="G101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -10141,7 +10141,7 @@
         <v>56</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -11283,7 +11283,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7515962</v>
+        <v>7515952</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -11295,61 +11295,61 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F117" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G117" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
         <v>191</v>
       </c>
       <c r="K117">
+        <v>2.5</v>
+      </c>
+      <c r="L117">
+        <v>2.8</v>
+      </c>
+      <c r="M117">
+        <v>2.8</v>
+      </c>
+      <c r="N117">
         <v>1.909</v>
       </c>
-      <c r="L117">
+      <c r="O117">
         <v>3.1</v>
       </c>
-      <c r="M117">
-        <v>3.75</v>
-      </c>
-      <c r="N117">
-        <v>1.6</v>
-      </c>
-      <c r="O117">
-        <v>3.6</v>
-      </c>
       <c r="P117">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S117">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T117">
         <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V117">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -11358,13 +11358,13 @@
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11728,7 +11728,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7515952</v>
+        <v>7515962</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11740,61 +11740,61 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
         <v>191</v>
       </c>
       <c r="K122">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L122">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M122">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N122">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O122">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q122">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S122">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T122">
         <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Y122">
         <v>-1</v>
@@ -11803,13 +11803,13 @@
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -12010,7 +12010,7 @@
         <v>97</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -13152,7 +13152,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7547183</v>
+        <v>7547182</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -13164,34 +13164,34 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
         <v>190</v>
       </c>
       <c r="K138">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L138">
         <v>2.8</v>
       </c>
       <c r="M138">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="N138">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O138">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P138">
         <v>3.3</v>
@@ -13200,22 +13200,22 @@
         <v>-0.25</v>
       </c>
       <c r="R138">
+        <v>1.85</v>
+      </c>
+      <c r="S138">
+        <v>1.95</v>
+      </c>
+      <c r="T138">
+        <v>2.5</v>
+      </c>
+      <c r="U138">
         <v>1.9</v>
       </c>
-      <c r="S138">
+      <c r="V138">
         <v>1.9</v>
       </c>
-      <c r="T138">
-        <v>2.75</v>
-      </c>
-      <c r="U138">
-        <v>1.825</v>
-      </c>
-      <c r="V138">
-        <v>1.975</v>
-      </c>
       <c r="W138">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -13224,16 +13224,16 @@
         <v>-1</v>
       </c>
       <c r="Z138">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA138">
+        <v>-1</v>
+      </c>
+      <c r="AB138">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA138">
-        <v>-1</v>
-      </c>
-      <c r="AB138">
-        <v>0.4125</v>
-      </c>
       <c r="AC138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13241,7 +13241,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7547182</v>
+        <v>7547167</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -13253,76 +13253,76 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G139" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="H139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K139">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L139">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M139">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N139">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O139">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P139">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13330,7 +13330,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7547167</v>
+        <v>7547183</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -13342,46 +13342,46 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K140">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L140">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M140">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N140">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O140">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P140">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q140">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T140">
         <v>2.75</v>
@@ -13393,25 +13393,25 @@
         <v>1.975</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X140">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA140">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC140">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -14143,10 +14143,10 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -14410,7 +14410,7 @@
         <v>45276.4375</v>
       </c>
       <c r="F152" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G152" t="s">
         <v>67</v>
@@ -14665,7 +14665,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7594771</v>
+        <v>7594772</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14677,46 +14677,46 @@
         <v>45276.5</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="H155">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K155">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="L155">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M155">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N155">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="O155">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P155">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q155">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R155">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S155">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T155">
         <v>2.25</v>
@@ -14728,19 +14728,19 @@
         <v>1.875</v>
       </c>
       <c r="W155">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB155">
         <v>0.925</v>
@@ -14754,7 +14754,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7594772</v>
+        <v>7594771</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14766,46 +14766,46 @@
         <v>45276.5</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K156">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="L156">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M156">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N156">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="O156">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P156">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="Q156">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R156">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S156">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T156">
         <v>2.25</v>
@@ -14817,19 +14817,19 @@
         <v>1.875</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X156">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA156">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
         <v>0.925</v>
@@ -15110,7 +15110,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7594719</v>
+        <v>7594733</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -15122,13 +15122,13 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -15137,31 +15137,31 @@
         <v>190</v>
       </c>
       <c r="K160">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L160">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M160">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N160">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O160">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P160">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R160">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S160">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T160">
         <v>2.75</v>
@@ -15173,7 +15173,7 @@
         <v>1.85</v>
       </c>
       <c r="W160">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -15182,7 +15182,7 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA160">
         <v>-1</v>
@@ -15288,7 +15288,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7594733</v>
+        <v>7594719</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -15300,13 +15300,13 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="G162" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -15315,31 +15315,31 @@
         <v>190</v>
       </c>
       <c r="K162">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L162">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M162">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N162">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O162">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P162">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S162">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T162">
         <v>2.75</v>
@@ -15351,7 +15351,7 @@
         <v>1.85</v>
       </c>
       <c r="W162">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -15360,7 +15360,7 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA162">
         <v>-1</v>
@@ -15911,7 +15911,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7663704</v>
+        <v>7664701</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15923,10 +15923,10 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G169" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -15938,43 +15938,43 @@
         <v>190</v>
       </c>
       <c r="K169">
+        <v>6.5</v>
+      </c>
+      <c r="L169">
+        <v>4</v>
+      </c>
+      <c r="M169">
+        <v>1.4</v>
+      </c>
+      <c r="N169">
+        <v>6.5</v>
+      </c>
+      <c r="O169">
+        <v>3.8</v>
+      </c>
+      <c r="P169">
+        <v>1.4</v>
+      </c>
+      <c r="Q169">
+        <v>1.25</v>
+      </c>
+      <c r="R169">
+        <v>1.95</v>
+      </c>
+      <c r="S169">
+        <v>1.85</v>
+      </c>
+      <c r="T169">
         <v>2.75</v>
       </c>
-      <c r="L169">
-        <v>3.1</v>
-      </c>
-      <c r="M169">
-        <v>2.35</v>
-      </c>
-      <c r="N169">
-        <v>2.8</v>
-      </c>
-      <c r="O169">
-        <v>3.25</v>
-      </c>
-      <c r="P169">
-        <v>2.2</v>
-      </c>
-      <c r="Q169">
-        <v>0.25</v>
-      </c>
-      <c r="R169">
-        <v>1.8</v>
-      </c>
-      <c r="S169">
-        <v>2</v>
-      </c>
-      <c r="T169">
-        <v>3</v>
-      </c>
       <c r="U169">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V169">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W169">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15983,16 +15983,16 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA169">
         <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC169">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16000,7 +16000,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7664701</v>
+        <v>7663704</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -16012,10 +16012,10 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G170" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -16027,43 +16027,43 @@
         <v>190</v>
       </c>
       <c r="K170">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M170">
-        <v>1.4</v>
+        <v>2.35</v>
       </c>
       <c r="N170">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="O170">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P170">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q170">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R170">
+        <v>1.8</v>
+      </c>
+      <c r="S170">
+        <v>2</v>
+      </c>
+      <c r="T170">
+        <v>3</v>
+      </c>
+      <c r="U170">
+        <v>1.75</v>
+      </c>
+      <c r="V170">
         <v>1.95</v>
       </c>
-      <c r="S170">
-        <v>1.85</v>
-      </c>
-      <c r="T170">
-        <v>2.75</v>
-      </c>
-      <c r="U170">
-        <v>1.875</v>
-      </c>
-      <c r="V170">
-        <v>1.925</v>
-      </c>
       <c r="W170">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="X170">
         <v>-1</v>
@@ -16072,16 +16072,16 @@
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA170">
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC170">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16457,10 +16457,10 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G175" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16546,7 +16546,7 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
         <v>102</v>
@@ -17602,7 +17602,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7718936</v>
+        <v>7718964</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17614,58 +17614,58 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G188" t="s">
         <v>180</v>
       </c>
       <c r="H188">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>190</v>
       </c>
       <c r="K188">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L188">
         <v>3.25</v>
       </c>
       <c r="M188">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N188">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O188">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P188">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q188">
         <v>-0.5</v>
       </c>
       <c r="R188">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S188">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W188">
-        <v>0.8</v>
+        <v>0.833</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17674,13 +17674,13 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -17691,7 +17691,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7718935</v>
+        <v>7718936</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17703,58 +17703,58 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G189" t="s">
         <v>181</v>
       </c>
       <c r="H189">
+        <v>5</v>
+      </c>
+      <c r="I189">
         <v>3</v>
-      </c>
-      <c r="I189">
-        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>190</v>
       </c>
       <c r="K189">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="L189">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M189">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N189">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O189">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P189">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
+        <v>1.85</v>
+      </c>
+      <c r="S189">
         <v>1.95</v>
       </c>
-      <c r="S189">
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
         <v>1.85</v>
       </c>
-      <c r="T189">
-        <v>3</v>
-      </c>
-      <c r="U189">
-        <v>1.9</v>
-      </c>
       <c r="V189">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W189">
-        <v>0.571</v>
+        <v>0.8</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17763,13 +17763,13 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17780,7 +17780,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7718964</v>
+        <v>7718935</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17792,7 +17792,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G190" t="s">
         <v>182</v>
@@ -17807,43 +17807,43 @@
         <v>190</v>
       </c>
       <c r="K190">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="L190">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M190">
+        <v>4.75</v>
+      </c>
+      <c r="N190">
+        <v>1.571</v>
+      </c>
+      <c r="O190">
         <v>3.8</v>
       </c>
-      <c r="N190">
-        <v>1.833</v>
-      </c>
-      <c r="O190">
-        <v>3.25</v>
-      </c>
       <c r="P190">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q190">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R190">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S190">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T190">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V190">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W190">
-        <v>0.833</v>
+        <v>0.571</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17852,13 +17852,13 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17884,7 +17884,7 @@
         <v>64</v>
       </c>
       <c r="G191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -18047,7 +18047,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7725320</v>
+        <v>7723862</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -18059,76 +18059,76 @@
         <v>45312.45833333334</v>
       </c>
       <c r="F193" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="G193" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K193">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L193">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M193">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="N193">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O193">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P193">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q193">
         <v>0</v>
       </c>
       <c r="R193">
+        <v>2.1</v>
+      </c>
+      <c r="S193">
+        <v>1.7</v>
+      </c>
+      <c r="T193">
+        <v>2</v>
+      </c>
+      <c r="U193">
+        <v>1.825</v>
+      </c>
+      <c r="V193">
         <v>1.975</v>
       </c>
-      <c r="S193">
-        <v>1.825</v>
-      </c>
-      <c r="T193">
-        <v>2.5</v>
-      </c>
-      <c r="U193">
-        <v>1.95</v>
-      </c>
-      <c r="V193">
-        <v>1.85</v>
-      </c>
       <c r="W193">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC193">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -18136,7 +18136,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7723862</v>
+        <v>7723880</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -18148,76 +18148,76 @@
         <v>45312.45833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G194" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K194">
+        <v>2.1</v>
+      </c>
+      <c r="L194">
+        <v>3.2</v>
+      </c>
+      <c r="M194">
+        <v>3.1</v>
+      </c>
+      <c r="N194">
+        <v>2.1</v>
+      </c>
+      <c r="O194">
+        <v>3.25</v>
+      </c>
+      <c r="P194">
         <v>3</v>
       </c>
-      <c r="L194">
-        <v>2.8</v>
-      </c>
-      <c r="M194">
-        <v>2.35</v>
-      </c>
-      <c r="N194">
-        <v>3</v>
-      </c>
-      <c r="O194">
-        <v>2.8</v>
-      </c>
-      <c r="P194">
-        <v>2.375</v>
-      </c>
       <c r="Q194">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R194">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S194">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="T194">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U194">
+        <v>1.975</v>
+      </c>
+      <c r="V194">
         <v>1.825</v>
       </c>
-      <c r="V194">
-        <v>1.975</v>
-      </c>
       <c r="W194">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X194">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA194">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -18225,7 +18225,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7723880</v>
+        <v>7725320</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -18237,13 +18237,13 @@
         <v>45312.45833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="G195" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -18252,43 +18252,43 @@
         <v>190</v>
       </c>
       <c r="K195">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L195">
         <v>3.2</v>
       </c>
       <c r="M195">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N195">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="O195">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P195">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q195">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R195">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S195">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T195">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U195">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V195">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W195">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -18297,16 +18297,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -18685,7 +18685,7 @@
         <v>83</v>
       </c>
       <c r="G200" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18759,7 +18759,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7748838</v>
+        <v>7748114</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18771,76 +18771,76 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="G201" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H201">
         <v>0</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K201">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L201">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N201">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O201">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P201">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q201">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R201">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S201">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T201">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U201">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V201">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z201">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18848,7 +18848,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7748114</v>
+        <v>7748838</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18860,76 +18860,76 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="G202" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H202">
         <v>0</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K202">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L202">
+        <v>3.25</v>
+      </c>
+      <c r="M202">
+        <v>2.75</v>
+      </c>
+      <c r="N202">
+        <v>1.95</v>
+      </c>
+      <c r="O202">
         <v>3.4</v>
       </c>
-      <c r="M202">
-        <v>4.2</v>
-      </c>
-      <c r="N202">
+      <c r="P202">
+        <v>3.3</v>
+      </c>
+      <c r="Q202">
+        <v>-0.25</v>
+      </c>
+      <c r="R202">
         <v>1.75</v>
       </c>
-      <c r="O202">
-        <v>3.3</v>
-      </c>
-      <c r="P202">
-        <v>4</v>
-      </c>
-      <c r="Q202">
+      <c r="S202">
+        <v>1.95</v>
+      </c>
+      <c r="T202">
+        <v>2.75</v>
+      </c>
+      <c r="U202">
+        <v>1.925</v>
+      </c>
+      <c r="V202">
+        <v>1.775</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
+        <v>2.4</v>
+      </c>
+      <c r="Y202">
+        <v>-1</v>
+      </c>
+      <c r="Z202">
         <v>-0.5</v>
       </c>
-      <c r="R202">
-        <v>1.825</v>
-      </c>
-      <c r="S202">
-        <v>1.975</v>
-      </c>
-      <c r="T202">
-        <v>2</v>
-      </c>
-      <c r="U202">
-        <v>1.825</v>
-      </c>
-      <c r="V202">
-        <v>1.975</v>
-      </c>
-      <c r="W202">
-        <v>-1</v>
-      </c>
-      <c r="X202">
-        <v>-1</v>
-      </c>
-      <c r="Y202">
-        <v>3</v>
-      </c>
-      <c r="Z202">
-        <v>-1</v>
-      </c>
       <c r="AA202">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -19572,7 +19572,7 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G210" t="s">
         <v>57</v>
@@ -20005,7 +20005,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7779990</v>
+        <v>7779758</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -20017,76 +20017,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="G215" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215">
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K215">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="N215">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="O215">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q215">
         <v>-0.75</v>
       </c>
       <c r="R215">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
+        <v>1.825</v>
+      </c>
+      <c r="T215">
+        <v>2.75</v>
+      </c>
+      <c r="U215">
         <v>1.975</v>
       </c>
-      <c r="T215">
-        <v>2.25</v>
-      </c>
-      <c r="U215">
-        <v>1.8</v>
-      </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W215">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -20094,7 +20094,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7779989</v>
+        <v>7779990</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -20106,76 +20106,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="G216" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216">
         <v>0</v>
       </c>
-      <c r="I216">
+      <c r="J216" t="s">
+        <v>190</v>
+      </c>
+      <c r="K216">
+        <v>1.571</v>
+      </c>
+      <c r="L216">
+        <v>3.5</v>
+      </c>
+      <c r="M216">
+        <v>5.25</v>
+      </c>
+      <c r="N216">
+        <v>1.571</v>
+      </c>
+      <c r="O216">
+        <v>3.5</v>
+      </c>
+      <c r="P216">
+        <v>5.25</v>
+      </c>
+      <c r="Q216">
+        <v>-0.75</v>
+      </c>
+      <c r="R216">
+        <v>1.725</v>
+      </c>
+      <c r="S216">
+        <v>1.975</v>
+      </c>
+      <c r="T216">
+        <v>2.25</v>
+      </c>
+      <c r="U216">
+        <v>1.8</v>
+      </c>
+      <c r="V216">
+        <v>2</v>
+      </c>
+      <c r="W216">
+        <v>0.571</v>
+      </c>
+      <c r="X216">
+        <v>-1</v>
+      </c>
+      <c r="Y216">
+        <v>-1</v>
+      </c>
+      <c r="Z216">
+        <v>0.3625</v>
+      </c>
+      <c r="AA216">
+        <v>-0.5</v>
+      </c>
+      <c r="AB216">
+        <v>-1</v>
+      </c>
+      <c r="AC216">
         <v>1</v>
-      </c>
-      <c r="J216" t="s">
-        <v>189</v>
-      </c>
-      <c r="K216">
-        <v>1.85</v>
-      </c>
-      <c r="L216">
-        <v>3.4</v>
-      </c>
-      <c r="M216">
-        <v>3.6</v>
-      </c>
-      <c r="N216">
-        <v>1.85</v>
-      </c>
-      <c r="O216">
-        <v>3.4</v>
-      </c>
-      <c r="P216">
-        <v>3.6</v>
-      </c>
-      <c r="Q216">
-        <v>-0.5</v>
-      </c>
-      <c r="R216">
-        <v>1.9</v>
-      </c>
-      <c r="S216">
-        <v>1.9</v>
-      </c>
-      <c r="T216">
-        <v>3</v>
-      </c>
-      <c r="U216">
-        <v>1.95</v>
-      </c>
-      <c r="V216">
-        <v>1.85</v>
-      </c>
-      <c r="W216">
-        <v>-1</v>
-      </c>
-      <c r="X216">
-        <v>-1</v>
-      </c>
-      <c r="Y216">
-        <v>2.6</v>
-      </c>
-      <c r="Z216">
-        <v>-1</v>
-      </c>
-      <c r="AA216">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB216">
-        <v>-1</v>
-      </c>
-      <c r="AC216">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20183,7 +20183,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7779988</v>
+        <v>7779989</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -20195,76 +20195,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G217" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="H217">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K217">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="L217">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M217">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N217">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O217">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P217">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q217">
         <v>-0.5</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S217">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T217">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U217">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V217">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W217">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z217">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB217">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20272,7 +20272,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7779758</v>
+        <v>7779988</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -20284,40 +20284,40 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="G218" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I218">
         <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K218">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L218">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M218">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N218">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O218">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P218">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q218">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R218">
         <v>1.975</v>
@@ -20326,34 +20326,34 @@
         <v>1.825</v>
       </c>
       <c r="T218">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U218">
+        <v>1.825</v>
+      </c>
+      <c r="V218">
         <v>1.975</v>
       </c>
-      <c r="V218">
-        <v>1.825</v>
-      </c>
       <c r="W218">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X218">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA218">
+        <v>-1</v>
+      </c>
+      <c r="AB218">
         <v>0.825</v>
       </c>
-      <c r="AB218">
-        <v>-1</v>
-      </c>
       <c r="AC218">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -20984,7 +20984,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7811858</v>
+        <v>7807754</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20996,76 +20996,76 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G226" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="H226">
         <v>1</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J226" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K226">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="L226">
+        <v>4</v>
+      </c>
+      <c r="M226">
         <v>3.5</v>
       </c>
-      <c r="M226">
-        <v>4.5</v>
-      </c>
       <c r="N226">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O226">
+        <v>4</v>
+      </c>
+      <c r="P226">
         <v>3.5</v>
-      </c>
-      <c r="P226">
-        <v>4.5</v>
       </c>
       <c r="Q226">
         <v>-0.75</v>
       </c>
       <c r="R226">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S226">
+        <v>1.825</v>
+      </c>
+      <c r="T226">
+        <v>3</v>
+      </c>
+      <c r="U226">
+        <v>1.75</v>
+      </c>
+      <c r="V226">
         <v>1.95</v>
       </c>
-      <c r="T226">
+      <c r="W226">
+        <v>-1</v>
+      </c>
+      <c r="X226">
+        <v>-1</v>
+      </c>
+      <c r="Y226">
         <v>2.5</v>
       </c>
-      <c r="U226">
-        <v>1.9</v>
-      </c>
-      <c r="V226">
-        <v>1.9</v>
-      </c>
-      <c r="W226">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X226">
-        <v>-1</v>
-      </c>
-      <c r="Y226">
-        <v>-1</v>
-      </c>
       <c r="Z226">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC226">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -21162,7 +21162,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7807754</v>
+        <v>7811858</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -21174,76 +21174,76 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G228" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="H228">
         <v>1</v>
       </c>
       <c r="I228">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K228">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="L228">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M228">
+        <v>4.5</v>
+      </c>
+      <c r="N228">
+        <v>1.65</v>
+      </c>
+      <c r="O228">
         <v>3.5</v>
       </c>
-      <c r="N228">
-        <v>1.727</v>
-      </c>
-      <c r="O228">
-        <v>4</v>
-      </c>
       <c r="P228">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q228">
         <v>-0.75</v>
       </c>
       <c r="R228">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S228">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T228">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V228">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA228">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB228">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -21444,7 +21444,7 @@
         <v>115</v>
       </c>
       <c r="G231" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -22957,7 +22957,7 @@
         <v>119</v>
       </c>
       <c r="G248" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H248">
         <v>3</v>
@@ -23488,7 +23488,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F254" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G254" t="s">
         <v>92</v>
@@ -24099,7 +24099,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7899700</v>
+        <v>7899249</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -24111,76 +24111,76 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F261" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="G261" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="H261">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K261">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L261">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M261">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N261">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="O261">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="P261">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q261">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R261">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S261">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T261">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U261">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V261">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W261">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X261">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA261">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB261">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -24188,7 +24188,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7899249</v>
+        <v>7899700</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -24200,76 +24200,76 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="G262" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J262" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K262">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L262">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M262">
+        <v>6.5</v>
+      </c>
+      <c r="N262">
+        <v>1.4</v>
+      </c>
+      <c r="O262">
+        <v>4</v>
+      </c>
+      <c r="P262">
+        <v>6</v>
+      </c>
+      <c r="Q262">
+        <v>-1.25</v>
+      </c>
+      <c r="R262">
+        <v>1.85</v>
+      </c>
+      <c r="S262">
+        <v>1.95</v>
+      </c>
+      <c r="T262">
         <v>3</v>
       </c>
-      <c r="N262">
-        <v>2.45</v>
-      </c>
-      <c r="O262">
-        <v>2.7</v>
-      </c>
-      <c r="P262">
-        <v>3</v>
-      </c>
-      <c r="Q262">
-        <v>-0.25</v>
-      </c>
-      <c r="R262">
-        <v>2.075</v>
-      </c>
-      <c r="S262">
-        <v>1.725</v>
-      </c>
-      <c r="T262">
-        <v>2</v>
-      </c>
       <c r="U262">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V262">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X262">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA262">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC262">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -24722,7 +24722,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7933344</v>
+        <v>7933408</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24734,73 +24734,73 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G268" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H268">
+        <v>2</v>
+      </c>
+      <c r="I268">
         <v>1</v>
       </c>
-      <c r="I268">
-        <v>2</v>
-      </c>
       <c r="J268" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K268">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="L268">
+        <v>3.1</v>
+      </c>
+      <c r="M268">
         <v>3.2</v>
       </c>
-      <c r="M268">
-        <v>1.727</v>
-      </c>
       <c r="N268">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O268">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P268">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q268">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R268">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S268">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T268">
         <v>2.25</v>
       </c>
       <c r="U268">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V268">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W268">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X268">
         <v>-1</v>
       </c>
       <c r="Y268">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA268">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB268">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC268">
         <v>-1</v>
@@ -24811,7 +24811,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7933407</v>
+        <v>7933344</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24823,73 +24823,73 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F269" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="G269" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="H269">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J269" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K269">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="L269">
         <v>3.2</v>
       </c>
       <c r="M269">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="N269">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O269">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P269">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q269">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R269">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S269">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T269">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U269">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V269">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W269">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z269">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB269">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC269">
         <v>-1</v>
@@ -24900,7 +24900,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7933408</v>
+        <v>7933407</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24912,58 +24912,58 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F270" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="G270" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J270" t="s">
         <v>190</v>
       </c>
       <c r="K270">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L270">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M270">
+        <v>2.9</v>
+      </c>
+      <c r="N270">
+        <v>2.2</v>
+      </c>
+      <c r="O270">
         <v>3.2</v>
       </c>
-      <c r="N270">
-        <v>2.1</v>
-      </c>
-      <c r="O270">
-        <v>3.25</v>
-      </c>
       <c r="P270">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q270">
         <v>-0.25</v>
       </c>
       <c r="R270">
+        <v>1.975</v>
+      </c>
+      <c r="S270">
+        <v>1.825</v>
+      </c>
+      <c r="T270">
+        <v>2.5</v>
+      </c>
+      <c r="U270">
+        <v>1.95</v>
+      </c>
+      <c r="V270">
         <v>1.85</v>
       </c>
-      <c r="S270">
-        <v>1.95</v>
-      </c>
-      <c r="T270">
-        <v>2.25</v>
-      </c>
-      <c r="U270">
-        <v>1.9</v>
-      </c>
-      <c r="V270">
-        <v>1.9</v>
-      </c>
       <c r="W270">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="X270">
         <v>-1</v>
@@ -24972,13 +24972,13 @@
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA270">
         <v>-1</v>
       </c>
       <c r="AB270">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC270">
         <v>-1</v>
@@ -25449,7 +25449,7 @@
         <v>30</v>
       </c>
       <c r="G276" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H276">
         <v>3</v>
@@ -25805,7 +25805,7 @@
         <v>68</v>
       </c>
       <c r="G280" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H280">
         <v>3</v>
@@ -25894,7 +25894,7 @@
         <v>46</v>
       </c>
       <c r="G281" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H281">
         <v>2</v>
@@ -27303,7 +27303,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7995446</v>
+        <v>7995536</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -27315,49 +27315,49 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G297" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="H297">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297">
         <v>2</v>
       </c>
       <c r="J297" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K297">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="L297">
         <v>3.8</v>
       </c>
       <c r="M297">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="N297">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="O297">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P297">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="Q297">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R297">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S297">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T297">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U297">
         <v>1.875</v>
@@ -27366,19 +27366,19 @@
         <v>1.925</v>
       </c>
       <c r="W297">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X297">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA297">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
         <v>0.875</v>
@@ -27392,7 +27392,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7995507</v>
+        <v>7995446</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27404,61 +27404,61 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="G298" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J298" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K298">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L298">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="M298">
+        <v>5.5</v>
+      </c>
+      <c r="N298">
+        <v>1.5</v>
+      </c>
+      <c r="O298">
+        <v>3.8</v>
+      </c>
+      <c r="P298">
+        <v>5.25</v>
+      </c>
+      <c r="Q298">
+        <v>-1</v>
+      </c>
+      <c r="R298">
+        <v>1.825</v>
+      </c>
+      <c r="S298">
+        <v>1.975</v>
+      </c>
+      <c r="T298">
         <v>2.75</v>
       </c>
-      <c r="N298">
-        <v>2.5</v>
-      </c>
-      <c r="O298">
-        <v>2.8</v>
-      </c>
-      <c r="P298">
-        <v>2.8</v>
-      </c>
-      <c r="Q298">
-        <v>0</v>
-      </c>
-      <c r="R298">
-        <v>1.8</v>
-      </c>
-      <c r="S298">
-        <v>2</v>
-      </c>
-      <c r="T298">
-        <v>2.25</v>
-      </c>
       <c r="U298">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V298">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W298">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X298">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y298">
         <v>-1</v>
@@ -27470,10 +27470,10 @@
         <v>-0</v>
       </c>
       <c r="AB298">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC298">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27481,7 +27481,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7995536</v>
+        <v>7995507</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27493,76 +27493,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="G299" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J299" t="s">
         <v>191</v>
       </c>
       <c r="K299">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="L299">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="M299">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="N299">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O299">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P299">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="Q299">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R299">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S299">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T299">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U299">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V299">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W299">
         <v>-1</v>
       </c>
       <c r="X299">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="Y299">
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA299">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB299">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC299">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -28119,7 +28119,7 @@
         <v>44</v>
       </c>
       <c r="G306" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H306">
         <v>4</v>

--- a/France National 3/France National 3.xlsx
+++ b/France National 3/France National 3.xlsx
@@ -559,10 +559,10 @@
     <t>Niort II</t>
   </si>
   <si>
-    <t>Vesoul</t>
+    <t>Stade Pontivy</t>
   </si>
   <si>
-    <t>Stade Pontivy</t>
+    <t>Vesoul</t>
   </si>
   <si>
     <t>US Pays de Cassel</t>
@@ -11372,7 +11372,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7515962</v>
+        <v>7515942</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -11384,76 +11384,76 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="G118" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>191</v>
       </c>
       <c r="K118">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L118">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M118">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N118">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P118">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA118">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC118">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11728,7 +11728,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7515952</v>
+        <v>7515962</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11740,61 +11740,61 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="G122" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
         <v>191</v>
       </c>
       <c r="K122">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L122">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M122">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N122">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O122">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q122">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R122">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S122">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T122">
         <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Y122">
         <v>-1</v>
@@ -11803,13 +11803,13 @@
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11817,7 +11817,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7515942</v>
+        <v>7515952</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11829,76 +11829,76 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G123" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
         <v>191</v>
       </c>
       <c r="K123">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L123">
         <v>2.8</v>
       </c>
       <c r="M123">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N123">
+        <v>1.909</v>
+      </c>
+      <c r="O123">
+        <v>3.1</v>
+      </c>
+      <c r="P123">
+        <v>4</v>
+      </c>
+      <c r="Q123">
+        <v>-0.5</v>
+      </c>
+      <c r="R123">
+        <v>1.925</v>
+      </c>
+      <c r="S123">
+        <v>1.875</v>
+      </c>
+      <c r="T123">
+        <v>2.5</v>
+      </c>
+      <c r="U123">
+        <v>1.95</v>
+      </c>
+      <c r="V123">
+        <v>1.85</v>
+      </c>
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
         <v>2.1</v>
       </c>
-      <c r="O123">
-        <v>3</v>
-      </c>
-      <c r="P123">
-        <v>3.25</v>
-      </c>
-      <c r="Q123">
-        <v>-0.25</v>
-      </c>
-      <c r="R123">
-        <v>1.9</v>
-      </c>
-      <c r="S123">
-        <v>1.9</v>
-      </c>
-      <c r="T123">
-        <v>2.25</v>
-      </c>
-      <c r="U123">
-        <v>1.85</v>
-      </c>
-      <c r="V123">
-        <v>1.95</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
-      <c r="X123">
-        <v>2</v>
-      </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.45</v>
+        <v>0.875</v>
       </c>
       <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC123">
-        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -14576,7 +14576,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7594732</v>
+        <v>7594772</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14588,10 +14588,10 @@
         <v>45276.5</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G154" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14603,47 +14603,47 @@
         <v>191</v>
       </c>
       <c r="K154">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L154">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M154">
         <v>5.5</v>
       </c>
       <c r="N154">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="O154">
+        <v>4.5</v>
+      </c>
+      <c r="P154">
+        <v>5.75</v>
+      </c>
+      <c r="Q154">
+        <v>-1.25</v>
+      </c>
+      <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>1.85</v>
+      </c>
+      <c r="T154">
+        <v>2.25</v>
+      </c>
+      <c r="U154">
+        <v>1.925</v>
+      </c>
+      <c r="V154">
+        <v>1.875</v>
+      </c>
+      <c r="W154">
+        <v>-1</v>
+      </c>
+      <c r="X154">
         <v>3.5</v>
       </c>
-      <c r="P154">
-        <v>5.25</v>
-      </c>
-      <c r="Q154">
-        <v>-0.75</v>
-      </c>
-      <c r="R154">
-        <v>1.725</v>
-      </c>
-      <c r="S154">
-        <v>2.075</v>
-      </c>
-      <c r="T154">
-        <v>3</v>
-      </c>
-      <c r="U154">
-        <v>1.825</v>
-      </c>
-      <c r="V154">
-        <v>1.975</v>
-      </c>
-      <c r="W154">
-        <v>-1</v>
-      </c>
-      <c r="X154">
-        <v>2.5</v>
-      </c>
       <c r="Y154">
         <v>-1</v>
       </c>
@@ -14651,10 +14651,10 @@
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>1.075</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB154">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14665,7 +14665,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7594772</v>
+        <v>7594732</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14677,10 +14677,10 @@
         <v>45276.5</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14692,46 +14692,46 @@
         <v>191</v>
       </c>
       <c r="K155">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="L155">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M155">
         <v>5.5</v>
       </c>
       <c r="N155">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="O155">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P155">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q155">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R155">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S155">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T155">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V155">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y155">
         <v>-1</v>
@@ -14740,10 +14740,10 @@
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0.8500000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AB155">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -15110,7 +15110,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7594728</v>
+        <v>7594753</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -15122,76 +15122,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="G160" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K160">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L160">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N160">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O160">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P160">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S160">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T160">
         <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V160">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y160">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB160">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15199,7 +15199,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7594733</v>
+        <v>7594728</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -15211,46 +15211,46 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G161" t="s">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="H161">
         <v>2</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J161" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K161">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="L161">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M161">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="N161">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O161">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P161">
         <v>2.7</v>
       </c>
       <c r="Q161">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S161">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T161">
         <v>2.75</v>
@@ -15262,25 +15262,25 @@
         <v>1.85</v>
       </c>
       <c r="W161">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15288,7 +15288,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7594753</v>
+        <v>7594733</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -15300,76 +15300,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="G162" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K162">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="L162">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M162">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N162">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="O162">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P162">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q162">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R162">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S162">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T162">
         <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V162">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X162">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA162">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
         <v>-1</v>
       </c>
       <c r="AC162">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -17513,7 +17513,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7718934</v>
+        <v>7718933</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17525,10 +17525,10 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G187" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -17540,43 +17540,43 @@
         <v>190</v>
       </c>
       <c r="K187">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L187">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M187">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="N187">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="O187">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P187">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q187">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S187">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T187">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W187">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17585,16 +17585,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17602,7 +17602,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7718933</v>
+        <v>7718934</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17614,10 +17614,10 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G188" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17629,44 +17629,44 @@
         <v>190</v>
       </c>
       <c r="K188">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="L188">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M188">
+        <v>1.8</v>
+      </c>
+      <c r="N188">
+        <v>3.5</v>
+      </c>
+      <c r="O188">
+        <v>3.6</v>
+      </c>
+      <c r="P188">
+        <v>1.8</v>
+      </c>
+      <c r="Q188">
+        <v>0.5</v>
+      </c>
+      <c r="R188">
+        <v>1.95</v>
+      </c>
+      <c r="S188">
+        <v>1.85</v>
+      </c>
+      <c r="T188">
         <v>2.75</v>
       </c>
-      <c r="N188">
-        <v>2.25</v>
-      </c>
-      <c r="O188">
-        <v>3.25</v>
-      </c>
-      <c r="P188">
-        <v>2.75</v>
-      </c>
-      <c r="Q188">
-        <v>-0.25</v>
-      </c>
-      <c r="R188">
-        <v>2.025</v>
-      </c>
-      <c r="S188">
-        <v>1.775</v>
-      </c>
-      <c r="T188">
+      <c r="U188">
+        <v>1.75</v>
+      </c>
+      <c r="V188">
+        <v>1.95</v>
+      </c>
+      <c r="W188">
         <v>2.5</v>
       </c>
-      <c r="U188">
-        <v>1.9</v>
-      </c>
-      <c r="V188">
-        <v>1.9</v>
-      </c>
-      <c r="W188">
-        <v>1.25</v>
-      </c>
       <c r="X188">
         <v>-1</v>
       </c>
@@ -17674,16 +17674,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17691,7 +17691,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7718964</v>
+        <v>7718936</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17703,58 +17703,58 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G189" t="s">
         <v>181</v>
       </c>
       <c r="H189">
+        <v>5</v>
+      </c>
+      <c r="I189">
         <v>3</v>
-      </c>
-      <c r="I189">
-        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>190</v>
       </c>
       <c r="K189">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="L189">
         <v>3.25</v>
       </c>
       <c r="M189">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="N189">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O189">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P189">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q189">
         <v>-0.5</v>
       </c>
       <c r="R189">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S189">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W189">
-        <v>0.833</v>
+        <v>0.8</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17763,13 +17763,13 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17780,7 +17780,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7718936</v>
+        <v>7718964</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17792,58 +17792,58 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G190" t="s">
         <v>182</v>
       </c>
       <c r="H190">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>190</v>
       </c>
       <c r="K190">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L190">
         <v>3.25</v>
       </c>
       <c r="M190">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N190">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O190">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P190">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q190">
         <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S190">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W190">
-        <v>0.8</v>
+        <v>0.833</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17852,13 +17852,13 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -19827,7 +19827,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7779991</v>
+        <v>7779994</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19839,76 +19839,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="G213" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="H213">
         <v>1</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K213">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L213">
         <v>3.2</v>
       </c>
       <c r="M213">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N213">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O213">
         <v>3.2</v>
       </c>
       <c r="P213">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Q213">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R213">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S213">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T213">
         <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z213">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB213">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC213">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19916,7 +19916,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7779989</v>
+        <v>7779991</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19928,76 +19928,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G214" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214">
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K214">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="L214">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M214">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N214">
-        <v>1.85</v>
+        <v>3.25</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P214">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="Q214">
+        <v>0.25</v>
+      </c>
+      <c r="R214">
+        <v>2</v>
+      </c>
+      <c r="S214">
+        <v>1.8</v>
+      </c>
+      <c r="T214">
+        <v>2.25</v>
+      </c>
+      <c r="U214">
+        <v>1.8</v>
+      </c>
+      <c r="V214">
+        <v>2</v>
+      </c>
+      <c r="W214">
+        <v>-1</v>
+      </c>
+      <c r="X214">
+        <v>2.2</v>
+      </c>
+      <c r="Y214">
+        <v>-1</v>
+      </c>
+      <c r="Z214">
+        <v>0.5</v>
+      </c>
+      <c r="AA214">
         <v>-0.5</v>
       </c>
-      <c r="R214">
-        <v>1.9</v>
-      </c>
-      <c r="S214">
-        <v>1.9</v>
-      </c>
-      <c r="T214">
-        <v>3</v>
-      </c>
-      <c r="U214">
-        <v>1.95</v>
-      </c>
-      <c r="V214">
-        <v>1.85</v>
-      </c>
-      <c r="W214">
-        <v>-1</v>
-      </c>
-      <c r="X214">
-        <v>-1</v>
-      </c>
-      <c r="Y214">
-        <v>2.6</v>
-      </c>
-      <c r="Z214">
-        <v>-1</v>
-      </c>
-      <c r="AA214">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC214">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20005,7 +20005,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7779990</v>
+        <v>7779989</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -20017,76 +20017,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="G215" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
         <v>1</v>
       </c>
-      <c r="I215">
-        <v>0</v>
-      </c>
       <c r="J215" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K215">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M215">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="N215">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O215">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q215">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R215">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U215">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V215">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W215">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z215">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB215">
         <v>-1</v>
       </c>
       <c r="AC215">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -20094,7 +20094,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7779994</v>
+        <v>7779990</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -20106,76 +20106,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G216" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K216">
+        <v>1.571</v>
+      </c>
+      <c r="L216">
         <v>3.5</v>
       </c>
-      <c r="L216">
-        <v>3.2</v>
-      </c>
       <c r="M216">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="N216">
+        <v>1.571</v>
+      </c>
+      <c r="O216">
         <v>3.5</v>
       </c>
-      <c r="O216">
-        <v>3.2</v>
-      </c>
       <c r="P216">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="Q216">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R216">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S216">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T216">
         <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W216">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AA216">
+        <v>-0.5</v>
+      </c>
+      <c r="AB216">
+        <v>-1</v>
+      </c>
+      <c r="AC216">
         <v>1</v>
-      </c>
-      <c r="AB216">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC216">
-        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -21429,7 +21429,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7843258</v>
+        <v>7843129</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21441,58 +21441,58 @@
         <v>45339.4375</v>
       </c>
       <c r="F231" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="G231" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H231">
+        <v>2</v>
+      </c>
+      <c r="I231">
         <v>1</v>
-      </c>
-      <c r="I231">
-        <v>0</v>
       </c>
       <c r="J231" t="s">
         <v>190</v>
       </c>
       <c r="K231">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="L231">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M231">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="N231">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="O231">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P231">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q231">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R231">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S231">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V231">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W231">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21501,16 +21501,16 @@
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA231">
         <v>-1</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC231">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21518,7 +21518,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7843129</v>
+        <v>7843258</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21530,58 +21530,58 @@
         <v>45339.4375</v>
       </c>
       <c r="F232" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="G232" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" t="s">
         <v>190</v>
       </c>
       <c r="K232">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="L232">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M232">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="N232">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="O232">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P232">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q232">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R232">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S232">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T232">
         <v>2.5</v>
       </c>
       <c r="U232">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V232">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W232">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21590,16 +21590,16 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA232">
         <v>-1</v>
       </c>
       <c r="AB232">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21696,7 +21696,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7843260</v>
+        <v>7843137</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21708,40 +21708,40 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G234" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K234">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="L234">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M234">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="N234">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O234">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P234">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="Q234">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R234">
         <v>1.975</v>
@@ -21750,34 +21750,34 @@
         <v>1.825</v>
       </c>
       <c r="T234">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U234">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V234">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA234">
+        <v>-1</v>
+      </c>
+      <c r="AB234">
         <v>0.825</v>
       </c>
-      <c r="AB234">
-        <v>-1</v>
-      </c>
       <c r="AC234">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21785,7 +21785,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7843137</v>
+        <v>7843138</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21797,76 +21797,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F235" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="G235" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235" t="s">
+        <v>191</v>
+      </c>
+      <c r="K235">
+        <v>2.2</v>
+      </c>
+      <c r="L235">
+        <v>3.25</v>
+      </c>
+      <c r="M235">
+        <v>2.8</v>
+      </c>
+      <c r="N235">
+        <v>2.7</v>
+      </c>
+      <c r="O235">
+        <v>3.3</v>
+      </c>
+      <c r="P235">
+        <v>2.3</v>
+      </c>
+      <c r="Q235">
+        <v>0.25</v>
+      </c>
+      <c r="R235">
+        <v>1.725</v>
+      </c>
+      <c r="S235">
+        <v>1.975</v>
+      </c>
+      <c r="T235">
         <v>3</v>
       </c>
-      <c r="I235">
-        <v>1</v>
-      </c>
-      <c r="J235" t="s">
-        <v>190</v>
-      </c>
-      <c r="K235">
-        <v>1.8</v>
-      </c>
-      <c r="L235">
-        <v>3.75</v>
-      </c>
-      <c r="M235">
-        <v>3.4</v>
-      </c>
-      <c r="N235">
-        <v>1.909</v>
-      </c>
-      <c r="O235">
-        <v>3.4</v>
-      </c>
-      <c r="P235">
-        <v>3.4</v>
-      </c>
-      <c r="Q235">
+      <c r="U235">
+        <v>1.975</v>
+      </c>
+      <c r="V235">
+        <v>1.825</v>
+      </c>
+      <c r="W235">
+        <v>-1</v>
+      </c>
+      <c r="X235">
+        <v>2.3</v>
+      </c>
+      <c r="Y235">
+        <v>-1</v>
+      </c>
+      <c r="Z235">
+        <v>0.3625</v>
+      </c>
+      <c r="AA235">
         <v>-0.5</v>
       </c>
-      <c r="R235">
-        <v>1.975</v>
-      </c>
-      <c r="S235">
-        <v>1.825</v>
-      </c>
-      <c r="T235">
-        <v>2.75</v>
-      </c>
-      <c r="U235">
-        <v>1.825</v>
-      </c>
-      <c r="V235">
-        <v>1.975</v>
-      </c>
-      <c r="W235">
-        <v>0.909</v>
-      </c>
-      <c r="X235">
-        <v>-1</v>
-      </c>
-      <c r="Y235">
-        <v>-1</v>
-      </c>
-      <c r="Z235">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA235">
-        <v>-1</v>
-      </c>
       <c r="AB235">
+        <v>-1</v>
+      </c>
+      <c r="AC235">
         <v>0.825</v>
-      </c>
-      <c r="AC235">
-        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21874,7 +21874,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7843138</v>
+        <v>7843186</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21886,76 +21886,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F236" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="G236" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K236">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="L236">
         <v>3.25</v>
       </c>
       <c r="M236">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N236">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O236">
         <v>3.3</v>
       </c>
       <c r="P236">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q236">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R236">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S236">
+        <v>1.825</v>
+      </c>
+      <c r="T236">
+        <v>2.75</v>
+      </c>
+      <c r="U236">
+        <v>1.825</v>
+      </c>
+      <c r="V236">
         <v>1.975</v>
       </c>
-      <c r="T236">
-        <v>3</v>
-      </c>
-      <c r="U236">
-        <v>1.975</v>
-      </c>
-      <c r="V236">
-        <v>1.825</v>
-      </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X236">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.3625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA236">
+        <v>-1</v>
+      </c>
+      <c r="AB236">
+        <v>0.4125</v>
+      </c>
+      <c r="AC236">
         <v>-0.5</v>
-      </c>
-      <c r="AB236">
-        <v>-1</v>
-      </c>
-      <c r="AC236">
-        <v>0.825</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21963,7 +21963,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7843186</v>
+        <v>7843187</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21975,58 +21975,58 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F237" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G237" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" t="s">
         <v>190</v>
       </c>
       <c r="K237">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L237">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M237">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N237">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="O237">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P237">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R237">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S237">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T237">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U237">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V237">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W237">
-        <v>0.7270000000000001</v>
+        <v>0.833</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -22035,16 +22035,16 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC237">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -22052,7 +22052,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7843187</v>
+        <v>7843260</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -22064,49 +22064,49 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G238" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K238">
-        <v>1.833</v>
+        <v>2.9</v>
       </c>
       <c r="L238">
+        <v>3.25</v>
+      </c>
+      <c r="M238">
+        <v>2.15</v>
+      </c>
+      <c r="N238">
         <v>3.1</v>
       </c>
-      <c r="M238">
-        <v>4</v>
-      </c>
-      <c r="N238">
-        <v>1.833</v>
-      </c>
       <c r="O238">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P238">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="Q238">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S238">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U238">
         <v>1.95</v>
@@ -22115,25 +22115,25 @@
         <v>1.85</v>
       </c>
       <c r="W238">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z238">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB238">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -22497,7 +22497,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7847712</v>
+        <v>7847715</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22509,49 +22509,49 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F243" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G243" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243">
+        <v>2</v>
+      </c>
+      <c r="J243" t="s">
+        <v>189</v>
+      </c>
+      <c r="K243">
+        <v>2.5</v>
+      </c>
+      <c r="L243">
+        <v>3</v>
+      </c>
+      <c r="M243">
+        <v>2.6</v>
+      </c>
+      <c r="N243">
+        <v>2.5</v>
+      </c>
+      <c r="O243">
+        <v>3</v>
+      </c>
+      <c r="P243">
+        <v>2.6</v>
+      </c>
+      <c r="Q243">
         <v>0</v>
       </c>
-      <c r="J243" t="s">
-        <v>190</v>
-      </c>
-      <c r="K243">
-        <v>1.666</v>
-      </c>
-      <c r="L243">
-        <v>3.6</v>
-      </c>
-      <c r="M243">
-        <v>4.2</v>
-      </c>
-      <c r="N243">
-        <v>1.666</v>
-      </c>
-      <c r="O243">
-        <v>3.6</v>
-      </c>
-      <c r="P243">
-        <v>4.2</v>
-      </c>
-      <c r="Q243">
-        <v>-0.75</v>
-      </c>
       <c r="R243">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S243">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T243">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U243">
         <v>1.775</v>
@@ -22560,25 +22560,25 @@
         <v>2.025</v>
       </c>
       <c r="W243">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X243">
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z243">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA243">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC243">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22675,7 +22675,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7847715</v>
+        <v>7847712</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22687,49 +22687,49 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F245" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G245" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="I245">
         <v>0</v>
       </c>
-      <c r="I245">
-        <v>2</v>
-      </c>
       <c r="J245" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K245">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L245">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M245">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N245">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O245">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P245">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q245">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R245">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S245">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T245">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U245">
         <v>1.775</v>
@@ -22738,25 +22738,25 @@
         <v>2.025</v>
       </c>
       <c r="W245">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA245">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB245">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC245">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -24099,7 +24099,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7899249</v>
+        <v>7899700</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -24111,76 +24111,76 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F261" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G261" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J261" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K261">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L261">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M261">
+        <v>6.5</v>
+      </c>
+      <c r="N261">
+        <v>1.4</v>
+      </c>
+      <c r="O261">
+        <v>4</v>
+      </c>
+      <c r="P261">
+        <v>6</v>
+      </c>
+      <c r="Q261">
+        <v>-1.25</v>
+      </c>
+      <c r="R261">
+        <v>1.85</v>
+      </c>
+      <c r="S261">
+        <v>1.95</v>
+      </c>
+      <c r="T261">
         <v>3</v>
       </c>
-      <c r="N261">
-        <v>2.45</v>
-      </c>
-      <c r="O261">
-        <v>2.7</v>
-      </c>
-      <c r="P261">
-        <v>3</v>
-      </c>
-      <c r="Q261">
-        <v>-0.25</v>
-      </c>
-      <c r="R261">
-        <v>2.075</v>
-      </c>
-      <c r="S261">
-        <v>1.725</v>
-      </c>
-      <c r="T261">
-        <v>2</v>
-      </c>
       <c r="U261">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V261">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W261">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X261">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA261">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC261">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -24188,7 +24188,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7899700</v>
+        <v>7899249</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -24200,76 +24200,76 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G262" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="H262">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K262">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M262">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N262">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="O262">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="P262">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q262">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R262">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S262">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T262">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U262">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V262">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W262">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA262">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB262">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC262">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -25879,7 +25879,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>7965564</v>
+        <v>7965562</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25891,40 +25891,40 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="G281" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I281">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K281">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L281">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M281">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N281">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="O281">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P281">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q281">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R281">
         <v>1.9</v>
@@ -25933,34 +25933,34 @@
         <v>1.9</v>
       </c>
       <c r="T281">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U281">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V281">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W281">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA281">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC281">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25968,7 +25968,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7965562</v>
+        <v>7965564</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25980,40 +25980,40 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F282" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="G282" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282">
+        <v>3</v>
+      </c>
+      <c r="J282" t="s">
+        <v>189</v>
+      </c>
+      <c r="K282">
+        <v>2.5</v>
+      </c>
+      <c r="L282">
+        <v>3.2</v>
+      </c>
+      <c r="M282">
+        <v>2.5</v>
+      </c>
+      <c r="N282">
+        <v>2.5</v>
+      </c>
+      <c r="O282">
+        <v>3.2</v>
+      </c>
+      <c r="P282">
+        <v>2.5</v>
+      </c>
+      <c r="Q282">
         <v>0</v>
-      </c>
-      <c r="J282" t="s">
-        <v>190</v>
-      </c>
-      <c r="K282">
-        <v>1.8</v>
-      </c>
-      <c r="L282">
-        <v>3.6</v>
-      </c>
-      <c r="M282">
-        <v>3.5</v>
-      </c>
-      <c r="N282">
-        <v>1.65</v>
-      </c>
-      <c r="O282">
-        <v>3.8</v>
-      </c>
-      <c r="P282">
-        <v>4</v>
-      </c>
-      <c r="Q282">
-        <v>-0.75</v>
       </c>
       <c r="R282">
         <v>1.9</v>
@@ -26022,34 +26022,34 @@
         <v>1.9</v>
       </c>
       <c r="T282">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U282">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V282">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W282">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X282">
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z282">
+        <v>-1</v>
+      </c>
+      <c r="AA282">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA282">
-        <v>-1</v>
-      </c>
       <c r="AB282">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC282">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -26057,7 +26057,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7965566</v>
+        <v>7965563</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -26069,76 +26069,76 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F283" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G283" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J283" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K283">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="L283">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M283">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N283">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="O283">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P283">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q283">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R283">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S283">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T283">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U283">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V283">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W283">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X283">
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z283">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA283">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC283">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -26146,7 +26146,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7965563</v>
+        <v>7965566</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -26158,76 +26158,76 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F284" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G284" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="H284">
+        <v>1</v>
+      </c>
+      <c r="I284">
         <v>0</v>
       </c>
-      <c r="I284">
-        <v>3</v>
-      </c>
       <c r="J284" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K284">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="L284">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M284">
+        <v>3.75</v>
+      </c>
+      <c r="N284">
+        <v>1.75</v>
+      </c>
+      <c r="O284">
+        <v>3.6</v>
+      </c>
+      <c r="P284">
+        <v>3.75</v>
+      </c>
+      <c r="Q284">
+        <v>-0.5</v>
+      </c>
+      <c r="R284">
+        <v>1.8</v>
+      </c>
+      <c r="S284">
+        <v>2</v>
+      </c>
+      <c r="T284">
         <v>2.25</v>
       </c>
-      <c r="N284">
-        <v>2.75</v>
-      </c>
-      <c r="O284">
-        <v>3.25</v>
-      </c>
-      <c r="P284">
-        <v>2.25</v>
-      </c>
-      <c r="Q284">
-        <v>0.25</v>
-      </c>
-      <c r="R284">
-        <v>1.775</v>
-      </c>
-      <c r="S284">
-        <v>2.025</v>
-      </c>
-      <c r="T284">
-        <v>2.5</v>
-      </c>
       <c r="U284">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V284">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W284">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X284">
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z284">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA284">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB284">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC284">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -27303,7 +27303,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7995446</v>
+        <v>7995536</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -27315,49 +27315,49 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G297" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="H297">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297">
         <v>2</v>
       </c>
       <c r="J297" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K297">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="L297">
         <v>3.8</v>
       </c>
       <c r="M297">
-        <v>5.5</v>
+        <v>1.571</v>
       </c>
       <c r="N297">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="O297">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P297">
-        <v>5.25</v>
+        <v>1.833</v>
       </c>
       <c r="Q297">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R297">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S297">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T297">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U297">
         <v>1.875</v>
@@ -27366,19 +27366,19 @@
         <v>1.925</v>
       </c>
       <c r="W297">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X297">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA297">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
         <v>0.875</v>
@@ -27392,7 +27392,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7995536</v>
+        <v>7995445</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27404,76 +27404,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="G298" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K298">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="L298">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M298">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="N298">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="O298">
         <v>3.2</v>
       </c>
       <c r="P298">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="Q298">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R298">
+        <v>1.975</v>
+      </c>
+      <c r="S298">
+        <v>1.825</v>
+      </c>
+      <c r="T298">
+        <v>2.25</v>
+      </c>
+      <c r="U298">
+        <v>1.85</v>
+      </c>
+      <c r="V298">
         <v>1.95</v>
       </c>
-      <c r="S298">
-        <v>1.85</v>
-      </c>
-      <c r="T298">
-        <v>2</v>
-      </c>
-      <c r="U298">
-        <v>1.875</v>
-      </c>
-      <c r="V298">
-        <v>1.925</v>
-      </c>
       <c r="W298">
         <v>-1</v>
       </c>
       <c r="X298">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z298">
+        <v>-1</v>
+      </c>
+      <c r="AA298">
+        <v>0.825</v>
+      </c>
+      <c r="AB298">
+        <v>-1</v>
+      </c>
+      <c r="AC298">
         <v>0.95</v>
-      </c>
-      <c r="AA298">
-        <v>-1</v>
-      </c>
-      <c r="AB298">
-        <v>0.875</v>
-      </c>
-      <c r="AC298">
-        <v>-1</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27481,7 +27481,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7995445</v>
+        <v>7995446</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27493,76 +27493,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G299" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="H299">
+        <v>3</v>
+      </c>
+      <c r="I299">
+        <v>2</v>
+      </c>
+      <c r="J299" t="s">
+        <v>190</v>
+      </c>
+      <c r="K299">
+        <v>1.5</v>
+      </c>
+      <c r="L299">
+        <v>3.8</v>
+      </c>
+      <c r="M299">
+        <v>5.5</v>
+      </c>
+      <c r="N299">
+        <v>1.5</v>
+      </c>
+      <c r="O299">
+        <v>3.8</v>
+      </c>
+      <c r="P299">
+        <v>5.25</v>
+      </c>
+      <c r="Q299">
+        <v>-1</v>
+      </c>
+      <c r="R299">
+        <v>1.825</v>
+      </c>
+      <c r="S299">
+        <v>1.975</v>
+      </c>
+      <c r="T299">
+        <v>2.75</v>
+      </c>
+      <c r="U299">
+        <v>1.875</v>
+      </c>
+      <c r="V299">
+        <v>1.925</v>
+      </c>
+      <c r="W299">
+        <v>0.5</v>
+      </c>
+      <c r="X299">
+        <v>-1</v>
+      </c>
+      <c r="Y299">
+        <v>-1</v>
+      </c>
+      <c r="Z299">
         <v>0</v>
       </c>
-      <c r="I299">
-        <v>1</v>
-      </c>
-      <c r="J299" t="s">
-        <v>189</v>
-      </c>
-      <c r="K299">
-        <v>1.909</v>
-      </c>
-      <c r="L299">
-        <v>3.2</v>
-      </c>
-      <c r="M299">
-        <v>3.6</v>
-      </c>
-      <c r="N299">
-        <v>1.909</v>
-      </c>
-      <c r="O299">
-        <v>3.2</v>
-      </c>
-      <c r="P299">
-        <v>3.6</v>
-      </c>
-      <c r="Q299">
-        <v>-0.5</v>
-      </c>
-      <c r="R299">
-        <v>1.975</v>
-      </c>
-      <c r="S299">
-        <v>1.825</v>
-      </c>
-      <c r="T299">
-        <v>2.25</v>
-      </c>
-      <c r="U299">
-        <v>1.85</v>
-      </c>
-      <c r="V299">
-        <v>1.95</v>
-      </c>
-      <c r="W299">
-        <v>-1</v>
-      </c>
-      <c r="X299">
-        <v>-1</v>
-      </c>
-      <c r="Y299">
-        <v>2.6</v>
-      </c>
-      <c r="Z299">
-        <v>-1</v>
-      </c>
       <c r="AA299">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB299">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC299">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -28193,7 +28193,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>8013526</v>
+        <v>8013527</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -28205,58 +28205,58 @@
         <v>45378.66666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G307" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="H307">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J307" t="s">
         <v>190</v>
       </c>
       <c r="K307">
-        <v>1.8</v>
+        <v>1.125</v>
       </c>
       <c r="L307">
+        <v>8</v>
+      </c>
+      <c r="M307">
+        <v>13</v>
+      </c>
+      <c r="N307">
+        <v>1.125</v>
+      </c>
+      <c r="O307">
+        <v>8</v>
+      </c>
+      <c r="P307">
+        <v>13</v>
+      </c>
+      <c r="Q307">
+        <v>-2.25</v>
+      </c>
+      <c r="R307">
+        <v>1.85</v>
+      </c>
+      <c r="S307">
+        <v>1.95</v>
+      </c>
+      <c r="T307">
         <v>3</v>
       </c>
-      <c r="M307">
-        <v>4.5</v>
-      </c>
-      <c r="N307">
-        <v>1.75</v>
-      </c>
-      <c r="O307">
-        <v>2.9</v>
-      </c>
-      <c r="P307">
-        <v>5</v>
-      </c>
-      <c r="Q307">
-        <v>-0.75</v>
-      </c>
-      <c r="R307">
-        <v>2.025</v>
-      </c>
-      <c r="S307">
-        <v>1.775</v>
-      </c>
-      <c r="T307">
-        <v>2</v>
-      </c>
       <c r="U307">
+        <v>1.85</v>
+      </c>
+      <c r="V307">
         <v>1.95</v>
       </c>
-      <c r="V307">
-        <v>1.85</v>
-      </c>
       <c r="W307">
-        <v>0.75</v>
+        <v>0.125</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -28265,16 +28265,16 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA307">
         <v>-1</v>
       </c>
       <c r="AB307">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC307">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -28282,7 +28282,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>8013527</v>
+        <v>8013526</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -28294,58 +28294,58 @@
         <v>45378.66666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G308" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="H308">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J308" t="s">
         <v>190</v>
       </c>
       <c r="K308">
-        <v>1.125</v>
+        <v>1.8</v>
       </c>
       <c r="L308">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M308">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="N308">
-        <v>1.125</v>
+        <v>1.75</v>
       </c>
       <c r="O308">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="P308">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q308">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R308">
+        <v>2.025</v>
+      </c>
+      <c r="S308">
+        <v>1.775</v>
+      </c>
+      <c r="T308">
+        <v>2</v>
+      </c>
+      <c r="U308">
+        <v>1.95</v>
+      </c>
+      <c r="V308">
         <v>1.85</v>
       </c>
-      <c r="S308">
-        <v>1.95</v>
-      </c>
-      <c r="T308">
-        <v>3</v>
-      </c>
-      <c r="U308">
-        <v>1.85</v>
-      </c>
-      <c r="V308">
-        <v>1.95</v>
-      </c>
       <c r="W308">
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
       <c r="X308">
         <v>-1</v>
@@ -28354,16 +28354,16 @@
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA308">
         <v>-1</v>
       </c>
       <c r="AB308">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC308">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:29">

--- a/France National 3/France National 3.xlsx
+++ b/France National 3/France National 3.xlsx
@@ -310,10 +310,10 @@
     <t>Pontivy GSI</t>
   </si>
   <si>
-    <t>Croix IC</t>
+    <t>Neuilly Sur Marne</t>
   </si>
   <si>
-    <t>Neuilly Sur Marne</t>
+    <t>Croix IC</t>
   </si>
   <si>
     <t>Drancy</t>
@@ -559,10 +559,10 @@
     <t>Niort II</t>
   </si>
   <si>
-    <t>Stade Pontivy</t>
+    <t>Vesoul</t>
   </si>
   <si>
-    <t>Vesoul</t>
+    <t>Stade Pontivy</t>
   </si>
   <si>
     <t>US Pays de Cassel</t>
@@ -9518,7 +9518,7 @@
         <v>85</v>
       </c>
       <c r="G97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7515942</v>
+        <v>7515962</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -11384,76 +11384,76 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="G118" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>191</v>
       </c>
       <c r="K118">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L118">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N118">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="O118">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
+        <v>1.825</v>
+      </c>
+      <c r="S118">
+        <v>1.975</v>
+      </c>
+      <c r="T118">
+        <v>2.5</v>
+      </c>
+      <c r="U118">
         <v>1.9</v>
       </c>
-      <c r="S118">
+      <c r="V118">
         <v>1.9</v>
       </c>
-      <c r="T118">
-        <v>2.25</v>
-      </c>
-      <c r="U118">
-        <v>1.85</v>
-      </c>
-      <c r="V118">
-        <v>1.95</v>
-      </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB118">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11728,7 +11728,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7515962</v>
+        <v>7515952</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11740,61 +11740,61 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="G122" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
         <v>191</v>
       </c>
       <c r="K122">
+        <v>2.5</v>
+      </c>
+      <c r="L122">
+        <v>2.8</v>
+      </c>
+      <c r="M122">
+        <v>2.8</v>
+      </c>
+      <c r="N122">
         <v>1.909</v>
       </c>
-      <c r="L122">
+      <c r="O122">
         <v>3.1</v>
       </c>
-      <c r="M122">
-        <v>3.75</v>
-      </c>
-      <c r="N122">
-        <v>1.6</v>
-      </c>
-      <c r="O122">
-        <v>3.6</v>
-      </c>
       <c r="P122">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q122">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T122">
         <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
@@ -11803,13 +11803,13 @@
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11817,7 +11817,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7515952</v>
+        <v>7515942</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11829,76 +11829,76 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G123" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
         <v>191</v>
       </c>
       <c r="K123">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L123">
         <v>2.8</v>
       </c>
       <c r="M123">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N123">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O123">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P123">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q123">
+        <v>-0.25</v>
+      </c>
+      <c r="R123">
+        <v>1.9</v>
+      </c>
+      <c r="S123">
+        <v>1.9</v>
+      </c>
+      <c r="T123">
+        <v>2.25</v>
+      </c>
+      <c r="U123">
+        <v>1.85</v>
+      </c>
+      <c r="V123">
+        <v>1.95</v>
+      </c>
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
+        <v>2</v>
+      </c>
+      <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
         <v>-0.5</v>
       </c>
-      <c r="R123">
-        <v>1.925</v>
-      </c>
-      <c r="S123">
-        <v>1.875</v>
-      </c>
-      <c r="T123">
-        <v>2.5</v>
-      </c>
-      <c r="U123">
-        <v>1.95</v>
-      </c>
-      <c r="V123">
-        <v>1.85</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
-      <c r="X123">
-        <v>2.1</v>
-      </c>
-      <c r="Y123">
-        <v>-1</v>
-      </c>
-      <c r="Z123">
-        <v>-1</v>
-      </c>
       <c r="AA123">
-        <v>0.875</v>
+        <v>0.45</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -13508,7 +13508,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7568839</v>
+        <v>7568838</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13523,73 +13523,73 @@
         <v>98</v>
       </c>
       <c r="G142" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K142">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L142">
         <v>3</v>
       </c>
       <c r="M142">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="N142">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O142">
         <v>3</v>
       </c>
       <c r="P142">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U142">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="V142">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W142">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AB142">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13597,7 +13597,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7569711</v>
+        <v>7568839</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13609,10 +13609,10 @@
         <v>45269.4375</v>
       </c>
       <c r="F143" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G143" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13624,25 +13624,25 @@
         <v>190</v>
       </c>
       <c r="K143">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L143">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="N143">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="O143">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P143">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="Q143">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
         <v>1.85</v>
@@ -13651,16 +13651,16 @@
         <v>1.95</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
         <v>1.925</v>
       </c>
       <c r="V143">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W143">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13675,10 +13675,10 @@
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AC143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13686,7 +13686,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7568838</v>
+        <v>7569711</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13698,76 +13698,76 @@
         <v>45269.4375</v>
       </c>
       <c r="F144" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G144" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K144">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="L144">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N144">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O144">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S144">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X144">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA144">
+        <v>-1</v>
+      </c>
+      <c r="AB144">
+        <v>0.4625</v>
+      </c>
+      <c r="AC144">
         <v>-0.5</v>
-      </c>
-      <c r="AA144">
-        <v>0.35</v>
-      </c>
-      <c r="AB144">
-        <v>0</v>
-      </c>
-      <c r="AC144">
-        <v>-0</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -14576,7 +14576,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7594772</v>
+        <v>7594732</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14588,10 +14588,10 @@
         <v>45276.5</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G154" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14603,46 +14603,46 @@
         <v>191</v>
       </c>
       <c r="K154">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="L154">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M154">
         <v>5.5</v>
       </c>
       <c r="N154">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="O154">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P154">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q154">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T154">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U154">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V154">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y154">
         <v>-1</v>
@@ -14651,10 +14651,10 @@
         <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.8500000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AB154">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14665,7 +14665,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7594732</v>
+        <v>7594772</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14677,10 +14677,10 @@
         <v>45276.5</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G155" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14692,47 +14692,47 @@
         <v>191</v>
       </c>
       <c r="K155">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L155">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M155">
         <v>5.5</v>
       </c>
       <c r="N155">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="O155">
+        <v>4.5</v>
+      </c>
+      <c r="P155">
+        <v>5.75</v>
+      </c>
+      <c r="Q155">
+        <v>-1.25</v>
+      </c>
+      <c r="R155">
+        <v>1.95</v>
+      </c>
+      <c r="S155">
+        <v>1.85</v>
+      </c>
+      <c r="T155">
+        <v>2.25</v>
+      </c>
+      <c r="U155">
+        <v>1.925</v>
+      </c>
+      <c r="V155">
+        <v>1.875</v>
+      </c>
+      <c r="W155">
+        <v>-1</v>
+      </c>
+      <c r="X155">
         <v>3.5</v>
       </c>
-      <c r="P155">
-        <v>5.25</v>
-      </c>
-      <c r="Q155">
-        <v>-0.75</v>
-      </c>
-      <c r="R155">
-        <v>1.725</v>
-      </c>
-      <c r="S155">
-        <v>2.075</v>
-      </c>
-      <c r="T155">
-        <v>3</v>
-      </c>
-      <c r="U155">
-        <v>1.825</v>
-      </c>
-      <c r="V155">
-        <v>1.975</v>
-      </c>
-      <c r="W155">
-        <v>-1</v>
-      </c>
-      <c r="X155">
-        <v>2.5</v>
-      </c>
       <c r="Y155">
         <v>-1</v>
       </c>
@@ -14740,10 +14740,10 @@
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>1.075</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB155">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -15110,7 +15110,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7594753</v>
+        <v>7594728</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -15122,76 +15122,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="G160" t="s">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J160" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K160">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L160">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M160">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N160">
+        <v>2.3</v>
+      </c>
+      <c r="O160">
+        <v>3.2</v>
+      </c>
+      <c r="P160">
+        <v>2.7</v>
+      </c>
+      <c r="Q160">
+        <v>-0.25</v>
+      </c>
+      <c r="R160">
+        <v>2.05</v>
+      </c>
+      <c r="S160">
         <v>1.75</v>
-      </c>
-      <c r="O160">
-        <v>3.4</v>
-      </c>
-      <c r="P160">
-        <v>4.2</v>
-      </c>
-      <c r="Q160">
-        <v>-0.5</v>
-      </c>
-      <c r="R160">
-        <v>1.775</v>
-      </c>
-      <c r="S160">
-        <v>2.025</v>
       </c>
       <c r="T160">
         <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V160">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC160">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15199,7 +15199,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7594728</v>
+        <v>7594733</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -15211,46 +15211,46 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G161" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="H161">
         <v>2</v>
       </c>
       <c r="I161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K161">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="L161">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M161">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N161">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O161">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P161">
         <v>2.7</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R161">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S161">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T161">
         <v>2.75</v>
@@ -15262,25 +15262,25 @@
         <v>1.85</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA161">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15288,7 +15288,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7594733</v>
+        <v>7594753</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -15300,76 +15300,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="G162" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K162">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="L162">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M162">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="N162">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="O162">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P162">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R162">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S162">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T162">
         <v>2.75</v>
       </c>
       <c r="U162">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V162">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W162">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB162">
         <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -16190,7 +16190,7 @@
         <v>45304.4375</v>
       </c>
       <c r="F172" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G172" t="s">
         <v>70</v>
@@ -17513,7 +17513,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7718933</v>
+        <v>7718934</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17525,10 +17525,10 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G187" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -17540,44 +17540,44 @@
         <v>190</v>
       </c>
       <c r="K187">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="L187">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M187">
+        <v>1.8</v>
+      </c>
+      <c r="N187">
+        <v>3.5</v>
+      </c>
+      <c r="O187">
+        <v>3.6</v>
+      </c>
+      <c r="P187">
+        <v>1.8</v>
+      </c>
+      <c r="Q187">
+        <v>0.5</v>
+      </c>
+      <c r="R187">
+        <v>1.95</v>
+      </c>
+      <c r="S187">
+        <v>1.85</v>
+      </c>
+      <c r="T187">
         <v>2.75</v>
       </c>
-      <c r="N187">
-        <v>2.25</v>
-      </c>
-      <c r="O187">
-        <v>3.25</v>
-      </c>
-      <c r="P187">
-        <v>2.75</v>
-      </c>
-      <c r="Q187">
-        <v>-0.25</v>
-      </c>
-      <c r="R187">
-        <v>2.025</v>
-      </c>
-      <c r="S187">
-        <v>1.775</v>
-      </c>
-      <c r="T187">
+      <c r="U187">
+        <v>1.75</v>
+      </c>
+      <c r="V187">
+        <v>1.95</v>
+      </c>
+      <c r="W187">
         <v>2.5</v>
       </c>
-      <c r="U187">
-        <v>1.9</v>
-      </c>
-      <c r="V187">
-        <v>1.9</v>
-      </c>
-      <c r="W187">
-        <v>1.25</v>
-      </c>
       <c r="X187">
         <v>-1</v>
       </c>
@@ -17585,16 +17585,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17602,7 +17602,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7718934</v>
+        <v>7718933</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17614,10 +17614,10 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G188" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="H188">
         <v>2</v>
@@ -17629,43 +17629,43 @@
         <v>190</v>
       </c>
       <c r="K188">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L188">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M188">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="N188">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="O188">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P188">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q188">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T188">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W188">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17674,16 +17674,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17691,7 +17691,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7718936</v>
+        <v>7718964</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17703,58 +17703,58 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G189" t="s">
         <v>181</v>
       </c>
       <c r="H189">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>190</v>
       </c>
       <c r="K189">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L189">
         <v>3.25</v>
       </c>
       <c r="M189">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N189">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O189">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P189">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q189">
         <v>-0.5</v>
       </c>
       <c r="R189">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S189">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W189">
-        <v>0.8</v>
+        <v>0.833</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17763,13 +17763,13 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17780,7 +17780,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7718964</v>
+        <v>7718936</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17792,58 +17792,58 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G190" t="s">
         <v>182</v>
       </c>
       <c r="H190">
+        <v>5</v>
+      </c>
+      <c r="I190">
         <v>3</v>
-      </c>
-      <c r="I190">
-        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>190</v>
       </c>
       <c r="K190">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="L190">
         <v>3.25</v>
       </c>
       <c r="M190">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="N190">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O190">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P190">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q190">
         <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S190">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T190">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
-        <v>0.833</v>
+        <v>0.8</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17852,13 +17852,13 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -18418,7 +18418,7 @@
         <v>91</v>
       </c>
       <c r="G197" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -19827,7 +19827,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7779994</v>
+        <v>7779991</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19839,76 +19839,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="G213" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H213">
         <v>1</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K213">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L213">
         <v>3.2</v>
       </c>
       <c r="M213">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N213">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O213">
         <v>3.2</v>
       </c>
       <c r="P213">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Q213">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R213">
+        <v>2</v>
+      </c>
+      <c r="S213">
         <v>1.8</v>
-      </c>
-      <c r="S213">
-        <v>2</v>
       </c>
       <c r="T213">
         <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V213">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y213">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA213">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB213">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19916,7 +19916,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7779991</v>
+        <v>7779989</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19928,76 +19928,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G214" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214">
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K214">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M214">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N214">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="O214">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P214">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S214">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U214">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V214">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z214">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20005,7 +20005,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7779989</v>
+        <v>7779990</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -20017,76 +20017,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="G215" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215">
         <v>0</v>
       </c>
-      <c r="I215">
+      <c r="J215" t="s">
+        <v>190</v>
+      </c>
+      <c r="K215">
+        <v>1.571</v>
+      </c>
+      <c r="L215">
+        <v>3.5</v>
+      </c>
+      <c r="M215">
+        <v>5.25</v>
+      </c>
+      <c r="N215">
+        <v>1.571</v>
+      </c>
+      <c r="O215">
+        <v>3.5</v>
+      </c>
+      <c r="P215">
+        <v>5.25</v>
+      </c>
+      <c r="Q215">
+        <v>-0.75</v>
+      </c>
+      <c r="R215">
+        <v>1.725</v>
+      </c>
+      <c r="S215">
+        <v>1.975</v>
+      </c>
+      <c r="T215">
+        <v>2.25</v>
+      </c>
+      <c r="U215">
+        <v>1.8</v>
+      </c>
+      <c r="V215">
+        <v>2</v>
+      </c>
+      <c r="W215">
+        <v>0.571</v>
+      </c>
+      <c r="X215">
+        <v>-1</v>
+      </c>
+      <c r="Y215">
+        <v>-1</v>
+      </c>
+      <c r="Z215">
+        <v>0.3625</v>
+      </c>
+      <c r="AA215">
+        <v>-0.5</v>
+      </c>
+      <c r="AB215">
+        <v>-1</v>
+      </c>
+      <c r="AC215">
         <v>1</v>
-      </c>
-      <c r="J215" t="s">
-        <v>189</v>
-      </c>
-      <c r="K215">
-        <v>1.85</v>
-      </c>
-      <c r="L215">
-        <v>3.4</v>
-      </c>
-      <c r="M215">
-        <v>3.6</v>
-      </c>
-      <c r="N215">
-        <v>1.85</v>
-      </c>
-      <c r="O215">
-        <v>3.4</v>
-      </c>
-      <c r="P215">
-        <v>3.6</v>
-      </c>
-      <c r="Q215">
-        <v>-0.5</v>
-      </c>
-      <c r="R215">
-        <v>1.9</v>
-      </c>
-      <c r="S215">
-        <v>1.9</v>
-      </c>
-      <c r="T215">
-        <v>3</v>
-      </c>
-      <c r="U215">
-        <v>1.95</v>
-      </c>
-      <c r="V215">
-        <v>1.85</v>
-      </c>
-      <c r="W215">
-        <v>-1</v>
-      </c>
-      <c r="X215">
-        <v>-1</v>
-      </c>
-      <c r="Y215">
-        <v>2.6</v>
-      </c>
-      <c r="Z215">
-        <v>-1</v>
-      </c>
-      <c r="AA215">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB215">
-        <v>-1</v>
-      </c>
-      <c r="AC215">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -20094,7 +20094,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7779990</v>
+        <v>7779994</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -20106,76 +20106,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G216" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K216">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="L216">
+        <v>3.2</v>
+      </c>
+      <c r="M216">
+        <v>1.95</v>
+      </c>
+      <c r="N216">
         <v>3.5</v>
       </c>
-      <c r="M216">
-        <v>5.25</v>
-      </c>
-      <c r="N216">
-        <v>1.571</v>
-      </c>
       <c r="O216">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P216">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q216">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R216">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S216">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T216">
         <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z216">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB216">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC216">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20462,7 +20462,7 @@
         <v>45326.4375</v>
       </c>
       <c r="F220" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G220" t="s">
         <v>174</v>
@@ -21429,7 +21429,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7843129</v>
+        <v>7843258</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21441,58 +21441,58 @@
         <v>45339.4375</v>
       </c>
       <c r="F231" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="G231" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
         <v>190</v>
       </c>
       <c r="K231">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="L231">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M231">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="N231">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="O231">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P231">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q231">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R231">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S231">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V231">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W231">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21501,16 +21501,16 @@
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA231">
         <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21518,7 +21518,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7843258</v>
+        <v>7843129</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21530,58 +21530,58 @@
         <v>45339.4375</v>
       </c>
       <c r="F232" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="G232" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H232">
+        <v>2</v>
+      </c>
+      <c r="I232">
         <v>1</v>
-      </c>
-      <c r="I232">
-        <v>0</v>
       </c>
       <c r="J232" t="s">
         <v>190</v>
       </c>
       <c r="K232">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="L232">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M232">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="N232">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="O232">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P232">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q232">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R232">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S232">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T232">
         <v>2.5</v>
       </c>
       <c r="U232">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V232">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W232">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21590,16 +21590,16 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA232">
         <v>-1</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC232">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21696,7 +21696,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7843137</v>
+        <v>7843260</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21708,40 +21708,40 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G234" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="H234">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K234">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="L234">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M234">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="N234">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O234">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P234">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="Q234">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R234">
         <v>1.975</v>
@@ -21750,34 +21750,34 @@
         <v>1.825</v>
       </c>
       <c r="T234">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U234">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V234">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W234">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z234">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB234">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21785,7 +21785,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7843138</v>
+        <v>7843137</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21797,76 +21797,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F235" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="G235" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K235">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L235">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M235">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N235">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O235">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P235">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q235">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R235">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S235">
+        <v>1.825</v>
+      </c>
+      <c r="T235">
+        <v>2.75</v>
+      </c>
+      <c r="U235">
+        <v>1.825</v>
+      </c>
+      <c r="V235">
         <v>1.975</v>
       </c>
-      <c r="T235">
-        <v>3</v>
-      </c>
-      <c r="U235">
-        <v>1.975</v>
-      </c>
-      <c r="V235">
-        <v>1.825</v>
-      </c>
       <c r="W235">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X235">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.3625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA235">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC235">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21874,7 +21874,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7843186</v>
+        <v>7843138</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21886,76 +21886,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F236" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="G236" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K236">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="L236">
         <v>3.25</v>
       </c>
       <c r="M236">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N236">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="O236">
         <v>3.3</v>
       </c>
       <c r="P236">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q236">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R236">
+        <v>1.725</v>
+      </c>
+      <c r="S236">
         <v>1.975</v>
       </c>
-      <c r="S236">
+      <c r="T236">
+        <v>3</v>
+      </c>
+      <c r="U236">
+        <v>1.975</v>
+      </c>
+      <c r="V236">
         <v>1.825</v>
       </c>
-      <c r="T236">
-        <v>2.75</v>
-      </c>
-      <c r="U236">
-        <v>1.825</v>
-      </c>
-      <c r="V236">
-        <v>1.975</v>
-      </c>
       <c r="W236">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.9750000000000001</v>
+        <v>0.3625</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB236">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21963,7 +21963,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7843187</v>
+        <v>7843186</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21975,76 +21975,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F237" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G237" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
         <v>190</v>
       </c>
       <c r="K237">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L237">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M237">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N237">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="O237">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P237">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q237">
+        <v>-0.75</v>
+      </c>
+      <c r="R237">
+        <v>1.975</v>
+      </c>
+      <c r="S237">
+        <v>1.825</v>
+      </c>
+      <c r="T237">
+        <v>2.75</v>
+      </c>
+      <c r="U237">
+        <v>1.825</v>
+      </c>
+      <c r="V237">
+        <v>1.975</v>
+      </c>
+      <c r="W237">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X237">
+        <v>-1</v>
+      </c>
+      <c r="Y237">
+        <v>-1</v>
+      </c>
+      <c r="Z237">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA237">
+        <v>-1</v>
+      </c>
+      <c r="AB237">
+        <v>0.4125</v>
+      </c>
+      <c r="AC237">
         <v>-0.5</v>
-      </c>
-      <c r="R237">
-        <v>1.875</v>
-      </c>
-      <c r="S237">
-        <v>1.925</v>
-      </c>
-      <c r="T237">
-        <v>2</v>
-      </c>
-      <c r="U237">
-        <v>1.95</v>
-      </c>
-      <c r="V237">
-        <v>1.85</v>
-      </c>
-      <c r="W237">
-        <v>0.833</v>
-      </c>
-      <c r="X237">
-        <v>-1</v>
-      </c>
-      <c r="Y237">
-        <v>-1</v>
-      </c>
-      <c r="Z237">
-        <v>0.875</v>
-      </c>
-      <c r="AA237">
-        <v>-1</v>
-      </c>
-      <c r="AB237">
-        <v>0.95</v>
-      </c>
-      <c r="AC237">
-        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -22052,7 +22052,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7843260</v>
+        <v>7843187</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -22064,49 +22064,49 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="G238" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K238">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="L238">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M238">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="N238">
+        <v>1.833</v>
+      </c>
+      <c r="O238">
         <v>3.1</v>
       </c>
-      <c r="O238">
-        <v>3.25</v>
-      </c>
       <c r="P238">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S238">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T238">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U238">
         <v>1.95</v>
@@ -22115,25 +22115,25 @@
         <v>1.85</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA238">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC238">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -22497,7 +22497,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7847715</v>
+        <v>7847712</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22509,49 +22509,49 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F243" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G243" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="I243">
         <v>0</v>
       </c>
-      <c r="I243">
-        <v>2</v>
-      </c>
       <c r="J243" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K243">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L243">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M243">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N243">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O243">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P243">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q243">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R243">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S243">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T243">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U243">
         <v>1.775</v>
@@ -22560,25 +22560,25 @@
         <v>2.025</v>
       </c>
       <c r="W243">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X243">
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA243">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22675,7 +22675,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7847712</v>
+        <v>7847715</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22687,49 +22687,49 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F245" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G245" t="s">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245">
+        <v>2</v>
+      </c>
+      <c r="J245" t="s">
+        <v>189</v>
+      </c>
+      <c r="K245">
+        <v>2.5</v>
+      </c>
+      <c r="L245">
+        <v>3</v>
+      </c>
+      <c r="M245">
+        <v>2.6</v>
+      </c>
+      <c r="N245">
+        <v>2.5</v>
+      </c>
+      <c r="O245">
+        <v>3</v>
+      </c>
+      <c r="P245">
+        <v>2.6</v>
+      </c>
+      <c r="Q245">
         <v>0</v>
       </c>
-      <c r="J245" t="s">
-        <v>190</v>
-      </c>
-      <c r="K245">
-        <v>1.666</v>
-      </c>
-      <c r="L245">
-        <v>3.6</v>
-      </c>
-      <c r="M245">
-        <v>4.2</v>
-      </c>
-      <c r="N245">
-        <v>1.666</v>
-      </c>
-      <c r="O245">
-        <v>3.6</v>
-      </c>
-      <c r="P245">
-        <v>4.2</v>
-      </c>
-      <c r="Q245">
-        <v>-0.75</v>
-      </c>
       <c r="R245">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S245">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T245">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U245">
         <v>1.775</v>
@@ -22738,25 +22738,25 @@
         <v>2.025</v>
       </c>
       <c r="W245">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X245">
         <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z245">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA245">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB245">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC245">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -23666,7 +23666,7 @@
         <v>45347.4375</v>
       </c>
       <c r="F256" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G256" t="s">
         <v>186</v>
@@ -24099,7 +24099,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7899700</v>
+        <v>7899249</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -24111,76 +24111,76 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F261" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G261" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="H261">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J261" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K261">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="L261">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M261">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N261">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="O261">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="P261">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q261">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R261">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S261">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T261">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U261">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V261">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W261">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X261">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y261">
         <v>-1</v>
       </c>
       <c r="Z261">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA261">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB261">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -24188,7 +24188,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7899249</v>
+        <v>7899700</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -24200,76 +24200,76 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G262" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J262" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K262">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="L262">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M262">
+        <v>6.5</v>
+      </c>
+      <c r="N262">
+        <v>1.4</v>
+      </c>
+      <c r="O262">
+        <v>4</v>
+      </c>
+      <c r="P262">
+        <v>6</v>
+      </c>
+      <c r="Q262">
+        <v>-1.25</v>
+      </c>
+      <c r="R262">
+        <v>1.85</v>
+      </c>
+      <c r="S262">
+        <v>1.95</v>
+      </c>
+      <c r="T262">
         <v>3</v>
       </c>
-      <c r="N262">
-        <v>2.45</v>
-      </c>
-      <c r="O262">
-        <v>2.7</v>
-      </c>
-      <c r="P262">
-        <v>3</v>
-      </c>
-      <c r="Q262">
-        <v>-0.25</v>
-      </c>
-      <c r="R262">
-        <v>2.075</v>
-      </c>
-      <c r="S262">
-        <v>1.725</v>
-      </c>
-      <c r="T262">
-        <v>2</v>
-      </c>
       <c r="U262">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V262">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X262">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA262">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC262">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -24648,7 +24648,7 @@
         <v>122</v>
       </c>
       <c r="G267" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>45361.4375</v>
       </c>
       <c r="F275" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G275" t="s">
         <v>120</v>
@@ -25624,7 +25624,7 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F278" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G278" t="s">
         <v>166</v>
@@ -25879,7 +25879,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>7965562</v>
+        <v>7965564</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25891,40 +25891,40 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="G281" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281">
+        <v>3</v>
+      </c>
+      <c r="J281" t="s">
+        <v>189</v>
+      </c>
+      <c r="K281">
+        <v>2.5</v>
+      </c>
+      <c r="L281">
+        <v>3.2</v>
+      </c>
+      <c r="M281">
+        <v>2.5</v>
+      </c>
+      <c r="N281">
+        <v>2.5</v>
+      </c>
+      <c r="O281">
+        <v>3.2</v>
+      </c>
+      <c r="P281">
+        <v>2.5</v>
+      </c>
+      <c r="Q281">
         <v>0</v>
-      </c>
-      <c r="J281" t="s">
-        <v>190</v>
-      </c>
-      <c r="K281">
-        <v>1.8</v>
-      </c>
-      <c r="L281">
-        <v>3.6</v>
-      </c>
-      <c r="M281">
-        <v>3.5</v>
-      </c>
-      <c r="N281">
-        <v>1.65</v>
-      </c>
-      <c r="O281">
-        <v>3.8</v>
-      </c>
-      <c r="P281">
-        <v>4</v>
-      </c>
-      <c r="Q281">
-        <v>-0.75</v>
       </c>
       <c r="R281">
         <v>1.9</v>
@@ -25933,34 +25933,34 @@
         <v>1.9</v>
       </c>
       <c r="T281">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U281">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V281">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W281">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z281">
+        <v>-1</v>
+      </c>
+      <c r="AA281">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA281">
-        <v>-1</v>
-      </c>
       <c r="AB281">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC281">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25968,7 +25968,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7965564</v>
+        <v>7965562</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25980,40 +25980,40 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F282" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="G282" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J282" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K282">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L282">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M282">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N282">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="O282">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P282">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q282">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R282">
         <v>1.9</v>
@@ -26022,34 +26022,34 @@
         <v>1.9</v>
       </c>
       <c r="T282">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U282">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V282">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W282">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X282">
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z282">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA282">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB282">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC282">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -26057,7 +26057,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7965563</v>
+        <v>7965566</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -26069,76 +26069,76 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F283" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G283" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="H283">
+        <v>1</v>
+      </c>
+      <c r="I283">
         <v>0</v>
       </c>
-      <c r="I283">
-        <v>3</v>
-      </c>
       <c r="J283" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K283">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="L283">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M283">
+        <v>3.75</v>
+      </c>
+      <c r="N283">
+        <v>1.75</v>
+      </c>
+      <c r="O283">
+        <v>3.6</v>
+      </c>
+      <c r="P283">
+        <v>3.75</v>
+      </c>
+      <c r="Q283">
+        <v>-0.5</v>
+      </c>
+      <c r="R283">
+        <v>1.8</v>
+      </c>
+      <c r="S283">
+        <v>2</v>
+      </c>
+      <c r="T283">
         <v>2.25</v>
       </c>
-      <c r="N283">
-        <v>2.75</v>
-      </c>
-      <c r="O283">
-        <v>3.25</v>
-      </c>
-      <c r="P283">
-        <v>2.25</v>
-      </c>
-      <c r="Q283">
-        <v>0.25</v>
-      </c>
-      <c r="R283">
-        <v>1.775</v>
-      </c>
-      <c r="S283">
-        <v>2.025</v>
-      </c>
-      <c r="T283">
-        <v>2.5</v>
-      </c>
       <c r="U283">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V283">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W283">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X283">
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z283">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA283">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB283">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC283">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -26146,7 +26146,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7965566</v>
+        <v>7965563</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -26158,76 +26158,76 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F284" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G284" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J284" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K284">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="L284">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M284">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N284">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="O284">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P284">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q284">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R284">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S284">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T284">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U284">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V284">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W284">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X284">
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z284">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA284">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB284">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC284">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -27303,7 +27303,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7995536</v>
+        <v>7995446</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -27315,49 +27315,49 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G297" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I297">
         <v>2</v>
       </c>
       <c r="J297" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K297">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="L297">
         <v>3.8</v>
       </c>
       <c r="M297">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N297">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="O297">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P297">
-        <v>1.833</v>
+        <v>5.25</v>
       </c>
       <c r="Q297">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R297">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S297">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T297">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U297">
         <v>1.875</v>
@@ -27366,19 +27366,19 @@
         <v>1.925</v>
       </c>
       <c r="W297">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X297">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB297">
         <v>0.875</v>
@@ -27392,7 +27392,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7995445</v>
+        <v>7995536</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27404,76 +27404,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="G298" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J298" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K298">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="L298">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M298">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="N298">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="O298">
         <v>3.2</v>
       </c>
       <c r="P298">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="Q298">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R298">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S298">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T298">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U298">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V298">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W298">
         <v>-1</v>
       </c>
       <c r="X298">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y298">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z298">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA298">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB298">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC298">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27481,7 +27481,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7995446</v>
+        <v>7995445</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27493,76 +27493,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G299" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="H299">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K299">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L299">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M299">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N299">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O299">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P299">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q299">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R299">
+        <v>1.975</v>
+      </c>
+      <c r="S299">
         <v>1.825</v>
       </c>
-      <c r="S299">
-        <v>1.975</v>
-      </c>
       <c r="T299">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U299">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V299">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W299">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X299">
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z299">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA299">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB299">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC299">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -28193,7 +28193,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>8013527</v>
+        <v>8013526</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -28205,58 +28205,58 @@
         <v>45378.66666666666</v>
       </c>
       <c r="F307" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G307" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="H307">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J307" t="s">
         <v>190</v>
       </c>
       <c r="K307">
-        <v>1.125</v>
+        <v>1.8</v>
       </c>
       <c r="L307">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M307">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="N307">
-        <v>1.125</v>
+        <v>1.75</v>
       </c>
       <c r="O307">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="P307">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q307">
-        <v>-2.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R307">
+        <v>2.025</v>
+      </c>
+      <c r="S307">
+        <v>1.775</v>
+      </c>
+      <c r="T307">
+        <v>2</v>
+      </c>
+      <c r="U307">
+        <v>1.95</v>
+      </c>
+      <c r="V307">
         <v>1.85</v>
       </c>
-      <c r="S307">
-        <v>1.95</v>
-      </c>
-      <c r="T307">
-        <v>3</v>
-      </c>
-      <c r="U307">
-        <v>1.85</v>
-      </c>
-      <c r="V307">
-        <v>1.95</v>
-      </c>
       <c r="W307">
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
       <c r="X307">
         <v>-1</v>
@@ -28265,16 +28265,16 @@
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA307">
         <v>-1</v>
       </c>
       <c r="AB307">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC307">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -28282,7 +28282,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>8013526</v>
+        <v>8013527</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -28294,58 +28294,58 @@
         <v>45378.66666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G308" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="H308">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" t="s">
         <v>190</v>
       </c>
       <c r="K308">
-        <v>1.8</v>
+        <v>1.125</v>
       </c>
       <c r="L308">
+        <v>8</v>
+      </c>
+      <c r="M308">
+        <v>13</v>
+      </c>
+      <c r="N308">
+        <v>1.125</v>
+      </c>
+      <c r="O308">
+        <v>8</v>
+      </c>
+      <c r="P308">
+        <v>13</v>
+      </c>
+      <c r="Q308">
+        <v>-2.25</v>
+      </c>
+      <c r="R308">
+        <v>1.85</v>
+      </c>
+      <c r="S308">
+        <v>1.95</v>
+      </c>
+      <c r="T308">
         <v>3</v>
       </c>
-      <c r="M308">
-        <v>4.5</v>
-      </c>
-      <c r="N308">
-        <v>1.75</v>
-      </c>
-      <c r="O308">
-        <v>2.9</v>
-      </c>
-      <c r="P308">
-        <v>5</v>
-      </c>
-      <c r="Q308">
-        <v>-0.75</v>
-      </c>
-      <c r="R308">
-        <v>2.025</v>
-      </c>
-      <c r="S308">
-        <v>1.775</v>
-      </c>
-      <c r="T308">
-        <v>2</v>
-      </c>
       <c r="U308">
+        <v>1.85</v>
+      </c>
+      <c r="V308">
         <v>1.95</v>
       </c>
-      <c r="V308">
-        <v>1.85</v>
-      </c>
       <c r="W308">
-        <v>0.75</v>
+        <v>0.125</v>
       </c>
       <c r="X308">
         <v>-1</v>
@@ -28354,16 +28354,16 @@
         <v>-1</v>
       </c>
       <c r="Z308">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA308">
         <v>-1</v>
       </c>
       <c r="AB308">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC308">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="309" spans="1:29">

--- a/France National 3/France National 3.xlsx
+++ b/France National 3/France National 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="192">
   <si>
     <t>id</t>
   </si>
@@ -127,10 +127,10 @@
     <t>RC Epernay</t>
   </si>
   <si>
-    <t>Vitre</t>
+    <t>US Castanet</t>
   </si>
   <si>
-    <t>US Castanet</t>
+    <t>Vitre</t>
   </si>
   <si>
     <t>CMS Oissel</t>
@@ -951,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC311"/>
+  <dimension ref="A1:AC312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1760,7 +1760,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6727693</v>
+        <v>6727694</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1775,55 +1775,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>190</v>
       </c>
       <c r="K10">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
         <v>3.4</v>
       </c>
       <c r="N10">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O10">
         <v>3.3</v>
       </c>
       <c r="P10">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
         <v>3</v>
       </c>
       <c r="U10">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1832,13 +1832,13 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1849,7 +1849,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6727694</v>
+        <v>6727693</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1864,55 +1864,55 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>190</v>
       </c>
       <c r="K11">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L11">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M11">
         <v>3.4</v>
       </c>
       <c r="N11">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O11">
         <v>3.3</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
         <v>3</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1921,13 +1921,13 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -7367,7 +7367,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7365845</v>
+        <v>7365976</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7379,73 +7379,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G73" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K73">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L73">
         <v>3</v>
       </c>
       <c r="M73">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N73">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O73">
         <v>3</v>
       </c>
       <c r="P73">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB73">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7545,7 +7545,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7365843</v>
+        <v>7365845</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7557,58 +7557,58 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G75" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="H75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>190</v>
       </c>
       <c r="K75">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="L75">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M75">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="N75">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="Q75">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
         <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7617,13 +7617,13 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.7250000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7634,7 +7634,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7365976</v>
+        <v>7365843</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7646,73 +7646,73 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G76" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76">
         <v>1</v>
       </c>
-      <c r="I76">
-        <v>2</v>
-      </c>
       <c r="J76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K76">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="N76">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="O76">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
         <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V76">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7735,7 +7735,7 @@
         <v>45220.55208333334</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
         <v>133</v>
@@ -8613,7 +8613,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7427171</v>
+        <v>7427130</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8625,49 +8625,49 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F87" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="G87" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="H87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M87">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N87">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O87">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P87">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q87">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R87">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S87">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T87">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U87">
         <v>1.85</v>
@@ -8676,25 +8676,25 @@
         <v>1.95</v>
       </c>
       <c r="W87">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8791,7 +8791,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7427130</v>
+        <v>7427171</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8803,49 +8803,49 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="G89" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="H89">
+        <v>3</v>
+      </c>
+      <c r="I89">
         <v>0</v>
       </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
       <c r="J89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K89">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L89">
+        <v>3.75</v>
+      </c>
+      <c r="M89">
+        <v>2.9</v>
+      </c>
+      <c r="N89">
+        <v>1.85</v>
+      </c>
+      <c r="O89">
+        <v>3.8</v>
+      </c>
+      <c r="P89">
         <v>3.25</v>
       </c>
-      <c r="M89">
-        <v>4</v>
-      </c>
-      <c r="N89">
-        <v>1.8</v>
-      </c>
-      <c r="O89">
-        <v>3.25</v>
-      </c>
-      <c r="P89">
-        <v>4</v>
-      </c>
       <c r="Q89">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S89">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U89">
         <v>1.85</v>
@@ -8854,25 +8854,25 @@
         <v>1.95</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA89">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -10230,7 +10230,7 @@
         <v>57</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -11016,7 +11016,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7515961</v>
+        <v>7516810</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -11028,59 +11028,59 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G114" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="H114">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>190</v>
       </c>
       <c r="K114">
-        <v>3.75</v>
+        <v>1.615</v>
       </c>
       <c r="L114">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M114">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N114">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="O114">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P114">
-        <v>1.833</v>
+        <v>5.75</v>
       </c>
       <c r="Q114">
+        <v>-1</v>
+      </c>
+      <c r="R114">
+        <v>1.95</v>
+      </c>
+      <c r="S114">
+        <v>1.85</v>
+      </c>
+      <c r="T114">
+        <v>2.5</v>
+      </c>
+      <c r="U114">
+        <v>1.825</v>
+      </c>
+      <c r="V114">
+        <v>1.975</v>
+      </c>
+      <c r="W114">
         <v>0.5</v>
       </c>
-      <c r="R114">
-        <v>1.85</v>
-      </c>
-      <c r="S114">
-        <v>1.95</v>
-      </c>
-      <c r="T114">
-        <v>2.75</v>
-      </c>
-      <c r="U114">
-        <v>1.925</v>
-      </c>
-      <c r="V114">
-        <v>1.875</v>
-      </c>
-      <c r="W114">
-        <v>3</v>
-      </c>
       <c r="X114">
         <v>-1</v>
       </c>
@@ -11088,13 +11088,13 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -11105,7 +11105,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7516810</v>
+        <v>7515961</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -11117,58 +11117,58 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G115" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
         <v>190</v>
       </c>
       <c r="K115">
-        <v>1.615</v>
+        <v>3.75</v>
       </c>
       <c r="L115">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M115">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N115">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P115">
-        <v>5.75</v>
+        <v>1.833</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R115">
+        <v>1.85</v>
+      </c>
+      <c r="S115">
         <v>1.95</v>
       </c>
-      <c r="S115">
-        <v>1.85</v>
-      </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -11177,13 +11177,13 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -15110,7 +15110,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7594728</v>
+        <v>7594753</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -15122,76 +15122,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="G160" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K160">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L160">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N160">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O160">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P160">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S160">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T160">
         <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V160">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y160">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB160">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15199,7 +15199,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7594753</v>
+        <v>7594728</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -15211,76 +15211,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="G161" t="s">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J161" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K161">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L161">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M161">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N161">
+        <v>2.3</v>
+      </c>
+      <c r="O161">
+        <v>3.2</v>
+      </c>
+      <c r="P161">
+        <v>2.7</v>
+      </c>
+      <c r="Q161">
+        <v>-0.25</v>
+      </c>
+      <c r="R161">
+        <v>2.05</v>
+      </c>
+      <c r="S161">
         <v>1.75</v>
-      </c>
-      <c r="O161">
-        <v>3.4</v>
-      </c>
-      <c r="P161">
-        <v>4.2</v>
-      </c>
-      <c r="Q161">
-        <v>-0.5</v>
-      </c>
-      <c r="R161">
-        <v>1.775</v>
-      </c>
-      <c r="S161">
-        <v>2.025</v>
       </c>
       <c r="T161">
         <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V161">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC161">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -17424,7 +17424,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7718933</v>
+        <v>7718936</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17436,58 +17436,58 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G186" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J186" t="s">
         <v>190</v>
       </c>
       <c r="K186">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L186">
         <v>3.25</v>
       </c>
       <c r="M186">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="N186">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O186">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P186">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S186">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T186">
         <v>2.5</v>
       </c>
       <c r="U186">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="X186">
         <v>-1</v>
@@ -17496,13 +17496,13 @@
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA186">
         <v>-1</v>
       </c>
       <c r="AB186">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC186">
         <v>-1</v>
@@ -17602,7 +17602,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7718936</v>
+        <v>7718933</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17614,58 +17614,58 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G188" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="H188">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>190</v>
       </c>
       <c r="K188">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L188">
         <v>3.25</v>
       </c>
       <c r="M188">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="N188">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="O188">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P188">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q188">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R188">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S188">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T188">
         <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W188">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17674,13 +17674,13 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC188">
         <v>-1</v>
@@ -18848,7 +18848,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7748114</v>
+        <v>7748113</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18860,55 +18860,55 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="G202" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="H202">
         <v>0</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J202" t="s">
         <v>189</v>
       </c>
       <c r="K202">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L202">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M202">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="N202">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="O202">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="Q202">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R202">
+        <v>1.975</v>
+      </c>
+      <c r="S202">
         <v>1.825</v>
       </c>
-      <c r="S202">
-        <v>1.975</v>
-      </c>
       <c r="T202">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V202">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W202">
         <v>-1</v>
@@ -18917,19 +18917,19 @@
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>3</v>
+        <v>0.444</v>
       </c>
       <c r="Z202">
         <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC202">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18937,7 +18937,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7748113</v>
+        <v>7748114</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18949,55 +18949,55 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="G203" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H203">
         <v>0</v>
       </c>
       <c r="I203">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
         <v>189</v>
       </c>
       <c r="K203">
+        <v>1.727</v>
+      </c>
+      <c r="L203">
+        <v>3.4</v>
+      </c>
+      <c r="M203">
+        <v>4.2</v>
+      </c>
+      <c r="N203">
+        <v>1.75</v>
+      </c>
+      <c r="O203">
+        <v>3.3</v>
+      </c>
+      <c r="P203">
         <v>4</v>
       </c>
-      <c r="L203">
-        <v>3.2</v>
-      </c>
-      <c r="M203">
-        <v>1.8</v>
-      </c>
-      <c r="N203">
-        <v>6.5</v>
-      </c>
-      <c r="O203">
-        <v>3.6</v>
-      </c>
-      <c r="P203">
-        <v>1.444</v>
-      </c>
       <c r="Q203">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R203">
+        <v>1.825</v>
+      </c>
+      <c r="S203">
         <v>1.975</v>
       </c>
-      <c r="S203">
+      <c r="T203">
+        <v>2</v>
+      </c>
+      <c r="U203">
         <v>1.825</v>
       </c>
-      <c r="T203">
-        <v>2.75</v>
-      </c>
-      <c r="U203">
-        <v>1.925</v>
-      </c>
       <c r="V203">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W203">
         <v>-1</v>
@@ -19006,19 +19006,19 @@
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>0.444</v>
+        <v>3</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB203">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -19471,7 +19471,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7779993</v>
+        <v>7779755</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19483,76 +19483,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G209" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="H209">
         <v>1</v>
       </c>
       <c r="I209">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K209">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L209">
         <v>3.2</v>
       </c>
       <c r="M209">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N209">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O209">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P209">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q209">
         <v>0</v>
       </c>
       <c r="R209">
+        <v>1.8</v>
+      </c>
+      <c r="S209">
+        <v>2</v>
+      </c>
+      <c r="T209">
+        <v>2.5</v>
+      </c>
+      <c r="U209">
+        <v>1.85</v>
+      </c>
+      <c r="V209">
         <v>1.95</v>
       </c>
-      <c r="S209">
-        <v>1.85</v>
-      </c>
-      <c r="T209">
-        <v>2.75</v>
-      </c>
-      <c r="U209">
-        <v>1.8</v>
-      </c>
-      <c r="V209">
-        <v>2</v>
-      </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y209">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA209">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB209">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19560,7 +19560,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7779755</v>
+        <v>7779757</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19572,40 +19572,40 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="G210" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K210">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L210">
+        <v>3.3</v>
+      </c>
+      <c r="M210">
         <v>3.2</v>
       </c>
-      <c r="M210">
-        <v>2.6</v>
-      </c>
       <c r="N210">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O210">
+        <v>3.3</v>
+      </c>
+      <c r="P210">
         <v>3.2</v>
       </c>
-      <c r="P210">
-        <v>2.625</v>
-      </c>
       <c r="Q210">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R210">
         <v>1.8</v>
@@ -19617,31 +19617,31 @@
         <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V210">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X210">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA210">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -20272,7 +20272,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7779757</v>
+        <v>7779993</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -20284,49 +20284,49 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="G218" t="s">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218">
+        <v>3</v>
+      </c>
+      <c r="J218" t="s">
+        <v>189</v>
+      </c>
+      <c r="K218">
+        <v>2.1</v>
+      </c>
+      <c r="L218">
+        <v>3.2</v>
+      </c>
+      <c r="M218">
+        <v>3.1</v>
+      </c>
+      <c r="N218">
+        <v>2.6</v>
+      </c>
+      <c r="O218">
+        <v>3.1</v>
+      </c>
+      <c r="P218">
+        <v>2.5</v>
+      </c>
+      <c r="Q218">
         <v>0</v>
       </c>
-      <c r="J218" t="s">
-        <v>190</v>
-      </c>
-      <c r="K218">
-        <v>2</v>
-      </c>
-      <c r="L218">
-        <v>3.3</v>
-      </c>
-      <c r="M218">
-        <v>3.2</v>
-      </c>
-      <c r="N218">
-        <v>2</v>
-      </c>
-      <c r="O218">
-        <v>3.3</v>
-      </c>
-      <c r="P218">
-        <v>3.2</v>
-      </c>
-      <c r="Q218">
-        <v>-0.25</v>
-      </c>
       <c r="R218">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S218">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T218">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U218">
         <v>1.8</v>
@@ -20335,25 +20335,25 @@
         <v>2</v>
       </c>
       <c r="W218">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X218">
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z218">
+        <v>-1</v>
+      </c>
+      <c r="AA218">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB218">
         <v>0.8</v>
       </c>
-      <c r="AA218">
-        <v>-1</v>
-      </c>
-      <c r="AB218">
-        <v>-1</v>
-      </c>
       <c r="AC218">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -20539,7 +20539,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7782472</v>
+        <v>7782324</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20551,76 +20551,76 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="G221" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="H221">
         <v>1</v>
       </c>
       <c r="I221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K221">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="L221">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="M221">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="N221">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="O221">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="P221">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q221">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R221">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S221">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T221">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U221">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V221">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y221">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA221">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20628,7 +20628,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7782324</v>
+        <v>7782472</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20640,76 +20640,76 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="G222" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="H222">
         <v>1</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J222" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K222">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="L222">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M222">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="N222">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="O222">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="P222">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>2.025</v>
+      </c>
+      <c r="S222">
+        <v>1.775</v>
+      </c>
+      <c r="T222">
+        <v>2.25</v>
+      </c>
+      <c r="U222">
+        <v>1.85</v>
+      </c>
+      <c r="V222">
+        <v>1.95</v>
+      </c>
+      <c r="W222">
+        <v>-1</v>
+      </c>
+      <c r="X222">
+        <v>-1</v>
+      </c>
+      <c r="Y222">
         <v>1.5</v>
       </c>
-      <c r="R222">
-        <v>1.85</v>
-      </c>
-      <c r="S222">
-        <v>1.95</v>
-      </c>
-      <c r="T222">
-        <v>3.5</v>
-      </c>
-      <c r="U222">
-        <v>2</v>
-      </c>
-      <c r="V222">
-        <v>1.8</v>
-      </c>
-      <c r="W222">
-        <v>-1</v>
-      </c>
-      <c r="X222">
-        <v>4</v>
-      </c>
-      <c r="Y222">
-        <v>-1</v>
-      </c>
       <c r="Z222">
+        <v>-1</v>
+      </c>
+      <c r="AA222">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB222">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA222">
-        <v>-1</v>
-      </c>
-      <c r="AB222">
-        <v>-1</v>
-      </c>
       <c r="AC222">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20717,7 +20717,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7782473</v>
+        <v>7782489</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20729,76 +20729,76 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F223" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G223" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223">
         <v>0</v>
       </c>
-      <c r="I223">
-        <v>3</v>
-      </c>
       <c r="J223" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K223">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="L223">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M223">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="N223">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="O223">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P223">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="Q223">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S223">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T223">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V223">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA223">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20806,7 +20806,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7782489</v>
+        <v>7782473</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20818,76 +20818,76 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F224" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G224" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224">
+        <v>3</v>
+      </c>
+      <c r="J224" t="s">
+        <v>189</v>
+      </c>
+      <c r="K224">
+        <v>4.75</v>
+      </c>
+      <c r="L224">
+        <v>3.5</v>
+      </c>
+      <c r="M224">
+        <v>1.615</v>
+      </c>
+      <c r="N224">
+        <v>4.333</v>
+      </c>
+      <c r="O224">
+        <v>3.5</v>
+      </c>
+      <c r="P224">
+        <v>1.666</v>
+      </c>
+      <c r="Q224">
+        <v>0.75</v>
+      </c>
+      <c r="R224">
+        <v>1.925</v>
+      </c>
+      <c r="S224">
+        <v>1.875</v>
+      </c>
+      <c r="T224">
+        <v>3</v>
+      </c>
+      <c r="U224">
+        <v>1.775</v>
+      </c>
+      <c r="V224">
+        <v>2.025</v>
+      </c>
+      <c r="W224">
+        <v>-1</v>
+      </c>
+      <c r="X224">
+        <v>-1</v>
+      </c>
+      <c r="Y224">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z224">
+        <v>-1</v>
+      </c>
+      <c r="AA224">
+        <v>0.875</v>
+      </c>
+      <c r="AB224">
         <v>0</v>
       </c>
-      <c r="J224" t="s">
-        <v>190</v>
-      </c>
-      <c r="K224">
-        <v>1.909</v>
-      </c>
-      <c r="L224">
-        <v>3.2</v>
-      </c>
-      <c r="M224">
-        <v>3.6</v>
-      </c>
-      <c r="N224">
-        <v>1.909</v>
-      </c>
-      <c r="O224">
-        <v>3.2</v>
-      </c>
-      <c r="P224">
-        <v>3.6</v>
-      </c>
-      <c r="Q224">
-        <v>-0.5</v>
-      </c>
-      <c r="R224">
-        <v>1.975</v>
-      </c>
-      <c r="S224">
-        <v>1.825</v>
-      </c>
-      <c r="T224">
-        <v>2.25</v>
-      </c>
-      <c r="U224">
-        <v>2</v>
-      </c>
-      <c r="V224">
-        <v>1.8</v>
-      </c>
-      <c r="W224">
-        <v>0.909</v>
-      </c>
-      <c r="X224">
-        <v>-1</v>
-      </c>
-      <c r="Y224">
-        <v>-1</v>
-      </c>
-      <c r="Z224">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA224">
-        <v>-1</v>
-      </c>
-      <c r="AB224">
-        <v>-1</v>
-      </c>
       <c r="AC224">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20895,7 +20895,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7807754</v>
+        <v>7807786</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20907,55 +20907,55 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="G225" t="s">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="H225">
         <v>1</v>
       </c>
       <c r="I225">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J225" t="s">
         <v>189</v>
       </c>
       <c r="K225">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M225">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N225">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="O225">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P225">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q225">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R225">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S225">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T225">
         <v>3</v>
       </c>
       <c r="U225">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V225">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W225">
         <v>-1</v>
@@ -20964,19 +20964,19 @@
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB225">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20984,7 +20984,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7807769</v>
+        <v>7811858</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20996,46 +20996,46 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="G226" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226">
         <v>0</v>
       </c>
-      <c r="I226">
-        <v>1</v>
-      </c>
       <c r="J226" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K226">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="L226">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M226">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N226">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O226">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P226">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R226">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S226">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T226">
         <v>2.5</v>
@@ -21047,19 +21047,19 @@
         <v>1.9</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA226">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB226">
         <v>-1</v>
@@ -21073,7 +21073,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7811858</v>
+        <v>7807769</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -21085,46 +21085,46 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="G227" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
         <v>1</v>
       </c>
-      <c r="I227">
-        <v>0</v>
-      </c>
       <c r="J227" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K227">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="L227">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M227">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N227">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O227">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P227">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q227">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R227">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S227">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T227">
         <v>2.5</v>
@@ -21136,19 +21136,19 @@
         <v>1.9</v>
       </c>
       <c r="W227">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z227">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB227">
         <v>-1</v>
@@ -21162,7 +21162,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7807786</v>
+        <v>7807754</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -21174,56 +21174,56 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="G228" t="s">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="H228">
         <v>1</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J228" t="s">
         <v>189</v>
       </c>
       <c r="K228">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="L228">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M228">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N228">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="O228">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P228">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q228">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R228">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S228">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T228">
         <v>3</v>
       </c>
       <c r="U228">
+        <v>1.75</v>
+      </c>
+      <c r="V228">
         <v>1.95</v>
       </c>
-      <c r="V228">
-        <v>1.85</v>
-      </c>
       <c r="W228">
         <v>-1</v>
       </c>
@@ -21231,19 +21231,19 @@
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB228">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC228">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -21429,7 +21429,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7843129</v>
+        <v>7843258</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21441,58 +21441,58 @@
         <v>45339.4375</v>
       </c>
       <c r="F231" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="G231" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
         <v>190</v>
       </c>
       <c r="K231">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="L231">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M231">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="N231">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="O231">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P231">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q231">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R231">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S231">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V231">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W231">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21501,16 +21501,16 @@
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA231">
         <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21518,7 +21518,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7843258</v>
+        <v>7843129</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21530,58 +21530,58 @@
         <v>45339.4375</v>
       </c>
       <c r="F232" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="G232" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H232">
+        <v>2</v>
+      </c>
+      <c r="I232">
         <v>1</v>
-      </c>
-      <c r="I232">
-        <v>0</v>
       </c>
       <c r="J232" t="s">
         <v>190</v>
       </c>
       <c r="K232">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="L232">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M232">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="N232">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="O232">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P232">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q232">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R232">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S232">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="T232">
         <v>2.5</v>
       </c>
       <c r="U232">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V232">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W232">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21590,16 +21590,16 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA232">
         <v>-1</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC232">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -22497,7 +22497,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7847712</v>
+        <v>7847715</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22509,49 +22509,49 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F243" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="G243" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243">
+        <v>2</v>
+      </c>
+      <c r="J243" t="s">
+        <v>189</v>
+      </c>
+      <c r="K243">
+        <v>2.5</v>
+      </c>
+      <c r="L243">
+        <v>3</v>
+      </c>
+      <c r="M243">
+        <v>2.6</v>
+      </c>
+      <c r="N243">
+        <v>2.5</v>
+      </c>
+      <c r="O243">
+        <v>3</v>
+      </c>
+      <c r="P243">
+        <v>2.6</v>
+      </c>
+      <c r="Q243">
         <v>0</v>
       </c>
-      <c r="J243" t="s">
-        <v>190</v>
-      </c>
-      <c r="K243">
-        <v>1.666</v>
-      </c>
-      <c r="L243">
-        <v>3.6</v>
-      </c>
-      <c r="M243">
-        <v>4.2</v>
-      </c>
-      <c r="N243">
-        <v>1.666</v>
-      </c>
-      <c r="O243">
-        <v>3.6</v>
-      </c>
-      <c r="P243">
-        <v>4.2</v>
-      </c>
-      <c r="Q243">
-        <v>-0.75</v>
-      </c>
       <c r="R243">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S243">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T243">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U243">
         <v>1.775</v>
@@ -22560,25 +22560,25 @@
         <v>2.025</v>
       </c>
       <c r="W243">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X243">
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z243">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA243">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC243">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22586,7 +22586,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7847715</v>
+        <v>7847714</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22598,76 +22598,76 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F244" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G244" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K244">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L244">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M244">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N244">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O244">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P244">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q244">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R244">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S244">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T244">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U244">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V244">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W244">
         <v>-1</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y244">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
         <v>-1</v>
       </c>
       <c r="AA244">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:29">
@@ -22675,7 +22675,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7847714</v>
+        <v>7847716</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22687,76 +22687,76 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F245" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="G245" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J245" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K245">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L245">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M245">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N245">
+        <v>3.6</v>
+      </c>
+      <c r="O245">
+        <v>3.2</v>
+      </c>
+      <c r="P245">
         <v>1.909</v>
       </c>
-      <c r="O245">
-        <v>3.25</v>
-      </c>
-      <c r="P245">
-        <v>3.5</v>
-      </c>
       <c r="Q245">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R245">
+        <v>1.825</v>
+      </c>
+      <c r="S245">
         <v>1.975</v>
       </c>
-      <c r="S245">
-        <v>1.825</v>
-      </c>
       <c r="T245">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U245">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V245">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W245">
         <v>-1</v>
       </c>
       <c r="X245">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z245">
         <v>-1</v>
       </c>
       <c r="AA245">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB245">
         <v>-1</v>
       </c>
       <c r="AC245">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22764,7 +22764,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7847716</v>
+        <v>7847712</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22776,76 +22776,76 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F246" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G246" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="I246">
         <v>0</v>
       </c>
-      <c r="I246">
-        <v>2</v>
-      </c>
       <c r="J246" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K246">
+        <v>1.666</v>
+      </c>
+      <c r="L246">
         <v>3.6</v>
       </c>
-      <c r="L246">
-        <v>3.2</v>
-      </c>
       <c r="M246">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="N246">
+        <v>1.666</v>
+      </c>
+      <c r="O246">
         <v>3.6</v>
       </c>
-      <c r="O246">
-        <v>3.2</v>
-      </c>
       <c r="P246">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q246">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R246">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T246">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U246">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V246">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W246">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA246">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB246">
         <v>-1</v>
       </c>
       <c r="AC246">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22957,7 +22957,7 @@
         <v>119</v>
       </c>
       <c r="G248" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H248">
         <v>3</v>
@@ -23832,7 +23832,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7877630</v>
+        <v>7877631</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23844,73 +23844,73 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F258" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="G258" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I258">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J258" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K258">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L258">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M258">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N258">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O258">
         <v>3.1</v>
       </c>
       <c r="P258">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q258">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R258">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S258">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T258">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U258">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V258">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W258">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X258">
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z258">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA258">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB258">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC258">
         <v>-1</v>
@@ -23921,7 +23921,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7877631</v>
+        <v>7877630</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23933,73 +23933,73 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F259" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="G259" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="H259">
+        <v>2</v>
+      </c>
+      <c r="I259">
         <v>4</v>
       </c>
-      <c r="I259">
-        <v>2</v>
-      </c>
       <c r="J259" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K259">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L259">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M259">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="N259">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O259">
         <v>3.1</v>
       </c>
       <c r="P259">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q259">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R259">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S259">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T259">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U259">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V259">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W259">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X259">
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z259">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA259">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB259">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC259">
         <v>-1</v>
@@ -24900,7 +24900,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7933344</v>
+        <v>7933408</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24912,73 +24912,73 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F270" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G270" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H270">
+        <v>2</v>
+      </c>
+      <c r="I270">
         <v>1</v>
       </c>
-      <c r="I270">
-        <v>2</v>
-      </c>
       <c r="J270" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K270">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="L270">
+        <v>3.1</v>
+      </c>
+      <c r="M270">
         <v>3.2</v>
       </c>
-      <c r="M270">
-        <v>1.727</v>
-      </c>
       <c r="N270">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O270">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P270">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q270">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R270">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S270">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T270">
         <v>2.25</v>
       </c>
       <c r="U270">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V270">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W270">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X270">
         <v>-1</v>
       </c>
       <c r="Y270">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z270">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA270">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB270">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC270">
         <v>-1</v>
@@ -25078,7 +25078,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7933408</v>
+        <v>7933344</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -25090,73 +25090,73 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="G272" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J272" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K272">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="L272">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M272">
-        <v>3.2</v>
+        <v>1.727</v>
       </c>
       <c r="N272">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O272">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P272">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q272">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R272">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S272">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T272">
         <v>2.25</v>
       </c>
       <c r="U272">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V272">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W272">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X272">
         <v>-1</v>
       </c>
       <c r="Y272">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z272">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA272">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB272">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC272">
         <v>-1</v>
@@ -25523,7 +25523,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7966816</v>
+        <v>7966817</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25535,40 +25535,40 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="G277" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K277">
-        <v>1.952</v>
+        <v>1.571</v>
       </c>
       <c r="L277">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M277">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N277">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="O277">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P277">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q277">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R277">
         <v>1.75</v>
@@ -25580,31 +25580,31 @@
         <v>2.5</v>
       </c>
       <c r="U277">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V277">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W277">
+        <v>-1</v>
+      </c>
+      <c r="X277">
+        <v>3</v>
+      </c>
+      <c r="Y277">
+        <v>-1</v>
+      </c>
+      <c r="Z277">
+        <v>-1</v>
+      </c>
+      <c r="AA277">
         <v>0.95</v>
       </c>
-      <c r="X277">
-        <v>-1</v>
-      </c>
-      <c r="Y277">
-        <v>-1</v>
-      </c>
-      <c r="Z277">
-        <v>0.75</v>
-      </c>
-      <c r="AA277">
-        <v>-1</v>
-      </c>
       <c r="AB277">
         <v>-1</v>
       </c>
       <c r="AC277">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25612,7 +25612,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7966817</v>
+        <v>7966816</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25624,40 +25624,40 @@
         <v>45367.45833333334</v>
       </c>
       <c r="F278" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="G278" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K278">
-        <v>1.571</v>
+        <v>1.952</v>
       </c>
       <c r="L278">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M278">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N278">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O278">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P278">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q278">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R278">
         <v>1.75</v>
@@ -25669,31 +25669,31 @@
         <v>2.5</v>
       </c>
       <c r="U278">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V278">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W278">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X278">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA278">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB278">
         <v>-1</v>
       </c>
       <c r="AC278">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -26057,7 +26057,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7965566</v>
+        <v>7966815</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -26069,76 +26069,76 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F283" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="G283" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H283">
+        <v>2</v>
+      </c>
+      <c r="I283">
         <v>1</v>
-      </c>
-      <c r="I283">
-        <v>0</v>
       </c>
       <c r="J283" t="s">
         <v>190</v>
       </c>
       <c r="K283">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="L283">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M283">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="N283">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O283">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P283">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q283">
+        <v>0</v>
+      </c>
+      <c r="R283">
+        <v>1.95</v>
+      </c>
+      <c r="S283">
+        <v>1.85</v>
+      </c>
+      <c r="T283">
+        <v>2.75</v>
+      </c>
+      <c r="U283">
+        <v>1.9</v>
+      </c>
+      <c r="V283">
+        <v>1.9</v>
+      </c>
+      <c r="W283">
+        <v>1.45</v>
+      </c>
+      <c r="X283">
+        <v>-1</v>
+      </c>
+      <c r="Y283">
+        <v>-1</v>
+      </c>
+      <c r="Z283">
+        <v>0.95</v>
+      </c>
+      <c r="AA283">
+        <v>-1</v>
+      </c>
+      <c r="AB283">
+        <v>0.45</v>
+      </c>
+      <c r="AC283">
         <v>-0.5</v>
-      </c>
-      <c r="R283">
-        <v>1.8</v>
-      </c>
-      <c r="S283">
-        <v>2</v>
-      </c>
-      <c r="T283">
-        <v>2.25</v>
-      </c>
-      <c r="U283">
-        <v>1.825</v>
-      </c>
-      <c r="V283">
-        <v>1.975</v>
-      </c>
-      <c r="W283">
-        <v>0.75</v>
-      </c>
-      <c r="X283">
-        <v>-1</v>
-      </c>
-      <c r="Y283">
-        <v>-1</v>
-      </c>
-      <c r="Z283">
-        <v>0.8</v>
-      </c>
-      <c r="AA283">
-        <v>-1</v>
-      </c>
-      <c r="AB283">
-        <v>-1</v>
-      </c>
-      <c r="AC283">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -26146,7 +26146,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7966815</v>
+        <v>7966819</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -26158,76 +26158,76 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F284" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="G284" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J284" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K284">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="L284">
+        <v>3.25</v>
+      </c>
+      <c r="M284">
         <v>3.5</v>
       </c>
-      <c r="M284">
-        <v>2.375</v>
-      </c>
       <c r="N284">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O284">
+        <v>3.25</v>
+      </c>
+      <c r="P284">
         <v>3.5</v>
       </c>
-      <c r="P284">
-        <v>2.375</v>
-      </c>
       <c r="Q284">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R284">
+        <v>1.975</v>
+      </c>
+      <c r="S284">
+        <v>1.825</v>
+      </c>
+      <c r="T284">
+        <v>2.5</v>
+      </c>
+      <c r="U284">
+        <v>1.85</v>
+      </c>
+      <c r="V284">
         <v>1.95</v>
       </c>
-      <c r="S284">
-        <v>1.85</v>
-      </c>
-      <c r="T284">
-        <v>2.75</v>
-      </c>
-      <c r="U284">
-        <v>1.9</v>
-      </c>
-      <c r="V284">
-        <v>1.9</v>
-      </c>
       <c r="W284">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X284">
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z284">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA284">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB284">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC284">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -26235,7 +26235,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7966819</v>
+        <v>7965566</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -26247,76 +26247,76 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F285" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G285" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H285">
         <v>1</v>
       </c>
       <c r="I285">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K285">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L285">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M285">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N285">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O285">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P285">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q285">
         <v>-0.5</v>
       </c>
       <c r="R285">
+        <v>1.8</v>
+      </c>
+      <c r="S285">
+        <v>2</v>
+      </c>
+      <c r="T285">
+        <v>2.25</v>
+      </c>
+      <c r="U285">
+        <v>1.825</v>
+      </c>
+      <c r="V285">
         <v>1.975</v>
       </c>
-      <c r="S285">
-        <v>1.825</v>
-      </c>
-      <c r="T285">
-        <v>2.5</v>
-      </c>
-      <c r="U285">
-        <v>1.85</v>
-      </c>
-      <c r="V285">
-        <v>1.95</v>
-      </c>
       <c r="W285">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA285">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB285">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC285">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -27392,7 +27392,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7995446</v>
+        <v>7995445</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27404,76 +27404,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G298" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="H298">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K298">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L298">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M298">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N298">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O298">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P298">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q298">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R298">
+        <v>1.975</v>
+      </c>
+      <c r="S298">
         <v>1.825</v>
       </c>
-      <c r="S298">
-        <v>1.975</v>
-      </c>
       <c r="T298">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U298">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V298">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W298">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X298">
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z298">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA298">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB298">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC298">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27481,7 +27481,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7995507</v>
+        <v>7995446</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27493,61 +27493,61 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="G299" t="s">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J299" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K299">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L299">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="M299">
+        <v>5.5</v>
+      </c>
+      <c r="N299">
+        <v>1.5</v>
+      </c>
+      <c r="O299">
+        <v>3.8</v>
+      </c>
+      <c r="P299">
+        <v>5.25</v>
+      </c>
+      <c r="Q299">
+        <v>-1</v>
+      </c>
+      <c r="R299">
+        <v>1.825</v>
+      </c>
+      <c r="S299">
+        <v>1.975</v>
+      </c>
+      <c r="T299">
         <v>2.75</v>
       </c>
-      <c r="N299">
-        <v>2.5</v>
-      </c>
-      <c r="O299">
-        <v>2.8</v>
-      </c>
-      <c r="P299">
-        <v>2.8</v>
-      </c>
-      <c r="Q299">
-        <v>0</v>
-      </c>
-      <c r="R299">
-        <v>1.8</v>
-      </c>
-      <c r="S299">
-        <v>2</v>
-      </c>
-      <c r="T299">
-        <v>2.25</v>
-      </c>
       <c r="U299">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V299">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W299">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X299">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y299">
         <v>-1</v>
@@ -27559,10 +27559,10 @@
         <v>-0</v>
       </c>
       <c r="AB299">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC299">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27570,7 +27570,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7995445</v>
+        <v>7995507</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27582,76 +27582,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="G300" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I300">
         <v>1</v>
       </c>
       <c r="J300" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K300">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L300">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M300">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N300">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O300">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P300">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q300">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R300">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S300">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T300">
         <v>2.25</v>
       </c>
       <c r="U300">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V300">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W300">
         <v>-1</v>
       </c>
       <c r="X300">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y300">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z300">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA300">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB300">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC300">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27837,7 +27837,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>8002093</v>
+        <v>8002096</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27849,58 +27849,58 @@
         <v>45375.45833333334</v>
       </c>
       <c r="F303" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G303" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="H303">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I303">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J303" t="s">
         <v>190</v>
       </c>
       <c r="K303">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L303">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M303">
+        <v>2.7</v>
+      </c>
+      <c r="N303">
         <v>2.375</v>
       </c>
-      <c r="N303">
-        <v>2.75</v>
-      </c>
       <c r="O303">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P303">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="Q303">
         <v>0</v>
       </c>
       <c r="R303">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S303">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T303">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U303">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V303">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W303">
-        <v>1.75</v>
+        <v>1.375</v>
       </c>
       <c r="X303">
         <v>-1</v>
@@ -27909,16 +27909,16 @@
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA303">
         <v>-1</v>
       </c>
       <c r="AB303">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC303">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27926,7 +27926,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>8002096</v>
+        <v>8002095</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27938,76 +27938,76 @@
         <v>45375.45833333334</v>
       </c>
       <c r="F304" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G304" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K304">
+        <v>2.55</v>
+      </c>
+      <c r="L304">
+        <v>3.3</v>
+      </c>
+      <c r="M304">
         <v>2.375</v>
       </c>
-      <c r="L304">
-        <v>3.1</v>
-      </c>
-      <c r="M304">
-        <v>2.7</v>
-      </c>
       <c r="N304">
+        <v>2.6</v>
+      </c>
+      <c r="O304">
+        <v>3.3</v>
+      </c>
+      <c r="P304">
         <v>2.375</v>
-      </c>
-      <c r="O304">
-        <v>3.1</v>
-      </c>
-      <c r="P304">
-        <v>2.7</v>
       </c>
       <c r="Q304">
         <v>0</v>
       </c>
       <c r="R304">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S304">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T304">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U304">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V304">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W304">
+        <v>-1</v>
+      </c>
+      <c r="X304">
+        <v>-1</v>
+      </c>
+      <c r="Y304">
         <v>1.375</v>
       </c>
-      <c r="X304">
-        <v>-1</v>
-      </c>
-      <c r="Y304">
-        <v>-1</v>
-      </c>
       <c r="Z304">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB304">
         <v>-1</v>
       </c>
       <c r="AC304">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -28015,7 +28015,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>8002095</v>
+        <v>8002094</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -28027,55 +28027,55 @@
         <v>45375.45833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G305" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="H305">
         <v>0</v>
       </c>
       <c r="I305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J305" t="s">
         <v>189</v>
       </c>
       <c r="K305">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="L305">
+        <v>3.5</v>
+      </c>
+      <c r="M305">
+        <v>1.909</v>
+      </c>
+      <c r="N305">
         <v>3.3</v>
       </c>
-      <c r="M305">
-        <v>2.375</v>
-      </c>
-      <c r="N305">
-        <v>2.6</v>
-      </c>
       <c r="O305">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P305">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="Q305">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R305">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S305">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T305">
         <v>2.25</v>
       </c>
       <c r="U305">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V305">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W305">
         <v>-1</v>
@@ -28084,19 +28084,19 @@
         <v>-1</v>
       </c>
       <c r="Y305">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="Z305">
         <v>-1</v>
       </c>
       <c r="AA305">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB305">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC305">
-        <v>0.8999999999999999</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -28104,7 +28104,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>8002094</v>
+        <v>8002093</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -28116,76 +28116,76 @@
         <v>45375.45833333334</v>
       </c>
       <c r="F306" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G306" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="H306">
+        <v>4</v>
+      </c>
+      <c r="I306">
+        <v>2</v>
+      </c>
+      <c r="J306" t="s">
+        <v>190</v>
+      </c>
+      <c r="K306">
+        <v>2.75</v>
+      </c>
+      <c r="L306">
+        <v>3</v>
+      </c>
+      <c r="M306">
+        <v>2.375</v>
+      </c>
+      <c r="N306">
+        <v>2.75</v>
+      </c>
+      <c r="O306">
+        <v>3</v>
+      </c>
+      <c r="P306">
+        <v>2.375</v>
+      </c>
+      <c r="Q306">
         <v>0</v>
       </c>
-      <c r="I306">
-        <v>2</v>
-      </c>
-      <c r="J306" t="s">
-        <v>189</v>
-      </c>
-      <c r="K306">
-        <v>3.25</v>
-      </c>
-      <c r="L306">
-        <v>3.5</v>
-      </c>
-      <c r="M306">
-        <v>1.909</v>
-      </c>
-      <c r="N306">
-        <v>3.3</v>
-      </c>
-      <c r="O306">
-        <v>3.5</v>
-      </c>
-      <c r="P306">
-        <v>1.909</v>
-      </c>
-      <c r="Q306">
-        <v>0.5</v>
-      </c>
       <c r="R306">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S306">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T306">
         <v>2.25</v>
       </c>
       <c r="U306">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V306">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W306">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X306">
         <v>-1</v>
       </c>
       <c r="Y306">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z306">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA306">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB306">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC306">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -28631,6 +28631,80 @@
       </c>
       <c r="AC311">
         <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="312" spans="1:29">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>8055419</v>
+      </c>
+      <c r="C312" t="s">
+        <v>28</v>
+      </c>
+      <c r="D312" t="s">
+        <v>28</v>
+      </c>
+      <c r="E312" s="2">
+        <v>45388.625</v>
+      </c>
+      <c r="F312" t="s">
+        <v>109</v>
+      </c>
+      <c r="G312" t="s">
+        <v>90</v>
+      </c>
+      <c r="K312">
+        <v>2.7</v>
+      </c>
+      <c r="L312">
+        <v>3.75</v>
+      </c>
+      <c r="M312">
+        <v>2.1</v>
+      </c>
+      <c r="N312">
+        <v>2.7</v>
+      </c>
+      <c r="O312">
+        <v>3.8</v>
+      </c>
+      <c r="P312">
+        <v>2.1</v>
+      </c>
+      <c r="Q312">
+        <v>0.25</v>
+      </c>
+      <c r="R312">
+        <v>1.875</v>
+      </c>
+      <c r="S312">
+        <v>1.925</v>
+      </c>
+      <c r="T312">
+        <v>2.75</v>
+      </c>
+      <c r="U312">
+        <v>1.95</v>
+      </c>
+      <c r="V312">
+        <v>1.85</v>
+      </c>
+      <c r="W312">
+        <v>0</v>
+      </c>
+      <c r="X312">
+        <v>0</v>
+      </c>
+      <c r="Y312">
+        <v>0</v>
+      </c>
+      <c r="Z312">
+        <v>0</v>
+      </c>
+      <c r="AA312">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/France National 3/France National 3.xlsx
+++ b/France National 3/France National 3.xlsx
@@ -112,28 +112,28 @@
     <t>OnetleChateau</t>
   </si>
   <si>
-    <t>Pau II</t>
-  </si>
-  <si>
-    <t>RC Epernay</t>
-  </si>
-  <si>
     <t>US LegeCapFerret</t>
   </si>
   <si>
     <t>Montpellier II</t>
   </si>
   <si>
+    <t>RC Epernay</t>
+  </si>
+  <si>
+    <t>Pau II</t>
+  </si>
+  <si>
     <t>Maubeuge</t>
+  </si>
+  <si>
+    <t>CMS Oissel</t>
   </si>
   <si>
     <t>US Castanet</t>
   </si>
   <si>
     <t>Vitre</t>
-  </si>
-  <si>
-    <t>CMS Oissel</t>
   </si>
   <si>
     <t>Caen II</t>
@@ -178,6 +178,9 @@
     <t>St Etienne II</t>
   </si>
   <si>
+    <t>AG Caennaise</t>
+  </si>
+  <si>
     <t>Stade Plabennecois</t>
   </si>
   <si>
@@ -190,16 +193,13 @@
     <t>Thionville FC</t>
   </si>
   <si>
-    <t>AG Caennaise</t>
+    <t>Lannion FC</t>
   </si>
   <si>
     <t>Laval II</t>
   </si>
   <si>
     <t>Entente SCM</t>
-  </si>
-  <si>
-    <t>Lannion FC</t>
   </si>
   <si>
     <t>AS Montlouis</t>
@@ -214,10 +214,10 @@
     <t>Entente UGA Ardziv</t>
   </si>
   <si>
-    <t>FC Metropole Troyenne</t>
+    <t>StPierre Milizac</t>
   </si>
   <si>
-    <t>StPierre Milizac</t>
+    <t>FC Metropole Troyenne</t>
   </si>
   <si>
     <t>Dijon II</t>
@@ -232,10 +232,10 @@
     <t>RoussetSte Victoire</t>
   </si>
   <si>
-    <t>Colomiers</t>
+    <t>US Ivry</t>
   </si>
   <si>
-    <t>US Ivry</t>
+    <t>Colomiers</t>
   </si>
   <si>
     <t>St Philbert de Grandlieu</t>
@@ -409,13 +409,13 @@
     <t>Bagnols Pont</t>
   </si>
   <si>
-    <t>ES Gueretoise</t>
-  </si>
-  <si>
     <t>Anglet Genets</t>
   </si>
   <si>
     <t>Toulouse II</t>
+  </si>
+  <si>
+    <t>ES Gueretoise</t>
   </si>
   <si>
     <t>Feignies Aulnoye FC</t>
@@ -550,10 +550,10 @@
     <t>Fougeres</t>
   </si>
   <si>
-    <t>CA Pontarlier</t>
+    <t>SaintPaulSport</t>
   </si>
   <si>
-    <t>SaintPaulSport</t>
+    <t>CA Pontarlier</t>
   </si>
   <si>
     <t>Niort II</t>
@@ -1318,7 +1318,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6727649</v>
+        <v>6727653</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1336,34 +1336,34 @@
         <v>131</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5">
+        <v>2.5</v>
+      </c>
+      <c r="L5">
+        <v>3.2</v>
+      </c>
+      <c r="M5">
+        <v>2.5</v>
+      </c>
+      <c r="N5">
+        <v>2.45</v>
+      </c>
+      <c r="O5">
+        <v>3.3</v>
+      </c>
+      <c r="P5">
+        <v>2.45</v>
+      </c>
+      <c r="Q5">
         <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>191</v>
-      </c>
-      <c r="K5">
-        <v>1.181</v>
-      </c>
-      <c r="L5">
-        <v>6</v>
-      </c>
-      <c r="M5">
-        <v>10</v>
-      </c>
-      <c r="N5">
-        <v>1.181</v>
-      </c>
-      <c r="O5">
-        <v>6</v>
-      </c>
-      <c r="P5">
-        <v>11</v>
-      </c>
-      <c r="Q5">
-        <v>-2</v>
       </c>
       <c r="R5">
         <v>1.9</v>
@@ -1372,31 +1372,31 @@
         <v>1.9</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z5">
+        <v>-1</v>
+      </c>
+      <c r="AA5">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1407,7 +1407,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6727651</v>
+        <v>6727690</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1422,70 +1422,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K6">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="L6">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="N6">
         <v>3.5</v>
       </c>
       <c r="O6">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="Q6">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W6">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z6">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB6">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1496,7 +1496,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6727653</v>
+        <v>6727651</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1511,70 +1511,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7">
+        <v>2.9</v>
+      </c>
+      <c r="L7">
+        <v>3.9</v>
+      </c>
+      <c r="M7">
+        <v>1.95</v>
+      </c>
+      <c r="N7">
+        <v>3.5</v>
+      </c>
+      <c r="O7">
+        <v>4.2</v>
+      </c>
+      <c r="P7">
+        <v>1.7</v>
+      </c>
+      <c r="Q7">
+        <v>0.75</v>
+      </c>
+      <c r="R7">
+        <v>1.875</v>
+      </c>
+      <c r="S7">
+        <v>1.925</v>
+      </c>
+      <c r="T7">
         <v>3</v>
       </c>
-      <c r="J7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K7">
+      <c r="U7">
+        <v>1.775</v>
+      </c>
+      <c r="V7">
+        <v>2.025</v>
+      </c>
+      <c r="W7">
         <v>2.5</v>
       </c>
-      <c r="L7">
-        <v>3.2</v>
-      </c>
-      <c r="M7">
-        <v>2.5</v>
-      </c>
-      <c r="N7">
-        <v>2.45</v>
-      </c>
-      <c r="O7">
-        <v>3.3</v>
-      </c>
-      <c r="P7">
-        <v>2.45</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>1.9</v>
-      </c>
-      <c r="S7">
-        <v>1.9</v>
-      </c>
-      <c r="T7">
-        <v>2.75</v>
-      </c>
-      <c r="U7">
-        <v>1.95</v>
-      </c>
-      <c r="V7">
-        <v>1.85</v>
-      </c>
-      <c r="W7">
-        <v>-1</v>
-      </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1585,7 +1585,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6727690</v>
+        <v>6727649</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1603,34 +1603,34 @@
         <v>133</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K8">
-        <v>3.5</v>
+        <v>1.181</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="N8">
-        <v>3.5</v>
+        <v>1.181</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P8">
-        <v>1.85</v>
+        <v>11</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>-2</v>
       </c>
       <c r="R8">
         <v>1.9</v>
@@ -1639,31 +1639,31 @@
         <v>1.9</v>
       </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB8">
-        <v>1</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1763,7 +1763,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6727694</v>
+        <v>6727648</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1778,70 +1778,70 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>190</v>
+      </c>
+      <c r="K10">
+        <v>2.25</v>
+      </c>
+      <c r="L10">
         <v>3</v>
       </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>191</v>
-      </c>
-      <c r="K10">
-        <v>1.909</v>
-      </c>
-      <c r="L10">
-        <v>3.4</v>
-      </c>
       <c r="M10">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N10">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q10">
         <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S10">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W10">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB10">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC10">
         <v>-1</v>
@@ -1852,7 +1852,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6727693</v>
+        <v>6727694</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1867,55 +1867,55 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
         <v>191</v>
       </c>
       <c r="K11">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M11">
         <v>3.4</v>
       </c>
       <c r="N11">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O11">
         <v>3.3</v>
       </c>
       <c r="P11">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T11">
         <v>3</v>
       </c>
       <c r="U11">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1924,13 +1924,13 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC11">
         <v>-1</v>
@@ -1941,7 +1941,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6727648</v>
+        <v>6727693</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1956,70 +1956,70 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
       <c r="J12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K12">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L12">
+        <v>3.25</v>
+      </c>
+      <c r="M12">
+        <v>3.4</v>
+      </c>
+      <c r="N12">
+        <v>1.95</v>
+      </c>
+      <c r="O12">
+        <v>3.3</v>
+      </c>
+      <c r="P12">
+        <v>3.4</v>
+      </c>
+      <c r="Q12">
+        <v>-0.5</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1.8</v>
+      </c>
+      <c r="T12">
         <v>3</v>
       </c>
-      <c r="M12">
-        <v>3</v>
-      </c>
-      <c r="N12">
-        <v>2.15</v>
-      </c>
-      <c r="O12">
-        <v>3.25</v>
-      </c>
-      <c r="P12">
-        <v>2.9</v>
-      </c>
-      <c r="Q12">
-        <v>-0.25</v>
-      </c>
-      <c r="R12">
-        <v>1.975</v>
-      </c>
-      <c r="S12">
-        <v>1.825</v>
-      </c>
-      <c r="T12">
-        <v>2.5</v>
-      </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -2401,7 +2401,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2579,7 +2579,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -3110,7 +3110,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>64</v>
@@ -3202,7 +3202,7 @@
         <v>52</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -3377,7 +3377,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
         <v>44</v>
@@ -3454,7 +3454,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7181884</v>
+        <v>7181934</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3469,52 +3469,52 @@
         <v>54</v>
       </c>
       <c r="G29" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J29" t="s">
         <v>190</v>
       </c>
       <c r="K29">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M29">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="N29">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="O29">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P29">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3523,16 +3523,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.45</v>
+        <v>1.8</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB29">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3543,7 +3543,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7181935</v>
+        <v>7181884</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3558,73 +3558,73 @@
         <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L30">
         <v>3.4</v>
       </c>
       <c r="M30">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="O30">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P30">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
+        <v>1.875</v>
+      </c>
+      <c r="V30">
         <v>1.925</v>
       </c>
-      <c r="V30">
-        <v>1.775</v>
-      </c>
       <c r="W30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z30">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC30">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3632,7 +3632,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7184490</v>
+        <v>7181935</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3647,55 +3647,55 @@
         <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
         <v>191</v>
       </c>
       <c r="K31">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O31">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q31">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S31">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3704,16 +3704,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3721,7 +3721,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7181937</v>
+        <v>7184490</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3733,76 +3733,76 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G32" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L32">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
         <v>1.8</v>
       </c>
-      <c r="S32">
-        <v>2</v>
-      </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V32">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X32">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA32">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3810,7 +3810,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7181936</v>
+        <v>7181937</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3822,76 +3822,76 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K33">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P33">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S33">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V33">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W33">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB33">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3899,7 +3899,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7181934</v>
+        <v>7181936</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3914,70 +3914,70 @@
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K34">
-        <v>2.375</v>
+        <v>3.2</v>
       </c>
       <c r="L34">
+        <v>3.6</v>
+      </c>
+      <c r="M34">
+        <v>1.909</v>
+      </c>
+      <c r="N34">
         <v>3</v>
       </c>
-      <c r="M34">
-        <v>2.8</v>
-      </c>
-      <c r="N34">
-        <v>2.375</v>
-      </c>
       <c r="O34">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P34">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R34">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V34">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA34">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3988,7 +3988,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7181705</v>
+        <v>7181738</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -4003,73 +4003,73 @@
         <v>59</v>
       </c>
       <c r="G35" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K35">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L35">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="O35">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V35">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W35">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -4077,7 +4077,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7181704</v>
+        <v>7181705</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -4089,61 +4089,61 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K36">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="L36">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M36">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N36">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O36">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P36">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
+        <v>1.9</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
         <v>1.8</v>
       </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
-      <c r="U36">
-        <v>1.875</v>
-      </c>
-      <c r="V36">
-        <v>1.925</v>
-      </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X36">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
@@ -4158,7 +4158,7 @@
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4166,7 +4166,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7181702</v>
+        <v>7181704</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -4178,76 +4178,76 @@
         <v>45178.54166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K37">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M37">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="N37">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="O37">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P37">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="Q37">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
         <v>1.8</v>
       </c>
-      <c r="S37">
-        <v>2</v>
-      </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y37">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4255,7 +4255,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7181738</v>
+        <v>7181702</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -4270,73 +4270,73 @@
         <v>61</v>
       </c>
       <c r="G38" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K38">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="L38">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="N38">
-        <v>1.833</v>
+        <v>3.8</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P38">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="Q38">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T38">
         <v>2.5</v>
       </c>
       <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
         <v>1.8</v>
       </c>
-      <c r="V38">
-        <v>2</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4801,10 +4801,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4890,10 +4890,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -5056,7 +5056,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7244512</v>
+        <v>7244493</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -5071,64 +5071,64 @@
         <v>66</v>
       </c>
       <c r="G47" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K47">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M47">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="N47">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P47">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="Q47">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
         <v>1.75</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
         <v>-1</v>
@@ -5137,7 +5137,7 @@
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5145,7 +5145,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7244493</v>
+        <v>7244512</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -5160,64 +5160,64 @@
         <v>67</v>
       </c>
       <c r="G48" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K48">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="L48">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M48">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="N48">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="O48">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P48">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R48">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S48">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
         <v>1.75</v>
       </c>
       <c r="V48">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA48">
         <v>-1</v>
@@ -5226,7 +5226,7 @@
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5249,7 +5249,7 @@
         <v>46</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -6035,7 +6035,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7305026</v>
+        <v>7306344</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -6050,73 +6050,73 @@
         <v>72</v>
       </c>
       <c r="G58" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K58">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M58">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="N58">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P58">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S58">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X58">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA58">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC58">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6124,7 +6124,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7307212</v>
+        <v>7305026</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -6136,76 +6136,76 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="G59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K59">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L59">
         <v>3</v>
       </c>
       <c r="M59">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N59">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S59">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -6213,7 +6213,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7306344</v>
+        <v>7307212</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -6225,13 +6225,13 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="G60" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="H60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -6240,43 +6240,43 @@
         <v>191</v>
       </c>
       <c r="K60">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="L60">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M60">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N60">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="O60">
         <v>3.1</v>
       </c>
       <c r="P60">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -6285,16 +6285,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6403,7 +6403,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G62" t="s">
         <v>69</v>
@@ -6495,7 +6495,7 @@
         <v>46</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -7115,7 +7115,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
         <v>93</v>
@@ -7293,10 +7293,10 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G72" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -7370,7 +7370,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7365976</v>
+        <v>7366037</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7382,76 +7382,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G73" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K73">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L73">
         <v>3</v>
       </c>
       <c r="M73">
+        <v>2.25</v>
+      </c>
+      <c r="N73">
         <v>3</v>
-      </c>
-      <c r="N73">
-        <v>2.25</v>
       </c>
       <c r="O73">
         <v>3</v>
       </c>
       <c r="P73">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA73">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7459,7 +7459,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7366037</v>
+        <v>7365975</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7471,76 +7471,76 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L74">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M74">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P74">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S74">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T74">
         <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W74">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z74">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC74">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7548,7 +7548,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7365975</v>
+        <v>7365976</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7560,10 +7560,10 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G75" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7575,40 +7575,40 @@
         <v>190</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L75">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M75">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N75">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="O75">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q75">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T75">
         <v>2.25</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
         <v>-1</v>
@@ -7617,16 +7617,16 @@
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB75">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7738,10 +7738,10 @@
         <v>45220.55208333334</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -8275,7 +8275,7 @@
         <v>70</v>
       </c>
       <c r="G83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8453,7 +8453,7 @@
         <v>80</v>
       </c>
       <c r="G85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H85">
         <v>4</v>
@@ -8895,7 +8895,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G90" t="s">
         <v>115</v>
@@ -8984,7 +8984,7 @@
         <v>45234.625</v>
       </c>
       <c r="F91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G91" t="s">
         <v>158</v>
@@ -9162,7 +9162,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G93" t="s">
         <v>64</v>
@@ -9429,7 +9429,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
         <v>149</v>
@@ -9696,7 +9696,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F99" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G99" t="s">
         <v>160</v>
@@ -9966,7 +9966,7 @@
         <v>87</v>
       </c>
       <c r="G102" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -10052,10 +10052,10 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -10141,7 +10141,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
         <v>40</v>
@@ -11019,7 +11019,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7515961</v>
+        <v>7516810</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -11031,59 +11031,59 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G114" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="H114">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>191</v>
       </c>
       <c r="K114">
-        <v>3.75</v>
+        <v>1.615</v>
       </c>
       <c r="L114">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M114">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N114">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="O114">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P114">
-        <v>1.833</v>
+        <v>5.75</v>
       </c>
       <c r="Q114">
+        <v>-1</v>
+      </c>
+      <c r="R114">
+        <v>1.95</v>
+      </c>
+      <c r="S114">
+        <v>1.85</v>
+      </c>
+      <c r="T114">
+        <v>2.5</v>
+      </c>
+      <c r="U114">
+        <v>1.825</v>
+      </c>
+      <c r="V114">
+        <v>1.975</v>
+      </c>
+      <c r="W114">
         <v>0.5</v>
       </c>
-      <c r="R114">
-        <v>1.85</v>
-      </c>
-      <c r="S114">
-        <v>1.95</v>
-      </c>
-      <c r="T114">
-        <v>2.75</v>
-      </c>
-      <c r="U114">
-        <v>1.925</v>
-      </c>
-      <c r="V114">
-        <v>1.875</v>
-      </c>
-      <c r="W114">
-        <v>3</v>
-      </c>
       <c r="X114">
         <v>-1</v>
       </c>
@@ -11091,13 +11091,13 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -11108,7 +11108,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7516810</v>
+        <v>7515961</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -11120,58 +11120,58 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G115" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
         <v>191</v>
       </c>
       <c r="K115">
-        <v>1.615</v>
+        <v>3.75</v>
       </c>
       <c r="L115">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M115">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N115">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P115">
-        <v>5.75</v>
+        <v>1.833</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R115">
+        <v>1.85</v>
+      </c>
+      <c r="S115">
         <v>1.95</v>
       </c>
-      <c r="S115">
-        <v>1.85</v>
-      </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V115">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -11180,13 +11180,13 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -11212,7 +11212,7 @@
         <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H116">
         <v>5</v>
@@ -11390,7 +11390,7 @@
         <v>95</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -11476,7 +11476,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G119" t="s">
         <v>119</v>
@@ -11565,7 +11565,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G120" t="s">
         <v>43</v>
@@ -11743,7 +11743,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G122" t="s">
         <v>78</v>
@@ -11924,7 +11924,7 @@
         <v>97</v>
       </c>
       <c r="G124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -12188,7 +12188,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G127" t="s">
         <v>156</v>
@@ -12455,7 +12455,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G130" t="s">
         <v>167</v>
@@ -12722,7 +12722,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
         <v>136</v>
@@ -13256,7 +13256,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G139" t="s">
         <v>92</v>
@@ -13879,7 +13879,7 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G146" t="s">
         <v>172</v>
@@ -14146,7 +14146,7 @@
         <v>45270.45833333334</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G149" t="s">
         <v>31</v>
@@ -14327,7 +14327,7 @@
         <v>49</v>
       </c>
       <c r="G151" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -14772,7 +14772,7 @@
         <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -14935,7 +14935,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7594719</v>
+        <v>7594753</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14947,40 +14947,40 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F158" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="H158">
         <v>1</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K158">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L158">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M158">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N158">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O158">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P158">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
         <v>1.775</v>
@@ -14992,31 +14992,31 @@
         <v>2.75</v>
       </c>
       <c r="U158">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V158">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB158">
         <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -15024,7 +15024,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7594753</v>
+        <v>7594728</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -15036,76 +15036,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F159" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="G159" t="s">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J159" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K159">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L159">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M159">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N159">
+        <v>2.3</v>
+      </c>
+      <c r="O159">
+        <v>3.2</v>
+      </c>
+      <c r="P159">
+        <v>2.7</v>
+      </c>
+      <c r="Q159">
+        <v>-0.25</v>
+      </c>
+      <c r="R159">
+        <v>2.05</v>
+      </c>
+      <c r="S159">
         <v>1.75</v>
-      </c>
-      <c r="O159">
-        <v>3.4</v>
-      </c>
-      <c r="P159">
-        <v>4.2</v>
-      </c>
-      <c r="Q159">
-        <v>-0.5</v>
-      </c>
-      <c r="R159">
-        <v>1.775</v>
-      </c>
-      <c r="S159">
-        <v>2.025</v>
       </c>
       <c r="T159">
         <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V159">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC159">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -15113,7 +15113,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7594728</v>
+        <v>7594733</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -15125,46 +15125,46 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F160" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>67</v>
+        <v>168</v>
       </c>
       <c r="H160">
         <v>2</v>
       </c>
       <c r="I160">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K160">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="L160">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M160">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="N160">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O160">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P160">
         <v>2.7</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R160">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S160">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T160">
         <v>2.75</v>
@@ -15176,25 +15176,25 @@
         <v>1.85</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA160">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -15202,7 +15202,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7594718</v>
+        <v>7594719</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -15214,76 +15214,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F161" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="G161" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K161">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L161">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M161">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N161">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O161">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P161">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q161">
         <v>-0.25</v>
       </c>
       <c r="R161">
+        <v>1.775</v>
+      </c>
+      <c r="S161">
         <v>2.025</v>
-      </c>
-      <c r="S161">
-        <v>1.775</v>
       </c>
       <c r="T161">
         <v>2.75</v>
       </c>
       <c r="U161">
+        <v>1.95</v>
+      </c>
+      <c r="V161">
         <v>1.85</v>
       </c>
-      <c r="V161">
-        <v>1.95</v>
-      </c>
       <c r="W161">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X161">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA161">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
+        <v>-1</v>
+      </c>
+      <c r="AC161">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC161">
-        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15291,7 +15291,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7594733</v>
+        <v>7594718</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -15303,76 +15303,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="G162" t="s">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="H162">
         <v>2</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K162">
+        <v>1.8</v>
+      </c>
+      <c r="L162">
+        <v>3.1</v>
+      </c>
+      <c r="M162">
+        <v>4.2</v>
+      </c>
+      <c r="N162">
+        <v>2.25</v>
+      </c>
+      <c r="O162">
+        <v>3.1</v>
+      </c>
+      <c r="P162">
         <v>2.8</v>
       </c>
-      <c r="L162">
-        <v>2.9</v>
-      </c>
-      <c r="M162">
-        <v>2.4</v>
-      </c>
-      <c r="N162">
-        <v>2.5</v>
-      </c>
-      <c r="O162">
-        <v>2.875</v>
-      </c>
-      <c r="P162">
-        <v>2.7</v>
-      </c>
       <c r="Q162">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S162">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T162">
         <v>2.75</v>
       </c>
       <c r="U162">
+        <v>1.85</v>
+      </c>
+      <c r="V162">
         <v>1.95</v>
       </c>
-      <c r="V162">
-        <v>1.85</v>
-      </c>
       <c r="W162">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC162">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15736,7 +15736,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7664701</v>
+        <v>7663729</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15748,76 +15748,76 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G167" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167">
         <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K167">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M167">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="N167">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="O167">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P167">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q167">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V167">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W167">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB167">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15825,7 +15825,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7663705</v>
+        <v>7664701</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15837,46 +15837,46 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="G168" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="H168">
         <v>2</v>
       </c>
       <c r="I168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K168">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="L168">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M168">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="N168">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O168">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P168">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="Q168">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R168">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S168">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T168">
         <v>2.75</v>
@@ -15888,25 +15888,25 @@
         <v>1.925</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA168">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15914,7 +15914,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7663729</v>
+        <v>7663705</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15926,76 +15926,76 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G169" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K169">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="L169">
         <v>3.2</v>
       </c>
       <c r="M169">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N169">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O169">
         <v>3.2</v>
       </c>
       <c r="P169">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R169">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S169">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T169">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V169">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AB169">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC169">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16015,7 +16015,7 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G170" t="s">
         <v>177</v>
@@ -16104,7 +16104,7 @@
         <v>45297.625</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G171" t="s">
         <v>150</v>
@@ -16460,7 +16460,7 @@
         <v>45304.54166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G175" t="s">
         <v>103</v>
@@ -16552,7 +16552,7 @@
         <v>80</v>
       </c>
       <c r="G176" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16626,7 +16626,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7690739</v>
+        <v>7690705</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16638,7 +16638,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G177" t="s">
         <v>178</v>
@@ -16647,67 +16647,67 @@
         <v>1</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K177">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L177">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M177">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="N177">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O177">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P177">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R177">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T177">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X177">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AB177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16715,7 +16715,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7690705</v>
+        <v>7690745</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16727,13 +16727,13 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F178" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G178" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -16742,43 +16742,43 @@
         <v>191</v>
       </c>
       <c r="K178">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="L178">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M178">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="N178">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="O178">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P178">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q178">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V178">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
-        <v>0.333</v>
+        <v>0.615</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16787,16 +16787,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA178">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC178">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16804,7 +16804,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7690745</v>
+        <v>7690739</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16816,46 +16816,46 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F179" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G179" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K179">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L179">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M179">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N179">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="O179">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P179">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q179">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S179">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T179">
         <v>2.25</v>
@@ -16867,25 +16867,25 @@
         <v>1.95</v>
       </c>
       <c r="W179">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB179">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16908,7 +16908,7 @@
         <v>89</v>
       </c>
       <c r="G180" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -17172,7 +17172,7 @@
         <v>45310.66666666666</v>
       </c>
       <c r="F183" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G183" t="s">
         <v>46</v>
@@ -17439,7 +17439,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F186" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G186" t="s">
         <v>180</v>
@@ -17516,7 +17516,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7718968</v>
+        <v>7718934</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17528,76 +17528,76 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="G187" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187">
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K187">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L187">
         <v>3.6</v>
       </c>
       <c r="M187">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="N187">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O187">
         <v>3.6</v>
       </c>
       <c r="P187">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="Q187">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R187">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S187">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V187">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X187">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
+        <v>0.375</v>
+      </c>
+      <c r="AC187">
         <v>-0.5</v>
-      </c>
-      <c r="AC187">
-        <v>0.45</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17605,7 +17605,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7718934</v>
+        <v>7718968</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17617,76 +17617,76 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="G188" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188">
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K188">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L188">
         <v>3.6</v>
       </c>
       <c r="M188">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="N188">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O188">
         <v>3.6</v>
       </c>
       <c r="P188">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="Q188">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W188">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>-0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17706,7 +17706,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G189" t="s">
         <v>124</v>
@@ -17795,7 +17795,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G190" t="s">
         <v>181</v>
@@ -17884,7 +17884,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G191" t="s">
         <v>182</v>
@@ -18154,7 +18154,7 @@
         <v>44</v>
       </c>
       <c r="G194" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -18243,7 +18243,7 @@
         <v>85</v>
       </c>
       <c r="G195" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H195">
         <v>2</v>
@@ -18851,7 +18851,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7748114</v>
+        <v>7748838</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18863,76 +18863,76 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="G202" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H202">
         <v>0</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K202">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L202">
+        <v>3.25</v>
+      </c>
+      <c r="M202">
+        <v>2.75</v>
+      </c>
+      <c r="N202">
+        <v>1.95</v>
+      </c>
+      <c r="O202">
         <v>3.4</v>
       </c>
-      <c r="M202">
-        <v>4.2</v>
-      </c>
-      <c r="N202">
+      <c r="P202">
+        <v>3.3</v>
+      </c>
+      <c r="Q202">
+        <v>-0.25</v>
+      </c>
+      <c r="R202">
         <v>1.75</v>
       </c>
-      <c r="O202">
-        <v>3.3</v>
-      </c>
-      <c r="P202">
-        <v>4</v>
-      </c>
-      <c r="Q202">
+      <c r="S202">
+        <v>1.95</v>
+      </c>
+      <c r="T202">
+        <v>2.75</v>
+      </c>
+      <c r="U202">
+        <v>1.925</v>
+      </c>
+      <c r="V202">
+        <v>1.775</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
+        <v>2.4</v>
+      </c>
+      <c r="Y202">
+        <v>-1</v>
+      </c>
+      <c r="Z202">
         <v>-0.5</v>
       </c>
-      <c r="R202">
-        <v>1.825</v>
-      </c>
-      <c r="S202">
-        <v>1.975</v>
-      </c>
-      <c r="T202">
-        <v>2</v>
-      </c>
-      <c r="U202">
-        <v>1.825</v>
-      </c>
-      <c r="V202">
-        <v>1.975</v>
-      </c>
-      <c r="W202">
-        <v>-1</v>
-      </c>
-      <c r="X202">
-        <v>-1</v>
-      </c>
-      <c r="Y202">
-        <v>3</v>
-      </c>
-      <c r="Z202">
-        <v>-1</v>
-      </c>
       <c r="AA202">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18940,7 +18940,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7748838</v>
+        <v>7748114</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18952,76 +18952,76 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="G203" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H203">
         <v>0</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K203">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="L203">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M203">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="N203">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O203">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P203">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S203">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T203">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U203">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V203">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W203">
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB203">
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -19222,7 +19222,7 @@
         <v>30</v>
       </c>
       <c r="G206" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H206">
         <v>4</v>
@@ -19652,7 +19652,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7779990</v>
+        <v>7779991</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19664,46 +19664,46 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F211" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="G211" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K211">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="L211">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M211">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="N211">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="O211">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P211">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="Q211">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R211">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S211">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T211">
         <v>2.25</v>
@@ -19715,25 +19715,25 @@
         <v>2</v>
       </c>
       <c r="W211">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.3625</v>
+        <v>0.5</v>
       </c>
       <c r="AA211">
         <v>-0.5</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC211">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19741,7 +19741,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7779991</v>
+        <v>7779758</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19753,76 +19753,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F212" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="G212" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
         <v>192</v>
       </c>
       <c r="K212">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="L212">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M212">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N212">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O212">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P212">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="Q212">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R212">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S212">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T212">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U212">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V212">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB212">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19830,7 +19830,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7779989</v>
+        <v>7779990</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19842,76 +19842,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F213" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="G213" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
         <v>0</v>
       </c>
-      <c r="I213">
+      <c r="J213" t="s">
+        <v>191</v>
+      </c>
+      <c r="K213">
+        <v>1.571</v>
+      </c>
+      <c r="L213">
+        <v>3.5</v>
+      </c>
+      <c r="M213">
+        <v>5.25</v>
+      </c>
+      <c r="N213">
+        <v>1.571</v>
+      </c>
+      <c r="O213">
+        <v>3.5</v>
+      </c>
+      <c r="P213">
+        <v>5.25</v>
+      </c>
+      <c r="Q213">
+        <v>-0.75</v>
+      </c>
+      <c r="R213">
+        <v>1.725</v>
+      </c>
+      <c r="S213">
+        <v>1.975</v>
+      </c>
+      <c r="T213">
+        <v>2.25</v>
+      </c>
+      <c r="U213">
+        <v>1.8</v>
+      </c>
+      <c r="V213">
+        <v>2</v>
+      </c>
+      <c r="W213">
+        <v>0.571</v>
+      </c>
+      <c r="X213">
+        <v>-1</v>
+      </c>
+      <c r="Y213">
+        <v>-1</v>
+      </c>
+      <c r="Z213">
+        <v>0.3625</v>
+      </c>
+      <c r="AA213">
+        <v>-0.5</v>
+      </c>
+      <c r="AB213">
+        <v>-1</v>
+      </c>
+      <c r="AC213">
         <v>1</v>
-      </c>
-      <c r="J213" t="s">
-        <v>190</v>
-      </c>
-      <c r="K213">
-        <v>1.85</v>
-      </c>
-      <c r="L213">
-        <v>3.4</v>
-      </c>
-      <c r="M213">
-        <v>3.6</v>
-      </c>
-      <c r="N213">
-        <v>1.85</v>
-      </c>
-      <c r="O213">
-        <v>3.4</v>
-      </c>
-      <c r="P213">
-        <v>3.6</v>
-      </c>
-      <c r="Q213">
-        <v>-0.5</v>
-      </c>
-      <c r="R213">
-        <v>1.9</v>
-      </c>
-      <c r="S213">
-        <v>1.9</v>
-      </c>
-      <c r="T213">
-        <v>3</v>
-      </c>
-      <c r="U213">
-        <v>1.95</v>
-      </c>
-      <c r="V213">
-        <v>1.85</v>
-      </c>
-      <c r="W213">
-        <v>-1</v>
-      </c>
-      <c r="X213">
-        <v>-1</v>
-      </c>
-      <c r="Y213">
-        <v>2.6</v>
-      </c>
-      <c r="Z213">
-        <v>-1</v>
-      </c>
-      <c r="AA213">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB213">
-        <v>-1</v>
-      </c>
-      <c r="AC213">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19919,7 +19919,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7779756</v>
+        <v>7779757</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19931,76 +19931,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F214" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G214" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="H214">
+        <v>2</v>
+      </c>
+      <c r="I214">
         <v>0</v>
       </c>
-      <c r="I214">
-        <v>1</v>
-      </c>
       <c r="J214" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K214">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L214">
+        <v>3.3</v>
+      </c>
+      <c r="M214">
         <v>3.2</v>
       </c>
-      <c r="M214">
-        <v>2.8</v>
-      </c>
       <c r="N214">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O214">
+        <v>3.3</v>
+      </c>
+      <c r="P214">
         <v>3.2</v>
-      </c>
-      <c r="P214">
-        <v>2.8</v>
       </c>
       <c r="Q214">
         <v>-0.25</v>
       </c>
       <c r="R214">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S214">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T214">
         <v>2.5</v>
       </c>
       <c r="U214">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA214">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
         <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20008,7 +20008,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7779757</v>
+        <v>7779756</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -20020,76 +20020,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G215" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K215">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L215">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M215">
+        <v>2.8</v>
+      </c>
+      <c r="N215">
+        <v>2.25</v>
+      </c>
+      <c r="O215">
         <v>3.2</v>
       </c>
-      <c r="N215">
-        <v>2</v>
-      </c>
-      <c r="O215">
-        <v>3.3</v>
-      </c>
       <c r="P215">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q215">
         <v>-0.25</v>
       </c>
       <c r="R215">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S215">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T215">
         <v>2.5</v>
       </c>
       <c r="U215">
+        <v>2</v>
+      </c>
+      <c r="V215">
         <v>1.8</v>
       </c>
-      <c r="V215">
-        <v>2</v>
-      </c>
       <c r="W215">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X215">
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z215">
+        <v>-1</v>
+      </c>
+      <c r="AA215">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB215">
+        <v>-1</v>
+      </c>
+      <c r="AC215">
         <v>0.8</v>
-      </c>
-      <c r="AA215">
-        <v>-1</v>
-      </c>
-      <c r="AB215">
-        <v>-1</v>
-      </c>
-      <c r="AC215">
-        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -20097,7 +20097,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7779754</v>
+        <v>7779989</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -20109,40 +20109,40 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="G216" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216">
         <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K216">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="L216">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="M216">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="N216">
-        <v>1.25</v>
+        <v>1.85</v>
       </c>
       <c r="O216">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P216">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="Q216">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R216">
         <v>1.9</v>
@@ -20154,19 +20154,19 @@
         <v>3</v>
       </c>
       <c r="U216">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V216">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W216">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z216">
         <v>-1</v>
@@ -20175,10 +20175,10 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AB216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC216">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20186,7 +20186,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7779755</v>
+        <v>7779754</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -20198,76 +20198,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F217" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="G217" t="s">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217">
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K217">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="L217">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="M217">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N217">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="O217">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="P217">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="Q217">
+        <v>-1.75</v>
+      </c>
+      <c r="R217">
+        <v>1.9</v>
+      </c>
+      <c r="S217">
+        <v>1.9</v>
+      </c>
+      <c r="T217">
+        <v>3</v>
+      </c>
+      <c r="U217">
+        <v>1.9</v>
+      </c>
+      <c r="V217">
+        <v>1.9</v>
+      </c>
+      <c r="W217">
+        <v>0.25</v>
+      </c>
+      <c r="X217">
+        <v>-1</v>
+      </c>
+      <c r="Y217">
+        <v>-1</v>
+      </c>
+      <c r="Z217">
+        <v>-1</v>
+      </c>
+      <c r="AA217">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB217">
         <v>0</v>
       </c>
-      <c r="R217">
-        <v>1.8</v>
-      </c>
-      <c r="S217">
-        <v>2</v>
-      </c>
-      <c r="T217">
-        <v>2.5</v>
-      </c>
-      <c r="U217">
-        <v>1.85</v>
-      </c>
-      <c r="V217">
-        <v>1.95</v>
-      </c>
-      <c r="W217">
-        <v>-1</v>
-      </c>
-      <c r="X217">
-        <v>2.2</v>
-      </c>
-      <c r="Y217">
-        <v>-1</v>
-      </c>
-      <c r="Z217">
-        <v>0</v>
-      </c>
-      <c r="AA217">
+      <c r="AC217">
         <v>-0</v>
-      </c>
-      <c r="AB217">
-        <v>-1</v>
-      </c>
-      <c r="AC217">
-        <v>0.95</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -20275,7 +20275,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7779988</v>
+        <v>7779755</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -20287,76 +20287,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G218" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="H218">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218" t="s">
+        <v>192</v>
+      </c>
+      <c r="K218">
+        <v>2.4</v>
+      </c>
+      <c r="L218">
+        <v>3.2</v>
+      </c>
+      <c r="M218">
+        <v>2.6</v>
+      </c>
+      <c r="N218">
+        <v>2.4</v>
+      </c>
+      <c r="O218">
+        <v>3.2</v>
+      </c>
+      <c r="P218">
+        <v>2.625</v>
+      </c>
+      <c r="Q218">
         <v>0</v>
       </c>
-      <c r="J218" t="s">
-        <v>191</v>
-      </c>
-      <c r="K218">
-        <v>1.909</v>
-      </c>
-      <c r="L218">
-        <v>3.3</v>
-      </c>
-      <c r="M218">
-        <v>3.5</v>
-      </c>
-      <c r="N218">
-        <v>1.909</v>
-      </c>
-      <c r="O218">
-        <v>3.3</v>
-      </c>
-      <c r="P218">
-        <v>3.5</v>
-      </c>
-      <c r="Q218">
-        <v>-0.5</v>
-      </c>
       <c r="R218">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S218">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T218">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V218">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W218">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB218">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC218">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -20364,7 +20364,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7779758</v>
+        <v>7779988</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -20376,40 +20376,40 @@
         <v>45325.58333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G219" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I219">
         <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K219">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L219">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M219">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N219">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O219">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P219">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q219">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R219">
         <v>1.975</v>
@@ -20418,34 +20418,34 @@
         <v>1.825</v>
       </c>
       <c r="T219">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U219">
+        <v>1.825</v>
+      </c>
+      <c r="V219">
         <v>1.975</v>
       </c>
-      <c r="V219">
-        <v>1.825</v>
-      </c>
       <c r="W219">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X219">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA219">
+        <v>-1</v>
+      </c>
+      <c r="AB219">
         <v>0.825</v>
       </c>
-      <c r="AB219">
-        <v>-1</v>
-      </c>
       <c r="AC219">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20643,7 +20643,7 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G222" t="s">
         <v>30</v>
@@ -21002,7 +21002,7 @@
         <v>83</v>
       </c>
       <c r="G226" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -21088,7 +21088,7 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G227" t="s">
         <v>177</v>
@@ -21355,7 +21355,7 @@
         <v>45333.45833333334</v>
       </c>
       <c r="F230" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G230" t="s">
         <v>52</v>
@@ -21711,7 +21711,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G234" t="s">
         <v>101</v>
@@ -21877,7 +21877,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7843260</v>
+        <v>7843138</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21889,76 +21889,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F236" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="G236" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H236">
         <v>0</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K236">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L236">
         <v>3.25</v>
       </c>
       <c r="M236">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="N236">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="O236">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P236">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="Q236">
         <v>0.25</v>
       </c>
       <c r="R236">
+        <v>1.725</v>
+      </c>
+      <c r="S236">
         <v>1.975</v>
       </c>
-      <c r="S236">
+      <c r="T236">
+        <v>3</v>
+      </c>
+      <c r="U236">
+        <v>1.975</v>
+      </c>
+      <c r="V236">
         <v>1.825</v>
       </c>
-      <c r="T236">
-        <v>2.5</v>
-      </c>
-      <c r="U236">
-        <v>1.95</v>
-      </c>
-      <c r="V236">
-        <v>1.85</v>
-      </c>
       <c r="W236">
         <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y236">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AA236">
+        <v>-0.5</v>
+      </c>
+      <c r="AB236">
+        <v>-1</v>
+      </c>
+      <c r="AC236">
         <v>0.825</v>
-      </c>
-      <c r="AB236">
-        <v>-1</v>
-      </c>
-      <c r="AC236">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21966,7 +21966,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7843138</v>
+        <v>7843260</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21978,76 +21978,76 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F237" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="G237" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="H237">
         <v>0</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K237">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L237">
         <v>3.25</v>
       </c>
       <c r="M237">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="N237">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="O237">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P237">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="Q237">
         <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T237">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U237">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V237">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z237">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB237">
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -22067,7 +22067,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G238" t="s">
         <v>124</v>
@@ -22601,10 +22601,10 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F244" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G244" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H244">
         <v>0</v>
@@ -22779,7 +22779,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F246" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G246" t="s">
         <v>165</v>
@@ -22960,7 +22960,7 @@
         <v>119</v>
       </c>
       <c r="G248" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H248">
         <v>3</v>
@@ -23224,7 +23224,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G251" t="s">
         <v>92</v>
@@ -23316,7 +23316,7 @@
         <v>46</v>
       </c>
       <c r="G252" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F253" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G253" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H253">
         <v>3</v>
@@ -23479,7 +23479,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7874397</v>
+        <v>7874399</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23491,34 +23491,34 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F254" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="G254" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="H254">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I254">
         <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K254">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L254">
         <v>4</v>
       </c>
       <c r="M254">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N254">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="O254">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P254">
         <v>4.75</v>
@@ -23527,40 +23527,40 @@
         <v>-1</v>
       </c>
       <c r="R254">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S254">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T254">
         <v>2.75</v>
       </c>
       <c r="U254">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V254">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W254">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X254">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y254">
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB254">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC254">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23568,7 +23568,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7874399</v>
+        <v>7874397</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23580,34 +23580,34 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F255" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G255" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I255">
         <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K255">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="L255">
         <v>4</v>
       </c>
       <c r="M255">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N255">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="O255">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P255">
         <v>4.75</v>
@@ -23616,40 +23616,40 @@
         <v>-1</v>
       </c>
       <c r="R255">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S255">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T255">
         <v>2.75</v>
       </c>
       <c r="U255">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V255">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W255">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X255">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y255">
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA255">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB255">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC255">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -24114,7 +24114,7 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F261" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G261" t="s">
         <v>89</v>
@@ -24203,7 +24203,7 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G262" t="s">
         <v>110</v>
@@ -24295,7 +24295,7 @@
         <v>63</v>
       </c>
       <c r="G263" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -24470,7 +24470,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F265" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G265" t="s">
         <v>112</v>
@@ -24559,7 +24559,7 @@
         <v>45360.35416666666</v>
       </c>
       <c r="F266" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G266" t="s">
         <v>155</v>
@@ -24826,7 +24826,7 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F269" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G269" t="s">
         <v>187</v>
@@ -25004,10 +25004,10 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G271" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H271">
         <v>2</v>
@@ -25894,7 +25894,7 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G281" t="s">
         <v>171</v>
@@ -27054,7 +27054,7 @@
         <v>76</v>
       </c>
       <c r="G294" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H294">
         <v>1</v>
@@ -27143,7 +27143,7 @@
         <v>102</v>
       </c>
       <c r="G295" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H295">
         <v>0</v>
@@ -27318,7 +27318,7 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G297" t="s">
         <v>87</v>
@@ -27407,7 +27407,7 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G298" t="s">
         <v>181</v>
@@ -27944,7 +27944,7 @@
         <v>45</v>
       </c>
       <c r="G304" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H304">
         <v>0</v>
@@ -28030,7 +28030,7 @@
         <v>45375.45833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G305" t="s">
         <v>152</v>
@@ -28297,10 +28297,10 @@
         <v>45378.66666666666</v>
       </c>
       <c r="F308" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G308" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H308">
         <v>3</v>
@@ -28567,7 +28567,7 @@
         <v>49</v>
       </c>
       <c r="G311" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H311">
         <v>1</v>
@@ -28831,7 +28831,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F314" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G314" t="s">
         <v>95</v>
@@ -29187,7 +29187,7 @@
         <v>45388.54166666666</v>
       </c>
       <c r="F318" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G318" t="s">
         <v>97</v>
@@ -29276,7 +29276,7 @@
         <v>45388.54166666666</v>
       </c>
       <c r="F319" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G319" t="s">
         <v>189</v>
@@ -29353,7 +29353,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>8055418</v>
+        <v>8055421</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -29365,10 +29365,10 @@
         <v>45388.54166666666</v>
       </c>
       <c r="F320" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G320" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="H320">
         <v>1</v>
@@ -29380,40 +29380,40 @@
         <v>190</v>
       </c>
       <c r="K320">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L320">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M320">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N320">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O320">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P320">
         <v>4</v>
       </c>
       <c r="Q320">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R320">
+        <v>1.85</v>
+      </c>
+      <c r="S320">
+        <v>1.95</v>
+      </c>
+      <c r="T320">
+        <v>2.5</v>
+      </c>
+      <c r="U320">
         <v>1.9</v>
       </c>
-      <c r="S320">
+      <c r="V320">
         <v>1.9</v>
-      </c>
-      <c r="T320">
-        <v>2.75</v>
-      </c>
-      <c r="U320">
-        <v>1.75</v>
-      </c>
-      <c r="V320">
-        <v>1.95</v>
       </c>
       <c r="W320">
         <v>-1</v>
@@ -29428,13 +29428,13 @@
         <v>-1</v>
       </c>
       <c r="AA320">
+        <v>0.95</v>
+      </c>
+      <c r="AB320">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB320">
-        <v>0.375</v>
-      </c>
       <c r="AC320">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29442,7 +29442,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>8055421</v>
+        <v>8055418</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29454,10 +29454,10 @@
         <v>45388.54166666666</v>
       </c>
       <c r="F321" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G321" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="H321">
         <v>1</v>
@@ -29469,40 +29469,40 @@
         <v>190</v>
       </c>
       <c r="K321">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L321">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M321">
+        <v>2.9</v>
+      </c>
+      <c r="N321">
+        <v>1.666</v>
+      </c>
+      <c r="O321">
         <v>4</v>
-      </c>
-      <c r="N321">
-        <v>1.8</v>
-      </c>
-      <c r="O321">
-        <v>3.25</v>
       </c>
       <c r="P321">
         <v>4</v>
       </c>
       <c r="Q321">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R321">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S321">
+        <v>1.9</v>
+      </c>
+      <c r="T321">
+        <v>2.75</v>
+      </c>
+      <c r="U321">
+        <v>1.75</v>
+      </c>
+      <c r="V321">
         <v>1.95</v>
-      </c>
-      <c r="T321">
-        <v>2.5</v>
-      </c>
-      <c r="U321">
-        <v>1.9</v>
-      </c>
-      <c r="V321">
-        <v>1.9</v>
       </c>
       <c r="W321">
         <v>-1</v>
@@ -29517,13 +29517,13 @@
         <v>-1</v>
       </c>
       <c r="AA321">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB321">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AC321">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29543,7 +29543,7 @@
         <v>45388.54861111111</v>
       </c>
       <c r="F322" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G322" t="s">
         <v>45</v>
@@ -29635,7 +29635,7 @@
         <v>43</v>
       </c>
       <c r="G323" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H323">
         <v>2</v>

--- a/France National 3/France National 3.xlsx
+++ b/France National 3/France National 3.xlsx
@@ -283,10 +283,10 @@
     <t>PD Ergue Gaberic</t>
   </si>
   <si>
-    <t>Le Havre II</t>
+    <t>Chambray</t>
   </si>
   <si>
-    <t>Chambray</t>
+    <t>Le Havre II</t>
   </si>
   <si>
     <t>Valenciennes II</t>
@@ -1422,7 +1422,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -3276,7 +3276,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7156615</v>
+        <v>7156616</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -3288,40 +3288,40 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L27">
-        <v>3.9</v>
+        <v>4.333</v>
       </c>
       <c r="M27">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N27">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="O27">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="P27">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R27">
         <v>2</v>
@@ -3333,31 +3333,31 @@
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V27">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W27">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB27">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3365,7 +3365,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7156616</v>
+        <v>7156615</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -3377,40 +3377,40 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K28">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L28">
-        <v>4.333</v>
+        <v>3.9</v>
       </c>
       <c r="M28">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N28">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="P28">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
         <v>2</v>
@@ -3422,31 +3422,31 @@
         <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X28">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA28">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3647,7 +3647,7 @@
         <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -5056,7 +5056,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7244492</v>
+        <v>7244441</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -5068,76 +5068,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
       <c r="J47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K47">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L47">
         <v>3.25</v>
       </c>
       <c r="M47">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N47">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O47">
         <v>3.25</v>
       </c>
       <c r="P47">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S47">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U47">
+        <v>1.9</v>
+      </c>
+      <c r="V47">
+        <v>1.9</v>
+      </c>
+      <c r="W47">
         <v>1.8</v>
       </c>
-      <c r="V47">
-        <v>2</v>
-      </c>
-      <c r="W47">
-        <v>-1</v>
-      </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA47">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5145,7 +5145,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7244493</v>
+        <v>7244492</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -5157,76 +5157,76 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>190</v>
+      </c>
+      <c r="K48">
+        <v>2.25</v>
+      </c>
+      <c r="L48">
+        <v>3.25</v>
+      </c>
+      <c r="M48">
+        <v>2.75</v>
+      </c>
+      <c r="N48">
+        <v>2.25</v>
+      </c>
+      <c r="O48">
+        <v>3.25</v>
+      </c>
+      <c r="P48">
+        <v>2.75</v>
+      </c>
+      <c r="Q48">
+        <v>-0.25</v>
+      </c>
+      <c r="R48">
+        <v>2.025</v>
+      </c>
+      <c r="S48">
+        <v>1.775</v>
+      </c>
+      <c r="T48">
+        <v>2.75</v>
+      </c>
+      <c r="U48">
+        <v>1.8</v>
+      </c>
+      <c r="V48">
+        <v>2</v>
+      </c>
+      <c r="W48">
+        <v>-1</v>
+      </c>
+      <c r="X48">
+        <v>-1</v>
+      </c>
+      <c r="Y48">
+        <v>1.75</v>
+      </c>
+      <c r="Z48">
+        <v>-1</v>
+      </c>
+      <c r="AA48">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB48">
+        <v>-1</v>
+      </c>
+      <c r="AC48">
         <v>1</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48" t="s">
-        <v>191</v>
-      </c>
-      <c r="K48">
-        <v>1.8</v>
-      </c>
-      <c r="L48">
-        <v>3.6</v>
-      </c>
-      <c r="M48">
-        <v>3.5</v>
-      </c>
-      <c r="N48">
-        <v>1.8</v>
-      </c>
-      <c r="O48">
-        <v>3.6</v>
-      </c>
-      <c r="P48">
-        <v>3.5</v>
-      </c>
-      <c r="Q48">
-        <v>-0.5</v>
-      </c>
-      <c r="R48">
-        <v>1.85</v>
-      </c>
-      <c r="S48">
-        <v>1.95</v>
-      </c>
-      <c r="T48">
-        <v>2.5</v>
-      </c>
-      <c r="U48">
-        <v>1.75</v>
-      </c>
-      <c r="V48">
-        <v>2.05</v>
-      </c>
-      <c r="W48">
-        <v>0.8</v>
-      </c>
-      <c r="X48">
-        <v>-1</v>
-      </c>
-      <c r="Y48">
-        <v>-1</v>
-      </c>
-      <c r="Z48">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA48">
-        <v>-1</v>
-      </c>
-      <c r="AB48">
-        <v>-1</v>
-      </c>
-      <c r="AC48">
-        <v>1.05</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5234,7 +5234,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7244491</v>
+        <v>7244493</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -5246,10 +5246,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="G49" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -5261,31 +5261,31 @@
         <v>191</v>
       </c>
       <c r="K49">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L49">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M49">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N49">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O49">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P49">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S49">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T49">
         <v>2.5</v>
@@ -5297,7 +5297,7 @@
         <v>2.05</v>
       </c>
       <c r="W49">
-        <v>1.25</v>
+        <v>0.8</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -5306,7 +5306,7 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA49">
         <v>-1</v>
@@ -5323,7 +5323,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7244441</v>
+        <v>7244491</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5335,10 +5335,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5350,43 +5350,43 @@
         <v>191</v>
       </c>
       <c r="K50">
+        <v>2.25</v>
+      </c>
+      <c r="L50">
+        <v>3.2</v>
+      </c>
+      <c r="M50">
         <v>2.8</v>
       </c>
-      <c r="L50">
-        <v>3.25</v>
-      </c>
-      <c r="M50">
-        <v>2.2</v>
-      </c>
       <c r="N50">
+        <v>2.25</v>
+      </c>
+      <c r="O50">
+        <v>3.2</v>
+      </c>
+      <c r="P50">
         <v>2.8</v>
       </c>
-      <c r="O50">
-        <v>3.25</v>
-      </c>
-      <c r="P50">
-        <v>2.2</v>
-      </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S50">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W50">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -5395,7 +5395,7 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA50">
         <v>-1</v>
@@ -5404,7 +5404,7 @@
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -8705,7 +8705,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7427132</v>
+        <v>7427171</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8717,49 +8717,49 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="G88" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>191</v>
       </c>
       <c r="K88">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="N88">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U88">
         <v>1.85</v>
@@ -8768,7 +8768,7 @@
         <v>1.95</v>
       </c>
       <c r="W88">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8777,16 +8777,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8883,7 +8883,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7427171</v>
+        <v>7427132</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8895,49 +8895,49 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G90" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
         <v>191</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M90">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="N90">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O90">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
         <v>1.85</v>
@@ -8946,25 +8946,25 @@
         <v>1.95</v>
       </c>
       <c r="W90">
+        <v>0.571</v>
+      </c>
+      <c r="X90">
+        <v>-1</v>
+      </c>
+      <c r="Y90">
+        <v>-1</v>
+      </c>
+      <c r="Z90">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
-      <c r="Y90">
-        <v>-1</v>
-      </c>
-      <c r="Z90">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
-      <c r="AB90">
-        <v>0</v>
-      </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -10040,7 +10040,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7461372</v>
+        <v>7460143</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -10052,76 +10052,76 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K103">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L103">
         <v>3.2</v>
       </c>
       <c r="M103">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N103">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O103">
         <v>3.2</v>
       </c>
       <c r="P103">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q103">
         <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S103">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T103">
         <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W103">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z103">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -10218,7 +10218,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7460143</v>
+        <v>7461372</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -10230,76 +10230,76 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="G105" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H105">
+        <v>3</v>
+      </c>
+      <c r="I105">
         <v>0</v>
       </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
       <c r="J105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K105">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L105">
         <v>3.2</v>
       </c>
       <c r="M105">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O105">
         <v>3.2</v>
       </c>
       <c r="P105">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q105">
         <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T105">
         <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10485,7 +10485,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7464952</v>
+        <v>7464953</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10497,76 +10497,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="G108" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="H108">
         <v>2</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K108">
+        <v>2.2</v>
+      </c>
+      <c r="L108">
+        <v>3.1</v>
+      </c>
+      <c r="M108">
+        <v>3</v>
+      </c>
+      <c r="N108">
+        <v>2.7</v>
+      </c>
+      <c r="O108">
+        <v>3.1</v>
+      </c>
+      <c r="P108">
+        <v>2.45</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>2</v>
+      </c>
+      <c r="S108">
+        <v>1.8</v>
+      </c>
+      <c r="T108">
         <v>2.25</v>
       </c>
-      <c r="L108">
-        <v>3.25</v>
-      </c>
-      <c r="M108">
-        <v>2.75</v>
-      </c>
-      <c r="N108">
-        <v>1.85</v>
-      </c>
-      <c r="O108">
-        <v>3.5</v>
-      </c>
-      <c r="P108">
-        <v>3.5</v>
-      </c>
-      <c r="Q108">
-        <v>-0.5</v>
-      </c>
-      <c r="R108">
-        <v>1.95</v>
-      </c>
-      <c r="S108">
-        <v>1.85</v>
-      </c>
-      <c r="T108">
-        <v>2.75</v>
-      </c>
       <c r="U108">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10574,7 +10574,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7464953</v>
+        <v>7464954</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10586,76 +10586,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="G109" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K109">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L109">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M109">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="N109">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O109">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P109">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB109">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10663,7 +10663,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7464954</v>
+        <v>7464952</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10678,70 +10678,70 @@
         <v>90</v>
       </c>
       <c r="G110" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K110">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="L110">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M110">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="N110">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O110">
         <v>3.5</v>
       </c>
       <c r="P110">
+        <v>3.5</v>
+      </c>
+      <c r="Q110">
+        <v>-0.5</v>
+      </c>
+      <c r="R110">
+        <v>1.95</v>
+      </c>
+      <c r="S110">
         <v>1.85</v>
-      </c>
-      <c r="Q110">
-        <v>0.5</v>
-      </c>
-      <c r="R110">
-        <v>1.85</v>
-      </c>
-      <c r="S110">
-        <v>1.95</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA110">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="AC110">
         <v>-0.5</v>
@@ -12102,7 +12102,7 @@
         <v>69</v>
       </c>
       <c r="G126" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -12900,7 +12900,7 @@
         <v>45262.60416666666</v>
       </c>
       <c r="F135" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G135" t="s">
         <v>168</v>
@@ -15392,7 +15392,7 @@
         <v>45277.4375</v>
       </c>
       <c r="F163" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G163" t="s">
         <v>112</v>
@@ -15825,7 +15825,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7664701</v>
+        <v>7663729</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15837,76 +15837,76 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G168" t="s">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K168">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M168">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="N168">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="O168">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P168">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q168">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S168">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V168">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W168">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB168">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC168">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15914,7 +15914,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7663729</v>
+        <v>7663705</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15926,76 +15926,76 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="G169" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K169">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="L169">
         <v>3.2</v>
       </c>
       <c r="M169">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="N169">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O169">
         <v>3.2</v>
       </c>
       <c r="P169">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R169">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S169">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T169">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V169">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AB169">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC169">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16003,7 +16003,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7663705</v>
+        <v>7664701</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -16015,46 +16015,46 @@
         <v>45297.58333333334</v>
       </c>
       <c r="F170" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G170" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="H170">
         <v>2</v>
       </c>
       <c r="I170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K170">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="L170">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M170">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="N170">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="O170">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P170">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="Q170">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R170">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S170">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T170">
         <v>2.75</v>
@@ -16066,25 +16066,25 @@
         <v>1.925</v>
       </c>
       <c r="W170">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="X170">
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA170">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AC170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16905,7 +16905,7 @@
         <v>45304.60416666666</v>
       </c>
       <c r="F180" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G180" t="s">
         <v>58</v>
@@ -18495,7 +18495,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7748119</v>
+        <v>7748169</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18507,76 +18507,76 @@
         <v>45318.5</v>
       </c>
       <c r="F198" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G198" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198">
         <v>0</v>
       </c>
-      <c r="I198">
+      <c r="J198" t="s">
+        <v>191</v>
+      </c>
+      <c r="K198">
+        <v>2</v>
+      </c>
+      <c r="L198">
+        <v>3.25</v>
+      </c>
+      <c r="M198">
+        <v>3.25</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="O198">
+        <v>3.25</v>
+      </c>
+      <c r="P198">
+        <v>3.2</v>
+      </c>
+      <c r="Q198">
+        <v>-0.25</v>
+      </c>
+      <c r="R198">
+        <v>1.8</v>
+      </c>
+      <c r="S198">
+        <v>2</v>
+      </c>
+      <c r="T198">
+        <v>2.25</v>
+      </c>
+      <c r="U198">
+        <v>1.8</v>
+      </c>
+      <c r="V198">
+        <v>2</v>
+      </c>
+      <c r="W198">
         <v>1</v>
       </c>
-      <c r="J198" t="s">
-        <v>190</v>
-      </c>
-      <c r="K198">
-        <v>1.909</v>
-      </c>
-      <c r="L198">
-        <v>3.1</v>
-      </c>
-      <c r="M198">
-        <v>3.75</v>
-      </c>
-      <c r="N198">
-        <v>1.85</v>
-      </c>
-      <c r="O198">
-        <v>3.2</v>
-      </c>
-      <c r="P198">
-        <v>3.75</v>
-      </c>
-      <c r="Q198">
-        <v>-0.5</v>
-      </c>
-      <c r="R198">
-        <v>1.925</v>
-      </c>
-      <c r="S198">
-        <v>1.875</v>
-      </c>
-      <c r="T198">
-        <v>2.5</v>
-      </c>
-      <c r="U198">
-        <v>1.9</v>
-      </c>
-      <c r="V198">
-        <v>1.9</v>
-      </c>
-      <c r="W198">
-        <v>-1</v>
-      </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA198">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18584,7 +18584,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7748169</v>
+        <v>7748119</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18596,76 +18596,76 @@
         <v>45318.5</v>
       </c>
       <c r="F199" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G199" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
         <v>1</v>
       </c>
-      <c r="I199">
-        <v>0</v>
-      </c>
       <c r="J199" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K199">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L199">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M199">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N199">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O199">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P199">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S199">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z199">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18762,7 +18762,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7748114</v>
+        <v>7748113</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18774,55 +18774,55 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="G201" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="H201">
         <v>0</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J201" t="s">
         <v>190</v>
       </c>
       <c r="K201">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="L201">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M201">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="N201">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="O201">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="Q201">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R201">
+        <v>1.975</v>
+      </c>
+      <c r="S201">
         <v>1.825</v>
       </c>
-      <c r="S201">
-        <v>1.975</v>
-      </c>
       <c r="T201">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U201">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V201">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W201">
         <v>-1</v>
@@ -18831,19 +18831,19 @@
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>3</v>
+        <v>0.444</v>
       </c>
       <c r="Z201">
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC201">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18851,7 +18851,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7748113</v>
+        <v>7748114</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18863,55 +18863,55 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F202" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="G202" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="H202">
         <v>0</v>
       </c>
       <c r="I202">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
         <v>190</v>
       </c>
       <c r="K202">
+        <v>1.727</v>
+      </c>
+      <c r="L202">
+        <v>3.4</v>
+      </c>
+      <c r="M202">
+        <v>4.2</v>
+      </c>
+      <c r="N202">
+        <v>1.75</v>
+      </c>
+      <c r="O202">
+        <v>3.3</v>
+      </c>
+      <c r="P202">
         <v>4</v>
       </c>
-      <c r="L202">
-        <v>3.2</v>
-      </c>
-      <c r="M202">
-        <v>1.8</v>
-      </c>
-      <c r="N202">
-        <v>6.5</v>
-      </c>
-      <c r="O202">
-        <v>3.6</v>
-      </c>
-      <c r="P202">
-        <v>1.444</v>
-      </c>
       <c r="Q202">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R202">
+        <v>1.825</v>
+      </c>
+      <c r="S202">
         <v>1.975</v>
       </c>
-      <c r="S202">
+      <c r="T202">
+        <v>2</v>
+      </c>
+      <c r="U202">
         <v>1.825</v>
       </c>
-      <c r="T202">
-        <v>2.75</v>
-      </c>
-      <c r="U202">
-        <v>1.925</v>
-      </c>
       <c r="V202">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W202">
         <v>-1</v>
@@ -18920,19 +18920,19 @@
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>0.444</v>
+        <v>3</v>
       </c>
       <c r="Z202">
         <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB202">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -20542,7 +20542,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7782489</v>
+        <v>7782473</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20554,76 +20554,76 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G221" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221">
+        <v>3</v>
+      </c>
+      <c r="J221" t="s">
+        <v>190</v>
+      </c>
+      <c r="K221">
+        <v>4.75</v>
+      </c>
+      <c r="L221">
+        <v>3.5</v>
+      </c>
+      <c r="M221">
+        <v>1.615</v>
+      </c>
+      <c r="N221">
+        <v>4.333</v>
+      </c>
+      <c r="O221">
+        <v>3.5</v>
+      </c>
+      <c r="P221">
+        <v>1.666</v>
+      </c>
+      <c r="Q221">
+        <v>0.75</v>
+      </c>
+      <c r="R221">
+        <v>1.925</v>
+      </c>
+      <c r="S221">
+        <v>1.875</v>
+      </c>
+      <c r="T221">
+        <v>3</v>
+      </c>
+      <c r="U221">
+        <v>1.775</v>
+      </c>
+      <c r="V221">
+        <v>2.025</v>
+      </c>
+      <c r="W221">
+        <v>-1</v>
+      </c>
+      <c r="X221">
+        <v>-1</v>
+      </c>
+      <c r="Y221">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z221">
+        <v>-1</v>
+      </c>
+      <c r="AA221">
+        <v>0.875</v>
+      </c>
+      <c r="AB221">
         <v>0</v>
       </c>
-      <c r="J221" t="s">
-        <v>191</v>
-      </c>
-      <c r="K221">
-        <v>1.909</v>
-      </c>
-      <c r="L221">
-        <v>3.2</v>
-      </c>
-      <c r="M221">
-        <v>3.6</v>
-      </c>
-      <c r="N221">
-        <v>1.909</v>
-      </c>
-      <c r="O221">
-        <v>3.2</v>
-      </c>
-      <c r="P221">
-        <v>3.6</v>
-      </c>
-      <c r="Q221">
-        <v>-0.5</v>
-      </c>
-      <c r="R221">
-        <v>1.975</v>
-      </c>
-      <c r="S221">
-        <v>1.825</v>
-      </c>
-      <c r="T221">
-        <v>2.25</v>
-      </c>
-      <c r="U221">
-        <v>2</v>
-      </c>
-      <c r="V221">
-        <v>1.8</v>
-      </c>
-      <c r="W221">
-        <v>0.909</v>
-      </c>
-      <c r="X221">
-        <v>-1</v>
-      </c>
-      <c r="Y221">
-        <v>-1</v>
-      </c>
-      <c r="Z221">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA221">
-        <v>-1</v>
-      </c>
-      <c r="AB221">
-        <v>-1</v>
-      </c>
       <c r="AC221">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20631,7 +20631,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7782473</v>
+        <v>7782489</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20643,76 +20643,76 @@
         <v>45326.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G222" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="I222">
         <v>0</v>
       </c>
-      <c r="I222">
-        <v>3</v>
-      </c>
       <c r="J222" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K222">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="L222">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M222">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="N222">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="O222">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P222">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="Q222">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R222">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S222">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T222">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U222">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V222">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA222">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -22500,7 +22500,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7847714</v>
+        <v>7847716</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22512,76 +22512,76 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F243" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="G243" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J243" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K243">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L243">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M243">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N243">
+        <v>3.6</v>
+      </c>
+      <c r="O243">
+        <v>3.2</v>
+      </c>
+      <c r="P243">
         <v>1.909</v>
       </c>
-      <c r="O243">
-        <v>3.25</v>
-      </c>
-      <c r="P243">
-        <v>3.5</v>
-      </c>
       <c r="Q243">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R243">
+        <v>1.825</v>
+      </c>
+      <c r="S243">
         <v>1.975</v>
       </c>
-      <c r="S243">
-        <v>1.825</v>
-      </c>
       <c r="T243">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U243">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V243">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W243">
         <v>-1</v>
       </c>
       <c r="X243">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB243">
         <v>-1</v>
       </c>
       <c r="AC243">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22678,7 +22678,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7847712</v>
+        <v>7847714</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22690,76 +22690,76 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F245" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G245" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="H245">
         <v>1</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K245">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L245">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M245">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N245">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O245">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P245">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q245">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R245">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S245">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T245">
         <v>2.75</v>
       </c>
       <c r="U245">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V245">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W245">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X245">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y245">
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA245">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB245">
         <v>-1</v>
       </c>
       <c r="AC245">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22767,7 +22767,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7847716</v>
+        <v>7847712</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22779,76 +22779,76 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F246" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G246" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="I246">
         <v>0</v>
       </c>
-      <c r="I246">
-        <v>2</v>
-      </c>
       <c r="J246" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K246">
+        <v>1.666</v>
+      </c>
+      <c r="L246">
         <v>3.6</v>
       </c>
-      <c r="L246">
-        <v>3.2</v>
-      </c>
       <c r="M246">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="N246">
+        <v>1.666</v>
+      </c>
+      <c r="O246">
         <v>3.6</v>
       </c>
-      <c r="O246">
-        <v>3.2</v>
-      </c>
       <c r="P246">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="Q246">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R246">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T246">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U246">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V246">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W246">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA246">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB246">
         <v>-1</v>
       </c>
       <c r="AC246">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -23212,7 +23212,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7874399</v>
+        <v>7874234</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -23224,61 +23224,61 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F251" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="G251" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J251" t="s">
         <v>192</v>
       </c>
       <c r="K251">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L251">
+        <v>3.2</v>
+      </c>
+      <c r="M251">
         <v>4</v>
       </c>
-      <c r="M251">
-        <v>6.5</v>
-      </c>
       <c r="N251">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O251">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P251">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q251">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R251">
+        <v>1.85</v>
+      </c>
+      <c r="S251">
         <v>1.95</v>
-      </c>
-      <c r="S251">
-        <v>1.85</v>
       </c>
       <c r="T251">
         <v>2.75</v>
       </c>
       <c r="U251">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V251">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W251">
         <v>-1</v>
       </c>
       <c r="X251">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y251">
         <v>-1</v>
@@ -23287,13 +23287,13 @@
         <v>-1</v>
       </c>
       <c r="AA251">
+        <v>0.95</v>
+      </c>
+      <c r="AB251">
+        <v>-1</v>
+      </c>
+      <c r="AC251">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB251">
-        <v>-1</v>
-      </c>
-      <c r="AC251">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23301,7 +23301,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7874234</v>
+        <v>7874399</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -23313,61 +23313,61 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F252" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="G252" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" t="s">
         <v>192</v>
       </c>
       <c r="K252">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L252">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M252">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N252">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="O252">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P252">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q252">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R252">
+        <v>1.95</v>
+      </c>
+      <c r="S252">
         <v>1.85</v>
-      </c>
-      <c r="S252">
-        <v>1.95</v>
       </c>
       <c r="T252">
         <v>2.75</v>
       </c>
       <c r="U252">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V252">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W252">
         <v>-1</v>
       </c>
       <c r="X252">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="Y252">
         <v>-1</v>
@@ -23376,13 +23376,13 @@
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB252">
         <v>-1</v>
       </c>
       <c r="AC252">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23390,7 +23390,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7874249</v>
+        <v>7874335</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -23402,76 +23402,76 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F253" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G253" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K253">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L253">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M253">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N253">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O253">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P253">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q253">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R253">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S253">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T253">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U253">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V253">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W253">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X253">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
         <v>-1</v>
       </c>
       <c r="Z253">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA253">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB253">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC253">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -23479,7 +23479,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7874335</v>
+        <v>7874397</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23491,10 +23491,10 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F254" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G254" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="H254">
         <v>3</v>
@@ -23506,34 +23506,34 @@
         <v>191</v>
       </c>
       <c r="K254">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L254">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M254">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N254">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="O254">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P254">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q254">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R254">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S254">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T254">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U254">
         <v>1.95</v>
@@ -23542,7 +23542,7 @@
         <v>1.85</v>
       </c>
       <c r="W254">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X254">
         <v>-1</v>
@@ -23551,7 +23551,7 @@
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA254">
         <v>-1</v>
@@ -23568,7 +23568,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7874397</v>
+        <v>7874249</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23580,40 +23580,40 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F255" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G255" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="H255">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K255">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L255">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M255">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N255">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O255">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P255">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q255">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R255">
         <v>1.875</v>
@@ -23622,34 +23622,34 @@
         <v>1.925</v>
       </c>
       <c r="T255">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U255">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V255">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W255">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X255">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y255">
         <v>-1</v>
       </c>
       <c r="Z255">
+        <v>-0.5</v>
+      </c>
+      <c r="AA255">
+        <v>0.4625</v>
+      </c>
+      <c r="AB255">
+        <v>-1</v>
+      </c>
+      <c r="AC255">
         <v>0.875</v>
-      </c>
-      <c r="AA255">
-        <v>-1</v>
-      </c>
-      <c r="AB255">
-        <v>0.95</v>
-      </c>
-      <c r="AC255">
-        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23835,7 +23835,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7877631</v>
+        <v>7877630</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23847,73 +23847,73 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F258" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="G258" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="H258">
+        <v>2</v>
+      </c>
+      <c r="I258">
         <v>4</v>
       </c>
-      <c r="I258">
-        <v>2</v>
-      </c>
       <c r="J258" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K258">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L258">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M258">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="N258">
-        <v>1.909</v>
+        <v>2.55</v>
       </c>
       <c r="O258">
         <v>3.1</v>
       </c>
       <c r="P258">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q258">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R258">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S258">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T258">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U258">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V258">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W258">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X258">
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z258">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA258">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB258">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC258">
         <v>-1</v>
@@ -23924,7 +23924,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7877630</v>
+        <v>7877631</v>
       </c>
       <c r="C259" t="s">
         <v>28</v>
@@ -23936,73 +23936,73 @@
         <v>45347.45833333334</v>
       </c>
       <c r="F259" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="G259" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I259">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K259">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L259">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M259">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N259">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="O259">
         <v>3.1</v>
       </c>
       <c r="P259">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q259">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R259">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S259">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T259">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U259">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V259">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W259">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X259">
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z259">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA259">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB259">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC259">
         <v>-1</v>
@@ -24206,7 +24206,7 @@
         <v>33</v>
       </c>
       <c r="G262" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H262">
         <v>1</v>
@@ -24725,7 +24725,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7933288</v>
+        <v>7933408</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24737,10 +24737,10 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G268" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="H268">
         <v>2</v>
@@ -24752,43 +24752,43 @@
         <v>191</v>
       </c>
       <c r="K268">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L268">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M268">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N268">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O268">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P268">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q268">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R268">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S268">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T268">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U268">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V268">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W268">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X268">
         <v>-1</v>
@@ -24797,16 +24797,16 @@
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA268">
         <v>-1</v>
       </c>
       <c r="AB268">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC268">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24814,7 +24814,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7933408</v>
+        <v>7933407</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24826,58 +24826,58 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F269" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="G269" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269" t="s">
         <v>191</v>
       </c>
       <c r="K269">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L269">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M269">
+        <v>2.9</v>
+      </c>
+      <c r="N269">
+        <v>2.2</v>
+      </c>
+      <c r="O269">
         <v>3.2</v>
       </c>
-      <c r="N269">
-        <v>2.1</v>
-      </c>
-      <c r="O269">
-        <v>3.25</v>
-      </c>
       <c r="P269">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q269">
         <v>-0.25</v>
       </c>
       <c r="R269">
+        <v>1.975</v>
+      </c>
+      <c r="S269">
+        <v>1.825</v>
+      </c>
+      <c r="T269">
+        <v>2.5</v>
+      </c>
+      <c r="U269">
+        <v>1.95</v>
+      </c>
+      <c r="V269">
         <v>1.85</v>
       </c>
-      <c r="S269">
-        <v>1.95</v>
-      </c>
-      <c r="T269">
-        <v>2.25</v>
-      </c>
-      <c r="U269">
-        <v>1.9</v>
-      </c>
-      <c r="V269">
-        <v>1.9</v>
-      </c>
       <c r="W269">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="X269">
         <v>-1</v>
@@ -24886,13 +24886,13 @@
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA269">
         <v>-1</v>
       </c>
       <c r="AB269">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC269">
         <v>-1</v>
@@ -24903,7 +24903,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7933407</v>
+        <v>7933345</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24915,73 +24915,73 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F270" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G270" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="H270">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I270">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J270" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K270">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L270">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M270">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="N270">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="O270">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P270">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q270">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R270">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S270">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T270">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U270">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V270">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W270">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X270">
         <v>-1</v>
       </c>
       <c r="Y270">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z270">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA270">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB270">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC270">
         <v>-1</v>
@@ -24992,7 +24992,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7933345</v>
+        <v>7933344</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -25004,46 +25004,46 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F271" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="G271" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="H271">
         <v>1</v>
       </c>
       <c r="I271">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J271" t="s">
         <v>190</v>
       </c>
       <c r="K271">
-        <v>1.666</v>
+        <v>4.5</v>
       </c>
       <c r="L271">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M271">
-        <v>4.75</v>
+        <v>1.727</v>
       </c>
       <c r="N271">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="O271">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P271">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q271">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R271">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S271">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T271">
         <v>2.25</v>
@@ -25061,13 +25061,13 @@
         <v>-1</v>
       </c>
       <c r="Y271">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="Z271">
         <v>-1</v>
       </c>
       <c r="AA271">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB271">
         <v>1</v>
@@ -25081,7 +25081,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7933344</v>
+        <v>7933288</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -25093,49 +25093,49 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="G272" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="H272">
+        <v>2</v>
+      </c>
+      <c r="I272">
         <v>1</v>
       </c>
-      <c r="I272">
-        <v>2</v>
-      </c>
       <c r="J272" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K272">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="L272">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M272">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="N272">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="O272">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P272">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q272">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R272">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S272">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T272">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U272">
         <v>2</v>
@@ -25144,25 +25144,25 @@
         <v>1.8</v>
       </c>
       <c r="W272">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X272">
         <v>-1</v>
       </c>
       <c r="Y272">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z272">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA272">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC272">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -25882,7 +25882,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>7965564</v>
+        <v>7965566</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25894,76 +25894,76 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F281" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="G281" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="H281">
         <v>1</v>
       </c>
       <c r="I281">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J281" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K281">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="L281">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M281">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N281">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="O281">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P281">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q281">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R281">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S281">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T281">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U281">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V281">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W281">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X281">
         <v>-1</v>
       </c>
       <c r="Y281">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA281">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC281">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25971,7 +25971,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7965566</v>
+        <v>7965564</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25983,76 +25983,76 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F282" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G282" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="H282">
         <v>1</v>
       </c>
       <c r="I282">
+        <v>3</v>
+      </c>
+      <c r="J282" t="s">
+        <v>190</v>
+      </c>
+      <c r="K282">
+        <v>2.5</v>
+      </c>
+      <c r="L282">
+        <v>3.2</v>
+      </c>
+      <c r="M282">
+        <v>2.5</v>
+      </c>
+      <c r="N282">
+        <v>2.5</v>
+      </c>
+      <c r="O282">
+        <v>3.2</v>
+      </c>
+      <c r="P282">
+        <v>2.5</v>
+      </c>
+      <c r="Q282">
         <v>0</v>
       </c>
-      <c r="J282" t="s">
-        <v>191</v>
-      </c>
-      <c r="K282">
-        <v>1.75</v>
-      </c>
-      <c r="L282">
-        <v>3.6</v>
-      </c>
-      <c r="M282">
-        <v>3.75</v>
-      </c>
-      <c r="N282">
-        <v>1.75</v>
-      </c>
-      <c r="O282">
-        <v>3.6</v>
-      </c>
-      <c r="P282">
-        <v>3.75</v>
-      </c>
-      <c r="Q282">
-        <v>-0.5</v>
-      </c>
       <c r="R282">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S282">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T282">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U282">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V282">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W282">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X282">
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z282">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA282">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB282">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC282">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -26149,7 +26149,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7966819</v>
+        <v>7966815</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -26161,76 +26161,76 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F284" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="G284" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="H284">
+        <v>2</v>
+      </c>
+      <c r="I284">
         <v>1</v>
       </c>
-      <c r="I284">
-        <v>2</v>
-      </c>
       <c r="J284" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K284">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="L284">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M284">
+        <v>2.375</v>
+      </c>
+      <c r="N284">
+        <v>2.45</v>
+      </c>
+      <c r="O284">
         <v>3.5</v>
       </c>
-      <c r="N284">
-        <v>1.909</v>
-      </c>
-      <c r="O284">
-        <v>3.25</v>
-      </c>
       <c r="P284">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q284">
+        <v>0</v>
+      </c>
+      <c r="R284">
+        <v>1.95</v>
+      </c>
+      <c r="S284">
+        <v>1.85</v>
+      </c>
+      <c r="T284">
+        <v>2.75</v>
+      </c>
+      <c r="U284">
+        <v>1.9</v>
+      </c>
+      <c r="V284">
+        <v>1.9</v>
+      </c>
+      <c r="W284">
+        <v>1.45</v>
+      </c>
+      <c r="X284">
+        <v>-1</v>
+      </c>
+      <c r="Y284">
+        <v>-1</v>
+      </c>
+      <c r="Z284">
+        <v>0.95</v>
+      </c>
+      <c r="AA284">
+        <v>-1</v>
+      </c>
+      <c r="AB284">
+        <v>0.45</v>
+      </c>
+      <c r="AC284">
         <v>-0.5</v>
-      </c>
-      <c r="R284">
-        <v>1.975</v>
-      </c>
-      <c r="S284">
-        <v>1.825</v>
-      </c>
-      <c r="T284">
-        <v>2.5</v>
-      </c>
-      <c r="U284">
-        <v>1.85</v>
-      </c>
-      <c r="V284">
-        <v>1.95</v>
-      </c>
-      <c r="W284">
-        <v>-1</v>
-      </c>
-      <c r="X284">
-        <v>-1</v>
-      </c>
-      <c r="Y284">
-        <v>2.5</v>
-      </c>
-      <c r="Z284">
-        <v>-1</v>
-      </c>
-      <c r="AA284">
-        <v>0.825</v>
-      </c>
-      <c r="AB284">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC284">
-        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -26238,7 +26238,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7965562</v>
+        <v>7966819</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -26250,76 +26250,76 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F285" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G285" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J285" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K285">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L285">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M285">
         <v>3.5</v>
       </c>
       <c r="N285">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="O285">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P285">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q285">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R285">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S285">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T285">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U285">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V285">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W285">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z285">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA285">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB285">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC285">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26327,7 +26327,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7966815</v>
+        <v>7965562</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -26339,58 +26339,58 @@
         <v>45367.58333333334</v>
       </c>
       <c r="F286" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="G286" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="H286">
         <v>2</v>
       </c>
       <c r="I286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286" t="s">
         <v>191</v>
       </c>
       <c r="K286">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L286">
+        <v>3.6</v>
+      </c>
+      <c r="M286">
         <v>3.5</v>
       </c>
-      <c r="M286">
-        <v>2.375</v>
-      </c>
       <c r="N286">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O286">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P286">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q286">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R286">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S286">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T286">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U286">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V286">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W286">
-        <v>1.45</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X286">
         <v>-1</v>
@@ -26399,16 +26399,16 @@
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA286">
         <v>-1</v>
       </c>
       <c r="AB286">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AC286">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -27306,7 +27306,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7995507</v>
+        <v>7995445</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -27318,76 +27318,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F297" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="G297" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297">
         <v>1</v>
       </c>
       <c r="J297" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K297">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L297">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M297">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N297">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O297">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P297">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q297">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R297">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S297">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T297">
         <v>2.25</v>
       </c>
       <c r="U297">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V297">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W297">
         <v>-1</v>
       </c>
       <c r="X297">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z297">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB297">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC297">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -27395,7 +27395,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7995536</v>
+        <v>7995507</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -27407,76 +27407,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F298" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="G298" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J298" t="s">
         <v>192</v>
       </c>
       <c r="K298">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="L298">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="M298">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="N298">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="O298">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P298">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="Q298">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R298">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S298">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T298">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U298">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V298">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W298">
         <v>-1</v>
       </c>
       <c r="X298">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="Y298">
         <v>-1</v>
       </c>
       <c r="Z298">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA298">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB298">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC298">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27573,7 +27573,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7995445</v>
+        <v>7995536</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27585,76 +27585,76 @@
         <v>45374.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G300" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J300" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K300">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="L300">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M300">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="N300">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="O300">
         <v>3.2</v>
       </c>
       <c r="P300">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="Q300">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R300">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S300">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T300">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U300">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V300">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W300">
         <v>-1</v>
       </c>
       <c r="X300">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y300">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z300">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA300">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB300">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC300">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -28908,7 +28908,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>8061603</v>
+        <v>8055249</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28920,73 +28920,73 @@
         <v>45388.54166666666</v>
       </c>
       <c r="F315" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G315" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J315" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K315">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="L315">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M315">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="N315">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="O315">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P315">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q315">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R315">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S315">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T315">
         <v>2.25</v>
       </c>
       <c r="U315">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V315">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W315">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X315">
         <v>-1</v>
       </c>
       <c r="Y315">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z315">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA315">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB315">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC315">
         <v>-1</v>
@@ -28997,7 +28997,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>8055249</v>
+        <v>8055248</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -29009,73 +29009,73 @@
         <v>45388.54166666666</v>
       </c>
       <c r="F316" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="G316" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="H316">
+        <v>3</v>
+      </c>
+      <c r="I316">
         <v>1</v>
       </c>
-      <c r="I316">
-        <v>2</v>
-      </c>
       <c r="J316" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K316">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="L316">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M316">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="N316">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O316">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P316">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q316">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R316">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S316">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T316">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U316">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V316">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W316">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X316">
         <v>-1</v>
       </c>
       <c r="Y316">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z316">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA316">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB316">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC316">
         <v>-1</v>
@@ -29086,7 +29086,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>8055248</v>
+        <v>8055170</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -29098,76 +29098,76 @@
         <v>45388.54166666666</v>
       </c>
       <c r="F317" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="G317" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="H317">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I317">
         <v>1</v>
       </c>
       <c r="J317" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K317">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L317">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M317">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="N317">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O317">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P317">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q317">
         <v>-0.25</v>
       </c>
       <c r="R317">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S317">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T317">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U317">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V317">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W317">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X317">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA317">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB317">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC317">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -29175,7 +29175,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>8055170</v>
+        <v>8061603</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -29187,76 +29187,76 @@
         <v>45388.54166666666</v>
       </c>
       <c r="F318" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="G318" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318">
         <v>1</v>
       </c>
       <c r="J318" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K318">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L318">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M318">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N318">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O318">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P318">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q318">
         <v>-0.25</v>
       </c>
       <c r="R318">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S318">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T318">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U318">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V318">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W318">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X318">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA318">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB318">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC318">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:29">

--- a/France National 3/France National 3.xlsx
+++ b/France National 3/France National 3.xlsx
@@ -547,19 +547,19 @@
     <t>Union Cosnoise Sportive</t>
   </si>
   <si>
-    <t>SaintPaulSport</t>
-  </si>
-  <si>
     <t>CA Pontarlier</t>
   </si>
   <si>
-    <t>Niort II</t>
+    <t>SaintPaulSport</t>
   </si>
   <si>
     <t>Stade Pontivy</t>
   </si>
   <si>
     <t>Vesoul</t>
+  </si>
+  <si>
+    <t>Niort II</t>
   </si>
   <si>
     <t>US Pays de Cassel</t>
@@ -16098,7 +16098,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7690705</v>
+        <v>7690745</v>
       </c>
       <c r="C177" t="s">
         <v>27</v>
@@ -16107,13 +16107,13 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F177" t="s">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16122,43 +16122,43 @@
         <v>191</v>
       </c>
       <c r="J177">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="K177">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L177">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="M177">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="N177">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O177">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="P177">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q177">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R177">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S177">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T177">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V177">
-        <v>0.333</v>
+        <v>0.615</v>
       </c>
       <c r="W177">
         <v>-1</v>
@@ -16167,16 +16167,16 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z177">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB177">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -16196,7 +16196,7 @@
         <v>67</v>
       </c>
       <c r="F178" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -16270,7 +16270,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7690745</v>
+        <v>7690705</v>
       </c>
       <c r="C179" t="s">
         <v>27</v>
@@ -16279,13 +16279,13 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F179" t="s">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="G179">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16294,43 +16294,43 @@
         <v>191</v>
       </c>
       <c r="J179">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="K179">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L179">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="M179">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="N179">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O179">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="P179">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q179">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R179">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S179">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T179">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U179">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>0.615</v>
+        <v>0.333</v>
       </c>
       <c r="W179">
         <v>-1</v>
@@ -16339,16 +16339,16 @@
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA179">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -16872,7 +16872,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7718935</v>
+        <v>7718968</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
@@ -16881,49 +16881,49 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E186" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="F186" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="G186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H186">
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J186">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="K186">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L186">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="M186">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="N186">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O186">
-        <v>4.75</v>
+        <v>1.666</v>
       </c>
       <c r="P186">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Q186">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R186">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S186">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T186">
         <v>1.9</v>
@@ -16932,25 +16932,25 @@
         <v>1.9</v>
       </c>
       <c r="V186">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16958,7 +16958,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7718968</v>
+        <v>7718936</v>
       </c>
       <c r="C187" t="s">
         <v>27</v>
@@ -16967,76 +16967,76 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E187" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="F187" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I187" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J187">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="K187">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L187">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="M187">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="N187">
         <v>3.6</v>
       </c>
       <c r="O187">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="P187">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q187">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R187">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S187">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T187">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U187">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V187">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W187">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB187">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -17044,7 +17044,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7718936</v>
+        <v>7718934</v>
       </c>
       <c r="C188" t="s">
         <v>27</v>
@@ -17053,58 +17053,58 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F188" t="s">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="G188">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I188" t="s">
         <v>191</v>
       </c>
       <c r="J188">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="K188">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L188">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="M188">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="N188">
         <v>3.6</v>
       </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="P188">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q188">
+        <v>1.95</v>
+      </c>
+      <c r="R188">
         <v>1.85</v>
       </c>
-      <c r="R188">
-        <v>1.95</v>
-      </c>
       <c r="S188">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T188">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U188">
         <v>1.95</v>
       </c>
       <c r="V188">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="W188">
         <v>-1</v>
@@ -17113,16 +17113,16 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.8500000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="189" spans="1:28">
@@ -17130,7 +17130,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7718934</v>
+        <v>7718933</v>
       </c>
       <c r="C189" t="s">
         <v>27</v>
@@ -17139,10 +17139,10 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E189" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F189" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -17154,43 +17154,43 @@
         <v>191</v>
       </c>
       <c r="J189">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="K189">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L189">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="M189">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="N189">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O189">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="P189">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q189">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R189">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S189">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T189">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="U189">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V189">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="W189">
         <v>-1</v>
@@ -17199,16 +17199,16 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB189">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -17216,7 +17216,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7718933</v>
+        <v>7718964</v>
       </c>
       <c r="C190" t="s">
         <v>27</v>
@@ -17225,13 +17225,13 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E190" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F190" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="G190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17240,43 +17240,43 @@
         <v>191</v>
       </c>
       <c r="J190">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="K190">
         <v>3.25</v>
       </c>
       <c r="L190">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="M190">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="N190">
         <v>3.25</v>
       </c>
       <c r="O190">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="P190">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q190">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="R190">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S190">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T190">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U190">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V190">
-        <v>1.25</v>
+        <v>0.833</v>
       </c>
       <c r="W190">
         <v>-1</v>
@@ -17285,13 +17285,13 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB190">
         <v>-1</v>
@@ -17302,7 +17302,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7718964</v>
+        <v>7718935</v>
       </c>
       <c r="C191" t="s">
         <v>27</v>
@@ -17311,7 +17311,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E191" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F191" t="s">
         <v>181</v>
@@ -17326,43 +17326,43 @@
         <v>191</v>
       </c>
       <c r="J191">
-        <v>1.833</v>
+        <v>1.571</v>
       </c>
       <c r="K191">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="L191">
+        <v>4.75</v>
+      </c>
+      <c r="M191">
+        <v>1.571</v>
+      </c>
+      <c r="N191">
         <v>3.8</v>
       </c>
-      <c r="M191">
-        <v>1.833</v>
-      </c>
-      <c r="N191">
-        <v>3.25</v>
-      </c>
       <c r="O191">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P191">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q191">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R191">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S191">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T191">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U191">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>0.833</v>
+        <v>0.571</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17371,13 +17371,13 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB191">
         <v>-1</v>
@@ -17904,7 +17904,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7748169</v>
+        <v>7748119</v>
       </c>
       <c r="C198" t="s">
         <v>27</v>
@@ -17913,76 +17913,76 @@
         <v>45318.5</v>
       </c>
       <c r="E198" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F198" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
         <v>1</v>
       </c>
-      <c r="H198">
-        <v>0</v>
-      </c>
       <c r="I198" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J198">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K198">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L198">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M198">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="N198">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O198">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P198">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q198">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S198">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T198">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U198">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y198">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA198">
         <v>-1</v>
       </c>
       <c r="AB198">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:28">
@@ -17990,7 +17990,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7748119</v>
+        <v>7748169</v>
       </c>
       <c r="C199" t="s">
         <v>27</v>
@@ -17999,76 +17999,76 @@
         <v>45318.5</v>
       </c>
       <c r="E199" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F199" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199">
         <v>0</v>
       </c>
-      <c r="H199">
+      <c r="I199" t="s">
+        <v>191</v>
+      </c>
+      <c r="J199">
+        <v>2</v>
+      </c>
+      <c r="K199">
+        <v>3.25</v>
+      </c>
+      <c r="L199">
+        <v>3.25</v>
+      </c>
+      <c r="M199">
+        <v>2</v>
+      </c>
+      <c r="N199">
+        <v>3.25</v>
+      </c>
+      <c r="O199">
+        <v>3.2</v>
+      </c>
+      <c r="P199">
+        <v>-0.25</v>
+      </c>
+      <c r="Q199">
+        <v>1.8</v>
+      </c>
+      <c r="R199">
+        <v>2</v>
+      </c>
+      <c r="S199">
+        <v>2.25</v>
+      </c>
+      <c r="T199">
+        <v>1.8</v>
+      </c>
+      <c r="U199">
+        <v>2</v>
+      </c>
+      <c r="V199">
         <v>1</v>
       </c>
-      <c r="I199" t="s">
-        <v>190</v>
-      </c>
-      <c r="J199">
-        <v>1.909</v>
-      </c>
-      <c r="K199">
-        <v>3.1</v>
-      </c>
-      <c r="L199">
-        <v>3.75</v>
-      </c>
-      <c r="M199">
-        <v>1.85</v>
-      </c>
-      <c r="N199">
-        <v>3.2</v>
-      </c>
-      <c r="O199">
-        <v>3.75</v>
-      </c>
-      <c r="P199">
-        <v>-0.5</v>
-      </c>
-      <c r="Q199">
-        <v>1.925</v>
-      </c>
-      <c r="R199">
-        <v>1.875</v>
-      </c>
-      <c r="S199">
-        <v>2.5</v>
-      </c>
-      <c r="T199">
-        <v>1.9</v>
-      </c>
-      <c r="U199">
-        <v>1.9</v>
-      </c>
-      <c r="V199">
-        <v>-1</v>
-      </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z199">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:28">
@@ -18850,7 +18850,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7779994</v>
+        <v>7779755</v>
       </c>
       <c r="C209" t="s">
         <v>27</v>
@@ -18859,40 +18859,40 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E209" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="G209">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J209">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="K209">
         <v>3.2</v>
       </c>
       <c r="L209">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="M209">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N209">
         <v>3.2</v>
       </c>
       <c r="O209">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="P209">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q209">
         <v>1.8</v>
@@ -18901,7 +18901,7 @@
         <v>2</v>
       </c>
       <c r="S209">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T209">
         <v>1.85</v>
@@ -18913,22 +18913,22 @@
         <v>-1</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X209">
+        <v>-1</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
+        <v>-1</v>
+      </c>
+      <c r="AB209">
         <v>0.95</v>
-      </c>
-      <c r="Y209">
-        <v>-1</v>
-      </c>
-      <c r="Z209">
-        <v>1</v>
-      </c>
-      <c r="AA209">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB209">
-        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -18936,7 +18936,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7779756</v>
+        <v>7779994</v>
       </c>
       <c r="C210" t="s">
         <v>27</v>
@@ -18945,55 +18945,55 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E210" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F210" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="G210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210" t="s">
         <v>190</v>
       </c>
       <c r="J210">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="K210">
         <v>3.2</v>
       </c>
       <c r="L210">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="M210">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N210">
         <v>3.2</v>
       </c>
       <c r="O210">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="P210">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q210">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="R210">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S210">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T210">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U210">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V210">
         <v>-1</v>
@@ -19002,19 +19002,19 @@
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>1.8</v>
+        <v>0.95</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB210">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:28">
@@ -19022,7 +19022,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7779754</v>
+        <v>7779756</v>
       </c>
       <c r="C211" t="s">
         <v>27</v>
@@ -19031,76 +19031,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E211" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="F211" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="G211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J211">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="K211">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="L211">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="M211">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="N211">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="O211">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="P211">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q211">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R211">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S211">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T211">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U211">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V211">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -19108,7 +19108,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7779755</v>
+        <v>7779754</v>
       </c>
       <c r="C212" t="s">
         <v>27</v>
@@ -19117,76 +19117,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E212" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="F212" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J212">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="K212">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="L212">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="M212">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="N212">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="O212">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="P212">
+        <v>-1.75</v>
+      </c>
+      <c r="Q212">
+        <v>1.9</v>
+      </c>
+      <c r="R212">
+        <v>1.9</v>
+      </c>
+      <c r="S212">
+        <v>3</v>
+      </c>
+      <c r="T212">
+        <v>1.9</v>
+      </c>
+      <c r="U212">
+        <v>1.9</v>
+      </c>
+      <c r="V212">
+        <v>0.25</v>
+      </c>
+      <c r="W212">
+        <v>-1</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA212">
         <v>0</v>
       </c>
-      <c r="Q212">
-        <v>1.8</v>
-      </c>
-      <c r="R212">
-        <v>2</v>
-      </c>
-      <c r="S212">
-        <v>2.5</v>
-      </c>
-      <c r="T212">
-        <v>1.85</v>
-      </c>
-      <c r="U212">
-        <v>1.95</v>
-      </c>
-      <c r="V212">
-        <v>-1</v>
-      </c>
-      <c r="W212">
-        <v>2.2</v>
-      </c>
-      <c r="X212">
-        <v>-1</v>
-      </c>
-      <c r="Y212">
+      <c r="AB212">
         <v>0</v>
-      </c>
-      <c r="Z212">
-        <v>0</v>
-      </c>
-      <c r="AA212">
-        <v>-1</v>
-      </c>
-      <c r="AB212">
-        <v>0.95</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -19194,7 +19194,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7779988</v>
+        <v>7779757</v>
       </c>
       <c r="C213" t="s">
         <v>27</v>
@@ -19203,13 +19203,13 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E213" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="F213" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="G213">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -19218,43 +19218,43 @@
         <v>191</v>
       </c>
       <c r="J213">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K213">
         <v>3.3</v>
       </c>
       <c r="L213">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M213">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N213">
         <v>3.3</v>
       </c>
       <c r="O213">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P213">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q213">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R213">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S213">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T213">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U213">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V213">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19263,16 +19263,16 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -19280,7 +19280,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7779757</v>
+        <v>7779988</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -19289,13 +19289,13 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E214" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="F214" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="G214">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19304,43 +19304,43 @@
         <v>191</v>
       </c>
       <c r="J214">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K214">
         <v>3.3</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M214">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N214">
         <v>3.3</v>
       </c>
       <c r="O214">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P214">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q214">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S214">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T214">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U214">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V214">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19349,16 +19349,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -19366,7 +19366,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7779758</v>
+        <v>7779989</v>
       </c>
       <c r="C215" t="s">
         <v>27</v>
@@ -19375,76 +19375,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E215" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F215" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="G215">
         <v>0</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I215" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J215">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="K215">
         <v>3.4</v>
       </c>
       <c r="L215">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M215">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="N215">
         <v>3.4</v>
       </c>
       <c r="O215">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P215">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T215">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U215">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
         <v>-1</v>
       </c>
       <c r="W215">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19452,7 +19452,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7779989</v>
+        <v>7779990</v>
       </c>
       <c r="C216" t="s">
         <v>27</v>
@@ -19461,76 +19461,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E216" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="F216" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
         <v>0</v>
       </c>
-      <c r="H216">
+      <c r="I216" t="s">
+        <v>191</v>
+      </c>
+      <c r="J216">
+        <v>1.571</v>
+      </c>
+      <c r="K216">
+        <v>3.5</v>
+      </c>
+      <c r="L216">
+        <v>5.25</v>
+      </c>
+      <c r="M216">
+        <v>1.571</v>
+      </c>
+      <c r="N216">
+        <v>3.5</v>
+      </c>
+      <c r="O216">
+        <v>5.25</v>
+      </c>
+      <c r="P216">
+        <v>-0.75</v>
+      </c>
+      <c r="Q216">
+        <v>1.725</v>
+      </c>
+      <c r="R216">
+        <v>1.975</v>
+      </c>
+      <c r="S216">
+        <v>2.25</v>
+      </c>
+      <c r="T216">
+        <v>1.8</v>
+      </c>
+      <c r="U216">
+        <v>2</v>
+      </c>
+      <c r="V216">
+        <v>0.571</v>
+      </c>
+      <c r="W216">
+        <v>-1</v>
+      </c>
+      <c r="X216">
+        <v>-1</v>
+      </c>
+      <c r="Y216">
+        <v>0.3625</v>
+      </c>
+      <c r="Z216">
+        <v>-0.5</v>
+      </c>
+      <c r="AA216">
+        <v>-1</v>
+      </c>
+      <c r="AB216">
         <v>1</v>
-      </c>
-      <c r="I216" t="s">
-        <v>190</v>
-      </c>
-      <c r="J216">
-        <v>1.85</v>
-      </c>
-      <c r="K216">
-        <v>3.4</v>
-      </c>
-      <c r="L216">
-        <v>3.6</v>
-      </c>
-      <c r="M216">
-        <v>1.85</v>
-      </c>
-      <c r="N216">
-        <v>3.4</v>
-      </c>
-      <c r="O216">
-        <v>3.6</v>
-      </c>
-      <c r="P216">
-        <v>-0.5</v>
-      </c>
-      <c r="Q216">
-        <v>1.9</v>
-      </c>
-      <c r="R216">
-        <v>1.9</v>
-      </c>
-      <c r="S216">
-        <v>3</v>
-      </c>
-      <c r="T216">
-        <v>1.95</v>
-      </c>
-      <c r="U216">
-        <v>1.85</v>
-      </c>
-      <c r="V216">
-        <v>-1</v>
-      </c>
-      <c r="W216">
-        <v>-1</v>
-      </c>
-      <c r="X216">
-        <v>2.6</v>
-      </c>
-      <c r="Y216">
-        <v>-1</v>
-      </c>
-      <c r="Z216">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA216">
-        <v>-1</v>
-      </c>
-      <c r="AB216">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -19538,7 +19538,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7779990</v>
+        <v>7779991</v>
       </c>
       <c r="C217" t="s">
         <v>27</v>
@@ -19547,46 +19547,46 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="F217" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="G217">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J217">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="K217">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L217">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="M217">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="N217">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O217">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="P217">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q217">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="R217">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S217">
         <v>2.25</v>
@@ -19598,25 +19598,25 @@
         <v>2</v>
       </c>
       <c r="V217">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W217">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0.3625</v>
+        <v>0.5</v>
       </c>
       <c r="Z217">
         <v>-0.5</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB217">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="218" spans="1:28">
@@ -19624,7 +19624,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7779991</v>
+        <v>7779993</v>
       </c>
       <c r="C218" t="s">
         <v>27</v>
@@ -19633,49 +19633,49 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E218" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F218" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G218">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I218" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J218">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="K218">
         <v>3.2</v>
       </c>
       <c r="L218">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="M218">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="N218">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O218">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="P218">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q218">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R218">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S218">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T218">
         <v>1.8</v>
@@ -19687,22 +19687,22 @@
         <v>-1</v>
       </c>
       <c r="W218">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y218">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA218">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB218">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:28">
@@ -19710,7 +19710,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7779993</v>
+        <v>7779758</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -19719,76 +19719,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E219" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="F219" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="G219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J219">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="K219">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L219">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="M219">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="N219">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O219">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="P219">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q219">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R219">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S219">
         <v>2.75</v>
       </c>
       <c r="T219">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U219">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V219">
         <v>-1</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X219">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA219">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -26516,7 +26516,7 @@
         <v>66</v>
       </c>
       <c r="F298" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G298">
         <v>3</v>
@@ -31922,7 +31922,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>8143909</v>
+        <v>8143895</v>
       </c>
       <c r="C361" t="s">
         <v>27</v>
@@ -31931,58 +31931,58 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E361" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F361" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="G361">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I361" t="s">
         <v>191</v>
       </c>
       <c r="J361">
-        <v>1.333</v>
+        <v>1.8</v>
       </c>
       <c r="K361">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="L361">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M361">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="N361">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="O361">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P361">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q361">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R361">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S361">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T361">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U361">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V361">
-        <v>0.363</v>
+        <v>0.8</v>
       </c>
       <c r="W361">
         <v>-1</v>
@@ -31991,16 +31991,16 @@
         <v>-1</v>
       </c>
       <c r="Y361">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z361">
         <v>-1</v>
       </c>
       <c r="AA361">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB361">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="362" spans="1:28">
@@ -32008,7 +32008,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>8143895</v>
+        <v>8143894</v>
       </c>
       <c r="C362" t="s">
         <v>27</v>
@@ -32017,58 +32017,58 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E362" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="F362" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="G362">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="s">
         <v>191</v>
       </c>
       <c r="J362">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K362">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L362">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M362">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="N362">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O362">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P362">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q362">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R362">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S362">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T362">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U362">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V362">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="W362">
         <v>-1</v>
@@ -32077,16 +32077,16 @@
         <v>-1</v>
       </c>
       <c r="Y362">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z362">
         <v>-1</v>
       </c>
       <c r="AA362">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB362">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="363" spans="1:28">
@@ -32094,7 +32094,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>8143894</v>
+        <v>8143909</v>
       </c>
       <c r="C363" t="s">
         <v>27</v>
@@ -32103,10 +32103,10 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E363" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="F363" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="G363">
         <v>3</v>
@@ -32118,34 +32118,34 @@
         <v>191</v>
       </c>
       <c r="J363">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="K363">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="L363">
+        <v>6</v>
+      </c>
+      <c r="M363">
+        <v>1.363</v>
+      </c>
+      <c r="N363">
+        <v>5</v>
+      </c>
+      <c r="O363">
+        <v>5.5</v>
+      </c>
+      <c r="P363">
+        <v>-1.5</v>
+      </c>
+      <c r="Q363">
+        <v>1.975</v>
+      </c>
+      <c r="R363">
+        <v>1.825</v>
+      </c>
+      <c r="S363">
         <v>3</v>
-      </c>
-      <c r="M363">
-        <v>2.1</v>
-      </c>
-      <c r="N363">
-        <v>3.3</v>
-      </c>
-      <c r="O363">
-        <v>3</v>
-      </c>
-      <c r="P363">
-        <v>-0.25</v>
-      </c>
-      <c r="Q363">
-        <v>1.9</v>
-      </c>
-      <c r="R363">
-        <v>1.9</v>
-      </c>
-      <c r="S363">
-        <v>2.5</v>
       </c>
       <c r="T363">
         <v>1.9</v>
@@ -32154,7 +32154,7 @@
         <v>1.9</v>
       </c>
       <c r="V363">
-        <v>1.1</v>
+        <v>0.363</v>
       </c>
       <c r="W363">
         <v>-1</v>
@@ -32163,16 +32163,16 @@
         <v>-1</v>
       </c>
       <c r="Y363">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z363">
         <v>-1</v>
       </c>
       <c r="AA363">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB363">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:28">

--- a/France National 3/France National 3.xlsx
+++ b/France National 3/France National 3.xlsx
@@ -547,19 +547,19 @@
     <t>Union Cosnoise Sportive</t>
   </si>
   <si>
+    <t>SaintPaulSport</t>
+  </si>
+  <si>
     <t>CA Pontarlier</t>
   </si>
   <si>
-    <t>SaintPaulSport</t>
+    <t>Niort II</t>
   </si>
   <si>
     <t>Stade Pontivy</t>
   </si>
   <si>
     <t>Vesoul</t>
-  </si>
-  <si>
-    <t>Niort II</t>
   </si>
   <si>
     <t>US Pays de Cassel</t>
@@ -16098,7 +16098,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7690745</v>
+        <v>7690705</v>
       </c>
       <c r="C177" t="s">
         <v>27</v>
@@ -16107,13 +16107,13 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F177" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="G177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16122,43 +16122,43 @@
         <v>191</v>
       </c>
       <c r="J177">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="K177">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L177">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="M177">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="N177">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O177">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="P177">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q177">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R177">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S177">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T177">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U177">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V177">
-        <v>0.615</v>
+        <v>0.333</v>
       </c>
       <c r="W177">
         <v>-1</v>
@@ -16167,16 +16167,16 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -16196,7 +16196,7 @@
         <v>67</v>
       </c>
       <c r="F178" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -16270,7 +16270,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7690705</v>
+        <v>7690745</v>
       </c>
       <c r="C179" t="s">
         <v>27</v>
@@ -16279,13 +16279,13 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F179" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -16294,43 +16294,43 @@
         <v>191</v>
       </c>
       <c r="J179">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="K179">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L179">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="M179">
-        <v>1.333</v>
+        <v>1.615</v>
       </c>
       <c r="N179">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O179">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="P179">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q179">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R179">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S179">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T179">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U179">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V179">
-        <v>0.333</v>
+        <v>0.615</v>
       </c>
       <c r="W179">
         <v>-1</v>
@@ -16339,16 +16339,16 @@
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z179">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB179">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -16872,7 +16872,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7718968</v>
+        <v>7718935</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
@@ -16881,49 +16881,49 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E186" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="F186" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H186">
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J186">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="K186">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L186">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="M186">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="N186">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O186">
-        <v>1.666</v>
+        <v>4.75</v>
       </c>
       <c r="P186">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q186">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R186">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S186">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T186">
         <v>1.9</v>
@@ -16932,25 +16932,25 @@
         <v>1.9</v>
       </c>
       <c r="V186">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W186">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X186">
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB186">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16958,7 +16958,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7718936</v>
+        <v>7718968</v>
       </c>
       <c r="C187" t="s">
         <v>27</v>
@@ -16967,76 +16967,76 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E187" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="F187" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="G187">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J187">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="K187">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L187">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="M187">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="N187">
         <v>3.6</v>
       </c>
       <c r="O187">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="P187">
+        <v>0.75</v>
+      </c>
+      <c r="Q187">
+        <v>1.875</v>
+      </c>
+      <c r="R187">
+        <v>1.925</v>
+      </c>
+      <c r="S187">
+        <v>2.25</v>
+      </c>
+      <c r="T187">
+        <v>1.9</v>
+      </c>
+      <c r="U187">
+        <v>1.9</v>
+      </c>
+      <c r="V187">
+        <v>-1</v>
+      </c>
+      <c r="W187">
+        <v>2.6</v>
+      </c>
+      <c r="X187">
+        <v>-1</v>
+      </c>
+      <c r="Y187">
+        <v>0.875</v>
+      </c>
+      <c r="Z187">
+        <v>-1</v>
+      </c>
+      <c r="AA187">
         <v>-0.5</v>
       </c>
-      <c r="Q187">
-        <v>1.85</v>
-      </c>
-      <c r="R187">
-        <v>1.95</v>
-      </c>
-      <c r="S187">
-        <v>2.5</v>
-      </c>
-      <c r="T187">
-        <v>1.85</v>
-      </c>
-      <c r="U187">
-        <v>1.95</v>
-      </c>
-      <c r="V187">
-        <v>0.8</v>
-      </c>
-      <c r="W187">
-        <v>-1</v>
-      </c>
-      <c r="X187">
-        <v>-1</v>
-      </c>
-      <c r="Y187">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="Z187">
-        <v>-1</v>
-      </c>
-      <c r="AA187">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -17044,7 +17044,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7718934</v>
+        <v>7718936</v>
       </c>
       <c r="C188" t="s">
         <v>27</v>
@@ -17053,58 +17053,58 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="G188">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I188" t="s">
         <v>191</v>
       </c>
       <c r="J188">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="K188">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L188">
+        <v>2.375</v>
+      </c>
+      <c r="M188">
         <v>1.8</v>
-      </c>
-      <c r="M188">
-        <v>3.5</v>
       </c>
       <c r="N188">
         <v>3.6</v>
       </c>
       <c r="O188">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="P188">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q188">
+        <v>1.85</v>
+      </c>
+      <c r="R188">
         <v>1.95</v>
       </c>
-      <c r="R188">
+      <c r="S188">
+        <v>2.5</v>
+      </c>
+      <c r="T188">
         <v>1.85</v>
-      </c>
-      <c r="S188">
-        <v>2.75</v>
-      </c>
-      <c r="T188">
-        <v>1.75</v>
       </c>
       <c r="U188">
         <v>1.95</v>
       </c>
       <c r="V188">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="W188">
         <v>-1</v>
@@ -17113,16 +17113,16 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:28">
@@ -17130,7 +17130,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7718933</v>
+        <v>7718934</v>
       </c>
       <c r="C189" t="s">
         <v>27</v>
@@ -17139,10 +17139,10 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E189" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F189" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -17154,44 +17154,44 @@
         <v>191</v>
       </c>
       <c r="J189">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="K189">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L189">
+        <v>1.8</v>
+      </c>
+      <c r="M189">
+        <v>3.5</v>
+      </c>
+      <c r="N189">
+        <v>3.6</v>
+      </c>
+      <c r="O189">
+        <v>1.8</v>
+      </c>
+      <c r="P189">
+        <v>0.5</v>
+      </c>
+      <c r="Q189">
+        <v>1.95</v>
+      </c>
+      <c r="R189">
+        <v>1.85</v>
+      </c>
+      <c r="S189">
         <v>2.75</v>
       </c>
-      <c r="M189">
-        <v>2.25</v>
-      </c>
-      <c r="N189">
-        <v>3.25</v>
-      </c>
-      <c r="O189">
-        <v>2.75</v>
-      </c>
-      <c r="P189">
-        <v>-0.25</v>
-      </c>
-      <c r="Q189">
-        <v>2.025</v>
-      </c>
-      <c r="R189">
-        <v>1.775</v>
-      </c>
-      <c r="S189">
+      <c r="T189">
+        <v>1.75</v>
+      </c>
+      <c r="U189">
+        <v>1.95</v>
+      </c>
+      <c r="V189">
         <v>2.5</v>
       </c>
-      <c r="T189">
-        <v>1.9</v>
-      </c>
-      <c r="U189">
-        <v>1.9</v>
-      </c>
-      <c r="V189">
-        <v>1.25</v>
-      </c>
       <c r="W189">
         <v>-1</v>
       </c>
@@ -17199,16 +17199,16 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -17216,7 +17216,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7718964</v>
+        <v>7718933</v>
       </c>
       <c r="C190" t="s">
         <v>27</v>
@@ -17225,13 +17225,13 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E190" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F190" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="G190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17240,43 +17240,43 @@
         <v>191</v>
       </c>
       <c r="J190">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="K190">
         <v>3.25</v>
       </c>
       <c r="L190">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="M190">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="N190">
         <v>3.25</v>
       </c>
       <c r="O190">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="P190">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q190">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R190">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S190">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T190">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U190">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V190">
-        <v>0.833</v>
+        <v>1.25</v>
       </c>
       <c r="W190">
         <v>-1</v>
@@ -17285,13 +17285,13 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB190">
         <v>-1</v>
@@ -17302,7 +17302,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7718935</v>
+        <v>7718964</v>
       </c>
       <c r="C191" t="s">
         <v>27</v>
@@ -17311,7 +17311,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E191" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F191" t="s">
         <v>181</v>
@@ -17326,43 +17326,43 @@
         <v>191</v>
       </c>
       <c r="J191">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="K191">
+        <v>3.25</v>
+      </c>
+      <c r="L191">
         <v>3.8</v>
       </c>
-      <c r="L191">
-        <v>4.75</v>
-      </c>
       <c r="M191">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="N191">
+        <v>3.25</v>
+      </c>
+      <c r="O191">
         <v>3.8</v>
       </c>
-      <c r="O191">
-        <v>4.75</v>
-      </c>
       <c r="P191">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q191">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R191">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S191">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T191">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U191">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V191">
-        <v>0.571</v>
+        <v>0.833</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17371,13 +17371,13 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB191">
         <v>-1</v>
@@ -17904,7 +17904,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7748119</v>
+        <v>7748169</v>
       </c>
       <c r="C198" t="s">
         <v>27</v>
@@ -17913,76 +17913,76 @@
         <v>45318.5</v>
       </c>
       <c r="E198" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F198" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198">
         <v>0</v>
       </c>
-      <c r="H198">
+      <c r="I198" t="s">
+        <v>191</v>
+      </c>
+      <c r="J198">
+        <v>2</v>
+      </c>
+      <c r="K198">
+        <v>3.25</v>
+      </c>
+      <c r="L198">
+        <v>3.25</v>
+      </c>
+      <c r="M198">
+        <v>2</v>
+      </c>
+      <c r="N198">
+        <v>3.25</v>
+      </c>
+      <c r="O198">
+        <v>3.2</v>
+      </c>
+      <c r="P198">
+        <v>-0.25</v>
+      </c>
+      <c r="Q198">
+        <v>1.8</v>
+      </c>
+      <c r="R198">
+        <v>2</v>
+      </c>
+      <c r="S198">
+        <v>2.25</v>
+      </c>
+      <c r="T198">
+        <v>1.8</v>
+      </c>
+      <c r="U198">
+        <v>2</v>
+      </c>
+      <c r="V198">
         <v>1</v>
       </c>
-      <c r="I198" t="s">
-        <v>190</v>
-      </c>
-      <c r="J198">
-        <v>1.909</v>
-      </c>
-      <c r="K198">
-        <v>3.1</v>
-      </c>
-      <c r="L198">
-        <v>3.75</v>
-      </c>
-      <c r="M198">
-        <v>1.85</v>
-      </c>
-      <c r="N198">
-        <v>3.2</v>
-      </c>
-      <c r="O198">
-        <v>3.75</v>
-      </c>
-      <c r="P198">
-        <v>-0.5</v>
-      </c>
-      <c r="Q198">
-        <v>1.925</v>
-      </c>
-      <c r="R198">
-        <v>1.875</v>
-      </c>
-      <c r="S198">
-        <v>2.5</v>
-      </c>
-      <c r="T198">
-        <v>1.9</v>
-      </c>
-      <c r="U198">
-        <v>1.9</v>
-      </c>
-      <c r="V198">
-        <v>-1</v>
-      </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z198">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
         <v>-1</v>
       </c>
       <c r="AB198">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:28">
@@ -17990,7 +17990,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7748169</v>
+        <v>7748119</v>
       </c>
       <c r="C199" t="s">
         <v>27</v>
@@ -17999,76 +17999,76 @@
         <v>45318.5</v>
       </c>
       <c r="E199" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F199" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
         <v>1</v>
       </c>
-      <c r="H199">
-        <v>0</v>
-      </c>
       <c r="I199" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J199">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K199">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L199">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M199">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="N199">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O199">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P199">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q199">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S199">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T199">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U199">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y199">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:28">
@@ -18850,7 +18850,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7779755</v>
+        <v>7779994</v>
       </c>
       <c r="C209" t="s">
         <v>27</v>
@@ -18859,40 +18859,40 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E209" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="F209" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="G209">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J209">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="K209">
         <v>3.2</v>
       </c>
       <c r="L209">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="M209">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N209">
         <v>3.2</v>
       </c>
       <c r="O209">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="P209">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q209">
         <v>1.8</v>
@@ -18901,7 +18901,7 @@
         <v>2</v>
       </c>
       <c r="S209">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T209">
         <v>1.85</v>
@@ -18913,22 +18913,22 @@
         <v>-1</v>
       </c>
       <c r="W209">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB209">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -18936,7 +18936,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7779994</v>
+        <v>7779756</v>
       </c>
       <c r="C210" t="s">
         <v>27</v>
@@ -18945,56 +18945,56 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E210" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F210" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
         <v>1</v>
-      </c>
-      <c r="H210">
-        <v>2</v>
       </c>
       <c r="I210" t="s">
         <v>190</v>
       </c>
       <c r="J210">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="K210">
         <v>3.2</v>
       </c>
       <c r="L210">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="M210">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="N210">
         <v>3.2</v>
       </c>
       <c r="O210">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="P210">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q210">
+        <v>2.025</v>
+      </c>
+      <c r="R210">
+        <v>1.775</v>
+      </c>
+      <c r="S210">
+        <v>2.5</v>
+      </c>
+      <c r="T210">
+        <v>2</v>
+      </c>
+      <c r="U210">
         <v>1.8</v>
       </c>
-      <c r="R210">
-        <v>2</v>
-      </c>
-      <c r="S210">
-        <v>2.25</v>
-      </c>
-      <c r="T210">
-        <v>1.85</v>
-      </c>
-      <c r="U210">
-        <v>1.95</v>
-      </c>
       <c r="V210">
         <v>-1</v>
       </c>
@@ -19002,19 +19002,19 @@
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>0.95</v>
+        <v>1.8</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA210">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="211" spans="1:28">
@@ -19022,7 +19022,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7779756</v>
+        <v>7779754</v>
       </c>
       <c r="C211" t="s">
         <v>27</v>
@@ -19031,76 +19031,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E211" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="F211" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J211">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="K211">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="L211">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="M211">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="N211">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="O211">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="P211">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q211">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R211">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S211">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T211">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U211">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V211">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB211">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -19108,7 +19108,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7779754</v>
+        <v>7779755</v>
       </c>
       <c r="C212" t="s">
         <v>27</v>
@@ -19117,76 +19117,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E212" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F212" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="G212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H212">
         <v>1</v>
       </c>
       <c r="I212" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J212">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="K212">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="L212">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="M212">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="N212">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="O212">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="P212">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="Q212">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R212">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S212">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T212">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U212">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V212">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z212">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -19194,7 +19194,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7779757</v>
+        <v>7779988</v>
       </c>
       <c r="C213" t="s">
         <v>27</v>
@@ -19203,13 +19203,13 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E213" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="F213" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="G213">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -19218,43 +19218,43 @@
         <v>191</v>
       </c>
       <c r="J213">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K213">
         <v>3.3</v>
       </c>
       <c r="L213">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M213">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="N213">
         <v>3.3</v>
       </c>
       <c r="O213">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P213">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q213">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R213">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S213">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T213">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U213">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V213">
-        <v>1</v>
+        <v>0.909</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19263,16 +19263,16 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB213">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -19280,7 +19280,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7779988</v>
+        <v>7779757</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -19289,13 +19289,13 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E214" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="F214" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="G214">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19304,43 +19304,43 @@
         <v>191</v>
       </c>
       <c r="J214">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K214">
         <v>3.3</v>
       </c>
       <c r="L214">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M214">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N214">
         <v>3.3</v>
       </c>
       <c r="O214">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P214">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q214">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R214">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S214">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T214">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U214">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V214">
-        <v>0.909</v>
+        <v>1</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -19349,16 +19349,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -19366,7 +19366,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7779989</v>
+        <v>7779758</v>
       </c>
       <c r="C215" t="s">
         <v>27</v>
@@ -19375,76 +19375,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E215" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="F215" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="G215">
         <v>0</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J215">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="K215">
         <v>3.4</v>
       </c>
       <c r="L215">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M215">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="N215">
         <v>3.4</v>
       </c>
       <c r="O215">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P215">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q215">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S215">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T215">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U215">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V215">
         <v>-1</v>
       </c>
       <c r="W215">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X215">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19452,7 +19452,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7779990</v>
+        <v>7779989</v>
       </c>
       <c r="C216" t="s">
         <v>27</v>
@@ -19461,76 +19461,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E216" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="F216" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
         <v>1</v>
       </c>
-      <c r="H216">
-        <v>0</v>
-      </c>
       <c r="I216" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J216">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="K216">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L216">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="M216">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="N216">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O216">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P216">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q216">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="R216">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S216">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T216">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U216">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V216">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y216">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -19538,7 +19538,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7779991</v>
+        <v>7779990</v>
       </c>
       <c r="C217" t="s">
         <v>27</v>
@@ -19547,46 +19547,46 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="F217" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G217">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J217">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="K217">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L217">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="M217">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="N217">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O217">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="P217">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q217">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="R217">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S217">
         <v>2.25</v>
@@ -19598,25 +19598,25 @@
         <v>2</v>
       </c>
       <c r="V217">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W217">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0.5</v>
+        <v>0.3625</v>
       </c>
       <c r="Z217">
         <v>-0.5</v>
       </c>
       <c r="AA217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:28">
@@ -19624,7 +19624,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7779993</v>
+        <v>7779991</v>
       </c>
       <c r="C218" t="s">
         <v>27</v>
@@ -19633,49 +19633,49 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E218" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F218" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G218">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J218">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="K218">
         <v>3.2</v>
       </c>
       <c r="L218">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="M218">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="N218">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O218">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="P218">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q218">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R218">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S218">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T218">
         <v>1.8</v>
@@ -19687,22 +19687,22 @@
         <v>-1</v>
       </c>
       <c r="W218">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X218">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z218">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA218">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="219" spans="1:28">
@@ -19710,7 +19710,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7779758</v>
+        <v>7779993</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -19719,76 +19719,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E219" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F219" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>3</v>
+      </c>
+      <c r="I219" t="s">
+        <v>190</v>
+      </c>
+      <c r="J219">
+        <v>2.1</v>
+      </c>
+      <c r="K219">
+        <v>3.2</v>
+      </c>
+      <c r="L219">
+        <v>3.1</v>
+      </c>
+      <c r="M219">
+        <v>2.6</v>
+      </c>
+      <c r="N219">
+        <v>3.1</v>
+      </c>
+      <c r="O219">
+        <v>2.5</v>
+      </c>
+      <c r="P219">
         <v>0</v>
       </c>
-      <c r="H219">
-        <v>0</v>
-      </c>
-      <c r="I219" t="s">
-        <v>192</v>
-      </c>
-      <c r="J219">
-        <v>1.727</v>
-      </c>
-      <c r="K219">
-        <v>3.4</v>
-      </c>
-      <c r="L219">
-        <v>4.2</v>
-      </c>
-      <c r="M219">
-        <v>1.727</v>
-      </c>
-      <c r="N219">
-        <v>3.4</v>
-      </c>
-      <c r="O219">
-        <v>4.2</v>
-      </c>
-      <c r="P219">
-        <v>-0.75</v>
-      </c>
       <c r="Q219">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R219">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S219">
         <v>2.75</v>
       </c>
       <c r="T219">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U219">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V219">
         <v>-1</v>
       </c>
       <c r="W219">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB219">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -26516,7 +26516,7 @@
         <v>66</v>
       </c>
       <c r="F298" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G298">
         <v>3</v>
@@ -27966,7 +27966,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>8055248</v>
+        <v>8061603</v>
       </c>
       <c r="C315" t="s">
         <v>27</v>
@@ -27975,13 +27975,13 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E315" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F315" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G315">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H315">
         <v>1</v>
@@ -27990,19 +27990,19 @@
         <v>191</v>
       </c>
       <c r="J315">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="K315">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L315">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M315">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="N315">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O315">
         <v>2.8</v>
@@ -28011,22 +28011,22 @@
         <v>-0.25</v>
       </c>
       <c r="Q315">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R315">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S315">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T315">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U315">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V315">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="W315">
         <v>-1</v>
@@ -28035,13 +28035,13 @@
         <v>-1</v>
       </c>
       <c r="Y315">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z315">
         <v>-1</v>
       </c>
       <c r="AA315">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB315">
         <v>-1</v>
@@ -28052,7 +28052,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>8055421</v>
+        <v>8055248</v>
       </c>
       <c r="C316" t="s">
         <v>27</v>
@@ -28061,73 +28061,73 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E316" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F316" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="G316">
+        <v>3</v>
+      </c>
+      <c r="H316">
         <v>1</v>
       </c>
-      <c r="H316">
-        <v>2</v>
-      </c>
       <c r="I316" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J316">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="K316">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L316">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M316">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="N316">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O316">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P316">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q316">
+        <v>1.95</v>
+      </c>
+      <c r="R316">
         <v>1.85</v>
       </c>
-      <c r="R316">
+      <c r="S316">
+        <v>2.75</v>
+      </c>
+      <c r="T316">
         <v>1.95</v>
       </c>
-      <c r="S316">
-        <v>2.5</v>
-      </c>
-      <c r="T316">
-        <v>1.9</v>
-      </c>
       <c r="U316">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V316">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W316">
         <v>-1</v>
       </c>
       <c r="X316">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y316">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z316">
+        <v>-1</v>
+      </c>
+      <c r="AA316">
         <v>0.95</v>
-      </c>
-      <c r="AA316">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AB316">
         <v>-1</v>
@@ -28138,7 +28138,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>8055444</v>
+        <v>8055421</v>
       </c>
       <c r="C317" t="s">
         <v>27</v>
@@ -28147,10 +28147,10 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E317" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F317" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="G317">
         <v>1</v>
@@ -28162,41 +28162,41 @@
         <v>190</v>
       </c>
       <c r="J317">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="K317">
         <v>3.25</v>
       </c>
       <c r="L317">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="M317">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="N317">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O317">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="P317">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q317">
+        <v>1.85</v>
+      </c>
+      <c r="R317">
+        <v>1.95</v>
+      </c>
+      <c r="S317">
+        <v>2.5</v>
+      </c>
+      <c r="T317">
         <v>1.9</v>
       </c>
-      <c r="R317">
+      <c r="U317">
         <v>1.9</v>
       </c>
-      <c r="S317">
-        <v>2.75</v>
-      </c>
-      <c r="T317">
-        <v>1.825</v>
-      </c>
-      <c r="U317">
-        <v>1.975</v>
-      </c>
       <c r="V317">
         <v>-1</v>
       </c>
@@ -28204,19 +28204,19 @@
         <v>-1</v>
       </c>
       <c r="X317">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
+        <v>0.95</v>
+      </c>
+      <c r="AA317">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA317">
-        <v>0.4125</v>
-      </c>
       <c r="AB317">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318" spans="1:28">
@@ -28396,7 +28396,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>8061603</v>
+        <v>8055444</v>
       </c>
       <c r="C320" t="s">
         <v>27</v>
@@ -28405,49 +28405,49 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E320" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="F320" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="G320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J320">
+        <v>2.8</v>
+      </c>
+      <c r="K320">
+        <v>3.25</v>
+      </c>
+      <c r="L320">
         <v>2.2</v>
       </c>
-      <c r="K320">
-        <v>3.4</v>
-      </c>
-      <c r="L320">
-        <v>2.8</v>
-      </c>
       <c r="M320">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="N320">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O320">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="P320">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q320">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R320">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S320">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T320">
         <v>1.825</v>
@@ -28456,25 +28456,25 @@
         <v>1.975</v>
       </c>
       <c r="V320">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W320">
         <v>-1</v>
       </c>
       <c r="X320">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y320">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z320">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA320">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="321" spans="1:28">
@@ -30976,7 +30976,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>8121589</v>
+        <v>8121641</v>
       </c>
       <c r="C350" t="s">
         <v>27</v>
@@ -30985,76 +30985,76 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E350" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F350" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G350">
         <v>1</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J350">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="K350">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="L350">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="M350">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="N350">
+        <v>4</v>
+      </c>
+      <c r="O350">
+        <v>6.5</v>
+      </c>
+      <c r="P350">
+        <v>-1.25</v>
+      </c>
+      <c r="Q350">
+        <v>1.85</v>
+      </c>
+      <c r="R350">
+        <v>1.95</v>
+      </c>
+      <c r="S350">
         <v>2.75</v>
       </c>
-      <c r="O350">
-        <v>3.2</v>
-      </c>
-      <c r="P350">
-        <v>-0.25</v>
-      </c>
-      <c r="Q350">
-        <v>2.025</v>
-      </c>
-      <c r="R350">
-        <v>1.775</v>
-      </c>
-      <c r="S350">
-        <v>2</v>
-      </c>
       <c r="T350">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U350">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V350">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W350">
         <v>-1</v>
       </c>
       <c r="X350">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y350">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z350">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA350">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB350">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="351" spans="1:28">
@@ -31062,7 +31062,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>8121641</v>
+        <v>8121609</v>
       </c>
       <c r="C351" t="s">
         <v>27</v>
@@ -31071,55 +31071,55 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E351" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="F351" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="G351">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I351" t="s">
         <v>190</v>
       </c>
       <c r="J351">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="K351">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L351">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="M351">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="N351">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O351">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="P351">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q351">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="R351">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S351">
         <v>2.75</v>
       </c>
       <c r="T351">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U351">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V351">
         <v>-1</v>
@@ -31128,19 +31128,19 @@
         <v>-1</v>
       </c>
       <c r="X351">
-        <v>5.5</v>
+        <v>1.55</v>
       </c>
       <c r="Y351">
         <v>-1</v>
       </c>
       <c r="Z351">
-        <v>0.95</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA351">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AB351">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="352" spans="1:28">
@@ -31148,7 +31148,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>8121609</v>
+        <v>8121591</v>
       </c>
       <c r="C352" t="s">
         <v>27</v>
@@ -31157,76 +31157,76 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E352" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="F352" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="G352">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H352">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I352" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J352">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="K352">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="L352">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="M352">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="N352">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="O352">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="P352">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q352">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="R352">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S352">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T352">
+        <v>1.975</v>
+      </c>
+      <c r="U352">
         <v>1.825</v>
       </c>
-      <c r="U352">
-        <v>1.975</v>
-      </c>
       <c r="V352">
         <v>-1</v>
       </c>
       <c r="W352">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X352">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y352">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z352">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA352">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB352">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="353" spans="1:28">
@@ -31234,7 +31234,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>8121591</v>
+        <v>8121590</v>
       </c>
       <c r="C353" t="s">
         <v>27</v>
@@ -31243,61 +31243,61 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E353" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="F353" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="G353">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H353">
         <v>1</v>
       </c>
       <c r="I353" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J353">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="K353">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="L353">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="M353">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="N353">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="O353">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="P353">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q353">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R353">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S353">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T353">
+        <v>1.825</v>
+      </c>
+      <c r="U353">
         <v>1.975</v>
       </c>
-      <c r="U353">
-        <v>1.825</v>
-      </c>
       <c r="V353">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W353">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X353">
         <v>-1</v>
@@ -31309,10 +31309,10 @@
         <v>0</v>
       </c>
       <c r="AA353">
+        <v>0.4125</v>
+      </c>
+      <c r="AB353">
         <v>-0.5</v>
-      </c>
-      <c r="AB353">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="354" spans="1:28">
@@ -31320,7 +31320,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>8121590</v>
+        <v>8121589</v>
       </c>
       <c r="C354" t="s">
         <v>27</v>
@@ -31329,58 +31329,58 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E354" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="F354" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="G354">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="s">
         <v>191</v>
       </c>
       <c r="J354">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="K354">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="L354">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M354">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="N354">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O354">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P354">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q354">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R354">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S354">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T354">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U354">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V354">
-        <v>0.571</v>
+        <v>1.3</v>
       </c>
       <c r="W354">
         <v>-1</v>
@@ -31389,16 +31389,16 @@
         <v>-1</v>
       </c>
       <c r="Y354">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="Z354">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA354">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB354">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:28">
@@ -32094,7 +32094,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>8143909</v>
+        <v>8143908</v>
       </c>
       <c r="C363" t="s">
         <v>27</v>
@@ -32103,76 +32103,76 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E363" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F363" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G363">
+        <v>0</v>
+      </c>
+      <c r="H363">
         <v>3</v>
       </c>
-      <c r="H363">
-        <v>0</v>
-      </c>
       <c r="I363" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J363">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="K363">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L363">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="M363">
-        <v>1.363</v>
+        <v>1.571</v>
       </c>
       <c r="N363">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="O363">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="P363">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="Q363">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R363">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S363">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T363">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U363">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V363">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W363">
         <v>-1</v>
       </c>
       <c r="X363">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y363">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z363">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA363">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB363">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364" spans="1:28">
@@ -32180,7 +32180,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>8143908</v>
+        <v>8143909</v>
       </c>
       <c r="C364" t="s">
         <v>27</v>
@@ -32189,76 +32189,76 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E364" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F364" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G364">
+        <v>3</v>
+      </c>
+      <c r="H364">
         <v>0</v>
       </c>
-      <c r="H364">
+      <c r="I364" t="s">
+        <v>191</v>
+      </c>
+      <c r="J364">
+        <v>1.333</v>
+      </c>
+      <c r="K364">
+        <v>5</v>
+      </c>
+      <c r="L364">
+        <v>6</v>
+      </c>
+      <c r="M364">
+        <v>1.363</v>
+      </c>
+      <c r="N364">
+        <v>5</v>
+      </c>
+      <c r="O364">
+        <v>5.5</v>
+      </c>
+      <c r="P364">
+        <v>-1.5</v>
+      </c>
+      <c r="Q364">
+        <v>1.975</v>
+      </c>
+      <c r="R364">
+        <v>1.825</v>
+      </c>
+      <c r="S364">
         <v>3</v>
       </c>
-      <c r="I364" t="s">
-        <v>190</v>
-      </c>
-      <c r="J364">
-        <v>1.571</v>
-      </c>
-      <c r="K364">
-        <v>3.75</v>
-      </c>
-      <c r="L364">
-        <v>4.75</v>
-      </c>
-      <c r="M364">
-        <v>1.571</v>
-      </c>
-      <c r="N364">
-        <v>3.75</v>
-      </c>
-      <c r="O364">
-        <v>4.75</v>
-      </c>
-      <c r="P364">
-        <v>-1</v>
-      </c>
-      <c r="Q364">
-        <v>2</v>
-      </c>
-      <c r="R364">
-        <v>1.8</v>
-      </c>
-      <c r="S364">
-        <v>2.5</v>
-      </c>
       <c r="T364">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U364">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V364">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="W364">
         <v>-1</v>
       </c>
       <c r="X364">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y364">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z364">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA364">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB364">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:28">

--- a/France National 3/France National 3.xlsx
+++ b/France National 3/France National 3.xlsx
@@ -106,43 +106,43 @@
     <t>Troyes II</t>
   </si>
   <si>
-    <t>Montpellier II</t>
-  </si>
-  <si>
-    <t>OnetleChateau</t>
-  </si>
-  <si>
-    <t>Maubeuge</t>
-  </si>
-  <si>
-    <t>US LegeCapFerret</t>
-  </si>
-  <si>
     <t>CMS Oissel</t>
   </si>
   <si>
     <t>Vitre</t>
   </si>
   <si>
-    <t>RC Epernay</t>
+    <t>US Castanet</t>
   </si>
   <si>
-    <t>US Castanet</t>
+    <t>OnetleChateau</t>
+  </si>
+  <si>
+    <t>Montpellier II</t>
+  </si>
+  <si>
+    <t>US LegeCapFerret</t>
+  </si>
+  <si>
+    <t>RC Epernay</t>
   </si>
   <si>
     <t>Pau II</t>
   </si>
   <si>
+    <t>Maubeuge</t>
+  </si>
+  <si>
     <t>Caen II</t>
+  </si>
+  <si>
+    <t>Stade Bordelais</t>
   </si>
   <si>
     <t>Lyon II</t>
   </si>
   <si>
     <t>Lyon Duchere</t>
-  </si>
-  <si>
-    <t>Stade Bordelais</t>
   </si>
   <si>
     <t>Reims SteAnne</t>
@@ -157,16 +157,16 @@
     <t>Lille II</t>
   </si>
   <si>
-    <t>Union Cosnoise</t>
+    <t>Stade Beaucairois 30</t>
+  </si>
+  <si>
+    <t>Saint Priest</t>
   </si>
   <si>
     <t>AS PrixlesMezieres</t>
   </si>
   <si>
-    <t>Saint Priest</t>
-  </si>
-  <si>
-    <t>Stade Beaucairois 30</t>
+    <t>Union Cosnoise</t>
   </si>
   <si>
     <t>AS Villers Houlgate</t>
@@ -178,19 +178,19 @@
     <t>Thionville FC</t>
   </si>
   <si>
+    <t>US Quevilly II</t>
+  </si>
+  <si>
     <t>Lannion FC</t>
   </si>
   <si>
-    <t>US Quevilly II</t>
+    <t>ASPTT Dijon</t>
   </si>
   <si>
     <t>AG Caennaise</t>
   </si>
   <si>
     <t>Stade Plabennecois</t>
-  </si>
-  <si>
-    <t>ASPTT Dijon</t>
   </si>
   <si>
     <t>Laval II</t>
@@ -307,10 +307,10 @@
     <t>Sable FC</t>
   </si>
   <si>
-    <t>Croix IC</t>
+    <t>Neuilly Sur Marne</t>
   </si>
   <si>
-    <t>Neuilly Sur Marne</t>
+    <t>Croix IC</t>
   </si>
   <si>
     <t>Drancy</t>
@@ -412,22 +412,22 @@
     <t>Bieshiem</t>
   </si>
   <si>
-    <t>Toulouse II</t>
+    <t>Rodez II</t>
   </si>
   <si>
     <t>Bagnols Pont</t>
   </si>
   <si>
-    <t>Feignies Aulnoye FC</t>
+    <t>Toulouse II</t>
   </si>
   <si>
     <t>Anglet Genets</t>
   </si>
   <si>
-    <t>Rodez II</t>
+    <t>ES Gueretoise</t>
   </si>
   <si>
-    <t>ES Gueretoise</t>
+    <t>Feignies Aulnoye FC</t>
   </si>
   <si>
     <t>SaintLo Manche</t>
@@ -439,10 +439,10 @@
     <t>US Vimy</t>
   </si>
   <si>
-    <t>LouhansCuiseaux</t>
+    <t>Espaly</t>
   </si>
   <si>
-    <t>Espaly</t>
+    <t>LouhansCuiseaux</t>
   </si>
   <si>
     <t>Sarre Union</t>
@@ -1223,7 +1223,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6727690</v>
+        <v>6727648</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1235,52 +1235,52 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
         <v>191</v>
       </c>
       <c r="J4">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="K4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="N4">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O4">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="P4">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q4">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
         <v>2.5</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
         <v>-1</v>
@@ -1289,16 +1289,16 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>0.8500000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
         <v>-1</v>
@@ -1309,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6727691</v>
+        <v>6727693</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1321,55 +1321,55 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
         <v>192</v>
       </c>
       <c r="J5">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="K5">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="L5">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="M5">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="N5">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="O5">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q5">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -1378,13 +1378,13 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB5">
         <v>-1</v>
@@ -1395,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6727692</v>
+        <v>6727694</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -1407,70 +1407,70 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J6">
+        <v>1.909</v>
+      </c>
+      <c r="K6">
+        <v>3.4</v>
+      </c>
+      <c r="L6">
+        <v>3.4</v>
+      </c>
+      <c r="M6">
+        <v>2.1</v>
+      </c>
+      <c r="N6">
+        <v>3.3</v>
+      </c>
+      <c r="O6">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
-        <v>191</v>
-      </c>
-      <c r="J6">
+      <c r="P6">
+        <v>-0.25</v>
+      </c>
+      <c r="Q6">
+        <v>1.85</v>
+      </c>
+      <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
         <v>3</v>
       </c>
-      <c r="K6">
-        <v>3.6</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <v>3.6</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="P6">
-        <v>0.25</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-      <c r="R6">
-        <v>1.8</v>
-      </c>
-      <c r="S6">
-        <v>3.25</v>
-      </c>
       <c r="T6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V6">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB6">
         <v>-1</v>
@@ -1481,7 +1481,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6727653</v>
+        <v>6727691</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1493,70 +1493,70 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J7">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="K7">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="L7">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="M7">
-        <v>2.45</v>
+        <v>1.285</v>
       </c>
       <c r="N7">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="O7">
-        <v>2.45</v>
+        <v>8.5</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="Q7">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T7">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>-1</v>
@@ -1567,7 +1567,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6727648</v>
+        <v>6727690</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -1579,52 +1579,52 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="s">
         <v>191</v>
       </c>
       <c r="J8">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="M8">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="N8">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O8">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="P8">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q8">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S8">
         <v>2.5</v>
       </c>
       <c r="T8">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V8">
         <v>-1</v>
@@ -1633,16 +1633,16 @@
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>1.9</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA8">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AB8">
         <v>-1</v>
@@ -1653,7 +1653,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6727693</v>
+        <v>6727653</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1665,70 +1665,70 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J9">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="K9">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="M9">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="N9">
         <v>3.3</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="P9">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T9">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U9">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V9">
+        <v>-1</v>
+      </c>
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
+        <v>1.45</v>
+      </c>
+      <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA9">
         <v>0.95</v>
-      </c>
-      <c r="W9">
-        <v>-1</v>
-      </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-      <c r="Z9">
-        <v>-1</v>
-      </c>
-      <c r="AA9">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AB9">
         <v>-1</v>
@@ -1825,7 +1825,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6727694</v>
+        <v>6727649</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1840,52 +1840,52 @@
         <v>136</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="s">
         <v>192</v>
       </c>
       <c r="J11">
-        <v>1.909</v>
+        <v>1.181</v>
       </c>
       <c r="K11">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="L11">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>2.1</v>
+        <v>1.181</v>
       </c>
       <c r="N11">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P11">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q11">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S11">
         <v>3</v>
       </c>
       <c r="T11">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V11">
-        <v>1.1</v>
+        <v>0.181</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1894,13 +1894,13 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB11">
         <v>-1</v>
@@ -1911,7 +1911,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6727649</v>
+        <v>6727692</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1926,43 +1926,43 @@
         <v>137</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J12">
-        <v>1.181</v>
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>1.181</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="O12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="P12">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="Q12">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R12">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T12">
         <v>1.9</v>
@@ -1971,19 +1971,19 @@
         <v>1.9</v>
       </c>
       <c r="V12">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA12">
         <v>0.8999999999999999</v>
@@ -2083,7 +2083,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7122319</v>
+        <v>7122316</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -2095,73 +2095,73 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J14">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="K14">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L14">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="M14">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N14">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O14">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="P14">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q14">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R14">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
         <v>2.5</v>
       </c>
       <c r="T14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -2169,7 +2169,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7122318</v>
+        <v>7122319</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -2181,43 +2181,43 @@
         <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" t="s">
         <v>192</v>
       </c>
       <c r="J15">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="K15">
         <v>3.1</v>
       </c>
       <c r="L15">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M15">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N15">
         <v>3.1</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P15">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q15">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R15">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S15">
         <v>2.5</v>
@@ -2229,7 +2229,7 @@
         <v>1.95</v>
       </c>
       <c r="V15">
-        <v>0.909</v>
+        <v>1.25</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -2238,16 +2238,16 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2255,7 +2255,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7122316</v>
+        <v>7122318</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -2267,73 +2267,73 @@
         <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J16">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="K16">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="L16">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M16">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="N16">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O16">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q16">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R16">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S16">
         <v>2.5</v>
       </c>
       <c r="T16">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W16">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z16">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
         <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2608,7 +2608,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
         <v>63</v>
@@ -2771,7 +2771,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7152841</v>
+        <v>7152573</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -2783,73 +2783,73 @@
         <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>0</v>
       </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
       <c r="I22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J22">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="K22">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="M22">
-        <v>2.7</v>
+        <v>1.25</v>
       </c>
       <c r="N22">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O22">
-        <v>2.3</v>
+        <v>9.5</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="Q22">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R22">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T22">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U22">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V22">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2857,7 +2857,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7152840</v>
+        <v>7152842</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2869,58 +2869,58 @@
         <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J23">
+        <v>1.285</v>
+      </c>
+      <c r="K23">
+        <v>4.75</v>
+      </c>
+      <c r="L23">
+        <v>8</v>
+      </c>
+      <c r="M23">
+        <v>1.285</v>
+      </c>
+      <c r="N23">
+        <v>4.75</v>
+      </c>
+      <c r="O23">
+        <v>8</v>
+      </c>
+      <c r="P23">
+        <v>-1.5</v>
+      </c>
+      <c r="Q23">
+        <v>1.85</v>
+      </c>
+      <c r="R23">
         <v>1.95</v>
-      </c>
-      <c r="K23">
-        <v>3.4</v>
-      </c>
-      <c r="L23">
-        <v>3.25</v>
-      </c>
-      <c r="M23">
-        <v>1.95</v>
-      </c>
-      <c r="N23">
-        <v>3.4</v>
-      </c>
-      <c r="O23">
-        <v>3.25</v>
-      </c>
-      <c r="P23">
-        <v>-0.5</v>
-      </c>
-      <c r="Q23">
-        <v>2</v>
-      </c>
-      <c r="R23">
-        <v>1.8</v>
       </c>
       <c r="S23">
         <v>2.75</v>
       </c>
       <c r="T23">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V23">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W23">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2929,13 +2929,13 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2943,7 +2943,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7152842</v>
+        <v>7152840</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -2955,58 +2955,58 @@
         <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J24">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="K24">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="L24">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="M24">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="N24">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="O24">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="P24">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q24">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
         <v>2.75</v>
       </c>
       <c r="T24">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -3015,13 +3015,13 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -3029,7 +3029,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7152573</v>
+        <v>7152841</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -3041,73 +3041,73 @@
         <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25">
+        <v>3.2</v>
+      </c>
+      <c r="K25">
+        <v>3.4</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>2.7</v>
+      </c>
+      <c r="N25">
+        <v>3.4</v>
+      </c>
+      <c r="O25">
+        <v>2.3</v>
+      </c>
+      <c r="P25">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
-        <v>192</v>
-      </c>
-      <c r="J25">
+      <c r="Q25">
+        <v>2.05</v>
+      </c>
+      <c r="R25">
+        <v>1.75</v>
+      </c>
+      <c r="S25">
+        <v>2.5</v>
+      </c>
+      <c r="T25">
+        <v>1.875</v>
+      </c>
+      <c r="U25">
+        <v>1.925</v>
+      </c>
+      <c r="V25">
+        <v>-1</v>
+      </c>
+      <c r="W25">
+        <v>-1</v>
+      </c>
+      <c r="X25">
         <v>1.3</v>
       </c>
-      <c r="K25">
-        <v>4.5</v>
-      </c>
-      <c r="L25">
-        <v>8.5</v>
-      </c>
-      <c r="M25">
-        <v>1.25</v>
-      </c>
-      <c r="N25">
-        <v>5</v>
-      </c>
-      <c r="O25">
-        <v>9.5</v>
-      </c>
-      <c r="P25">
-        <v>-1.75</v>
-      </c>
-      <c r="Q25">
-        <v>1.975</v>
-      </c>
-      <c r="R25">
-        <v>1.825</v>
-      </c>
-      <c r="S25">
-        <v>2.75</v>
-      </c>
-      <c r="T25">
-        <v>1.85</v>
-      </c>
-      <c r="U25">
-        <v>1.95</v>
-      </c>
-      <c r="V25">
-        <v>0.25</v>
-      </c>
-      <c r="W25">
-        <v>-1</v>
-      </c>
-      <c r="X25">
-        <v>-1</v>
-      </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AA25">
         <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -3127,7 +3127,7 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3210,7 +3210,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
         <v>44</v>
@@ -3382,7 +3382,7 @@
         <v>45178.54166666666</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
         <v>104</v>
@@ -3545,7 +3545,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7181738</v>
+        <v>7181935</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -3557,73 +3557,73 @@
         <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J31">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K31">
+        <v>3.4</v>
+      </c>
+      <c r="L31">
         <v>3.1</v>
       </c>
-      <c r="L31">
-        <v>3</v>
-      </c>
       <c r="M31">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N31">
         <v>3.4</v>
       </c>
       <c r="O31">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P31">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q31">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R31">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T31">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W31">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3631,7 +3631,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7181935</v>
+        <v>7181738</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
@@ -3643,73 +3643,73 @@
         <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K32">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L32">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="N32">
         <v>3.4</v>
       </c>
       <c r="O32">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P32">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q32">
+        <v>1.95</v>
+      </c>
+      <c r="R32">
+        <v>1.85</v>
+      </c>
+      <c r="S32">
+        <v>2.5</v>
+      </c>
+      <c r="T32">
         <v>1.8</v>
       </c>
-      <c r="R32">
-        <v>2</v>
-      </c>
-      <c r="S32">
-        <v>2.75</v>
-      </c>
-      <c r="T32">
-        <v>1.925</v>
-      </c>
       <c r="U32">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V32">
+        <v>-1</v>
+      </c>
+      <c r="W32">
+        <v>2.4</v>
+      </c>
+      <c r="X32">
+        <v>-1</v>
+      </c>
+      <c r="Y32">
+        <v>-1</v>
+      </c>
+      <c r="Z32">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA32">
+        <v>-1</v>
+      </c>
+      <c r="AB32">
         <v>1</v>
-      </c>
-      <c r="W32">
-        <v>-1</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32">
-        <v>0.8</v>
-      </c>
-      <c r="Z32">
-        <v>-1</v>
-      </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
-      <c r="AB32">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3717,7 +3717,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7181934</v>
+        <v>7184490</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
@@ -3729,70 +3729,70 @@
         <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
         <v>1</v>
       </c>
-      <c r="H33">
-        <v>5</v>
-      </c>
       <c r="I33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J33">
         <v>2.375</v>
       </c>
       <c r="K33">
+        <v>3.6</v>
+      </c>
+      <c r="L33">
+        <v>2.4</v>
+      </c>
+      <c r="M33">
         <v>3</v>
       </c>
-      <c r="L33">
-        <v>2.8</v>
-      </c>
-      <c r="M33">
-        <v>2.375</v>
-      </c>
       <c r="N33">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O33">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="P33">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q33">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="R33">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T33">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U33">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V33">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z33">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB33">
         <v>-1</v>
@@ -3803,7 +3803,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7181884</v>
+        <v>7181934</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -3815,52 +3815,52 @@
         <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I34" t="s">
         <v>191</v>
       </c>
       <c r="J34">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="K34">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="M34">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N34">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O34">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q34">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="R34">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S34">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T34">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U34">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V34">
         <v>-1</v>
@@ -3869,16 +3869,16 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>0.45</v>
+        <v>1.8</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA34">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB34">
         <v>-1</v>
@@ -3889,7 +3889,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7184490</v>
+        <v>7181884</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -3901,70 +3901,70 @@
         <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
       <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>191</v>
+      </c>
+      <c r="J35">
+        <v>3.6</v>
+      </c>
+      <c r="K35">
+        <v>3.4</v>
+      </c>
+      <c r="L35">
+        <v>1.833</v>
+      </c>
+      <c r="M35">
+        <v>5.5</v>
+      </c>
+      <c r="N35">
+        <v>3.75</v>
+      </c>
+      <c r="O35">
+        <v>1.45</v>
+      </c>
+      <c r="P35">
         <v>1</v>
       </c>
-      <c r="I35" t="s">
-        <v>192</v>
-      </c>
-      <c r="J35">
-        <v>2.375</v>
-      </c>
-      <c r="K35">
-        <v>3.6</v>
-      </c>
-      <c r="L35">
-        <v>2.4</v>
-      </c>
-      <c r="M35">
-        <v>3</v>
-      </c>
-      <c r="N35">
-        <v>3.6</v>
-      </c>
-      <c r="O35">
-        <v>2</v>
-      </c>
-      <c r="P35">
-        <v>0.25</v>
-      </c>
       <c r="Q35">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R35">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S35">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T35">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V35">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB35">
         <v>-1</v>
@@ -4070,7 +4070,7 @@
         <v>45178.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
         <v>144</v>
@@ -4159,7 +4159,7 @@
         <v>60</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -4589,7 +4589,7 @@
         <v>64</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4672,7 +4672,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
         <v>135</v>
@@ -5016,10 +5016,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -5105,7 +5105,7 @@
         <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -5188,7 +5188,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
         <v>149</v>
@@ -5532,10 +5532,10 @@
         <v>45196.625</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -5876,10 +5876,10 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5962,7 +5962,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E59" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F59" t="s">
         <v>153</v>
@@ -6134,7 +6134,7 @@
         <v>45206.58333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F61" t="s">
         <v>144</v>
@@ -6220,7 +6220,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F62" t="s">
         <v>68</v>
@@ -6309,7 +6309,7 @@
         <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -6392,7 +6392,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="E64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F64" t="s">
         <v>29</v>
@@ -6822,10 +6822,10 @@
         <v>45220.54166666666</v>
       </c>
       <c r="E69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6908,7 +6908,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F70" t="s">
         <v>154</v>
@@ -6997,7 +6997,7 @@
         <v>67</v>
       </c>
       <c r="F71" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -7166,7 +7166,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
         <v>92</v>
@@ -7338,7 +7338,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F75" t="s">
         <v>128</v>
@@ -7424,10 +7424,10 @@
         <v>45220.54166666666</v>
       </c>
       <c r="E76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -7510,7 +7510,7 @@
         <v>45220.55208333334</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
         <v>135</v>
@@ -7599,7 +7599,7 @@
         <v>76</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7685,7 +7685,7 @@
         <v>52</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -8456,7 +8456,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F88" t="s">
         <v>87</v>
@@ -8714,7 +8714,7 @@
         <v>45234.625</v>
       </c>
       <c r="E91" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F91" t="s">
         <v>159</v>
@@ -9144,7 +9144,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="E96" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
         <v>151</v>
@@ -9233,7 +9233,7 @@
         <v>84</v>
       </c>
       <c r="F97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -9402,7 +9402,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F99" t="s">
         <v>82</v>
@@ -9577,7 +9577,7 @@
         <v>85</v>
       </c>
       <c r="F101" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9660,7 +9660,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F102" t="s">
         <v>39</v>
@@ -9746,10 +9746,10 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -9835,7 +9835,7 @@
         <v>86</v>
       </c>
       <c r="F104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G104">
         <v>3</v>
@@ -9921,7 +9921,7 @@
         <v>87</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G105">
         <v>2</v>
@@ -10520,7 +10520,7 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F112" t="s">
         <v>150</v>
@@ -10867,7 +10867,7 @@
         <v>39</v>
       </c>
       <c r="F116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G116">
         <v>5</v>
@@ -11036,10 +11036,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F118" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -11125,7 +11125,7 @@
         <v>94</v>
       </c>
       <c r="F119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>45255.58333333334</v>
       </c>
       <c r="E120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F120" t="s">
         <v>77</v>
@@ -11297,7 +11297,7 @@
         <v>95</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -11555,7 +11555,7 @@
         <v>71</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11810,7 +11810,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F127" t="s">
         <v>156</v>
@@ -12154,7 +12154,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="E131" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F131" t="s">
         <v>138</v>
@@ -12240,7 +12240,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F132" t="s">
         <v>104</v>
@@ -12326,7 +12326,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F133" t="s">
         <v>167</v>
@@ -12584,7 +12584,7 @@
         <v>45262.625</v>
       </c>
       <c r="E136" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F136" t="s">
         <v>44</v>
@@ -12670,7 +12670,7 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F137" t="s">
         <v>78</v>
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7568839</v>
+        <v>7568838</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
@@ -13103,73 +13103,73 @@
         <v>97</v>
       </c>
       <c r="F142" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J142">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="K142">
         <v>3</v>
       </c>
       <c r="L142">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M142">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="N142">
         <v>3</v>
       </c>
       <c r="O142">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P142">
         <v>-0.25</v>
       </c>
       <c r="Q142">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="S142">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AA142">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -13177,7 +13177,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7568838</v>
+        <v>7569711</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -13186,76 +13186,76 @@
         <v>45269.4375</v>
       </c>
       <c r="E143" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F143" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J143">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="K143">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L143">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="M143">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="N143">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O143">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="P143">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R143">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="T143">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V143">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="W143">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
+        <v>0.4625</v>
+      </c>
+      <c r="AB143">
         <v>-0.5</v>
-      </c>
-      <c r="Z143">
-        <v>0.35</v>
-      </c>
-      <c r="AA143">
-        <v>0</v>
-      </c>
-      <c r="AB143">
-        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -13263,7 +13263,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7569711</v>
+        <v>7568839</v>
       </c>
       <c r="C144" t="s">
         <v>27</v>
@@ -13272,10 +13272,10 @@
         <v>45269.4375</v>
       </c>
       <c r="E144" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F144" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -13287,25 +13287,25 @@
         <v>192</v>
       </c>
       <c r="J144">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="K144">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L144">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="N144">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O144">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="P144">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q144">
         <v>1.85</v>
@@ -13314,16 +13314,16 @@
         <v>1.95</v>
       </c>
       <c r="S144">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T144">
         <v>1.925</v>
       </c>
       <c r="U144">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13338,10 +13338,10 @@
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:28">
@@ -13435,7 +13435,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7568689</v>
+        <v>7568688</v>
       </c>
       <c r="C146" t="s">
         <v>27</v>
@@ -13444,76 +13444,76 @@
         <v>45269.58333333334</v>
       </c>
       <c r="E146" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F146" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="G146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J146">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="K146">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="L146">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="M146">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="N146">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="O146">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="P146">
+        <v>-1</v>
+      </c>
+      <c r="Q146">
+        <v>1.875</v>
+      </c>
+      <c r="R146">
+        <v>1.925</v>
+      </c>
+      <c r="S146">
+        <v>3</v>
+      </c>
+      <c r="T146">
         <v>1.75</v>
       </c>
-      <c r="Q146">
-        <v>1.9</v>
-      </c>
-      <c r="R146">
-        <v>1.9</v>
-      </c>
-      <c r="S146">
-        <v>3.25</v>
-      </c>
-      <c r="T146">
-        <v>2</v>
-      </c>
       <c r="U146">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V146">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W146">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="X146">
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="147" spans="1:28">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7568688</v>
+        <v>7568689</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
@@ -13530,76 +13530,76 @@
         <v>45269.58333333334</v>
       </c>
       <c r="E147" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="F147" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="G147">
+        <v>2</v>
+      </c>
+      <c r="H147">
+        <v>2</v>
+      </c>
+      <c r="I147" t="s">
+        <v>193</v>
+      </c>
+      <c r="J147">
+        <v>7</v>
+      </c>
+      <c r="K147">
+        <v>6</v>
+      </c>
+      <c r="L147">
+        <v>1.25</v>
+      </c>
+      <c r="M147">
+        <v>7</v>
+      </c>
+      <c r="N147">
+        <v>6</v>
+      </c>
+      <c r="O147">
+        <v>1.25</v>
+      </c>
+      <c r="P147">
+        <v>1.75</v>
+      </c>
+      <c r="Q147">
+        <v>1.9</v>
+      </c>
+      <c r="R147">
+        <v>1.9</v>
+      </c>
+      <c r="S147">
+        <v>3.25</v>
+      </c>
+      <c r="T147">
+        <v>2</v>
+      </c>
+      <c r="U147">
+        <v>1.8</v>
+      </c>
+      <c r="V147">
+        <v>-1</v>
+      </c>
+      <c r="W147">
+        <v>5</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z147">
+        <v>-1</v>
+      </c>
+      <c r="AA147">
         <v>1</v>
       </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="I147" t="s">
-        <v>192</v>
-      </c>
-      <c r="J147">
-        <v>1.533</v>
-      </c>
-      <c r="K147">
-        <v>3.8</v>
-      </c>
-      <c r="L147">
-        <v>5</v>
-      </c>
-      <c r="M147">
-        <v>1.533</v>
-      </c>
-      <c r="N147">
-        <v>3.8</v>
-      </c>
-      <c r="O147">
-        <v>5</v>
-      </c>
-      <c r="P147">
-        <v>-1</v>
-      </c>
-      <c r="Q147">
-        <v>1.875</v>
-      </c>
-      <c r="R147">
-        <v>1.925</v>
-      </c>
-      <c r="S147">
-        <v>3</v>
-      </c>
-      <c r="T147">
-        <v>1.75</v>
-      </c>
-      <c r="U147">
-        <v>2.05</v>
-      </c>
-      <c r="V147">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
-      <c r="Y147">
-        <v>0</v>
-      </c>
-      <c r="Z147">
-        <v>0</v>
-      </c>
-      <c r="AA147">
-        <v>-1</v>
-      </c>
       <c r="AB147">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -13702,10 +13702,10 @@
         <v>45270.45833333334</v>
       </c>
       <c r="E149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13791,7 +13791,7 @@
         <v>52</v>
       </c>
       <c r="F150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13874,7 +13874,7 @@
         <v>45276.4375</v>
       </c>
       <c r="E151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F151" t="s">
         <v>66</v>
@@ -14132,7 +14132,7 @@
         <v>45276.5</v>
       </c>
       <c r="E154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F154" t="s">
         <v>154</v>
@@ -14221,7 +14221,7 @@
         <v>39</v>
       </c>
       <c r="F155" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -14304,7 +14304,7 @@
         <v>45276.5</v>
       </c>
       <c r="E156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F156" t="s">
         <v>78</v>
@@ -14467,7 +14467,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7594728</v>
+        <v>7594719</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
@@ -14476,46 +14476,46 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E158" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F158" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158" t="s">
+        <v>192</v>
+      </c>
+      <c r="J158">
+        <v>2</v>
+      </c>
+      <c r="K158">
         <v>3</v>
       </c>
-      <c r="I158" t="s">
-        <v>191</v>
-      </c>
-      <c r="J158">
-        <v>2.3</v>
-      </c>
-      <c r="K158">
-        <v>3.2</v>
-      </c>
       <c r="L158">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="M158">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N158">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O158">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="P158">
         <v>-0.25</v>
       </c>
       <c r="Q158">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="R158">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S158">
         <v>2.75</v>
@@ -14527,25 +14527,25 @@
         <v>1.85</v>
       </c>
       <c r="V158">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z158">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14553,7 +14553,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7594719</v>
+        <v>7594718</v>
       </c>
       <c r="C159" t="s">
         <v>27</v>
@@ -14562,76 +14562,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E159" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J159">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K159">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L159">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M159">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N159">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O159">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P159">
         <v>-0.25</v>
       </c>
       <c r="Q159">
+        <v>2.025</v>
+      </c>
+      <c r="R159">
         <v>1.775</v>
-      </c>
-      <c r="R159">
-        <v>2.025</v>
       </c>
       <c r="S159">
         <v>2.75</v>
       </c>
       <c r="T159">
+        <v>1.85</v>
+      </c>
+      <c r="U159">
         <v>1.95</v>
       </c>
-      <c r="U159">
-        <v>1.85</v>
-      </c>
       <c r="V159">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB159">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -14639,7 +14639,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7594718</v>
+        <v>7594728</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
@@ -14648,73 +14648,73 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="F160" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G160">
         <v>2</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I160" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J160">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="K160">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L160">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="M160">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N160">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O160">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P160">
         <v>-0.25</v>
       </c>
       <c r="Q160">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R160">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S160">
         <v>2.75</v>
       </c>
       <c r="T160">
+        <v>1.95</v>
+      </c>
+      <c r="U160">
         <v>1.85</v>
       </c>
-      <c r="U160">
-        <v>1.95</v>
-      </c>
       <c r="V160">
         <v>-1</v>
       </c>
       <c r="W160">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.3875</v>
+        <v>0.75</v>
       </c>
       <c r="AA160">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB160">
         <v>-1</v>
@@ -14725,7 +14725,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7594733</v>
+        <v>7594753</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
@@ -14734,76 +14734,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E161" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="F161" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J161">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="K161">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="L161">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="M161">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="N161">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="O161">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="P161">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q161">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S161">
         <v>2.75</v>
       </c>
       <c r="T161">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U161">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V161">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA161">
         <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="162" spans="1:28">
@@ -14811,7 +14811,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7594753</v>
+        <v>7594733</v>
       </c>
       <c r="C162" t="s">
         <v>27</v>
@@ -14820,76 +14820,76 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F162" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J162">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="K162">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="L162">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="M162">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="N162">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="O162">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="P162">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q162">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R162">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
         <v>2.75</v>
       </c>
       <c r="T162">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U162">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V162">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W162">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z162">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:28">
@@ -15336,7 +15336,7 @@
         <v>45297.58333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F168" t="s">
         <v>175</v>
@@ -15422,7 +15422,7 @@
         <v>45297.58333333334</v>
       </c>
       <c r="E169" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F169" t="s">
         <v>176</v>
@@ -15511,7 +15511,7 @@
         <v>86</v>
       </c>
       <c r="F170" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15594,7 +15594,7 @@
         <v>45297.625</v>
       </c>
       <c r="E171" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F171" t="s">
         <v>152</v>
@@ -15680,7 +15680,7 @@
         <v>45304.4375</v>
       </c>
       <c r="E172" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F172" t="s">
         <v>69</v>
@@ -15938,7 +15938,7 @@
         <v>45304.54166666666</v>
       </c>
       <c r="E175" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F175" t="s">
         <v>101</v>
@@ -16024,7 +16024,7 @@
         <v>45304.54166666666</v>
       </c>
       <c r="E176" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F176" t="s">
         <v>148</v>
@@ -16110,7 +16110,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F177" t="s">
         <v>76</v>
@@ -16371,7 +16371,7 @@
         <v>89</v>
       </c>
       <c r="F180" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -16884,7 +16884,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E186" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F186" t="s">
         <v>123</v>
@@ -17059,7 +17059,7 @@
         <v>63</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -17142,7 +17142,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E189" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F189" t="s">
         <v>179</v>
@@ -17228,7 +17228,7 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E190" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F190" t="s">
         <v>180</v>
@@ -17575,7 +17575,7 @@
         <v>44</v>
       </c>
       <c r="F194" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17833,7 +17833,7 @@
         <v>90</v>
       </c>
       <c r="F197" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17916,10 +17916,10 @@
         <v>45318.5</v>
       </c>
       <c r="E198" t="s">
+        <v>42</v>
+      </c>
+      <c r="F198" t="s">
         <v>41</v>
-      </c>
-      <c r="F198" t="s">
-        <v>40</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -18251,7 +18251,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7748838</v>
+        <v>7748114</v>
       </c>
       <c r="C202" t="s">
         <v>27</v>
@@ -18260,76 +18260,76 @@
         <v>45318.58333333334</v>
       </c>
       <c r="E202" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="F202" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G202">
         <v>0</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J202">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="K202">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L202">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="M202">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="N202">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O202">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P202">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q202">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R202">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S202">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T202">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U202">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V202">
         <v>-1</v>
       </c>
       <c r="W202">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y202">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:28">
@@ -18337,7 +18337,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7748114</v>
+        <v>7748838</v>
       </c>
       <c r="C203" t="s">
         <v>27</v>
@@ -18346,76 +18346,76 @@
         <v>45318.58333333334</v>
       </c>
       <c r="E203" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="F203" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J203">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="K203">
+        <v>3.25</v>
+      </c>
+      <c r="L203">
+        <v>2.75</v>
+      </c>
+      <c r="M203">
+        <v>1.95</v>
+      </c>
+      <c r="N203">
         <v>3.4</v>
       </c>
-      <c r="L203">
-        <v>4.2</v>
-      </c>
-      <c r="M203">
+      <c r="O203">
+        <v>3.3</v>
+      </c>
+      <c r="P203">
+        <v>-0.25</v>
+      </c>
+      <c r="Q203">
         <v>1.75</v>
       </c>
-      <c r="N203">
-        <v>3.3</v>
-      </c>
-      <c r="O203">
-        <v>4</v>
-      </c>
-      <c r="P203">
+      <c r="R203">
+        <v>1.95</v>
+      </c>
+      <c r="S203">
+        <v>2.75</v>
+      </c>
+      <c r="T203">
+        <v>1.925</v>
+      </c>
+      <c r="U203">
+        <v>1.775</v>
+      </c>
+      <c r="V203">
+        <v>-1</v>
+      </c>
+      <c r="W203">
+        <v>2.4</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
         <v>-0.5</v>
       </c>
-      <c r="Q203">
-        <v>1.825</v>
-      </c>
-      <c r="R203">
-        <v>1.975</v>
-      </c>
-      <c r="S203">
-        <v>2</v>
-      </c>
-      <c r="T203">
-        <v>1.825</v>
-      </c>
-      <c r="U203">
-        <v>1.975</v>
-      </c>
-      <c r="V203">
-        <v>-1</v>
-      </c>
-      <c r="W203">
-        <v>-1</v>
-      </c>
-      <c r="X203">
-        <v>3</v>
-      </c>
-      <c r="Y203">
-        <v>-1</v>
-      </c>
       <c r="Z203">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:28">
@@ -18853,7 +18853,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7779991</v>
+        <v>7779757</v>
       </c>
       <c r="C209" t="s">
         <v>27</v>
@@ -18862,49 +18862,49 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E209" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="F209" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J209">
+        <v>2</v>
+      </c>
+      <c r="K209">
         <v>3.3</v>
       </c>
-      <c r="K209">
+      <c r="L209">
         <v>3.2</v>
       </c>
-      <c r="L209">
-        <v>2</v>
-      </c>
       <c r="M209">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="N209">
+        <v>3.3</v>
+      </c>
+      <c r="O209">
         <v>3.2</v>
       </c>
-      <c r="O209">
-        <v>2</v>
-      </c>
       <c r="P209">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q209">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R209">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S209">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T209">
         <v>1.8</v>
@@ -18913,25 +18913,25 @@
         <v>2</v>
       </c>
       <c r="V209">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W209">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -19025,7 +19025,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7779758</v>
+        <v>7779994</v>
       </c>
       <c r="C211" t="s">
         <v>27</v>
@@ -19034,76 +19034,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E211" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="F211" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J211">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="K211">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L211">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="M211">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="N211">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O211">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="P211">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q211">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R211">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S211">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T211">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U211">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V211">
         <v>-1</v>
       </c>
       <c r="W211">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB211">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:28">
@@ -19111,7 +19111,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7779757</v>
+        <v>7779758</v>
       </c>
       <c r="C212" t="s">
         <v>27</v>
@@ -19120,76 +19120,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E212" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="F212" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="G212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H212">
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J212">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="K212">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L212">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M212">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N212">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O212">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P212">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q212">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R212">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S212">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T212">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U212">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W212">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X212">
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA212">
         <v>-1</v>
       </c>
       <c r="AB212">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -19283,7 +19283,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7779994</v>
+        <v>7779991</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -19292,76 +19292,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E214" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="G214">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J214">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K214">
         <v>3.2</v>
       </c>
       <c r="L214">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M214">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N214">
         <v>3.2</v>
       </c>
       <c r="O214">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P214">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q214">
+        <v>2</v>
+      </c>
+      <c r="R214">
         <v>1.8</v>
-      </c>
-      <c r="R214">
-        <v>2</v>
       </c>
       <c r="S214">
         <v>2.25</v>
       </c>
       <c r="T214">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U214">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V214">
         <v>-1</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X214">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z214">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA214">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -19369,7 +19369,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7779754</v>
+        <v>7779990</v>
       </c>
       <c r="C215" t="s">
         <v>27</v>
@@ -19378,58 +19378,58 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E215" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="F215" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="s">
         <v>192</v>
       </c>
       <c r="J215">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="K215">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="L215">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="M215">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="N215">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="O215">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="P215">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q215">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="R215">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T215">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U215">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V215">
-        <v>0.25</v>
+        <v>0.571</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19438,16 +19438,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="Z215">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA215">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19455,7 +19455,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7779755</v>
+        <v>7779754</v>
       </c>
       <c r="C216" t="s">
         <v>27</v>
@@ -19464,76 +19464,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E216" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="F216" t="s">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="G216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J216">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="K216">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="L216">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="M216">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="N216">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="O216">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="P216">
+        <v>-1.75</v>
+      </c>
+      <c r="Q216">
+        <v>1.9</v>
+      </c>
+      <c r="R216">
+        <v>1.9</v>
+      </c>
+      <c r="S216">
+        <v>3</v>
+      </c>
+      <c r="T216">
+        <v>1.9</v>
+      </c>
+      <c r="U216">
+        <v>1.9</v>
+      </c>
+      <c r="V216">
+        <v>0.25</v>
+      </c>
+      <c r="W216">
+        <v>-1</v>
+      </c>
+      <c r="X216">
+        <v>-1</v>
+      </c>
+      <c r="Y216">
+        <v>-1</v>
+      </c>
+      <c r="Z216">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA216">
         <v>0</v>
       </c>
-      <c r="Q216">
-        <v>1.8</v>
-      </c>
-      <c r="R216">
-        <v>2</v>
-      </c>
-      <c r="S216">
-        <v>2.5</v>
-      </c>
-      <c r="T216">
-        <v>1.85</v>
-      </c>
-      <c r="U216">
-        <v>1.95</v>
-      </c>
-      <c r="V216">
-        <v>-1</v>
-      </c>
-      <c r="W216">
-        <v>2.2</v>
-      </c>
-      <c r="X216">
-        <v>-1</v>
-      </c>
-      <c r="Y216">
+      <c r="AB216">
         <v>0</v>
-      </c>
-      <c r="Z216">
-        <v>0</v>
-      </c>
-      <c r="AA216">
-        <v>-1</v>
-      </c>
-      <c r="AB216">
-        <v>0.95</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -19541,7 +19541,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7779989</v>
+        <v>7779755</v>
       </c>
       <c r="C217" t="s">
         <v>27</v>
@@ -19550,76 +19550,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F217" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
         <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J217">
+        <v>2.4</v>
+      </c>
+      <c r="K217">
+        <v>3.2</v>
+      </c>
+      <c r="L217">
+        <v>2.6</v>
+      </c>
+      <c r="M217">
+        <v>2.4</v>
+      </c>
+      <c r="N217">
+        <v>3.2</v>
+      </c>
+      <c r="O217">
+        <v>2.625</v>
+      </c>
+      <c r="P217">
+        <v>0</v>
+      </c>
+      <c r="Q217">
+        <v>1.8</v>
+      </c>
+      <c r="R217">
+        <v>2</v>
+      </c>
+      <c r="S217">
+        <v>2.5</v>
+      </c>
+      <c r="T217">
         <v>1.85</v>
       </c>
-      <c r="K217">
-        <v>3.4</v>
-      </c>
-      <c r="L217">
-        <v>3.6</v>
-      </c>
-      <c r="M217">
-        <v>1.85</v>
-      </c>
-      <c r="N217">
-        <v>3.4</v>
-      </c>
-      <c r="O217">
-        <v>3.6</v>
-      </c>
-      <c r="P217">
-        <v>-0.5</v>
-      </c>
-      <c r="Q217">
-        <v>1.9</v>
-      </c>
-      <c r="R217">
-        <v>1.9</v>
-      </c>
-      <c r="S217">
-        <v>3</v>
-      </c>
-      <c r="T217">
+      <c r="U217">
         <v>1.95</v>
       </c>
-      <c r="U217">
-        <v>1.85</v>
-      </c>
       <c r="V217">
         <v>-1</v>
       </c>
       <c r="W217">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X217">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z217">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA217">
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="218" spans="1:28">
@@ -19627,7 +19627,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7779988</v>
+        <v>7779989</v>
       </c>
       <c r="C218" t="s">
         <v>27</v>
@@ -19636,76 +19636,76 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E218" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F218" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="G218">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J218">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="K218">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L218">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M218">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="N218">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O218">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P218">
         <v>-0.5</v>
       </c>
       <c r="Q218">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R218">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S218">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T218">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U218">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V218">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="W218">
         <v>-1</v>
       </c>
       <c r="X218">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y218">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA218">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:28">
@@ -19713,7 +19713,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7779990</v>
+        <v>7779988</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -19722,13 +19722,13 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E219" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="F219" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G219">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -19737,43 +19737,43 @@
         <v>192</v>
       </c>
       <c r="J219">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="K219">
+        <v>3.3</v>
+      </c>
+      <c r="L219">
         <v>3.5</v>
       </c>
-      <c r="L219">
-        <v>5.25</v>
-      </c>
       <c r="M219">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="N219">
+        <v>3.3</v>
+      </c>
+      <c r="O219">
         <v>3.5</v>
       </c>
-      <c r="O219">
-        <v>5.25</v>
-      </c>
       <c r="P219">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q219">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="R219">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S219">
         <v>2.25</v>
       </c>
       <c r="T219">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U219">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V219">
-        <v>0.571</v>
+        <v>0.909</v>
       </c>
       <c r="W219">
         <v>-1</v>
@@ -19782,16 +19782,16 @@
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>0.3625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB219">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:28">
@@ -19808,7 +19808,7 @@
         <v>45326.4375</v>
       </c>
       <c r="E220" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F220" t="s">
         <v>173</v>
@@ -19885,7 +19885,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7782473</v>
+        <v>7782489</v>
       </c>
       <c r="C221" t="s">
         <v>27</v>
@@ -19894,76 +19894,76 @@
         <v>45326.45833333334</v>
       </c>
       <c r="E221" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F221" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221">
         <v>0</v>
       </c>
-      <c r="H221">
-        <v>3</v>
-      </c>
       <c r="I221" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J221">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="K221">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L221">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="M221">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N221">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O221">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="P221">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q221">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R221">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S221">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T221">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U221">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V221">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z221">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="222" spans="1:28">
@@ -19971,7 +19971,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7782489</v>
+        <v>7782473</v>
       </c>
       <c r="C222" t="s">
         <v>27</v>
@@ -19980,76 +19980,76 @@
         <v>45326.45833333334</v>
       </c>
       <c r="E222" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F222" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="G222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H222">
+        <v>3</v>
+      </c>
+      <c r="I222" t="s">
+        <v>191</v>
+      </c>
+      <c r="J222">
+        <v>4.75</v>
+      </c>
+      <c r="K222">
+        <v>3.5</v>
+      </c>
+      <c r="L222">
+        <v>1.615</v>
+      </c>
+      <c r="M222">
+        <v>4.333</v>
+      </c>
+      <c r="N222">
+        <v>3.5</v>
+      </c>
+      <c r="O222">
+        <v>1.666</v>
+      </c>
+      <c r="P222">
+        <v>0.75</v>
+      </c>
+      <c r="Q222">
+        <v>1.925</v>
+      </c>
+      <c r="R222">
+        <v>1.875</v>
+      </c>
+      <c r="S222">
+        <v>3</v>
+      </c>
+      <c r="T222">
+        <v>1.775</v>
+      </c>
+      <c r="U222">
+        <v>2.025</v>
+      </c>
+      <c r="V222">
+        <v>-1</v>
+      </c>
+      <c r="W222">
+        <v>-1</v>
+      </c>
+      <c r="X222">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Y222">
+        <v>-1</v>
+      </c>
+      <c r="Z222">
+        <v>0.875</v>
+      </c>
+      <c r="AA222">
         <v>0</v>
       </c>
-      <c r="I222" t="s">
-        <v>192</v>
-      </c>
-      <c r="J222">
-        <v>1.909</v>
-      </c>
-      <c r="K222">
-        <v>3.2</v>
-      </c>
-      <c r="L222">
-        <v>3.6</v>
-      </c>
-      <c r="M222">
-        <v>1.909</v>
-      </c>
-      <c r="N222">
-        <v>3.2</v>
-      </c>
-      <c r="O222">
-        <v>3.6</v>
-      </c>
-      <c r="P222">
-        <v>-0.5</v>
-      </c>
-      <c r="Q222">
-        <v>1.975</v>
-      </c>
-      <c r="R222">
-        <v>1.825</v>
-      </c>
-      <c r="S222">
-        <v>2.25</v>
-      </c>
-      <c r="T222">
-        <v>2</v>
-      </c>
-      <c r="U222">
-        <v>1.8</v>
-      </c>
-      <c r="V222">
-        <v>0.909</v>
-      </c>
-      <c r="W222">
-        <v>-1</v>
-      </c>
-      <c r="X222">
-        <v>-1</v>
-      </c>
-      <c r="Y222">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="Z222">
-        <v>-1</v>
-      </c>
-      <c r="AA222">
-        <v>-1</v>
-      </c>
       <c r="AB222">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:28">
@@ -20410,7 +20410,7 @@
         <v>45332.58333333334</v>
       </c>
       <c r="E227" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F227" t="s">
         <v>175</v>
@@ -20668,7 +20668,7 @@
         <v>45333.45833333334</v>
       </c>
       <c r="E230" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F230" t="s">
         <v>51</v>
@@ -20745,7 +20745,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7843258</v>
+        <v>7843129</v>
       </c>
       <c r="C231" t="s">
         <v>27</v>
@@ -20754,58 +20754,58 @@
         <v>45339.4375</v>
       </c>
       <c r="E231" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="F231" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G231">
+        <v>2</v>
+      </c>
+      <c r="H231">
         <v>1</v>
-      </c>
-      <c r="H231">
-        <v>0</v>
       </c>
       <c r="I231" t="s">
         <v>192</v>
       </c>
       <c r="J231">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="K231">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L231">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="M231">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="N231">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O231">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="P231">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q231">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="R231">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S231">
         <v>2.5</v>
       </c>
       <c r="T231">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U231">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V231">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="W231">
         <v>-1</v>
@@ -20814,16 +20814,16 @@
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB231">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:28">
@@ -20831,7 +20831,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7843129</v>
+        <v>7843258</v>
       </c>
       <c r="C232" t="s">
         <v>27</v>
@@ -20840,58 +20840,58 @@
         <v>45339.4375</v>
       </c>
       <c r="E232" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="F232" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="s">
         <v>192</v>
       </c>
       <c r="J232">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="K232">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L232">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="M232">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N232">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O232">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="P232">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q232">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="R232">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S232">
         <v>2.5</v>
       </c>
       <c r="T232">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U232">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V232">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="W232">
         <v>-1</v>
@@ -20900,16 +20900,16 @@
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:28">
@@ -20926,10 +20926,10 @@
         <v>45339.5</v>
       </c>
       <c r="E233" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F233" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G233">
         <v>2</v>
@@ -21015,7 +21015,7 @@
         <v>81</v>
       </c>
       <c r="F234" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G234">
         <v>2</v>
@@ -21184,7 +21184,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="E236" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F236" t="s">
         <v>123</v>
@@ -21270,7 +21270,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="E237" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F237" t="s">
         <v>85</v>
@@ -21863,7 +21863,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7847716</v>
+        <v>7847714</v>
       </c>
       <c r="C244" t="s">
         <v>27</v>
@@ -21872,76 +21872,76 @@
         <v>45340.45833333334</v>
       </c>
       <c r="E244" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="F244" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="G244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J244">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="K244">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L244">
+        <v>2.8</v>
+      </c>
+      <c r="M244">
         <v>1.909</v>
       </c>
-      <c r="M244">
-        <v>3.6</v>
-      </c>
       <c r="N244">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O244">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="P244">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q244">
+        <v>1.975</v>
+      </c>
+      <c r="R244">
         <v>1.825</v>
       </c>
-      <c r="R244">
-        <v>1.975</v>
-      </c>
       <c r="S244">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T244">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U244">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V244">
         <v>-1</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X244">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA244">
         <v>-1</v>
       </c>
       <c r="AB244">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:28">
@@ -21949,7 +21949,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7847714</v>
+        <v>7847715</v>
       </c>
       <c r="C245" t="s">
         <v>27</v>
@@ -21958,76 +21958,76 @@
         <v>45340.45833333334</v>
       </c>
       <c r="E245" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F245" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="G245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I245" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J245">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="K245">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L245">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="M245">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="N245">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O245">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="P245">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q245">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R245">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S245">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="T245">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U245">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V245">
         <v>-1</v>
       </c>
       <c r="W245">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X245">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y245">
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:28">
@@ -22035,7 +22035,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7847715</v>
+        <v>7847716</v>
       </c>
       <c r="C246" t="s">
         <v>27</v>
@@ -22044,10 +22044,10 @@
         <v>45340.45833333334</v>
       </c>
       <c r="E246" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="F246" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -22059,41 +22059,41 @@
         <v>191</v>
       </c>
       <c r="J246">
+        <v>3.6</v>
+      </c>
+      <c r="K246">
+        <v>3.2</v>
+      </c>
+      <c r="L246">
+        <v>1.909</v>
+      </c>
+      <c r="M246">
+        <v>3.6</v>
+      </c>
+      <c r="N246">
+        <v>3.2</v>
+      </c>
+      <c r="O246">
+        <v>1.909</v>
+      </c>
+      <c r="P246">
+        <v>0.5</v>
+      </c>
+      <c r="Q246">
+        <v>1.825</v>
+      </c>
+      <c r="R246">
+        <v>1.975</v>
+      </c>
+      <c r="S246">
         <v>2.5</v>
       </c>
-      <c r="K246">
-        <v>3</v>
-      </c>
-      <c r="L246">
-        <v>2.6</v>
-      </c>
-      <c r="M246">
-        <v>2.5</v>
-      </c>
-      <c r="N246">
-        <v>3</v>
-      </c>
-      <c r="O246">
-        <v>2.6</v>
-      </c>
-      <c r="P246">
-        <v>0</v>
-      </c>
-      <c r="Q246">
+      <c r="T246">
         <v>1.85</v>
       </c>
-      <c r="R246">
+      <c r="U246">
         <v>1.95</v>
       </c>
-      <c r="S246">
-        <v>2</v>
-      </c>
-      <c r="T246">
-        <v>1.775</v>
-      </c>
-      <c r="U246">
-        <v>2.025</v>
-      </c>
       <c r="V246">
         <v>-1</v>
       </c>
@@ -22101,19 +22101,19 @@
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>1.6</v>
+        <v>0.909</v>
       </c>
       <c r="Y246">
         <v>-1</v>
       </c>
       <c r="Z246">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA246">
+        <v>-1</v>
+      </c>
+      <c r="AB246">
         <v>0.95</v>
-      </c>
-      <c r="AA246">
-        <v>0</v>
-      </c>
-      <c r="AB246">
-        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:28">
@@ -22219,7 +22219,7 @@
         <v>118</v>
       </c>
       <c r="F248" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G248">
         <v>3</v>
@@ -22305,7 +22305,7 @@
         <v>87</v>
       </c>
       <c r="F249" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -22474,10 +22474,10 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E251" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F251" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G251">
         <v>3</v>
@@ -22560,7 +22560,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E252" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F252" t="s">
         <v>91</v>
@@ -22723,7 +22723,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7874399</v>
+        <v>7874397</v>
       </c>
       <c r="C254" t="s">
         <v>27</v>
@@ -22732,34 +22732,34 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E254" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F254" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="G254">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H254">
         <v>1</v>
       </c>
       <c r="I254" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J254">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K254">
         <v>4</v>
       </c>
       <c r="L254">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M254">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="N254">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O254">
         <v>4.75</v>
@@ -22768,40 +22768,40 @@
         <v>-1</v>
       </c>
       <c r="Q254">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R254">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S254">
         <v>2.75</v>
       </c>
       <c r="T254">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U254">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V254">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W254">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z254">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB254">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:28">
@@ -22809,7 +22809,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7874397</v>
+        <v>7874399</v>
       </c>
       <c r="C255" t="s">
         <v>27</v>
@@ -22818,34 +22818,34 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E255" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F255" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="G255">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H255">
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J255">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K255">
         <v>4</v>
       </c>
       <c r="L255">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M255">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="N255">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O255">
         <v>4.75</v>
@@ -22854,40 +22854,40 @@
         <v>-1</v>
       </c>
       <c r="Q255">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R255">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S255">
         <v>2.75</v>
       </c>
       <c r="T255">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U255">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V255">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W255">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z255">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA255">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB255">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="256" spans="1:28">
@@ -22904,7 +22904,7 @@
         <v>45347.4375</v>
       </c>
       <c r="E256" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F256" t="s">
         <v>185</v>
@@ -23165,7 +23165,7 @@
         <v>52</v>
       </c>
       <c r="F259" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G259">
         <v>4</v>
@@ -23334,7 +23334,7 @@
         <v>45353.58333333334</v>
       </c>
       <c r="E261" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F261" t="s">
         <v>89</v>
@@ -23583,7 +23583,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7906724</v>
+        <v>7906723</v>
       </c>
       <c r="C264" t="s">
         <v>27</v>
@@ -23592,46 +23592,46 @@
         <v>45354.45833333334</v>
       </c>
       <c r="E264" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F264" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="G264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H264">
         <v>1</v>
       </c>
       <c r="I264" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J264">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="K264">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="L264">
         <v>2.25</v>
       </c>
       <c r="M264">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="N264">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O264">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="P264">
         <v>0.5</v>
       </c>
       <c r="Q264">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="R264">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S264">
         <v>2.25</v>
@@ -23643,25 +23643,25 @@
         <v>2</v>
       </c>
       <c r="V264">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="W264">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>0.925</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z264">
         <v>-1</v>
       </c>
       <c r="AA264">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB264">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:28">
@@ -23669,7 +23669,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7906723</v>
+        <v>7906724</v>
       </c>
       <c r="C265" t="s">
         <v>27</v>
@@ -23678,46 +23678,46 @@
         <v>45354.45833333334</v>
       </c>
       <c r="E265" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F265" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="G265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H265">
         <v>1</v>
       </c>
       <c r="I265" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J265">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="K265">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="L265">
         <v>2.25</v>
       </c>
       <c r="M265">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="N265">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O265">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="P265">
         <v>0.5</v>
       </c>
       <c r="Q265">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="R265">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S265">
         <v>2.25</v>
@@ -23729,25 +23729,25 @@
         <v>2</v>
       </c>
       <c r="V265">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="W265">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>0.7250000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z265">
         <v>-1</v>
       </c>
       <c r="AA265">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="266" spans="1:28">
@@ -23853,7 +23853,7 @@
         <v>121</v>
       </c>
       <c r="F267" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -23927,7 +23927,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7933407</v>
+        <v>7933344</v>
       </c>
       <c r="C268" t="s">
         <v>27</v>
@@ -23936,73 +23936,73 @@
         <v>45360.58333333334</v>
       </c>
       <c r="E268" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="F268" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="G268">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J268">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="K268">
         <v>3.2</v>
       </c>
       <c r="L268">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="M268">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N268">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="O268">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="P268">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q268">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R268">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S268">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T268">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U268">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V268">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W268">
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y268">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA268">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB268">
         <v>-1</v>
@@ -24013,7 +24013,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7933344</v>
+        <v>7933407</v>
       </c>
       <c r="C269" t="s">
         <v>27</v>
@@ -24022,73 +24022,73 @@
         <v>45360.58333333334</v>
       </c>
       <c r="E269" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="F269" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="G269">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J269">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="K269">
         <v>3.2</v>
       </c>
       <c r="L269">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="M269">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N269">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="O269">
+        <v>2.9</v>
+      </c>
+      <c r="P269">
+        <v>-0.25</v>
+      </c>
+      <c r="Q269">
+        <v>1.975</v>
+      </c>
+      <c r="R269">
+        <v>1.825</v>
+      </c>
+      <c r="S269">
         <v>2.5</v>
       </c>
-      <c r="P269">
-        <v>0</v>
-      </c>
-      <c r="Q269">
-        <v>2</v>
-      </c>
-      <c r="R269">
-        <v>1.8</v>
-      </c>
-      <c r="S269">
-        <v>2.25</v>
-      </c>
       <c r="T269">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U269">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V269">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W269">
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y269">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z269">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB269">
         <v>-1</v>
@@ -24108,10 +24108,10 @@
         <v>45360.58333333334</v>
       </c>
       <c r="E270" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F270" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G270">
         <v>2</v>
@@ -24197,7 +24197,7 @@
         <v>78</v>
       </c>
       <c r="F271" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G271">
         <v>2</v>
@@ -24538,7 +24538,7 @@
         <v>45361.4375</v>
       </c>
       <c r="E275" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F275" t="s">
         <v>119</v>
@@ -24627,7 +24627,7 @@
         <v>29</v>
       </c>
       <c r="F276" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G276">
         <v>3</v>
@@ -24710,7 +24710,7 @@
         <v>45367.45833333334</v>
       </c>
       <c r="E277" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F277" t="s">
         <v>166</v>
@@ -24971,7 +24971,7 @@
         <v>67</v>
       </c>
       <c r="F280" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G280">
         <v>3</v>
@@ -25140,7 +25140,7 @@
         <v>45367.58333333334</v>
       </c>
       <c r="E282" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F282" t="s">
         <v>171</v>
@@ -25226,7 +25226,7 @@
         <v>45367.58333333334</v>
       </c>
       <c r="E283" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F283" t="s">
         <v>112</v>
@@ -25905,7 +25905,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7968992</v>
+        <v>7968991</v>
       </c>
       <c r="C291" t="s">
         <v>27</v>
@@ -25914,76 +25914,76 @@
         <v>45368.45833333334</v>
       </c>
       <c r="E291" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="F291" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="G291">
+        <v>1</v>
+      </c>
+      <c r="H291">
         <v>3</v>
       </c>
-      <c r="H291">
-        <v>0</v>
-      </c>
       <c r="I291" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J291">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="K291">
         <v>3.25</v>
       </c>
       <c r="L291">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="M291">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="N291">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O291">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="P291">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q291">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R291">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S291">
         <v>2.75</v>
       </c>
       <c r="T291">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U291">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V291">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W291">
         <v>-1</v>
       </c>
       <c r="X291">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y291">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z291">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA291">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AB291">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292" spans="1:28">
@@ -25991,7 +25991,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>7968991</v>
+        <v>7968992</v>
       </c>
       <c r="C292" t="s">
         <v>27</v>
@@ -26000,76 +26000,76 @@
         <v>45368.45833333334</v>
       </c>
       <c r="E292" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="F292" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="G292">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H292">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J292">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="K292">
         <v>3.25</v>
       </c>
       <c r="L292">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="M292">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="N292">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O292">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="P292">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q292">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R292">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S292">
         <v>2.75</v>
       </c>
       <c r="T292">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U292">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V292">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W292">
         <v>-1</v>
       </c>
       <c r="X292">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y292">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z292">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA292">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AB292">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="293" spans="1:28">
@@ -26086,10 +26086,10 @@
         <v>45373.66666666666</v>
       </c>
       <c r="E293" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F293" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G293">
         <v>2</v>
@@ -26163,7 +26163,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7995535</v>
+        <v>7995544</v>
       </c>
       <c r="C294" t="s">
         <v>27</v>
@@ -26172,40 +26172,40 @@
         <v>45374.45833333334</v>
       </c>
       <c r="E294" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="F294" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G294">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H294">
         <v>0</v>
       </c>
       <c r="I294" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J294">
+        <v>1.5</v>
+      </c>
+      <c r="K294">
         <v>3.6</v>
       </c>
-      <c r="K294">
-        <v>3.2</v>
-      </c>
       <c r="L294">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="M294">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="N294">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O294">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="P294">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q294">
         <v>1.85</v>
@@ -26214,34 +26214,34 @@
         <v>1.95</v>
       </c>
       <c r="S294">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T294">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U294">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V294">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="W294">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X294">
         <v>-1</v>
       </c>
       <c r="Y294">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z294">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA294">
         <v>-1</v>
       </c>
       <c r="AB294">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="295" spans="1:28">
@@ -26249,7 +26249,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7995544</v>
+        <v>7995535</v>
       </c>
       <c r="C295" t="s">
         <v>27</v>
@@ -26258,40 +26258,40 @@
         <v>45374.45833333334</v>
       </c>
       <c r="E295" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F295" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H295">
         <v>0</v>
       </c>
       <c r="I295" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J295">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="K295">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L295">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="M295">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="N295">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O295">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="P295">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q295">
         <v>1.85</v>
@@ -26300,34 +26300,34 @@
         <v>1.95</v>
       </c>
       <c r="S295">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T295">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U295">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V295">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="W295">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X295">
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z295">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA295">
         <v>-1</v>
       </c>
       <c r="AB295">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:28">
@@ -26516,7 +26516,7 @@
         <v>45374.58333333334</v>
       </c>
       <c r="E298" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F298" t="s">
         <v>86</v>
@@ -26774,7 +26774,7 @@
         <v>45374.64583333334</v>
       </c>
       <c r="E301" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F301" t="s">
         <v>87</v>
@@ -26946,7 +26946,7 @@
         <v>45375.45833333334</v>
       </c>
       <c r="E303" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F303" t="s">
         <v>128</v>
@@ -27035,7 +27035,7 @@
         <v>44</v>
       </c>
       <c r="F304" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G304">
         <v>4</v>
@@ -27634,7 +27634,7 @@
         <v>45382.39583333334</v>
       </c>
       <c r="E311" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F311" t="s">
         <v>53</v>
@@ -27806,7 +27806,7 @@
         <v>45388.41666666666</v>
       </c>
       <c r="E313" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F313" t="s">
         <v>109</v>
@@ -27892,7 +27892,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E314" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F314" t="s">
         <v>95</v>
@@ -27978,7 +27978,7 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E315" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F315" t="s">
         <v>94</v>
@@ -28141,7 +28141,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>8061603</v>
+        <v>8055249</v>
       </c>
       <c r="C317" t="s">
         <v>27</v>
@@ -28150,73 +28150,73 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E317" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F317" t="s">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c r="G317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J317">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="K317">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L317">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="M317">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="N317">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O317">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="P317">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q317">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R317">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S317">
         <v>2.25</v>
       </c>
       <c r="T317">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U317">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V317">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W317">
         <v>-1</v>
       </c>
       <c r="X317">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y317">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA317">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB317">
         <v>-1</v>
@@ -28227,7 +28227,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>8055249</v>
+        <v>8055418</v>
       </c>
       <c r="C318" t="s">
         <v>27</v>
@@ -28236,10 +28236,10 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E318" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F318" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="G318">
         <v>1</v>
@@ -28251,40 +28251,40 @@
         <v>191</v>
       </c>
       <c r="J318">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="K318">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L318">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="M318">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="N318">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O318">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="P318">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q318">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R318">
+        <v>1.9</v>
+      </c>
+      <c r="S318">
+        <v>2.75</v>
+      </c>
+      <c r="T318">
         <v>1.75</v>
       </c>
-      <c r="S318">
-        <v>2.25</v>
-      </c>
-      <c r="T318">
-        <v>1.8</v>
-      </c>
       <c r="U318">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V318">
         <v>-1</v>
@@ -28293,19 +28293,19 @@
         <v>-1</v>
       </c>
       <c r="X318">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA318">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="AB318">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="319" spans="1:28">
@@ -28313,7 +28313,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>8055418</v>
+        <v>8055421</v>
       </c>
       <c r="C319" t="s">
         <v>27</v>
@@ -28322,10 +28322,10 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E319" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F319" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="G319">
         <v>1</v>
@@ -28337,40 +28337,40 @@
         <v>191</v>
       </c>
       <c r="J319">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K319">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L319">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M319">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="N319">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O319">
         <v>4</v>
       </c>
       <c r="P319">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q319">
+        <v>1.85</v>
+      </c>
+      <c r="R319">
+        <v>1.95</v>
+      </c>
+      <c r="S319">
+        <v>2.5</v>
+      </c>
+      <c r="T319">
         <v>1.9</v>
       </c>
-      <c r="R319">
+      <c r="U319">
         <v>1.9</v>
-      </c>
-      <c r="S319">
-        <v>2.75</v>
-      </c>
-      <c r="T319">
-        <v>1.75</v>
-      </c>
-      <c r="U319">
-        <v>1.95</v>
       </c>
       <c r="V319">
         <v>-1</v>
@@ -28385,13 +28385,13 @@
         <v>-1</v>
       </c>
       <c r="Z319">
+        <v>0.95</v>
+      </c>
+      <c r="AA319">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA319">
-        <v>0.375</v>
-      </c>
       <c r="AB319">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:28">
@@ -28399,7 +28399,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>8055421</v>
+        <v>8061603</v>
       </c>
       <c r="C320" t="s">
         <v>27</v>
@@ -28408,73 +28408,73 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E320" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F320" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="G320">
+        <v>2</v>
+      </c>
+      <c r="H320">
         <v>1</v>
       </c>
-      <c r="H320">
-        <v>2</v>
-      </c>
       <c r="I320" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J320">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="K320">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L320">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M320">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="N320">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O320">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P320">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q320">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R320">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S320">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T320">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U320">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V320">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W320">
         <v>-1</v>
       </c>
       <c r="X320">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y320">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z320">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA320">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB320">
         <v>-1</v>
@@ -28666,7 +28666,7 @@
         <v>45388.58333333334</v>
       </c>
       <c r="E323" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F323" t="s">
         <v>71</v>
@@ -28829,7 +28829,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>8059611</v>
+        <v>8059610</v>
       </c>
       <c r="C325" t="s">
         <v>27</v>
@@ -28838,76 +28838,76 @@
         <v>45389.41666666666</v>
       </c>
       <c r="E325" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="F325" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="G325">
         <v>2</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J325">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K325">
         <v>3.25</v>
       </c>
       <c r="L325">
+        <v>2.1</v>
+      </c>
+      <c r="M325">
+        <v>3</v>
+      </c>
+      <c r="N325">
         <v>3.25</v>
       </c>
-      <c r="M325">
+      <c r="O325">
+        <v>2.1</v>
+      </c>
+      <c r="P325">
+        <v>0.25</v>
+      </c>
+      <c r="Q325">
+        <v>1.9</v>
+      </c>
+      <c r="R325">
+        <v>1.9</v>
+      </c>
+      <c r="S325">
+        <v>2.75</v>
+      </c>
+      <c r="T325">
         <v>1.95</v>
       </c>
-      <c r="N325">
-        <v>3.3</v>
-      </c>
-      <c r="O325">
-        <v>3.4</v>
-      </c>
-      <c r="P325">
-        <v>-0.5</v>
-      </c>
-      <c r="Q325">
-        <v>2</v>
-      </c>
-      <c r="R325">
-        <v>1.8</v>
-      </c>
-      <c r="S325">
-        <v>2.5</v>
-      </c>
-      <c r="T325">
-        <v>1.925</v>
-      </c>
       <c r="U325">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V325">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W325">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X325">
         <v>-1</v>
       </c>
       <c r="Y325">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z325">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA325">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB325">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="326" spans="1:28">
@@ -28915,7 +28915,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>8059610</v>
+        <v>8059611</v>
       </c>
       <c r="C326" t="s">
         <v>27</v>
@@ -28924,76 +28924,76 @@
         <v>45389.41666666666</v>
       </c>
       <c r="E326" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="F326" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="G326">
         <v>2</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J326">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K326">
         <v>3.25</v>
       </c>
       <c r="L326">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="M326">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="N326">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O326">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="P326">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q326">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R326">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S326">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T326">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U326">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V326">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W326">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X326">
         <v>-1</v>
       </c>
       <c r="Y326">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z326">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA326">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB326">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:28">
@@ -29096,7 +29096,7 @@
         <v>45395.41666666666</v>
       </c>
       <c r="E328" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F328" t="s">
         <v>187</v>
@@ -29268,10 +29268,10 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E330" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F330" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G330">
         <v>1</v>
@@ -29431,7 +29431,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>8086622</v>
+        <v>8086623</v>
       </c>
       <c r="C332" t="s">
         <v>27</v>
@@ -29440,76 +29440,76 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E332" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F332" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G332">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J332">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="K332">
         <v>3.2</v>
       </c>
       <c r="L332">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="M332">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="N332">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O332">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="P332">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q332">
+        <v>1.975</v>
+      </c>
+      <c r="R332">
         <v>1.825</v>
       </c>
-      <c r="R332">
-        <v>1.975</v>
-      </c>
       <c r="S332">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T332">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U332">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V332">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W332">
         <v>-1</v>
       </c>
       <c r="X332">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y332">
+        <v>-1</v>
+      </c>
+      <c r="Z332">
         <v>0.825</v>
       </c>
-      <c r="Z332">
-        <v>-1</v>
-      </c>
       <c r="AA332">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="333" spans="1:28">
@@ -29517,7 +29517,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>8086623</v>
+        <v>8086622</v>
       </c>
       <c r="C333" t="s">
         <v>27</v>
@@ -29526,76 +29526,76 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E333" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="F333" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G333">
+        <v>2</v>
+      </c>
+      <c r="H333">
         <v>0</v>
       </c>
-      <c r="H333">
-        <v>2</v>
-      </c>
       <c r="I333" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J333">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="K333">
         <v>3.2</v>
       </c>
       <c r="L333">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="M333">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="N333">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O333">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="P333">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q333">
+        <v>1.825</v>
+      </c>
+      <c r="R333">
         <v>1.975</v>
       </c>
-      <c r="R333">
-        <v>1.825</v>
-      </c>
       <c r="S333">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T333">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U333">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V333">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W333">
         <v>-1</v>
       </c>
       <c r="X333">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y333">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z333">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA333">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB333">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="334" spans="1:28">
@@ -29701,7 +29701,7 @@
         <v>78</v>
       </c>
       <c r="F335" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G335">
         <v>1</v>
@@ -29784,10 +29784,10 @@
         <v>45395.625</v>
       </c>
       <c r="E336" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F336" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G336">
         <v>0</v>
@@ -29956,7 +29956,7 @@
         <v>45396.41666666666</v>
       </c>
       <c r="E338" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F338" t="s">
         <v>171</v>
@@ -30042,7 +30042,7 @@
         <v>45402.41666666666</v>
       </c>
       <c r="E339" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F339" t="s">
         <v>75</v>
@@ -30214,7 +30214,7 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E341" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F341" t="s">
         <v>70</v>
@@ -30377,7 +30377,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>8117183</v>
+        <v>8117258</v>
       </c>
       <c r="C343" t="s">
         <v>27</v>
@@ -30386,76 +30386,76 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E343" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F343" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="G343">
         <v>1</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J343">
+        <v>3.2</v>
+      </c>
+      <c r="K343">
+        <v>3.1</v>
+      </c>
+      <c r="L343">
+        <v>2.1</v>
+      </c>
+      <c r="M343">
         <v>2.9</v>
       </c>
-      <c r="K343">
-        <v>3.2</v>
-      </c>
-      <c r="L343">
-        <v>2.2</v>
-      </c>
-      <c r="M343">
-        <v>2.5</v>
-      </c>
       <c r="N343">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O343">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="P343">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q343">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R343">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S343">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T343">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U343">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V343">
         <v>-1</v>
       </c>
       <c r="W343">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X343">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y343">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z343">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA343">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB343">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="344" spans="1:28">
@@ -30558,7 +30558,7 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E345" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F345" t="s">
         <v>115</v>
@@ -30635,7 +30635,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>8117258</v>
+        <v>8117183</v>
       </c>
       <c r="C346" t="s">
         <v>27</v>
@@ -30644,76 +30644,76 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E346" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F346" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="G346">
         <v>1</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J346">
+        <v>2.9</v>
+      </c>
+      <c r="K346">
         <v>3.2</v>
       </c>
-      <c r="K346">
-        <v>3.1</v>
-      </c>
       <c r="L346">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M346">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N346">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O346">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="P346">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q346">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="R346">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S346">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T346">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U346">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V346">
         <v>-1</v>
       </c>
       <c r="W346">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X346">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y346">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA346">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB346">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347" spans="1:28">
@@ -30730,10 +30730,10 @@
         <v>45402.58333333334</v>
       </c>
       <c r="E347" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F347" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G347">
         <v>3</v>
@@ -31077,7 +31077,7 @@
         <v>62</v>
       </c>
       <c r="F351" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G351">
         <v>1</v>
@@ -31507,7 +31507,7 @@
         <v>74</v>
       </c>
       <c r="F356" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G356">
         <v>0</v>
@@ -32195,7 +32195,7 @@
         <v>29</v>
       </c>
       <c r="F364" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G364">
         <v>0</v>
@@ -32278,7 +32278,7 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E365" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F365" t="s">
         <v>52</v>
@@ -32453,7 +32453,7 @@
         <v>78</v>
       </c>
       <c r="F367" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G367">
         <v>1</v>
@@ -32622,7 +32622,7 @@
         <v>45410.41666666666</v>
       </c>
       <c r="E369" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F369" t="s">
         <v>39</v>
@@ -32708,7 +32708,7 @@
         <v>45413.41666666666</v>
       </c>
       <c r="E370" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F370" t="s">
         <v>147</v>
@@ -32797,7 +32797,7 @@
         <v>124</v>
       </c>
       <c r="F371" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G371">
         <v>3</v>
@@ -32966,7 +32966,7 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E373" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F373" t="s">
         <v>89</v>
@@ -33399,7 +33399,7 @@
         <v>44</v>
       </c>
       <c r="F378" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G378">
         <v>3</v>
@@ -33654,7 +33654,7 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E381" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F381" t="s">
         <v>112</v>
@@ -33998,7 +33998,7 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E385" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F385" t="s">
         <v>156</v>
@@ -34084,7 +34084,7 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E386" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F386" t="s">
         <v>190</v>
@@ -34256,7 +34256,7 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E388" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F388" t="s">
         <v>118</v>
@@ -34342,10 +34342,10 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E389" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F389" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G389">
         <v>1</v>
@@ -34428,7 +34428,7 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E390" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F390" t="s">
         <v>175</v>

--- a/France National 3/France National 3.xlsx
+++ b/France National 3/France National 3.xlsx
@@ -121,22 +121,22 @@
     <t>Vitre</t>
   </si>
   <si>
-    <t>RC Epernay</t>
+    <t>Pau II</t>
   </si>
   <si>
     <t>CMS Oissel</t>
   </si>
   <si>
-    <t>Pau II</t>
+    <t>RC Epernay</t>
   </si>
   <si>
     <t>US LegeCapFerret</t>
   </si>
   <si>
-    <t>Maubeuge</t>
+    <t>Montpellier II</t>
   </si>
   <si>
-    <t>Montpellier II</t>
+    <t>Maubeuge</t>
   </si>
   <si>
     <t>Caen II</t>
@@ -352,10 +352,10 @@
     <t>Raon lEtape</t>
   </si>
   <si>
-    <t>Dieppe</t>
+    <t>Sainte Genevieve Sports</t>
   </si>
   <si>
-    <t>Sainte Genevieve Sports</t>
+    <t>Dieppe</t>
   </si>
   <si>
     <t>Chambery</t>
@@ -436,10 +436,10 @@
     <t>Anglet Genets</t>
   </si>
   <si>
-    <t>Feignies Aulnoye FC</t>
+    <t>Toulouse II</t>
   </si>
   <si>
-    <t>Toulouse II</t>
+    <t>Feignies Aulnoye FC</t>
   </si>
   <si>
     <t>SaintLo Manche</t>
@@ -1529,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6727651</v>
+        <v>6727649</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1541,16 +1541,16 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1559,43 +1559,43 @@
         <v>196</v>
       </c>
       <c r="L7">
-        <v>2.9</v>
+        <v>1.181</v>
       </c>
       <c r="M7">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>1.95</v>
+        <v>10</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>1.181</v>
       </c>
       <c r="P7">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q7">
-        <v>1.7</v>
+        <v>11</v>
       </c>
       <c r="R7">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U7">
         <v>3</v>
       </c>
       <c r="V7">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="X7">
-        <v>2.5</v>
+        <v>0.181</v>
       </c>
       <c r="Y7">
         <v>-1</v>
@@ -1604,13 +1604,13 @@
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD7">
         <v>-1</v>
@@ -1713,7 +1713,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6727649</v>
+        <v>6727651</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1725,16 +1725,16 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1743,43 +1743,43 @@
         <v>196</v>
       </c>
       <c r="L9">
-        <v>1.181</v>
+        <v>2.9</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>3.9</v>
       </c>
       <c r="N9">
-        <v>10</v>
+        <v>1.95</v>
       </c>
       <c r="O9">
-        <v>1.181</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>1.7</v>
       </c>
       <c r="R9">
-        <v>-2</v>
+        <v>0.75</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T9">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U9">
         <v>3</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W9">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="X9">
-        <v>0.181</v>
+        <v>2.5</v>
       </c>
       <c r="Y9">
         <v>-1</v>
@@ -1788,13 +1788,13 @@
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD9">
         <v>-1</v>
@@ -1897,7 +1897,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6727692</v>
+        <v>6727690</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1918,50 +1918,50 @@
         <v>3</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
         <v>195</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R11">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T11">
+        <v>1.9</v>
+      </c>
+      <c r="U11">
+        <v>2.5</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
         <v>1.8</v>
       </c>
-      <c r="U11">
-        <v>3.25</v>
-      </c>
-      <c r="V11">
-        <v>1.9</v>
-      </c>
-      <c r="W11">
-        <v>1.9</v>
-      </c>
       <c r="X11">
         <v>-1</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC11">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD11">
         <v>-1</v>
@@ -1989,7 +1989,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6727690</v>
+        <v>6727692</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -2010,50 +2010,50 @@
         <v>3</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
         <v>195</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N12">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O12">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P12">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q12">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="R12">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>1.8</v>
+      </c>
+      <c r="U12">
+        <v>3.25</v>
+      </c>
+      <c r="V12">
         <v>1.9</v>
       </c>
-      <c r="T12">
+      <c r="W12">
         <v>1.9</v>
       </c>
-      <c r="U12">
-        <v>2.5</v>
-      </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
-      <c r="W12">
-        <v>1.8</v>
-      </c>
       <c r="X12">
         <v>-1</v>
       </c>
@@ -2061,16 +2061,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
+        <v>0.8</v>
+      </c>
+      <c r="AC12">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC12">
-        <v>1</v>
       </c>
       <c r="AD12">
         <v>-1</v>
@@ -3102,7 +3102,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
         <v>65</v>
@@ -3470,7 +3470,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
         <v>46</v>
@@ -4117,7 +4117,7 @@
         <v>60</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -4942,7 +4942,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
         <v>139</v>
@@ -6693,7 +6693,7 @@
         <v>47</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -7242,7 +7242,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
         <v>94</v>
@@ -9726,7 +9726,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="E96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F96" t="s">
         <v>155</v>
@@ -12029,7 +12029,7 @@
         <v>98</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -14602,7 +14602,7 @@
         <v>45270.45833333334</v>
       </c>
       <c r="E149" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F149" t="s">
         <v>33</v>
@@ -15985,7 +15985,7 @@
         <v>92</v>
       </c>
       <c r="F164" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -16341,7 +16341,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7664701</v>
+        <v>7663704</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
@@ -16350,10 +16350,10 @@
         <v>45297.58333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F168" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -16362,52 +16362,52 @@
         <v>1</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168" t="s">
         <v>196</v>
       </c>
       <c r="L168">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="M168">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N168">
-        <v>1.4</v>
+        <v>2.35</v>
       </c>
       <c r="O168">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="P168">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q168">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="R168">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S168">
+        <v>1.8</v>
+      </c>
+      <c r="T168">
+        <v>2</v>
+      </c>
+      <c r="U168">
+        <v>3</v>
+      </c>
+      <c r="V168">
+        <v>1.75</v>
+      </c>
+      <c r="W168">
         <v>1.95</v>
       </c>
-      <c r="T168">
-        <v>1.85</v>
-      </c>
-      <c r="U168">
-        <v>2.75</v>
-      </c>
-      <c r="V168">
-        <v>1.875</v>
-      </c>
-      <c r="W168">
-        <v>1.925</v>
-      </c>
       <c r="X168">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y168">
         <v>-1</v>
@@ -16416,16 +16416,16 @@
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AD168">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -16433,7 +16433,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7663704</v>
+        <v>7663729</v>
       </c>
       <c r="C169" t="s">
         <v>29</v>
@@ -16442,82 +16442,82 @@
         <v>45297.58333333334</v>
       </c>
       <c r="E169" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F169" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H169">
         <v>1</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K169" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L169">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="M169">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N169">
-        <v>2.35</v>
+        <v>2.9</v>
       </c>
       <c r="O169">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="P169">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q169">
+        <v>2.9</v>
+      </c>
+      <c r="R169">
+        <v>-0.25</v>
+      </c>
+      <c r="S169">
+        <v>1.975</v>
+      </c>
+      <c r="T169">
+        <v>1.825</v>
+      </c>
+      <c r="U169">
+        <v>2.25</v>
+      </c>
+      <c r="V169">
+        <v>2</v>
+      </c>
+      <c r="W169">
+        <v>1.8</v>
+      </c>
+      <c r="X169">
+        <v>-1</v>
+      </c>
+      <c r="Y169">
         <v>2.2</v>
       </c>
-      <c r="R169">
-        <v>0.25</v>
-      </c>
-      <c r="S169">
-        <v>1.8</v>
-      </c>
-      <c r="T169">
-        <v>2</v>
-      </c>
-      <c r="U169">
-        <v>3</v>
-      </c>
-      <c r="V169">
-        <v>1.75</v>
-      </c>
-      <c r="W169">
-        <v>1.95</v>
-      </c>
-      <c r="X169">
-        <v>1.8</v>
-      </c>
-      <c r="Y169">
-        <v>-1</v>
-      </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC169">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD169">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="170" spans="1:30">
@@ -16525,7 +16525,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7663729</v>
+        <v>7664701</v>
       </c>
       <c r="C170" t="s">
         <v>29</v>
@@ -16534,13 +16534,13 @@
         <v>45297.58333333334</v>
       </c>
       <c r="E170" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F170" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -16552,64 +16552,64 @@
         <v>1</v>
       </c>
       <c r="K170" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L170">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="M170">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N170">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="O170">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="P170">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q170">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="R170">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="S170">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T170">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U170">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V170">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W170">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y170">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
         <v>-1</v>
       </c>
       <c r="AA170">
+        <v>0.95</v>
+      </c>
+      <c r="AB170">
+        <v>-1</v>
+      </c>
+      <c r="AC170">
+        <v>0.4375</v>
+      </c>
+      <c r="AD170">
         <v>-0.5</v>
-      </c>
-      <c r="AB170">
-        <v>0.4125</v>
-      </c>
-      <c r="AC170">
-        <v>-0.5</v>
-      </c>
-      <c r="AD170">
-        <v>0.4</v>
       </c>
     </row>
     <row r="171" spans="1:30">
@@ -16994,7 +16994,7 @@
         <v>45304.54166666666</v>
       </c>
       <c r="E175" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F175" t="s">
         <v>103</v>
@@ -18193,7 +18193,7 @@
         <v>65</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -18561,7 +18561,7 @@
         <v>64</v>
       </c>
       <c r="F192" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -18745,7 +18745,7 @@
         <v>46</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -20107,7 +20107,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7779758</v>
+        <v>7779757</v>
       </c>
       <c r="C209" t="s">
         <v>29</v>
@@ -20116,82 +20116,82 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E209" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="F209" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="G209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H209">
         <v>0</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209">
         <v>0</v>
       </c>
       <c r="K209" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L209">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="M209">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N209">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="O209">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="P209">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q209">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="R209">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S209">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T209">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U209">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V209">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W209">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y209">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
         <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB209">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
         <v>-1</v>
       </c>
       <c r="AD209">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:30">
@@ -20199,7 +20199,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7779757</v>
+        <v>7779758</v>
       </c>
       <c r="C210" t="s">
         <v>29</v>
@@ -20208,82 +20208,82 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E210" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="F210" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="G210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H210">
         <v>0</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210">
         <v>0</v>
       </c>
       <c r="K210" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L210">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="M210">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N210">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="O210">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="P210">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q210">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="R210">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S210">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T210">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U210">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V210">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W210">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X210">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z210">
         <v>-1</v>
       </c>
       <c r="AA210">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC210">
         <v>-1</v>
       </c>
       <c r="AD210">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="211" spans="1:30">
@@ -20291,7 +20291,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7779756</v>
+        <v>7779993</v>
       </c>
       <c r="C211" t="s">
         <v>29</v>
@@ -20300,61 +20300,61 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E211" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="F211" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I211">
         <v>0</v>
       </c>
       <c r="J211">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K211" t="s">
         <v>195</v>
       </c>
       <c r="L211">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M211">
         <v>3.2</v>
       </c>
       <c r="N211">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O211">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="P211">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q211">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="R211">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S211">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T211">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U211">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V211">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W211">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X211">
         <v>-1</v>
@@ -20363,19 +20363,19 @@
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AA211">
         <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD211">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:30">
@@ -20383,7 +20383,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7779993</v>
+        <v>7779991</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -20392,55 +20392,55 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E212" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F212" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G212">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I212">
         <v>0</v>
       </c>
       <c r="J212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K212" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L212">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="M212">
         <v>3.2</v>
       </c>
       <c r="N212">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O212">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="P212">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q212">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="R212">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S212">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T212">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U212">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V212">
         <v>1.8</v>
@@ -20452,22 +20452,22 @@
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z212">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB212">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC212">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AD212">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -20475,7 +20475,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7779991</v>
+        <v>7779990</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -20484,52 +20484,52 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E213" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F213" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G213">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213">
         <v>0</v>
       </c>
       <c r="J213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K213" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L213">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="M213">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N213">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="O213">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="P213">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q213">
-        <v>2</v>
+        <v>5.25</v>
       </c>
       <c r="R213">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S213">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T213">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U213">
         <v>2.25</v>
@@ -20541,25 +20541,25 @@
         <v>2</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y213">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.5</v>
+        <v>0.3625</v>
       </c>
       <c r="AB213">
         <v>-0.5</v>
       </c>
       <c r="AC213">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD213">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:30">
@@ -20567,7 +20567,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7779990</v>
+        <v>7779989</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
@@ -20576,16 +20576,16 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E214" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="F214" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -20594,64 +20594,64 @@
         <v>0</v>
       </c>
       <c r="K214" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L214">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="M214">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N214">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="O214">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="P214">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q214">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="R214">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S214">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U214">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X214">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA214">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC214">
         <v>-1</v>
       </c>
       <c r="AD214">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="215" spans="1:30">
@@ -20659,7 +20659,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7779989</v>
+        <v>7779988</v>
       </c>
       <c r="C215" t="s">
         <v>29</v>
@@ -20668,82 +20668,82 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E215" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F215" t="s">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="G215">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215">
         <v>0</v>
       </c>
       <c r="K215" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L215">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="M215">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N215">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O215">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="P215">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q215">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="R215">
         <v>-0.5</v>
       </c>
       <c r="S215">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U215">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W215">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB215">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD215">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:30">
@@ -20751,7 +20751,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7779755</v>
+        <v>7779756</v>
       </c>
       <c r="C216" t="s">
         <v>29</v>
@@ -20760,82 +20760,82 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E216" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="F216" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="G216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
         <v>1</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K216" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L216">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="M216">
         <v>3.2</v>
       </c>
       <c r="N216">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O216">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="P216">
         <v>3.2</v>
       </c>
       <c r="Q216">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="R216">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S216">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T216">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U216">
         <v>2.5</v>
       </c>
       <c r="V216">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W216">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC216">
         <v>-1</v>
       </c>
       <c r="AD216">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="217" spans="1:30">
@@ -20843,7 +20843,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7779988</v>
+        <v>7779754</v>
       </c>
       <c r="C217" t="s">
         <v>29</v>
@@ -20852,64 +20852,64 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="F217" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G217">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K217" t="s">
         <v>196</v>
       </c>
       <c r="L217">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="M217">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="N217">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="O217">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="P217">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="Q217">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="R217">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="S217">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T217">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U217">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="V217">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W217">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X217">
-        <v>0.909</v>
+        <v>0.25</v>
       </c>
       <c r="Y217">
         <v>-1</v>
@@ -20918,16 +20918,16 @@
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB217">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC217">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AD217">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -20935,7 +20935,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7779754</v>
+        <v>7779994</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
@@ -20944,16 +20944,16 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E218" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="F218" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -20962,64 +20962,64 @@
         <v>1</v>
       </c>
       <c r="K218" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L218">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="M218">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="N218">
-        <v>7</v>
+        <v>1.95</v>
       </c>
       <c r="O218">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="P218">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q218">
-        <v>7</v>
+        <v>1.95</v>
       </c>
       <c r="R218">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="S218">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T218">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U218">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="V218">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W218">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X218">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA218">
         <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC218">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD218">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -21027,7 +21027,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7779994</v>
+        <v>7779755</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
@@ -21036,46 +21036,46 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E219" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="F219" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="G219">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219">
         <v>1</v>
       </c>
       <c r="K219" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L219">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="M219">
         <v>3.2</v>
       </c>
       <c r="N219">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="O219">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="P219">
         <v>3.2</v>
       </c>
       <c r="Q219">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="R219">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S219">
         <v>1.8</v>
@@ -21084,7 +21084,7 @@
         <v>2</v>
       </c>
       <c r="U219">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V219">
         <v>1.85</v>
@@ -21096,22 +21096,22 @@
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z219">
+        <v>-1</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+      <c r="AB219">
+        <v>0</v>
+      </c>
+      <c r="AC219">
+        <v>-1</v>
+      </c>
+      <c r="AD219">
         <v>0.95</v>
-      </c>
-      <c r="AA219">
-        <v>-1</v>
-      </c>
-      <c r="AB219">
-        <v>1</v>
-      </c>
-      <c r="AC219">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AD219">
-        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:30">
@@ -21763,7 +21763,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7807786</v>
+        <v>7807754</v>
       </c>
       <c r="C227" t="s">
         <v>29</v>
@@ -21772,62 +21772,62 @@
         <v>45332.58333333334</v>
       </c>
       <c r="E227" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="F227" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="G227">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I227">
         <v>1</v>
       </c>
       <c r="J227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K227" t="s">
         <v>195</v>
       </c>
       <c r="L227">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="M227">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N227">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="O227">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="P227">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q227">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="R227">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S227">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T227">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U227">
         <v>3</v>
       </c>
       <c r="V227">
+        <v>1.75</v>
+      </c>
+      <c r="W227">
         <v>1.95</v>
       </c>
-      <c r="W227">
-        <v>1.85</v>
-      </c>
       <c r="X227">
         <v>-1</v>
       </c>
@@ -21835,19 +21835,19 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="AA227">
         <v>-1</v>
       </c>
       <c r="AB227">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC227">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AD227">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:30">
@@ -21855,7 +21855,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7807754</v>
+        <v>7807786</v>
       </c>
       <c r="C228" t="s">
         <v>29</v>
@@ -21864,61 +21864,61 @@
         <v>45332.58333333334</v>
       </c>
       <c r="E228" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="F228" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="G228">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I228">
         <v>1</v>
       </c>
       <c r="J228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K228" t="s">
         <v>195</v>
       </c>
       <c r="L228">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="M228">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N228">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="O228">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="P228">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q228">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="R228">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S228">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T228">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U228">
         <v>3</v>
       </c>
       <c r="V228">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W228">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="X228">
         <v>-1</v>
@@ -21927,19 +21927,19 @@
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC228">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AD228">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:30">
@@ -22591,7 +22591,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7843138</v>
+        <v>7843187</v>
       </c>
       <c r="C236" t="s">
         <v>29</v>
@@ -22600,82 +22600,82 @@
         <v>45339.58333333334</v>
       </c>
       <c r="E236" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="F236" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K236" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L236">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="M236">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N236">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="O236">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="P236">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q236">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="R236">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S236">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T236">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V236">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W236">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y236">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
         <v>-1</v>
       </c>
       <c r="AA236">
-        <v>0.3625</v>
+        <v>0.875</v>
       </c>
       <c r="AB236">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD236">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:30">
@@ -22683,7 +22683,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7843187</v>
+        <v>7843138</v>
       </c>
       <c r="C237" t="s">
         <v>29</v>
@@ -22692,82 +22692,82 @@
         <v>45339.58333333334</v>
       </c>
       <c r="E237" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="F237" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="G237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K237" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L237">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="M237">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N237">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O237">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="P237">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q237">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="R237">
+        <v>0.25</v>
+      </c>
+      <c r="S237">
+        <v>1.725</v>
+      </c>
+      <c r="T237">
+        <v>1.975</v>
+      </c>
+      <c r="U237">
+        <v>3</v>
+      </c>
+      <c r="V237">
+        <v>1.975</v>
+      </c>
+      <c r="W237">
+        <v>1.825</v>
+      </c>
+      <c r="X237">
+        <v>-1</v>
+      </c>
+      <c r="Y237">
+        <v>2.3</v>
+      </c>
+      <c r="Z237">
+        <v>-1</v>
+      </c>
+      <c r="AA237">
+        <v>0.3625</v>
+      </c>
+      <c r="AB237">
         <v>-0.5</v>
       </c>
-      <c r="S237">
-        <v>1.875</v>
-      </c>
-      <c r="T237">
-        <v>1.925</v>
-      </c>
-      <c r="U237">
-        <v>2</v>
-      </c>
-      <c r="V237">
-        <v>1.95</v>
-      </c>
-      <c r="W237">
-        <v>1.85</v>
-      </c>
-      <c r="X237">
-        <v>0.833</v>
-      </c>
-      <c r="Y237">
-        <v>-1</v>
-      </c>
-      <c r="Z237">
-        <v>-1</v>
-      </c>
-      <c r="AA237">
-        <v>0.875</v>
-      </c>
-      <c r="AB237">
-        <v>-1</v>
-      </c>
       <c r="AC237">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD237">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="238" spans="1:30">
@@ -23980,7 +23980,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E251" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F251" t="s">
         <v>93</v>
@@ -24247,7 +24247,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7874249</v>
+        <v>7874399</v>
       </c>
       <c r="C254" t="s">
         <v>29</v>
@@ -24256,19 +24256,19 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E254" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="F254" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="G254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254">
         <v>0</v>
@@ -24277,61 +24277,61 @@
         <v>197</v>
       </c>
       <c r="L254">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="M254">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N254">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="O254">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="P254">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q254">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="R254">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S254">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T254">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U254">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V254">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W254">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="Z254">
         <v>-1</v>
       </c>
       <c r="AA254">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC254">
         <v>-1</v>
       </c>
       <c r="AD254">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="255" spans="1:30">
@@ -24339,7 +24339,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7874399</v>
+        <v>7874249</v>
       </c>
       <c r="C255" t="s">
         <v>29</v>
@@ -24348,19 +24348,19 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E255" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F255" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="G255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255">
         <v>0</v>
@@ -24369,61 +24369,61 @@
         <v>197</v>
       </c>
       <c r="L255">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="M255">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N255">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="O255">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="P255">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q255">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="R255">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S255">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T255">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U255">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V255">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W255">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Z255">
         <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB255">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AC255">
         <v>-1</v>
       </c>
       <c r="AD255">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="256" spans="1:30">
@@ -25179,7 +25179,7 @@
         <v>56</v>
       </c>
       <c r="F264" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G264">
         <v>2</v>
@@ -28203,7 +28203,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7995507</v>
+        <v>7995445</v>
       </c>
       <c r="C297" t="s">
         <v>29</v>
@@ -28212,13 +28212,13 @@
         <v>45374.58333333334</v>
       </c>
       <c r="E297" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="F297" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="G297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H297">
         <v>1</v>
@@ -28230,64 +28230,64 @@
         <v>1</v>
       </c>
       <c r="K297" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L297">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M297">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N297">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="O297">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="P297">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q297">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="R297">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S297">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T297">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U297">
         <v>2.25</v>
       </c>
       <c r="V297">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W297">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA297">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC297">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD297">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="298" spans="1:30">
@@ -28387,7 +28387,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7995445</v>
+        <v>7995507</v>
       </c>
       <c r="C299" t="s">
         <v>29</v>
@@ -28396,13 +28396,13 @@
         <v>45374.58333333334</v>
       </c>
       <c r="E299" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="F299" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="G299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H299">
         <v>1</v>
@@ -28414,64 +28414,64 @@
         <v>1</v>
       </c>
       <c r="K299" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L299">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="M299">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N299">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O299">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="P299">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q299">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="R299">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S299">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T299">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U299">
         <v>2.25</v>
       </c>
       <c r="V299">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W299">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X299">
         <v>-1</v>
       </c>
       <c r="Y299">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z299">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="AA299">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB299">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC299">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD299">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="300" spans="1:30">
@@ -28491,7 +28491,7 @@
         <v>82</v>
       </c>
       <c r="F300" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G300">
         <v>2</v>
@@ -28755,7 +28755,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>8002095</v>
+        <v>8002096</v>
       </c>
       <c r="C303" t="s">
         <v>29</v>
@@ -28764,82 +28764,82 @@
         <v>45375.45833333334</v>
       </c>
       <c r="E303" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F303" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="G303">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K303" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L303">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="M303">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N303">
+        <v>2.7</v>
+      </c>
+      <c r="O303">
         <v>2.375</v>
       </c>
-      <c r="O303">
-        <v>2.6</v>
-      </c>
       <c r="P303">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q303">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="R303">
         <v>0</v>
       </c>
       <c r="S303">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T303">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U303">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V303">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W303">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB303">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC303">
         <v>-1</v>
       </c>
       <c r="AD303">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:30">
@@ -28847,7 +28847,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>8002096</v>
+        <v>8002095</v>
       </c>
       <c r="C304" t="s">
         <v>29</v>
@@ -28856,82 +28856,82 @@
         <v>45375.45833333334</v>
       </c>
       <c r="E304" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F304" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="G304">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K304" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L304">
+        <v>2.55</v>
+      </c>
+      <c r="M304">
+        <v>3.3</v>
+      </c>
+      <c r="N304">
         <v>2.375</v>
       </c>
-      <c r="M304">
-        <v>3.1</v>
-      </c>
-      <c r="N304">
-        <v>2.7</v>
-      </c>
       <c r="O304">
+        <v>2.6</v>
+      </c>
+      <c r="P304">
+        <v>3.3</v>
+      </c>
+      <c r="Q304">
         <v>2.375</v>
       </c>
-      <c r="P304">
-        <v>3.1</v>
-      </c>
-      <c r="Q304">
-        <v>2.7</v>
-      </c>
       <c r="R304">
         <v>0</v>
       </c>
       <c r="S304">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T304">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U304">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V304">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W304">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X304">
+        <v>-1</v>
+      </c>
+      <c r="Y304">
+        <v>-1</v>
+      </c>
+      <c r="Z304">
         <v>1.375</v>
       </c>
-      <c r="Y304">
-        <v>-1</v>
-      </c>
-      <c r="Z304">
-        <v>-1</v>
-      </c>
       <c r="AA304">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC304">
         <v>-1</v>
       </c>
       <c r="AD304">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="305" spans="1:30">
@@ -29408,7 +29408,7 @@
         <v>45381.66666666666</v>
       </c>
       <c r="E310" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F310" t="s">
         <v>104</v>
@@ -29776,7 +29776,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E314" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F314" t="s">
         <v>98</v>
@@ -31803,7 +31803,7 @@
         <v>49</v>
       </c>
       <c r="F336" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G336">
         <v>0</v>
@@ -32251,7 +32251,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>8117312</v>
+        <v>8117166</v>
       </c>
       <c r="C341" t="s">
         <v>29</v>
@@ -32260,22 +32260,22 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E341" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="F341" t="s">
-        <v>193</v>
+        <v>72</v>
       </c>
       <c r="G341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341">
         <v>0</v>
       </c>
       <c r="J341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K341" t="s">
         <v>197</v>
@@ -32343,7 +32343,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>8117166</v>
+        <v>8117181</v>
       </c>
       <c r="C342" t="s">
         <v>29</v>
@@ -32352,67 +32352,67 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E342" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="F342" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="G342">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K342" t="s">
         <v>197</v>
       </c>
       <c r="L342">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="M342">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N342">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="O342">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="P342">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q342">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="R342">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S342">
+        <v>1.975</v>
+      </c>
+      <c r="T342">
+        <v>1.825</v>
+      </c>
+      <c r="U342">
+        <v>2.25</v>
+      </c>
+      <c r="V342">
         <v>1.9</v>
       </c>
-      <c r="T342">
+      <c r="W342">
         <v>1.9</v>
       </c>
-      <c r="U342">
-        <v>2.75</v>
-      </c>
-      <c r="V342">
-        <v>1.825</v>
-      </c>
-      <c r="W342">
-        <v>1.975</v>
-      </c>
       <c r="X342">
         <v>-1</v>
       </c>
       <c r="Y342">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="Z342">
         <v>-1</v>
@@ -32421,13 +32421,13 @@
         <v>-1</v>
       </c>
       <c r="AB342">
+        <v>0.825</v>
+      </c>
+      <c r="AC342">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AC342">
-        <v>-1</v>
-      </c>
       <c r="AD342">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343" spans="1:30">
@@ -32435,7 +32435,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>8117181</v>
+        <v>8117260</v>
       </c>
       <c r="C343" t="s">
         <v>29</v>
@@ -32444,82 +32444,82 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E343" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F343" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="G343">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H343">
         <v>2</v>
       </c>
       <c r="I343">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J343">
         <v>1</v>
       </c>
       <c r="K343" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L343">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="M343">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N343">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O343">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="P343">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q343">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="R343">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S343">
+        <v>1.875</v>
+      </c>
+      <c r="T343">
+        <v>1.925</v>
+      </c>
+      <c r="U343">
+        <v>2.75</v>
+      </c>
+      <c r="V343">
+        <v>1.825</v>
+      </c>
+      <c r="W343">
         <v>1.975</v>
       </c>
-      <c r="T343">
-        <v>1.825</v>
-      </c>
-      <c r="U343">
-        <v>2.25</v>
-      </c>
-      <c r="V343">
-        <v>1.9</v>
-      </c>
-      <c r="W343">
-        <v>1.9</v>
-      </c>
       <c r="X343">
         <v>-1</v>
       </c>
       <c r="Y343">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z343">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA343">
         <v>-1</v>
       </c>
       <c r="AB343">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC343">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD343">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="344" spans="1:30">
@@ -32527,7 +32527,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>8117260</v>
+        <v>8117312</v>
       </c>
       <c r="C344" t="s">
         <v>29</v>
@@ -32536,16 +32536,16 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E344" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F344" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="G344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344">
         <v>0</v>
@@ -32554,34 +32554,34 @@
         <v>1</v>
       </c>
       <c r="K344" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L344">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="M344">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N344">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="O344">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="P344">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q344">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="R344">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S344">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T344">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U344">
         <v>2.75</v>
@@ -32596,16 +32596,16 @@
         <v>-1</v>
       </c>
       <c r="Y344">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z344">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA344">
         <v>-1</v>
       </c>
       <c r="AB344">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC344">
         <v>-1</v>
@@ -32723,7 +32723,7 @@
         <v>33</v>
       </c>
       <c r="F346" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G346">
         <v>1</v>
@@ -33447,7 +33447,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>8121590</v>
+        <v>8121591</v>
       </c>
       <c r="C354" t="s">
         <v>29</v>
@@ -33456,13 +33456,13 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E354" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="F354" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="G354">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H354">
         <v>1</v>
@@ -33471,52 +33471,52 @@
         <v>0</v>
       </c>
       <c r="J354">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K354" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L354">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="M354">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N354">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="O354">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="P354">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q354">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="R354">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S354">
+        <v>2.05</v>
+      </c>
+      <c r="T354">
+        <v>1.75</v>
+      </c>
+      <c r="U354">
+        <v>2.25</v>
+      </c>
+      <c r="V354">
         <v>1.975</v>
       </c>
-      <c r="T354">
+      <c r="W354">
         <v>1.825</v>
       </c>
-      <c r="U354">
-        <v>2.75</v>
-      </c>
-      <c r="V354">
-        <v>1.825</v>
-      </c>
-      <c r="W354">
-        <v>1.975</v>
-      </c>
       <c r="X354">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y354">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z354">
         <v>-1</v>
@@ -33528,10 +33528,10 @@
         <v>0</v>
       </c>
       <c r="AC354">
+        <v>-0.5</v>
+      </c>
+      <c r="AD354">
         <v>0.4125</v>
-      </c>
-      <c r="AD354">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="355" spans="1:30">
@@ -33539,7 +33539,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>8121589</v>
+        <v>8121590</v>
       </c>
       <c r="C355" t="s">
         <v>29</v>
@@ -33548,64 +33548,64 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E355" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F355" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="G355">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I355">
         <v>0</v>
       </c>
       <c r="J355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K355" t="s">
         <v>196</v>
       </c>
       <c r="L355">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="M355">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N355">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="O355">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="P355">
+        <v>4</v>
+      </c>
+      <c r="Q355">
+        <v>4.5</v>
+      </c>
+      <c r="R355">
+        <v>-1</v>
+      </c>
+      <c r="S355">
+        <v>1.975</v>
+      </c>
+      <c r="T355">
+        <v>1.825</v>
+      </c>
+      <c r="U355">
         <v>2.75</v>
       </c>
-      <c r="Q355">
-        <v>3.2</v>
-      </c>
-      <c r="R355">
-        <v>-0.25</v>
-      </c>
-      <c r="S355">
-        <v>2.025</v>
-      </c>
-      <c r="T355">
-        <v>1.775</v>
-      </c>
-      <c r="U355">
-        <v>2</v>
-      </c>
       <c r="V355">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W355">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X355">
-        <v>1.3</v>
+        <v>0.571</v>
       </c>
       <c r="Y355">
         <v>-1</v>
@@ -33614,16 +33614,16 @@
         <v>-1</v>
       </c>
       <c r="AA355">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AB355">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC355">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AD355">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="356" spans="1:30">
@@ -33631,7 +33631,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>8121591</v>
+        <v>8121589</v>
       </c>
       <c r="C356" t="s">
         <v>29</v>
@@ -33640,16 +33640,16 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E356" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F356" t="s">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="G356">
         <v>1</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356">
         <v>0</v>
@@ -33658,64 +33658,64 @@
         <v>0</v>
       </c>
       <c r="K356" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L356">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="M356">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N356">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="O356">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="P356">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q356">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="R356">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S356">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T356">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="U356">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V356">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W356">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X356">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y356">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z356">
         <v>-1</v>
       </c>
       <c r="AA356">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AB356">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC356">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD356">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:30">
@@ -34367,7 +34367,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>8143884</v>
+        <v>8143888</v>
       </c>
       <c r="C364" t="s">
         <v>29</v>
@@ -34376,82 +34376,82 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E364" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F364" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="G364">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I364">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J364">
         <v>0</v>
       </c>
       <c r="K364" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L364">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="M364">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="N364">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O364">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="P364">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q364">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="R364">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S364">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T364">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U364">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V364">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W364">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X364">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y364">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z364">
         <v>-1</v>
       </c>
       <c r="AA364">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB364">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC364">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD364">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365" spans="1:30">
@@ -34459,7 +34459,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>8143887</v>
+        <v>8143884</v>
       </c>
       <c r="C365" t="s">
         <v>29</v>
@@ -34468,82 +34468,82 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E365" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="F365" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="G365">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J365">
         <v>0</v>
       </c>
       <c r="K365" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L365">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="M365">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N365">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O365">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="P365">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q365">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="R365">
         <v>-0.75</v>
       </c>
       <c r="S365">
+        <v>1.825</v>
+      </c>
+      <c r="T365">
         <v>1.975</v>
       </c>
-      <c r="T365">
-        <v>1.825</v>
-      </c>
       <c r="U365">
+        <v>2.5</v>
+      </c>
+      <c r="V365">
+        <v>1.8</v>
+      </c>
+      <c r="W365">
+        <v>2</v>
+      </c>
+      <c r="X365">
+        <v>-1</v>
+      </c>
+      <c r="Y365">
         <v>2.75</v>
       </c>
-      <c r="V365">
-        <v>1.925</v>
-      </c>
-      <c r="W365">
-        <v>1.775</v>
-      </c>
-      <c r="X365">
-        <v>0.75</v>
-      </c>
-      <c r="Y365">
-        <v>-1</v>
-      </c>
       <c r="Z365">
         <v>-1</v>
       </c>
       <c r="AA365">
+        <v>-1</v>
+      </c>
+      <c r="AB365">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB365">
-        <v>-1</v>
-      </c>
       <c r="AC365">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD365">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:30">
@@ -34551,7 +34551,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>8143888</v>
+        <v>8143887</v>
       </c>
       <c r="C366" t="s">
         <v>29</v>
@@ -34560,16 +34560,16 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E366" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F366" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G366">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I366">
         <v>2</v>
@@ -34581,43 +34581,43 @@
         <v>196</v>
       </c>
       <c r="L366">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="M366">
+        <v>3.5</v>
+      </c>
+      <c r="N366">
+        <v>4</v>
+      </c>
+      <c r="O366">
+        <v>1.75</v>
+      </c>
+      <c r="P366">
         <v>3.3</v>
       </c>
-      <c r="N366">
-        <v>3</v>
-      </c>
-      <c r="O366">
-        <v>2.05</v>
-      </c>
-      <c r="P366">
-        <v>3.6</v>
-      </c>
       <c r="Q366">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="R366">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S366">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T366">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U366">
         <v>2.75</v>
       </c>
       <c r="V366">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W366">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="X366">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="Y366">
         <v>-1</v>
@@ -34626,13 +34626,13 @@
         <v>-1</v>
       </c>
       <c r="AA366">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB366">
         <v>-1</v>
       </c>
       <c r="AC366">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AD366">
         <v>-1</v>
@@ -35943,7 +35943,7 @@
         <v>44</v>
       </c>
       <c r="F381" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G381">
         <v>1</v>

--- a/France National 3/France National 3.xlsx
+++ b/France National 3/France National 3.xlsx
@@ -127,10 +127,10 @@
     <t>OnetleChateau</t>
   </si>
   <si>
-    <t>Maubeuge</t>
+    <t>Vitre</t>
   </si>
   <si>
-    <t>Vitre</t>
+    <t>Maubeuge</t>
   </si>
   <si>
     <t>CMS Oissel</t>
@@ -181,13 +181,7 @@
     <t>St Etienne II</t>
   </si>
   <si>
-    <t>Entente SCM</t>
-  </si>
-  <si>
     <t>Laval II</t>
-  </si>
-  <si>
-    <t>Stade Plabennecois</t>
   </si>
   <si>
     <t>AG Caennaise</t>
@@ -196,10 +190,16 @@
     <t>US Quevilly II</t>
   </si>
   <si>
+    <t>Stade Plabennecois</t>
+  </si>
+  <si>
+    <t>Thionville FC</t>
+  </si>
+  <si>
     <t>Lannion FC</t>
   </si>
   <si>
-    <t>Thionville FC</t>
+    <t>Entente SCM</t>
   </si>
   <si>
     <t>ASPTT Dijon</t>
@@ -565,13 +565,13 @@
     <t>SaintPaulSport</t>
   </si>
   <si>
+    <t>Stade Pontivy</t>
+  </si>
+  <si>
     <t>Niort II</t>
   </si>
   <si>
     <t>Vesoul</t>
-  </si>
-  <si>
-    <t>Stade Pontivy</t>
   </si>
   <si>
     <t>US Pays de Cassel</t>
@@ -1713,7 +1713,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6727692</v>
+        <v>6727693</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1725,43 +1725,43 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>3</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="M9">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="P9">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="R9">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S9">
         <v>2</v>
@@ -1770,7 +1770,7 @@
         <v>1.8</v>
       </c>
       <c r="U9">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V9">
         <v>1.9</v>
@@ -1779,19 +1779,19 @@
         <v>1.9</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
         <v>0.8999999999999999</v>
@@ -1805,7 +1805,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6727693</v>
+        <v>6727692</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1817,43 +1817,43 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L10">
         <v>3</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>196</v>
-      </c>
-      <c r="L10">
-        <v>1.95</v>
-      </c>
       <c r="M10">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N10">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O10">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q10">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="R10">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S10">
         <v>2</v>
@@ -1862,7 +1862,7 @@
         <v>1.8</v>
       </c>
       <c r="U10">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V10">
         <v>1.9</v>
@@ -1871,19 +1871,19 @@
         <v>1.9</v>
       </c>
       <c r="X10">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC10">
         <v>0.8999999999999999</v>
@@ -2817,7 +2817,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7152841</v>
+        <v>7152571</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
@@ -2826,16 +2826,16 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2844,64 +2844,64 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L21">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="M21">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="O21">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="P21">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q21">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S21">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T21">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U21">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB21">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:30">
@@ -2909,7 +2909,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7152840</v>
+        <v>7152841</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2918,16 +2918,16 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2936,64 +2936,64 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L22">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="M22">
         <v>3.4</v>
       </c>
       <c r="N22">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="O22">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="P22">
         <v>3.4</v>
       </c>
       <c r="Q22">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="R22">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T22">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U22">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC22">
         <v>-1</v>
       </c>
       <c r="AD22">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -3001,7 +3001,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7152573</v>
+        <v>7152840</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -3010,67 +3010,67 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L23">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="M23">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N23">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="O23">
-        <v>1.25</v>
+        <v>1.95</v>
       </c>
       <c r="P23">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="Q23">
-        <v>9.5</v>
+        <v>3.25</v>
       </c>
       <c r="R23">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U23">
         <v>2.75</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X23">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z23">
         <v>-1</v>
@@ -3079,13 +3079,13 @@
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC23">
         <v>-1</v>
       </c>
       <c r="AD23">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -3093,7 +3093,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7152571</v>
+        <v>7152573</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -3102,19 +3102,19 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="G24">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3123,43 +3123,43 @@
         <v>196</v>
       </c>
       <c r="L24">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="M24">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N24">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="O24">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="P24">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q24">
-        <v>5.75</v>
+        <v>9.5</v>
       </c>
       <c r="R24">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="S24">
+        <v>1.975</v>
+      </c>
+      <c r="T24">
+        <v>1.825</v>
+      </c>
+      <c r="U24">
+        <v>2.75</v>
+      </c>
+      <c r="V24">
         <v>1.85</v>
       </c>
-      <c r="T24">
+      <c r="W24">
         <v>1.95</v>
       </c>
-      <c r="U24">
-        <v>2.25</v>
-      </c>
-      <c r="V24">
-        <v>1.975</v>
-      </c>
-      <c r="W24">
-        <v>1.825</v>
-      </c>
       <c r="X24">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -3168,16 +3168,16 @@
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -3289,7 +3289,7 @@
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -3553,7 +3553,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7181702</v>
+        <v>7181704</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3562,82 +3562,82 @@
         <v>45178.54166666666</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L29">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="M29">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N29">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="O29">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="P29">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q29">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="R29">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S29">
+        <v>2</v>
+      </c>
+      <c r="T29">
         <v>1.8</v>
       </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
       <c r="U29">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z29">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3645,7 +3645,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7181704</v>
+        <v>7181705</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -3654,67 +3654,67 @@
         <v>45178.54166666666</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L30">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="M30">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="N30">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O30">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="P30">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q30">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T30">
+        <v>1.9</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
         <v>1.8</v>
       </c>
-      <c r="U30">
-        <v>2.75</v>
-      </c>
-      <c r="V30">
-        <v>1.875</v>
-      </c>
-      <c r="W30">
-        <v>1.925</v>
-      </c>
       <c r="X30">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y30">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
         <v>-1</v>
@@ -3729,7 +3729,7 @@
         <v>-1</v>
       </c>
       <c r="AD30">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -3737,7 +3737,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7181705</v>
+        <v>7181934</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -3749,79 +3749,79 @@
         <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L31">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="M31">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O31">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="P31">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q31">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="R31">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S31">
+        <v>2.075</v>
+      </c>
+      <c r="T31">
+        <v>1.725</v>
+      </c>
+      <c r="U31">
+        <v>2.25</v>
+      </c>
+      <c r="V31">
         <v>1.9</v>
       </c>
-      <c r="T31">
+      <c r="W31">
         <v>1.9</v>
       </c>
-      <c r="U31">
-        <v>3</v>
-      </c>
-      <c r="V31">
-        <v>2</v>
-      </c>
-      <c r="W31">
+      <c r="X31">
+        <v>-1</v>
+      </c>
+      <c r="Y31">
+        <v>-1</v>
+      </c>
+      <c r="Z31">
         <v>1.8</v>
       </c>
-      <c r="X31">
-        <v>0.5</v>
-      </c>
-      <c r="Y31">
-        <v>-1</v>
-      </c>
-      <c r="Z31">
-        <v>-1</v>
-      </c>
       <c r="AA31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3829,7 +3829,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7181884</v>
+        <v>7181935</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3841,79 +3841,79 @@
         <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L32">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="M32">
         <v>3.4</v>
       </c>
       <c r="N32">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O32">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="P32">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q32">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="R32">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T32">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U32">
         <v>2.75</v>
       </c>
       <c r="V32">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD32">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3921,7 +3921,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7181934</v>
+        <v>7181884</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3933,58 +3933,58 @@
         <v>58</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K33" t="s">
         <v>195</v>
       </c>
       <c r="L33">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N33">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="O33">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q33">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="R33">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S33">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="U33">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V33">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3993,16 +3993,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>1.8</v>
+        <v>0.45</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AD33">
         <v>-1</v>
@@ -4013,7 +4013,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7181935</v>
+        <v>7181936</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -4025,61 +4025,61 @@
         <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34" t="s">
         <v>196</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="M34">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N34">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P34">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q34">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="R34">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U34">
         <v>2.75</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="X34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y34">
         <v>-1</v>
@@ -4088,16 +4088,16 @@
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD34">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -4197,7 +4197,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7181936</v>
+        <v>7181937</v>
       </c>
       <c r="C36" t="s">
         <v>29</v>
@@ -4206,82 +4206,82 @@
         <v>45178.54166666666</v>
       </c>
       <c r="E36" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L36">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N36">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P36">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q36">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="R36">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S36">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U36">
         <v>2.75</v>
       </c>
       <c r="V36">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X36">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC36">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -4289,7 +4289,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7181937</v>
+        <v>7181702</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
@@ -4298,46 +4298,46 @@
         <v>45178.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F37" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="M37">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N37">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="O37">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="P37">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q37">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="R37">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S37">
         <v>1.8</v>
@@ -4346,22 +4346,22 @@
         <v>2</v>
       </c>
       <c r="U37">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V37">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W37">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="AA37">
         <v>-0.5</v>
@@ -4370,10 +4370,10 @@
         <v>0.5</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -5221,7 +5221,7 @@
         <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -6598,7 +6598,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F62" t="s">
         <v>70</v>
@@ -6865,7 +6865,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7366032</v>
+        <v>7366035</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
@@ -6874,82 +6874,82 @@
         <v>45220.41666666666</v>
       </c>
       <c r="E65" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F65" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L65">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M65">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N65">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O65">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="P65">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q65">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="R65">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S65">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T65">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="U65">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V65">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X65">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD65">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -6957,7 +6957,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7366035</v>
+        <v>7366032</v>
       </c>
       <c r="C66" t="s">
         <v>29</v>
@@ -6966,82 +6966,82 @@
         <v>45220.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L66">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M66">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N66">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O66">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="P66">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q66">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S66">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="U66">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y66">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:30">
@@ -7518,7 +7518,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="E72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F72" t="s">
         <v>60</v>
@@ -7886,10 +7886,10 @@
         <v>45220.54166666666</v>
       </c>
       <c r="E76" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F76" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -9073,7 +9073,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7427132</v>
+        <v>7427131</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
@@ -9082,55 +9082,55 @@
         <v>45234.58333333334</v>
       </c>
       <c r="E89" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L89">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="M89">
         <v>3.4</v>
       </c>
       <c r="N89">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="O89">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="P89">
         <v>3.4</v>
       </c>
       <c r="Q89">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="R89">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S89">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T89">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V89">
         <v>1.85</v>
@@ -9139,25 +9139,25 @@
         <v>1.95</v>
       </c>
       <c r="X89">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -9165,7 +9165,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7427131</v>
+        <v>7427132</v>
       </c>
       <c r="C90" t="s">
         <v>29</v>
@@ -9174,55 +9174,55 @@
         <v>45234.58333333334</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F90" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L90">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="M90">
         <v>3.4</v>
       </c>
       <c r="N90">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="O90">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="P90">
         <v>3.4</v>
       </c>
       <c r="Q90">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="R90">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S90">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U90">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V90">
         <v>1.85</v>
@@ -9231,25 +9231,25 @@
         <v>1.95</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB90">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD90">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:30">
@@ -9634,7 +9634,7 @@
         <v>45235.45833333334</v>
       </c>
       <c r="E95" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F95" t="s">
         <v>65</v>
@@ -10094,7 +10094,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F100" t="s">
         <v>165</v>
@@ -10462,10 +10462,10 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -11569,7 +11569,7 @@
         <v>41</v>
       </c>
       <c r="F116" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G116">
         <v>5</v>
@@ -12397,7 +12397,7 @@
         <v>98</v>
       </c>
       <c r="F125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -12578,7 +12578,7 @@
         <v>45256.45833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F127" t="s">
         <v>161</v>
@@ -12854,7 +12854,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F130" t="s">
         <v>171</v>
@@ -13774,7 +13774,7 @@
         <v>45263.45833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F140" t="s">
         <v>93</v>
@@ -15249,7 +15249,7 @@
         <v>41</v>
       </c>
       <c r="F156" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -15430,7 +15430,7 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E158" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F158" t="s">
         <v>67</v>
@@ -16249,7 +16249,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7664701</v>
+        <v>7663705</v>
       </c>
       <c r="C167" t="s">
         <v>29</v>
@@ -16258,16 +16258,16 @@
         <v>45297.58333333334</v>
       </c>
       <c r="E167" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F167" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="G167">
         <v>2</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -16276,34 +16276,34 @@
         <v>1</v>
       </c>
       <c r="K167" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L167">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="M167">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N167">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O167">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="P167">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q167">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="R167">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T167">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U167">
         <v>2.75</v>
@@ -16315,25 +16315,25 @@
         <v>1.925</v>
       </c>
       <c r="X167">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC167">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AD167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:30">
@@ -16341,7 +16341,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7663705</v>
+        <v>7664701</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
@@ -16350,16 +16350,16 @@
         <v>45297.58333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F168" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="G168">
         <v>2</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -16368,34 +16368,34 @@
         <v>1</v>
       </c>
       <c r="K168" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L168">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="M168">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N168">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O168">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="P168">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q168">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="R168">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="S168">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U168">
         <v>2.75</v>
@@ -16407,25 +16407,25 @@
         <v>1.925</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB168">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AD168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -16985,7 +16985,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7690626</v>
+        <v>7690754</v>
       </c>
       <c r="C175" t="s">
         <v>29</v>
@@ -16994,82 +16994,82 @@
         <v>45304.54166666666</v>
       </c>
       <c r="E175" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F175" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="G175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I175">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K175" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L175">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="M175">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N175">
+        <v>1.909</v>
+      </c>
+      <c r="O175">
+        <v>3.6</v>
+      </c>
+      <c r="P175">
+        <v>3.3</v>
+      </c>
+      <c r="Q175">
+        <v>1.909</v>
+      </c>
+      <c r="R175">
+        <v>0.5</v>
+      </c>
+      <c r="S175">
+        <v>1.825</v>
+      </c>
+      <c r="T175">
+        <v>1.975</v>
+      </c>
+      <c r="U175">
         <v>2.75</v>
       </c>
-      <c r="O175">
-        <v>2.25</v>
-      </c>
-      <c r="P175">
-        <v>3.25</v>
-      </c>
-      <c r="Q175">
-        <v>2.75</v>
-      </c>
-      <c r="R175">
-        <v>-0.25</v>
-      </c>
-      <c r="S175">
+      <c r="V175">
+        <v>1.775</v>
+      </c>
+      <c r="W175">
         <v>2.025</v>
       </c>
-      <c r="T175">
-        <v>1.775</v>
-      </c>
-      <c r="U175">
-        <v>2.5</v>
-      </c>
-      <c r="V175">
-        <v>1.8</v>
-      </c>
-      <c r="W175">
-        <v>2</v>
-      </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y175">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
+        <v>0.825</v>
+      </c>
+      <c r="AB175">
+        <v>-1</v>
+      </c>
+      <c r="AC175">
+        <v>0.3875</v>
+      </c>
+      <c r="AD175">
         <v>-0.5</v>
-      </c>
-      <c r="AB175">
-        <v>0.3875</v>
-      </c>
-      <c r="AC175">
-        <v>0.8</v>
-      </c>
-      <c r="AD175">
-        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:30">
@@ -17077,7 +17077,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7690754</v>
+        <v>7690626</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -17086,82 +17086,82 @@
         <v>45304.54166666666</v>
       </c>
       <c r="E176" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="F176" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="G176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K176" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L176">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="M176">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N176">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="P176">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q176">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="R176">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S176">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T176">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U176">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V176">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W176">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="X176">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC176">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AD176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -17169,7 +17169,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7690739</v>
+        <v>7690745</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -17178,52 +17178,52 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F177" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J177">
         <v>0</v>
       </c>
       <c r="K177" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L177">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="M177">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N177">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="O177">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="P177">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q177">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="R177">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S177">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T177">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U177">
         <v>2.25</v>
@@ -17235,25 +17235,25 @@
         <v>1.95</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y177">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB177">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD177">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -17261,7 +17261,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7690745</v>
+        <v>7690739</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
@@ -17270,52 +17270,52 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E178" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F178" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="G178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178">
         <v>0</v>
       </c>
       <c r="K178" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L178">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="M178">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N178">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O178">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="P178">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q178">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="R178">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S178">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T178">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U178">
         <v>2.25</v>
@@ -17327,25 +17327,25 @@
         <v>1.95</v>
       </c>
       <c r="X178">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC178">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD178">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="179" spans="1:30">
@@ -17457,7 +17457,7 @@
         <v>92</v>
       </c>
       <c r="F180" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -17997,7 +17997,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7718935</v>
+        <v>7718936</v>
       </c>
       <c r="C186" t="s">
         <v>29</v>
@@ -18006,64 +18006,64 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E186" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F186" t="s">
         <v>183</v>
       </c>
       <c r="G186">
+        <v>5</v>
+      </c>
+      <c r="H186">
         <v>3</v>
       </c>
-      <c r="H186">
-        <v>1</v>
-      </c>
       <c r="I186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K186" t="s">
         <v>196</v>
       </c>
       <c r="L186">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="M186">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="N186">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O186">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="P186">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q186">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="R186">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S186">
+        <v>1.85</v>
+      </c>
+      <c r="T186">
         <v>1.95</v>
       </c>
-      <c r="T186">
+      <c r="U186">
+        <v>2.5</v>
+      </c>
+      <c r="V186">
         <v>1.85</v>
       </c>
-      <c r="U186">
-        <v>3</v>
-      </c>
-      <c r="V186">
-        <v>1.9</v>
-      </c>
       <c r="W186">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X186">
-        <v>0.571</v>
+        <v>0.8</v>
       </c>
       <c r="Y186">
         <v>-1</v>
@@ -18072,13 +18072,13 @@
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD186">
         <v>-1</v>
@@ -18089,7 +18089,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7718934</v>
+        <v>7718935</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -18098,46 +18098,46 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E187" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="G187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H187">
         <v>1</v>
       </c>
       <c r="I187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K187" t="s">
         <v>196</v>
       </c>
       <c r="L187">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="M187">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N187">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="O187">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="P187">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q187">
-        <v>1.8</v>
+        <v>4.75</v>
       </c>
       <c r="R187">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="S187">
         <v>1.95</v>
@@ -18146,16 +18146,16 @@
         <v>1.85</v>
       </c>
       <c r="U187">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V187">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W187">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X187">
-        <v>2.5</v>
+        <v>0.571</v>
       </c>
       <c r="Y187">
         <v>-1</v>
@@ -18170,10 +18170,10 @@
         <v>-1</v>
       </c>
       <c r="AC187">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:30">
@@ -18181,7 +18181,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7718933</v>
+        <v>7718934</v>
       </c>
       <c r="C188" t="s">
         <v>29</v>
@@ -18190,10 +18190,10 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F188" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -18202,53 +18202,53 @@
         <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K188" t="s">
         <v>196</v>
       </c>
       <c r="L188">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="M188">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N188">
+        <v>1.8</v>
+      </c>
+      <c r="O188">
+        <v>3.5</v>
+      </c>
+      <c r="P188">
+        <v>3.6</v>
+      </c>
+      <c r="Q188">
+        <v>1.8</v>
+      </c>
+      <c r="R188">
+        <v>0.5</v>
+      </c>
+      <c r="S188">
+        <v>1.95</v>
+      </c>
+      <c r="T188">
+        <v>1.85</v>
+      </c>
+      <c r="U188">
         <v>2.75</v>
       </c>
-      <c r="O188">
-        <v>2.25</v>
-      </c>
-      <c r="P188">
-        <v>3.25</v>
-      </c>
-      <c r="Q188">
-        <v>2.75</v>
-      </c>
-      <c r="R188">
-        <v>-0.25</v>
-      </c>
-      <c r="S188">
-        <v>2.025</v>
-      </c>
-      <c r="T188">
-        <v>1.775</v>
-      </c>
-      <c r="U188">
+      <c r="V188">
+        <v>1.75</v>
+      </c>
+      <c r="W188">
+        <v>1.95</v>
+      </c>
+      <c r="X188">
         <v>2.5</v>
       </c>
-      <c r="V188">
-        <v>1.9</v>
-      </c>
-      <c r="W188">
-        <v>1.9</v>
-      </c>
-      <c r="X188">
-        <v>1.25</v>
-      </c>
       <c r="Y188">
         <v>-1</v>
       </c>
@@ -18256,16 +18256,16 @@
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AD188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="189" spans="1:30">
@@ -18273,7 +18273,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7718964</v>
+        <v>7718933</v>
       </c>
       <c r="C189" t="s">
         <v>29</v>
@@ -18282,13 +18282,13 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E189" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F189" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="G189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -18303,43 +18303,43 @@
         <v>196</v>
       </c>
       <c r="L189">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="M189">
         <v>3.25</v>
       </c>
       <c r="N189">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="O189">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="P189">
         <v>3.25</v>
       </c>
       <c r="Q189">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="R189">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S189">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T189">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="U189">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V189">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W189">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X189">
-        <v>0.833</v>
+        <v>1.25</v>
       </c>
       <c r="Y189">
         <v>-1</v>
@@ -18348,13 +18348,13 @@
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD189">
         <v>-1</v>
@@ -18365,7 +18365,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7718968</v>
+        <v>7718964</v>
       </c>
       <c r="C190" t="s">
         <v>29</v>
@@ -18374,13 +18374,13 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E190" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="F190" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -18392,28 +18392,28 @@
         <v>1</v>
       </c>
       <c r="K190" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L190">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="M190">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N190">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="O190">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="P190">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q190">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="R190">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S190">
         <v>1.875</v>
@@ -18425,16 +18425,16 @@
         <v>2.25</v>
       </c>
       <c r="V190">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X190">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y190">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
         <v>-1</v>
@@ -18446,10 +18446,10 @@
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AD190">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:30">
@@ -18457,7 +18457,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7718936</v>
+        <v>7718968</v>
       </c>
       <c r="C191" t="s">
         <v>29</v>
@@ -18466,82 +18466,82 @@
         <v>45311.58333333334</v>
       </c>
       <c r="E191" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="F191" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="G191">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K191" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L191">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="M191">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N191">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O191">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="P191">
         <v>3.6</v>
       </c>
       <c r="Q191">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="R191">
+        <v>0.75</v>
+      </c>
+      <c r="S191">
+        <v>1.875</v>
+      </c>
+      <c r="T191">
+        <v>1.925</v>
+      </c>
+      <c r="U191">
+        <v>2.25</v>
+      </c>
+      <c r="V191">
+        <v>1.9</v>
+      </c>
+      <c r="W191">
+        <v>1.9</v>
+      </c>
+      <c r="X191">
+        <v>-1</v>
+      </c>
+      <c r="Y191">
+        <v>2.6</v>
+      </c>
+      <c r="Z191">
+        <v>-1</v>
+      </c>
+      <c r="AA191">
+        <v>0.875</v>
+      </c>
+      <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
         <v>-0.5</v>
       </c>
-      <c r="S191">
-        <v>1.85</v>
-      </c>
-      <c r="T191">
-        <v>1.95</v>
-      </c>
-      <c r="U191">
-        <v>2.5</v>
-      </c>
-      <c r="V191">
-        <v>1.85</v>
-      </c>
-      <c r="W191">
-        <v>1.95</v>
-      </c>
-      <c r="X191">
-        <v>0.8</v>
-      </c>
-      <c r="Y191">
-        <v>-1</v>
-      </c>
-      <c r="Z191">
-        <v>-1</v>
-      </c>
-      <c r="AA191">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB191">
-        <v>-1</v>
-      </c>
-      <c r="AC191">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AD191">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="192" spans="1:30">
@@ -19843,7 +19843,7 @@
         <v>31</v>
       </c>
       <c r="F206" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G206">
         <v>4</v>
@@ -20107,7 +20107,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7779758</v>
+        <v>7779993</v>
       </c>
       <c r="C209" t="s">
         <v>29</v>
@@ -20116,82 +20116,82 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E209" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F209" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I209">
         <v>0</v>
       </c>
       <c r="J209">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K209" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L209">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="M209">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N209">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O209">
-        <v>1.727</v>
+        <v>2.6</v>
       </c>
       <c r="P209">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q209">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="R209">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S209">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T209">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U209">
         <v>2.75</v>
       </c>
       <c r="V209">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W209">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD209">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:30">
@@ -20199,7 +20199,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7779989</v>
+        <v>7779988</v>
       </c>
       <c r="C210" t="s">
         <v>29</v>
@@ -20208,82 +20208,82 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E210" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F210" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="G210">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210">
         <v>0</v>
       </c>
       <c r="K210" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L210">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="M210">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N210">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O210">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="P210">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q210">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="R210">
         <v>-0.5</v>
       </c>
       <c r="S210">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T210">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U210">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="V210">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W210">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB210">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD210">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:30">
@@ -20291,7 +20291,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7779756</v>
+        <v>7779989</v>
       </c>
       <c r="C211" t="s">
         <v>29</v>
@@ -20300,10 +20300,10 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E211" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="F211" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="G211">
         <v>0</v>
@@ -20321,40 +20321,40 @@
         <v>195</v>
       </c>
       <c r="L211">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="M211">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N211">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O211">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="P211">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q211">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="R211">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S211">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T211">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U211">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V211">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W211">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X211">
         <v>-1</v>
@@ -20363,19 +20363,19 @@
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="AA211">
         <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC211">
         <v>-1</v>
       </c>
       <c r="AD211">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:30">
@@ -20383,7 +20383,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7779988</v>
+        <v>7779756</v>
       </c>
       <c r="C212" t="s">
         <v>29</v>
@@ -20392,82 +20392,82 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E212" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F212" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="G212">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212">
         <v>0</v>
       </c>
       <c r="K212" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L212">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="M212">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N212">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O212">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="P212">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q212">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="R212">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T212">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U212">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V212">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W212">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X212">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA212">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC212">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD212">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -20567,7 +20567,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7779994</v>
+        <v>7779754</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
@@ -20576,16 +20576,16 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E214" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="F214" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214">
         <v>0</v>
@@ -20594,64 +20594,64 @@
         <v>1</v>
       </c>
       <c r="K214" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L214">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="M214">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="N214">
-        <v>1.95</v>
+        <v>7</v>
       </c>
       <c r="O214">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="P214">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q214">
-        <v>1.95</v>
+        <v>7</v>
       </c>
       <c r="R214">
-        <v>0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="S214">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U214">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="V214">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W214">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC214">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD214">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:30">
@@ -20659,7 +20659,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7779993</v>
+        <v>7779991</v>
       </c>
       <c r="C215" t="s">
         <v>29</v>
@@ -20668,55 +20668,55 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E215" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F215" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G215">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I215">
         <v>0</v>
       </c>
       <c r="J215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K215" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L215">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="M215">
         <v>3.2</v>
       </c>
       <c r="N215">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O215">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="P215">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q215">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="R215">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S215">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T215">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U215">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V215">
         <v>1.8</v>
@@ -20728,22 +20728,22 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z215">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB215">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC215">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AD215">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="216" spans="1:30">
@@ -20751,7 +20751,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7779754</v>
+        <v>7779990</v>
       </c>
       <c r="C216" t="s">
         <v>29</v>
@@ -20760,64 +20760,64 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E216" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="F216" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="G216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216">
         <v>0</v>
       </c>
       <c r="J216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K216" t="s">
         <v>196</v>
       </c>
       <c r="L216">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="M216">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="N216">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="O216">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="P216">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q216">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="R216">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S216">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T216">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U216">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="V216">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W216">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X216">
-        <v>0.25</v>
+        <v>0.571</v>
       </c>
       <c r="Y216">
         <v>-1</v>
@@ -20826,16 +20826,16 @@
         <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB216">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:30">
@@ -20843,7 +20843,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7779991</v>
+        <v>7779757</v>
       </c>
       <c r="C217" t="s">
         <v>29</v>
@@ -20852,55 +20852,55 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="F217" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K217" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L217">
+        <v>2</v>
+      </c>
+      <c r="M217">
         <v>3.3</v>
       </c>
-      <c r="M217">
+      <c r="N217">
         <v>3.2</v>
       </c>
-      <c r="N217">
-        <v>2</v>
-      </c>
       <c r="O217">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="P217">
+        <v>3.3</v>
+      </c>
+      <c r="Q217">
         <v>3.2</v>
       </c>
-      <c r="Q217">
-        <v>2</v>
-      </c>
       <c r="R217">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S217">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T217">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U217">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V217">
         <v>1.8</v>
@@ -20909,25 +20909,25 @@
         <v>2</v>
       </c>
       <c r="X217">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y217">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD217">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -20935,7 +20935,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7779990</v>
+        <v>7779758</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
@@ -20944,13 +20944,13 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E218" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="F218" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="G218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -20962,64 +20962,64 @@
         <v>0</v>
       </c>
       <c r="K218" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L218">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="M218">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N218">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="O218">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="P218">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q218">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="R218">
         <v>-0.75</v>
       </c>
       <c r="S218">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T218">
+        <v>1.825</v>
+      </c>
+      <c r="U218">
+        <v>2.75</v>
+      </c>
+      <c r="V218">
         <v>1.975</v>
       </c>
-      <c r="U218">
-        <v>2.25</v>
-      </c>
-      <c r="V218">
-        <v>1.8</v>
-      </c>
       <c r="W218">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X218">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z218">
         <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC218">
         <v>-1</v>
       </c>
       <c r="AD218">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -21027,7 +21027,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7779757</v>
+        <v>7779994</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
@@ -21036,46 +21036,46 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E219" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F219" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="G219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K219" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L219">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="M219">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N219">
+        <v>1.95</v>
+      </c>
+      <c r="O219">
+        <v>3.5</v>
+      </c>
+      <c r="P219">
         <v>3.2</v>
       </c>
-      <c r="O219">
-        <v>2</v>
-      </c>
-      <c r="P219">
-        <v>3.3</v>
-      </c>
       <c r="Q219">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="R219">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S219">
         <v>1.8</v>
@@ -21084,34 +21084,34 @@
         <v>2</v>
       </c>
       <c r="U219">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V219">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W219">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X219">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA219">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC219">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD219">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:30">
@@ -21591,7 +21591,7 @@
         <v>85</v>
       </c>
       <c r="F225" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G225">
         <v>1</v>
@@ -21772,7 +21772,7 @@
         <v>45332.58333333334</v>
       </c>
       <c r="E227" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F227" t="s">
         <v>179</v>
@@ -22048,7 +22048,7 @@
         <v>45333.45833333334</v>
       </c>
       <c r="E230" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F230" t="s">
         <v>53</v>
@@ -22508,7 +22508,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="E235" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F235" t="s">
         <v>125</v>
@@ -22591,7 +22591,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7843187</v>
+        <v>7843186</v>
       </c>
       <c r="C236" t="s">
         <v>29</v>
@@ -22600,82 +22600,82 @@
         <v>45339.58333333334</v>
       </c>
       <c r="E236" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="F236" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K236" t="s">
         <v>196</v>
       </c>
       <c r="L236">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="M236">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N236">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="O236">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="P236">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q236">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="R236">
+        <v>-0.75</v>
+      </c>
+      <c r="S236">
+        <v>1.975</v>
+      </c>
+      <c r="T236">
+        <v>1.825</v>
+      </c>
+      <c r="U236">
+        <v>2.75</v>
+      </c>
+      <c r="V236">
+        <v>1.825</v>
+      </c>
+      <c r="W236">
+        <v>1.975</v>
+      </c>
+      <c r="X236">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="Y236">
+        <v>-1</v>
+      </c>
+      <c r="Z236">
+        <v>-1</v>
+      </c>
+      <c r="AA236">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB236">
+        <v>-1</v>
+      </c>
+      <c r="AC236">
+        <v>0.4125</v>
+      </c>
+      <c r="AD236">
         <v>-0.5</v>
-      </c>
-      <c r="S236">
-        <v>1.875</v>
-      </c>
-      <c r="T236">
-        <v>1.925</v>
-      </c>
-      <c r="U236">
-        <v>2</v>
-      </c>
-      <c r="V236">
-        <v>1.95</v>
-      </c>
-      <c r="W236">
-        <v>1.85</v>
-      </c>
-      <c r="X236">
-        <v>0.833</v>
-      </c>
-      <c r="Y236">
-        <v>-1</v>
-      </c>
-      <c r="Z236">
-        <v>-1</v>
-      </c>
-      <c r="AA236">
-        <v>0.875</v>
-      </c>
-      <c r="AB236">
-        <v>-1</v>
-      </c>
-      <c r="AC236">
-        <v>0.95</v>
-      </c>
-      <c r="AD236">
-        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:30">
@@ -22683,7 +22683,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7843260</v>
+        <v>7843187</v>
       </c>
       <c r="C237" t="s">
         <v>29</v>
@@ -22692,55 +22692,55 @@
         <v>45339.58333333334</v>
       </c>
       <c r="E237" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F237" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="G237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K237" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L237">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="M237">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N237">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O237">
+        <v>1.833</v>
+      </c>
+      <c r="P237">
         <v>3.1</v>
       </c>
-      <c r="P237">
-        <v>3.25</v>
-      </c>
       <c r="Q237">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="R237">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S237">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T237">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U237">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V237">
         <v>1.95</v>
@@ -22749,25 +22749,25 @@
         <v>1.85</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA237">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB237">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD237">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:30">
@@ -22775,7 +22775,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7843186</v>
+        <v>7843260</v>
       </c>
       <c r="C238" t="s">
         <v>29</v>
@@ -22784,16 +22784,16 @@
         <v>45339.58333333334</v>
       </c>
       <c r="E238" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F238" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G238">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -22802,28 +22802,28 @@
         <v>0</v>
       </c>
       <c r="K238" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L238">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="M238">
         <v>3.25</v>
       </c>
       <c r="N238">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="O238">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="P238">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q238">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="R238">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S238">
         <v>1.975</v>
@@ -22832,34 +22832,34 @@
         <v>1.825</v>
       </c>
       <c r="U238">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V238">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W238">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X238">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA238">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC238">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD238">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="239" spans="1:30">
@@ -23336,7 +23336,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="E244" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F244" t="s">
         <v>39</v>
@@ -23707,7 +23707,7 @@
         <v>120</v>
       </c>
       <c r="F248" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G248">
         <v>3</v>
@@ -23971,7 +23971,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7874399</v>
+        <v>7874335</v>
       </c>
       <c r="C251" t="s">
         <v>29</v>
@@ -23980,13 +23980,13 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E251" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="F251" t="s">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="G251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H251">
         <v>1</v>
@@ -23995,67 +23995,67 @@
         <v>1</v>
       </c>
       <c r="J251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K251" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L251">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="M251">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N251">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="O251">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="P251">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q251">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="R251">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S251">
+        <v>1.975</v>
+      </c>
+      <c r="T251">
+        <v>1.825</v>
+      </c>
+      <c r="U251">
+        <v>2.5</v>
+      </c>
+      <c r="V251">
         <v>1.95</v>
       </c>
-      <c r="T251">
+      <c r="W251">
         <v>1.85</v>
       </c>
-      <c r="U251">
-        <v>2.75</v>
-      </c>
-      <c r="V251">
-        <v>1.825</v>
-      </c>
-      <c r="W251">
-        <v>1.975</v>
-      </c>
       <c r="X251">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y251">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB251">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD251">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:30">
@@ -24063,7 +24063,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7874397</v>
+        <v>7874399</v>
       </c>
       <c r="C252" t="s">
         <v>29</v>
@@ -24072,40 +24072,40 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E252" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F252" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="G252">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H252">
         <v>1</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J252">
         <v>0</v>
       </c>
       <c r="K252" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L252">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M252">
         <v>4</v>
       </c>
       <c r="N252">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="O252">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="P252">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q252">
         <v>4.75</v>
@@ -24114,40 +24114,40 @@
         <v>-1</v>
       </c>
       <c r="S252">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T252">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U252">
         <v>2.75</v>
       </c>
       <c r="V252">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W252">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X252">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y252">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC252">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="253" spans="1:30">
@@ -24155,7 +24155,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7874335</v>
+        <v>7874397</v>
       </c>
       <c r="C253" t="s">
         <v>29</v>
@@ -24164,10 +24164,10 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E253" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F253" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="G253">
         <v>3</v>
@@ -24176,43 +24176,43 @@
         <v>1</v>
       </c>
       <c r="I253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K253" t="s">
         <v>196</v>
       </c>
       <c r="L253">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="M253">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N253">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O253">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="P253">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q253">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="R253">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S253">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T253">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U253">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V253">
         <v>1.95</v>
@@ -24221,7 +24221,7 @@
         <v>1.85</v>
       </c>
       <c r="X253">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="Y253">
         <v>-1</v>
@@ -24230,7 +24230,7 @@
         <v>-1</v>
       </c>
       <c r="AA253">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB253">
         <v>-1</v>
@@ -24900,7 +24900,7 @@
         <v>45353.58333333334</v>
       </c>
       <c r="E261" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F261" t="s">
         <v>111</v>
@@ -25176,7 +25176,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="E264" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F264" t="s">
         <v>112</v>
@@ -25360,7 +25360,7 @@
         <v>45360.35416666666</v>
       </c>
       <c r="E266" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F266" t="s">
         <v>160</v>
@@ -25811,7 +25811,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>7933344</v>
+        <v>7933288</v>
       </c>
       <c r="C271" t="s">
         <v>29</v>
@@ -25820,55 +25820,55 @@
         <v>45360.58333333334</v>
       </c>
       <c r="E271" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="F271" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="G271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J271">
         <v>0</v>
       </c>
       <c r="K271" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L271">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="M271">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N271">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O271">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="P271">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="Q271">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="R271">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S271">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T271">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U271">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="V271">
         <v>2</v>
@@ -25877,25 +25877,25 @@
         <v>1.8</v>
       </c>
       <c r="X271">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y271">
         <v>-1</v>
       </c>
       <c r="Z271">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA271">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB271">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD271">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:30">
@@ -25903,7 +25903,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7933288</v>
+        <v>7933344</v>
       </c>
       <c r="C272" t="s">
         <v>29</v>
@@ -25912,55 +25912,55 @@
         <v>45360.58333333334</v>
       </c>
       <c r="E272" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="F272" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="G272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J272">
         <v>0</v>
       </c>
       <c r="K272" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L272">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="M272">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N272">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O272">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="P272">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q272">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="R272">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S272">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T272">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U272">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="V272">
         <v>2</v>
@@ -25969,25 +25969,25 @@
         <v>1.8</v>
       </c>
       <c r="X272">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y272">
         <v>-1</v>
       </c>
       <c r="Z272">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA272">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB272">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD272">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273" spans="1:30">
@@ -26547,7 +26547,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7966812</v>
+        <v>7965561</v>
       </c>
       <c r="C279" t="s">
         <v>29</v>
@@ -26556,82 +26556,82 @@
         <v>45367.54166666666</v>
       </c>
       <c r="E279" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="F279" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="G279">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K279" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L279">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="M279">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N279">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O279">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P279">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q279">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="R279">
         <v>-0.25</v>
       </c>
       <c r="S279">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T279">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U279">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V279">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W279">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="X279">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z279">
         <v>-1</v>
       </c>
       <c r="AA279">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC279">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD279">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:30">
@@ -26639,7 +26639,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7965561</v>
+        <v>7966812</v>
       </c>
       <c r="C280" t="s">
         <v>29</v>
@@ -26648,82 +26648,82 @@
         <v>45367.54166666666</v>
       </c>
       <c r="E280" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="F280" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="G280">
+        <v>2</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280" t="s">
+        <v>196</v>
+      </c>
+      <c r="L280">
+        <v>2.1</v>
+      </c>
+      <c r="M280">
         <v>3</v>
       </c>
-      <c r="H280">
+      <c r="N280">
+        <v>3.25</v>
+      </c>
+      <c r="O280">
+        <v>2.1</v>
+      </c>
+      <c r="P280">
         <v>3</v>
       </c>
-      <c r="I280">
-        <v>2</v>
-      </c>
-      <c r="J280">
-        <v>1</v>
-      </c>
-      <c r="K280" t="s">
-        <v>197</v>
-      </c>
-      <c r="L280">
-        <v>1.8</v>
-      </c>
-      <c r="M280">
-        <v>3.4</v>
-      </c>
-      <c r="N280">
-        <v>3.75</v>
-      </c>
-      <c r="O280">
-        <v>2.05</v>
-      </c>
-      <c r="P280">
+      <c r="Q280">
         <v>3.2</v>
-      </c>
-      <c r="Q280">
-        <v>3.1</v>
       </c>
       <c r="R280">
         <v>-0.25</v>
       </c>
       <c r="S280">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T280">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U280">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V280">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W280">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="X280">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y280">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z280">
         <v>-1</v>
       </c>
       <c r="AA280">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB280">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC280">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD280">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="281" spans="1:30">
@@ -28203,7 +28203,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7995445</v>
+        <v>7995536</v>
       </c>
       <c r="C297" t="s">
         <v>29</v>
@@ -28212,82 +28212,82 @@
         <v>45374.58333333334</v>
       </c>
       <c r="E297" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F297" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="G297">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297">
         <v>0</v>
       </c>
       <c r="J297">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K297" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L297">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="M297">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N297">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O297">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="P297">
         <v>3.2</v>
       </c>
       <c r="Q297">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="R297">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S297">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T297">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U297">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V297">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W297">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X297">
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z297">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB297">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC297">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD297">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:30">
@@ -28295,7 +28295,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7995536</v>
+        <v>7995507</v>
       </c>
       <c r="C298" t="s">
         <v>29</v>
@@ -28304,82 +28304,82 @@
         <v>45374.58333333334</v>
       </c>
       <c r="E298" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="F298" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="G298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298">
         <v>0</v>
       </c>
       <c r="J298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K298" t="s">
         <v>197</v>
       </c>
       <c r="L298">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="M298">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N298">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="O298">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="P298">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q298">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="R298">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S298">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T298">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U298">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V298">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W298">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X298">
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="Z298">
         <v>-1</v>
       </c>
       <c r="AA298">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB298">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC298">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AD298">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="299" spans="1:30">
@@ -28387,7 +28387,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7995507</v>
+        <v>7995446</v>
       </c>
       <c r="C299" t="s">
         <v>29</v>
@@ -28396,67 +28396,67 @@
         <v>45374.58333333334</v>
       </c>
       <c r="E299" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="F299" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="G299">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299">
         <v>1</v>
       </c>
       <c r="K299" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L299">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="M299">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N299">
+        <v>5.5</v>
+      </c>
+      <c r="O299">
+        <v>1.5</v>
+      </c>
+      <c r="P299">
+        <v>3.8</v>
+      </c>
+      <c r="Q299">
+        <v>5.25</v>
+      </c>
+      <c r="R299">
+        <v>-1</v>
+      </c>
+      <c r="S299">
+        <v>1.825</v>
+      </c>
+      <c r="T299">
+        <v>1.975</v>
+      </c>
+      <c r="U299">
         <v>2.75</v>
       </c>
-      <c r="O299">
-        <v>2.5</v>
-      </c>
-      <c r="P299">
-        <v>2.8</v>
-      </c>
-      <c r="Q299">
-        <v>2.8</v>
-      </c>
-      <c r="R299">
-        <v>0</v>
-      </c>
-      <c r="S299">
-        <v>1.8</v>
-      </c>
-      <c r="T299">
-        <v>2</v>
-      </c>
-      <c r="U299">
-        <v>2.25</v>
-      </c>
       <c r="V299">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W299">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X299">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y299">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z299">
         <v>-1</v>
@@ -28468,10 +28468,10 @@
         <v>0</v>
       </c>
       <c r="AC299">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AD299">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300" spans="1:30">
@@ -28479,7 +28479,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7995446</v>
+        <v>7995445</v>
       </c>
       <c r="C300" t="s">
         <v>29</v>
@@ -28488,82 +28488,82 @@
         <v>45374.58333333334</v>
       </c>
       <c r="E300" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F300" t="s">
-        <v>185</v>
+        <v>88</v>
       </c>
       <c r="G300">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J300">
         <v>1</v>
       </c>
       <c r="K300" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L300">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="M300">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N300">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="O300">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="P300">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q300">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="R300">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S300">
+        <v>1.975</v>
+      </c>
+      <c r="T300">
         <v>1.825</v>
       </c>
-      <c r="T300">
-        <v>1.975</v>
-      </c>
       <c r="U300">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V300">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W300">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X300">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y300">
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA300">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB300">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC300">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD300">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="301" spans="1:30">
@@ -28755,7 +28755,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>8002095</v>
+        <v>8002096</v>
       </c>
       <c r="C303" t="s">
         <v>29</v>
@@ -28764,82 +28764,82 @@
         <v>45375.45833333334</v>
       </c>
       <c r="E303" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F303" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="G303">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K303" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L303">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="M303">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N303">
+        <v>2.7</v>
+      </c>
+      <c r="O303">
         <v>2.375</v>
       </c>
-      <c r="O303">
-        <v>2.6</v>
-      </c>
       <c r="P303">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q303">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="R303">
         <v>0</v>
       </c>
       <c r="S303">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T303">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U303">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V303">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W303">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X303">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y303">
         <v>-1</v>
       </c>
       <c r="Z303">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB303">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC303">
         <v>-1</v>
       </c>
       <c r="AD303">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:30">
@@ -28847,7 +28847,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>8002096</v>
+        <v>8002093</v>
       </c>
       <c r="C304" t="s">
         <v>29</v>
@@ -28856,64 +28856,64 @@
         <v>45375.45833333334</v>
       </c>
       <c r="E304" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F304" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="G304">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K304" t="s">
         <v>196</v>
       </c>
       <c r="L304">
+        <v>2.75</v>
+      </c>
+      <c r="M304">
+        <v>3</v>
+      </c>
+      <c r="N304">
         <v>2.375</v>
       </c>
-      <c r="M304">
-        <v>3.1</v>
-      </c>
-      <c r="N304">
-        <v>2.7</v>
-      </c>
       <c r="O304">
+        <v>2.75</v>
+      </c>
+      <c r="P304">
+        <v>3</v>
+      </c>
+      <c r="Q304">
         <v>2.375</v>
       </c>
-      <c r="P304">
-        <v>3.1</v>
-      </c>
-      <c r="Q304">
-        <v>2.7</v>
-      </c>
       <c r="R304">
         <v>0</v>
       </c>
       <c r="S304">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T304">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="U304">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V304">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W304">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X304">
-        <v>1.375</v>
+        <v>1.75</v>
       </c>
       <c r="Y304">
         <v>-1</v>
@@ -28922,16 +28922,16 @@
         <v>-1</v>
       </c>
       <c r="AA304">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB304">
         <v>-1</v>
       </c>
       <c r="AC304">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD304">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:30">
@@ -28939,7 +28939,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>8002094</v>
+        <v>8002095</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -28948,16 +28948,16 @@
         <v>45375.45833333334</v>
       </c>
       <c r="E305" t="s">
+        <v>45</v>
+      </c>
+      <c r="F305" t="s">
         <v>59</v>
       </c>
-      <c r="F305" t="s">
-        <v>130</v>
-      </c>
       <c r="G305">
         <v>0</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305">
         <v>0</v>
@@ -28969,40 +28969,40 @@
         <v>195</v>
       </c>
       <c r="L305">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="M305">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N305">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O305">
+        <v>2.6</v>
+      </c>
+      <c r="P305">
         <v>3.3</v>
       </c>
-      <c r="P305">
-        <v>3.5</v>
-      </c>
       <c r="Q305">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="R305">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S305">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T305">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U305">
         <v>2.25</v>
       </c>
       <c r="V305">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W305">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X305">
         <v>-1</v>
@@ -29011,19 +29011,19 @@
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="AA305">
         <v>-1</v>
       </c>
       <c r="AB305">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC305">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD305">
-        <v>0.4875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="306" spans="1:30">
@@ -29031,7 +29031,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>8002093</v>
+        <v>8002094</v>
       </c>
       <c r="C306" t="s">
         <v>29</v>
@@ -29040,82 +29040,82 @@
         <v>45375.45833333334</v>
       </c>
       <c r="E306" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F306" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="G306">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H306">
         <v>2</v>
       </c>
       <c r="I306">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J306">
         <v>1</v>
       </c>
       <c r="K306" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L306">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="M306">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N306">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O306">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="P306">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q306">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="R306">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S306">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T306">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U306">
         <v>2.25</v>
       </c>
       <c r="V306">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W306">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X306">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y306">
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA306">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB306">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC306">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD306">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="307" spans="1:30">
@@ -29132,7 +29132,7 @@
         <v>45378.66666666666</v>
       </c>
       <c r="E307" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F307" t="s">
         <v>68</v>
@@ -29503,7 +29503,7 @@
         <v>50</v>
       </c>
       <c r="F311" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G311">
         <v>1</v>
@@ -29951,7 +29951,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>8055418</v>
+        <v>8061603</v>
       </c>
       <c r="C316" t="s">
         <v>29</v>
@@ -29960,82 +29960,82 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E316" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F316" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="G316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K316" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L316">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M316">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N316">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O316">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="P316">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q316">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="R316">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S316">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T316">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U316">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V316">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="W316">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X316">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA316">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB316">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
       <c r="AD316">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="317" spans="1:30">
@@ -30043,7 +30043,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>8061603</v>
+        <v>8055444</v>
       </c>
       <c r="C317" t="s">
         <v>29</v>
@@ -30052,55 +30052,55 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E317" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="F317" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="G317">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J317">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K317" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L317">
+        <v>2.8</v>
+      </c>
+      <c r="M317">
+        <v>3.25</v>
+      </c>
+      <c r="N317">
         <v>2.2</v>
       </c>
-      <c r="M317">
-        <v>3.4</v>
-      </c>
-      <c r="N317">
-        <v>2.8</v>
-      </c>
       <c r="O317">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="P317">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q317">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="R317">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S317">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T317">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U317">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V317">
         <v>1.825</v>
@@ -30109,25 +30109,25 @@
         <v>1.975</v>
       </c>
       <c r="X317">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA317">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB317">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC317">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AD317">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="318" spans="1:30">
@@ -30135,7 +30135,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>8055444</v>
+        <v>8055421</v>
       </c>
       <c r="C318" t="s">
         <v>29</v>
@@ -30144,10 +30144,10 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E318" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="F318" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="G318">
         <v>1</v>
@@ -30156,7 +30156,7 @@
         <v>2</v>
       </c>
       <c r="I318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J318">
         <v>2</v>
@@ -30165,41 +30165,41 @@
         <v>195</v>
       </c>
       <c r="L318">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="M318">
         <v>3.25</v>
       </c>
       <c r="N318">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O318">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="P318">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q318">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="R318">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S318">
+        <v>1.85</v>
+      </c>
+      <c r="T318">
+        <v>1.95</v>
+      </c>
+      <c r="U318">
+        <v>2.5</v>
+      </c>
+      <c r="V318">
         <v>1.9</v>
       </c>
-      <c r="T318">
+      <c r="W318">
         <v>1.9</v>
       </c>
-      <c r="U318">
-        <v>2.75</v>
-      </c>
-      <c r="V318">
-        <v>1.825</v>
-      </c>
-      <c r="W318">
-        <v>1.975</v>
-      </c>
       <c r="X318">
         <v>-1</v>
       </c>
@@ -30207,19 +30207,19 @@
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="AA318">
         <v>-1</v>
       </c>
       <c r="AB318">
+        <v>0.95</v>
+      </c>
+      <c r="AC318">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AC318">
-        <v>0.4125</v>
-      </c>
       <c r="AD318">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:30">
@@ -30227,7 +30227,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>8055421</v>
+        <v>8055418</v>
       </c>
       <c r="C319" t="s">
         <v>29</v>
@@ -30236,10 +30236,10 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E319" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F319" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="G319">
         <v>1</v>
@@ -30248,49 +30248,49 @@
         <v>2</v>
       </c>
       <c r="I319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K319" t="s">
         <v>195</v>
       </c>
       <c r="L319">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="M319">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N319">
+        <v>2.9</v>
+      </c>
+      <c r="O319">
+        <v>1.666</v>
+      </c>
+      <c r="P319">
         <v>4</v>
-      </c>
-      <c r="O319">
-        <v>1.8</v>
-      </c>
-      <c r="P319">
-        <v>3.25</v>
       </c>
       <c r="Q319">
         <v>4</v>
       </c>
       <c r="R319">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S319">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T319">
+        <v>1.9</v>
+      </c>
+      <c r="U319">
+        <v>2.75</v>
+      </c>
+      <c r="V319">
+        <v>1.75</v>
+      </c>
+      <c r="W319">
         <v>1.95</v>
-      </c>
-      <c r="U319">
-        <v>2.5</v>
-      </c>
-      <c r="V319">
-        <v>1.9</v>
-      </c>
-      <c r="W319">
-        <v>1.9</v>
       </c>
       <c r="X319">
         <v>-1</v>
@@ -30305,13 +30305,13 @@
         <v>-1</v>
       </c>
       <c r="AB319">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC319">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AD319">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="320" spans="1:30">
@@ -30328,7 +30328,7 @@
         <v>45388.54166666666</v>
       </c>
       <c r="E320" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F320" t="s">
         <v>98</v>
@@ -31251,7 +31251,7 @@
         <v>60</v>
       </c>
       <c r="F330" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G330">
         <v>1</v>
@@ -31892,7 +31892,7 @@
         <v>45396.41666666666</v>
       </c>
       <c r="E337" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F337" t="s">
         <v>175</v>
@@ -32527,7 +32527,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>8117183</v>
+        <v>8117312</v>
       </c>
       <c r="C344" t="s">
         <v>29</v>
@@ -32536,82 +32536,82 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E344" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="F344" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="G344">
         <v>1</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344">
         <v>0</v>
       </c>
       <c r="J344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K344" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L344">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="M344">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N344">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="O344">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="P344">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q344">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="R344">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S344">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T344">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U344">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V344">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W344">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X344">
         <v>-1</v>
       </c>
       <c r="Y344">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z344">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA344">
         <v>-1</v>
       </c>
       <c r="AB344">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC344">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD344">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="345" spans="1:30">
@@ -32619,7 +32619,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>8117312</v>
+        <v>8117260</v>
       </c>
       <c r="C345" t="s">
         <v>29</v>
@@ -32628,16 +32628,16 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E345" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F345" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="G345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I345">
         <v>0</v>
@@ -32646,34 +32646,34 @@
         <v>1</v>
       </c>
       <c r="K345" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L345">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="M345">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N345">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="O345">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="P345">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q345">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="R345">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S345">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T345">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U345">
         <v>2.75</v>
@@ -32688,16 +32688,16 @@
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z345">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA345">
         <v>-1</v>
       </c>
       <c r="AB345">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC345">
         <v>-1</v>
@@ -32711,7 +32711,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>8117260</v>
+        <v>8117183</v>
       </c>
       <c r="C346" t="s">
         <v>29</v>
@@ -32720,13 +32720,13 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E346" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F346" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="G346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H346">
         <v>2</v>
@@ -32735,47 +32735,47 @@
         <v>0</v>
       </c>
       <c r="J346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K346" t="s">
         <v>195</v>
       </c>
       <c r="L346">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="M346">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N346">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O346">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="P346">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q346">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="R346">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S346">
+        <v>1.925</v>
+      </c>
+      <c r="T346">
         <v>1.875</v>
       </c>
-      <c r="T346">
+      <c r="U346">
+        <v>2.5</v>
+      </c>
+      <c r="V346">
+        <v>1.875</v>
+      </c>
+      <c r="W346">
         <v>1.925</v>
       </c>
-      <c r="U346">
-        <v>2.75</v>
-      </c>
-      <c r="V346">
-        <v>1.825</v>
-      </c>
-      <c r="W346">
-        <v>1.975</v>
-      </c>
       <c r="X346">
         <v>-1</v>
       </c>
@@ -32783,19 +32783,19 @@
         <v>-1</v>
       </c>
       <c r="Z346">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="AA346">
         <v>-1</v>
       </c>
       <c r="AB346">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC346">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD346">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347" spans="1:30">
@@ -33447,7 +33447,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>8121591</v>
+        <v>8121590</v>
       </c>
       <c r="C354" t="s">
         <v>29</v>
@@ -33456,13 +33456,13 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E354" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="F354" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="G354">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H354">
         <v>1</v>
@@ -33471,52 +33471,52 @@
         <v>0</v>
       </c>
       <c r="J354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K354" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L354">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="M354">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N354">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="O354">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="P354">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q354">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="R354">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S354">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T354">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U354">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V354">
+        <v>1.825</v>
+      </c>
+      <c r="W354">
         <v>1.975</v>
       </c>
-      <c r="W354">
-        <v>1.825</v>
-      </c>
       <c r="X354">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y354">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z354">
         <v>-1</v>
@@ -33528,10 +33528,10 @@
         <v>0</v>
       </c>
       <c r="AC354">
+        <v>0.4125</v>
+      </c>
+      <c r="AD354">
         <v>-0.5</v>
-      </c>
-      <c r="AD354">
-        <v>0.4125</v>
       </c>
     </row>
     <row r="355" spans="1:30">
@@ -33539,7 +33539,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>8121590</v>
+        <v>8121591</v>
       </c>
       <c r="C355" t="s">
         <v>29</v>
@@ -33548,13 +33548,13 @@
         <v>45403.41666666666</v>
       </c>
       <c r="E355" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="F355" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="G355">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H355">
         <v>1</v>
@@ -33563,52 +33563,52 @@
         <v>0</v>
       </c>
       <c r="J355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K355" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L355">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="M355">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N355">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="O355">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="P355">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q355">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="R355">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S355">
+        <v>2.05</v>
+      </c>
+      <c r="T355">
+        <v>1.75</v>
+      </c>
+      <c r="U355">
+        <v>2.25</v>
+      </c>
+      <c r="V355">
         <v>1.975</v>
       </c>
-      <c r="T355">
+      <c r="W355">
         <v>1.825</v>
       </c>
-      <c r="U355">
-        <v>2.75</v>
-      </c>
-      <c r="V355">
-        <v>1.825</v>
-      </c>
-      <c r="W355">
-        <v>1.975</v>
-      </c>
       <c r="X355">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y355">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z355">
         <v>-1</v>
@@ -33620,10 +33620,10 @@
         <v>0</v>
       </c>
       <c r="AC355">
+        <v>-0.5</v>
+      </c>
+      <c r="AD355">
         <v>0.4125</v>
-      </c>
-      <c r="AD355">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="356" spans="1:30">
@@ -34091,7 +34091,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>8143894</v>
+        <v>8143895</v>
       </c>
       <c r="C361" t="s">
         <v>29</v>
@@ -34100,64 +34100,64 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E361" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="F361" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="G361">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J361">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K361" t="s">
         <v>196</v>
       </c>
       <c r="L361">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="M361">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N361">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O361">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="P361">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q361">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R361">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S361">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T361">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U361">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V361">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W361">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="X361">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="Y361">
         <v>-1</v>
@@ -34166,16 +34166,16 @@
         <v>-1</v>
       </c>
       <c r="AA361">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB361">
         <v>-1</v>
       </c>
       <c r="AC361">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AD361">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="362" spans="1:30">
@@ -34183,7 +34183,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>8143907</v>
+        <v>8143894</v>
       </c>
       <c r="C362" t="s">
         <v>29</v>
@@ -34192,79 +34192,79 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E362" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="F362" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="G362">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J362">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K362" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L362">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="M362">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N362">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O362">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="P362">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q362">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="R362">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S362">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T362">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U362">
         <v>2.5</v>
       </c>
       <c r="V362">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W362">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="X362">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y362">
         <v>-1</v>
       </c>
       <c r="Z362">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="AA362">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB362">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC362">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD362">
         <v>-1</v>
@@ -34275,7 +34275,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>8143895</v>
+        <v>8143907</v>
       </c>
       <c r="C363" t="s">
         <v>29</v>
@@ -34284,46 +34284,46 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E363" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F363" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="G363">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I363">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J363">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K363" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L363">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="M363">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N363">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="O363">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="P363">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q363">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="R363">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S363">
         <v>1.85</v>
@@ -34332,34 +34332,34 @@
         <v>1.95</v>
       </c>
       <c r="U363">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V363">
+        <v>1.775</v>
+      </c>
+      <c r="W363">
         <v>1.925</v>
       </c>
-      <c r="W363">
-        <v>1.775</v>
-      </c>
       <c r="X363">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y363">
         <v>-1</v>
       </c>
       <c r="Z363">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="AA363">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB363">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC363">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD363">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364" spans="1:30">
@@ -34563,7 +34563,7 @@
         <v>96</v>
       </c>
       <c r="F366" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G366">
         <v>0</v>
@@ -34836,7 +34836,7 @@
         <v>45410.41666666666</v>
       </c>
       <c r="E369" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F369" t="s">
         <v>41</v>
@@ -35664,7 +35664,7 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E378" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F378" t="s">
         <v>92</v>
@@ -35848,7 +35848,7 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E380" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F380" t="s">
         <v>176</v>
@@ -36032,7 +36032,7 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E382" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F382" t="s">
         <v>179</v>
@@ -36216,7 +36216,7 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E384" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F384" t="s">
         <v>81</v>
@@ -36584,7 +36584,7 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E388" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F388" t="s">
         <v>155</v>
@@ -37311,7 +37311,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>8225076</v>
+        <v>8225208</v>
       </c>
       <c r="C396" t="s">
         <v>29</v>
@@ -37320,82 +37320,82 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E396" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F396" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G396">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H396">
         <v>2</v>
       </c>
       <c r="I396">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J396">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K396" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L396">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M396">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N396">
+        <v>2.4</v>
+      </c>
+      <c r="O396">
         <v>2.625</v>
       </c>
-      <c r="O396">
-        <v>2.25</v>
-      </c>
       <c r="P396">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q396">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="R396">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S396">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T396">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U396">
         <v>3</v>
       </c>
       <c r="V396">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="W396">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X396">
         <v>-1</v>
       </c>
       <c r="Y396">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z396">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA396">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB396">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AC396">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD396">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="397" spans="1:30">
@@ -37403,7 +37403,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>8225208</v>
+        <v>8225076</v>
       </c>
       <c r="C397" t="s">
         <v>29</v>
@@ -37412,82 +37412,82 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E397" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F397" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="G397">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H397">
         <v>2</v>
       </c>
       <c r="I397">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J397">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K397" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L397">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M397">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N397">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="O397">
+        <v>2.25</v>
+      </c>
+      <c r="P397">
+        <v>3.5</v>
+      </c>
+      <c r="Q397">
         <v>2.625</v>
       </c>
-      <c r="P397">
-        <v>3.8</v>
-      </c>
-      <c r="Q397">
-        <v>2.1</v>
-      </c>
       <c r="R397">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S397">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T397">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U397">
         <v>3</v>
       </c>
       <c r="V397">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W397">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X397">
         <v>-1</v>
       </c>
       <c r="Y397">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z397">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA397">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB397">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
       <c r="AC397">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD397">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398" spans="1:30">
@@ -37679,7 +37679,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>8225154</v>
+        <v>8225205</v>
       </c>
       <c r="C400" t="s">
         <v>29</v>
@@ -37688,82 +37688,82 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E400" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F400" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="G400">
         <v>2</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J400">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K400" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L400">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="M400">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N400">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="O400">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="P400">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q400">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="R400">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S400">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T400">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U400">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V400">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W400">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X400">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y400">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z400">
         <v>-1</v>
       </c>
       <c r="AA400">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB400">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC400">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD400">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="401" spans="1:30">
@@ -37771,7 +37771,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>8225205</v>
+        <v>8225207</v>
       </c>
       <c r="C401" t="s">
         <v>29</v>
@@ -37780,13 +37780,13 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E401" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F401" t="s">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c r="G401">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H401">
         <v>0</v>
@@ -37801,25 +37801,25 @@
         <v>196</v>
       </c>
       <c r="L401">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="M401">
         <v>3.6</v>
       </c>
       <c r="N401">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O401">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="P401">
         <v>3.6</v>
       </c>
       <c r="Q401">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="R401">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S401">
         <v>1.85</v>
@@ -37828,16 +37828,16 @@
         <v>1.95</v>
       </c>
       <c r="U401">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V401">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W401">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X401">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="Y401">
         <v>-1</v>
@@ -37852,10 +37852,10 @@
         <v>-1</v>
       </c>
       <c r="AC401">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD401">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="402" spans="1:30">
@@ -37863,7 +37863,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>8225207</v>
+        <v>8225219</v>
       </c>
       <c r="C402" t="s">
         <v>29</v>
@@ -37872,13 +37872,13 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E402" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F402" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G402">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H402">
         <v>0</v>
@@ -37893,43 +37893,43 @@
         <v>196</v>
       </c>
       <c r="L402">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M402">
         <v>3.6</v>
       </c>
       <c r="N402">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O402">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P402">
         <v>3.6</v>
       </c>
       <c r="Q402">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="R402">
         <v>-0.25</v>
       </c>
       <c r="S402">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T402">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U402">
         <v>3</v>
       </c>
       <c r="V402">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W402">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X402">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="Y402">
         <v>-1</v>
@@ -37938,16 +37938,16 @@
         <v>-1</v>
       </c>
       <c r="AA402">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB402">
         <v>-1</v>
       </c>
       <c r="AC402">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD402">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:30">
@@ -37955,7 +37955,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>8225219</v>
+        <v>8230328</v>
       </c>
       <c r="C403" t="s">
         <v>29</v>
@@ -37964,82 +37964,82 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E403" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="F403" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="G403">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I403">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J403">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K403" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L403">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="M403">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N403">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O403">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="P403">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q403">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="R403">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S403">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T403">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U403">
         <v>3</v>
       </c>
       <c r="V403">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W403">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X403">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y403">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z403">
         <v>-1</v>
       </c>
       <c r="AA403">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AB403">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC403">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD403">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="404" spans="1:30">
@@ -38047,7 +38047,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>8230328</v>
+        <v>8225154</v>
       </c>
       <c r="C404" t="s">
         <v>29</v>
@@ -38056,61 +38056,61 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E404" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="F404" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="G404">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I404">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J404">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K404" t="s">
         <v>197</v>
       </c>
       <c r="L404">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M404">
         <v>3.3</v>
       </c>
       <c r="N404">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O404">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="P404">
         <v>3.3</v>
       </c>
       <c r="Q404">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="R404">
         <v>0.25</v>
       </c>
       <c r="S404">
+        <v>2</v>
+      </c>
+      <c r="T404">
         <v>1.8</v>
       </c>
-      <c r="T404">
-        <v>2</v>
-      </c>
       <c r="U404">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V404">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W404">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X404">
         <v>-1</v>
@@ -38122,16 +38122,16 @@
         <v>-1</v>
       </c>
       <c r="AA404">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AB404">
         <v>-0.5</v>
       </c>
       <c r="AC404">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD404">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/France National 3/France National 3.xlsx
+++ b/France National 3/France National 3.xlsx
@@ -112,6 +112,9 @@
     <t>Troyes II</t>
   </si>
   <si>
+    <t>Maubeuge</t>
+  </si>
+  <si>
     <t>Vitre</t>
   </si>
   <si>
@@ -125,9 +128,6 @@
   </si>
   <si>
     <t>Montpellier II</t>
-  </si>
-  <si>
-    <t>Maubeuge</t>
   </si>
   <si>
     <t>RC Epernay</t>
@@ -424,6 +424,9 @@
     <t>Bieshiem</t>
   </si>
   <si>
+    <t>Feignies Aulnoye FC</t>
+  </si>
+  <si>
     <t>Bagnols Pont</t>
   </si>
   <si>
@@ -434,9 +437,6 @@
   </si>
   <si>
     <t>Toulouse II</t>
-  </si>
-  <si>
-    <t>Feignies Aulnoye FC</t>
   </si>
   <si>
     <t>ES Gueretoise</t>
@@ -1253,7 +1253,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6727693</v>
+        <v>6727692</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -1265,43 +1265,43 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>195</v>
+      </c>
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>196</v>
-      </c>
-      <c r="L4">
-        <v>1.95</v>
-      </c>
       <c r="M4">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N4">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q4">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S4">
         <v>2</v>
@@ -1310,7 +1310,7 @@
         <v>1.8</v>
       </c>
       <c r="U4">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V4">
         <v>1.9</v>
@@ -1319,19 +1319,19 @@
         <v>1.9</v>
       </c>
       <c r="X4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
         <v>0.8999999999999999</v>
@@ -1345,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6727691</v>
+        <v>6727693</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -1357,61 +1357,61 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
         <v>196</v>
       </c>
       <c r="L5">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="M5">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N5">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="O5">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="P5">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q5">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="R5">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U5">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X5">
-        <v>0.2849999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Y5">
         <v>-1</v>
@@ -1420,13 +1420,13 @@
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD5">
         <v>-1</v>
@@ -1437,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6727694</v>
+        <v>6727691</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1452,58 +1452,58 @@
         <v>137</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
         <v>196</v>
       </c>
       <c r="L6">
-        <v>1.909</v>
+        <v>1.285</v>
       </c>
       <c r="M6">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N6">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="O6">
-        <v>2.1</v>
+        <v>1.285</v>
       </c>
       <c r="P6">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>8.5</v>
       </c>
       <c r="R6">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U6">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X6">
-        <v>1.1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y6">
         <v>-1</v>
@@ -1512,13 +1512,13 @@
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AD6">
         <v>-1</v>
@@ -1529,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6727653</v>
+        <v>6727694</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1544,73 +1544,73 @@
         <v>138</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L7">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M7">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N7">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="O7">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="P7">
         <v>3.3</v>
       </c>
       <c r="Q7">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U7">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AD7">
         <v>-1</v>
@@ -1621,7 +1621,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6727690</v>
+        <v>6727653</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1636,40 +1636,40 @@
         <v>139</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>3</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="s">
         <v>195</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="M8">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N8">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="P8">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q8">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="R8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>1.9</v>
@@ -1678,13 +1678,13 @@
         <v>1.9</v>
       </c>
       <c r="U8">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1693,7 +1693,7 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8500000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="AA8">
         <v>-1</v>
@@ -1702,7 +1702,7 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AD8">
         <v>-1</v>
@@ -1713,7 +1713,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6727692</v>
+        <v>6727690</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1734,50 +1734,50 @@
         <v>3</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="s">
         <v>195</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R9">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
+        <v>1.9</v>
+      </c>
+      <c r="U9">
+        <v>2.5</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
         <v>1.8</v>
       </c>
-      <c r="U9">
-        <v>3.25</v>
-      </c>
-      <c r="V9">
-        <v>1.9</v>
-      </c>
-      <c r="W9">
-        <v>1.9</v>
-      </c>
       <c r="X9">
         <v>-1</v>
       </c>
@@ -1785,16 +1785,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC9">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <v>-1</v>
@@ -2461,7 +2461,7 @@
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2826,7 +2826,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
         <v>65</v>
@@ -4022,7 +4022,7 @@
         <v>45178.54166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
         <v>147</v>
@@ -4117,7 +4117,7 @@
         <v>60</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -4945,7 +4945,7 @@
         <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -5301,7 +5301,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7244491</v>
+        <v>7244492</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -5310,43 +5310,43 @@
         <v>45192.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L48">
         <v>2.25</v>
       </c>
       <c r="M48">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N48">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O48">
         <v>2.25</v>
       </c>
       <c r="P48">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q48">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R48">
         <v>-0.25</v>
@@ -5358,34 +5358,34 @@
         <v>1.775</v>
       </c>
       <c r="U48">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V48">
+        <v>1.8</v>
+      </c>
+      <c r="W48">
+        <v>2</v>
+      </c>
+      <c r="X48">
+        <v>-1</v>
+      </c>
+      <c r="Y48">
+        <v>-1</v>
+      </c>
+      <c r="Z48">
         <v>1.75</v>
       </c>
-      <c r="W48">
-        <v>2.05</v>
-      </c>
-      <c r="X48">
-        <v>1.25</v>
-      </c>
-      <c r="Y48">
-        <v>-1</v>
-      </c>
-      <c r="Z48">
-        <v>-1</v>
-      </c>
       <c r="AA48">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC48">
         <v>-1</v>
       </c>
       <c r="AD48">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:30">
@@ -5393,7 +5393,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7244441</v>
+        <v>7244491</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -5402,10 +5402,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -5414,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -5423,43 +5423,43 @@
         <v>196</v>
       </c>
       <c r="L49">
+        <v>2.25</v>
+      </c>
+      <c r="M49">
+        <v>3.2</v>
+      </c>
+      <c r="N49">
         <v>2.8</v>
       </c>
-      <c r="M49">
-        <v>3.25</v>
-      </c>
-      <c r="N49">
-        <v>2.2</v>
-      </c>
       <c r="O49">
+        <v>2.25</v>
+      </c>
+      <c r="P49">
+        <v>3.2</v>
+      </c>
+      <c r="Q49">
         <v>2.8</v>
       </c>
-      <c r="P49">
-        <v>3.25</v>
-      </c>
-      <c r="Q49">
-        <v>2.2</v>
-      </c>
       <c r="R49">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T49">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U49">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W49">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="X49">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="Y49">
         <v>-1</v>
@@ -5468,7 +5468,7 @@
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB49">
         <v>-1</v>
@@ -5477,7 +5477,7 @@
         <v>-1</v>
       </c>
       <c r="AD49">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="50" spans="1:30">
@@ -5485,7 +5485,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7244492</v>
+        <v>7244441</v>
       </c>
       <c r="C50" t="s">
         <v>29</v>
@@ -5494,82 +5494,82 @@
         <v>45192.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F50" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L50">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="M50">
         <v>3.25</v>
       </c>
       <c r="N50">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O50">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="P50">
         <v>3.25</v>
       </c>
       <c r="Q50">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="R50">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S50">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T50">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U50">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V50">
+        <v>1.9</v>
+      </c>
+      <c r="W50">
+        <v>1.9</v>
+      </c>
+      <c r="X50">
         <v>1.8</v>
       </c>
-      <c r="W50">
-        <v>2</v>
-      </c>
-      <c r="X50">
-        <v>-1</v>
-      </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB50">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
         <v>-1</v>
       </c>
       <c r="AD50">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -6221,7 +6221,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7305041</v>
+        <v>7306344</v>
       </c>
       <c r="C58" t="s">
         <v>29</v>
@@ -6230,64 +6230,64 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="s">
         <v>196</v>
       </c>
       <c r="L58">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M58">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N58">
+        <v>3.3</v>
+      </c>
+      <c r="O58">
+        <v>2.05</v>
+      </c>
+      <c r="P58">
         <v>3.1</v>
       </c>
-      <c r="O58">
-        <v>2.1</v>
-      </c>
-      <c r="P58">
-        <v>3.2</v>
-      </c>
       <c r="Q58">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="R58">
         <v>-0.25</v>
       </c>
       <c r="S58">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T58">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U58">
         <v>2.25</v>
       </c>
       <c r="V58">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W58">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X58">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="Y58">
         <v>-1</v>
@@ -6296,13 +6296,13 @@
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AD58">
         <v>-1</v>
@@ -6405,7 +6405,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7306344</v>
+        <v>7305041</v>
       </c>
       <c r="C60" t="s">
         <v>29</v>
@@ -6414,64 +6414,64 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="s">
         <v>196</v>
       </c>
       <c r="L60">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M60">
+        <v>3.2</v>
+      </c>
+      <c r="N60">
         <v>3.1</v>
       </c>
-      <c r="N60">
-        <v>3.3</v>
-      </c>
       <c r="O60">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P60">
+        <v>3.2</v>
+      </c>
+      <c r="Q60">
         <v>3.1</v>
-      </c>
-      <c r="Q60">
-        <v>3.3</v>
       </c>
       <c r="R60">
         <v>-0.25</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U60">
         <v>2.25</v>
       </c>
       <c r="V60">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W60">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X60">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
@@ -6480,13 +6480,13 @@
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AD60">
         <v>-1</v>
@@ -7693,7 +7693,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7365843</v>
+        <v>7366036</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -7702,64 +7702,64 @@
         <v>45220.54166666666</v>
       </c>
       <c r="E74" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F74" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="G74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="s">
         <v>196</v>
       </c>
       <c r="L74">
+        <v>1.4</v>
+      </c>
+      <c r="M74">
         <v>4.2</v>
       </c>
-      <c r="M74">
-        <v>3.4</v>
-      </c>
       <c r="N74">
-        <v>1.727</v>
+        <v>6</v>
       </c>
       <c r="O74">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="P74">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q74">
-        <v>2</v>
+        <v>5.75</v>
       </c>
       <c r="R74">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S74">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T74">
+        <v>1.9</v>
+      </c>
+      <c r="U74">
+        <v>2.75</v>
+      </c>
+      <c r="V74">
+        <v>1.825</v>
+      </c>
+      <c r="W74">
         <v>1.975</v>
       </c>
-      <c r="U74">
-        <v>2.25</v>
-      </c>
-      <c r="V74">
-        <v>1.85</v>
-      </c>
-      <c r="W74">
-        <v>1.95</v>
-      </c>
       <c r="X74">
-        <v>2.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y74">
         <v>-1</v>
@@ -7768,16 +7768,16 @@
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AD74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="75" spans="1:30">
@@ -7785,7 +7785,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7366036</v>
+        <v>7365844</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
@@ -7794,82 +7794,82 @@
         <v>45220.54166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>4</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75" t="s">
+        <v>195</v>
+      </c>
+      <c r="L75">
+        <v>2.1</v>
+      </c>
+      <c r="M75">
         <v>3</v>
       </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>2</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75" t="s">
-        <v>196</v>
-      </c>
-      <c r="L75">
-        <v>1.4</v>
-      </c>
-      <c r="M75">
-        <v>4.2</v>
-      </c>
       <c r="N75">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="O75">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="P75">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q75">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="R75">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U75">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W75">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X75">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="AA75">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC75">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AD75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -7877,7 +7877,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7365844</v>
+        <v>7365843</v>
       </c>
       <c r="C76" t="s">
         <v>29</v>
@@ -7886,79 +7886,79 @@
         <v>45220.54166666666</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="F76" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L76">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="M76">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N76">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O76">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="P76">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q76">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="R76">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T76">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U76">
         <v>2.25</v>
       </c>
       <c r="V76">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD76">
         <v>-1</v>
@@ -7978,10 +7978,10 @@
         <v>45220.55208333334</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -9726,7 +9726,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
         <v>155</v>
@@ -10269,7 +10269,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7461372</v>
+        <v>7460143</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -10278,82 +10278,82 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="F102" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L102">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="M102">
         <v>3.2</v>
       </c>
       <c r="N102">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="O102">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="P102">
         <v>3.2</v>
       </c>
       <c r="Q102">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="R102">
         <v>-0.25</v>
       </c>
       <c r="S102">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="T102">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="U102">
         <v>2.5</v>
       </c>
       <c r="V102">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W102">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X102">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA102">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC102">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD102">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -10361,7 +10361,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7461373</v>
+        <v>7461372</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -10370,79 +10370,79 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L103">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="M103">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N103">
+        <v>3.6</v>
+      </c>
+      <c r="O103">
         <v>1.909</v>
       </c>
-      <c r="O103">
-        <v>3.8</v>
-      </c>
       <c r="P103">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q103">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="R103">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S103">
+        <v>1.7</v>
+      </c>
+      <c r="T103">
+        <v>2.1</v>
+      </c>
+      <c r="U103">
+        <v>2.5</v>
+      </c>
+      <c r="V103">
         <v>1.9</v>
       </c>
-      <c r="T103">
+      <c r="W103">
         <v>1.9</v>
       </c>
-      <c r="U103">
-        <v>2.75</v>
-      </c>
-      <c r="V103">
-        <v>1.975</v>
-      </c>
-      <c r="W103">
-        <v>1.825</v>
-      </c>
       <c r="X103">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC103">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AD103">
         <v>-1</v>
@@ -10453,7 +10453,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7460141</v>
+        <v>7461373</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -10462,52 +10462,52 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" t="s">
         <v>195</v>
       </c>
       <c r="L104">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N104">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O104">
-        <v>1.727</v>
+        <v>3.8</v>
       </c>
       <c r="P104">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q104">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="R104">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S104">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U104">
         <v>2.75</v>
@@ -10525,19 +10525,19 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD104">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -10545,7 +10545,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7460143</v>
+        <v>7460141</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -10554,10 +10554,10 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -10569,67 +10569,67 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" t="s">
         <v>195</v>
       </c>
       <c r="L105">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="M105">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N105">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="O105">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="P105">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q105">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="R105">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U105">
+        <v>2.75</v>
+      </c>
+      <c r="V105">
+        <v>1.975</v>
+      </c>
+      <c r="W105">
+        <v>1.825</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
+        <v>-1</v>
+      </c>
+      <c r="Z105">
         <v>2.5</v>
       </c>
-      <c r="V105">
-        <v>1.85</v>
-      </c>
-      <c r="W105">
-        <v>1.95</v>
-      </c>
-      <c r="X105">
-        <v>-1</v>
-      </c>
-      <c r="Y105">
-        <v>-1</v>
-      </c>
-      <c r="Z105">
-        <v>1.8</v>
-      </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC105">
         <v>-1</v>
       </c>
       <c r="AD105">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="106" spans="1:30">
@@ -11937,7 +11937,7 @@
         <v>96</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -14605,7 +14605,7 @@
         <v>40</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -15513,7 +15513,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7594733</v>
+        <v>7594718</v>
       </c>
       <c r="C159" t="s">
         <v>29</v>
@@ -15522,82 +15522,82 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E159" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="F159" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="G159">
         <v>2</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159">
         <v>0</v>
       </c>
       <c r="K159" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L159">
+        <v>1.8</v>
+      </c>
+      <c r="M159">
+        <v>3.1</v>
+      </c>
+      <c r="N159">
+        <v>4.2</v>
+      </c>
+      <c r="O159">
+        <v>2.25</v>
+      </c>
+      <c r="P159">
+        <v>3.1</v>
+      </c>
+      <c r="Q159">
         <v>2.8</v>
       </c>
-      <c r="M159">
-        <v>2.9</v>
-      </c>
-      <c r="N159">
-        <v>2.4</v>
-      </c>
-      <c r="O159">
-        <v>2.5</v>
-      </c>
-      <c r="P159">
-        <v>2.875</v>
-      </c>
-      <c r="Q159">
-        <v>2.7</v>
-      </c>
       <c r="R159">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S159">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T159">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U159">
         <v>2.75</v>
       </c>
       <c r="V159">
+        <v>1.85</v>
+      </c>
+      <c r="W159">
         <v>1.95</v>
       </c>
-      <c r="W159">
-        <v>1.85</v>
-      </c>
       <c r="X159">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD159">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:30">
@@ -15605,7 +15605,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7594718</v>
+        <v>7594733</v>
       </c>
       <c r="C160" t="s">
         <v>29</v>
@@ -15614,82 +15614,82 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="F160" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="G160">
         <v>2</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160">
         <v>0</v>
       </c>
       <c r="K160" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L160">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="M160">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N160">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="O160">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="P160">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q160">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="R160">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S160">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T160">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U160">
         <v>2.75</v>
       </c>
       <c r="V160">
+        <v>1.95</v>
+      </c>
+      <c r="W160">
         <v>1.85</v>
       </c>
-      <c r="W160">
-        <v>1.95</v>
-      </c>
       <c r="X160">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y160">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB160">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
+        <v>-1</v>
+      </c>
+      <c r="AD160">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AD160">
-        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:30">
@@ -15697,7 +15697,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7594728</v>
+        <v>7594719</v>
       </c>
       <c r="C161" t="s">
         <v>29</v>
@@ -15706,52 +15706,52 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E161" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F161" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="G161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161" t="s">
+        <v>196</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
         <v>3</v>
       </c>
-      <c r="I161">
-        <v>2</v>
-      </c>
-      <c r="J161">
-        <v>0</v>
-      </c>
-      <c r="K161" t="s">
-        <v>195</v>
-      </c>
-      <c r="L161">
-        <v>2.3</v>
-      </c>
-      <c r="M161">
-        <v>3.2</v>
-      </c>
       <c r="N161">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O161">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="P161">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q161">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="R161">
         <v>-0.25</v>
       </c>
       <c r="S161">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T161">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="U161">
         <v>2.75</v>
@@ -15763,25 +15763,25 @@
         <v>1.85</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB161">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD161">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:30">
@@ -15789,7 +15789,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7594719</v>
+        <v>7594728</v>
       </c>
       <c r="C162" t="s">
         <v>29</v>
@@ -15798,52 +15798,52 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J162">
         <v>0</v>
       </c>
       <c r="K162" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L162">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="M162">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N162">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O162">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="P162">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q162">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="R162">
         <v>-0.25</v>
       </c>
       <c r="S162">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T162">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="U162">
         <v>2.75</v>
@@ -15855,25 +15855,25 @@
         <v>1.85</v>
       </c>
       <c r="X162">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA162">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD162">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:30">
@@ -16341,7 +16341,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7663729</v>
+        <v>7664701</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
@@ -16350,13 +16350,13 @@
         <v>45297.58333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F168" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -16368,64 +16368,64 @@
         <v>1</v>
       </c>
       <c r="K168" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L168">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="M168">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N168">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="O168">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="P168">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q168">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="R168">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U168">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W168">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y168">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
+        <v>0.95</v>
+      </c>
+      <c r="AB168">
+        <v>-1</v>
+      </c>
+      <c r="AC168">
+        <v>0.4375</v>
+      </c>
+      <c r="AD168">
         <v>-0.5</v>
-      </c>
-      <c r="AB168">
-        <v>0.4125</v>
-      </c>
-      <c r="AC168">
-        <v>-0.5</v>
-      </c>
-      <c r="AD168">
-        <v>0.4</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -16433,7 +16433,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7663705</v>
+        <v>7663729</v>
       </c>
       <c r="C169" t="s">
         <v>29</v>
@@ -16442,16 +16442,16 @@
         <v>45297.58333333334</v>
       </c>
       <c r="E169" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F169" t="s">
-        <v>57</v>
+        <v>180</v>
       </c>
       <c r="G169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -16460,64 +16460,64 @@
         <v>1</v>
       </c>
       <c r="K169" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L169">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="M169">
         <v>3.2</v>
       </c>
       <c r="N169">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O169">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="P169">
         <v>3.2</v>
       </c>
       <c r="Q169">
+        <v>2.9</v>
+      </c>
+      <c r="R169">
+        <v>-0.25</v>
+      </c>
+      <c r="S169">
+        <v>1.975</v>
+      </c>
+      <c r="T169">
+        <v>1.825</v>
+      </c>
+      <c r="U169">
         <v>2.25</v>
       </c>
-      <c r="R169">
-        <v>0.25</v>
-      </c>
-      <c r="S169">
-        <v>1.775</v>
-      </c>
-      <c r="T169">
-        <v>2.025</v>
-      </c>
-      <c r="U169">
-        <v>2.75</v>
-      </c>
       <c r="V169">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W169">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z169">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB169">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AC169">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AD169">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="170" spans="1:30">
@@ -16525,7 +16525,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7664701</v>
+        <v>7663705</v>
       </c>
       <c r="C170" t="s">
         <v>29</v>
@@ -16534,16 +16534,16 @@
         <v>45297.58333333334</v>
       </c>
       <c r="E170" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="F170" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="G170">
         <v>2</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -16552,34 +16552,34 @@
         <v>1</v>
       </c>
       <c r="K170" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L170">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="M170">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N170">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="O170">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="P170">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q170">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="R170">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S170">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T170">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U170">
         <v>2.75</v>
@@ -16591,25 +16591,25 @@
         <v>1.925</v>
       </c>
       <c r="X170">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA170">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC170">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AD170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171" spans="1:30">
@@ -16626,7 +16626,7 @@
         <v>45297.625</v>
       </c>
       <c r="E171" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F171" t="s">
         <v>156</v>
@@ -16893,7 +16893,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7690626</v>
+        <v>7690754</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -16902,82 +16902,82 @@
         <v>45304.54166666666</v>
       </c>
       <c r="E174" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="F174" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="G174">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H174">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K174" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L174">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="M174">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N174">
+        <v>1.909</v>
+      </c>
+      <c r="O174">
+        <v>3.6</v>
+      </c>
+      <c r="P174">
+        <v>3.3</v>
+      </c>
+      <c r="Q174">
+        <v>1.909</v>
+      </c>
+      <c r="R174">
+        <v>0.5</v>
+      </c>
+      <c r="S174">
+        <v>1.825</v>
+      </c>
+      <c r="T174">
+        <v>1.975</v>
+      </c>
+      <c r="U174">
         <v>2.75</v>
       </c>
-      <c r="O174">
-        <v>2.25</v>
-      </c>
-      <c r="P174">
-        <v>3.25</v>
-      </c>
-      <c r="Q174">
-        <v>2.75</v>
-      </c>
-      <c r="R174">
-        <v>-0.25</v>
-      </c>
-      <c r="S174">
+      <c r="V174">
+        <v>1.775</v>
+      </c>
+      <c r="W174">
         <v>2.025</v>
       </c>
-      <c r="T174">
-        <v>1.775</v>
-      </c>
-      <c r="U174">
-        <v>2.5</v>
-      </c>
-      <c r="V174">
-        <v>1.8</v>
-      </c>
-      <c r="W174">
-        <v>2</v>
-      </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y174">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
+        <v>0.825</v>
+      </c>
+      <c r="AB174">
+        <v>-1</v>
+      </c>
+      <c r="AC174">
+        <v>0.3875</v>
+      </c>
+      <c r="AD174">
         <v>-0.5</v>
-      </c>
-      <c r="AB174">
-        <v>0.3875</v>
-      </c>
-      <c r="AC174">
-        <v>0.8</v>
-      </c>
-      <c r="AD174">
-        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:30">
@@ -17077,7 +17077,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7690754</v>
+        <v>7690626</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -17086,82 +17086,82 @@
         <v>45304.54166666666</v>
       </c>
       <c r="E176" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="F176" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="G176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K176" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L176">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="M176">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N176">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="P176">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q176">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="R176">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S176">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T176">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U176">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V176">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W176">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="X176">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC176">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AD176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -18009,7 +18009,7 @@
         <v>65</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -19377,7 +19377,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7748838</v>
+        <v>7748114</v>
       </c>
       <c r="C201" t="s">
         <v>29</v>
@@ -19386,82 +19386,76 @@
         <v>45318.58333333334</v>
       </c>
       <c r="E201" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="F201" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G201">
         <v>0</v>
       </c>
       <c r="H201">
-        <v>0</v>
-      </c>
-      <c r="I201">
-        <v>0</v>
-      </c>
-      <c r="J201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K201" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L201">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="M201">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N201">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="O201">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="P201">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q201">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="R201">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S201">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T201">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U201">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="V201">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W201">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA201">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC201">
         <v>-1</v>
       </c>
       <c r="AD201">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:30">
@@ -19469,7 +19463,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7748114</v>
+        <v>7748113</v>
       </c>
       <c r="C202" t="s">
         <v>29</v>
@@ -19478,55 +19472,61 @@
         <v>45318.58333333334</v>
       </c>
       <c r="E202" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="F202" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="G202">
         <v>0</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>3</v>
       </c>
       <c r="K202" t="s">
         <v>195</v>
       </c>
       <c r="L202">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="M202">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N202">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="O202">
-        <v>1.75</v>
+        <v>6.5</v>
       </c>
       <c r="P202">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q202">
-        <v>4</v>
+        <v>1.444</v>
       </c>
       <c r="R202">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="S202">
+        <v>1.975</v>
+      </c>
+      <c r="T202">
         <v>1.825</v>
       </c>
-      <c r="T202">
-        <v>1.975</v>
-      </c>
       <c r="U202">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V202">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W202">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -19535,19 +19535,19 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>3</v>
+        <v>0.444</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD202">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:30">
@@ -19555,7 +19555,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7748113</v>
+        <v>7748838</v>
       </c>
       <c r="C203" t="s">
         <v>29</v>
@@ -19564,52 +19564,52 @@
         <v>45318.58333333334</v>
       </c>
       <c r="E203" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F203" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
       <c r="H203">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I203">
         <v>0</v>
       </c>
       <c r="J203">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K203" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="M203">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N203">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="O203">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="P203">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q203">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="R203">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="S203">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T203">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U203">
         <v>2.75</v>
@@ -19618,28 +19618,28 @@
         <v>1.925</v>
       </c>
       <c r="W203">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z203">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB203">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AC203">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD203">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:30">
@@ -20852,7 +20852,7 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F217" t="s">
         <v>60</v>
@@ -21680,7 +21680,7 @@
         <v>45332.58333333334</v>
       </c>
       <c r="E226" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F226" t="s">
         <v>179</v>
@@ -23707,7 +23707,7 @@
         <v>120</v>
       </c>
       <c r="F248" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G248">
         <v>3</v>
@@ -23980,7 +23980,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E251" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F251" t="s">
         <v>93</v>
@@ -24075,7 +24075,7 @@
         <v>47</v>
       </c>
       <c r="F252" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>45</v>
       </c>
       <c r="F303" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G303">
         <v>4</v>
@@ -28939,7 +28939,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>8002095</v>
+        <v>8002096</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -28948,82 +28948,82 @@
         <v>45375.45833333334</v>
       </c>
       <c r="E305" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F305" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="G305">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K305" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L305">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="M305">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N305">
+        <v>2.7</v>
+      </c>
+      <c r="O305">
         <v>2.375</v>
       </c>
-      <c r="O305">
-        <v>2.6</v>
-      </c>
       <c r="P305">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q305">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="R305">
         <v>0</v>
       </c>
       <c r="S305">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T305">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U305">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V305">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W305">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X305">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB305">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC305">
         <v>-1</v>
       </c>
       <c r="AD305">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="306" spans="1:30">
@@ -29031,7 +29031,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>8002096</v>
+        <v>8002095</v>
       </c>
       <c r="C306" t="s">
         <v>29</v>
@@ -29040,82 +29040,82 @@
         <v>45375.45833333334</v>
       </c>
       <c r="E306" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F306" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="G306">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K306" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L306">
+        <v>2.55</v>
+      </c>
+      <c r="M306">
+        <v>3.3</v>
+      </c>
+      <c r="N306">
         <v>2.375</v>
       </c>
-      <c r="M306">
-        <v>3.1</v>
-      </c>
-      <c r="N306">
-        <v>2.7</v>
-      </c>
       <c r="O306">
+        <v>2.6</v>
+      </c>
+      <c r="P306">
+        <v>3.3</v>
+      </c>
+      <c r="Q306">
         <v>2.375</v>
       </c>
-      <c r="P306">
-        <v>3.1</v>
-      </c>
-      <c r="Q306">
-        <v>2.7</v>
-      </c>
       <c r="R306">
         <v>0</v>
       </c>
       <c r="S306">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T306">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U306">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V306">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W306">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X306">
+        <v>-1</v>
+      </c>
+      <c r="Y306">
+        <v>-1</v>
+      </c>
+      <c r="Z306">
         <v>1.375</v>
       </c>
-      <c r="Y306">
-        <v>-1</v>
-      </c>
-      <c r="Z306">
-        <v>-1</v>
-      </c>
       <c r="AA306">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB306">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC306">
         <v>-1</v>
       </c>
       <c r="AD306">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="307" spans="1:30">
@@ -29776,7 +29776,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E314" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F314" t="s">
         <v>96</v>
@@ -31239,7 +31239,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>8086624</v>
+        <v>8086623</v>
       </c>
       <c r="C330" t="s">
         <v>29</v>
@@ -31248,16 +31248,16 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E330" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="F330" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="G330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I330">
         <v>0</v>
@@ -31266,34 +31266,34 @@
         <v>1</v>
       </c>
       <c r="K330" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L330">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M330">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N330">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O330">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P330">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q330">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="R330">
         <v>-0.25</v>
       </c>
       <c r="S330">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T330">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U330">
         <v>2.5</v>
@@ -31308,16 +31308,16 @@
         <v>-1</v>
       </c>
       <c r="Y330">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z330">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="AA330">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB330">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AC330">
         <v>-1</v>
@@ -31331,7 +31331,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>8086623</v>
+        <v>8086624</v>
       </c>
       <c r="C331" t="s">
         <v>29</v>
@@ -31340,16 +31340,16 @@
         <v>45395.54166666666</v>
       </c>
       <c r="E331" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F331" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="G331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331">
         <v>0</v>
@@ -31358,34 +31358,34 @@
         <v>1</v>
       </c>
       <c r="K331" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L331">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M331">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N331">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O331">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P331">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q331">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="R331">
         <v>-0.25</v>
       </c>
       <c r="S331">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T331">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U331">
         <v>2.5</v>
@@ -31400,16 +31400,16 @@
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z331">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="AA331">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB331">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AC331">
         <v>-1</v>
@@ -31527,7 +31527,7 @@
         <v>58</v>
       </c>
       <c r="F333" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G333">
         <v>1</v>
@@ -31607,7 +31607,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>8092794</v>
+        <v>8086625</v>
       </c>
       <c r="C334" t="s">
         <v>29</v>
@@ -31616,52 +31616,52 @@
         <v>45395.5625</v>
       </c>
       <c r="E334" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="F334" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="G334">
         <v>1</v>
       </c>
       <c r="H334">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I334">
         <v>0</v>
       </c>
       <c r="J334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K334" t="s">
         <v>195</v>
       </c>
       <c r="L334">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="M334">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N334">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="O334">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="P334">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q334">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R334">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S334">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T334">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U334">
         <v>2.5</v>
@@ -31679,13 +31679,13 @@
         <v>-1</v>
       </c>
       <c r="Z334">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AA334">
         <v>-1</v>
       </c>
       <c r="AB334">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC334">
         <v>0.8999999999999999</v>
@@ -31699,7 +31699,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>8086625</v>
+        <v>8092794</v>
       </c>
       <c r="C335" t="s">
         <v>29</v>
@@ -31708,52 +31708,52 @@
         <v>45395.5625</v>
       </c>
       <c r="E335" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="F335" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="G335">
         <v>1</v>
       </c>
       <c r="H335">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I335">
         <v>0</v>
       </c>
       <c r="J335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K335" t="s">
         <v>195</v>
       </c>
       <c r="L335">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="M335">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N335">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="O335">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="P335">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q335">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R335">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S335">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T335">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U335">
         <v>2.5</v>
@@ -31771,13 +31771,13 @@
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AA335">
         <v>-1</v>
       </c>
       <c r="AB335">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC335">
         <v>0.8999999999999999</v>
@@ -31803,7 +31803,7 @@
         <v>52</v>
       </c>
       <c r="F336" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G336">
         <v>0</v>
@@ -32260,7 +32260,7 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E341" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F341" t="s">
         <v>72</v>
@@ -32343,7 +32343,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>8117181</v>
+        <v>8117258</v>
       </c>
       <c r="C342" t="s">
         <v>29</v>
@@ -32352,82 +32352,82 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E342" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="F342" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G342">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I342">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K342" t="s">
         <v>197</v>
       </c>
       <c r="L342">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="M342">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N342">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O342">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="P342">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q342">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="R342">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S342">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T342">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U342">
         <v>2.25</v>
       </c>
       <c r="V342">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W342">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X342">
         <v>-1</v>
       </c>
       <c r="Y342">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Z342">
         <v>-1</v>
       </c>
       <c r="AA342">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB342">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC342">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD342">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="343" spans="1:30">
@@ -32435,7 +32435,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>8117183</v>
+        <v>8117181</v>
       </c>
       <c r="C343" t="s">
         <v>29</v>
@@ -32444,79 +32444,79 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E343" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="F343" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G343">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H343">
         <v>2</v>
       </c>
       <c r="I343">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J343">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K343" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L343">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="M343">
         <v>3.2</v>
       </c>
       <c r="N343">
+        <v>3.6</v>
+      </c>
+      <c r="O343">
+        <v>1.909</v>
+      </c>
+      <c r="P343">
+        <v>3.2</v>
+      </c>
+      <c r="Q343">
+        <v>3.6</v>
+      </c>
+      <c r="R343">
+        <v>-0.5</v>
+      </c>
+      <c r="S343">
+        <v>1.975</v>
+      </c>
+      <c r="T343">
+        <v>1.825</v>
+      </c>
+      <c r="U343">
+        <v>2.25</v>
+      </c>
+      <c r="V343">
+        <v>1.9</v>
+      </c>
+      <c r="W343">
+        <v>1.9</v>
+      </c>
+      <c r="X343">
+        <v>-1</v>
+      </c>
+      <c r="Y343">
         <v>2.2</v>
       </c>
-      <c r="O343">
-        <v>2.5</v>
-      </c>
-      <c r="P343">
-        <v>3.3</v>
-      </c>
-      <c r="Q343">
-        <v>2.45</v>
-      </c>
-      <c r="R343">
-        <v>0</v>
-      </c>
-      <c r="S343">
-        <v>1.925</v>
-      </c>
-      <c r="T343">
-        <v>1.875</v>
-      </c>
-      <c r="U343">
-        <v>2.5</v>
-      </c>
-      <c r="V343">
-        <v>1.875</v>
-      </c>
-      <c r="W343">
-        <v>1.925</v>
-      </c>
-      <c r="X343">
-        <v>-1</v>
-      </c>
-      <c r="Y343">
-        <v>-1</v>
-      </c>
       <c r="Z343">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA343">
         <v>-1</v>
       </c>
       <c r="AB343">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC343">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD343">
         <v>-1</v>
@@ -32527,7 +32527,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>8117258</v>
+        <v>8117260</v>
       </c>
       <c r="C344" t="s">
         <v>29</v>
@@ -32536,82 +32536,82 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E344" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="F344" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="G344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K344" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L344">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="M344">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N344">
         <v>2.1</v>
       </c>
       <c r="O344">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P344">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q344">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="R344">
         <v>0.25</v>
       </c>
       <c r="S344">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T344">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U344">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V344">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W344">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X344">
         <v>-1</v>
       </c>
       <c r="Y344">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z344">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA344">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB344">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC344">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD344">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="345" spans="1:30">
@@ -32619,7 +32619,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>8117312</v>
+        <v>8117183</v>
       </c>
       <c r="C345" t="s">
         <v>29</v>
@@ -32628,82 +32628,82 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E345" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="F345" t="s">
-        <v>193</v>
+        <v>40</v>
       </c>
       <c r="G345">
         <v>1</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I345">
         <v>0</v>
       </c>
       <c r="J345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K345" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L345">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="M345">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N345">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="O345">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="P345">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q345">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="R345">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S345">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T345">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U345">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V345">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W345">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z345">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="AA345">
         <v>-1</v>
       </c>
       <c r="AB345">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC345">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD345">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:30">
@@ -32711,7 +32711,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>8117260</v>
+        <v>8117312</v>
       </c>
       <c r="C346" t="s">
         <v>29</v>
@@ -32720,16 +32720,16 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E346" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F346" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="G346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346">
         <v>0</v>
@@ -32738,34 +32738,34 @@
         <v>1</v>
       </c>
       <c r="K346" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L346">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="M346">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N346">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="O346">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="P346">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q346">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="R346">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S346">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T346">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U346">
         <v>2.75</v>
@@ -32780,16 +32780,16 @@
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z346">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
         <v>-1</v>
       </c>
       <c r="AB346">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC346">
         <v>-1</v>
@@ -32907,7 +32907,7 @@
         <v>42</v>
       </c>
       <c r="F348" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G348">
         <v>3</v>
@@ -35471,7 +35471,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>8198870</v>
+        <v>8198869</v>
       </c>
       <c r="C376" t="s">
         <v>29</v>
@@ -35480,16 +35480,16 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E376" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="F376" t="s">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="G376">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376">
         <v>1</v>
@@ -35501,43 +35501,43 @@
         <v>196</v>
       </c>
       <c r="L376">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="M376">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N376">
+        <v>3.4</v>
+      </c>
+      <c r="O376">
+        <v>1.8</v>
+      </c>
+      <c r="P376">
+        <v>3.75</v>
+      </c>
+      <c r="Q376">
+        <v>3.4</v>
+      </c>
+      <c r="R376">
+        <v>-0.5</v>
+      </c>
+      <c r="S376">
+        <v>1.85</v>
+      </c>
+      <c r="T376">
+        <v>1.95</v>
+      </c>
+      <c r="U376">
         <v>3</v>
       </c>
-      <c r="O376">
-        <v>2.1</v>
-      </c>
-      <c r="P376">
-        <v>3.25</v>
-      </c>
-      <c r="Q376">
-        <v>3</v>
-      </c>
-      <c r="R376">
-        <v>-0.25</v>
-      </c>
-      <c r="S376">
-        <v>1.875</v>
-      </c>
-      <c r="T376">
-        <v>1.925</v>
-      </c>
-      <c r="U376">
-        <v>2.25</v>
-      </c>
       <c r="V376">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W376">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X376">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="Y376">
         <v>-1</v>
@@ -35546,16 +35546,16 @@
         <v>-1</v>
       </c>
       <c r="AA376">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB376">
         <v>-1</v>
       </c>
       <c r="AC376">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD376">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="377" spans="1:30">
@@ -35563,7 +35563,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>8198727</v>
+        <v>8198873</v>
       </c>
       <c r="C377" t="s">
         <v>29</v>
@@ -35572,82 +35572,82 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E377" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F377" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="G377">
         <v>2</v>
       </c>
       <c r="H377">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I377">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J377">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K377" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L377">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="M377">
         <v>3.75</v>
       </c>
       <c r="N377">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O377">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="P377">
         <v>3.8</v>
       </c>
       <c r="Q377">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="R377">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S377">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T377">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U377">
         <v>3.25</v>
       </c>
       <c r="V377">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W377">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X377">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y377">
         <v>-1</v>
       </c>
       <c r="Z377">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA377">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB377">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC377">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD377">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="378" spans="1:30">
@@ -35655,7 +35655,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>8198869</v>
+        <v>8198727</v>
       </c>
       <c r="C378" t="s">
         <v>29</v>
@@ -35664,82 +35664,82 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E378" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F378" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J378">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K378" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L378">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="M378">
         <v>3.75</v>
       </c>
       <c r="N378">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O378">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="P378">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q378">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="R378">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S378">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T378">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U378">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V378">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W378">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X378">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y378">
         <v>-1</v>
       </c>
       <c r="Z378">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA378">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB378">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC378">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD378">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379" spans="1:30">
@@ -35747,7 +35747,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>8198872</v>
+        <v>8198870</v>
       </c>
       <c r="C379" t="s">
         <v>29</v>
@@ -35756,13 +35756,13 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E379" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F379" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="G379">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H379">
         <v>1</v>
@@ -35777,43 +35777,43 @@
         <v>196</v>
       </c>
       <c r="L379">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="M379">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N379">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O379">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="P379">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q379">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="R379">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S379">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T379">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U379">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V379">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W379">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X379">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="Y379">
         <v>-1</v>
@@ -35822,16 +35822,16 @@
         <v>-1</v>
       </c>
       <c r="AA379">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB379">
         <v>-1</v>
       </c>
       <c r="AC379">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD379">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380" spans="1:30">
@@ -35839,7 +35839,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>8198873</v>
+        <v>8198872</v>
       </c>
       <c r="C380" t="s">
         <v>29</v>
@@ -35848,10 +35848,10 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E380" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F380" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="G380">
         <v>2</v>
@@ -35860,52 +35860,52 @@
         <v>1</v>
       </c>
       <c r="I380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K380" t="s">
         <v>196</v>
       </c>
       <c r="L380">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="M380">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N380">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O380">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="P380">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q380">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="R380">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S380">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T380">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U380">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V380">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W380">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X380">
-        <v>0.6499999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="Y380">
         <v>-1</v>
@@ -35914,16 +35914,16 @@
         <v>-1</v>
       </c>
       <c r="AA380">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB380">
+        <v>-1</v>
+      </c>
+      <c r="AC380">
+        <v>0.45</v>
+      </c>
+      <c r="AD380">
         <v>-0.5</v>
-      </c>
-      <c r="AC380">
-        <v>-0.5</v>
-      </c>
-      <c r="AD380">
-        <v>0.475</v>
       </c>
     </row>
     <row r="381" spans="1:30">
@@ -36127,7 +36127,7 @@
         <v>73</v>
       </c>
       <c r="F383" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G383">
         <v>0</v>
@@ -36219,7 +36219,7 @@
         <v>45</v>
       </c>
       <c r="F384" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G384">
         <v>3</v>
@@ -36483,7 +36483,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>8198287</v>
+        <v>8198602</v>
       </c>
       <c r="C387" t="s">
         <v>29</v>
@@ -36492,82 +36492,82 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E387" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F387" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="G387">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I387">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J387">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K387" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L387">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="M387">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N387">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="O387">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="P387">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q387">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="R387">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S387">
+        <v>1.775</v>
+      </c>
+      <c r="T387">
+        <v>2.025</v>
+      </c>
+      <c r="U387">
+        <v>3</v>
+      </c>
+      <c r="V387">
         <v>1.925</v>
       </c>
-      <c r="T387">
+      <c r="W387">
         <v>1.875</v>
       </c>
-      <c r="U387">
-        <v>2.75</v>
-      </c>
-      <c r="V387">
-        <v>1.875</v>
-      </c>
-      <c r="W387">
-        <v>1.925</v>
-      </c>
       <c r="X387">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y387">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z387">
         <v>-1</v>
       </c>
       <c r="AA387">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB387">
+        <v>-1</v>
+      </c>
+      <c r="AC387">
         <v>0.925</v>
       </c>
-      <c r="AB387">
-        <v>-1</v>
-      </c>
-      <c r="AC387">
-        <v>-1</v>
-      </c>
       <c r="AD387">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="388" spans="1:30">
@@ -36575,7 +36575,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>8198602</v>
+        <v>8198287</v>
       </c>
       <c r="C388" t="s">
         <v>29</v>
@@ -36584,82 +36584,82 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E388" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="F388" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
       <c r="G388">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I388">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J388">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K388" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L388">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="M388">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N388">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="O388">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="P388">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q388">
+        <v>1.833</v>
+      </c>
+      <c r="R388">
+        <v>0.5</v>
+      </c>
+      <c r="S388">
+        <v>1.925</v>
+      </c>
+      <c r="T388">
+        <v>1.875</v>
+      </c>
+      <c r="U388">
+        <v>2.75</v>
+      </c>
+      <c r="V388">
+        <v>1.875</v>
+      </c>
+      <c r="W388">
+        <v>1.925</v>
+      </c>
+      <c r="X388">
+        <v>-1</v>
+      </c>
+      <c r="Y388">
         <v>2.6</v>
       </c>
-      <c r="R388">
-        <v>0</v>
-      </c>
-      <c r="S388">
-        <v>1.775</v>
-      </c>
-      <c r="T388">
-        <v>2.025</v>
-      </c>
-      <c r="U388">
-        <v>3</v>
-      </c>
-      <c r="V388">
-        <v>1.925</v>
-      </c>
-      <c r="W388">
-        <v>1.875</v>
-      </c>
-      <c r="X388">
-        <v>1.25</v>
-      </c>
-      <c r="Y388">
-        <v>-1</v>
-      </c>
       <c r="Z388">
         <v>-1</v>
       </c>
       <c r="AA388">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB388">
         <v>-1</v>
       </c>
       <c r="AC388">
+        <v>-1</v>
+      </c>
+      <c r="AD388">
         <v>0.925</v>
-      </c>
-      <c r="AD388">
-        <v>-1</v>
       </c>
     </row>
     <row r="389" spans="1:30">
@@ -36667,7 +36667,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>8198903</v>
+        <v>8198879</v>
       </c>
       <c r="C389" t="s">
         <v>29</v>
@@ -36676,82 +36676,82 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E389" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F389" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="G389">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K389" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L389">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="M389">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N389">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="O389">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="P389">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q389">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="R389">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S389">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T389">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U389">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V389">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W389">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="X389">
         <v>-1</v>
       </c>
       <c r="Y389">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z389">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA389">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB389">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC389">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD389">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390" spans="1:30">
@@ -36759,7 +36759,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>8198879</v>
+        <v>8198903</v>
       </c>
       <c r="C390" t="s">
         <v>29</v>
@@ -36768,82 +36768,82 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E390" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F390" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="G390">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H390">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I390">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J390">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K390" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L390">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="M390">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N390">
+        <v>1.571</v>
+      </c>
+      <c r="O390">
+        <v>4.75</v>
+      </c>
+      <c r="P390">
+        <v>3.75</v>
+      </c>
+      <c r="Q390">
+        <v>1.571</v>
+      </c>
+      <c r="R390">
+        <v>1</v>
+      </c>
+      <c r="S390">
+        <v>1.8</v>
+      </c>
+      <c r="T390">
+        <v>2</v>
+      </c>
+      <c r="U390">
         <v>2.5</v>
       </c>
-      <c r="O390">
-        <v>2.375</v>
-      </c>
-      <c r="P390">
-        <v>3.4</v>
-      </c>
-      <c r="Q390">
-        <v>2.5</v>
-      </c>
-      <c r="R390">
-        <v>0</v>
-      </c>
-      <c r="S390">
-        <v>1.825</v>
-      </c>
-      <c r="T390">
-        <v>1.975</v>
-      </c>
-      <c r="U390">
+      <c r="V390">
+        <v>1.85</v>
+      </c>
+      <c r="W390">
+        <v>1.95</v>
+      </c>
+      <c r="X390">
+        <v>-1</v>
+      </c>
+      <c r="Y390">
         <v>2.75</v>
       </c>
-      <c r="V390">
-        <v>1.925</v>
-      </c>
-      <c r="W390">
-        <v>1.775</v>
-      </c>
-      <c r="X390">
-        <v>-1</v>
-      </c>
-      <c r="Y390">
-        <v>-1</v>
-      </c>
       <c r="Z390">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA390">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB390">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC390">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD390">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="391" spans="1:30">
@@ -37311,7 +37311,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>8225154</v>
+        <v>8225207</v>
       </c>
       <c r="C396" t="s">
         <v>29</v>
@@ -37320,79 +37320,79 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E396" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F396" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="G396">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J396">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K396" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L396">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="M396">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N396">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O396">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="P396">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q396">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="R396">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S396">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T396">
+        <v>1.95</v>
+      </c>
+      <c r="U396">
+        <v>3</v>
+      </c>
+      <c r="V396">
+        <v>2</v>
+      </c>
+      <c r="W396">
         <v>1.8</v>
       </c>
-      <c r="U396">
-        <v>2.5</v>
-      </c>
-      <c r="V396">
-        <v>1.9</v>
-      </c>
-      <c r="W396">
-        <v>1.9</v>
-      </c>
       <c r="X396">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y396">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z396">
         <v>-1</v>
       </c>
       <c r="AA396">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB396">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC396">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD396">
         <v>-1</v>
@@ -37403,7 +37403,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>8225207</v>
+        <v>8225205</v>
       </c>
       <c r="C397" t="s">
         <v>29</v>
@@ -37412,13 +37412,13 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E397" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F397" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="G397">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H397">
         <v>0</v>
@@ -37433,25 +37433,25 @@
         <v>196</v>
       </c>
       <c r="L397">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="M397">
         <v>3.6</v>
       </c>
       <c r="N397">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="O397">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="P397">
         <v>3.6</v>
       </c>
       <c r="Q397">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="R397">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S397">
         <v>1.85</v>
@@ -37460,16 +37460,16 @@
         <v>1.95</v>
       </c>
       <c r="U397">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V397">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W397">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X397">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="Y397">
         <v>-1</v>
@@ -37484,10 +37484,10 @@
         <v>-1</v>
       </c>
       <c r="AC397">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD397">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="398" spans="1:30">
@@ -37495,7 +37495,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>8225205</v>
+        <v>8225073</v>
       </c>
       <c r="C398" t="s">
         <v>29</v>
@@ -37504,52 +37504,52 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E398" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="F398" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="G398">
         <v>2</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J398">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K398" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L398">
+        <v>2</v>
+      </c>
+      <c r="M398">
+        <v>3.5</v>
+      </c>
+      <c r="N398">
+        <v>3</v>
+      </c>
+      <c r="O398">
+        <v>2</v>
+      </c>
+      <c r="P398">
+        <v>3.5</v>
+      </c>
+      <c r="Q398">
+        <v>3</v>
+      </c>
+      <c r="R398">
+        <v>-0.25</v>
+      </c>
+      <c r="S398">
         <v>1.8</v>
       </c>
-      <c r="M398">
-        <v>3.6</v>
-      </c>
-      <c r="N398">
-        <v>3.6</v>
-      </c>
-      <c r="O398">
-        <v>1.8</v>
-      </c>
-      <c r="P398">
-        <v>3.6</v>
-      </c>
-      <c r="Q398">
-        <v>3.6</v>
-      </c>
-      <c r="R398">
-        <v>-0.5</v>
-      </c>
-      <c r="S398">
-        <v>1.85</v>
-      </c>
       <c r="T398">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U398">
         <v>2.75</v>
@@ -37561,25 +37561,25 @@
         <v>1.875</v>
       </c>
       <c r="X398">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y398">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z398">
         <v>-1</v>
       </c>
       <c r="AA398">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB398">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC398">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD398">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="399" spans="1:30">
@@ -37587,7 +37587,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>8225078</v>
+        <v>8225154</v>
       </c>
       <c r="C399" t="s">
         <v>29</v>
@@ -37596,10 +37596,10 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E399" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="F399" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G399">
         <v>2</v>
@@ -37608,67 +37608,67 @@
         <v>2</v>
       </c>
       <c r="I399">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J399">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K399" t="s">
         <v>197</v>
       </c>
       <c r="L399">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="M399">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N399">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O399">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="P399">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q399">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="R399">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S399">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T399">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U399">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V399">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W399">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X399">
         <v>-1</v>
       </c>
       <c r="Y399">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Z399">
         <v>-1</v>
       </c>
       <c r="AA399">
+        <v>0.5</v>
+      </c>
+      <c r="AB399">
         <v>-0.5</v>
       </c>
-      <c r="AB399">
-        <v>0.4125</v>
-      </c>
       <c r="AC399">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD399">
         <v>-1</v>
@@ -37679,7 +37679,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>8225076</v>
+        <v>8225078</v>
       </c>
       <c r="C400" t="s">
         <v>29</v>
@@ -37688,10 +37688,10 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E400" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F400" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="G400">
         <v>2</v>
@@ -37700,28 +37700,28 @@
         <v>2</v>
       </c>
       <c r="I400">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J400">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K400" t="s">
         <v>197</v>
       </c>
       <c r="L400">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="M400">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N400">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="O400">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P400">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q400">
         <v>2.625</v>
@@ -37730,25 +37730,25 @@
         <v>-0.25</v>
       </c>
       <c r="S400">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T400">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U400">
         <v>3</v>
       </c>
       <c r="V400">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W400">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X400">
         <v>-1</v>
       </c>
       <c r="Y400">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Z400">
         <v>-1</v>
@@ -37757,10 +37757,10 @@
         <v>-0.5</v>
       </c>
       <c r="AB400">
-        <v>0.3875</v>
+        <v>0.4125</v>
       </c>
       <c r="AC400">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD400">
         <v>-1</v>
@@ -37863,7 +37863,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>8225075</v>
+        <v>8225074</v>
       </c>
       <c r="C402" t="s">
         <v>29</v>
@@ -37872,82 +37872,82 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E402" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F402" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="G402">
         <v>1</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I402">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J402">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K402" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L402">
-        <v>1.975</v>
+        <v>1.3</v>
       </c>
       <c r="M402">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N402">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="O402">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="P402">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q402">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="R402">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S402">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T402">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U402">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V402">
+        <v>1.875</v>
+      </c>
+      <c r="W402">
         <v>1.925</v>
       </c>
-      <c r="W402">
-        <v>1.875</v>
-      </c>
       <c r="X402">
         <v>-1</v>
       </c>
       <c r="Y402">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z402">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AA402">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB402">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC402">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD402">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="403" spans="1:30">
@@ -37955,7 +37955,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>8225074</v>
+        <v>8225076</v>
       </c>
       <c r="C403" t="s">
         <v>29</v>
@@ -37964,79 +37964,79 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E403" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="F403" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="G403">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H403">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I403">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J403">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K403" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L403">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="M403">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N403">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="O403">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="P403">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q403">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="R403">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S403">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T403">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U403">
         <v>3</v>
       </c>
       <c r="V403">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W403">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X403">
         <v>-1</v>
       </c>
       <c r="Y403">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z403">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AA403">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB403">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
       <c r="AC403">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AD403">
         <v>-1</v>
@@ -38047,7 +38047,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>8225073</v>
+        <v>8225075</v>
       </c>
       <c r="C404" t="s">
         <v>29</v>
@@ -38056,34 +38056,34 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E404" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F404" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G404">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404">
         <v>1</v>
       </c>
       <c r="J404">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K404" t="s">
         <v>197</v>
       </c>
       <c r="L404">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="M404">
         <v>3.5</v>
       </c>
       <c r="N404">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O404">
         <v>2</v>
@@ -38092,7 +38092,7 @@
         <v>3.5</v>
       </c>
       <c r="Q404">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R404">
         <v>-0.25</v>
@@ -38128,10 +38128,10 @@
         <v>0.5</v>
       </c>
       <c r="AC404">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD404">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>

--- a/France National 3/France National 3.xlsx
+++ b/France National 3/France National 3.xlsx
@@ -112,13 +112,16 @@
     <t>Troyes II</t>
   </si>
   <si>
+    <t>Vitre</t>
+  </si>
+  <si>
     <t>Maubeuge</t>
   </si>
   <si>
-    <t>Vitre</t>
+    <t>OnetleChateau</t>
   </si>
   <si>
-    <t>OnetleChateau</t>
+    <t>RC Epernay</t>
   </si>
   <si>
     <t>US Castanet</t>
@@ -128,9 +131,6 @@
   </si>
   <si>
     <t>Montpellier II</t>
-  </si>
-  <si>
-    <t>RC Epernay</t>
   </si>
   <si>
     <t>CMS Oissel</t>
@@ -352,10 +352,10 @@
     <t>Raon lEtape</t>
   </si>
   <si>
-    <t>Sainte Genevieve Sports</t>
+    <t>Dieppe</t>
   </si>
   <si>
-    <t>Dieppe</t>
+    <t>Sainte Genevieve Sports</t>
   </si>
   <si>
     <t>Chambery</t>
@@ -520,10 +520,10 @@
     <t>AGL Drapeau Fougeres</t>
   </si>
   <si>
-    <t>USE Perpignan MM</t>
+    <t>AS La Chataigneraie</t>
   </si>
   <si>
-    <t>AS La Chataigneraie</t>
+    <t>USE Perpignan MM</t>
   </si>
   <si>
     <t>US Le Pays du Valois</t>
@@ -1253,7 +1253,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6727692</v>
+        <v>6727693</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -1265,43 +1265,43 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="M4">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="P4">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="R4">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S4">
         <v>2</v>
@@ -1310,7 +1310,7 @@
         <v>1.8</v>
       </c>
       <c r="U4">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V4">
         <v>1.9</v>
@@ -1319,19 +1319,19 @@
         <v>1.9</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
         <v>0.8999999999999999</v>
@@ -1345,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6727693</v>
+        <v>6727692</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -1357,43 +1357,43 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>196</v>
-      </c>
-      <c r="L5">
-        <v>1.95</v>
-      </c>
       <c r="M5">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N5">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="P5">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q5">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S5">
         <v>2</v>
@@ -1402,7 +1402,7 @@
         <v>1.8</v>
       </c>
       <c r="U5">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V5">
         <v>1.9</v>
@@ -1411,19 +1411,19 @@
         <v>1.9</v>
       </c>
       <c r="X5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
         <v>0.8999999999999999</v>
@@ -1529,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6727694</v>
+        <v>6727651</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1541,61 +1541,61 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
         <v>196</v>
       </c>
       <c r="L7">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="M7">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="N7">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="O7">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="R7">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U7">
         <v>3</v>
       </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W7">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X7">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y7">
         <v>-1</v>
@@ -1604,13 +1604,13 @@
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD7">
         <v>-1</v>
@@ -1621,7 +1621,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6727653</v>
+        <v>6727694</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1633,76 +1633,76 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
       <c r="J8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L8">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M8">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N8">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="O8">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="P8">
         <v>3.3</v>
       </c>
       <c r="Q8">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U8">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AD8">
         <v>-1</v>
@@ -1713,7 +1713,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6727690</v>
+        <v>6727653</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1725,43 +1725,43 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" t="s">
         <v>195</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="M9">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N9">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="P9">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q9">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="R9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>1.9</v>
@@ -1770,13 +1770,13 @@
         <v>1.9</v>
       </c>
       <c r="U9">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1785,7 +1785,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8500000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1794,7 +1794,7 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AD9">
         <v>-1</v>
@@ -1805,7 +1805,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6727651</v>
+        <v>6727690</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1817,13 +1817,13 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1832,61 +1832,61 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L10">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="N10">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O10">
         <v>3.5</v>
       </c>
       <c r="P10">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q10">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="R10">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S10">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T10">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U10">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V10">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="X10">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA10">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC10">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD10">
         <v>-1</v>
@@ -2826,7 +2826,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
         <v>65</v>
@@ -4117,7 +4117,7 @@
         <v>60</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -5301,7 +5301,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7244492</v>
+        <v>7244491</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -5310,43 +5310,43 @@
         <v>45192.54166666666</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L48">
         <v>2.25</v>
       </c>
       <c r="M48">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N48">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O48">
         <v>2.25</v>
       </c>
       <c r="P48">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q48">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="R48">
         <v>-0.25</v>
@@ -5358,34 +5358,34 @@
         <v>1.775</v>
       </c>
       <c r="U48">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W48">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB48">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
         <v>-1</v>
       </c>
       <c r="AD48">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="49" spans="1:30">
@@ -5393,7 +5393,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7244491</v>
+        <v>7244441</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -5402,10 +5402,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -5414,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -5423,43 +5423,43 @@
         <v>196</v>
       </c>
       <c r="L49">
+        <v>2.8</v>
+      </c>
+      <c r="M49">
+        <v>3.25</v>
+      </c>
+      <c r="N49">
+        <v>2.2</v>
+      </c>
+      <c r="O49">
+        <v>2.8</v>
+      </c>
+      <c r="P49">
+        <v>3.25</v>
+      </c>
+      <c r="Q49">
+        <v>2.2</v>
+      </c>
+      <c r="R49">
+        <v>0.25</v>
+      </c>
+      <c r="S49">
+        <v>1.8</v>
+      </c>
+      <c r="T49">
+        <v>2</v>
+      </c>
+      <c r="U49">
         <v>2.25</v>
       </c>
-      <c r="M49">
-        <v>3.2</v>
-      </c>
-      <c r="N49">
-        <v>2.8</v>
-      </c>
-      <c r="O49">
-        <v>2.25</v>
-      </c>
-      <c r="P49">
-        <v>3.2</v>
-      </c>
-      <c r="Q49">
-        <v>2.8</v>
-      </c>
-      <c r="R49">
-        <v>-0.25</v>
-      </c>
-      <c r="S49">
-        <v>2.025</v>
-      </c>
-      <c r="T49">
-        <v>1.775</v>
-      </c>
-      <c r="U49">
-        <v>2.5</v>
-      </c>
       <c r="V49">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="X49">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Y49">
         <v>-1</v>
@@ -5468,7 +5468,7 @@
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB49">
         <v>-1</v>
@@ -5477,7 +5477,7 @@
         <v>-1</v>
       </c>
       <c r="AD49">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:30">
@@ -5485,7 +5485,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7244441</v>
+        <v>7244492</v>
       </c>
       <c r="C50" t="s">
         <v>29</v>
@@ -5494,82 +5494,82 @@
         <v>45192.54166666666</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L50">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="M50">
         <v>3.25</v>
       </c>
       <c r="N50">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O50">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="P50">
         <v>3.25</v>
       </c>
       <c r="Q50">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="R50">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S50">
+        <v>2.025</v>
+      </c>
+      <c r="T50">
+        <v>1.775</v>
+      </c>
+      <c r="U50">
+        <v>2.75</v>
+      </c>
+      <c r="V50">
         <v>1.8</v>
       </c>
-      <c r="T50">
-        <v>2</v>
-      </c>
-      <c r="U50">
-        <v>2.25</v>
-      </c>
-      <c r="V50">
-        <v>1.9</v>
-      </c>
       <c r="W50">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X50">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="AA50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC50">
         <v>-1</v>
       </c>
       <c r="AD50">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -6221,7 +6221,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7306344</v>
+        <v>7305041</v>
       </c>
       <c r="C58" t="s">
         <v>29</v>
@@ -6230,64 +6230,64 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="s">
         <v>196</v>
       </c>
       <c r="L58">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M58">
+        <v>3.2</v>
+      </c>
+      <c r="N58">
         <v>3.1</v>
       </c>
-      <c r="N58">
-        <v>3.3</v>
-      </c>
       <c r="O58">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P58">
+        <v>3.2</v>
+      </c>
+      <c r="Q58">
         <v>3.1</v>
-      </c>
-      <c r="Q58">
-        <v>3.3</v>
       </c>
       <c r="R58">
         <v>-0.25</v>
       </c>
       <c r="S58">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T58">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U58">
         <v>2.25</v>
       </c>
       <c r="V58">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W58">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X58">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
@@ -6296,13 +6296,13 @@
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AD58">
         <v>-1</v>
@@ -6405,7 +6405,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7305041</v>
+        <v>7306344</v>
       </c>
       <c r="C60" t="s">
         <v>29</v>
@@ -6414,64 +6414,64 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F60" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="s">
         <v>196</v>
       </c>
       <c r="L60">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M60">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N60">
+        <v>3.3</v>
+      </c>
+      <c r="O60">
+        <v>2.05</v>
+      </c>
+      <c r="P60">
         <v>3.1</v>
       </c>
-      <c r="O60">
-        <v>2.1</v>
-      </c>
-      <c r="P60">
-        <v>3.2</v>
-      </c>
       <c r="Q60">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="R60">
         <v>-0.25</v>
       </c>
       <c r="S60">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U60">
         <v>2.25</v>
       </c>
       <c r="V60">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W60">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X60">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="Y60">
         <v>-1</v>
@@ -6480,13 +6480,13 @@
         <v>-1</v>
       </c>
       <c r="AA60">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AD60">
         <v>-1</v>
@@ -7693,7 +7693,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7366036</v>
+        <v>7365844</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -7702,82 +7702,82 @@
         <v>45220.54166666666</v>
       </c>
       <c r="E74" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="K74" t="s">
+        <v>195</v>
+      </c>
+      <c r="L74">
+        <v>2.1</v>
+      </c>
+      <c r="M74">
         <v>3</v>
       </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>2</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74" t="s">
-        <v>196</v>
-      </c>
-      <c r="L74">
-        <v>1.4</v>
-      </c>
-      <c r="M74">
-        <v>4.2</v>
-      </c>
       <c r="N74">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="O74">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="P74">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q74">
-        <v>5.75</v>
+        <v>3.25</v>
       </c>
       <c r="R74">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S74">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U74">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V74">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W74">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X74">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="AA74">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC74">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AD74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:30">
@@ -7785,7 +7785,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7365844</v>
+        <v>7366036</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
@@ -7794,82 +7794,82 @@
         <v>45220.54166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F75" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L75">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N75">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="O75">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="P75">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q75">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="R75">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U75">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AD75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -7978,7 +7978,7 @@
         <v>45220.55208333334</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
         <v>139</v>
@@ -9726,7 +9726,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
         <v>155</v>
@@ -9901,7 +9901,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7460174</v>
+        <v>7464027</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
@@ -9910,25 +9910,25 @@
         <v>45241.45833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F98" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="G98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L98">
         <v>2.25</v>
@@ -9940,49 +9940,49 @@
         <v>3</v>
       </c>
       <c r="O98">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="P98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q98">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R98">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S98">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T98">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U98">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V98">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X98">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA98">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC98">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AD98">
         <v>-1</v>
@@ -9993,7 +9993,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7460135</v>
+        <v>7460174</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
@@ -10002,82 +10002,82 @@
         <v>45241.45833333334</v>
       </c>
       <c r="E99" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F99" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L99">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M99">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N99">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O99">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="P99">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q99">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="R99">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S99">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T99">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U99">
         <v>2.75</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Y99">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB99">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD99">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -10085,7 +10085,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7464027</v>
+        <v>7460135</v>
       </c>
       <c r="C100" t="s">
         <v>29</v>
@@ -10094,82 +10094,82 @@
         <v>45241.45833333334</v>
       </c>
       <c r="E100" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F100" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L100">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M100">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N100">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O100">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="P100">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q100">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R100">
         <v>-0.25</v>
       </c>
       <c r="S100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T100">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U100">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z100">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB100">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD100">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:30">
@@ -10269,7 +10269,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7460143</v>
+        <v>7461372</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -10278,82 +10278,82 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E102" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L102">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="M102">
         <v>3.2</v>
       </c>
       <c r="N102">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O102">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="P102">
         <v>3.2</v>
       </c>
       <c r="Q102">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="R102">
         <v>-0.25</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="T102">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="U102">
         <v>2.5</v>
       </c>
       <c r="V102">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD102">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -10361,7 +10361,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7461372</v>
+        <v>7461373</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -10370,79 +10370,79 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F103" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="G103">
+        <v>2</v>
+      </c>
+      <c r="H103">
         <v>3</v>
       </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
       <c r="I103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L103">
+        <v>3.75</v>
+      </c>
+      <c r="M103">
+        <v>3.1</v>
+      </c>
+      <c r="N103">
         <v>1.909</v>
       </c>
-      <c r="M103">
-        <v>3.2</v>
-      </c>
-      <c r="N103">
-        <v>3.6</v>
-      </c>
       <c r="O103">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="P103">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q103">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="R103">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S103">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="U103">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W103">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="X103">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA103">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC103">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD103">
         <v>-1</v>
@@ -10453,7 +10453,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7461373</v>
+        <v>7460141</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -10462,52 +10462,52 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E104" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" t="s">
         <v>195</v>
       </c>
       <c r="L104">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="M104">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N104">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O104">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="P104">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q104">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="R104">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T104">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U104">
         <v>2.75</v>
@@ -10525,19 +10525,19 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC104">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD104">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -10545,7 +10545,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7460141</v>
+        <v>7460143</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -10554,10 +10554,10 @@
         <v>45241.58333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -10569,46 +10569,46 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" t="s">
         <v>195</v>
       </c>
       <c r="L105">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="M105">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N105">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O105">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="P105">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q105">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="R105">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S105">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T105">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U105">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V105">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -10617,19 +10617,19 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC105">
         <v>-1</v>
       </c>
       <c r="AD105">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:30">
@@ -11649,7 +11649,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7515943</v>
+        <v>7516873</v>
       </c>
       <c r="C117" t="s">
         <v>29</v>
@@ -11658,82 +11658,82 @@
         <v>45255.58333333334</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F117" t="s">
         <v>168</v>
       </c>
       <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117" t="s">
+        <v>195</v>
+      </c>
+      <c r="L117">
+        <v>1.727</v>
+      </c>
+      <c r="M117">
+        <v>3</v>
+      </c>
+      <c r="N117">
         <v>5</v>
       </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <v>2</v>
-      </c>
-      <c r="J117">
-        <v>0</v>
-      </c>
-      <c r="K117" t="s">
-        <v>196</v>
-      </c>
-      <c r="L117">
-        <v>1.5</v>
-      </c>
-      <c r="M117">
-        <v>3.6</v>
-      </c>
-      <c r="N117">
-        <v>6</v>
-      </c>
       <c r="O117">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="P117">
         <v>3.6</v>
       </c>
       <c r="Q117">
+        <v>7</v>
+      </c>
+      <c r="R117">
+        <v>-1.25</v>
+      </c>
+      <c r="S117">
+        <v>1.975</v>
+      </c>
+      <c r="T117">
+        <v>1.825</v>
+      </c>
+      <c r="U117">
+        <v>3</v>
+      </c>
+      <c r="V117">
+        <v>1.75</v>
+      </c>
+      <c r="W117">
+        <v>1.95</v>
+      </c>
+      <c r="X117">
+        <v>-1</v>
+      </c>
+      <c r="Y117">
+        <v>-1</v>
+      </c>
+      <c r="Z117">
         <v>6</v>
       </c>
-      <c r="R117">
-        <v>-1</v>
-      </c>
-      <c r="S117">
-        <v>1.85</v>
-      </c>
-      <c r="T117">
-        <v>1.95</v>
-      </c>
-      <c r="U117">
-        <v>2.5</v>
-      </c>
-      <c r="V117">
-        <v>1.875</v>
-      </c>
-      <c r="W117">
-        <v>1.925</v>
-      </c>
-      <c r="X117">
-        <v>0.5</v>
-      </c>
-      <c r="Y117">
-        <v>-1</v>
-      </c>
-      <c r="Z117">
-        <v>-1</v>
-      </c>
       <c r="AA117">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC117">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD117">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="118" spans="1:30">
@@ -11741,7 +11741,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7516873</v>
+        <v>7515943</v>
       </c>
       <c r="C118" t="s">
         <v>29</v>
@@ -11750,82 +11750,82 @@
         <v>45255.58333333334</v>
       </c>
       <c r="E118" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="F118" t="s">
         <v>169</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L118">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="M118">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N118">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O118">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="P118">
         <v>3.6</v>
       </c>
       <c r="Q118">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R118">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="S118">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T118">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U118">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V118">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W118">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB118">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD118">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:30">
@@ -11937,7 +11937,7 @@
         <v>96</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -12201,7 +12201,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7519748</v>
+        <v>7515962</v>
       </c>
       <c r="C123" t="s">
         <v>29</v>
@@ -12210,10 +12210,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="E123" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="F123" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -12231,61 +12231,61 @@
         <v>197</v>
       </c>
       <c r="L123">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="M123">
         <v>3.1</v>
       </c>
       <c r="N123">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="O123">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="P123">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q123">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="R123">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S123">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="U123">
         <v>2.5</v>
       </c>
       <c r="V123">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC123">
         <v>-1</v>
       </c>
       <c r="AD123">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:30">
@@ -12293,7 +12293,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7515962</v>
+        <v>7519748</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
@@ -12302,10 +12302,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="E124" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F124" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -12323,61 +12323,61 @@
         <v>197</v>
       </c>
       <c r="L124">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="M124">
         <v>3.1</v>
       </c>
       <c r="N124">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="O124">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="P124">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q124">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="R124">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T124">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U124">
         <v>2.5</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W124">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
-        <v>0.9750000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AC124">
         <v>-1</v>
       </c>
       <c r="AD124">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:30">
@@ -14317,7 +14317,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7568689</v>
+        <v>7568688</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -14326,82 +14326,82 @@
         <v>45269.58333333334</v>
       </c>
       <c r="E146" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="F146" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="G146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>0</v>
       </c>
       <c r="J146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K146" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L146">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="M146">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="N146">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="O146">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="P146">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q146">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="R146">
+        <v>-1</v>
+      </c>
+      <c r="S146">
+        <v>1.875</v>
+      </c>
+      <c r="T146">
+        <v>1.925</v>
+      </c>
+      <c r="U146">
+        <v>3</v>
+      </c>
+      <c r="V146">
         <v>1.75</v>
       </c>
-      <c r="S146">
-        <v>1.9</v>
-      </c>
-      <c r="T146">
-        <v>1.9</v>
-      </c>
-      <c r="U146">
-        <v>3.25</v>
-      </c>
-      <c r="V146">
-        <v>2</v>
-      </c>
       <c r="W146">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y146">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC146">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD146">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="147" spans="1:30">
@@ -14409,7 +14409,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7568688</v>
+        <v>7568689</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -14418,82 +14418,82 @@
         <v>45269.58333333334</v>
       </c>
       <c r="E147" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="F147" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K147" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L147">
-        <v>1.533</v>
+        <v>7</v>
       </c>
       <c r="M147">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="N147">
+        <v>1.25</v>
+      </c>
+      <c r="O147">
+        <v>7</v>
+      </c>
+      <c r="P147">
+        <v>6</v>
+      </c>
+      <c r="Q147">
+        <v>1.25</v>
+      </c>
+      <c r="R147">
+        <v>1.75</v>
+      </c>
+      <c r="S147">
+        <v>1.9</v>
+      </c>
+      <c r="T147">
+        <v>1.9</v>
+      </c>
+      <c r="U147">
+        <v>3.25</v>
+      </c>
+      <c r="V147">
+        <v>2</v>
+      </c>
+      <c r="W147">
+        <v>1.8</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
         <v>5</v>
       </c>
-      <c r="O147">
-        <v>1.533</v>
-      </c>
-      <c r="P147">
-        <v>3.8</v>
-      </c>
-      <c r="Q147">
-        <v>5</v>
-      </c>
-      <c r="R147">
-        <v>-1</v>
-      </c>
-      <c r="S147">
-        <v>1.875</v>
-      </c>
-      <c r="T147">
-        <v>1.925</v>
-      </c>
-      <c r="U147">
-        <v>3</v>
-      </c>
-      <c r="V147">
-        <v>1.75</v>
-      </c>
-      <c r="W147">
-        <v>2.05</v>
-      </c>
-      <c r="X147">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB147">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD147">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:30">
@@ -15145,7 +15145,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7594772</v>
+        <v>7594771</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
@@ -15154,52 +15154,52 @@
         <v>45276.5</v>
       </c>
       <c r="E155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F155" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="G155">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>1</v>
       </c>
       <c r="J155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K155" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L155">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="M155">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N155">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O155">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="P155">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q155">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="R155">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S155">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T155">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U155">
         <v>2.25</v>
@@ -15211,19 +15211,19 @@
         <v>1.875</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y155">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB155">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
         <v>0.925</v>
@@ -15237,7 +15237,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7594771</v>
+        <v>7594772</v>
       </c>
       <c r="C156" t="s">
         <v>29</v>
@@ -15246,52 +15246,52 @@
         <v>45276.5</v>
       </c>
       <c r="E156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F156" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="G156">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156">
         <v>1</v>
       </c>
       <c r="J156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K156" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L156">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="M156">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N156">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O156">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="P156">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q156">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="R156">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S156">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T156">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U156">
         <v>2.25</v>
@@ -15303,19 +15303,19 @@
         <v>1.875</v>
       </c>
       <c r="X156">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC156">
         <v>0.925</v>
@@ -15513,7 +15513,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7594718</v>
+        <v>7594733</v>
       </c>
       <c r="C159" t="s">
         <v>29</v>
@@ -15522,82 +15522,82 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E159" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="F159" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="G159">
         <v>2</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159">
         <v>0</v>
       </c>
       <c r="K159" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L159">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="M159">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N159">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="O159">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="P159">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q159">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="R159">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S159">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T159">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U159">
         <v>2.75</v>
       </c>
       <c r="V159">
+        <v>1.95</v>
+      </c>
+      <c r="W159">
         <v>1.85</v>
       </c>
-      <c r="W159">
-        <v>1.95</v>
-      </c>
       <c r="X159">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y159">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB159">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
+        <v>-1</v>
+      </c>
+      <c r="AD159">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AD159">
-        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:30">
@@ -15605,7 +15605,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7594733</v>
+        <v>7594718</v>
       </c>
       <c r="C160" t="s">
         <v>29</v>
@@ -15614,82 +15614,82 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E160" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="F160" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="G160">
         <v>2</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160">
         <v>0</v>
       </c>
       <c r="K160" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L160">
+        <v>1.8</v>
+      </c>
+      <c r="M160">
+        <v>3.1</v>
+      </c>
+      <c r="N160">
+        <v>4.2</v>
+      </c>
+      <c r="O160">
+        <v>2.25</v>
+      </c>
+      <c r="P160">
+        <v>3.1</v>
+      </c>
+      <c r="Q160">
         <v>2.8</v>
       </c>
-      <c r="M160">
-        <v>2.9</v>
-      </c>
-      <c r="N160">
-        <v>2.4</v>
-      </c>
-      <c r="O160">
-        <v>2.5</v>
-      </c>
-      <c r="P160">
-        <v>2.875</v>
-      </c>
-      <c r="Q160">
-        <v>2.7</v>
-      </c>
       <c r="R160">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S160">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T160">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U160">
         <v>2.75</v>
       </c>
       <c r="V160">
+        <v>1.85</v>
+      </c>
+      <c r="W160">
         <v>1.95</v>
       </c>
-      <c r="W160">
-        <v>1.85</v>
-      </c>
       <c r="X160">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD160">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:30">
@@ -15697,7 +15697,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7594719</v>
+        <v>7594728</v>
       </c>
       <c r="C161" t="s">
         <v>29</v>
@@ -15706,52 +15706,52 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E161" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161">
         <v>0</v>
       </c>
       <c r="K161" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L161">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="M161">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N161">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O161">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="P161">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q161">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="R161">
         <v>-0.25</v>
       </c>
       <c r="S161">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T161">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="U161">
         <v>2.75</v>
@@ -15763,25 +15763,25 @@
         <v>1.85</v>
       </c>
       <c r="X161">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y161">
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA161">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:30">
@@ -15789,7 +15789,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7594728</v>
+        <v>7594719</v>
       </c>
       <c r="C162" t="s">
         <v>29</v>
@@ -15798,52 +15798,52 @@
         <v>45276.58333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F162" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="G162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162" t="s">
+        <v>196</v>
+      </c>
+      <c r="L162">
+        <v>2</v>
+      </c>
+      <c r="M162">
         <v>3</v>
       </c>
-      <c r="I162">
-        <v>2</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-      <c r="K162" t="s">
-        <v>195</v>
-      </c>
-      <c r="L162">
-        <v>2.3</v>
-      </c>
-      <c r="M162">
-        <v>3.2</v>
-      </c>
       <c r="N162">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O162">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="P162">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q162">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="R162">
         <v>-0.25</v>
       </c>
       <c r="S162">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T162">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="U162">
         <v>2.75</v>
@@ -15855,25 +15855,25 @@
         <v>1.85</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB162">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD162">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:30">
@@ -15893,7 +15893,7 @@
         <v>90</v>
       </c>
       <c r="F163" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -16341,7 +16341,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7664701</v>
+        <v>7663729</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
@@ -16350,13 +16350,13 @@
         <v>45297.58333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F168" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="G168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -16368,64 +16368,64 @@
         <v>1</v>
       </c>
       <c r="K168" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L168">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="M168">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N168">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="O168">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="P168">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q168">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="R168">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S168">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U168">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V168">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W168">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X168">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC168">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AD168">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -16433,7 +16433,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7663729</v>
+        <v>7663705</v>
       </c>
       <c r="C169" t="s">
         <v>29</v>
@@ -16442,16 +16442,16 @@
         <v>45297.58333333334</v>
       </c>
       <c r="E169" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="F169" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -16460,64 +16460,64 @@
         <v>1</v>
       </c>
       <c r="K169" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L169">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="M169">
         <v>3.2</v>
       </c>
       <c r="N169">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O169">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="P169">
         <v>3.2</v>
       </c>
       <c r="Q169">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="R169">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S169">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T169">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U169">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V169">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W169">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AC169">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AD169">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:30">
@@ -16525,7 +16525,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7663705</v>
+        <v>7664701</v>
       </c>
       <c r="C170" t="s">
         <v>29</v>
@@ -16534,16 +16534,16 @@
         <v>45297.58333333334</v>
       </c>
       <c r="E170" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F170" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="G170">
         <v>2</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -16552,34 +16552,34 @@
         <v>1</v>
       </c>
       <c r="K170" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L170">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="M170">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N170">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="O170">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="P170">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q170">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="R170">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="S170">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T170">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U170">
         <v>2.75</v>
@@ -16591,25 +16591,25 @@
         <v>1.925</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y170">
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB170">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AD170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="171" spans="1:30">
@@ -16626,7 +16626,7 @@
         <v>45297.625</v>
       </c>
       <c r="E171" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F171" t="s">
         <v>156</v>
@@ -16893,7 +16893,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7690754</v>
+        <v>7690626</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -16902,82 +16902,82 @@
         <v>45304.54166666666</v>
       </c>
       <c r="E174" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="F174" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="G174">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K174" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L174">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="M174">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N174">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O174">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="P174">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q174">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="R174">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S174">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T174">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U174">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V174">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W174">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="X174">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC174">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AD174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:30">
@@ -17077,7 +17077,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7690626</v>
+        <v>7690754</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -17086,82 +17086,82 @@
         <v>45304.54166666666</v>
       </c>
       <c r="E176" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F176" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="G176">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H176">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K176" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L176">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="M176">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N176">
+        <v>1.909</v>
+      </c>
+      <c r="O176">
+        <v>3.6</v>
+      </c>
+      <c r="P176">
+        <v>3.3</v>
+      </c>
+      <c r="Q176">
+        <v>1.909</v>
+      </c>
+      <c r="R176">
+        <v>0.5</v>
+      </c>
+      <c r="S176">
+        <v>1.825</v>
+      </c>
+      <c r="T176">
+        <v>1.975</v>
+      </c>
+      <c r="U176">
         <v>2.75</v>
       </c>
-      <c r="O176">
-        <v>2.25</v>
-      </c>
-      <c r="P176">
-        <v>3.25</v>
-      </c>
-      <c r="Q176">
-        <v>2.75</v>
-      </c>
-      <c r="R176">
-        <v>-0.25</v>
-      </c>
-      <c r="S176">
+      <c r="V176">
+        <v>1.775</v>
+      </c>
+      <c r="W176">
         <v>2.025</v>
       </c>
-      <c r="T176">
-        <v>1.775</v>
-      </c>
-      <c r="U176">
-        <v>2.5</v>
-      </c>
-      <c r="V176">
-        <v>1.8</v>
-      </c>
-      <c r="W176">
-        <v>2</v>
-      </c>
       <c r="X176">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y176">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
+        <v>0.825</v>
+      </c>
+      <c r="AB176">
+        <v>-1</v>
+      </c>
+      <c r="AC176">
+        <v>0.3875</v>
+      </c>
+      <c r="AD176">
         <v>-0.5</v>
-      </c>
-      <c r="AB176">
-        <v>0.3875</v>
-      </c>
-      <c r="AC176">
-        <v>0.8</v>
-      </c>
-      <c r="AD176">
-        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -17261,7 +17261,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7690745</v>
+        <v>7690739</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
@@ -17270,52 +17270,52 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E178" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F178" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="G178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178">
         <v>0</v>
       </c>
       <c r="K178" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L178">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="M178">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N178">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O178">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="P178">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q178">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="R178">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S178">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T178">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U178">
         <v>2.25</v>
@@ -17327,25 +17327,25 @@
         <v>1.95</v>
       </c>
       <c r="X178">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC178">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD178">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="179" spans="1:30">
@@ -17353,7 +17353,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7690739</v>
+        <v>7690745</v>
       </c>
       <c r="C179" t="s">
         <v>29</v>
@@ -17362,52 +17362,52 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F179" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179">
         <v>0</v>
       </c>
       <c r="K179" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L179">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="M179">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N179">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="O179">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="P179">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q179">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="R179">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S179">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T179">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U179">
         <v>2.25</v>
@@ -17419,25 +17419,25 @@
         <v>1.95</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y179">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB179">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD179">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:30">
@@ -18009,7 +18009,7 @@
         <v>65</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -18561,7 +18561,7 @@
         <v>64</v>
       </c>
       <c r="F192" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -19377,7 +19377,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7748114</v>
+        <v>7748838</v>
       </c>
       <c r="C201" t="s">
         <v>29</v>
@@ -19386,76 +19386,82 @@
         <v>45318.58333333334</v>
       </c>
       <c r="E201" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="F201" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G201">
         <v>0</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
       </c>
       <c r="K201" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L201">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="M201">
+        <v>3.25</v>
+      </c>
+      <c r="N201">
+        <v>2.75</v>
+      </c>
+      <c r="O201">
+        <v>1.95</v>
+      </c>
+      <c r="P201">
         <v>3.4</v>
       </c>
-      <c r="N201">
-        <v>4.2</v>
-      </c>
-      <c r="O201">
+      <c r="Q201">
+        <v>3.3</v>
+      </c>
+      <c r="R201">
+        <v>-0.25</v>
+      </c>
+      <c r="S201">
         <v>1.75</v>
       </c>
-      <c r="P201">
-        <v>3.3</v>
-      </c>
-      <c r="Q201">
-        <v>4</v>
-      </c>
-      <c r="R201">
+      <c r="T201">
+        <v>1.95</v>
+      </c>
+      <c r="U201">
+        <v>2.75</v>
+      </c>
+      <c r="V201">
+        <v>1.925</v>
+      </c>
+      <c r="W201">
+        <v>1.775</v>
+      </c>
+      <c r="X201">
+        <v>-1</v>
+      </c>
+      <c r="Y201">
+        <v>2.4</v>
+      </c>
+      <c r="Z201">
+        <v>-1</v>
+      </c>
+      <c r="AA201">
         <v>-0.5</v>
       </c>
-      <c r="S201">
-        <v>1.825</v>
-      </c>
-      <c r="T201">
-        <v>1.975</v>
-      </c>
-      <c r="U201">
-        <v>2</v>
-      </c>
-      <c r="V201">
-        <v>1.825</v>
-      </c>
-      <c r="W201">
-        <v>1.975</v>
-      </c>
-      <c r="X201">
-        <v>-1</v>
-      </c>
-      <c r="Y201">
-        <v>-1</v>
-      </c>
-      <c r="Z201">
-        <v>3</v>
-      </c>
-      <c r="AA201">
-        <v>-1</v>
-      </c>
       <c r="AB201">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AC201">
         <v>-1</v>
       </c>
       <c r="AD201">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:30">
@@ -19463,7 +19469,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7748113</v>
+        <v>7748114</v>
       </c>
       <c r="C202" t="s">
         <v>29</v>
@@ -19472,61 +19478,55 @@
         <v>45318.58333333334</v>
       </c>
       <c r="E202" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="F202" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="G202">
         <v>0</v>
       </c>
       <c r="H202">
-        <v>5</v>
-      </c>
-      <c r="I202">
-        <v>0</v>
-      </c>
-      <c r="J202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K202" t="s">
         <v>195</v>
       </c>
       <c r="L202">
+        <v>1.727</v>
+      </c>
+      <c r="M202">
+        <v>3.4</v>
+      </c>
+      <c r="N202">
+        <v>4.2</v>
+      </c>
+      <c r="O202">
+        <v>1.75</v>
+      </c>
+      <c r="P202">
+        <v>3.3</v>
+      </c>
+      <c r="Q202">
         <v>4</v>
       </c>
-      <c r="M202">
-        <v>3.2</v>
-      </c>
-      <c r="N202">
-        <v>1.8</v>
-      </c>
-      <c r="O202">
-        <v>6.5</v>
-      </c>
-      <c r="P202">
-        <v>3.6</v>
-      </c>
-      <c r="Q202">
-        <v>1.444</v>
-      </c>
       <c r="R202">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="S202">
+        <v>1.825</v>
+      </c>
+      <c r="T202">
         <v>1.975</v>
       </c>
-      <c r="T202">
+      <c r="U202">
+        <v>2</v>
+      </c>
+      <c r="V202">
         <v>1.825</v>
       </c>
-      <c r="U202">
-        <v>2.75</v>
-      </c>
-      <c r="V202">
-        <v>1.925</v>
-      </c>
       <c r="W202">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -19535,19 +19535,19 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.444</v>
+        <v>3</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC202">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD202">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:30">
@@ -19555,7 +19555,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7748838</v>
+        <v>7748113</v>
       </c>
       <c r="C203" t="s">
         <v>29</v>
@@ -19564,52 +19564,52 @@
         <v>45318.58333333334</v>
       </c>
       <c r="E203" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F203" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="G203">
         <v>0</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I203">
         <v>0</v>
       </c>
       <c r="J203">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K203" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L203">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="M203">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N203">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="O203">
-        <v>1.95</v>
+        <v>6.5</v>
       </c>
       <c r="P203">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q203">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="R203">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="S203">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T203">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U203">
         <v>2.75</v>
@@ -19618,28 +19618,28 @@
         <v>1.925</v>
       </c>
       <c r="W203">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="AA203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD203">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:30">
@@ -20107,7 +20107,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7779989</v>
+        <v>7779756</v>
       </c>
       <c r="C209" t="s">
         <v>29</v>
@@ -20116,10 +20116,10 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E209" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="F209" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -20137,40 +20137,40 @@
         <v>195</v>
       </c>
       <c r="L209">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="M209">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N209">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="O209">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="P209">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q209">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="R209">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S209">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T209">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U209">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V209">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W209">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -20179,19 +20179,19 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC209">
         <v>-1</v>
       </c>
       <c r="AD209">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="210" spans="1:30">
@@ -20199,7 +20199,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7779988</v>
+        <v>7779989</v>
       </c>
       <c r="C210" t="s">
         <v>29</v>
@@ -20208,82 +20208,82 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E210" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F210" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="G210">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210">
         <v>0</v>
       </c>
       <c r="K210" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L210">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="M210">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N210">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O210">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="P210">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q210">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R210">
         <v>-0.5</v>
       </c>
       <c r="S210">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T210">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U210">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="V210">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W210">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="X210">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="AA210">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC210">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD210">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:30">
@@ -20291,7 +20291,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7779990</v>
+        <v>7779988</v>
       </c>
       <c r="C211" t="s">
         <v>29</v>
@@ -20300,19 +20300,19 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E211" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="F211" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G211">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H211">
         <v>0</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211">
         <v>0</v>
@@ -20321,43 +20321,43 @@
         <v>196</v>
       </c>
       <c r="L211">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="M211">
+        <v>3.3</v>
+      </c>
+      <c r="N211">
         <v>3.5</v>
       </c>
-      <c r="N211">
-        <v>5.25</v>
-      </c>
       <c r="O211">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="P211">
+        <v>3.3</v>
+      </c>
+      <c r="Q211">
         <v>3.5</v>
       </c>
-      <c r="Q211">
-        <v>5.25</v>
-      </c>
       <c r="R211">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S211">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T211">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U211">
         <v>2.25</v>
       </c>
       <c r="V211">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W211">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X211">
-        <v>0.571</v>
+        <v>0.909</v>
       </c>
       <c r="Y211">
         <v>-1</v>
@@ -20366,16 +20366,16 @@
         <v>-1</v>
       </c>
       <c r="AA211">
-        <v>0.3625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB211">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD211">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212" spans="1:30">
@@ -20475,7 +20475,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7779755</v>
+        <v>7779754</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -20484,82 +20484,82 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E213" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="F213" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H213">
         <v>1</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213">
         <v>1</v>
       </c>
       <c r="K213" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L213">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="M213">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="N213">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="O213">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="P213">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q213">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="R213">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="S213">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T213">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U213">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V213">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W213">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y213">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD213">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:30">
@@ -20567,7 +20567,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7779756</v>
+        <v>7779755</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
@@ -20576,82 +20576,82 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E214" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="F214" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="G214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
         <v>1</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K214" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L214">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="M214">
         <v>3.2</v>
       </c>
       <c r="N214">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O214">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="P214">
         <v>3.2</v>
       </c>
       <c r="Q214">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="R214">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S214">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T214">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U214">
         <v>2.5</v>
       </c>
       <c r="V214">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W214">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z214">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB214">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC214">
         <v>-1</v>
       </c>
       <c r="AD214">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="215" spans="1:30">
@@ -20843,7 +20843,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7779754</v>
+        <v>7779991</v>
       </c>
       <c r="C217" t="s">
         <v>29</v>
@@ -20852,13 +20852,13 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E217" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="F217" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -20870,64 +20870,64 @@
         <v>1</v>
       </c>
       <c r="K217" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L217">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="M217">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="N217">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O217">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="P217">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q217">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R217">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="S217">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T217">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U217">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="V217">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W217">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X217">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z217">
         <v>-1</v>
       </c>
       <c r="AA217">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB217">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC217">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD217">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -20935,7 +20935,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7779991</v>
+        <v>7779993</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
@@ -20944,55 +20944,55 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E218" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F218" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G218">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I218">
         <v>0</v>
       </c>
       <c r="J218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K218" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L218">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="M218">
         <v>3.2</v>
       </c>
       <c r="N218">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O218">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="P218">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q218">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="R218">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S218">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T218">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U218">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V218">
         <v>1.8</v>
@@ -21004,22 +21004,22 @@
         <v>-1</v>
       </c>
       <c r="Y218">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA218">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB218">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC218">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD218">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -21027,7 +21027,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7779993</v>
+        <v>7779990</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
@@ -21036,55 +21036,55 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E219" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="F219" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="G219">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219">
         <v>0</v>
       </c>
       <c r="J219">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K219" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L219">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="M219">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N219">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="O219">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="P219">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q219">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="R219">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S219">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T219">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U219">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V219">
         <v>1.8</v>
@@ -21093,25 +21093,25 @@
         <v>2</v>
       </c>
       <c r="X219">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y219">
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB219">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC219">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD219">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:30">
@@ -21680,7 +21680,7 @@
         <v>45332.58333333334</v>
       </c>
       <c r="E226" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F226" t="s">
         <v>179</v>
@@ -23523,7 +23523,7 @@
         <v>73</v>
       </c>
       <c r="F246" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G246">
         <v>1</v>
@@ -23707,7 +23707,7 @@
         <v>120</v>
       </c>
       <c r="F248" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G248">
         <v>3</v>
@@ -23980,7 +23980,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="E251" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F251" t="s">
         <v>93</v>
@@ -25271,7 +25271,7 @@
         <v>55</v>
       </c>
       <c r="F265" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G265">
         <v>2</v>
@@ -26547,7 +26547,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7966812</v>
+        <v>7965561</v>
       </c>
       <c r="C279" t="s">
         <v>29</v>
@@ -26556,82 +26556,82 @@
         <v>45367.54166666666</v>
       </c>
       <c r="E279" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="F279" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="G279">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K279" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L279">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="M279">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N279">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O279">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P279">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q279">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="R279">
         <v>-0.25</v>
       </c>
       <c r="S279">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T279">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U279">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V279">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W279">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="X279">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z279">
         <v>-1</v>
       </c>
       <c r="AA279">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC279">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD279">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:30">
@@ -26639,7 +26639,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7965561</v>
+        <v>7966812</v>
       </c>
       <c r="C280" t="s">
         <v>29</v>
@@ -26648,82 +26648,82 @@
         <v>45367.54166666666</v>
       </c>
       <c r="E280" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="F280" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="G280">
+        <v>2</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280" t="s">
+        <v>196</v>
+      </c>
+      <c r="L280">
+        <v>2.1</v>
+      </c>
+      <c r="M280">
         <v>3</v>
       </c>
-      <c r="H280">
+      <c r="N280">
+        <v>3.25</v>
+      </c>
+      <c r="O280">
+        <v>2.1</v>
+      </c>
+      <c r="P280">
         <v>3</v>
       </c>
-      <c r="I280">
-        <v>2</v>
-      </c>
-      <c r="J280">
-        <v>1</v>
-      </c>
-      <c r="K280" t="s">
-        <v>197</v>
-      </c>
-      <c r="L280">
-        <v>1.8</v>
-      </c>
-      <c r="M280">
-        <v>3.4</v>
-      </c>
-      <c r="N280">
-        <v>3.75</v>
-      </c>
-      <c r="O280">
-        <v>2.05</v>
-      </c>
-      <c r="P280">
+      <c r="Q280">
         <v>3.2</v>
-      </c>
-      <c r="Q280">
-        <v>3.1</v>
       </c>
       <c r="R280">
         <v>-0.25</v>
       </c>
       <c r="S280">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T280">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U280">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V280">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W280">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="X280">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y280">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z280">
         <v>-1</v>
       </c>
       <c r="AA280">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB280">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC280">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD280">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="281" spans="1:30">
@@ -26915,7 +26915,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7965563</v>
+        <v>7965566</v>
       </c>
       <c r="C283" t="s">
         <v>29</v>
@@ -26924,82 +26924,82 @@
         <v>45367.58333333334</v>
       </c>
       <c r="E283" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F283" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="G283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H283">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J283">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K283" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L283">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="M283">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N283">
+        <v>3.75</v>
+      </c>
+      <c r="O283">
+        <v>1.75</v>
+      </c>
+      <c r="P283">
+        <v>3.6</v>
+      </c>
+      <c r="Q283">
+        <v>3.75</v>
+      </c>
+      <c r="R283">
+        <v>-0.5</v>
+      </c>
+      <c r="S283">
+        <v>1.8</v>
+      </c>
+      <c r="T283">
+        <v>2</v>
+      </c>
+      <c r="U283">
         <v>2.25</v>
       </c>
-      <c r="O283">
-        <v>2.75</v>
-      </c>
-      <c r="P283">
-        <v>3.25</v>
-      </c>
-      <c r="Q283">
-        <v>2.25</v>
-      </c>
-      <c r="R283">
-        <v>0.25</v>
-      </c>
-      <c r="S283">
-        <v>1.775</v>
-      </c>
-      <c r="T283">
-        <v>2.025</v>
-      </c>
-      <c r="U283">
-        <v>2.5</v>
-      </c>
       <c r="V283">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W283">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X283">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y283">
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA283">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB283">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC283">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD283">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="284" spans="1:30">
@@ -27007,7 +27007,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7965566</v>
+        <v>7965563</v>
       </c>
       <c r="C284" t="s">
         <v>29</v>
@@ -27016,82 +27016,82 @@
         <v>45367.58333333334</v>
       </c>
       <c r="E284" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F284" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="G284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K284" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L284">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="M284">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N284">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O284">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="P284">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q284">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="R284">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S284">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T284">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U284">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V284">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W284">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X284">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y284">
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA284">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB284">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC284">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD284">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:30">
@@ -28304,7 +28304,7 @@
         <v>45374.58333333334</v>
       </c>
       <c r="E298" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F298" t="s">
         <v>70</v>
@@ -28399,7 +28399,7 @@
         <v>82</v>
       </c>
       <c r="F299" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G299">
         <v>2</v>
@@ -28939,7 +28939,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>8002096</v>
+        <v>8002095</v>
       </c>
       <c r="C305" t="s">
         <v>29</v>
@@ -28948,82 +28948,82 @@
         <v>45375.45833333334</v>
       </c>
       <c r="E305" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F305" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="G305">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K305" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L305">
+        <v>2.55</v>
+      </c>
+      <c r="M305">
+        <v>3.3</v>
+      </c>
+      <c r="N305">
         <v>2.375</v>
       </c>
-      <c r="M305">
-        <v>3.1</v>
-      </c>
-      <c r="N305">
-        <v>2.7</v>
-      </c>
       <c r="O305">
+        <v>2.6</v>
+      </c>
+      <c r="P305">
+        <v>3.3</v>
+      </c>
+      <c r="Q305">
         <v>2.375</v>
       </c>
-      <c r="P305">
-        <v>3.1</v>
-      </c>
-      <c r="Q305">
-        <v>2.7</v>
-      </c>
       <c r="R305">
         <v>0</v>
       </c>
       <c r="S305">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T305">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U305">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V305">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W305">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X305">
+        <v>-1</v>
+      </c>
+      <c r="Y305">
+        <v>-1</v>
+      </c>
+      <c r="Z305">
         <v>1.375</v>
       </c>
-      <c r="Y305">
-        <v>-1</v>
-      </c>
-      <c r="Z305">
-        <v>-1</v>
-      </c>
       <c r="AA305">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB305">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC305">
         <v>-1</v>
       </c>
       <c r="AD305">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="306" spans="1:30">
@@ -29031,7 +29031,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>8002095</v>
+        <v>8002096</v>
       </c>
       <c r="C306" t="s">
         <v>29</v>
@@ -29040,82 +29040,82 @@
         <v>45375.45833333334</v>
       </c>
       <c r="E306" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F306" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="G306">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K306" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L306">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="M306">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N306">
+        <v>2.7</v>
+      </c>
+      <c r="O306">
         <v>2.375</v>
       </c>
-      <c r="O306">
-        <v>2.6</v>
-      </c>
       <c r="P306">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q306">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="R306">
         <v>0</v>
       </c>
       <c r="S306">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T306">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U306">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V306">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W306">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X306">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y306">
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA306">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB306">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC306">
         <v>-1</v>
       </c>
       <c r="AD306">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="307" spans="1:30">
@@ -29408,7 +29408,7 @@
         <v>45381.66666666666</v>
       </c>
       <c r="E310" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F310" t="s">
         <v>103</v>
@@ -29776,7 +29776,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E314" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F314" t="s">
         <v>96</v>
@@ -30871,7 +30871,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>8059609</v>
+        <v>8059610</v>
       </c>
       <c r="C326" t="s">
         <v>29</v>
@@ -30880,19 +30880,19 @@
         <v>45389.41666666666</v>
       </c>
       <c r="E326" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="F326" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="G326">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H326">
         <v>0</v>
       </c>
       <c r="I326">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J326">
         <v>0</v>
@@ -30901,43 +30901,43 @@
         <v>196</v>
       </c>
       <c r="L326">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="M326">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N326">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O326">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="P326">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q326">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="R326">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S326">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T326">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U326">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V326">
+        <v>1.95</v>
+      </c>
+      <c r="W326">
         <v>1.85</v>
       </c>
-      <c r="W326">
-        <v>1.95</v>
-      </c>
       <c r="X326">
-        <v>0.909</v>
+        <v>2</v>
       </c>
       <c r="Y326">
         <v>-1</v>
@@ -30946,16 +30946,16 @@
         <v>-1</v>
       </c>
       <c r="AA326">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB326">
         <v>-1</v>
       </c>
       <c r="AC326">
+        <v>-1</v>
+      </c>
+      <c r="AD326">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AD326">
-        <v>-1</v>
       </c>
     </row>
     <row r="327" spans="1:30">
@@ -30963,7 +30963,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>8059610</v>
+        <v>8059609</v>
       </c>
       <c r="C327" t="s">
         <v>29</v>
@@ -30972,19 +30972,19 @@
         <v>45389.41666666666</v>
       </c>
       <c r="E327" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="F327" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="G327">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H327">
         <v>0</v>
       </c>
       <c r="I327">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J327">
         <v>0</v>
@@ -30993,43 +30993,43 @@
         <v>196</v>
       </c>
       <c r="L327">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="M327">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N327">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O327">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="P327">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q327">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="R327">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S327">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T327">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U327">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V327">
+        <v>1.85</v>
+      </c>
+      <c r="W327">
         <v>1.95</v>
       </c>
-      <c r="W327">
-        <v>1.85</v>
-      </c>
       <c r="X327">
-        <v>2</v>
+        <v>0.909</v>
       </c>
       <c r="Y327">
         <v>-1</v>
@@ -31038,16 +31038,16 @@
         <v>-1</v>
       </c>
       <c r="AA327">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB327">
         <v>-1</v>
       </c>
       <c r="AC327">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD327">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="328" spans="1:30">
@@ -31527,7 +31527,7 @@
         <v>58</v>
       </c>
       <c r="F333" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G333">
         <v>1</v>
@@ -31803,7 +31803,7 @@
         <v>52</v>
       </c>
       <c r="F336" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G336">
         <v>0</v>
@@ -32260,7 +32260,7 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E341" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F341" t="s">
         <v>72</v>
@@ -32343,7 +32343,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>8117258</v>
+        <v>8117181</v>
       </c>
       <c r="C342" t="s">
         <v>29</v>
@@ -32352,82 +32352,82 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E342" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="F342" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="G342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K342" t="s">
         <v>197</v>
       </c>
       <c r="L342">
+        <v>1.909</v>
+      </c>
+      <c r="M342">
         <v>3.2</v>
       </c>
-      <c r="M342">
-        <v>3.1</v>
-      </c>
       <c r="N342">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O342">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="P342">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q342">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="R342">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S342">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T342">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U342">
         <v>2.25</v>
       </c>
       <c r="V342">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W342">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X342">
         <v>-1</v>
       </c>
       <c r="Y342">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Z342">
         <v>-1</v>
       </c>
       <c r="AA342">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB342">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC342">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD342">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343" spans="1:30">
@@ -32435,7 +32435,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>8117181</v>
+        <v>8117258</v>
       </c>
       <c r="C343" t="s">
         <v>29</v>
@@ -32444,82 +32444,82 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E343" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="F343" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G343">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J343">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K343" t="s">
         <v>197</v>
       </c>
       <c r="L343">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="M343">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N343">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O343">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="P343">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q343">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="R343">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S343">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T343">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U343">
         <v>2.25</v>
       </c>
       <c r="V343">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W343">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X343">
         <v>-1</v>
       </c>
       <c r="Y343">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Z343">
         <v>-1</v>
       </c>
       <c r="AA343">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB343">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC343">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD343">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="344" spans="1:30">
@@ -32527,7 +32527,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>8117260</v>
+        <v>8117183</v>
       </c>
       <c r="C344" t="s">
         <v>29</v>
@@ -32536,13 +32536,13 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E344" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F344" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="G344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H344">
         <v>2</v>
@@ -32551,47 +32551,47 @@
         <v>0</v>
       </c>
       <c r="J344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K344" t="s">
         <v>195</v>
       </c>
       <c r="L344">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="M344">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N344">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O344">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="P344">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q344">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="R344">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S344">
+        <v>1.925</v>
+      </c>
+      <c r="T344">
         <v>1.875</v>
       </c>
-      <c r="T344">
+      <c r="U344">
+        <v>2.5</v>
+      </c>
+      <c r="V344">
+        <v>1.875</v>
+      </c>
+      <c r="W344">
         <v>1.925</v>
       </c>
-      <c r="U344">
-        <v>2.75</v>
-      </c>
-      <c r="V344">
-        <v>1.825</v>
-      </c>
-      <c r="W344">
-        <v>1.975</v>
-      </c>
       <c r="X344">
         <v>-1</v>
       </c>
@@ -32599,19 +32599,19 @@
         <v>-1</v>
       </c>
       <c r="Z344">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="AA344">
         <v>-1</v>
       </c>
       <c r="AB344">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC344">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD344">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345" spans="1:30">
@@ -32619,7 +32619,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>8117183</v>
+        <v>8117312</v>
       </c>
       <c r="C345" t="s">
         <v>29</v>
@@ -32628,82 +32628,82 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E345" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F345" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="G345">
         <v>1</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345">
         <v>0</v>
       </c>
       <c r="J345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K345" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L345">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="M345">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N345">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="O345">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="P345">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q345">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="R345">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S345">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T345">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U345">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V345">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W345">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z345">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA345">
         <v>-1</v>
       </c>
       <c r="AB345">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC345">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD345">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="346" spans="1:30">
@@ -32711,7 +32711,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>8117312</v>
+        <v>8117260</v>
       </c>
       <c r="C346" t="s">
         <v>29</v>
@@ -32720,16 +32720,16 @@
         <v>45402.54166666666</v>
       </c>
       <c r="E346" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F346" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="G346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346">
         <v>0</v>
@@ -32738,34 +32738,34 @@
         <v>1</v>
       </c>
       <c r="K346" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L346">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="M346">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N346">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="O346">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="P346">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q346">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="R346">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S346">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T346">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U346">
         <v>2.75</v>
@@ -32780,16 +32780,16 @@
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA346">
         <v>-1</v>
       </c>
       <c r="AB346">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC346">
         <v>-1</v>
@@ -32907,7 +32907,7 @@
         <v>42</v>
       </c>
       <c r="F348" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G348">
         <v>3</v>
@@ -34367,7 +34367,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>8143888</v>
+        <v>8143908</v>
       </c>
       <c r="C364" t="s">
         <v>29</v>
@@ -34376,79 +34376,79 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E364" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="F364" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="G364">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I364">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J364">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K364" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L364">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="M364">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="N364">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="O364">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="P364">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q364">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="R364">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S364">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T364">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U364">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V364">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W364">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X364">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y364">
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA364">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB364">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC364">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AD364">
         <v>-1</v>
@@ -34459,7 +34459,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>8143908</v>
+        <v>8143909</v>
       </c>
       <c r="C365" t="s">
         <v>29</v>
@@ -34468,82 +34468,82 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E365" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F365" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G365">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H365">
+        <v>0</v>
+      </c>
+      <c r="I365">
+        <v>2</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365" t="s">
+        <v>196</v>
+      </c>
+      <c r="L365">
+        <v>1.333</v>
+      </c>
+      <c r="M365">
+        <v>5</v>
+      </c>
+      <c r="N365">
+        <v>6</v>
+      </c>
+      <c r="O365">
+        <v>1.363</v>
+      </c>
+      <c r="P365">
+        <v>5</v>
+      </c>
+      <c r="Q365">
+        <v>5.5</v>
+      </c>
+      <c r="R365">
+        <v>-1.5</v>
+      </c>
+      <c r="S365">
+        <v>1.975</v>
+      </c>
+      <c r="T365">
+        <v>1.825</v>
+      </c>
+      <c r="U365">
         <v>3</v>
       </c>
-      <c r="I365">
-        <v>0</v>
-      </c>
-      <c r="J365">
-        <v>2</v>
-      </c>
-      <c r="K365" t="s">
-        <v>195</v>
-      </c>
-      <c r="L365">
-        <v>1.571</v>
-      </c>
-      <c r="M365">
-        <v>3.75</v>
-      </c>
-      <c r="N365">
-        <v>4.75</v>
-      </c>
-      <c r="O365">
-        <v>1.571</v>
-      </c>
-      <c r="P365">
-        <v>3.75</v>
-      </c>
-      <c r="Q365">
-        <v>4.75</v>
-      </c>
-      <c r="R365">
-        <v>-1</v>
-      </c>
-      <c r="S365">
-        <v>2</v>
-      </c>
-      <c r="T365">
-        <v>1.8</v>
-      </c>
-      <c r="U365">
-        <v>2.5</v>
-      </c>
       <c r="V365">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W365">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X365">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y365">
         <v>-1</v>
       </c>
       <c r="Z365">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA365">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB365">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC365">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD365">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:30">
@@ -34551,7 +34551,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>8143909</v>
+        <v>8143888</v>
       </c>
       <c r="C366" t="s">
         <v>29</v>
@@ -34560,16 +34560,16 @@
         <v>45409.54166666666</v>
       </c>
       <c r="E366" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="F366" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="G366">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I366">
         <v>2</v>
@@ -34581,43 +34581,43 @@
         <v>196</v>
       </c>
       <c r="L366">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="M366">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N366">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O366">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="P366">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q366">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="R366">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S366">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T366">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U366">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V366">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W366">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X366">
-        <v>0.363</v>
+        <v>1.05</v>
       </c>
       <c r="Y366">
         <v>-1</v>
@@ -34626,16 +34626,16 @@
         <v>-1</v>
       </c>
       <c r="AA366">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB366">
         <v>-1</v>
       </c>
       <c r="AC366">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD366">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367" spans="1:30">
@@ -35471,7 +35471,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>8198869</v>
+        <v>8198870</v>
       </c>
       <c r="C376" t="s">
         <v>29</v>
@@ -35480,16 +35480,16 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E376" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="F376" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="G376">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I376">
         <v>1</v>
@@ -35501,43 +35501,43 @@
         <v>196</v>
       </c>
       <c r="L376">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="M376">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N376">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O376">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="P376">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q376">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="R376">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S376">
+        <v>1.875</v>
+      </c>
+      <c r="T376">
+        <v>1.925</v>
+      </c>
+      <c r="U376">
+        <v>2.25</v>
+      </c>
+      <c r="V376">
         <v>1.85</v>
       </c>
-      <c r="T376">
+      <c r="W376">
         <v>1.95</v>
       </c>
-      <c r="U376">
-        <v>3</v>
-      </c>
-      <c r="V376">
-        <v>2</v>
-      </c>
-      <c r="W376">
-        <v>1.8</v>
-      </c>
       <c r="X376">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="Y376">
         <v>-1</v>
@@ -35546,16 +35546,16 @@
         <v>-1</v>
       </c>
       <c r="AA376">
+        <v>0.875</v>
+      </c>
+      <c r="AB376">
+        <v>-1</v>
+      </c>
+      <c r="AC376">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB376">
-        <v>-1</v>
-      </c>
-      <c r="AC376">
-        <v>-1</v>
-      </c>
       <c r="AD376">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="377" spans="1:30">
@@ -35563,7 +35563,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>8198873</v>
+        <v>8198727</v>
       </c>
       <c r="C377" t="s">
         <v>29</v>
@@ -35572,82 +35572,82 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E377" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="F377" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="G377">
         <v>2</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I377">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K377" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L377">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="M377">
         <v>3.75</v>
       </c>
       <c r="N377">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O377">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="P377">
         <v>3.8</v>
       </c>
       <c r="Q377">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="R377">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S377">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T377">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U377">
         <v>3.25</v>
       </c>
       <c r="V377">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W377">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X377">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y377">
         <v>-1</v>
       </c>
       <c r="Z377">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="AA377">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB377">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC377">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD377">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="378" spans="1:30">
@@ -35655,7 +35655,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>8198727</v>
+        <v>8198873</v>
       </c>
       <c r="C378" t="s">
         <v>29</v>
@@ -35664,82 +35664,82 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E378" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="F378" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="G378">
         <v>2</v>
       </c>
       <c r="H378">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I378">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J378">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K378" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L378">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="M378">
         <v>3.75</v>
       </c>
       <c r="N378">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O378">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="P378">
         <v>3.8</v>
       </c>
       <c r="Q378">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="R378">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S378">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T378">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U378">
         <v>3.25</v>
       </c>
       <c r="V378">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W378">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X378">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y378">
         <v>-1</v>
       </c>
       <c r="Z378">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="AA378">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB378">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC378">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD378">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="379" spans="1:30">
@@ -35747,7 +35747,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>8198870</v>
+        <v>8198869</v>
       </c>
       <c r="C379" t="s">
         <v>29</v>
@@ -35756,16 +35756,16 @@
         <v>45423.54166666666</v>
       </c>
       <c r="E379" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="F379" t="s">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="G379">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379">
         <v>1</v>
@@ -35777,43 +35777,43 @@
         <v>196</v>
       </c>
       <c r="L379">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="M379">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N379">
+        <v>3.4</v>
+      </c>
+      <c r="O379">
+        <v>1.8</v>
+      </c>
+      <c r="P379">
+        <v>3.75</v>
+      </c>
+      <c r="Q379">
+        <v>3.4</v>
+      </c>
+      <c r="R379">
+        <v>-0.5</v>
+      </c>
+      <c r="S379">
+        <v>1.85</v>
+      </c>
+      <c r="T379">
+        <v>1.95</v>
+      </c>
+      <c r="U379">
         <v>3</v>
       </c>
-      <c r="O379">
-        <v>2.1</v>
-      </c>
-      <c r="P379">
-        <v>3.25</v>
-      </c>
-      <c r="Q379">
-        <v>3</v>
-      </c>
-      <c r="R379">
-        <v>-0.25</v>
-      </c>
-      <c r="S379">
-        <v>1.875</v>
-      </c>
-      <c r="T379">
-        <v>1.925</v>
-      </c>
-      <c r="U379">
-        <v>2.25</v>
-      </c>
       <c r="V379">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W379">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X379">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="Y379">
         <v>-1</v>
@@ -35822,16 +35822,16 @@
         <v>-1</v>
       </c>
       <c r="AA379">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB379">
         <v>-1</v>
       </c>
       <c r="AC379">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD379">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="380" spans="1:30">
@@ -36219,7 +36219,7 @@
         <v>45</v>
       </c>
       <c r="F384" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G384">
         <v>3</v>
@@ -37311,7 +37311,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>8225207</v>
+        <v>8225154</v>
       </c>
       <c r="C396" t="s">
         <v>29</v>
@@ -37320,79 +37320,79 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E396" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F396" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="G396">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J396">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K396" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L396">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="M396">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N396">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O396">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="P396">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q396">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="R396">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S396">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T396">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U396">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V396">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W396">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X396">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y396">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z396">
         <v>-1</v>
       </c>
       <c r="AA396">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB396">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC396">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD396">
         <v>-1</v>
@@ -37403,7 +37403,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>8225205</v>
+        <v>8225207</v>
       </c>
       <c r="C397" t="s">
         <v>29</v>
@@ -37412,13 +37412,13 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E397" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F397" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="G397">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H397">
         <v>0</v>
@@ -37433,25 +37433,25 @@
         <v>196</v>
       </c>
       <c r="L397">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="M397">
         <v>3.6</v>
       </c>
       <c r="N397">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O397">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="P397">
         <v>3.6</v>
       </c>
       <c r="Q397">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="R397">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S397">
         <v>1.85</v>
@@ -37460,16 +37460,16 @@
         <v>1.95</v>
       </c>
       <c r="U397">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V397">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W397">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X397">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="Y397">
         <v>-1</v>
@@ -37484,10 +37484,10 @@
         <v>-1</v>
       </c>
       <c r="AC397">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD397">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398" spans="1:30">
@@ -37495,7 +37495,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>8225073</v>
+        <v>8225205</v>
       </c>
       <c r="C398" t="s">
         <v>29</v>
@@ -37504,52 +37504,52 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E398" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F398" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="G398">
         <v>2</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J398">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K398" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L398">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="M398">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N398">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="O398">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="P398">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q398">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="R398">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S398">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T398">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U398">
         <v>2.75</v>
@@ -37561,25 +37561,25 @@
         <v>1.875</v>
       </c>
       <c r="X398">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y398">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z398">
         <v>-1</v>
       </c>
       <c r="AA398">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB398">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC398">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD398">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="399" spans="1:30">
@@ -37587,7 +37587,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>8225154</v>
+        <v>8225078</v>
       </c>
       <c r="C399" t="s">
         <v>29</v>
@@ -37596,10 +37596,10 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E399" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="F399" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G399">
         <v>2</v>
@@ -37608,67 +37608,67 @@
         <v>2</v>
       </c>
       <c r="I399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J399">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K399" t="s">
         <v>197</v>
       </c>
       <c r="L399">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="M399">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N399">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="O399">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="P399">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q399">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="R399">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S399">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T399">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U399">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V399">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W399">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X399">
         <v>-1</v>
       </c>
       <c r="Y399">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Z399">
         <v>-1</v>
       </c>
       <c r="AA399">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="AB399">
-        <v>-0.5</v>
+        <v>0.4125</v>
       </c>
       <c r="AC399">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD399">
         <v>-1</v>
@@ -37679,7 +37679,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>8225078</v>
+        <v>8225076</v>
       </c>
       <c r="C400" t="s">
         <v>29</v>
@@ -37688,10 +37688,10 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E400" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F400" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="G400">
         <v>2</v>
@@ -37700,28 +37700,28 @@
         <v>2</v>
       </c>
       <c r="I400">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J400">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K400" t="s">
         <v>197</v>
       </c>
       <c r="L400">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="M400">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N400">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="O400">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P400">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q400">
         <v>2.625</v>
@@ -37730,25 +37730,25 @@
         <v>-0.25</v>
       </c>
       <c r="S400">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T400">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U400">
         <v>3</v>
       </c>
       <c r="V400">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W400">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X400">
         <v>-1</v>
       </c>
       <c r="Y400">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Z400">
         <v>-1</v>
@@ -37757,10 +37757,10 @@
         <v>-0.5</v>
       </c>
       <c r="AB400">
-        <v>0.4125</v>
+        <v>0.3875</v>
       </c>
       <c r="AC400">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AD400">
         <v>-1</v>
@@ -37771,7 +37771,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>8225077</v>
+        <v>8225075</v>
       </c>
       <c r="C401" t="s">
         <v>29</v>
@@ -37780,46 +37780,46 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E401" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="F401" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H401">
         <v>1</v>
       </c>
       <c r="I401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J401">
         <v>0</v>
       </c>
       <c r="K401" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L401">
-        <v>2.75</v>
+        <v>1.975</v>
       </c>
       <c r="M401">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N401">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O401">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="P401">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q401">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="R401">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S401">
         <v>1.8</v>
@@ -37834,28 +37834,28 @@
         <v>1.925</v>
       </c>
       <c r="W401">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="X401">
         <v>-1</v>
       </c>
       <c r="Y401">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z401">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA401">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB401">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AC401">
         <v>-1</v>
       </c>
       <c r="AD401">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="402" spans="1:30">
@@ -37955,7 +37955,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>8225076</v>
+        <v>8225073</v>
       </c>
       <c r="C403" t="s">
         <v>29</v>
@@ -37964,10 +37964,10 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E403" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="F403" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="G403">
         <v>2</v>
@@ -37976,7 +37976,7 @@
         <v>2</v>
       </c>
       <c r="I403">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J403">
         <v>2</v>
@@ -37985,40 +37985,40 @@
         <v>197</v>
       </c>
       <c r="L403">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M403">
         <v>3.5</v>
       </c>
       <c r="N403">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="O403">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="P403">
         <v>3.5</v>
       </c>
       <c r="Q403">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="R403">
         <v>-0.25</v>
       </c>
       <c r="S403">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T403">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U403">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V403">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W403">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X403">
         <v>-1</v>
@@ -38033,10 +38033,10 @@
         <v>-0.5</v>
       </c>
       <c r="AB403">
-        <v>0.3875</v>
+        <v>0.5</v>
       </c>
       <c r="AC403">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AD403">
         <v>-1</v>
@@ -38047,7 +38047,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>8225075</v>
+        <v>8225077</v>
       </c>
       <c r="C404" t="s">
         <v>29</v>
@@ -38056,46 +38056,46 @@
         <v>45430.54166666666</v>
       </c>
       <c r="E404" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="F404" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H404">
         <v>1</v>
       </c>
       <c r="I404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J404">
         <v>0</v>
       </c>
       <c r="K404" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L404">
-        <v>1.975</v>
+        <v>2.75</v>
       </c>
       <c r="M404">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N404">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O404">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="P404">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q404">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="R404">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S404">
         <v>1.8</v>
@@ -38110,28 +38110,28 @@
         <v>1.925</v>
       </c>
       <c r="W404">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="X404">
         <v>-1</v>
       </c>
       <c r="Y404">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z404">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA404">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB404">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC404">
         <v>-1</v>
       </c>
       <c r="AD404">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/France National 3/France National 3.xlsx
+++ b/France National 3/France National 3.xlsx
@@ -112,10 +112,10 @@
     <t>Troyes II</t>
   </si>
   <si>
-    <t>Vitre</t>
+    <t>Maubeuge</t>
   </si>
   <si>
-    <t>Maubeuge</t>
+    <t>Vitre</t>
   </si>
   <si>
     <t>OnetleChateau</t>
@@ -127,10 +127,10 @@
     <t>US Castanet</t>
   </si>
   <si>
-    <t>US LegeCapFerret</t>
+    <t>Montpellier II</t>
   </si>
   <si>
-    <t>Montpellier II</t>
+    <t>US LegeCapFerret</t>
   </si>
   <si>
     <t>CMS Oissel</t>
@@ -145,10 +145,10 @@
     <t>Stade Bordelais</t>
   </si>
   <si>
-    <t>Lyon Duchere</t>
+    <t>Lyon II</t>
   </si>
   <si>
-    <t>Lyon II</t>
+    <t>Lyon Duchere</t>
   </si>
   <si>
     <t>Bordeaux II</t>
@@ -163,10 +163,10 @@
     <t>Lille II</t>
   </si>
   <si>
-    <t>Saint Priest</t>
+    <t>Union Cosnoise</t>
   </si>
   <si>
-    <t>Union Cosnoise</t>
+    <t>Saint Priest</t>
   </si>
   <si>
     <t>AS PrixlesMezieres</t>
@@ -313,10 +313,10 @@
     <t>Pontivy GSI</t>
   </si>
   <si>
-    <t>Neuilly Sur Marne</t>
+    <t>Croix IC</t>
   </si>
   <si>
-    <t>Croix IC</t>
+    <t>Neuilly Sur Marne</t>
   </si>
   <si>
     <t>Drancy</t>
@@ -352,10 +352,10 @@
     <t>Raon lEtape</t>
   </si>
   <si>
-    <t>Dieppe</t>
+    <t>Sainte Genevieve Sports</t>
   </si>
   <si>
-    <t>Sainte Genevieve Sports</t>
+    <t>Dieppe</t>
   </si>
   <si>
     <t>Chambery</t>
@@ -433,10 +433,10 @@
     <t>Rodez II</t>
   </si>
   <si>
-    <t>Anglet Genets</t>
+    <t>Toulouse II</t>
   </si>
   <si>
-    <t>Toulouse II</t>
+    <t>Anglet Genets</t>
   </si>
   <si>
     <t>ES Gueretoise</t>
@@ -451,10 +451,10 @@
     <t>US Vimy</t>
   </si>
   <si>
-    <t>Espaly</t>
+    <t>LouhansCuiseaux</t>
   </si>
   <si>
-    <t>LouhansCuiseaux</t>
+    <t>Espaly</t>
   </si>
   <si>
     <t>Aviron Bayonnais</t>
@@ -496,10 +496,10 @@
     <t>Olympique de Valence</t>
   </si>
   <si>
-    <t>USC Cortenais</t>
+    <t>Les Mureaux</t>
   </si>
   <si>
-    <t>Les Mureaux</t>
+    <t>USC Cortenais</t>
   </si>
   <si>
     <t>Chatellerault</t>
@@ -559,10 +559,10 @@
     <t>Union Cosnoise Sportive</t>
   </si>
   <si>
-    <t>SaintPaulSport</t>
+    <t>CA Pontarlier</t>
   </si>
   <si>
-    <t>CA Pontarlier</t>
+    <t>SaintPaulSport</t>
   </si>
   <si>
     <t>Niort II</t>
@@ -1253,7 +1253,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6727693</v>
+        <v>6727692</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -1265,43 +1265,43 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>195</v>
+      </c>
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>196</v>
-      </c>
-      <c r="L4">
-        <v>1.95</v>
-      </c>
       <c r="M4">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="N4">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q4">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S4">
         <v>2</v>
@@ -1310,7 +1310,7 @@
         <v>1.8</v>
       </c>
       <c r="U4">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V4">
         <v>1.9</v>
@@ -1319,19 +1319,19 @@
         <v>1.9</v>
       </c>
       <c r="X4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
         <v>0.8999999999999999</v>
@@ -1345,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6727692</v>
+        <v>6727693</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -1357,43 +1357,43 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>3</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="M5">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="P5">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="R5">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S5">
         <v>2</v>
@@ -1402,7 +1402,7 @@
         <v>1.8</v>
       </c>
       <c r="U5">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V5">
         <v>1.9</v>
@@ -1411,19 +1411,19 @@
         <v>1.9</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
         <v>0.8999999999999999</v>
@@ -1713,7 +1713,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6727653</v>
+        <v>6727690</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -1728,40 +1728,40 @@
         <v>139</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="s">
         <v>195</v>
       </c>
       <c r="L9">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O9">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q9">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S9">
         <v>1.9</v>
@@ -1770,13 +1770,13 @@
         <v>1.9</v>
       </c>
       <c r="U9">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V9">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1785,7 +1785,7 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>1.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA9">
         <v>-1</v>
@@ -1794,7 +1794,7 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AC9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <v>-1</v>
@@ -1805,7 +1805,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6727690</v>
+        <v>6727653</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1820,40 +1820,40 @@
         <v>140</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="s">
         <v>195</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="M10">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N10">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="P10">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q10">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="R10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>1.9</v>
@@ -1862,13 +1862,13 @@
         <v>1.9</v>
       </c>
       <c r="U10">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W10">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1877,7 +1877,7 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8500000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="AA10">
         <v>-1</v>
@@ -1886,7 +1886,7 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AD10">
         <v>-1</v>
@@ -2265,7 +2265,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7122318</v>
+        <v>7122319</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -2277,13 +2277,13 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2295,31 +2295,31 @@
         <v>196</v>
       </c>
       <c r="L15">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="M15">
         <v>3.1</v>
       </c>
       <c r="N15">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="O15">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="P15">
         <v>3.1</v>
       </c>
       <c r="Q15">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="R15">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S15">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T15">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U15">
         <v>2.5</v>
@@ -2331,7 +2331,7 @@
         <v>1.95</v>
       </c>
       <c r="X15">
-        <v>0.909</v>
+        <v>1.25</v>
       </c>
       <c r="Y15">
         <v>-1</v>
@@ -2340,16 +2340,16 @@
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD15">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -2357,7 +2357,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7122319</v>
+        <v>7122318</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -2369,13 +2369,13 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -2387,31 +2387,31 @@
         <v>196</v>
       </c>
       <c r="L16">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="M16">
         <v>3.1</v>
       </c>
       <c r="N16">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="O16">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="P16">
         <v>3.1</v>
       </c>
       <c r="Q16">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="R16">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T16">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="U16">
         <v>2.5</v>
@@ -2423,7 +2423,7 @@
         <v>1.95</v>
       </c>
       <c r="X16">
-        <v>1.25</v>
+        <v>0.909</v>
       </c>
       <c r="Y16">
         <v>-1</v>
@@ -2432,16 +2432,16 @@
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB16">
         <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -2461,7 +2461,7 @@
         <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -2826,7 +2826,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
         <v>65</v>
@@ -2909,7 +2909,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7152842</v>
+        <v>7152841</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2924,76 +2924,76 @@
         <v>145</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L22">
-        <v>1.285</v>
+        <v>3.2</v>
       </c>
       <c r="M22">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N22">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O22">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="P22">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="R22">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T22">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="U22">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V22">
+        <v>1.875</v>
+      </c>
+      <c r="W22">
         <v>1.925</v>
       </c>
-      <c r="W22">
-        <v>1.875</v>
-      </c>
       <c r="X22">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC22">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AD22">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -3001,7 +3001,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7152841</v>
+        <v>7152842</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -3016,76 +3016,76 @@
         <v>146</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L23">
-        <v>3.2</v>
+        <v>1.285</v>
       </c>
       <c r="M23">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O23">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="P23">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q23">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="S23">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="U23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V23">
+        <v>1.925</v>
+      </c>
+      <c r="W23">
         <v>1.875</v>
       </c>
-      <c r="W23">
-        <v>1.925</v>
-      </c>
       <c r="X23">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AD23">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -4117,7 +4117,7 @@
         <v>60</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -4298,7 +4298,7 @@
         <v>45178.54166666666</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
         <v>106</v>
@@ -4945,7 +4945,7 @@
         <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -5405,7 +5405,7 @@
         <v>47</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -5862,10 +5862,10 @@
         <v>45196.625</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -6230,10 +6230,10 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -6322,7 +6322,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="E59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F59" t="s">
         <v>157</v>
@@ -6773,7 +6773,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7366018</v>
+        <v>7366035</v>
       </c>
       <c r="C64" t="s">
         <v>29</v>
@@ -6782,82 +6782,82 @@
         <v>45220.41666666666</v>
       </c>
       <c r="E64" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L64">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="M64">
         <v>3</v>
       </c>
       <c r="N64">
+        <v>2.2</v>
+      </c>
+      <c r="O64">
+        <v>2.375</v>
+      </c>
+      <c r="P64">
         <v>3</v>
       </c>
-      <c r="O64">
-        <v>2.5</v>
-      </c>
-      <c r="P64">
-        <v>3.1</v>
-      </c>
       <c r="Q64">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="R64">
         <v>0</v>
       </c>
       <c r="S64">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T64">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="U64">
         <v>2.25</v>
       </c>
       <c r="V64">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W64">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z64">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB64">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD64">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="65" spans="1:30">
@@ -6865,7 +6865,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7366035</v>
+        <v>7366032</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
@@ -6874,82 +6874,82 @@
         <v>45220.41666666666</v>
       </c>
       <c r="E65" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L65">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M65">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N65">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O65">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="P65">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q65">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S65">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T65">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="U65">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W65">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y65">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD65">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -6957,7 +6957,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7366032</v>
+        <v>7366018</v>
       </c>
       <c r="C66" t="s">
         <v>29</v>
@@ -6966,46 +6966,46 @@
         <v>45220.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F66" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L66">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="M66">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N66">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="O66">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="P66">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q66">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="R66">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S66">
         <v>1.85</v>
@@ -7014,7 +7014,7 @@
         <v>1.95</v>
       </c>
       <c r="U66">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V66">
         <v>1.85</v>
@@ -7023,19 +7023,19 @@
         <v>1.95</v>
       </c>
       <c r="X66">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="AA66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC66">
         <v>0.8500000000000001</v>
@@ -7613,7 +7613,7 @@
         <v>67</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -7702,7 +7702,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F74" t="s">
         <v>94</v>
@@ -7794,7 +7794,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="E75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F75" t="s">
         <v>158</v>
@@ -7981,7 +7981,7 @@
         <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -8073,7 +8073,7 @@
         <v>78</v>
       </c>
       <c r="F78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -8153,7 +8153,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7370961</v>
+        <v>7370962</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
@@ -8162,82 +8162,82 @@
         <v>45221.41666666666</v>
       </c>
       <c r="E79" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="F79" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="K79" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L79">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="M79">
         <v>3.2</v>
       </c>
       <c r="N79">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="O79">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="P79">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q79">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="R79">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S79">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U79">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V79">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB79">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD79">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:30">
@@ -8245,7 +8245,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7370962</v>
+        <v>7370961</v>
       </c>
       <c r="C80" t="s">
         <v>29</v>
@@ -8254,82 +8254,82 @@
         <v>45221.41666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="F80" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L80">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="M80">
         <v>3.2</v>
       </c>
       <c r="N80">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="O80">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="P80">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q80">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="R80">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S80">
+        <v>1.975</v>
+      </c>
+      <c r="T80">
+        <v>1.825</v>
+      </c>
+      <c r="U80">
+        <v>2.25</v>
+      </c>
+      <c r="V80">
         <v>1.875</v>
       </c>
-      <c r="T80">
+      <c r="W80">
         <v>1.925</v>
       </c>
-      <c r="U80">
-        <v>2.5</v>
-      </c>
-      <c r="V80">
-        <v>2</v>
-      </c>
-      <c r="W80">
-        <v>1.8</v>
-      </c>
       <c r="X80">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC80">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD80">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="81" spans="1:30">
@@ -8429,7 +8429,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7427059</v>
+        <v>7431141</v>
       </c>
       <c r="C82" t="s">
         <v>29</v>
@@ -8438,13 +8438,13 @@
         <v>45234.45833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F82" t="s">
         <v>160</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -8456,64 +8456,64 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L82">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="M82">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N82">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="O82">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="P82">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q82">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="R82">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S82">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T82">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U82">
         <v>2.25</v>
       </c>
       <c r="V82">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X82">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD82">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:30">
@@ -8521,7 +8521,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7431141</v>
+        <v>7427134</v>
       </c>
       <c r="C83" t="s">
         <v>29</v>
@@ -8530,82 +8530,82 @@
         <v>45234.45833333334</v>
       </c>
       <c r="E83" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F83" t="s">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L83">
         <v>2.4</v>
       </c>
       <c r="M83">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N83">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="O83">
         <v>2.4</v>
       </c>
       <c r="P83">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q83">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R83">
         <v>0</v>
       </c>
       <c r="S83">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T83">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U83">
         <v>2.25</v>
       </c>
       <c r="V83">
+        <v>1.95</v>
+      </c>
+      <c r="W83">
         <v>1.85</v>
       </c>
-      <c r="W83">
-        <v>1.95</v>
-      </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="AA83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:30">
@@ -8613,7 +8613,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>7427134</v>
+        <v>7427059</v>
       </c>
       <c r="C84" t="s">
         <v>29</v>
@@ -8622,82 +8622,82 @@
         <v>45234.45833333334</v>
       </c>
       <c r="E84" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F84" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L84">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="M84">
+        <v>3.1</v>
+      </c>
+      <c r="N84">
+        <v>3.5</v>
+      </c>
+      <c r="O84">
+        <v>1.909</v>
+      </c>
+      <c r="P84">
+        <v>3.5</v>
+      </c>
+      <c r="Q84">
         <v>3.4</v>
       </c>
-      <c r="N84">
-        <v>2.5</v>
-      </c>
-      <c r="O84">
-        <v>2.4</v>
-      </c>
-      <c r="P84">
-        <v>3.4</v>
-      </c>
-      <c r="Q84">
-        <v>2.5</v>
-      </c>
       <c r="R84">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S84">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T84">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U84">
         <v>2.25</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W84">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AD84">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="85" spans="1:30">
@@ -8898,7 +8898,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F87" t="s">
         <v>89</v>
@@ -9726,7 +9726,7 @@
         <v>45241.39583333334</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
         <v>155</v>
@@ -9821,7 +9821,7 @@
         <v>86</v>
       </c>
       <c r="F97" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -10189,7 +10189,7 @@
         <v>87</v>
       </c>
       <c r="F101" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -10373,7 +10373,7 @@
         <v>89</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -10465,7 +10465,7 @@
         <v>57</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -11198,7 +11198,7 @@
         <v>45254.66666666666</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F112" t="s">
         <v>154</v>
@@ -11385,7 +11385,7 @@
         <v>94</v>
       </c>
       <c r="F114" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -11937,7 +11937,7 @@
         <v>96</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -12201,7 +12201,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7515962</v>
+        <v>7519748</v>
       </c>
       <c r="C123" t="s">
         <v>29</v>
@@ -12210,10 +12210,10 @@
         <v>45255.58333333334</v>
       </c>
       <c r="E123" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F123" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -12231,61 +12231,61 @@
         <v>197</v>
       </c>
       <c r="L123">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="M123">
         <v>3.1</v>
       </c>
       <c r="N123">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="O123">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="P123">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q123">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="R123">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S123">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T123">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="U123">
         <v>2.5</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W123">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB123">
-        <v>0.9750000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AC123">
         <v>-1</v>
       </c>
       <c r="AD123">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:30">
@@ -12293,7 +12293,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7519748</v>
+        <v>7515952</v>
       </c>
       <c r="C124" t="s">
         <v>29</v>
@@ -12302,16 +12302,16 @@
         <v>45255.58333333334</v>
       </c>
       <c r="E124" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="F124" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -12323,40 +12323,40 @@
         <v>197</v>
       </c>
       <c r="L124">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="M124">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N124">
         <v>2.8</v>
       </c>
       <c r="O124">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="P124">
         <v>3.1</v>
       </c>
       <c r="Q124">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="R124">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S124">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T124">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="U124">
         <v>2.5</v>
       </c>
       <c r="V124">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -12368,16 +12368,16 @@
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AC124">
         <v>-1</v>
       </c>
       <c r="AD124">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:30">
@@ -12385,7 +12385,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7515952</v>
+        <v>7515962</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -12394,16 +12394,16 @@
         <v>45255.58333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F125" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -12415,46 +12415,46 @@
         <v>197</v>
       </c>
       <c r="L125">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M125">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N125">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="O125">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="P125">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q125">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="R125">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S125">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="U125">
         <v>2.5</v>
       </c>
       <c r="V125">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Z125">
         <v>-1</v>
@@ -12463,13 +12463,13 @@
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC125">
         <v>-1</v>
       </c>
       <c r="AD125">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:30">
@@ -12581,7 +12581,7 @@
         <v>55</v>
       </c>
       <c r="F127" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -13222,7 +13222,7 @@
         <v>45262.58333333334</v>
       </c>
       <c r="E134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F134" t="s">
         <v>106</v>
@@ -13498,7 +13498,7 @@
         <v>45262.66666666666</v>
       </c>
       <c r="E137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F137" t="s">
         <v>80</v>
@@ -13949,7 +13949,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7569711</v>
+        <v>7568839</v>
       </c>
       <c r="C142" t="s">
         <v>29</v>
@@ -13958,10 +13958,10 @@
         <v>45269.4375</v>
       </c>
       <c r="E142" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F142" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -13970,7 +13970,7 @@
         <v>1</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -13979,25 +13979,25 @@
         <v>196</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="M142">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N142">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="P142">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q142">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="R142">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S142">
         <v>1.85</v>
@@ -14006,16 +14006,16 @@
         <v>1.95</v>
       </c>
       <c r="U142">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V142">
         <v>1.925</v>
       </c>
       <c r="W142">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="X142">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
@@ -14030,10 +14030,10 @@
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AD142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:30">
@@ -14041,7 +14041,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7568838</v>
+        <v>7569711</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -14050,82 +14050,82 @@
         <v>45269.4375</v>
       </c>
       <c r="E143" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F143" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L143">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N143">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O143">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q143">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="R143">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V143">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y143">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB143">
+        <v>-1</v>
+      </c>
+      <c r="AC143">
+        <v>0.4625</v>
+      </c>
+      <c r="AD143">
         <v>-0.5</v>
-      </c>
-      <c r="AB143">
-        <v>0.35</v>
-      </c>
-      <c r="AC143">
-        <v>0</v>
-      </c>
-      <c r="AD143">
-        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -14133,7 +14133,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7568839</v>
+        <v>7568838</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -14145,79 +14145,79 @@
         <v>100</v>
       </c>
       <c r="F144" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144">
         <v>1</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K144" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L144">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="M144">
         <v>3</v>
       </c>
       <c r="N144">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="O144">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="P144">
         <v>3</v>
       </c>
       <c r="Q144">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="R144">
         <v>-0.25</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T144">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="U144">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="W144">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X144">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AC144">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AD144">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:30">
@@ -14317,7 +14317,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7568688</v>
+        <v>7568689</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -14326,82 +14326,82 @@
         <v>45269.58333333334</v>
       </c>
       <c r="E146" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="F146" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146">
         <v>0</v>
       </c>
       <c r="J146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K146" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L146">
-        <v>1.533</v>
+        <v>7</v>
       </c>
       <c r="M146">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="N146">
+        <v>1.25</v>
+      </c>
+      <c r="O146">
+        <v>7</v>
+      </c>
+      <c r="P146">
+        <v>6</v>
+      </c>
+      <c r="Q146">
+        <v>1.25</v>
+      </c>
+      <c r="R146">
+        <v>1.75</v>
+      </c>
+      <c r="S146">
+        <v>1.9</v>
+      </c>
+      <c r="T146">
+        <v>1.9</v>
+      </c>
+      <c r="U146">
+        <v>3.25</v>
+      </c>
+      <c r="V146">
+        <v>2</v>
+      </c>
+      <c r="W146">
+        <v>1.8</v>
+      </c>
+      <c r="X146">
+        <v>-1</v>
+      </c>
+      <c r="Y146">
         <v>5</v>
       </c>
-      <c r="O146">
-        <v>1.533</v>
-      </c>
-      <c r="P146">
-        <v>3.8</v>
-      </c>
-      <c r="Q146">
-        <v>5</v>
-      </c>
-      <c r="R146">
-        <v>-1</v>
-      </c>
-      <c r="S146">
-        <v>1.875</v>
-      </c>
-      <c r="T146">
-        <v>1.925</v>
-      </c>
-      <c r="U146">
-        <v>3</v>
-      </c>
-      <c r="V146">
-        <v>1.75</v>
-      </c>
-      <c r="W146">
-        <v>2.05</v>
-      </c>
-      <c r="X146">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Y146">
-        <v>-1</v>
-      </c>
       <c r="Z146">
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB146">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD146">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:30">
@@ -14409,7 +14409,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7568689</v>
+        <v>7568688</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -14418,82 +14418,82 @@
         <v>45269.58333333334</v>
       </c>
       <c r="E147" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="F147" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="G147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K147" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L147">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="M147">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="N147">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="O147">
-        <v>7</v>
+        <v>1.533</v>
       </c>
       <c r="P147">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q147">
-        <v>1.25</v>
+        <v>5</v>
       </c>
       <c r="R147">
+        <v>-1</v>
+      </c>
+      <c r="S147">
+        <v>1.875</v>
+      </c>
+      <c r="T147">
+        <v>1.925</v>
+      </c>
+      <c r="U147">
+        <v>3</v>
+      </c>
+      <c r="V147">
         <v>1.75</v>
       </c>
-      <c r="S147">
-        <v>1.9</v>
-      </c>
-      <c r="T147">
-        <v>1.9</v>
-      </c>
-      <c r="U147">
-        <v>3.25</v>
-      </c>
-      <c r="V147">
-        <v>2</v>
-      </c>
       <c r="W147">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y147">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC147">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD147">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="148" spans="1:30">
@@ -14697,7 +14697,7 @@
         <v>54</v>
       </c>
       <c r="F150" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -15145,7 +15145,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7594771</v>
+        <v>7594772</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
@@ -15157,49 +15157,49 @@
         <v>43</v>
       </c>
       <c r="F155" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="G155">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155">
         <v>1</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L155">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="M155">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N155">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O155">
-        <v>1.615</v>
+        <v>1.4</v>
       </c>
       <c r="P155">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q155">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="R155">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S155">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T155">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U155">
         <v>2.25</v>
@@ -15211,19 +15211,19 @@
         <v>1.875</v>
       </c>
       <c r="X155">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC155">
         <v>0.925</v>
@@ -15237,7 +15237,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7594772</v>
+        <v>7594771</v>
       </c>
       <c r="C156" t="s">
         <v>29</v>
@@ -15249,49 +15249,49 @@
         <v>44</v>
       </c>
       <c r="F156" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="G156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>1</v>
       </c>
       <c r="J156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L156">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="M156">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N156">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O156">
-        <v>1.4</v>
+        <v>1.615</v>
       </c>
       <c r="P156">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q156">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="R156">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S156">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T156">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U156">
         <v>2.25</v>
@@ -15303,19 +15303,19 @@
         <v>1.875</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y156">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
         <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB156">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
         <v>0.925</v>
@@ -15801,7 +15801,7 @@
         <v>73</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -15893,7 +15893,7 @@
         <v>90</v>
       </c>
       <c r="F163" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -16626,7 +16626,7 @@
         <v>45297.625</v>
       </c>
       <c r="E171" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F171" t="s">
         <v>156</v>
@@ -16718,7 +16718,7 @@
         <v>45304.4375</v>
       </c>
       <c r="E172" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F172" t="s">
         <v>71</v>
@@ -16902,7 +16902,7 @@
         <v>45304.54166666666</v>
       </c>
       <c r="E174" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F174" t="s">
         <v>104</v>
@@ -16994,7 +16994,7 @@
         <v>45304.54166666666</v>
       </c>
       <c r="E175" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F175" t="s">
         <v>151</v>
@@ -17169,7 +17169,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7690705</v>
+        <v>7690739</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -17178,7 +17178,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F177" t="s">
         <v>181</v>
@@ -17187,73 +17187,73 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177">
         <v>0</v>
       </c>
       <c r="K177" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L177">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="M177">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N177">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="O177">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="P177">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q177">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="R177">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S177">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T177">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U177">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X177">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB177">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD177">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -17261,7 +17261,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7690739</v>
+        <v>7690705</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
@@ -17270,7 +17270,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E178" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F178" t="s">
         <v>182</v>
@@ -17279,73 +17279,73 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178">
         <v>0</v>
       </c>
       <c r="K178" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L178">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="M178">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N178">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="O178">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="P178">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q178">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="R178">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S178">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T178">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U178">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V178">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W178">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X178">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y178">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.4625</v>
+        <v>0.8</v>
       </c>
       <c r="AC178">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD178">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="179" spans="1:30">
@@ -17362,7 +17362,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F179" t="s">
         <v>78</v>
@@ -18009,7 +18009,7 @@
         <v>65</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -18561,7 +18561,7 @@
         <v>64</v>
       </c>
       <c r="F192" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -19021,7 +19021,7 @@
         <v>92</v>
       </c>
       <c r="F197" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -19202,10 +19202,10 @@
         <v>45318.5</v>
       </c>
       <c r="E199" t="s">
+        <v>44</v>
+      </c>
+      <c r="F199" t="s">
         <v>43</v>
-      </c>
-      <c r="F199" t="s">
-        <v>44</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -19935,7 +19935,7 @@
         <v>104</v>
       </c>
       <c r="F207" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -20107,7 +20107,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7779756</v>
+        <v>7779989</v>
       </c>
       <c r="C209" t="s">
         <v>29</v>
@@ -20116,10 +20116,10 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E209" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="F209" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -20137,40 +20137,40 @@
         <v>195</v>
       </c>
       <c r="L209">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="M209">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N209">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O209">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="P209">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q209">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="R209">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S209">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T209">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U209">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V209">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W209">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -20179,19 +20179,19 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC209">
         <v>-1</v>
       </c>
       <c r="AD209">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:30">
@@ -20199,7 +20199,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7779989</v>
+        <v>7779988</v>
       </c>
       <c r="C210" t="s">
         <v>29</v>
@@ -20208,82 +20208,82 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E210" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F210" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="G210">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210">
         <v>0</v>
       </c>
       <c r="K210" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L210">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="M210">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N210">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O210">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="P210">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q210">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="R210">
         <v>-0.5</v>
       </c>
       <c r="S210">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T210">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U210">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="V210">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W210">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB210">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD210">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:30">
@@ -20291,7 +20291,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7779988</v>
+        <v>7779990</v>
       </c>
       <c r="C211" t="s">
         <v>29</v>
@@ -20300,19 +20300,19 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E211" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="F211" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G211">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H211">
         <v>0</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211">
         <v>0</v>
@@ -20321,43 +20321,43 @@
         <v>196</v>
       </c>
       <c r="L211">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="M211">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N211">
+        <v>5.25</v>
+      </c>
+      <c r="O211">
+        <v>1.571</v>
+      </c>
+      <c r="P211">
         <v>3.5</v>
       </c>
-      <c r="O211">
-        <v>1.909</v>
-      </c>
-      <c r="P211">
-        <v>3.3</v>
-      </c>
       <c r="Q211">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="R211">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S211">
+        <v>1.725</v>
+      </c>
+      <c r="T211">
         <v>1.975</v>
-      </c>
-      <c r="T211">
-        <v>1.825</v>
       </c>
       <c r="U211">
         <v>2.25</v>
       </c>
       <c r="V211">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W211">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X211">
-        <v>0.909</v>
+        <v>0.571</v>
       </c>
       <c r="Y211">
         <v>-1</v>
@@ -20366,16 +20366,16 @@
         <v>-1</v>
       </c>
       <c r="AA211">
-        <v>0.9750000000000001</v>
+        <v>0.3625</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC211">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD211">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:30">
@@ -20395,7 +20395,7 @@
         <v>106</v>
       </c>
       <c r="F212" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -20475,7 +20475,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7779754</v>
+        <v>7779755</v>
       </c>
       <c r="C213" t="s">
         <v>29</v>
@@ -20484,82 +20484,82 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E213" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="F213" t="s">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="G213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H213">
         <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213">
         <v>1</v>
       </c>
       <c r="K213" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L213">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="M213">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="N213">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="O213">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="P213">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q213">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="R213">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="S213">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T213">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U213">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V213">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W213">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X213">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB213">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD213">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="214" spans="1:30">
@@ -20567,7 +20567,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7779755</v>
+        <v>7779756</v>
       </c>
       <c r="C214" t="s">
         <v>29</v>
@@ -20576,82 +20576,82 @@
         <v>45325.58333333334</v>
       </c>
       <c r="E214" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="F214" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
         <v>1</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K214" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L214">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="M214">
         <v>3.2</v>
       </c>
       <c r="N214">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O214">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="P214">
         <v>3.2</v>
       </c>
       <c r="Q214">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="R214">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S214">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T214">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U214">
         <v>2.5</v>
       </c>
       <c r="V214">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W214">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X214">
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA214">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC214">
         <v>-1</v>
       </c>
       <c r="AD214">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r